--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D156FFE-8033-F64B-8F40-08A5539A7506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F250F499-AAA1-2243-BBC6-A99D59972F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="460" windowWidth="11900" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="1520" yWindow="480" windowWidth="11900" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2134" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M1771"/>
+  <dimension ref="A1:M1801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D869" sqref="D869"/>
+    <sheetView tabSelected="1" topLeftCell="A1757" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I1771" sqref="I1771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30813,6 +30813,10 @@
       <c r="E1677" s="2">
         <v>2143</v>
       </c>
+      <c r="F1677" s="2">
+        <f>SUM(D1677-D1647)</f>
+        <v>1808</v>
+      </c>
       <c r="I1677" s="2">
         <v>1736894</v>
       </c>
@@ -30828,6 +30832,10 @@
       <c r="E1678" s="2">
         <v>290</v>
       </c>
+      <c r="F1678" s="2">
+        <f t="shared" ref="F1678:F1741" si="56">SUM(D1678-D1648)</f>
+        <v>85</v>
+      </c>
     </row>
     <row r="1679" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1679" s="3"/>
@@ -30840,6 +30848,10 @@
       <c r="E1679" s="2">
         <v>314</v>
       </c>
+      <c r="F1679" s="2">
+        <f t="shared" si="56"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="1680" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1680" s="3" t="s">
@@ -30851,6 +30863,10 @@
       <c r="E1680" s="2">
         <v>140</v>
       </c>
+      <c r="F1680" s="2">
+        <f t="shared" si="56"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="1681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1681" s="3" t="s">
@@ -30862,6 +30878,10 @@
       <c r="E1681" s="2">
         <v>131</v>
       </c>
+      <c r="F1681" s="2">
+        <f t="shared" si="56"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="1682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1682" s="1">
@@ -30878,6 +30898,10 @@
       </c>
       <c r="E1682" s="2">
         <v>3909</v>
+      </c>
+      <c r="F1682" s="2">
+        <f t="shared" si="56"/>
+        <v>165</v>
       </c>
       <c r="I1682" s="2">
         <v>1811544</v>
@@ -30894,6 +30918,10 @@
       <c r="E1683" s="2">
         <v>4392</v>
       </c>
+      <c r="F1683" s="2">
+        <f t="shared" si="56"/>
+        <v>219</v>
+      </c>
     </row>
     <row r="1684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1684" s="3"/>
@@ -30906,6 +30934,10 @@
       <c r="E1684" s="2">
         <v>2604</v>
       </c>
+      <c r="F1684" s="2">
+        <f t="shared" si="56"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="1685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1685" s="3"/>
@@ -30918,6 +30950,10 @@
       <c r="E1685" s="2">
         <v>2943</v>
       </c>
+      <c r="F1685" s="2">
+        <f t="shared" si="56"/>
+        <v>139</v>
+      </c>
     </row>
     <row r="1686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1686" s="3"/>
@@ -30930,6 +30966,10 @@
       <c r="E1686" s="2">
         <v>1910</v>
       </c>
+      <c r="F1686" s="2">
+        <f t="shared" si="56"/>
+        <v>59</v>
+      </c>
     </row>
     <row r="1687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1687" s="3" t="s">
@@ -30943,6 +30983,10 @@
       </c>
       <c r="E1687" s="2">
         <v>1547</v>
+      </c>
+      <c r="F1687" s="2">
+        <f t="shared" si="56"/>
+        <v>60</v>
       </c>
       <c r="I1687" s="2">
         <v>660325</v>
@@ -30959,6 +31003,10 @@
       <c r="E1688" s="2">
         <v>1158</v>
       </c>
+      <c r="F1688" s="2">
+        <f t="shared" si="56"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="1689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1689" s="3"/>
@@ -30971,6 +31019,10 @@
       <c r="E1689" s="2">
         <v>1624</v>
       </c>
+      <c r="F1689" s="2">
+        <f t="shared" si="56"/>
+        <v>83</v>
+      </c>
     </row>
     <row r="1690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1690" s="3"/>
@@ -30983,6 +31035,10 @@
       <c r="E1690" s="2">
         <v>1042</v>
       </c>
+      <c r="F1690" s="2">
+        <f t="shared" si="56"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="1691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1691" s="3"/>
@@ -30995,6 +31051,10 @@
       <c r="E1691" s="2">
         <v>899</v>
       </c>
+      <c r="F1691" s="2">
+        <f t="shared" si="56"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="1692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1692" s="3" t="s">
@@ -31008,6 +31068,10 @@
       </c>
       <c r="E1692" s="2">
         <v>850</v>
+      </c>
+      <c r="F1692" s="2">
+        <f t="shared" si="56"/>
+        <v>63</v>
       </c>
       <c r="I1692" s="2">
         <v>522144</v>
@@ -31024,6 +31088,10 @@
       <c r="E1693" s="2">
         <v>1549</v>
       </c>
+      <c r="F1693" s="2">
+        <f t="shared" si="56"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="1694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1694" s="3"/>
@@ -31036,6 +31104,10 @@
       <c r="E1694" s="2">
         <v>878</v>
       </c>
+      <c r="F1694" s="2">
+        <f t="shared" si="56"/>
+        <v>108</v>
+      </c>
     </row>
     <row r="1695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1695" s="3"/>
@@ -31048,6 +31120,10 @@
       <c r="E1695" s="2">
         <v>794</v>
       </c>
+      <c r="F1695" s="2">
+        <f t="shared" si="56"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="1696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1696" s="3"/>
@@ -31060,6 +31136,10 @@
       <c r="E1696" s="2">
         <v>716</v>
       </c>
+      <c r="F1696" s="2">
+        <f t="shared" si="56"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="1697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1697" s="3" t="s">
@@ -31073,6 +31153,10 @@
       </c>
       <c r="E1697" s="2">
         <v>2406</v>
+      </c>
+      <c r="F1697" s="2">
+        <f t="shared" si="56"/>
+        <v>73</v>
       </c>
       <c r="I1697" s="2">
         <f>SUM(55608+438644)</f>
@@ -31090,6 +31174,10 @@
       <c r="E1698" s="2">
         <v>961</v>
       </c>
+      <c r="F1698" s="2">
+        <f t="shared" si="56"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="1699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1699" s="3"/>
@@ -31102,6 +31190,10 @@
       <c r="E1699" s="2">
         <v>784</v>
       </c>
+      <c r="F1699" s="2">
+        <f t="shared" si="56"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="1700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1700" s="3"/>
@@ -31114,6 +31206,10 @@
       <c r="E1700" s="2">
         <v>247</v>
       </c>
+      <c r="F1700" s="2">
+        <f t="shared" si="56"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="1701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1701" s="3"/>
@@ -31126,6 +31222,10 @@
       <c r="E1701" s="2">
         <v>97</v>
       </c>
+      <c r="F1701" s="2">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="1702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1702" s="3" t="s">
@@ -31139,6 +31239,10 @@
       </c>
       <c r="E1702" s="2">
         <v>1262</v>
+      </c>
+      <c r="F1702" s="2">
+        <f t="shared" si="56"/>
+        <v>242</v>
       </c>
       <c r="I1702" s="2">
         <f>SUM(69417+349990)</f>
@@ -31156,6 +31260,10 @@
       <c r="E1703" s="2">
         <v>662</v>
       </c>
+      <c r="F1703" s="2">
+        <f t="shared" si="56"/>
+        <v>140</v>
+      </c>
     </row>
     <row r="1704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1704" s="3"/>
@@ -31168,6 +31276,10 @@
       <c r="E1704" s="2">
         <v>536</v>
       </c>
+      <c r="F1704" s="2">
+        <f t="shared" si="56"/>
+        <v>46</v>
+      </c>
     </row>
     <row r="1705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1705" s="3"/>
@@ -31180,6 +31292,10 @@
       <c r="E1705" s="2">
         <v>215</v>
       </c>
+      <c r="F1705" s="2">
+        <f t="shared" si="56"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="1706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1706" s="3"/>
@@ -31192,6 +31308,10 @@
       <c r="E1706" s="2">
         <v>301</v>
       </c>
+      <c r="F1706" s="2">
+        <f t="shared" si="56"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="1707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1707" s="3" t="s">
@@ -31205,6 +31325,10 @@
       </c>
       <c r="E1707" s="2">
         <v>2195</v>
+      </c>
+      <c r="F1707" s="2">
+        <f t="shared" si="56"/>
+        <v>951</v>
       </c>
       <c r="I1707" s="2">
         <v>1790559</v>
@@ -31221,6 +31345,10 @@
       <c r="E1708" s="2">
         <v>297</v>
       </c>
+      <c r="F1708" s="2">
+        <f t="shared" si="56"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="1709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1709" s="3"/>
@@ -31233,6 +31361,10 @@
       <c r="E1709" s="2">
         <v>320</v>
       </c>
+      <c r="F1709" s="2">
+        <f t="shared" si="56"/>
+        <v>239</v>
+      </c>
     </row>
     <row r="1710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1710" s="3" t="s">
@@ -31244,6 +31376,10 @@
       <c r="E1710" s="2">
         <v>141</v>
       </c>
+      <c r="F1710" s="2">
+        <f t="shared" si="56"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="1711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1711" s="3" t="s">
@@ -31255,6 +31391,10 @@
       <c r="E1711" s="2">
         <v>136</v>
       </c>
+      <c r="F1711" s="2">
+        <f t="shared" si="56"/>
+        <v>198</v>
+      </c>
     </row>
     <row r="1712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1712" s="1">
@@ -31271,6 +31411,10 @@
       </c>
       <c r="E1712" s="2">
         <v>3918</v>
+      </c>
+      <c r="F1712" s="2">
+        <f t="shared" si="56"/>
+        <v>275</v>
       </c>
       <c r="I1712" s="2">
         <v>1876789</v>
@@ -31287,6 +31431,10 @@
       <c r="E1713" s="2">
         <v>4398</v>
       </c>
+      <c r="F1713" s="2">
+        <f t="shared" si="56"/>
+        <v>368</v>
+      </c>
     </row>
     <row r="1714" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1714" s="3"/>
@@ -31299,6 +31447,10 @@
       <c r="E1714" s="2">
         <v>2608</v>
       </c>
+      <c r="F1714" s="2">
+        <f t="shared" si="56"/>
+        <v>106</v>
+      </c>
     </row>
     <row r="1715" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1715" s="3"/>
@@ -31311,6 +31463,10 @@
       <c r="E1715" s="2">
         <v>2947</v>
       </c>
+      <c r="F1715" s="2">
+        <f t="shared" si="56"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="1716" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1716" s="3"/>
@@ -31323,6 +31479,10 @@
       <c r="E1716" s="2">
         <v>1920</v>
       </c>
+      <c r="F1716" s="2">
+        <f t="shared" si="56"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="1717" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1717" s="3" t="s">
@@ -31336,6 +31496,10 @@
       </c>
       <c r="E1717" s="2">
         <v>1553</v>
+      </c>
+      <c r="F1717" s="2">
+        <f t="shared" si="56"/>
+        <v>135</v>
       </c>
       <c r="I1717" s="2">
         <v>685857</v>
@@ -31352,6 +31516,10 @@
       <c r="E1718" s="2">
         <v>1161</v>
       </c>
+      <c r="F1718" s="2">
+        <f t="shared" si="56"/>
+        <v>94</v>
+      </c>
     </row>
     <row r="1719" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1719" s="3"/>
@@ -31364,6 +31532,10 @@
       <c r="E1719" s="2">
         <v>1628</v>
       </c>
+      <c r="F1719" s="2">
+        <f t="shared" si="56"/>
+        <v>112</v>
+      </c>
     </row>
     <row r="1720" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1720" s="3"/>
@@ -31376,6 +31548,10 @@
       <c r="E1720" s="2">
         <v>1047</v>
       </c>
+      <c r="F1720" s="2">
+        <f t="shared" si="56"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="1721" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1721" s="3"/>
@@ -31388,6 +31564,10 @@
       <c r="E1721" s="2">
         <v>903</v>
       </c>
+      <c r="F1721" s="2">
+        <f t="shared" si="56"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="1722" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1722" s="3" t="s">
@@ -31401,6 +31581,10 @@
       </c>
       <c r="E1722" s="2">
         <v>895</v>
+      </c>
+      <c r="F1722" s="2">
+        <f t="shared" si="56"/>
+        <v>102</v>
       </c>
       <c r="I1722" s="2">
         <v>562323</v>
@@ -31417,6 +31601,10 @@
       <c r="E1723" s="2">
         <v>1564</v>
       </c>
+      <c r="F1723" s="2">
+        <f t="shared" si="56"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="1724" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1724" s="3"/>
@@ -31429,6 +31617,10 @@
       <c r="E1724" s="2">
         <v>895</v>
       </c>
+      <c r="F1724" s="2">
+        <f t="shared" si="56"/>
+        <v>121</v>
+      </c>
     </row>
     <row r="1725" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1725" s="3"/>
@@ -31441,6 +31633,10 @@
       <c r="E1725" s="2">
         <v>799</v>
       </c>
+      <c r="F1725" s="2">
+        <f t="shared" si="56"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="1726" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1726" s="3"/>
@@ -31453,6 +31649,10 @@
       <c r="E1726" s="2">
         <v>738</v>
       </c>
+      <c r="F1726" s="2">
+        <f t="shared" si="56"/>
+        <v>66</v>
+      </c>
     </row>
     <row r="1727" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1727" s="3" t="s">
@@ -31466,6 +31666,10 @@
       </c>
       <c r="E1727" s="2">
         <v>2410</v>
+      </c>
+      <c r="F1727" s="2">
+        <f t="shared" si="56"/>
+        <v>60</v>
       </c>
       <c r="I1727" s="2">
         <f>SUM(55014+448444)</f>
@@ -31483,6 +31687,10 @@
       <c r="E1728" s="2">
         <v>971</v>
       </c>
+      <c r="F1728" s="2">
+        <f t="shared" si="56"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="1729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1729" s="3"/>
@@ -31495,6 +31703,10 @@
       <c r="E1729" s="2">
         <v>787</v>
       </c>
+      <c r="F1729" s="2">
+        <f t="shared" si="56"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="1730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1730" s="3"/>
@@ -31507,6 +31719,10 @@
       <c r="E1730" s="2">
         <v>249</v>
       </c>
+      <c r="F1730" s="2">
+        <f t="shared" si="56"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="1731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1731" s="3"/>
@@ -31519,6 +31735,10 @@
       <c r="E1731" s="2">
         <v>100</v>
       </c>
+      <c r="F1731" s="2">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="1732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1732" s="3" t="s">
@@ -31532,6 +31752,10 @@
       </c>
       <c r="E1732" s="2">
         <v>1282</v>
+      </c>
+      <c r="F1732" s="2">
+        <f t="shared" si="56"/>
+        <v>133</v>
       </c>
       <c r="I1732" s="2">
         <f>SUM(70042+357804)</f>
@@ -31549,6 +31773,10 @@
       <c r="E1733" s="2">
         <v>675</v>
       </c>
+      <c r="F1733" s="2">
+        <f t="shared" si="56"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="1734" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1734" s="3"/>
@@ -31561,6 +31789,10 @@
       <c r="E1734" s="2">
         <v>544</v>
       </c>
+      <c r="F1734" s="2">
+        <f t="shared" si="56"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="1735" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1735" s="3"/>
@@ -31573,6 +31805,10 @@
       <c r="E1735" s="2">
         <v>218</v>
       </c>
+      <c r="F1735" s="2">
+        <f t="shared" si="56"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="1736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1736" s="3"/>
@@ -31580,10 +31816,14 @@
         <v>41</v>
       </c>
       <c r="D1736" s="2">
-        <v>3873</v>
+        <v>3973</v>
       </c>
       <c r="E1736" s="2">
         <v>308</v>
+      </c>
+      <c r="F1736" s="2">
+        <f t="shared" si="56"/>
+        <v>21</v>
       </c>
     </row>
     <row r="1737" spans="1:9" x14ac:dyDescent="0.2">
@@ -31598,6 +31838,10 @@
       </c>
       <c r="E1737" s="2">
         <v>2241</v>
+      </c>
+      <c r="F1737" s="2">
+        <f t="shared" si="56"/>
+        <v>1150</v>
       </c>
       <c r="I1737" s="2">
         <v>1835478</v>
@@ -31614,6 +31858,10 @@
       <c r="E1738" s="2">
         <v>307</v>
       </c>
+      <c r="F1738" s="2">
+        <f t="shared" si="56"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="1739" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1739" s="3"/>
@@ -31626,6 +31874,10 @@
       <c r="E1739" s="2">
         <v>331</v>
       </c>
+      <c r="F1739" s="2">
+        <f t="shared" si="56"/>
+        <v>84</v>
+      </c>
     </row>
     <row r="1740" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1740" s="3" t="s">
@@ -31637,6 +31889,10 @@
       <c r="E1740" s="2">
         <v>141</v>
       </c>
+      <c r="F1740" s="2">
+        <f t="shared" si="56"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="1741" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1741" s="3" t="s">
@@ -31648,6 +31904,10 @@
       <c r="E1741" s="2">
         <v>142</v>
       </c>
+      <c r="F1741" s="2">
+        <f t="shared" si="56"/>
+        <v>196</v>
+      </c>
     </row>
     <row r="1742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1742" s="1">
@@ -31664,6 +31924,10 @@
       </c>
       <c r="E1742" s="2">
         <v>3918</v>
+      </c>
+      <c r="F1742" s="2">
+        <f t="shared" ref="F1742:F1801" si="57">SUM(D1742-D1712)</f>
+        <v>244</v>
       </c>
       <c r="I1742" s="2">
         <v>1944130</v>
@@ -31680,6 +31944,10 @@
       <c r="E1743" s="2">
         <v>4405</v>
       </c>
+      <c r="F1743" s="2">
+        <f t="shared" si="57"/>
+        <v>299</v>
+      </c>
     </row>
     <row r="1744" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1744" s="3"/>
@@ -31692,6 +31960,10 @@
       <c r="E1744" s="2">
         <v>2611</v>
       </c>
+      <c r="F1744" s="2">
+        <f t="shared" si="57"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="1745" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1745" s="3"/>
@@ -31704,6 +31976,10 @@
       <c r="E1745" s="2">
         <v>2952</v>
       </c>
+      <c r="F1745" s="2">
+        <f t="shared" si="57"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="1746" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1746" s="3"/>
@@ -31711,10 +31987,14 @@
         <v>14</v>
       </c>
       <c r="D1746" s="2">
-        <v>29445</v>
+        <v>39445</v>
       </c>
       <c r="E1746" s="2">
         <v>1928</v>
+      </c>
+      <c r="F1746" s="2">
+        <f t="shared" si="57"/>
+        <v>86</v>
       </c>
     </row>
     <row r="1747" spans="2:9" x14ac:dyDescent="0.2">
@@ -31729,6 +32009,10 @@
       </c>
       <c r="E1747" s="2">
         <v>1567</v>
+      </c>
+      <c r="F1747" s="2">
+        <f t="shared" si="57"/>
+        <v>65</v>
       </c>
       <c r="I1747" s="2">
         <v>716411</v>
@@ -31745,6 +32029,10 @@
       <c r="E1748" s="2">
         <v>1168</v>
       </c>
+      <c r="F1748" s="2">
+        <f t="shared" si="57"/>
+        <v>61</v>
+      </c>
     </row>
     <row r="1749" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1749" s="3"/>
@@ -31757,6 +32045,10 @@
       <c r="E1749" s="2">
         <v>1647</v>
       </c>
+      <c r="F1749" s="2">
+        <f t="shared" si="57"/>
+        <v>96</v>
+      </c>
     </row>
     <row r="1750" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1750" s="3"/>
@@ -31769,6 +32061,10 @@
       <c r="E1750" s="2">
         <v>1060</v>
       </c>
+      <c r="F1750" s="2">
+        <f t="shared" si="57"/>
+        <v>135</v>
+      </c>
     </row>
     <row r="1751" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1751" s="3"/>
@@ -31781,6 +32077,10 @@
       <c r="E1751" s="2">
         <v>917</v>
       </c>
+      <c r="F1751" s="2">
+        <f t="shared" si="57"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="1752" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1752" s="3" t="s">
@@ -31794,6 +32094,10 @@
       </c>
       <c r="E1752" s="2">
         <v>861</v>
+      </c>
+      <c r="F1752" s="2">
+        <f t="shared" si="57"/>
+        <v>88</v>
       </c>
       <c r="I1752" s="2">
         <v>571745</v>
@@ -31810,6 +32114,10 @@
       <c r="E1753" s="2">
         <v>1583</v>
       </c>
+      <c r="F1753" s="2">
+        <f t="shared" si="57"/>
+        <v>115</v>
+      </c>
     </row>
     <row r="1754" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1754" s="3"/>
@@ -31822,6 +32130,10 @@
       <c r="E1754" s="2">
         <v>906</v>
       </c>
+      <c r="F1754" s="2">
+        <f t="shared" si="57"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="1755" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1755" s="3"/>
@@ -31834,6 +32146,10 @@
       <c r="E1755" s="2">
         <v>811</v>
       </c>
+      <c r="F1755" s="2">
+        <f t="shared" si="57"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="1756" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1756" s="3"/>
@@ -31846,6 +32162,10 @@
       <c r="E1756" s="2">
         <v>746</v>
       </c>
+      <c r="F1756" s="2">
+        <f t="shared" si="57"/>
+        <v>103</v>
+      </c>
     </row>
     <row r="1757" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1757" s="3" t="s">
@@ -31859,6 +32179,10 @@
       </c>
       <c r="E1757" s="2">
         <v>2425</v>
+      </c>
+      <c r="F1757" s="2">
+        <f t="shared" si="57"/>
+        <v>168</v>
       </c>
       <c r="I1757" s="2">
         <v>521607</v>
@@ -31875,6 +32199,10 @@
       <c r="E1758" s="2">
         <v>975</v>
       </c>
+      <c r="F1758" s="2">
+        <f t="shared" si="57"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="1759" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1759" s="3"/>
@@ -31887,6 +32215,10 @@
       <c r="E1759" s="2">
         <v>793</v>
       </c>
+      <c r="F1759" s="2">
+        <f t="shared" si="57"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="1760" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1760" s="3"/>
@@ -31899,8 +32231,12 @@
       <c r="E1760" s="2">
         <v>250</v>
       </c>
-    </row>
-    <row r="1761" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F1760" s="2">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1761" s="3"/>
       <c r="C1761" s="3" t="s">
         <v>39</v>
@@ -31911,8 +32247,12 @@
       <c r="E1761" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="1762" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F1761" s="2">
+        <f t="shared" si="57"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1762" s="3" t="s">
         <v>16</v>
       </c>
@@ -31924,13 +32264,17 @@
       </c>
       <c r="E1762" s="2">
         <v>1300</v>
+      </c>
+      <c r="F1762" s="2">
+        <f t="shared" si="57"/>
+        <v>184</v>
       </c>
       <c r="I1762" s="2">
         <f>SUM(70735+366970)</f>
         <v>437705</v>
       </c>
     </row>
-    <row r="1763" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1763" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1763" s="3"/>
       <c r="C1763" s="3" t="s">
         <v>18</v>
@@ -31941,8 +32285,12 @@
       <c r="E1763" s="2">
         <v>677</v>
       </c>
-    </row>
-    <row r="1764" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F1763" s="2">
+        <f t="shared" si="57"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1764" s="3"/>
       <c r="C1764" s="3" t="s">
         <v>19</v>
@@ -31953,8 +32301,12 @@
       <c r="E1764" s="2">
         <v>550</v>
       </c>
-    </row>
-    <row r="1765" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F1764" s="2">
+        <f t="shared" si="57"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1765" s="3"/>
       <c r="C1765" s="3" t="s">
         <v>40</v>
@@ -31965,8 +32317,12 @@
       <c r="E1765" s="2">
         <v>222</v>
       </c>
-    </row>
-    <row r="1766" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F1765" s="2">
+        <f t="shared" si="57"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1766" s="3"/>
       <c r="C1766" s="3" t="s">
         <v>41</v>
@@ -31977,34 +32333,529 @@
       <c r="E1766" s="2">
         <v>311</v>
       </c>
-    </row>
-    <row r="1767" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F1766" s="2">
+        <f t="shared" si="57"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1767" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C1767" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="1768" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D1767" s="2">
+        <v>51578</v>
+      </c>
+      <c r="E1767" s="2">
+        <v>2290</v>
+      </c>
+      <c r="F1767" s="2">
+        <f t="shared" si="57"/>
+        <v>1717</v>
+      </c>
+      <c r="I1767" s="2">
+        <v>1888595</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1768" s="3"/>
       <c r="C1768" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="1769" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D1768" s="2">
+        <v>7242</v>
+      </c>
+      <c r="E1768" s="2">
+        <v>312</v>
+      </c>
+      <c r="F1768" s="2">
+        <f t="shared" si="57"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1769" s="3"/>
       <c r="C1769" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1770" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D1769" s="2">
+        <v>7376</v>
+      </c>
+      <c r="E1769" s="2">
+        <v>339</v>
+      </c>
+      <c r="F1769" s="2">
+        <f t="shared" si="57"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1770" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1771" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D1770" s="2">
+        <v>2707</v>
+      </c>
+      <c r="E1770" s="2">
+        <v>141</v>
+      </c>
+      <c r="F1770" s="2">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1771" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1771" s="2">
+        <v>6176</v>
+      </c>
+      <c r="E1771" s="2">
+        <v>145</v>
+      </c>
+      <c r="F1771" s="2">
+        <f t="shared" si="57"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1772" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B1772" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1772" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1772" s="2">
+        <v>61827</v>
+      </c>
+      <c r="E1772" s="2">
+        <v>3920</v>
+      </c>
+      <c r="F1772" s="2">
+        <f t="shared" si="57"/>
+        <v>183</v>
+      </c>
+      <c r="I1772" s="2">
+        <v>2005381</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1773" s="3"/>
+      <c r="C1773" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1773" s="2">
+        <v>55727</v>
+      </c>
+      <c r="E1773" s="2">
+        <v>4413</v>
+      </c>
+      <c r="F1773" s="2">
+        <f t="shared" si="57"/>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1774" s="3"/>
+      <c r="C1774" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1774" s="2">
+        <v>40307</v>
+      </c>
+      <c r="E1774" s="2">
+        <v>2615</v>
+      </c>
+      <c r="F1774" s="2">
+        <f t="shared" si="57"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1775" s="3"/>
+      <c r="C1775" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1775" s="2">
+        <v>45116</v>
+      </c>
+      <c r="E1775" s="2">
+        <v>2956</v>
+      </c>
+      <c r="F1775" s="2">
+        <f t="shared" si="57"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1776" s="3"/>
+      <c r="C1776" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1776" s="2">
+        <v>39532</v>
+      </c>
+      <c r="E1776" s="2">
+        <v>1941</v>
+      </c>
+      <c r="F1776" s="2">
+        <f t="shared" si="57"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1777" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1777" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1777" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1777" s="2">
+        <v>1573</v>
+      </c>
+      <c r="I1777" s="2">
+        <v>745308</v>
+      </c>
+    </row>
+    <row r="1778" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1778" s="3"/>
+      <c r="C1778" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1778" s="2">
+        <v>18343</v>
+      </c>
+      <c r="E1778" s="2">
+        <v>1173</v>
+      </c>
+      <c r="F1778" s="2">
+        <f t="shared" si="57"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1779" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1779" s="3"/>
+      <c r="C1779" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1779" s="2">
+        <v>17594</v>
+      </c>
+      <c r="E1779" s="2">
+        <v>1657</v>
+      </c>
+      <c r="F1779" s="2">
+        <f t="shared" si="57"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1780" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1780" s="3"/>
+      <c r="C1780" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1781" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1781" s="3"/>
+      <c r="C1781" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1781" s="2">
+        <v>16099</v>
+      </c>
+      <c r="E1781" s="2">
+        <v>925</v>
+      </c>
+      <c r="F1781" s="2">
+        <f t="shared" si="57"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1782" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1782" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1782" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1782" s="2">
+        <v>17873</v>
+      </c>
+      <c r="E1782" s="2">
+        <v>868</v>
+      </c>
+      <c r="F1782" s="2">
+        <f t="shared" si="57"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="1783" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1783" s="3"/>
+      <c r="C1783" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1783" s="2">
+        <v>21124</v>
+      </c>
+      <c r="E1783" s="2">
+        <v>1596</v>
+      </c>
+      <c r="F1783" s="2">
+        <f t="shared" si="57"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="1784" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1784" s="3"/>
+      <c r="C1784" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1784" s="2">
+        <v>14099</v>
+      </c>
+      <c r="E1784" s="2">
+        <v>909</v>
+      </c>
+      <c r="F1784" s="2">
+        <f t="shared" si="57"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1785" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1785" s="3"/>
+      <c r="C1785" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1785" s="2">
+        <v>8016</v>
+      </c>
+      <c r="E1785" s="2">
+        <v>815</v>
+      </c>
+      <c r="F1785" s="2">
+        <f t="shared" si="57"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1786" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1786" s="3"/>
+      <c r="C1786" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1786" s="2">
+        <v>10901</v>
+      </c>
+      <c r="E1786" s="2">
+        <v>753</v>
+      </c>
+      <c r="F1786" s="2">
+        <f t="shared" si="57"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1787" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1787" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1787" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1787" s="2">
+        <f>SUM(10937+9317)</f>
+        <v>20254</v>
+      </c>
+      <c r="E1787" s="2">
+        <f>SUM(1082+1370)</f>
+        <v>2452</v>
+      </c>
+      <c r="F1787" s="2">
+        <f t="shared" si="57"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1788" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1788" s="3"/>
+      <c r="C1788" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1788" s="2">
+        <v>8319</v>
+      </c>
+      <c r="E1788" s="2">
+        <v>983</v>
+      </c>
+      <c r="F1788" s="2">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1789" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1789" s="3"/>
+      <c r="C1789" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1789" s="2">
+        <v>6624</v>
+      </c>
+      <c r="E1789" s="2">
+        <v>802</v>
+      </c>
+      <c r="F1789" s="2">
+        <f t="shared" si="57"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1790" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1790" s="3"/>
+      <c r="C1790" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1790" s="2">
+        <v>2004</v>
+      </c>
+      <c r="E1790" s="2">
+        <v>252</v>
+      </c>
+      <c r="F1790" s="2">
+        <f t="shared" si="57"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1791" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1791" s="3"/>
+      <c r="C1791" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1791" s="2">
+        <v>1331</v>
+      </c>
+      <c r="E1791" s="2">
+        <v>99</v>
+      </c>
+      <c r="F1791" s="2">
+        <f t="shared" si="57"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1792" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1792" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1792" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1792" s="2">
+        <v>18347</v>
+      </c>
+      <c r="E1792" s="2">
+        <v>1308</v>
+      </c>
+      <c r="F1792" s="2">
+        <f t="shared" si="57"/>
+        <v>191</v>
+      </c>
+      <c r="I1792" s="2">
+        <f>SUM(71415+375731)</f>
+        <v>447146</v>
+      </c>
+    </row>
+    <row r="1793" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1793" s="3"/>
+      <c r="C1793" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1793" s="2">
+        <v>7006</v>
+      </c>
+      <c r="E1793" s="2">
+        <v>682</v>
+      </c>
+      <c r="F1793" s="2">
+        <f t="shared" si="57"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1794" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1794" s="3"/>
+      <c r="C1794" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1794" s="2">
+        <v>6420</v>
+      </c>
+      <c r="E1794" s="2">
+        <v>558</v>
+      </c>
+      <c r="F1794" s="2">
+        <f t="shared" si="57"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1795" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1795" s="3"/>
+      <c r="C1795" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1795" s="2">
+        <v>3747</v>
+      </c>
+      <c r="E1795" s="2">
+        <v>228</v>
+      </c>
+      <c r="F1795" s="2">
+        <f t="shared" si="57"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1796" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1796" s="3"/>
+      <c r="C1796" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1796" s="2">
+        <v>4002</v>
+      </c>
+      <c r="E1796" s="2">
+        <v>316</v>
+      </c>
+      <c r="F1796" s="2">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1797" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1797" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1797" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1798" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1798" s="3"/>
+      <c r="C1798" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1799" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B1799" s="3"/>
+      <c r="C1799" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1800" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C1800" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1801" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C1801" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F250F499-AAA1-2243-BBC6-A99D59972F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B6F47-CDA5-E541-9842-435922F6DB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="480" windowWidth="11900" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="11900" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M1801"/>
+  <dimension ref="A1:M1840"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1757" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I1771" sqref="I1771"/>
+    <sheetView tabSelected="1" topLeftCell="A1795" zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K1805" sqref="K1805"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6039,11 +6039,11 @@
       </c>
       <c r="H307" s="2">
         <f t="shared" si="9"/>
-        <v>565070</v>
+        <v>6670</v>
       </c>
       <c r="I307" s="2">
-        <f>SUM(58151+620442)</f>
-        <v>678593</v>
+        <f>SUM(58151+62042)</f>
+        <v>120193</v>
       </c>
       <c r="J307" s="2"/>
     </row>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="H337" s="2">
         <f t="shared" si="9"/>
-        <v>-551858</v>
+        <v>6542</v>
       </c>
       <c r="I337" s="2">
         <f>SUM(61850+64885)</f>
@@ -8947,12 +8947,12 @@
         <v>458</v>
       </c>
       <c r="H467" s="2">
-        <f t="shared" si="13"/>
-        <v>-4411</v>
+        <f>SUM(I467-I437)</f>
+        <v>4589</v>
       </c>
       <c r="I467" s="2">
-        <f>SUM(20263+65023)</f>
-        <v>85286</v>
+        <f>SUM(29263+65023)</f>
+        <v>94286</v>
       </c>
       <c r="J467" t="s">
         <v>32</v>
@@ -9505,8 +9505,8 @@
         <v>231</v>
       </c>
       <c r="H497" s="2">
-        <f t="shared" si="15"/>
-        <v>13673</v>
+        <f>SUM(I497-I467)</f>
+        <v>4673</v>
       </c>
       <c r="I497" s="2">
         <f>SUM(30023+68936)</f>
@@ -11630,6 +11630,14 @@
         <f t="shared" si="18"/>
         <v>343</v>
       </c>
+      <c r="H617" s="2">
+        <f>SUM(I617-I587)</f>
+        <v>3428</v>
+      </c>
+      <c r="I617" s="2">
+        <f>SUM(32967+84259)</f>
+        <v>117226</v>
+      </c>
     </row>
     <row r="618" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B618" s="3"/>
@@ -12159,6 +12167,14 @@
         <f>SUM(D647-D617)</f>
         <v>306</v>
       </c>
+      <c r="H647" s="2">
+        <f>SUM(I647-I617)</f>
+        <v>999</v>
+      </c>
+      <c r="I647" s="2">
+        <f>SUM(33966+84259)</f>
+        <v>118225</v>
+      </c>
     </row>
     <row r="648" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B648" s="3"/>
@@ -12692,7 +12708,7 @@
       </c>
       <c r="H677" s="2">
         <f t="shared" ref="H677:H732" si="21">SUM(I677-I647)</f>
-        <v>128321</v>
+        <v>10096</v>
       </c>
       <c r="I677" s="3">
         <f>SUM(35291+93030)</f>
@@ -19228,9 +19244,13 @@
         <f>SUM(D1047-D1017)</f>
         <v>1572</v>
       </c>
-      <c r="I1047" s="2">
-        <f>SUM(56212+723690)</f>
-        <v>779902</v>
+      <c r="H1047" s="2">
+        <f>SUM(I1047-I1017)</f>
+        <v>29134</v>
+      </c>
+      <c r="I1047">
+        <f>SUM(58815+750221)</f>
+        <v>809036</v>
       </c>
     </row>
     <row r="1048" spans="1:11" x14ac:dyDescent="0.2">
@@ -19721,7 +19741,7 @@
       </c>
       <c r="H1077" s="2">
         <f t="shared" si="34"/>
-        <v>62972</v>
+        <v>33838</v>
       </c>
       <c r="I1077" s="2">
         <v>842874</v>
@@ -30589,7 +30609,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1665" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1665" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1665" s="3"/>
       <c r="C1665" s="3" t="s">
         <v>33</v>
@@ -30605,7 +30625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1666" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1666" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1666" s="3"/>
       <c r="C1666" s="3" t="s">
         <v>34</v>
@@ -30621,7 +30641,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1667" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1667" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1667" s="3" t="s">
         <v>23</v>
       </c>
@@ -30646,7 +30666,7 @@
         <v>484279</v>
       </c>
     </row>
-    <row r="1668" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1668" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1668" s="3"/>
       <c r="C1668" s="3" t="s">
         <v>25</v>
@@ -30662,7 +30682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1669" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1669" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1669" s="3"/>
       <c r="C1669" s="3" t="s">
         <v>28</v>
@@ -30678,7 +30698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1670" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1670" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1670" s="3"/>
       <c r="C1670" s="3" t="s">
         <v>38</v>
@@ -30694,7 +30714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1671" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1671" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1671" s="3"/>
       <c r="C1671" s="3" t="s">
         <v>39</v>
@@ -30710,7 +30730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1672" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1672" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1672" s="3" t="s">
         <v>16</v>
       </c>
@@ -30736,7 +30756,7 @@
         <v>408472</v>
       </c>
     </row>
-    <row r="1673" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1673" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1673" s="3"/>
       <c r="C1673" s="3" t="s">
         <v>18</v>
@@ -30752,7 +30772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1674" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1674" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1674" s="3"/>
       <c r="C1674" s="3" t="s">
         <v>19</v>
@@ -30768,7 +30788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1675" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1675" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1675" s="3"/>
       <c r="C1675" s="3" t="s">
         <v>40</v>
@@ -30784,7 +30804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="1676" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1676" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1676" s="3"/>
       <c r="C1676" s="3" t="s">
         <v>41</v>
@@ -30800,7 +30820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1677" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1677" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1677" s="3" t="s">
         <v>20</v>
       </c>
@@ -30817,11 +30837,16 @@
         <f>SUM(D1677-D1647)</f>
         <v>1808</v>
       </c>
+      <c r="H1677" s="2">
+        <f>SUM(I1677-I1647)</f>
+        <v>40498</v>
+      </c>
       <c r="I1677" s="2">
         <v>1736894</v>
       </c>
-    </row>
-    <row r="1678" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J1677" s="2"/>
+    </row>
+    <row r="1678" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1678" s="3"/>
       <c r="C1678" s="3" t="s">
         <v>26</v>
@@ -30837,7 +30862,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1679" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1679" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B1679" s="3"/>
       <c r="C1679" s="3" t="s">
         <v>27</v>
@@ -30853,7 +30878,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="1680" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1680" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C1680" s="3" t="s">
         <v>42</v>
       </c>
@@ -30868,7 +30893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1681" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1681" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1681" s="3" t="s">
         <v>43</v>
       </c>
@@ -30883,7 +30908,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1682" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1682" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1682" s="1">
         <v>43978</v>
       </c>
@@ -30903,11 +30928,16 @@
         <f t="shared" si="56"/>
         <v>165</v>
       </c>
+      <c r="H1682" s="2">
+        <f>SUM(I1682-I1652)</f>
+        <v>37416</v>
+      </c>
       <c r="I1682" s="2">
         <v>1811544</v>
       </c>
-    </row>
-    <row r="1683" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1682" s="2"/>
+    </row>
+    <row r="1683" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1683" s="3"/>
       <c r="C1683" s="3" t="s">
         <v>7</v>
@@ -30922,8 +30952,13 @@
         <f t="shared" si="56"/>
         <v>219</v>
       </c>
-    </row>
-    <row r="1684" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1683" s="2">
+        <f t="shared" ref="H1683:H1746" si="57">SUM(I1683-I1653)</f>
+        <v>0</v>
+      </c>
+      <c r="J1683" s="2"/>
+    </row>
+    <row r="1684" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1684" s="3"/>
       <c r="C1684" s="3" t="s">
         <v>8</v>
@@ -30938,8 +30973,13 @@
         <f t="shared" si="56"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="1685" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1684" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J1684" s="2"/>
+    </row>
+    <row r="1685" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1685" s="3"/>
       <c r="C1685" s="3" t="s">
         <v>35</v>
@@ -30954,8 +30994,13 @@
         <f t="shared" si="56"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="1686" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1685" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J1685" s="2"/>
+    </row>
+    <row r="1686" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1686" s="3"/>
       <c r="C1686" s="3" t="s">
         <v>14</v>
@@ -30970,8 +31015,13 @@
         <f t="shared" si="56"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="1687" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1686" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J1686" s="2"/>
+    </row>
+    <row r="1687" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1687" s="3" t="s">
         <v>9</v>
       </c>
@@ -30988,11 +31038,16 @@
         <f t="shared" si="56"/>
         <v>60</v>
       </c>
+      <c r="H1687" s="2">
+        <f t="shared" si="57"/>
+        <v>24433</v>
+      </c>
       <c r="I1687" s="2">
         <v>660325</v>
       </c>
-    </row>
-    <row r="1688" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1687" s="2"/>
+    </row>
+    <row r="1688" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1688" s="3"/>
       <c r="C1688" s="3" t="s">
         <v>11</v>
@@ -31007,8 +31062,12 @@
         <f t="shared" si="56"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="1689" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1688" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1689" s="3"/>
       <c r="C1689" s="3" t="s">
         <v>12</v>
@@ -31023,8 +31082,12 @@
         <f t="shared" si="56"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="1690" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1689" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1690" s="3"/>
       <c r="C1690" s="3" t="s">
         <v>36</v>
@@ -31039,8 +31102,12 @@
         <f t="shared" si="56"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="1691" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1690" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1691" s="3"/>
       <c r="C1691" s="3" t="s">
         <v>37</v>
@@ -31055,8 +31122,12 @@
         <f t="shared" si="56"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="1692" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1691" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1692" s="3" t="s">
         <v>13</v>
       </c>
@@ -31073,11 +31144,15 @@
         <f t="shared" si="56"/>
         <v>63</v>
       </c>
+      <c r="H1692" s="2">
+        <f t="shared" si="57"/>
+        <v>6663</v>
+      </c>
       <c r="I1692" s="2">
-        <v>522144</v>
-      </c>
-    </row>
-    <row r="1693" spans="1:9" x14ac:dyDescent="0.2">
+        <v>552144</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1693" s="3"/>
       <c r="C1693" s="3" t="s">
         <v>15</v>
@@ -31092,8 +31167,12 @@
         <f t="shared" si="56"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="1694" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1693" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1694" s="3"/>
       <c r="C1694" s="3" t="s">
         <v>12</v>
@@ -31108,8 +31187,12 @@
         <f t="shared" si="56"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="1695" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1694" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1695" s="3"/>
       <c r="C1695" s="3" t="s">
         <v>33</v>
@@ -31124,8 +31207,12 @@
         <f t="shared" si="56"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="1696" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1695" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1696" s="3"/>
       <c r="C1696" s="3" t="s">
         <v>34</v>
@@ -31140,6 +31227,10 @@
         <f t="shared" si="56"/>
         <v>90</v>
       </c>
+      <c r="H1696" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1697" s="3" t="s">
@@ -31157,6 +31248,10 @@
       <c r="F1697" s="2">
         <f t="shared" si="56"/>
         <v>73</v>
+      </c>
+      <c r="H1697" s="2">
+        <f t="shared" si="57"/>
+        <v>9973</v>
       </c>
       <c r="I1697" s="2">
         <f>SUM(55608+438644)</f>
@@ -31178,6 +31273,10 @@
         <f t="shared" si="56"/>
         <v>20</v>
       </c>
+      <c r="H1698" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1699" s="3"/>
@@ -31194,6 +31293,10 @@
         <f t="shared" si="56"/>
         <v>30</v>
       </c>
+      <c r="H1699" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1700" s="3"/>
@@ -31210,6 +31313,10 @@
         <f t="shared" si="56"/>
         <v>7</v>
       </c>
+      <c r="H1700" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1701" s="3"/>
@@ -31226,6 +31333,10 @@
         <f t="shared" si="56"/>
         <v>4</v>
       </c>
+      <c r="H1701" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1702" s="3" t="s">
@@ -31243,6 +31354,10 @@
       <c r="F1702" s="2">
         <f t="shared" si="56"/>
         <v>242</v>
+      </c>
+      <c r="H1702" s="2">
+        <f t="shared" si="57"/>
+        <v>10935</v>
       </c>
       <c r="I1702" s="2">
         <f>SUM(69417+349990)</f>
@@ -31264,6 +31379,10 @@
         <f t="shared" si="56"/>
         <v>140</v>
       </c>
+      <c r="H1703" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1704" s="3"/>
@@ -31280,6 +31399,10 @@
         <f t="shared" si="56"/>
         <v>46</v>
       </c>
+      <c r="H1704" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1705" s="3"/>
@@ -31296,6 +31419,10 @@
         <f t="shared" si="56"/>
         <v>23</v>
       </c>
+      <c r="H1705" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1706" s="3"/>
@@ -31312,6 +31439,10 @@
         <f t="shared" si="56"/>
         <v>33</v>
       </c>
+      <c r="H1706" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1707" s="3" t="s">
@@ -31329,6 +31460,10 @@
       <c r="F1707" s="2">
         <f t="shared" si="56"/>
         <v>951</v>
+      </c>
+      <c r="H1707" s="2">
+        <f t="shared" si="57"/>
+        <v>53665</v>
       </c>
       <c r="I1707" s="2">
         <v>1790559</v>
@@ -31349,6 +31484,10 @@
         <f t="shared" si="56"/>
         <v>101</v>
       </c>
+      <c r="H1708" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1709" s="3"/>
@@ -31365,6 +31504,10 @@
         <f t="shared" si="56"/>
         <v>239</v>
       </c>
+      <c r="H1709" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1710" s="3" t="s">
@@ -31380,6 +31523,10 @@
         <f t="shared" si="56"/>
         <v>21</v>
       </c>
+      <c r="H1710" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1711" s="3" t="s">
@@ -31395,6 +31542,10 @@
         <f t="shared" si="56"/>
         <v>198</v>
       </c>
+      <c r="H1711" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1712" s="1">
@@ -31415,6 +31566,10 @@
       <c r="F1712" s="2">
         <f t="shared" si="56"/>
         <v>275</v>
+      </c>
+      <c r="H1712" s="2">
+        <f t="shared" si="57"/>
+        <v>65245</v>
       </c>
       <c r="I1712" s="2">
         <v>1876789</v>
@@ -31435,6 +31590,10 @@
         <f t="shared" si="56"/>
         <v>368</v>
       </c>
+      <c r="H1713" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1714" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1714" s="3"/>
@@ -31451,6 +31610,10 @@
         <f t="shared" si="56"/>
         <v>106</v>
       </c>
+      <c r="H1714" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1715" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1715" s="3"/>
@@ -31467,6 +31630,10 @@
         <f t="shared" si="56"/>
         <v>250</v>
       </c>
+      <c r="H1715" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1716" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1716" s="3"/>
@@ -31483,6 +31650,10 @@
         <f t="shared" si="56"/>
         <v>101</v>
       </c>
+      <c r="H1716" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1717" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1717" s="3" t="s">
@@ -31500,6 +31671,10 @@
       <c r="F1717" s="2">
         <f t="shared" si="56"/>
         <v>135</v>
+      </c>
+      <c r="H1717" s="2">
+        <f t="shared" si="57"/>
+        <v>25532</v>
       </c>
       <c r="I1717" s="2">
         <v>685857</v>
@@ -31520,6 +31695,10 @@
         <f t="shared" si="56"/>
         <v>94</v>
       </c>
+      <c r="H1718" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1719" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1719" s="3"/>
@@ -31536,6 +31715,10 @@
         <f t="shared" si="56"/>
         <v>112</v>
       </c>
+      <c r="H1719" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1720" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1720" s="3"/>
@@ -31552,6 +31735,10 @@
         <f t="shared" si="56"/>
         <v>151</v>
       </c>
+      <c r="H1720" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1721" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1721" s="3"/>
@@ -31568,6 +31755,10 @@
         <f t="shared" si="56"/>
         <v>86</v>
       </c>
+      <c r="H1721" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1722" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1722" s="3" t="s">
@@ -31585,6 +31776,10 @@
       <c r="F1722" s="2">
         <f t="shared" si="56"/>
         <v>102</v>
+      </c>
+      <c r="H1722" s="2">
+        <f t="shared" si="57"/>
+        <v>10179</v>
       </c>
       <c r="I1722" s="2">
         <v>562323</v>
@@ -31605,6 +31800,10 @@
         <f t="shared" si="56"/>
         <v>151</v>
       </c>
+      <c r="H1723" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1724" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1724" s="3"/>
@@ -31621,6 +31820,10 @@
         <f t="shared" si="56"/>
         <v>121</v>
       </c>
+      <c r="H1724" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1725" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1725" s="3"/>
@@ -31637,6 +31840,10 @@
         <f t="shared" si="56"/>
         <v>39</v>
       </c>
+      <c r="H1725" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1726" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1726" s="3"/>
@@ -31653,6 +31860,10 @@
         <f t="shared" si="56"/>
         <v>66</v>
       </c>
+      <c r="H1726" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1727" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1727" s="3" t="s">
@@ -31670,6 +31881,10 @@
       <c r="F1727" s="2">
         <f t="shared" si="56"/>
         <v>60</v>
+      </c>
+      <c r="H1727" s="2">
+        <f t="shared" si="57"/>
+        <v>9206</v>
       </c>
       <c r="I1727" s="2">
         <f>SUM(55014+448444)</f>
@@ -31691,6 +31906,10 @@
         <f t="shared" si="56"/>
         <v>21</v>
       </c>
+      <c r="H1728" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1729" s="3"/>
@@ -31707,6 +31926,10 @@
         <f t="shared" si="56"/>
         <v>28</v>
       </c>
+      <c r="H1729" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1730" s="3"/>
@@ -31723,6 +31946,10 @@
         <f t="shared" si="56"/>
         <v>12</v>
       </c>
+      <c r="H1730" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1731" s="3"/>
@@ -31739,6 +31966,10 @@
         <f t="shared" si="56"/>
         <v>8</v>
       </c>
+      <c r="H1731" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1732" s="3" t="s">
@@ -31756,6 +31987,10 @@
       <c r="F1732" s="2">
         <f t="shared" si="56"/>
         <v>133</v>
+      </c>
+      <c r="H1732" s="2">
+        <f t="shared" si="57"/>
+        <v>8439</v>
       </c>
       <c r="I1732" s="2">
         <f>SUM(70042+357804)</f>
@@ -31777,6 +32012,10 @@
         <f t="shared" si="56"/>
         <v>73</v>
       </c>
+      <c r="H1733" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1734" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1734" s="3"/>
@@ -31793,6 +32032,10 @@
         <f t="shared" si="56"/>
         <v>48</v>
       </c>
+      <c r="H1734" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1735" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1735" s="3"/>
@@ -31809,6 +32052,10 @@
         <f t="shared" si="56"/>
         <v>20</v>
       </c>
+      <c r="H1735" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1736" s="3"/>
@@ -31825,6 +32072,10 @@
         <f t="shared" si="56"/>
         <v>21</v>
       </c>
+      <c r="H1736" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1737" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1737" s="3" t="s">
@@ -31842,6 +32093,10 @@
       <c r="F1737" s="2">
         <f t="shared" si="56"/>
         <v>1150</v>
+      </c>
+      <c r="H1737" s="2">
+        <f t="shared" si="57"/>
+        <v>44919</v>
       </c>
       <c r="I1737" s="2">
         <v>1835478</v>
@@ -31862,6 +32117,10 @@
         <f t="shared" si="56"/>
         <v>117</v>
       </c>
+      <c r="H1738" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1739" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1739" s="3"/>
@@ -31878,6 +32137,10 @@
         <f t="shared" si="56"/>
         <v>84</v>
       </c>
+      <c r="H1739" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1740" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1740" s="3" t="s">
@@ -31893,6 +32156,10 @@
         <f t="shared" si="56"/>
         <v>18</v>
       </c>
+      <c r="H1740" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1741" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1741" s="3" t="s">
@@ -31908,6 +32175,10 @@
         <f t="shared" si="56"/>
         <v>196</v>
       </c>
+      <c r="H1741" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1742" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1742" s="1">
@@ -31926,8 +32197,12 @@
         <v>3918</v>
       </c>
       <c r="F1742" s="2">
-        <f t="shared" ref="F1742:F1801" si="57">SUM(D1742-D1712)</f>
+        <f t="shared" ref="F1742:F1796" si="58">SUM(D1742-D1712)</f>
         <v>244</v>
+      </c>
+      <c r="H1742" s="2">
+        <f t="shared" si="57"/>
+        <v>67341</v>
       </c>
       <c r="I1742" s="2">
         <v>1944130</v>
@@ -31945,8 +32220,12 @@
         <v>4405</v>
       </c>
       <c r="F1743" s="2">
+        <f t="shared" si="58"/>
+        <v>299</v>
+      </c>
+      <c r="H1743" s="2">
         <f t="shared" si="57"/>
-        <v>299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1744" spans="1:9" x14ac:dyDescent="0.2">
@@ -31961,8 +32240,12 @@
         <v>2611</v>
       </c>
       <c r="F1744" s="2">
+        <f t="shared" si="58"/>
+        <v>86</v>
+      </c>
+      <c r="H1744" s="2">
         <f t="shared" si="57"/>
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1745" spans="2:9" x14ac:dyDescent="0.2">
@@ -31977,8 +32260,12 @@
         <v>2952</v>
       </c>
       <c r="F1745" s="2">
+        <f t="shared" si="58"/>
+        <v>221</v>
+      </c>
+      <c r="H1745" s="2">
         <f t="shared" si="57"/>
-        <v>221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1746" spans="2:9" x14ac:dyDescent="0.2">
@@ -31993,8 +32280,12 @@
         <v>1928</v>
       </c>
       <c r="F1746" s="2">
+        <f t="shared" si="58"/>
+        <v>86</v>
+      </c>
+      <c r="H1746" s="2">
         <f t="shared" si="57"/>
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1747" spans="2:9" x14ac:dyDescent="0.2">
@@ -32011,8 +32302,12 @@
         <v>1567</v>
       </c>
       <c r="F1747" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>65</v>
+      </c>
+      <c r="H1747" s="2">
+        <f t="shared" ref="H1747:H1765" si="59">SUM(I1747-I1717)</f>
+        <v>30554</v>
       </c>
       <c r="I1747" s="2">
         <v>716411</v>
@@ -32030,8 +32325,12 @@
         <v>1168</v>
       </c>
       <c r="F1748" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>61</v>
+      </c>
+      <c r="H1748" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1749" spans="2:9" x14ac:dyDescent="0.2">
@@ -32046,8 +32345,12 @@
         <v>1647</v>
       </c>
       <c r="F1749" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>96</v>
+      </c>
+      <c r="H1749" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1750" spans="2:9" x14ac:dyDescent="0.2">
@@ -32062,8 +32365,12 @@
         <v>1060</v>
       </c>
       <c r="F1750" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>135</v>
+      </c>
+      <c r="H1750" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1751" spans="2:9" x14ac:dyDescent="0.2">
@@ -32078,8 +32385,12 @@
         <v>917</v>
       </c>
       <c r="F1751" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>86</v>
+      </c>
+      <c r="H1751" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1752" spans="2:9" x14ac:dyDescent="0.2">
@@ -32096,8 +32407,12 @@
         <v>861</v>
       </c>
       <c r="F1752" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>88</v>
+      </c>
+      <c r="H1752" s="2">
+        <f t="shared" si="59"/>
+        <v>9422</v>
       </c>
       <c r="I1752" s="2">
         <v>571745</v>
@@ -32115,8 +32430,12 @@
         <v>1583</v>
       </c>
       <c r="F1753" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>115</v>
+      </c>
+      <c r="H1753" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1754" spans="2:9" x14ac:dyDescent="0.2">
@@ -32131,8 +32450,12 @@
         <v>906</v>
       </c>
       <c r="F1754" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>95</v>
+      </c>
+      <c r="H1754" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1755" spans="2:9" x14ac:dyDescent="0.2">
@@ -32147,8 +32470,12 @@
         <v>811</v>
       </c>
       <c r="F1755" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>40</v>
+      </c>
+      <c r="H1755" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1756" spans="2:9" x14ac:dyDescent="0.2">
@@ -32163,8 +32490,12 @@
         <v>746</v>
       </c>
       <c r="F1756" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>103</v>
+      </c>
+      <c r="H1756" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1757" spans="2:9" x14ac:dyDescent="0.2">
@@ -32181,8 +32512,12 @@
         <v>2425</v>
       </c>
       <c r="F1757" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>168</v>
+      </c>
+      <c r="H1757" s="2">
+        <f t="shared" si="59"/>
+        <v>18149</v>
       </c>
       <c r="I1757" s="2">
         <v>521607</v>
@@ -32200,8 +32535,12 @@
         <v>975</v>
       </c>
       <c r="F1758" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>30</v>
+      </c>
+      <c r="H1758" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1759" spans="2:9" x14ac:dyDescent="0.2">
@@ -32216,8 +32555,12 @@
         <v>793</v>
       </c>
       <c r="F1759" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>30</v>
+      </c>
+      <c r="H1759" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1760" spans="2:9" x14ac:dyDescent="0.2">
@@ -32232,8 +32575,12 @@
         <v>250</v>
       </c>
       <c r="F1760" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>15</v>
+      </c>
+      <c r="H1760" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1761" spans="1:9" x14ac:dyDescent="0.2">
@@ -32248,8 +32595,12 @@
         <v>100</v>
       </c>
       <c r="F1761" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>5</v>
+      </c>
+      <c r="H1761" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1762" spans="1:9" x14ac:dyDescent="0.2">
@@ -32266,8 +32617,12 @@
         <v>1300</v>
       </c>
       <c r="F1762" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>184</v>
+      </c>
+      <c r="H1762" s="2">
+        <f t="shared" si="59"/>
+        <v>9859</v>
       </c>
       <c r="I1762" s="2">
         <f>SUM(70735+366970)</f>
@@ -32286,8 +32641,12 @@
         <v>677</v>
       </c>
       <c r="F1763" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>95</v>
+      </c>
+      <c r="H1763" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1764" spans="1:9" x14ac:dyDescent="0.2">
@@ -32302,8 +32661,12 @@
         <v>550</v>
       </c>
       <c r="F1764" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>42</v>
+      </c>
+      <c r="H1764" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1765" spans="1:9" x14ac:dyDescent="0.2">
@@ -32318,8 +32681,12 @@
         <v>222</v>
       </c>
       <c r="F1765" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>19</v>
+      </c>
+      <c r="H1765" s="2">
+        <f t="shared" si="59"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1766" spans="1:9" x14ac:dyDescent="0.2">
@@ -32334,8 +32701,12 @@
         <v>311</v>
       </c>
       <c r="F1766" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>15</v>
+      </c>
+      <c r="H1766" s="2">
+        <f>SUM(I1766-I1736)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="1767" spans="1:9" x14ac:dyDescent="0.2">
@@ -32352,8 +32723,12 @@
         <v>2290</v>
       </c>
       <c r="F1767" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>1717</v>
+      </c>
+      <c r="H1767" s="2">
+        <f t="shared" ref="H1767:H1826" si="60">SUM(I1767-I1737)</f>
+        <v>53117</v>
       </c>
       <c r="I1767" s="2">
         <v>1888595</v>
@@ -32371,8 +32746,12 @@
         <v>312</v>
       </c>
       <c r="F1768" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>140</v>
+      </c>
+      <c r="H1768" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1769" spans="1:9" x14ac:dyDescent="0.2">
@@ -32387,8 +32766,12 @@
         <v>339</v>
       </c>
       <c r="F1769" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>136</v>
+      </c>
+      <c r="H1769" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1770" spans="1:9" x14ac:dyDescent="0.2">
@@ -32402,8 +32785,12 @@
         <v>141</v>
       </c>
       <c r="F1770" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>9</v>
+      </c>
+      <c r="H1770" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1771" spans="1:9" x14ac:dyDescent="0.2">
@@ -32417,8 +32804,12 @@
         <v>145</v>
       </c>
       <c r="F1771" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>131</v>
+      </c>
+      <c r="H1771" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1772" spans="1:9" x14ac:dyDescent="0.2">
@@ -32438,8 +32829,12 @@
         <v>3920</v>
       </c>
       <c r="F1772" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>183</v>
+      </c>
+      <c r="H1772" s="2">
+        <f t="shared" si="60"/>
+        <v>61251</v>
       </c>
       <c r="I1772" s="2">
         <v>2005381</v>
@@ -32457,8 +32852,12 @@
         <v>4413</v>
       </c>
       <c r="F1773" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>281</v>
+      </c>
+      <c r="H1773" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1774" spans="1:9" x14ac:dyDescent="0.2">
@@ -32473,8 +32872,12 @@
         <v>2615</v>
       </c>
       <c r="F1774" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>81</v>
+      </c>
+      <c r="H1774" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1775" spans="1:9" x14ac:dyDescent="0.2">
@@ -32489,8 +32892,12 @@
         <v>2956</v>
       </c>
       <c r="F1775" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>142</v>
+      </c>
+      <c r="H1775" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1776" spans="1:9" x14ac:dyDescent="0.2">
@@ -32505,8 +32912,12 @@
         <v>1941</v>
       </c>
       <c r="F1776" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>87</v>
+      </c>
+      <c r="H1776" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1777" spans="2:9" x14ac:dyDescent="0.2">
@@ -32518,6 +32929,10 @@
       </c>
       <c r="E1777" s="2">
         <v>1573</v>
+      </c>
+      <c r="H1777" s="2">
+        <f t="shared" si="60"/>
+        <v>28897</v>
       </c>
       <c r="I1777" s="2">
         <v>745308</v>
@@ -32535,8 +32950,12 @@
         <v>1173</v>
       </c>
       <c r="F1778" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>56</v>
+      </c>
+      <c r="H1778" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1779" spans="2:9" x14ac:dyDescent="0.2">
@@ -32551,8 +32970,12 @@
         <v>1657</v>
       </c>
       <c r="F1779" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>48</v>
+      </c>
+      <c r="H1779" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1780" spans="2:9" x14ac:dyDescent="0.2">
@@ -32560,6 +32983,10 @@
       <c r="C1780" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="H1780" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="1781" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1781" s="3"/>
@@ -32573,8 +33000,12 @@
         <v>925</v>
       </c>
       <c r="F1781" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>54</v>
+      </c>
+      <c r="H1781" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1782" spans="2:9" x14ac:dyDescent="0.2">
@@ -32591,8 +33022,15 @@
         <v>868</v>
       </c>
       <c r="F1782" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>87</v>
+      </c>
+      <c r="H1782" s="2">
+        <f t="shared" si="60"/>
+        <v>10774</v>
+      </c>
+      <c r="I1782" s="2">
+        <v>582519</v>
       </c>
     </row>
     <row r="1783" spans="2:9" x14ac:dyDescent="0.2">
@@ -32607,8 +33045,12 @@
         <v>1596</v>
       </c>
       <c r="F1783" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>152</v>
+      </c>
+      <c r="H1783" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1784" spans="2:9" x14ac:dyDescent="0.2">
@@ -32623,8 +33065,12 @@
         <v>909</v>
       </c>
       <c r="F1784" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>105</v>
+      </c>
+      <c r="H1784" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1785" spans="2:9" x14ac:dyDescent="0.2">
@@ -32639,8 +33085,12 @@
         <v>815</v>
       </c>
       <c r="F1785" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>57</v>
+      </c>
+      <c r="H1785" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1786" spans="2:9" x14ac:dyDescent="0.2">
@@ -32655,8 +33105,12 @@
         <v>753</v>
       </c>
       <c r="F1786" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>85</v>
+      </c>
+      <c r="H1786" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1787" spans="2:9" x14ac:dyDescent="0.2">
@@ -32675,8 +33129,16 @@
         <v>2452</v>
       </c>
       <c r="F1787" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>27</v>
+      </c>
+      <c r="H1787" s="2">
+        <f t="shared" si="60"/>
+        <v>17205</v>
+      </c>
+      <c r="I1787" s="2">
+        <f>SUM(56884+481928)</f>
+        <v>538812</v>
       </c>
     </row>
     <row r="1788" spans="2:9" x14ac:dyDescent="0.2">
@@ -32691,8 +33153,12 @@
         <v>983</v>
       </c>
       <c r="F1788" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>8</v>
+      </c>
+      <c r="H1788" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1789" spans="2:9" x14ac:dyDescent="0.2">
@@ -32707,8 +33173,12 @@
         <v>802</v>
       </c>
       <c r="F1789" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>8</v>
+      </c>
+      <c r="H1789" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1790" spans="2:9" x14ac:dyDescent="0.2">
@@ -32723,8 +33193,12 @@
         <v>252</v>
       </c>
       <c r="F1790" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>6</v>
+      </c>
+      <c r="H1790" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1791" spans="2:9" x14ac:dyDescent="0.2">
@@ -32739,8 +33213,12 @@
         <v>99</v>
       </c>
       <c r="F1791" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>13</v>
+      </c>
+      <c r="H1791" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
     </row>
     <row r="1792" spans="2:9" x14ac:dyDescent="0.2">
@@ -32757,15 +33235,19 @@
         <v>1308</v>
       </c>
       <c r="F1792" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>191</v>
+      </c>
+      <c r="H1792" s="2">
+        <f t="shared" si="60"/>
+        <v>9441</v>
       </c>
       <c r="I1792" s="2">
         <f>SUM(71415+375731)</f>
         <v>447146</v>
       </c>
     </row>
-    <row r="1793" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1793" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1793" s="3"/>
       <c r="C1793" s="3" t="s">
         <v>18</v>
@@ -32777,11 +33259,15 @@
         <v>682</v>
       </c>
       <c r="F1793" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="1794" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H1793" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1794" s="3"/>
       <c r="C1794" s="3" t="s">
         <v>19</v>
@@ -32793,11 +33279,15 @@
         <v>558</v>
       </c>
       <c r="F1794" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="1795" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H1794" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1795" s="3"/>
       <c r="C1795" s="3" t="s">
         <v>40</v>
@@ -32809,11 +33299,15 @@
         <v>228</v>
       </c>
       <c r="F1795" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="1796" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H1795" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1796" s="3"/>
       <c r="C1796" s="3" t="s">
         <v>41</v>
@@ -32825,39 +33319,713 @@
         <v>316</v>
       </c>
       <c r="F1796" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="1797" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="H1796" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1797" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C1797" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="1798" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D1797" s="2">
+        <v>53627</v>
+      </c>
+      <c r="E1797" s="2">
+        <v>2338</v>
+      </c>
+      <c r="F1797" s="2">
+        <f>SUM(D1797-D1767)</f>
+        <v>2049</v>
+      </c>
+      <c r="H1797" s="2">
+        <f t="shared" si="60"/>
+        <v>56253</v>
+      </c>
+      <c r="I1797" s="2">
+        <v>1944848</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1798" s="3"/>
       <c r="C1798" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="1799" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D1798" s="2">
+        <v>7387</v>
+      </c>
+      <c r="E1798" s="2">
+        <v>312</v>
+      </c>
+      <c r="F1798" s="2">
+        <f t="shared" ref="F1798:F1811" si="61">SUM(D1798-D1768)</f>
+        <v>145</v>
+      </c>
+      <c r="H1798" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1799" s="3"/>
       <c r="C1799" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1800" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D1799" s="2">
+        <v>7492</v>
+      </c>
+      <c r="E1799" s="2">
+        <v>339</v>
+      </c>
+      <c r="F1799" s="2">
+        <f t="shared" si="61"/>
+        <v>116</v>
+      </c>
+      <c r="H1799" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1800" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1801" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D1800" s="2">
+        <v>2741</v>
+      </c>
+      <c r="E1800" s="2">
+        <v>141</v>
+      </c>
+      <c r="F1800" s="2">
+        <f t="shared" si="61"/>
+        <v>34</v>
+      </c>
+      <c r="H1800" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1801" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D1801" s="2">
+        <v>6354</v>
+      </c>
+      <c r="E1801" s="2">
+        <v>146</v>
+      </c>
+      <c r="F1801" s="2">
+        <f t="shared" si="61"/>
+        <v>178</v>
+      </c>
+      <c r="H1801" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1802" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B1802" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1802" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1802" s="2">
+        <v>61975</v>
+      </c>
+      <c r="E1802" s="2">
+        <v>3929</v>
+      </c>
+      <c r="F1802" s="2">
+        <f t="shared" si="61"/>
+        <v>148</v>
+      </c>
+      <c r="H1802" s="2">
+        <f t="shared" si="60"/>
+        <v>58444</v>
+      </c>
+      <c r="I1802" s="2">
+        <v>2063825</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1803" s="3"/>
+      <c r="C1803" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1803" s="2">
+        <v>55900</v>
+      </c>
+      <c r="E1803" s="2">
+        <v>4416</v>
+      </c>
+      <c r="F1803" s="2">
+        <f t="shared" si="61"/>
+        <v>173</v>
+      </c>
+      <c r="H1803" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1804" s="3"/>
+      <c r="C1804" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1804" s="2">
+        <v>40396</v>
+      </c>
+      <c r="E1804" s="2">
+        <v>2615</v>
+      </c>
+      <c r="F1804" s="2">
+        <f t="shared" si="61"/>
+        <v>89</v>
+      </c>
+      <c r="H1804" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1805" s="3"/>
+      <c r="C1805" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1805" s="2">
+        <v>45253</v>
+      </c>
+      <c r="E1805" s="2">
+        <v>2960</v>
+      </c>
+      <c r="F1805" s="2">
+        <f t="shared" si="61"/>
+        <v>137</v>
+      </c>
+      <c r="H1805" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1806" s="3"/>
+      <c r="C1806" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1806" s="2">
+        <v>39643</v>
+      </c>
+      <c r="E1806" s="2">
+        <v>1949</v>
+      </c>
+      <c r="F1806" s="2">
+        <f t="shared" si="61"/>
+        <v>111</v>
+      </c>
+      <c r="H1806" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1807" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1807" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1807" s="2">
+        <v>18272</v>
+      </c>
+      <c r="E1807" s="2">
+        <v>1579</v>
+      </c>
+      <c r="F1807" s="2">
+        <f t="shared" si="61"/>
+        <v>18272</v>
+      </c>
+      <c r="H1807" s="2">
+        <f t="shared" si="60"/>
+        <v>837</v>
+      </c>
+      <c r="I1807" s="2">
+        <v>746145</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1808" s="3"/>
+      <c r="C1808" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1808" s="2">
+        <v>18419</v>
+      </c>
+      <c r="E1808" s="2">
+        <v>1183</v>
+      </c>
+      <c r="F1808" s="2">
+        <f t="shared" si="61"/>
+        <v>76</v>
+      </c>
+      <c r="H1808" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1809" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1809" s="3"/>
+      <c r="C1809" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1809" s="2">
+        <v>17629</v>
+      </c>
+      <c r="E1809" s="2">
+        <v>1664</v>
+      </c>
+      <c r="F1809" s="2">
+        <f t="shared" si="61"/>
+        <v>35</v>
+      </c>
+      <c r="H1809" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1810" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1810" s="3"/>
+      <c r="C1810" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1810" s="2">
+        <v>15821</v>
+      </c>
+      <c r="E1810" s="2">
+        <v>1073</v>
+      </c>
+      <c r="F1810" s="2">
+        <f t="shared" si="61"/>
+        <v>15821</v>
+      </c>
+      <c r="H1810" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1811" s="3"/>
+      <c r="C1811" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1811" s="2">
+        <v>16170</v>
+      </c>
+      <c r="E1811" s="2">
+        <v>928</v>
+      </c>
+      <c r="F1811" s="2">
+        <f t="shared" si="61"/>
+        <v>71</v>
+      </c>
+      <c r="H1811" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1812" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1812" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1812" s="2">
+        <v>17936</v>
+      </c>
+      <c r="E1812" s="2">
+        <v>871</v>
+      </c>
+      <c r="F1812" s="2">
+        <f>SUM(D1812-D1782)</f>
+        <v>63</v>
+      </c>
+      <c r="H1812" s="2">
+        <f t="shared" si="60"/>
+        <v>10334</v>
+      </c>
+      <c r="I1812" s="2">
+        <v>592853</v>
+      </c>
+    </row>
+    <row r="1813" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1813" s="3"/>
+      <c r="C1813" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1813" s="2">
+        <v>21287</v>
+      </c>
+      <c r="E1813" s="2">
+        <v>1615</v>
+      </c>
+      <c r="F1813" s="2">
+        <f t="shared" ref="F1813:F1816" si="62">SUM(D1813-D1783)</f>
+        <v>163</v>
+      </c>
+      <c r="H1813" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1814" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1814" s="3"/>
+      <c r="C1814" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1814" s="2">
+        <v>14225</v>
+      </c>
+      <c r="E1814" s="2">
+        <v>925</v>
+      </c>
+      <c r="F1814" s="2">
+        <f t="shared" si="62"/>
+        <v>126</v>
+      </c>
+      <c r="H1814" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1815" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1815" s="3"/>
+      <c r="C1815" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1815" s="2">
+        <v>8079</v>
+      </c>
+      <c r="E1815" s="2">
+        <v>821</v>
+      </c>
+      <c r="F1815" s="2">
+        <f t="shared" si="62"/>
+        <v>63</v>
+      </c>
+      <c r="H1815" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1815" s="2"/>
+    </row>
+    <row r="1816" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1816" s="3"/>
+      <c r="C1816" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1816" s="2">
+        <v>11018</v>
+      </c>
+      <c r="E1816" s="2">
+        <v>767</v>
+      </c>
+      <c r="F1816" s="2">
+        <f t="shared" si="62"/>
+        <v>117</v>
+      </c>
+      <c r="H1816" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1816" s="2"/>
+    </row>
+    <row r="1817" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1817" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1817" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1817" s="2">
+        <f>SUM(11041+9374)</f>
+        <v>20415</v>
+      </c>
+      <c r="E1817" s="2">
+        <f>SUM(1087+1374)</f>
+        <v>2461</v>
+      </c>
+      <c r="F1817" s="2">
+        <f>SUM(D1817-D1787)</f>
+        <v>161</v>
+      </c>
+      <c r="H1817" s="2">
+        <f t="shared" si="60"/>
+        <v>15818</v>
+      </c>
+      <c r="I1817" s="2">
+        <v>554630</v>
+      </c>
+      <c r="L1817" s="2"/>
+    </row>
+    <row r="1818" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1818" s="3"/>
+      <c r="C1818" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1818" s="2">
+        <v>8396</v>
+      </c>
+      <c r="E1818" s="2">
+        <v>988</v>
+      </c>
+      <c r="F1818" s="2">
+        <f t="shared" ref="F1818:F1826" si="63">SUM(D1818-D1788)</f>
+        <v>77</v>
+      </c>
+      <c r="H1818" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1818" s="2"/>
+    </row>
+    <row r="1819" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1819" s="3"/>
+      <c r="C1819" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1819" s="2">
+        <v>6695</v>
+      </c>
+      <c r="E1819" s="2">
+        <v>810</v>
+      </c>
+      <c r="F1819" s="2">
+        <f t="shared" si="63"/>
+        <v>71</v>
+      </c>
+      <c r="H1819" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1819" s="2"/>
+    </row>
+    <row r="1820" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1820" s="3"/>
+      <c r="C1820" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1820" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E1820" s="2">
+        <v>252</v>
+      </c>
+      <c r="F1820" s="2">
+        <f t="shared" si="63"/>
+        <v>9</v>
+      </c>
+      <c r="H1820" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1820" s="2"/>
+    </row>
+    <row r="1821" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1821" s="3"/>
+      <c r="C1821" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1821" s="2">
+        <v>1336</v>
+      </c>
+      <c r="E1821" s="2">
+        <v>99</v>
+      </c>
+      <c r="F1821" s="2">
+        <f t="shared" si="63"/>
+        <v>5</v>
+      </c>
+      <c r="H1821" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1821" s="2"/>
+    </row>
+    <row r="1822" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1822" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1822" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1822" s="2">
+        <v>18426</v>
+      </c>
+      <c r="E1822" s="2">
+        <v>1316</v>
+      </c>
+      <c r="F1822" s="2">
+        <f t="shared" si="63"/>
+        <v>79</v>
+      </c>
+      <c r="L1822" s="2"/>
+    </row>
+    <row r="1823" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1823" s="3"/>
+      <c r="C1823" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1823" s="2">
+        <v>7061</v>
+      </c>
+      <c r="E1823" s="2">
+        <v>684</v>
+      </c>
+      <c r="F1823" s="2">
+        <f t="shared" si="63"/>
+        <v>55</v>
+      </c>
+      <c r="H1823" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1823" s="2"/>
+    </row>
+    <row r="1824" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1824" s="3"/>
+      <c r="C1824" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1824" s="2">
+        <v>6461</v>
+      </c>
+      <c r="E1824" s="2">
+        <v>558</v>
+      </c>
+      <c r="F1824" s="2">
+        <f t="shared" si="63"/>
+        <v>41</v>
+      </c>
+      <c r="H1824" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1824" s="2"/>
+    </row>
+    <row r="1825" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1825" s="3"/>
+      <c r="C1825" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1825" s="2">
+        <v>3765</v>
+      </c>
+      <c r="E1825" s="2">
+        <v>228</v>
+      </c>
+      <c r="F1825" s="2">
+        <f t="shared" si="63"/>
+        <v>18</v>
+      </c>
+      <c r="H1825" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1825" s="2"/>
+    </row>
+    <row r="1826" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1826" s="3"/>
+      <c r="C1826" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1826" s="2">
+        <v>4061</v>
+      </c>
+      <c r="E1826" s="2">
+        <v>317</v>
+      </c>
+      <c r="F1826" s="2">
+        <f t="shared" si="63"/>
+        <v>59</v>
+      </c>
+      <c r="H1826" s="2">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L1826" s="2"/>
+    </row>
+    <row r="1827" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1827" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1827" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1827" s="2"/>
+    </row>
+    <row r="1828" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1828" s="3"/>
+      <c r="C1828" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1828" s="2"/>
+    </row>
+    <row r="1829" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B1829" s="3"/>
+      <c r="C1829" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1829" s="2"/>
+    </row>
+    <row r="1830" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C1830" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1830" s="2"/>
+    </row>
+    <row r="1831" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C1831" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1831" s="2"/>
+    </row>
+    <row r="1832" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L1832" s="2"/>
+    </row>
+    <row r="1833" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L1833" s="2"/>
+    </row>
+    <row r="1834" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L1834" s="2"/>
+    </row>
+    <row r="1835" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L1835" s="2"/>
+    </row>
+    <row r="1836" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L1836" s="2"/>
+    </row>
+    <row r="1837" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L1837" s="2"/>
+    </row>
+    <row r="1838" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L1838" s="2"/>
+    </row>
+    <row r="1839" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L1839" s="2"/>
+    </row>
+    <row r="1840" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L1840" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B6F47-CDA5-E541-9842-435922F6DB01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47D4790-71A2-F948-917E-15382E065028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="11900" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16900" yWindow="460" windowWidth="11900" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M1840"/>
+  <dimension ref="A1:M1861"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1795" zoomScale="64" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K1805" sqref="K1805"/>
+    <sheetView tabSelected="1" topLeftCell="A1802" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F1831" sqref="F1831"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33923,7 +33923,7 @@
       </c>
       <c r="L1824" s="2"/>
     </row>
-    <row r="1825" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1825" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1825" s="3"/>
       <c r="C1825" s="3" t="s">
         <v>40</v>
@@ -33944,7 +33944,7 @@
       </c>
       <c r="L1825" s="2"/>
     </row>
-    <row r="1826" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1826" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1826" s="3"/>
       <c r="C1826" s="3" t="s">
         <v>41</v>
@@ -33965,67 +33965,441 @@
       </c>
       <c r="L1826" s="2"/>
     </row>
-    <row r="1827" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1827" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1827" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C1827" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D1827" s="2">
+        <v>54925</v>
+      </c>
+      <c r="E1827" s="2">
+        <v>2362</v>
+      </c>
+      <c r="H1827" s="2">
+        <v>2012583</v>
+      </c>
       <c r="L1827" s="2"/>
     </row>
-    <row r="1828" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1828" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1828" s="3"/>
       <c r="C1828" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="D1828" s="2">
+        <v>7483</v>
+      </c>
+      <c r="E1828" s="2">
+        <v>312</v>
+      </c>
       <c r="L1828" s="2"/>
     </row>
-    <row r="1829" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1829" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1829" s="3"/>
       <c r="C1829" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D1829" s="2">
+        <v>7704</v>
+      </c>
+      <c r="E1829" s="2">
+        <v>344</v>
+      </c>
       <c r="L1829" s="2"/>
     </row>
-    <row r="1830" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1830" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1830" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D1830" s="2">
+        <v>2785</v>
+      </c>
+      <c r="E1830" s="2">
+        <v>144</v>
+      </c>
       <c r="L1830" s="2"/>
     </row>
-    <row r="1831" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1831" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C1831" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D1831" s="2">
+        <v>6532</v>
+      </c>
+      <c r="E1831" s="2">
+        <v>147</v>
+      </c>
       <c r="L1831" s="2"/>
     </row>
-    <row r="1832" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1832" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1832" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B1832" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1832" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1832" s="2">
+        <v>62094</v>
+      </c>
+      <c r="E1832" s="2">
+        <v>3936</v>
+      </c>
+      <c r="I1832" s="2">
+        <v>2113777</v>
+      </c>
       <c r="L1832" s="2"/>
     </row>
-    <row r="1833" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1833" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1833" s="3"/>
+      <c r="C1833" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1833" s="2">
+        <v>56053</v>
+      </c>
+      <c r="E1833" s="2">
+        <v>4422</v>
+      </c>
       <c r="L1833" s="2"/>
     </row>
-    <row r="1834" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1834" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1834" s="3"/>
+      <c r="C1834" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1834" s="2">
+        <v>40479</v>
+      </c>
+      <c r="E1834" s="2">
+        <v>2619</v>
+      </c>
       <c r="L1834" s="2"/>
     </row>
-    <row r="1835" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1835" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1835" s="3"/>
+      <c r="C1835" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1835" s="2">
+        <v>45359</v>
+      </c>
+      <c r="E1835" s="2">
+        <v>2966</v>
+      </c>
       <c r="L1835" s="2"/>
     </row>
-    <row r="1836" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1836" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1836" s="3"/>
+      <c r="C1836" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1836" s="2">
+        <v>39705</v>
+      </c>
+      <c r="E1836" s="2">
+        <v>1954</v>
+      </c>
       <c r="L1836" s="2"/>
     </row>
-    <row r="1837" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1837" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1837" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1837" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1837" s="2">
+        <v>18302</v>
+      </c>
+      <c r="E1837" s="2">
+        <v>1580</v>
+      </c>
+      <c r="I1837" s="2">
+        <v>795600</v>
+      </c>
       <c r="L1837" s="2"/>
     </row>
-    <row r="1838" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1838" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1838" s="3"/>
+      <c r="C1838" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1838" s="2">
+        <v>18428</v>
+      </c>
+      <c r="E1838" s="2">
+        <v>1182</v>
+      </c>
       <c r="L1838" s="2"/>
     </row>
-    <row r="1839" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1839" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1839" s="3"/>
+      <c r="C1839" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1839" s="2">
+        <v>17695</v>
+      </c>
+      <c r="E1839" s="2">
+        <v>1667</v>
+      </c>
       <c r="L1839" s="2"/>
     </row>
-    <row r="1840" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1840" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1840" s="3"/>
+      <c r="C1840" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1840" s="2">
+        <v>15858</v>
+      </c>
+      <c r="E1840" s="2">
+        <v>1074</v>
+      </c>
       <c r="L1840" s="2"/>
+    </row>
+    <row r="1841" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1841" s="3"/>
+      <c r="C1841" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1841" s="2">
+        <v>16200</v>
+      </c>
+      <c r="E1841" s="2">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="1842" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1842" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1842" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1842" s="2">
+        <v>18581</v>
+      </c>
+      <c r="E1842" s="2">
+        <v>896</v>
+      </c>
+      <c r="I1842" s="2">
+        <v>599919</v>
+      </c>
+    </row>
+    <row r="1843" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1843" s="3"/>
+      <c r="C1843" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1843" s="2">
+        <v>22224</v>
+      </c>
+      <c r="E1843" s="2">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="1844" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1844" s="3"/>
+      <c r="C1844" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1844" s="2">
+        <v>14721</v>
+      </c>
+      <c r="E1844" s="2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="1845" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1845" s="3"/>
+      <c r="C1845" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1845" s="2">
+        <v>8586</v>
+      </c>
+      <c r="E1845" s="2">
+        <v>841</v>
+      </c>
+      <c r="I1845" s="2">
+        <v>568023</v>
+      </c>
+    </row>
+    <row r="1846" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1846" s="3"/>
+      <c r="C1846" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1846" s="2">
+        <v>11352</v>
+      </c>
+      <c r="E1846" s="2">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="1847" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1847" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1847" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1847" s="2">
+        <v>20446</v>
+      </c>
+      <c r="E1847" s="2">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="1848" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1848" s="3"/>
+      <c r="C1848" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1848" s="2">
+        <v>8407</v>
+      </c>
+      <c r="E1848" s="2">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="1849" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1849" s="3"/>
+      <c r="C1849" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1849" s="2">
+        <v>6707</v>
+      </c>
+      <c r="E1849" s="2">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="1850" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1850" s="3"/>
+      <c r="C1850" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1850" s="2">
+        <v>2015</v>
+      </c>
+      <c r="E1850" s="2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="1851" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1851" s="3"/>
+      <c r="C1851" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1851" s="2">
+        <v>1337</v>
+      </c>
+      <c r="E1851" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1852" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1852" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1852" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1852" s="2">
+        <v>18517</v>
+      </c>
+      <c r="E1852" s="2">
+        <v>1320</v>
+      </c>
+      <c r="I1852" s="2">
+        <f>SUM(72282+389431)</f>
+        <v>461713</v>
+      </c>
+    </row>
+    <row r="1853" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1853" s="3"/>
+      <c r="C1853" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1853" s="2">
+        <v>7093</v>
+      </c>
+      <c r="E1853" s="2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="1854" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1854" s="3"/>
+      <c r="C1854" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1854" s="2">
+        <v>6481</v>
+      </c>
+      <c r="E1854" s="2">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="1855" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1855" s="3"/>
+      <c r="C1855" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1855" s="2">
+        <v>3770</v>
+      </c>
+      <c r="E1855" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="1856" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1856" s="3"/>
+      <c r="C1856" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1856" s="2">
+        <v>4074</v>
+      </c>
+      <c r="E1856" s="2">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="1857" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1857" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1857" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1858" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1858" s="3"/>
+      <c r="C1858" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1859" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1859" s="3"/>
+      <c r="C1859" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1860" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1860" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1861" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1861" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47D4790-71A2-F948-917E-15382E065028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAAE3B0-2D82-FD4A-8533-E308637B31FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="460" windowWidth="11900" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="180" yWindow="460" windowWidth="13720" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M1861"/>
+  <dimension ref="A1:M1891"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1802" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1831" sqref="F1831"/>
+    <sheetView tabSelected="1" topLeftCell="A1868" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F1810" sqref="F1810"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33551,10 +33551,6 @@
       <c r="E1807" s="2">
         <v>1579</v>
       </c>
-      <c r="F1807" s="2">
-        <f t="shared" si="61"/>
-        <v>18272</v>
-      </c>
       <c r="H1807" s="2">
         <f t="shared" si="60"/>
         <v>837</v>
@@ -33614,10 +33610,6 @@
       <c r="E1810" s="2">
         <v>1073</v>
       </c>
-      <c r="F1810" s="2">
-        <f t="shared" si="61"/>
-        <v>15821</v>
-      </c>
       <c r="H1810" s="2">
         <f t="shared" si="60"/>
         <v>0</v>
@@ -33978,6 +33970,10 @@
       <c r="E1827" s="2">
         <v>2362</v>
       </c>
+      <c r="F1827" s="2">
+        <f>SUM(D1827-D1797)</f>
+        <v>1298</v>
+      </c>
       <c r="H1827" s="2">
         <v>2012583</v>
       </c>
@@ -33994,6 +33990,10 @@
       <c r="E1828" s="2">
         <v>312</v>
       </c>
+      <c r="F1828" s="2">
+        <f t="shared" ref="F1828:F1891" si="64">SUM(D1828-D1798)</f>
+        <v>96</v>
+      </c>
       <c r="L1828" s="2"/>
     </row>
     <row r="1829" spans="1:12" x14ac:dyDescent="0.2">
@@ -34007,6 +34007,10 @@
       <c r="E1829" s="2">
         <v>344</v>
       </c>
+      <c r="F1829" s="2">
+        <f t="shared" si="64"/>
+        <v>212</v>
+      </c>
       <c r="L1829" s="2"/>
     </row>
     <row r="1830" spans="1:12" x14ac:dyDescent="0.2">
@@ -34019,6 +34023,10 @@
       <c r="E1830" s="2">
         <v>144</v>
       </c>
+      <c r="F1830" s="2">
+        <f t="shared" si="64"/>
+        <v>44</v>
+      </c>
       <c r="L1830" s="2"/>
     </row>
     <row r="1831" spans="1:12" x14ac:dyDescent="0.2">
@@ -34031,6 +34039,10 @@
       <c r="E1831" s="2">
         <v>147</v>
       </c>
+      <c r="F1831" s="2">
+        <f t="shared" si="64"/>
+        <v>178</v>
+      </c>
       <c r="L1831" s="2"/>
     </row>
     <row r="1832" spans="1:12" x14ac:dyDescent="0.2">
@@ -34048,6 +34060,10 @@
       </c>
       <c r="E1832" s="2">
         <v>3936</v>
+      </c>
+      <c r="F1832" s="2">
+        <f t="shared" si="64"/>
+        <v>119</v>
       </c>
       <c r="I1832" s="2">
         <v>2113777</v>
@@ -34065,6 +34081,10 @@
       <c r="E1833" s="2">
         <v>4422</v>
       </c>
+      <c r="F1833" s="2">
+        <f t="shared" si="64"/>
+        <v>153</v>
+      </c>
       <c r="L1833" s="2"/>
     </row>
     <row r="1834" spans="1:12" x14ac:dyDescent="0.2">
@@ -34078,6 +34098,10 @@
       <c r="E1834" s="2">
         <v>2619</v>
       </c>
+      <c r="F1834" s="2">
+        <f t="shared" si="64"/>
+        <v>83</v>
+      </c>
       <c r="L1834" s="2"/>
     </row>
     <row r="1835" spans="1:12" x14ac:dyDescent="0.2">
@@ -34091,6 +34115,10 @@
       <c r="E1835" s="2">
         <v>2966</v>
       </c>
+      <c r="F1835" s="2">
+        <f t="shared" si="64"/>
+        <v>106</v>
+      </c>
       <c r="L1835" s="2"/>
     </row>
     <row r="1836" spans="1:12" x14ac:dyDescent="0.2">
@@ -34104,6 +34132,10 @@
       <c r="E1836" s="2">
         <v>1954</v>
       </c>
+      <c r="F1836" s="2">
+        <f t="shared" si="64"/>
+        <v>62</v>
+      </c>
       <c r="L1836" s="2"/>
     </row>
     <row r="1837" spans="1:12" x14ac:dyDescent="0.2">
@@ -34118,6 +34150,10 @@
       </c>
       <c r="E1837" s="2">
         <v>1580</v>
+      </c>
+      <c r="F1837" s="2">
+        <f t="shared" si="64"/>
+        <v>30</v>
       </c>
       <c r="I1837" s="2">
         <v>795600</v>
@@ -34135,6 +34171,10 @@
       <c r="E1838" s="2">
         <v>1182</v>
       </c>
+      <c r="F1838" s="2">
+        <f t="shared" si="64"/>
+        <v>9</v>
+      </c>
       <c r="L1838" s="2"/>
     </row>
     <row r="1839" spans="1:12" x14ac:dyDescent="0.2">
@@ -34148,6 +34188,10 @@
       <c r="E1839" s="2">
         <v>1667</v>
       </c>
+      <c r="F1839" s="2">
+        <f t="shared" si="64"/>
+        <v>66</v>
+      </c>
       <c r="L1839" s="2"/>
     </row>
     <row r="1840" spans="1:12" x14ac:dyDescent="0.2">
@@ -34161,6 +34205,10 @@
       <c r="E1840" s="2">
         <v>1074</v>
       </c>
+      <c r="F1840" s="2">
+        <f t="shared" si="64"/>
+        <v>37</v>
+      </c>
       <c r="L1840" s="2"/>
     </row>
     <row r="1841" spans="2:9" x14ac:dyDescent="0.2">
@@ -34174,6 +34222,10 @@
       <c r="E1841" s="2">
         <v>929</v>
       </c>
+      <c r="F1841" s="2">
+        <f t="shared" si="64"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="1842" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1842" s="3" t="s">
@@ -34187,6 +34239,10 @@
       </c>
       <c r="E1842" s="2">
         <v>896</v>
+      </c>
+      <c r="F1842" s="2">
+        <f t="shared" si="64"/>
+        <v>645</v>
       </c>
       <c r="I1842" s="2">
         <v>599919</v>
@@ -34203,6 +34259,10 @@
       <c r="E1843" s="2">
         <v>1650</v>
       </c>
+      <c r="F1843" s="2">
+        <f t="shared" si="64"/>
+        <v>937</v>
+      </c>
     </row>
     <row r="1844" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1844" s="3"/>
@@ -34215,6 +34275,10 @@
       <c r="E1844" s="2">
         <v>968</v>
       </c>
+      <c r="F1844" s="2">
+        <f t="shared" si="64"/>
+        <v>496</v>
+      </c>
     </row>
     <row r="1845" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1845" s="3"/>
@@ -34227,6 +34291,10 @@
       <c r="E1845" s="2">
         <v>841</v>
       </c>
+      <c r="F1845" s="2">
+        <f t="shared" si="64"/>
+        <v>507</v>
+      </c>
       <c r="I1845" s="2">
         <v>568023</v>
       </c>
@@ -34242,6 +34310,10 @@
       <c r="E1846" s="2">
         <v>779</v>
       </c>
+      <c r="F1846" s="2">
+        <f t="shared" si="64"/>
+        <v>334</v>
+      </c>
     </row>
     <row r="1847" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1847" s="3" t="s">
@@ -34255,6 +34327,10 @@
       </c>
       <c r="E1847" s="2">
         <v>2463</v>
+      </c>
+      <c r="F1847" s="2">
+        <f t="shared" si="64"/>
+        <v>31</v>
       </c>
     </row>
     <row r="1848" spans="2:9" x14ac:dyDescent="0.2">
@@ -34268,6 +34344,10 @@
       <c r="E1848" s="2">
         <v>992</v>
       </c>
+      <c r="F1848" s="2">
+        <f t="shared" si="64"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="1849" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1849" s="3"/>
@@ -34280,6 +34360,10 @@
       <c r="E1849" s="2">
         <v>814</v>
       </c>
+      <c r="F1849" s="2">
+        <f t="shared" si="64"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="1850" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1850" s="3"/>
@@ -34292,6 +34376,10 @@
       <c r="E1850" s="2">
         <v>252</v>
       </c>
+      <c r="F1850" s="2">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="1851" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1851" s="3"/>
@@ -34304,6 +34392,10 @@
       <c r="E1851" s="2">
         <v>99</v>
       </c>
+      <c r="F1851" s="2">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="1852" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1852" s="3" t="s">
@@ -34317,6 +34409,10 @@
       </c>
       <c r="E1852" s="2">
         <v>1320</v>
+      </c>
+      <c r="F1852" s="2">
+        <f t="shared" si="64"/>
+        <v>91</v>
       </c>
       <c r="I1852" s="2">
         <f>SUM(72282+389431)</f>
@@ -34334,6 +34430,10 @@
       <c r="E1853" s="2">
         <v>693</v>
       </c>
+      <c r="F1853" s="2">
+        <f t="shared" si="64"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="1854" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1854" s="3"/>
@@ -34346,6 +34446,10 @@
       <c r="E1854" s="2">
         <v>559</v>
       </c>
+      <c r="F1854" s="2">
+        <f t="shared" si="64"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="1855" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1855" s="3"/>
@@ -34358,6 +34462,10 @@
       <c r="E1855" s="2">
         <v>228</v>
       </c>
+      <c r="F1855" s="2">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="1856" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1856" s="3"/>
@@ -34370,34 +34478,550 @@
       <c r="E1856" s="2">
         <v>317</v>
       </c>
-    </row>
-    <row r="1857" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F1856" s="2">
+        <f t="shared" si="64"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1857" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C1857" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="1858" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D1857" s="2">
+        <v>55899</v>
+      </c>
+      <c r="E1857" s="2">
+        <v>2384</v>
+      </c>
+      <c r="F1857" s="2">
+        <f t="shared" si="64"/>
+        <v>974</v>
+      </c>
+      <c r="I1857" s="2">
+        <v>2071591</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1858" s="3"/>
       <c r="C1858" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="1859" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D1858" s="2">
+        <v>7556</v>
+      </c>
+      <c r="E1858" s="2">
+        <v>312</v>
+      </c>
+      <c r="F1858" s="2">
+        <f t="shared" si="64"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1859" s="3"/>
       <c r="C1859" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1860" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D1859" s="2">
+        <v>7921</v>
+      </c>
+      <c r="E1859" s="2">
+        <v>344</v>
+      </c>
+      <c r="F1859" s="2">
+        <f t="shared" si="64"/>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1860" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1861" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D1860" s="2">
+        <v>2797</v>
+      </c>
+      <c r="E1860" s="2">
+        <v>144</v>
+      </c>
+      <c r="F1860" s="2">
+        <f t="shared" si="64"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1861" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1861" s="2">
+        <v>6640</v>
+      </c>
+      <c r="E1861" s="2">
+        <v>147</v>
+      </c>
+      <c r="F1861" s="2">
+        <f t="shared" si="64"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1862" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B1862" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1862" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1862" s="2">
+        <v>62293</v>
+      </c>
+      <c r="E1862" s="2">
+        <v>3942</v>
+      </c>
+      <c r="F1862" s="2">
+        <f t="shared" si="64"/>
+        <v>199</v>
+      </c>
+      <c r="I1862" s="2">
+        <v>2167831</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1863" s="3"/>
+      <c r="C1863" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1863" s="2">
+        <v>56242</v>
+      </c>
+      <c r="E1863" s="2">
+        <v>4427</v>
+      </c>
+      <c r="F1863" s="2">
+        <f t="shared" si="64"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1864" s="3"/>
+      <c r="C1864" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1864" s="2">
+        <v>40572</v>
+      </c>
+      <c r="E1864" s="2">
+        <v>2622</v>
+      </c>
+      <c r="F1864" s="2">
+        <f t="shared" si="64"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1865" s="3"/>
+      <c r="C1865" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1865" s="2">
+        <v>45466</v>
+      </c>
+      <c r="E1865" s="2">
+        <v>2970</v>
+      </c>
+      <c r="F1865" s="2">
+        <f t="shared" si="64"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1866" s="3"/>
+      <c r="C1866" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1866" s="2">
+        <v>39980</v>
+      </c>
+      <c r="E1866" s="2">
+        <v>1957</v>
+      </c>
+      <c r="F1866" s="2">
+        <f t="shared" si="64"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1867" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1867" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1867" s="2">
+        <v>18333</v>
+      </c>
+      <c r="E1867" s="2">
+        <v>1584</v>
+      </c>
+      <c r="F1867" s="2">
+        <f t="shared" si="64"/>
+        <v>31</v>
+      </c>
+      <c r="I1867" s="2">
+        <v>817677</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1868" s="3"/>
+      <c r="C1868" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1868" s="2">
+        <v>18455</v>
+      </c>
+      <c r="E1868" s="2">
+        <v>1188</v>
+      </c>
+      <c r="F1868" s="2">
+        <f t="shared" si="64"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1869" s="3"/>
+      <c r="C1869" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1869" s="2">
+        <v>17752</v>
+      </c>
+      <c r="E1869" s="2">
+        <v>1672</v>
+      </c>
+      <c r="F1869" s="2">
+        <f t="shared" si="64"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1870" s="3"/>
+      <c r="C1870" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1870" s="2">
+        <v>15868</v>
+      </c>
+      <c r="E1870" s="2">
+        <v>1078</v>
+      </c>
+      <c r="F1870" s="2">
+        <f t="shared" si="64"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1871" s="3"/>
+      <c r="C1871" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1871" s="2">
+        <v>16234</v>
+      </c>
+      <c r="E1871" s="2">
+        <v>931</v>
+      </c>
+      <c r="F1871" s="2">
+        <f t="shared" si="64"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1872" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1872" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1872" s="2">
+        <v>18636</v>
+      </c>
+      <c r="E1872" s="2">
+        <v>902</v>
+      </c>
+      <c r="F1872" s="2">
+        <f t="shared" si="64"/>
+        <v>55</v>
+      </c>
+      <c r="I1872" s="2">
+        <v>605771</v>
+      </c>
+    </row>
+    <row r="1873" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1873" s="3"/>
+      <c r="C1873" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1873" s="2">
+        <v>22296</v>
+      </c>
+      <c r="E1873" s="2">
+        <v>1663</v>
+      </c>
+      <c r="F1873" s="2">
+        <f t="shared" si="64"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1874" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1874" s="3"/>
+      <c r="C1874" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1874" s="2">
+        <v>14795</v>
+      </c>
+      <c r="E1874" s="2">
+        <v>971</v>
+      </c>
+      <c r="F1874" s="2">
+        <f t="shared" si="64"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1875" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1875" s="3"/>
+      <c r="C1875" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1875" s="2">
+        <v>8600</v>
+      </c>
+      <c r="E1875" s="2">
+        <v>845</v>
+      </c>
+      <c r="F1875" s="2">
+        <f t="shared" si="64"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1876" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1876" s="3"/>
+      <c r="C1876" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1876" s="2">
+        <v>11438</v>
+      </c>
+      <c r="E1876" s="2">
+        <v>790</v>
+      </c>
+      <c r="F1876" s="2">
+        <f t="shared" si="64"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1877" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1877" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1877" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1877" s="2">
+        <v>20468</v>
+      </c>
+      <c r="E1877" s="2">
+        <v>2475</v>
+      </c>
+      <c r="F1877" s="2">
+        <f t="shared" si="64"/>
+        <v>22</v>
+      </c>
+      <c r="I1877" s="2">
+        <v>577268</v>
+      </c>
+    </row>
+    <row r="1878" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1878" s="3"/>
+      <c r="C1878" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1878" s="2">
+        <v>8412</v>
+      </c>
+      <c r="E1878" s="2">
+        <v>999</v>
+      </c>
+      <c r="F1878" s="2">
+        <f t="shared" si="64"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1879" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1879" s="3"/>
+      <c r="C1879" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1879" s="2">
+        <v>6720</v>
+      </c>
+      <c r="E1879" s="2">
+        <v>818</v>
+      </c>
+      <c r="F1879" s="2">
+        <f t="shared" si="64"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1880" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1880" s="3"/>
+      <c r="C1880" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1880" s="2">
+        <v>2021</v>
+      </c>
+      <c r="E1880" s="2">
+        <v>252</v>
+      </c>
+      <c r="F1880" s="2">
+        <f t="shared" si="64"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1881" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1881" s="3"/>
+      <c r="C1881" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1881" s="2">
+        <v>1340</v>
+      </c>
+      <c r="E1881" s="2">
+        <v>99</v>
+      </c>
+      <c r="F1881" s="2">
+        <f t="shared" si="64"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1882" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1882" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1882" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1882" s="2">
+        <v>18703</v>
+      </c>
+      <c r="E1882" s="2">
+        <v>1346</v>
+      </c>
+      <c r="F1882" s="2">
+        <f t="shared" si="64"/>
+        <v>186</v>
+      </c>
+      <c r="I1882" s="2">
+        <f>SUM(72894+399361)</f>
+        <v>472255</v>
+      </c>
+    </row>
+    <row r="1883" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1883" s="3"/>
+      <c r="C1883" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1883" s="2">
+        <v>7172</v>
+      </c>
+      <c r="E1883" s="2">
+        <v>699</v>
+      </c>
+      <c r="F1883" s="2">
+        <f t="shared" si="64"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1884" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1884" s="3"/>
+      <c r="C1884" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1884" s="2">
+        <v>6496</v>
+      </c>
+      <c r="E1884" s="2">
+        <v>567</v>
+      </c>
+      <c r="F1884" s="2">
+        <f t="shared" si="64"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1885" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1885" s="3"/>
+      <c r="C1885" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1885" s="2">
+        <v>3780</v>
+      </c>
+      <c r="E1885" s="2">
+        <v>235</v>
+      </c>
+      <c r="F1885" s="2">
+        <f t="shared" si="64"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1886" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1886" s="3"/>
+      <c r="C1886" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1886" s="2">
+        <v>4107</v>
+      </c>
+      <c r="E1886" s="2">
+        <v>321</v>
+      </c>
+      <c r="F1886" s="2">
+        <f t="shared" si="64"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1887" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1887" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1887" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1888" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1888" s="3"/>
+      <c r="C1888" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1889" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1889" s="3"/>
+      <c r="C1889" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1890" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1890" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1891" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C1891" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAAE3B0-2D82-FD4A-8533-E308637B31FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25750689-B268-4C4E-AFC7-E88303A20BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="13720" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="6220" yWindow="460" windowWidth="13720" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M1891"/>
+  <dimension ref="A1:M1951"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1868" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1810" sqref="F1810"/>
+    <sheetView tabSelected="1" topLeftCell="A1920" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F1940" sqref="F1940"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33991,7 +33991,7 @@
         <v>312</v>
       </c>
       <c r="F1828" s="2">
-        <f t="shared" ref="F1828:F1891" si="64">SUM(D1828-D1798)</f>
+        <f t="shared" ref="F1828:F1886" si="64">SUM(D1828-D1798)</f>
         <v>96</v>
       </c>
       <c r="L1828" s="2"/>
@@ -35002,26 +35002,1041 @@
       <c r="C1887" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D1887" s="2">
+        <v>57144</v>
+      </c>
+      <c r="E1887" s="2">
+        <v>2443</v>
+      </c>
+      <c r="F1887" s="2">
+        <f>SUM(D1887-D1857)</f>
+        <v>1245</v>
+      </c>
+      <c r="I1887" s="2">
+        <v>2131294</v>
+      </c>
     </row>
     <row r="1888" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1888" s="3"/>
       <c r="C1888" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="1889" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D1888" s="2">
+        <v>7676</v>
+      </c>
+      <c r="E1888" s="2">
+        <v>312</v>
+      </c>
+      <c r="F1888" s="2">
+        <f t="shared" ref="F1888:F1951" si="65">SUM(D1888-D1858)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1889" s="3"/>
       <c r="C1889" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1890" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D1889" s="2">
+        <v>8091</v>
+      </c>
+      <c r="E1889" s="2">
+        <v>344</v>
+      </c>
+      <c r="F1889" s="2">
+        <f t="shared" si="65"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1890" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1891" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D1890" s="2">
+        <v>2819</v>
+      </c>
+      <c r="E1890" s="2">
+        <v>144</v>
+      </c>
+      <c r="F1890" s="2">
+        <f t="shared" si="65"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1891" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1891" s="2">
+        <v>6790</v>
+      </c>
+      <c r="E1891" s="2">
+        <v>150</v>
+      </c>
+      <c r="F1891" s="2">
+        <f t="shared" si="65"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1892" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B1892" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1892" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1892" s="2">
+        <v>62425</v>
+      </c>
+      <c r="E1892" s="2">
+        <v>3946</v>
+      </c>
+      <c r="F1892" s="2">
+        <f t="shared" si="65"/>
+        <v>132</v>
+      </c>
+      <c r="I1892" s="2">
+        <v>2229473</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1893" s="3"/>
+      <c r="C1893" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1893" s="2">
+        <v>56405</v>
+      </c>
+      <c r="E1893" s="2">
+        <v>4436</v>
+      </c>
+      <c r="F1893" s="2">
+        <f t="shared" si="65"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1894" s="3"/>
+      <c r="C1894" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1894" s="2">
+        <v>40644</v>
+      </c>
+      <c r="E1894" s="2">
+        <v>2626</v>
+      </c>
+      <c r="F1894" s="2">
+        <f t="shared" si="65"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1895" s="3"/>
+      <c r="C1895" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1895" s="2">
+        <v>45571</v>
+      </c>
+      <c r="E1895" s="2">
+        <v>2973</v>
+      </c>
+      <c r="F1895" s="2">
+        <f t="shared" si="65"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1896" s="3"/>
+      <c r="C1896" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1896" s="2">
+        <v>40062</v>
+      </c>
+      <c r="E1896" s="2">
+        <v>1963</v>
+      </c>
+      <c r="F1896" s="2">
+        <f t="shared" si="65"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1897" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1897" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1897" s="2">
+        <v>18376</v>
+      </c>
+      <c r="E1897" s="2">
+        <v>1595</v>
+      </c>
+      <c r="F1897" s="2">
+        <f t="shared" si="65"/>
+        <v>43</v>
+      </c>
+      <c r="I1897" s="2">
+        <v>837420</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1898" s="3"/>
+      <c r="C1898" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1898" s="2">
+        <v>18460</v>
+      </c>
+      <c r="E1898" s="2">
+        <v>1192</v>
+      </c>
+      <c r="F1898" s="2">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1899" s="3"/>
+      <c r="C1899" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1899" s="2">
+        <v>17811</v>
+      </c>
+      <c r="E1899" s="2">
+        <v>1687</v>
+      </c>
+      <c r="F1899" s="2">
+        <f t="shared" si="65"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1900" s="3"/>
+      <c r="C1900" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1900" s="2">
+        <v>15911</v>
+      </c>
+      <c r="E1900" s="2">
+        <v>1086</v>
+      </c>
+      <c r="F1900" s="2">
+        <f t="shared" si="65"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1901" s="3"/>
+      <c r="C1901" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1901" s="2">
+        <v>16277</v>
+      </c>
+      <c r="E1901" s="2">
+        <v>940</v>
+      </c>
+      <c r="F1901" s="2">
+        <f t="shared" si="65"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1902" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1902" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1902" s="2">
+        <v>18733</v>
+      </c>
+      <c r="E1902" s="2">
+        <v>908</v>
+      </c>
+      <c r="F1902" s="2">
+        <f t="shared" si="65"/>
+        <v>97</v>
+      </c>
+      <c r="I1902" s="2">
+        <v>614133</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1903" s="3"/>
+      <c r="C1903" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1903" s="2">
+        <v>22403</v>
+      </c>
+      <c r="E1903" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F1903" s="2">
+        <f t="shared" si="65"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1904" s="3"/>
+      <c r="C1904" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1904" s="2">
+        <v>14857</v>
+      </c>
+      <c r="E1904" s="2">
+        <v>979</v>
+      </c>
+      <c r="F1904" s="2">
+        <f t="shared" si="65"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1905" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1905" s="3"/>
+      <c r="C1905" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1905" s="2">
+        <v>8613</v>
+      </c>
+      <c r="E1905" s="2">
+        <v>850</v>
+      </c>
+      <c r="F1905" s="2">
+        <f t="shared" si="65"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1906" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1906" s="3"/>
+      <c r="C1906" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1906" s="2">
+        <v>11465</v>
+      </c>
+      <c r="E1906" s="2">
+        <v>804</v>
+      </c>
+      <c r="F1906" s="2">
+        <f t="shared" si="65"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1907" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1907" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1907" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1907" s="2">
+        <v>20541</v>
+      </c>
+      <c r="E1907" s="2">
+        <v>2479</v>
+      </c>
+      <c r="F1907" s="2">
+        <f t="shared" si="65"/>
+        <v>73</v>
+      </c>
+      <c r="I1907" s="2">
+        <v>593549</v>
+      </c>
+    </row>
+    <row r="1908" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1908" s="3"/>
+      <c r="C1908" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1908" s="2">
+        <v>8425</v>
+      </c>
+      <c r="E1908" s="2">
+        <v>1003</v>
+      </c>
+      <c r="F1908" s="2">
+        <f t="shared" si="65"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1909" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1909" s="3"/>
+      <c r="C1909" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1909" s="2">
+        <v>6769</v>
+      </c>
+      <c r="E1909" s="2">
+        <v>826</v>
+      </c>
+      <c r="F1909" s="2">
+        <f t="shared" si="65"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="1910" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1910" s="3"/>
+      <c r="C1910" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1910" s="2">
+        <v>2049</v>
+      </c>
+      <c r="E1910" s="2">
+        <v>252</v>
+      </c>
+      <c r="F1910" s="2">
+        <f t="shared" si="65"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1911" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1911" s="3"/>
+      <c r="C1911" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1911" s="2">
+        <v>1341</v>
+      </c>
+      <c r="E1911" s="2">
+        <v>100</v>
+      </c>
+      <c r="F1911" s="2">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1912" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1912" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1912" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1912" s="2">
+        <v>18785</v>
+      </c>
+      <c r="E1912" s="2">
+        <v>1359</v>
+      </c>
+      <c r="F1912" s="2">
+        <f t="shared" si="65"/>
+        <v>82</v>
+      </c>
+      <c r="I1912" s="2">
+        <f>SUM(73405+408269)</f>
+        <v>481674</v>
+      </c>
+    </row>
+    <row r="1913" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1913" s="3"/>
+      <c r="C1913" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1913" s="2">
+        <v>7242</v>
+      </c>
+      <c r="E1913" s="2">
+        <v>702</v>
+      </c>
+      <c r="F1913" s="2">
+        <f t="shared" si="65"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1914" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1914" s="3"/>
+      <c r="C1914" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1914" s="2">
+        <v>6548</v>
+      </c>
+      <c r="E1914" s="2">
+        <v>576</v>
+      </c>
+      <c r="F1914" s="2">
+        <f t="shared" si="65"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1915" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1915" s="3"/>
+      <c r="C1915" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1915" s="2">
+        <v>3802</v>
+      </c>
+      <c r="E1915" s="2">
+        <v>239</v>
+      </c>
+      <c r="F1915" s="2">
+        <f t="shared" si="65"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1916" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1916" s="3"/>
+      <c r="C1916" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1916" s="2">
+        <v>4152</v>
+      </c>
+      <c r="E1916" s="2">
+        <v>322</v>
+      </c>
+      <c r="F1916" s="2">
+        <f t="shared" si="65"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="1917" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1917" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1917" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1917" s="2">
+        <v>58166</v>
+      </c>
+      <c r="E1917" s="2">
+        <v>2489</v>
+      </c>
+      <c r="F1917" s="2">
+        <f t="shared" si="65"/>
+        <v>1022</v>
+      </c>
+      <c r="I1917" s="2">
+        <v>2182671</v>
+      </c>
+    </row>
+    <row r="1918" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1918" s="3"/>
+      <c r="C1918" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1918" s="2">
+        <v>7800</v>
+      </c>
+      <c r="E1918" s="2">
+        <v>312</v>
+      </c>
+      <c r="F1918" s="2">
+        <f t="shared" si="65"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="1919" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1919" s="3"/>
+      <c r="C1919" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1919" s="2">
+        <v>8208</v>
+      </c>
+      <c r="E1919" s="2">
+        <v>345</v>
+      </c>
+      <c r="F1919" s="2">
+        <f t="shared" si="65"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1920" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1920" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1920" s="2">
+        <v>2836</v>
+      </c>
+      <c r="E1920" s="2">
+        <v>144</v>
+      </c>
+      <c r="F1920" s="2">
+        <f t="shared" si="65"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C1921" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1921" s="2">
+        <v>6939</v>
+      </c>
+      <c r="E1921" s="2">
+        <v>158</v>
+      </c>
+      <c r="F1921" s="2">
+        <f t="shared" si="65"/>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1922" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B1922" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1922" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1922" s="2">
+        <v>62542</v>
+      </c>
+      <c r="E1922" s="2">
+        <v>3952</v>
+      </c>
+      <c r="F1922" s="2">
+        <f t="shared" si="65"/>
+        <v>117</v>
+      </c>
+      <c r="I1922" s="2">
+        <v>2293032</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1923" s="3"/>
+      <c r="C1923" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1923" s="2">
+        <v>56587</v>
+      </c>
+      <c r="E1923" s="2">
+        <v>4442</v>
+      </c>
+      <c r="F1923" s="2">
+        <f t="shared" si="65"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1924" s="3"/>
+      <c r="C1924" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1924" s="2">
+        <v>40713</v>
+      </c>
+      <c r="E1924" s="2">
+        <v>2629</v>
+      </c>
+      <c r="F1924" s="2">
+        <f t="shared" si="65"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1925" s="3"/>
+      <c r="C1925" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1925" s="2">
+        <v>45688</v>
+      </c>
+      <c r="E1925" s="2">
+        <v>2982</v>
+      </c>
+      <c r="F1925" s="2">
+        <f t="shared" si="65"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1926" s="3"/>
+      <c r="C1926" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1926" s="2">
+        <v>40153</v>
+      </c>
+      <c r="E1926" s="2">
+        <v>1963</v>
+      </c>
+      <c r="F1926" s="2">
+        <f t="shared" si="65"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1927" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1927" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1927" s="2">
+        <v>18408</v>
+      </c>
+      <c r="E1927" s="2">
+        <v>1603</v>
+      </c>
+      <c r="F1927" s="2">
+        <f t="shared" si="65"/>
+        <v>32</v>
+      </c>
+      <c r="I1927" s="2">
+        <v>857729</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1928" s="3"/>
+      <c r="C1928" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1928" s="2">
+        <v>18465</v>
+      </c>
+      <c r="E1928" s="2">
+        <v>1199</v>
+      </c>
+      <c r="F1928" s="2">
+        <f t="shared" si="65"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1929" s="3"/>
+      <c r="C1929" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1929" s="2">
+        <v>17912</v>
+      </c>
+      <c r="E1929" s="2">
+        <v>1694</v>
+      </c>
+      <c r="F1929" s="2">
+        <f t="shared" si="65"/>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1930" s="3"/>
+      <c r="C1930" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1930" s="2">
+        <v>15953</v>
+      </c>
+      <c r="E1930" s="2">
+        <v>1088</v>
+      </c>
+      <c r="F1930" s="2">
+        <f t="shared" si="65"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1931" s="3"/>
+      <c r="C1931" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1931" s="2">
+        <v>16311</v>
+      </c>
+      <c r="E1931" s="2">
+        <v>954</v>
+      </c>
+      <c r="F1931" s="2">
+        <f t="shared" si="65"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1932" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1932" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1932" s="2">
+        <v>18790</v>
+      </c>
+      <c r="E1932" s="2">
+        <v>913</v>
+      </c>
+      <c r="F1932" s="2">
+        <f t="shared" si="65"/>
+        <v>57</v>
+      </c>
+      <c r="I1932" s="2">
+        <v>621248</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1933" s="3"/>
+      <c r="C1933" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1933" s="2">
+        <v>22485</v>
+      </c>
+      <c r="E1933" s="2">
+        <v>1689</v>
+      </c>
+      <c r="F1933" s="2">
+        <f t="shared" si="65"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1934" s="3"/>
+      <c r="C1934" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1934" s="2">
+        <v>14969</v>
+      </c>
+      <c r="E1934" s="2">
+        <v>986</v>
+      </c>
+      <c r="F1934" s="2">
+        <f t="shared" si="65"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1935" s="3"/>
+      <c r="C1935" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1935" s="2">
+        <v>8625</v>
+      </c>
+      <c r="E1935" s="2">
+        <v>854</v>
+      </c>
+      <c r="F1935" s="2">
+        <f t="shared" si="65"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1936" s="3"/>
+      <c r="C1936" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1936" s="2">
+        <v>11529</v>
+      </c>
+      <c r="E1936" s="2">
+        <v>808</v>
+      </c>
+      <c r="F1936" s="2">
+        <f t="shared" si="65"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1937" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1937" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1937" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1937" s="2">
+        <f>SUM(11116+9474)</f>
+        <v>20590</v>
+      </c>
+      <c r="E1937" s="2">
+        <f>SUM(1104+1388)</f>
+        <v>2492</v>
+      </c>
+      <c r="F1937" s="2">
+        <f t="shared" si="65"/>
+        <v>49</v>
+      </c>
+      <c r="I1937" s="2">
+        <v>608983</v>
+      </c>
+    </row>
+    <row r="1938" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1938" s="3"/>
+      <c r="C1938" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1938" s="2">
+        <v>8438</v>
+      </c>
+      <c r="E1938" s="2">
+        <v>1006</v>
+      </c>
+      <c r="F1938" s="2">
+        <f t="shared" si="65"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1939" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1939" s="3"/>
+      <c r="C1939" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1939" s="2">
+        <v>6790</v>
+      </c>
+      <c r="E1939" s="2">
+        <v>828</v>
+      </c>
+      <c r="F1939" s="2">
+        <f t="shared" si="65"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1940" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1940" s="3"/>
+      <c r="C1940" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1940" s="2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1941" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1941" s="3"/>
+      <c r="C1941" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1941" s="2">
+        <v>1347</v>
+      </c>
+      <c r="E1941" s="2">
+        <v>100</v>
+      </c>
+      <c r="F1941" s="2">
+        <f t="shared" si="65"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1942" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1942" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1942" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1942" s="2">
+        <v>18888</v>
+      </c>
+      <c r="E1942" s="2">
+        <v>1394</v>
+      </c>
+      <c r="F1942" s="2">
+        <f t="shared" si="65"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="1943" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1943" s="3"/>
+      <c r="C1943" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1943" s="2">
+        <v>7351</v>
+      </c>
+      <c r="E1943" s="2">
+        <v>713</v>
+      </c>
+      <c r="F1943" s="2">
+        <f t="shared" si="65"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="1944" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1944" s="3"/>
+      <c r="C1944" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1944" s="2">
+        <v>6587</v>
+      </c>
+      <c r="E1944" s="2">
+        <v>614</v>
+      </c>
+      <c r="F1944" s="2">
+        <f t="shared" si="65"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1945" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1945" s="3"/>
+      <c r="C1945" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1945" s="2">
+        <v>3817</v>
+      </c>
+      <c r="E1945" s="2">
+        <v>242</v>
+      </c>
+      <c r="F1945" s="2">
+        <f t="shared" si="65"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1946" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1946" s="3"/>
+      <c r="C1946" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1946" s="2">
+        <v>4152</v>
+      </c>
+      <c r="E1946" s="2">
+        <v>323</v>
+      </c>
+      <c r="F1946" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1947" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1947" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1947" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1948" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1948" s="3"/>
+      <c r="C1948" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1949" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1949" s="3"/>
+      <c r="C1949" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1950" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1950" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1951" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1951" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25750689-B268-4C4E-AFC7-E88303A20BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B11E4D-5DA7-BD41-91E2-839D0D95C866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="460" windowWidth="13720" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="13720" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M1951"/>
+  <dimension ref="A1:M1981"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1920" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F1940" sqref="F1940"/>
+    <sheetView tabSelected="1" topLeftCell="A1927" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G1970" sqref="G1970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -33974,7 +33974,7 @@
         <f>SUM(D1827-D1797)</f>
         <v>1298</v>
       </c>
-      <c r="H1827" s="2">
+      <c r="I1827" s="2">
         <v>2012583</v>
       </c>
       <c r="L1827" s="2"/>
@@ -34295,9 +34295,6 @@
         <f t="shared" si="64"/>
         <v>507</v>
       </c>
-      <c r="I1845" s="2">
-        <v>568023</v>
-      </c>
     </row>
     <row r="1846" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1846" s="3"/>
@@ -34332,6 +34329,9 @@
         <f t="shared" si="64"/>
         <v>31</v>
       </c>
+      <c r="I1847" s="2">
+        <v>568023</v>
+      </c>
     </row>
     <row r="1848" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1848" s="3"/>
@@ -35028,7 +35028,7 @@
         <v>312</v>
       </c>
       <c r="F1888" s="2">
-        <f t="shared" ref="F1888:F1951" si="65">SUM(D1888-D1858)</f>
+        <f t="shared" ref="F1888:F1946" si="65">SUM(D1888-D1858)</f>
         <v>120</v>
       </c>
     </row>
@@ -35848,7 +35848,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="1937" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1937" s="3" t="s">
         <v>23</v>
       </c>
@@ -35871,7 +35871,7 @@
         <v>608983</v>
       </c>
     </row>
-    <row r="1938" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1938" s="3"/>
       <c r="C1938" s="3" t="s">
         <v>25</v>
@@ -35887,7 +35887,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="1939" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1939" s="3"/>
       <c r="C1939" s="3" t="s">
         <v>28</v>
@@ -35903,7 +35903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1940" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1940" s="3"/>
       <c r="C1940" s="3" t="s">
         <v>38</v>
@@ -35912,7 +35912,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="1941" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1941" s="3"/>
       <c r="C1941" s="3" t="s">
         <v>39</v>
@@ -35928,7 +35928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="1942" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1942" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1942" s="3" t="s">
         <v>16</v>
       </c>
@@ -35946,7 +35946,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="1943" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1943" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1943" s="3"/>
       <c r="C1943" s="3" t="s">
         <v>18</v>
@@ -35962,7 +35962,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="1944" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1944" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1944" s="3"/>
       <c r="C1944" s="3" t="s">
         <v>19</v>
@@ -35978,7 +35978,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1945" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1945" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1945" s="3"/>
       <c r="C1945" s="3" t="s">
         <v>40</v>
@@ -35994,7 +35994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1946" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1946" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1946" s="3"/>
       <c r="C1946" s="3" t="s">
         <v>41</v>
@@ -36010,33 +36010,541 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1947" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="1947" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1947" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C1947" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="1948" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D1947" s="2">
+        <v>59596</v>
+      </c>
+      <c r="E1947" s="2">
+        <v>2531</v>
+      </c>
+      <c r="F1947" s="2">
+        <f>SUM(D1947-D1917)</f>
+        <v>1430</v>
+      </c>
+      <c r="I1947" s="2">
+        <v>2238463</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1948" s="3"/>
       <c r="C1948" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="1949" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D1948" s="2">
+        <v>7942</v>
+      </c>
+      <c r="E1948" s="2">
+        <v>312</v>
+      </c>
+      <c r="F1948" s="2">
+        <f t="shared" ref="F1948:F1981" si="66">SUM(D1948-D1918)</f>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1949" s="3"/>
       <c r="C1949" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="1950" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D1949" s="2">
+        <v>8473</v>
+      </c>
+      <c r="E1949" s="2">
+        <v>345</v>
+      </c>
+      <c r="F1949" s="2">
+        <f t="shared" si="66"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1950" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="1951" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D1950" s="2">
+        <v>2871</v>
+      </c>
+      <c r="E1950" s="2">
+        <v>144</v>
+      </c>
+      <c r="F1950" s="2">
+        <f t="shared" si="66"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C1951" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1951" s="2">
+        <v>7192</v>
+      </c>
+      <c r="E1951" s="2">
+        <v>165</v>
+      </c>
+      <c r="F1951" s="2">
+        <f t="shared" si="66"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1952" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B1952" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1952" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1952" s="2">
+        <v>62692</v>
+      </c>
+      <c r="E1952" s="2">
+        <v>3953</v>
+      </c>
+      <c r="F1952" s="2">
+        <f t="shared" si="66"/>
+        <v>150</v>
+      </c>
+      <c r="I1952" s="2">
+        <v>2359512</v>
+      </c>
+    </row>
+    <row r="1953" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1953" s="3"/>
+      <c r="C1953" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1953" s="2">
+        <v>56770</v>
+      </c>
+      <c r="E1953" s="2">
+        <v>4447</v>
+      </c>
+      <c r="F1953" s="2">
+        <f t="shared" si="66"/>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="1954" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1954" s="3"/>
+      <c r="C1954" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1954" s="2">
+        <v>40797</v>
+      </c>
+      <c r="E1954" s="2">
+        <v>2631</v>
+      </c>
+      <c r="F1954" s="2">
+        <f t="shared" si="66"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="1955" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1955" s="3"/>
+      <c r="C1955" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1955" s="2">
+        <v>45778</v>
+      </c>
+      <c r="E1955" s="2">
+        <v>2983</v>
+      </c>
+      <c r="F1955" s="2">
+        <f t="shared" si="66"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="1956" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1956" s="3"/>
+      <c r="C1956" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1956" s="2">
+        <v>40239</v>
+      </c>
+      <c r="E1956" s="2">
+        <v>1965</v>
+      </c>
+      <c r="F1956" s="2">
+        <f t="shared" si="66"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1957" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1957" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1957" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1957" s="2">
+        <v>18463</v>
+      </c>
+      <c r="E1957" s="2">
+        <v>1611</v>
+      </c>
+      <c r="F1957" s="2">
+        <f t="shared" si="66"/>
+        <v>55</v>
+      </c>
+      <c r="I1957" s="2">
+        <v>918891</v>
+      </c>
+    </row>
+    <row r="1958" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1958" s="3"/>
+      <c r="C1958" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1958" s="2">
+        <v>18518</v>
+      </c>
+      <c r="E1958" s="2">
+        <v>1205</v>
+      </c>
+      <c r="F1958" s="2">
+        <f t="shared" si="66"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1959" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1959" s="3"/>
+      <c r="C1959" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1959" s="2">
+        <v>18019</v>
+      </c>
+      <c r="E1959" s="2">
+        <v>1702</v>
+      </c>
+      <c r="F1959" s="2">
+        <f t="shared" si="66"/>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1960" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1960" s="3"/>
+      <c r="C1960" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1960" s="2">
+        <v>16038</v>
+      </c>
+      <c r="E1960" s="2">
+        <v>1092</v>
+      </c>
+      <c r="F1960" s="2">
+        <f t="shared" si="66"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1961" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1961" s="3"/>
+      <c r="C1961" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1961" s="2">
+        <v>16387</v>
+      </c>
+      <c r="E1961" s="2">
+        <v>957</v>
+      </c>
+      <c r="F1961" s="2">
+        <f t="shared" si="66"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1962" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1962" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1962" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1962" s="2">
+        <v>18858</v>
+      </c>
+      <c r="E1962" s="2">
+        <v>922</v>
+      </c>
+      <c r="F1962" s="2">
+        <f t="shared" si="66"/>
+        <v>68</v>
+      </c>
+      <c r="I1962" s="2">
+        <v>631008</v>
+      </c>
+    </row>
+    <row r="1963" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1963" s="3"/>
+      <c r="C1963" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1963" s="2">
+        <v>22583</v>
+      </c>
+      <c r="E1963" s="2">
+        <v>1695</v>
+      </c>
+      <c r="F1963" s="2">
+        <f t="shared" si="66"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="1964" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1964" s="3"/>
+      <c r="C1964" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1964" s="2">
+        <v>15064</v>
+      </c>
+      <c r="E1964" s="2">
+        <v>990</v>
+      </c>
+      <c r="F1964" s="2">
+        <f t="shared" si="66"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="1965" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1965" s="3"/>
+      <c r="C1965" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1965" s="2">
+        <v>8646</v>
+      </c>
+      <c r="E1965" s="2">
+        <v>855</v>
+      </c>
+      <c r="F1965" s="2">
+        <f t="shared" si="66"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1966" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1966" s="3"/>
+      <c r="C1966" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1966" s="2">
+        <v>11600</v>
+      </c>
+      <c r="E1966" s="2">
+        <v>813</v>
+      </c>
+      <c r="F1966" s="2">
+        <f t="shared" si="66"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1967" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1967" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1967" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1967" s="2">
+        <v>20663</v>
+      </c>
+      <c r="E1967" s="2">
+        <v>2498</v>
+      </c>
+      <c r="F1967" s="2">
+        <f t="shared" si="66"/>
+        <v>73</v>
+      </c>
+      <c r="I1967" s="2">
+        <v>627547</v>
+      </c>
+    </row>
+    <row r="1968" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1968" s="3"/>
+      <c r="C1968" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1968" s="2">
+        <v>8457</v>
+      </c>
+      <c r="E1968" s="2">
+        <v>1007</v>
+      </c>
+      <c r="F1968" s="2">
+        <f t="shared" si="66"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1969" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1969" s="3"/>
+      <c r="C1969" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1969" s="2">
+        <v>6815</v>
+      </c>
+      <c r="E1969" s="2">
+        <v>828</v>
+      </c>
+      <c r="F1969" s="2">
+        <f t="shared" si="66"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1970" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1970" s="3"/>
+      <c r="C1970" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1970" s="2">
+        <v>2050</v>
+      </c>
+      <c r="E1970" s="2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="1971" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1971" s="3"/>
+      <c r="C1971" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1971" s="2">
+        <v>1348</v>
+      </c>
+      <c r="E1971" s="2">
+        <v>100</v>
+      </c>
+      <c r="F1971" s="2">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1972" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1972" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1972" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1972" s="2">
+        <v>18977</v>
+      </c>
+      <c r="E1972" s="2">
+        <v>1411</v>
+      </c>
+      <c r="F1972" s="2">
+        <f t="shared" si="66"/>
+        <v>89</v>
+      </c>
+      <c r="I1972" s="2">
+        <f>SUM(74385+424201)</f>
+        <v>498586</v>
+      </c>
+    </row>
+    <row r="1973" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1973" s="3"/>
+      <c r="C1973" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1973" s="2">
+        <v>7416</v>
+      </c>
+      <c r="E1973" s="2">
+        <v>721</v>
+      </c>
+      <c r="F1973" s="2">
+        <f t="shared" si="66"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1974" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1974" s="3"/>
+      <c r="C1974" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1974" s="2">
+        <v>6608</v>
+      </c>
+      <c r="E1974" s="2">
+        <v>645</v>
+      </c>
+      <c r="F1974" s="2">
+        <f t="shared" si="66"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1975" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1975" s="3"/>
+      <c r="C1975" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1975" s="2">
+        <v>3829</v>
+      </c>
+      <c r="E1975" s="2">
+        <v>245</v>
+      </c>
+      <c r="F1975" s="2">
+        <f t="shared" si="66"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1976" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1976" s="3"/>
+      <c r="C1976" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1976" s="2">
+        <v>4167</v>
+      </c>
+      <c r="E1976" s="2">
+        <v>329</v>
+      </c>
+      <c r="F1976" s="2">
+        <f t="shared" si="66"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1977" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1977" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1977" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1978" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1978" s="3"/>
+      <c r="C1978" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1979" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1979" s="3"/>
+      <c r="C1979" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1980" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1980" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1981" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1981" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7EECC-FDA7-F340-909C-D5160E57CC27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68586C72-D752-F748-B3BD-F585A19BD962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="460" windowWidth="13720" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16420" yWindow="460" windowWidth="13720" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2161"/>
+  <dimension ref="A1:M2221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2100" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H1972" sqref="H1972"/>
+    <sheetView tabSelected="1" topLeftCell="A2176" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F2191" sqref="F2191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -47889,7 +47889,7 @@
         <v>1990</v>
       </c>
       <c r="F2106" s="2">
-        <f t="shared" ref="F2106:F2161" si="106">SUM(D2106-D2076)</f>
+        <f t="shared" ref="F2106:F2156" si="106">SUM(D2106-D2076)</f>
         <v>38</v>
       </c>
       <c r="H2106" s="2">
@@ -48780,7 +48780,7 @@
         <v>14</v>
       </c>
       <c r="H2148" s="2">
-        <f t="shared" ref="H2148:H2161" si="107">SUM(I2148-I2118)</f>
+        <f t="shared" ref="H2148:H2156" si="107">SUM(I2148-I2118)</f>
         <v>0</v>
       </c>
     </row>
@@ -48957,13 +48957,14 @@
       <c r="C2157" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2157" s="2">
-        <f t="shared" si="106"/>
-        <v>-67018</v>
-      </c>
-      <c r="H2157" s="2">
-        <f t="shared" si="107"/>
-        <v>-2597647</v>
+      <c r="D2157" s="2">
+        <v>68807</v>
+      </c>
+      <c r="E2157" s="2">
+        <v>2813</v>
+      </c>
+      <c r="I2157" s="2">
+        <v>2662258</v>
       </c>
     </row>
     <row r="2158" spans="2:9" x14ac:dyDescent="0.2">
@@ -48971,13 +48972,11 @@
       <c r="C2158" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F2158" s="2">
-        <f t="shared" si="106"/>
-        <v>-8839</v>
-      </c>
-      <c r="H2158" s="2">
-        <f t="shared" si="107"/>
-        <v>0</v>
+      <c r="D2158" s="2">
+        <v>9000</v>
+      </c>
+      <c r="E2158" s="2">
+        <v>312</v>
       </c>
     </row>
     <row r="2159" spans="2:9" x14ac:dyDescent="0.2">
@@ -48985,39 +48984,784 @@
       <c r="C2159" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2159" s="2">
-        <f t="shared" si="106"/>
-        <v>-9857</v>
-      </c>
-      <c r="H2159" s="2">
-        <f t="shared" si="107"/>
-        <v>0</v>
+      <c r="D2159" s="2">
+        <v>10014</v>
+      </c>
+      <c r="E2159" s="2">
+        <v>380</v>
       </c>
     </row>
     <row r="2160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2160" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2160" s="2">
-        <f t="shared" si="106"/>
-        <v>-3032</v>
-      </c>
-      <c r="H2160" s="2">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2161" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D2160" s="2">
+        <v>3049</v>
+      </c>
+      <c r="E2160" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2161" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F2161" s="2">
-        <f t="shared" si="106"/>
-        <v>-8222</v>
-      </c>
-      <c r="H2161" s="2">
-        <f t="shared" si="107"/>
-        <v>0</v>
+      <c r="D2161" s="2">
+        <v>8304</v>
+      </c>
+      <c r="E2161" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2162" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B2162" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2162" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2162" s="2">
+        <v>63573</v>
+      </c>
+      <c r="E2162" s="2">
+        <v>3988</v>
+      </c>
+      <c r="I2162" s="2">
+        <v>2801400</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2163" s="3"/>
+      <c r="C2163" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2163" s="2">
+        <v>57733</v>
+      </c>
+      <c r="E2163" s="2">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2164" s="3"/>
+      <c r="C2164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2164" s="2">
+        <v>41114</v>
+      </c>
+      <c r="E2164" s="2">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2165" s="3"/>
+      <c r="C2165" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2165" s="2">
+        <v>46396</v>
+      </c>
+      <c r="E2165" s="2">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2166" s="3"/>
+      <c r="C2166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2166" s="2">
+        <v>40559</v>
+      </c>
+      <c r="E2166" s="2">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2167" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2167" s="2">
+        <v>18743</v>
+      </c>
+      <c r="E2167" s="2">
+        <v>1649</v>
+      </c>
+      <c r="I2167" s="2">
+        <v>1055396</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2168" s="3"/>
+      <c r="C2168" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2168" s="2">
+        <v>18693</v>
+      </c>
+      <c r="E2168" s="2">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2169" s="3"/>
+      <c r="C2169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2169" s="2">
+        <v>18295</v>
+      </c>
+      <c r="E2169" s="2">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2170" s="3"/>
+      <c r="C2170" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2170" s="2">
+        <v>16351</v>
+      </c>
+      <c r="E2170" s="2">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2171" s="3"/>
+      <c r="C2171" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2171" s="2">
+        <v>16581</v>
+      </c>
+      <c r="E2171" s="2">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2172" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2172" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2172" s="2">
+        <v>19249</v>
+      </c>
+      <c r="E2172" s="2">
+        <v>941</v>
+      </c>
+      <c r="I2172" s="2">
+        <v>689111</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2173" s="3"/>
+      <c r="C2173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2173" s="2">
+        <v>23075</v>
+      </c>
+      <c r="E2173" s="2">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2174" s="3"/>
+      <c r="C2174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2174" s="2">
+        <v>15518</v>
+      </c>
+      <c r="E2174" s="2">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2175" s="3"/>
+      <c r="C2175" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2175" s="2">
+        <v>8842</v>
+      </c>
+      <c r="E2175" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2176" s="3"/>
+      <c r="C2176" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2176" s="2">
+        <v>11937</v>
+      </c>
+      <c r="E2176" s="2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2177" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2177" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2177" s="2">
+        <v>20948</v>
+      </c>
+      <c r="E2177" s="2">
+        <v>2547</v>
+      </c>
+      <c r="I2177" s="2">
+        <v>786287</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2178" s="3"/>
+      <c r="C2178" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2178" s="2">
+        <v>8533</v>
+      </c>
+      <c r="E2178" s="2">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2179" s="3"/>
+      <c r="C2179" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2179" s="2">
+        <v>6857</v>
+      </c>
+      <c r="E2179" s="2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2180" s="3"/>
+      <c r="C2180" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2180" s="2">
+        <v>2078</v>
+      </c>
+      <c r="E2180" s="2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2181" s="3"/>
+      <c r="C2181" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2181" s="2">
+        <v>1367</v>
+      </c>
+      <c r="E2181" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2182" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2182" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2182" s="2">
+        <v>19746</v>
+      </c>
+      <c r="E2182" s="2">
+        <v>1487</v>
+      </c>
+      <c r="I2182" s="2">
+        <f>SUM(77999+488385)</f>
+        <v>566384</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2183" s="3"/>
+      <c r="C2183" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2183" s="2">
+        <v>7834</v>
+      </c>
+      <c r="E2183" s="2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2184" s="3"/>
+      <c r="C2184" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2184" s="2">
+        <v>6837</v>
+      </c>
+      <c r="E2184" s="2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2185" s="3"/>
+      <c r="C2185" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2185" s="2">
+        <v>3926</v>
+      </c>
+      <c r="E2185" s="2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2186" s="3"/>
+      <c r="C2186" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2186" s="2">
+        <v>4281</v>
+      </c>
+      <c r="E2186" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2187" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2187" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2187" s="2">
+        <v>70385</v>
+      </c>
+      <c r="E2187" s="2">
+        <v>2834</v>
+      </c>
+      <c r="I2187" s="2">
+        <v>2724393</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2188" s="3"/>
+      <c r="C2188" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2188" s="2">
+        <v>9132</v>
+      </c>
+      <c r="E2188" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2189" s="3"/>
+      <c r="C2189" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2189" s="2">
+        <v>10616</v>
+      </c>
+      <c r="E2189" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2190" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2190" s="2">
+        <v>3099</v>
+      </c>
+      <c r="E2190" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2191" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2191" s="2">
+        <v>8440</v>
+      </c>
+      <c r="E2191" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2192" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B2192" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2192" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2192" s="2">
+        <v>63727</v>
+      </c>
+      <c r="E2192" s="2">
+        <v>3989</v>
+      </c>
+      <c r="I2192" s="2">
+        <v>2872240</v>
+      </c>
+    </row>
+    <row r="2193" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2193" s="3"/>
+      <c r="C2193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2193" s="2">
+        <v>57919</v>
+      </c>
+      <c r="E2193" s="2">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="2194" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2194" s="3"/>
+      <c r="C2194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2194" s="2">
+        <v>41172</v>
+      </c>
+      <c r="E2194" s="2">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="2195" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2195" s="3"/>
+      <c r="C2195" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2195" s="2">
+        <v>46501</v>
+      </c>
+      <c r="E2195" s="2">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="2196" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2196" s="3"/>
+      <c r="C2196" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2196" s="2">
+        <v>40615</v>
+      </c>
+      <c r="E2196" s="2">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="2197" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2197" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2197" s="2">
+        <v>18805</v>
+      </c>
+      <c r="E2197" s="2">
+        <v>1664</v>
+      </c>
+      <c r="I2197" s="2">
+        <v>1055396</v>
+      </c>
+    </row>
+    <row r="2198" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2198" s="3"/>
+      <c r="C2198" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2198" s="2">
+        <v>18717</v>
+      </c>
+      <c r="E2198" s="2">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="2199" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2199" s="3"/>
+      <c r="C2199" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2199" s="2">
+        <v>18336</v>
+      </c>
+      <c r="E2199" s="2">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="2200" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2200" s="3"/>
+      <c r="C2200" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2200" s="2">
+        <v>16337</v>
+      </c>
+      <c r="E2200" s="2">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="2201" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2201" s="3"/>
+      <c r="C2201" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2201" s="2">
+        <v>16612</v>
+      </c>
+      <c r="E2201" s="2">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="2202" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2202" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2202" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2202" s="2">
+        <v>19299</v>
+      </c>
+      <c r="E2202" s="2">
+        <v>943</v>
+      </c>
+      <c r="I2202" s="2">
+        <v>699271</v>
+      </c>
+    </row>
+    <row r="2203" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2203" s="3"/>
+      <c r="C2203" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2203" s="2">
+        <v>23156</v>
+      </c>
+      <c r="E2203" s="2">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="2204" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2204" s="3"/>
+      <c r="C2204" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2204" s="2">
+        <v>15573</v>
+      </c>
+      <c r="E2204" s="2">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="2205" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2205" s="3"/>
+      <c r="C2205" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2205" s="2">
+        <v>8860</v>
+      </c>
+      <c r="E2205" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2206" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2206" s="3"/>
+      <c r="C2206" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2206" s="2">
+        <v>11961</v>
+      </c>
+      <c r="E2206" s="2">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="2207" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2207" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2207" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2207" s="2">
+        <v>21003</v>
+      </c>
+      <c r="E2207" s="2">
+        <v>2551</v>
+      </c>
+      <c r="I2207" s="2">
+        <v>799483</v>
+      </c>
+    </row>
+    <row r="2208" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2208" s="3"/>
+      <c r="C2208" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2208" s="2">
+        <v>8552</v>
+      </c>
+      <c r="E2208" s="2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="2209" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2209" s="3"/>
+      <c r="C2209" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2209" s="2">
+        <v>6877</v>
+      </c>
+      <c r="E2209" s="2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2210" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2210" s="3"/>
+      <c r="C2210" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2210" s="2">
+        <v>2084</v>
+      </c>
+      <c r="E2210" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2211" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2211" s="3"/>
+      <c r="C2211" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2211" s="2">
+        <v>1367</v>
+      </c>
+      <c r="E2211" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2212" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2212" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2212" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2212" s="2">
+        <v>19856</v>
+      </c>
+      <c r="E2212" s="2">
+        <v>1502</v>
+      </c>
+      <c r="I2212" s="2">
+        <f>SUM(78462+496589)</f>
+        <v>575051</v>
+      </c>
+    </row>
+    <row r="2213" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2213" s="3"/>
+      <c r="C2213" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2213" s="2">
+        <v>7865</v>
+      </c>
+      <c r="E2213" s="2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="2214" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2214" s="3"/>
+      <c r="C2214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2214" s="2">
+        <v>6868</v>
+      </c>
+      <c r="E2214" s="2">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2215" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2215" s="3"/>
+      <c r="C2215" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2215" s="2">
+        <v>3939</v>
+      </c>
+      <c r="E2215" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2216" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2216" s="3"/>
+      <c r="C2216" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2216" s="2">
+        <v>4303</v>
+      </c>
+      <c r="E2216" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2217" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2217" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2218" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2218" s="3"/>
+      <c r="C2218" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2219" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2219" s="3"/>
+      <c r="C2219" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2220" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2220" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2221" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2221" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/county.xlsx
+++ b/county.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68586C72-D752-F748-B3BD-F585A19BD962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F9239F-04E7-384D-AA01-C1A8852C280C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="460" windowWidth="13720" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16640" yWindow="940" windowWidth="12440" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="45">
   <si>
     <t>DATE</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>ORANGE</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2221"/>
+  <dimension ref="A1:M2371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2176" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F2191" sqref="F2191"/>
+    <sheetView tabSelected="1" topLeftCell="A2325" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F2341" sqref="F2341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15326,10 +15329,6 @@
         <f t="shared" si="30"/>
         <v>394</v>
       </c>
-      <c r="G682" s="2">
-        <f t="shared" si="31"/>
-        <v>-365</v>
-      </c>
       <c r="H682" s="2">
         <f t="shared" si="32"/>
         <v>7158</v>
@@ -15351,10 +15350,6 @@
         <f t="shared" si="30"/>
         <v>101</v>
       </c>
-      <c r="G683" s="2">
-        <f t="shared" si="31"/>
-        <v>-230</v>
-      </c>
     </row>
     <row r="684" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B684" s="3"/>
@@ -15364,13 +15359,16 @@
       <c r="D684" s="2">
         <v>2902</v>
       </c>
+      <c r="E684" s="2">
+        <v>124</v>
+      </c>
       <c r="F684" s="2">
         <f t="shared" si="30"/>
         <v>145</v>
       </c>
       <c r="G684" s="2">
         <f t="shared" si="31"/>
-        <v>-123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="2:9" x14ac:dyDescent="0.2">
@@ -15381,13 +15379,16 @@
       <c r="D685" s="2">
         <v>2418</v>
       </c>
+      <c r="E685" s="2">
+        <v>49</v>
+      </c>
       <c r="F685" s="2">
         <f t="shared" si="30"/>
         <v>44</v>
       </c>
       <c r="G685" s="2">
         <f t="shared" si="31"/>
-        <v>-49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="2:9" x14ac:dyDescent="0.2">
@@ -15398,13 +15399,16 @@
       <c r="D686" s="2">
         <v>2212</v>
       </c>
+      <c r="E686" s="2">
+        <v>86</v>
+      </c>
       <c r="F686" s="2">
         <f t="shared" si="30"/>
         <v>143</v>
       </c>
       <c r="G686" s="2">
         <f t="shared" si="31"/>
-        <v>-85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="2:9" x14ac:dyDescent="0.2">
@@ -15969,10 +15973,6 @@
         <f t="shared" si="33"/>
         <v>417</v>
       </c>
-      <c r="G712" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
       <c r="H712" s="2">
         <f t="shared" si="32"/>
         <v>7029</v>
@@ -15994,10 +15994,6 @@
         <f t="shared" si="33"/>
         <v>130</v>
       </c>
-      <c r="G713" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="714" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B714" s="3"/>
@@ -16011,10 +16007,6 @@
         <f t="shared" si="33"/>
         <v>153</v>
       </c>
-      <c r="G714" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="715" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B715" s="3"/>
@@ -16028,10 +16020,6 @@
         <f t="shared" si="33"/>
         <v>60</v>
       </c>
-      <c r="G715" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="716" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B716" s="3"/>
@@ -16045,10 +16033,6 @@
         <f t="shared" si="33"/>
         <v>127</v>
       </c>
-      <c r="G716" s="2">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="717" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B717" s="3" t="s">
@@ -23233,13 +23217,16 @@
       <c r="D1047" s="2">
         <v>27815</v>
       </c>
+      <c r="E1047" s="2">
+        <v>1313</v>
+      </c>
       <c r="F1047" s="2">
         <f>SUM(D1047-D1017)</f>
         <v>1572</v>
       </c>
       <c r="G1047" s="2">
         <f t="shared" si="46"/>
-        <v>-1256</v>
+        <v>57</v>
       </c>
       <c r="H1047" s="2">
         <f>SUM(I1047-I1017)</f>
@@ -23258,13 +23245,16 @@
       <c r="D1048" s="2">
         <v>4083</v>
       </c>
+      <c r="E1048" s="2">
+        <v>173</v>
+      </c>
       <c r="F1048" s="2">
         <f t="shared" ref="F1048:F1056" si="49">SUM(D1048-D1018)</f>
         <v>61</v>
       </c>
       <c r="G1048" s="2">
         <f t="shared" si="46"/>
-        <v>-162</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1049" spans="1:11" x14ac:dyDescent="0.2">
@@ -23275,13 +23265,16 @@
       <c r="D1049" s="2">
         <v>4354</v>
       </c>
+      <c r="E1049" s="2">
+        <v>190</v>
+      </c>
       <c r="F1049" s="2">
         <f t="shared" si="49"/>
         <v>133</v>
       </c>
       <c r="G1049" s="2">
         <f t="shared" si="46"/>
-        <v>-184</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1050" spans="1:11" x14ac:dyDescent="0.2">
@@ -23291,13 +23284,16 @@
       <c r="D1050" s="2">
         <v>2255</v>
       </c>
+      <c r="E1050" s="2">
+        <v>122</v>
+      </c>
       <c r="F1050" s="2">
         <f t="shared" si="49"/>
         <v>17</v>
       </c>
       <c r="G1050" s="2">
         <f t="shared" si="46"/>
-        <v>-119</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
@@ -23307,13 +23303,16 @@
       <c r="D1051" s="2">
         <v>2931</v>
       </c>
+      <c r="E1051" s="2">
+        <v>61</v>
+      </c>
       <c r="F1051" s="2">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G1051" s="2">
         <f t="shared" si="46"/>
-        <v>-57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
@@ -23537,13 +23536,16 @@
       <c r="D1062" s="2">
         <v>14476</v>
       </c>
+      <c r="E1062" s="2">
+        <v>642</v>
+      </c>
       <c r="F1062" s="2">
         <f t="shared" si="52"/>
         <v>303</v>
       </c>
       <c r="G1062" s="2">
         <f t="shared" si="50"/>
-        <v>-609</v>
+        <v>33</v>
       </c>
       <c r="H1062" s="2">
         <f t="shared" si="51"/>
@@ -23562,13 +23564,16 @@
       <c r="D1063" s="2">
         <v>16327</v>
       </c>
+      <c r="E1063" s="2">
+        <v>1070</v>
+      </c>
       <c r="F1063" s="2">
         <f t="shared" si="52"/>
         <v>347</v>
       </c>
       <c r="G1063" s="2">
         <f t="shared" si="50"/>
-        <v>-1028</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1064" spans="2:9" x14ac:dyDescent="0.2">
@@ -23579,13 +23584,16 @@
       <c r="D1064" s="2">
         <v>10344</v>
       </c>
+      <c r="E1064" s="2">
+        <v>561</v>
+      </c>
       <c r="F1064" s="2">
         <f t="shared" si="52"/>
         <v>365</v>
       </c>
       <c r="G1064" s="2">
         <f t="shared" si="50"/>
-        <v>-527</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1065" spans="2:9" x14ac:dyDescent="0.2">
@@ -23596,13 +23604,16 @@
       <c r="D1065" s="2">
         <v>6610</v>
       </c>
+      <c r="E1065" s="2">
+        <v>596</v>
+      </c>
       <c r="F1065" s="2">
         <f t="shared" si="52"/>
         <v>144</v>
       </c>
       <c r="G1065" s="2">
         <f t="shared" si="50"/>
-        <v>-575</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1066" spans="2:9" x14ac:dyDescent="0.2">
@@ -23613,13 +23624,16 @@
       <c r="D1066" s="2">
         <v>6992</v>
       </c>
+      <c r="E1066" s="2">
+        <v>365</v>
+      </c>
       <c r="F1066" s="2">
         <f t="shared" si="52"/>
         <v>395</v>
       </c>
       <c r="G1066" s="2">
         <f t="shared" si="50"/>
-        <v>-331</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1067" spans="2:9" x14ac:dyDescent="0.2">
@@ -23854,7 +23868,7 @@
       </c>
       <c r="G1077" s="2">
         <f t="shared" si="50"/>
-        <v>1367</v>
+        <v>54</v>
       </c>
       <c r="H1077" s="2">
         <f t="shared" si="51"/>
@@ -23881,7 +23895,7 @@
       </c>
       <c r="G1078" s="2">
         <f t="shared" si="50"/>
-        <v>186</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1079" spans="1:12" x14ac:dyDescent="0.2">
@@ -23901,7 +23915,7 @@
       </c>
       <c r="G1079" s="2">
         <f t="shared" si="50"/>
-        <v>194</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1080" spans="1:12" x14ac:dyDescent="0.2">
@@ -23920,7 +23934,7 @@
       </c>
       <c r="G1080" s="2">
         <f t="shared" si="50"/>
-        <v>126</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1081" spans="1:12" x14ac:dyDescent="0.2">
@@ -23939,7 +23953,7 @@
       </c>
       <c r="G1081" s="2">
         <f t="shared" si="50"/>
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="L1081" s="2"/>
     </row>
@@ -24194,7 +24208,7 @@
       </c>
       <c r="G1092" s="2">
         <f t="shared" si="50"/>
-        <v>663</v>
+        <v>21</v>
       </c>
       <c r="H1092" s="2">
         <f t="shared" si="51"/>
@@ -24222,7 +24236,7 @@
       </c>
       <c r="G1093" s="2">
         <f t="shared" si="50"/>
-        <v>1103</v>
+        <v>33</v>
       </c>
       <c r="L1093" s="2"/>
     </row>
@@ -24243,7 +24257,7 @@
       </c>
       <c r="G1094" s="2">
         <f t="shared" si="50"/>
-        <v>578</v>
+        <v>17</v>
       </c>
       <c r="L1094" s="2"/>
     </row>
@@ -24264,7 +24278,7 @@
       </c>
       <c r="G1095" s="2">
         <f t="shared" si="50"/>
-        <v>608</v>
+        <v>12</v>
       </c>
       <c r="L1095" s="2"/>
     </row>
@@ -24285,7 +24299,7 @@
       </c>
       <c r="G1096" s="2">
         <f t="shared" si="50"/>
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="L1096" s="2"/>
     </row>
@@ -26361,7 +26375,7 @@
         <v>1182</v>
       </c>
       <c r="E1191" s="2">
-        <v>910</v>
+        <v>81</v>
       </c>
       <c r="F1191" s="2">
         <f t="shared" si="57"/>
@@ -26369,7 +26383,7 @@
       </c>
       <c r="G1191" s="2">
         <f t="shared" si="58"/>
-        <v>829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="2:9" x14ac:dyDescent="0.2">
@@ -27020,7 +27034,7 @@
       </c>
       <c r="G1221" s="2">
         <f t="shared" si="58"/>
-        <v>-829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:9" x14ac:dyDescent="0.2">
@@ -27033,16 +27047,9 @@
       <c r="D1222" s="2">
         <v>15008</v>
       </c>
-      <c r="E1222" s="2">
-        <v>893</v>
-      </c>
       <c r="F1222" s="2">
         <f t="shared" si="60"/>
         <v>125</v>
-      </c>
-      <c r="G1222" s="2">
-        <f t="shared" si="58"/>
-        <v>-1</v>
       </c>
       <c r="H1222" s="2">
         <f t="shared" si="59"/>
@@ -27718,10 +27725,6 @@
         <f t="shared" si="60"/>
         <v>210</v>
       </c>
-      <c r="G1252" s="2">
-        <f t="shared" si="61"/>
-        <v>15</v>
-      </c>
       <c r="H1252" s="2">
         <f t="shared" ref="H1252:H1312" si="62">SUM(I1252-I1222)</f>
         <v>7122</v>
@@ -31965,16 +31968,9 @@
       <c r="D1433" s="2">
         <v>6012</v>
       </c>
-      <c r="E1433" s="2">
-        <v>566</v>
-      </c>
       <c r="F1433" s="2">
         <f t="shared" si="69"/>
         <v>140</v>
-      </c>
-      <c r="G1433" s="2">
-        <f t="shared" si="67"/>
-        <v>-54</v>
       </c>
       <c r="H1433"/>
       <c r="I1433"/>
@@ -32662,10 +32658,6 @@
         <f t="shared" si="72"/>
         <v>51</v>
       </c>
-      <c r="G1463" s="2">
-        <f t="shared" si="70"/>
-        <v>9</v>
-      </c>
     </row>
     <row r="1464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1464" s="3"/>
@@ -34505,16 +34497,9 @@
       <c r="D1548" s="2">
         <v>8131</v>
       </c>
-      <c r="E1548" s="2">
-        <v>944</v>
-      </c>
       <c r="F1548" s="2">
         <f t="shared" si="75"/>
         <v>6</v>
-      </c>
-      <c r="G1548" s="2">
-        <f t="shared" si="73"/>
-        <v>-1</v>
       </c>
     </row>
     <row r="1549" spans="2:9" x14ac:dyDescent="0.2">
@@ -35162,10 +35147,6 @@
         <f t="shared" si="75"/>
         <v>61</v>
       </c>
-      <c r="G1578" s="2">
-        <f t="shared" si="76"/>
-        <v>10</v>
-      </c>
     </row>
     <row r="1579" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1579" s="3"/>
@@ -35780,16 +35761,9 @@
       <c r="D1607" s="2">
         <v>19771</v>
       </c>
-      <c r="E1607" s="2">
-        <v>2359</v>
-      </c>
       <c r="F1607" s="2">
         <f t="shared" si="78"/>
         <v>74</v>
-      </c>
-      <c r="G1607" s="2">
-        <f t="shared" si="76"/>
-        <v>-2</v>
       </c>
       <c r="H1607" s="2">
         <f t="shared" si="77"/>
@@ -36246,16 +36220,9 @@
       <c r="D1628" s="2">
         <v>18051</v>
       </c>
-      <c r="E1628" s="2">
-        <v>1137</v>
-      </c>
       <c r="F1628" s="2">
         <f t="shared" si="78"/>
         <v>74</v>
-      </c>
-      <c r="G1628" s="2">
-        <f t="shared" si="76"/>
-        <v>-2</v>
       </c>
     </row>
     <row r="1629" spans="1:12" x14ac:dyDescent="0.2">
@@ -36286,16 +36253,9 @@
       <c r="D1630" s="2">
         <v>15218</v>
       </c>
-      <c r="E1630" s="2">
-        <v>1024</v>
-      </c>
       <c r="F1630" s="2">
         <f t="shared" si="78"/>
         <v>49</v>
-      </c>
-      <c r="G1630" s="2">
-        <f t="shared" si="76"/>
-        <v>-1</v>
       </c>
       <c r="L1630" s="2"/>
     </row>
@@ -36451,10 +36411,6 @@
         <f t="shared" si="78"/>
         <v>45</v>
       </c>
-      <c r="G1637" s="2">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
       <c r="H1637" s="2">
         <f t="shared" ref="H1637:H1672" si="80">SUM(I1637-I1607)</f>
         <v>21628</v>
@@ -36881,7 +36837,7 @@
         <v>39199</v>
       </c>
       <c r="E1656" s="2">
-        <v>19000</v>
+        <v>1900</v>
       </c>
       <c r="F1656" s="2">
         <f t="shared" si="81"/>
@@ -36889,7 +36845,7 @@
       </c>
       <c r="G1656" s="2">
         <f t="shared" si="79"/>
-        <v>17112</v>
+        <v>12</v>
       </c>
       <c r="L1656" s="2"/>
     </row>
@@ -36938,10 +36894,6 @@
         <f t="shared" si="81"/>
         <v>45</v>
       </c>
-      <c r="G1658" s="2">
-        <f t="shared" si="79"/>
-        <v>6</v>
-      </c>
       <c r="L1658" s="2"/>
     </row>
     <row r="1659" spans="1:12" x14ac:dyDescent="0.2">
@@ -36980,10 +36932,6 @@
         <f t="shared" si="81"/>
         <v>75</v>
       </c>
-      <c r="G1660" s="2">
-        <f t="shared" si="79"/>
-        <v>6</v>
-      </c>
     </row>
     <row r="1661" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1661" s="3"/>
@@ -37566,7 +37514,7 @@
       </c>
       <c r="G1686" s="2">
         <f t="shared" si="79"/>
-        <v>-17090</v>
+        <v>10</v>
       </c>
       <c r="H1686" s="2">
         <f t="shared" si="83"/>
@@ -38464,7 +38412,7 @@
         <v>17698</v>
       </c>
       <c r="E1722" s="2">
-        <v>895</v>
+        <v>859</v>
       </c>
       <c r="F1722" s="2">
         <f t="shared" si="82"/>
@@ -38472,7 +38420,7 @@
       </c>
       <c r="G1722" s="2">
         <f t="shared" si="84"/>
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="H1722" s="2">
         <f t="shared" si="83"/>
@@ -39225,7 +39173,7 @@
       </c>
       <c r="G1752" s="2">
         <f t="shared" si="84"/>
-        <v>-34</v>
+        <v>2</v>
       </c>
       <c r="H1752" s="2">
         <f t="shared" si="86"/>
@@ -39908,10 +39856,6 @@
       <c r="C1780" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G1780" s="2">
-        <f t="shared" si="87"/>
-        <v>-1060</v>
-      </c>
       <c r="H1780" s="2">
         <f t="shared" si="88"/>
         <v>0</v>
@@ -40655,10 +40599,6 @@
       <c r="E1810" s="2">
         <v>1073</v>
       </c>
-      <c r="G1810" s="2">
-        <f t="shared" si="87"/>
-        <v>1073</v>
-      </c>
       <c r="H1810" s="2">
         <f t="shared" si="88"/>
         <v>0</v>
@@ -41369,16 +41309,9 @@
       <c r="D1838" s="2">
         <v>18428</v>
       </c>
-      <c r="E1838" s="2">
-        <v>1182</v>
-      </c>
       <c r="F1838" s="2">
         <f t="shared" si="93"/>
         <v>9</v>
-      </c>
-      <c r="G1838" s="2">
-        <f t="shared" si="92"/>
-        <v>-1</v>
       </c>
       <c r="H1838" s="2">
         <f t="shared" si="94"/>
@@ -42131,10 +42064,6 @@
         <f t="shared" si="93"/>
         <v>27</v>
       </c>
-      <c r="G1868" s="2">
-        <f t="shared" si="92"/>
-        <v>6</v>
-      </c>
       <c r="H1868" s="2">
         <f t="shared" si="94"/>
         <v>0</v>
@@ -45135,16 +45064,9 @@
       <c r="D1989" s="2">
         <v>18066</v>
       </c>
-      <c r="E1989" s="2">
-        <v>1701</v>
-      </c>
       <c r="F1989" s="2">
         <f t="shared" si="101"/>
         <v>47</v>
-      </c>
-      <c r="G1989" s="2">
-        <f t="shared" si="99"/>
-        <v>-1</v>
       </c>
       <c r="H1989" s="2">
         <f t="shared" si="100"/>
@@ -45887,10 +45809,6 @@
         <f t="shared" si="101"/>
         <v>11</v>
       </c>
-      <c r="G2019" s="2">
-        <f t="shared" si="102"/>
-        <v>6</v>
-      </c>
       <c r="H2019" s="2">
         <f t="shared" si="100"/>
         <v>0</v>
@@ -47075,6 +46993,10 @@
         <f t="shared" si="104"/>
         <v>884</v>
       </c>
+      <c r="G2067" s="2">
+        <f>SUM(E2067-E2037)</f>
+        <v>10</v>
+      </c>
       <c r="H2067" s="2">
         <f t="shared" si="103"/>
         <v>55055</v>
@@ -47098,6 +47020,10 @@
         <f t="shared" si="104"/>
         <v>143</v>
       </c>
+      <c r="G2068" s="2">
+        <f t="shared" ref="G2068:G2131" si="105">SUM(E2068-E2038)</f>
+        <v>0</v>
+      </c>
       <c r="H2068" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47118,6 +47044,10 @@
         <f t="shared" si="104"/>
         <v>141</v>
       </c>
+      <c r="G2069" s="2">
+        <f t="shared" si="105"/>
+        <v>9</v>
+      </c>
       <c r="H2069" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47137,6 +47067,10 @@
         <f t="shared" si="104"/>
         <v>24</v>
       </c>
+      <c r="G2070" s="2">
+        <f t="shared" si="105"/>
+        <v>5</v>
+      </c>
       <c r="H2070" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47156,6 +47090,10 @@
         <f t="shared" si="104"/>
         <v>143</v>
       </c>
+      <c r="G2071" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
       <c r="H2071" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47180,6 +47118,10 @@
       <c r="F2072" s="2">
         <f t="shared" si="104"/>
         <v>97</v>
+      </c>
+      <c r="G2072" s="2">
+        <f t="shared" si="105"/>
+        <v>7</v>
       </c>
       <c r="H2072" s="2">
         <f t="shared" si="103"/>
@@ -47204,6 +47146,10 @@
         <f t="shared" si="104"/>
         <v>107</v>
       </c>
+      <c r="G2073" s="2">
+        <f t="shared" si="105"/>
+        <v>5</v>
+      </c>
       <c r="H2073" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47224,6 +47170,10 @@
         <f t="shared" si="104"/>
         <v>33</v>
       </c>
+      <c r="G2074" s="2">
+        <f t="shared" si="105"/>
+        <v>5</v>
+      </c>
       <c r="H2074" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47244,6 +47194,10 @@
         <f t="shared" si="104"/>
         <v>75</v>
       </c>
+      <c r="G2075" s="2">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
       <c r="H2075" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47264,6 +47218,10 @@
         <f t="shared" si="104"/>
         <v>49</v>
       </c>
+      <c r="G2076" s="2">
+        <f t="shared" si="105"/>
+        <v>5</v>
+      </c>
       <c r="H2076" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47285,6 +47243,10 @@
       <c r="F2077" s="2">
         <f t="shared" si="104"/>
         <v>35</v>
+      </c>
+      <c r="G2077" s="2">
+        <f t="shared" si="105"/>
+        <v>7</v>
       </c>
       <c r="H2077" s="2">
         <f t="shared" si="103"/>
@@ -47309,6 +47271,10 @@
         <f t="shared" si="104"/>
         <v>23</v>
       </c>
+      <c r="G2078" s="2">
+        <f t="shared" si="105"/>
+        <v>9</v>
+      </c>
       <c r="H2078" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47329,6 +47295,10 @@
         <f t="shared" si="104"/>
         <v>34</v>
       </c>
+      <c r="G2079" s="2">
+        <f t="shared" si="105"/>
+        <v>12</v>
+      </c>
       <c r="H2079" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47349,6 +47319,10 @@
         <f t="shared" si="104"/>
         <v>61</v>
       </c>
+      <c r="G2080" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
       <c r="H2080" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47369,6 +47343,10 @@
         <f t="shared" si="104"/>
         <v>31</v>
       </c>
+      <c r="G2081" s="2">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
       <c r="H2081" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47390,6 +47368,10 @@
       <c r="F2082" s="2">
         <f t="shared" si="104"/>
         <v>39</v>
+      </c>
+      <c r="G2082" s="2">
+        <f t="shared" si="105"/>
+        <v>4</v>
       </c>
       <c r="H2082" s="2">
         <f t="shared" si="103"/>
@@ -47414,6 +47396,10 @@
         <f t="shared" si="104"/>
         <v>33</v>
       </c>
+      <c r="G2083" s="2">
+        <f t="shared" si="105"/>
+        <v>9</v>
+      </c>
       <c r="H2083" s="2">
         <f t="shared" si="103"/>
         <v>0</v>
@@ -47434,8 +47420,12 @@
         <f t="shared" si="104"/>
         <v>35</v>
       </c>
+      <c r="G2084" s="2">
+        <f t="shared" si="105"/>
+        <v>10</v>
+      </c>
       <c r="H2084" s="2">
-        <f t="shared" ref="H2084:H2147" si="105">SUM(I2084-I2054)</f>
+        <f t="shared" ref="H2084:H2147" si="106">SUM(I2084-I2054)</f>
         <v>0</v>
       </c>
     </row>
@@ -47454,8 +47444,12 @@
         <f t="shared" si="104"/>
         <v>38</v>
       </c>
+      <c r="G2085" s="2">
+        <f t="shared" si="105"/>
+        <v>4</v>
+      </c>
       <c r="H2085" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47474,8 +47468,12 @@
         <f t="shared" si="104"/>
         <v>45</v>
       </c>
+      <c r="G2086" s="2">
+        <f t="shared" si="105"/>
+        <v>7</v>
+      </c>
       <c r="H2086" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47496,8 +47494,12 @@
         <f t="shared" si="104"/>
         <v>49</v>
       </c>
+      <c r="G2087" s="2">
+        <f t="shared" si="105"/>
+        <v>13</v>
+      </c>
       <c r="H2087" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>16116</v>
       </c>
       <c r="I2087" s="2">
@@ -47519,8 +47521,12 @@
         <f t="shared" si="104"/>
         <v>7</v>
       </c>
+      <c r="G2088" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
       <c r="H2088" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47535,8 +47541,12 @@
       <c r="E2089" s="2">
         <v>835</v>
       </c>
+      <c r="G2089" s="2">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
       <c r="H2089" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47555,8 +47565,12 @@
         <f t="shared" si="104"/>
         <v>4</v>
       </c>
+      <c r="G2090" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
       <c r="H2090" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47575,8 +47589,12 @@
         <f t="shared" si="104"/>
         <v>2</v>
       </c>
+      <c r="G2091" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
       <c r="H2091" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47597,8 +47615,12 @@
         <f t="shared" si="104"/>
         <v>93</v>
       </c>
+      <c r="G2092" s="2">
+        <f t="shared" si="105"/>
+        <v>15</v>
+      </c>
       <c r="H2092" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>6216</v>
       </c>
       <c r="I2092" s="2">
@@ -47621,8 +47643,12 @@
         <f t="shared" si="104"/>
         <v>62</v>
       </c>
+      <c r="G2093" s="2">
+        <f t="shared" si="105"/>
+        <v>13</v>
+      </c>
       <c r="H2093" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47641,8 +47667,12 @@
         <f t="shared" si="104"/>
         <v>35</v>
       </c>
+      <c r="G2094" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
       <c r="H2094" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47661,8 +47691,12 @@
         <f t="shared" si="104"/>
         <v>19</v>
       </c>
+      <c r="G2095" s="2">
+        <f t="shared" si="105"/>
+        <v>4</v>
+      </c>
       <c r="H2095" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47681,8 +47715,12 @@
         <f t="shared" si="104"/>
         <v>18</v>
       </c>
+      <c r="G2096" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
       <c r="H2096" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47703,8 +47741,12 @@
         <f t="shared" si="104"/>
         <v>1193</v>
       </c>
+      <c r="G2097" s="2">
+        <f t="shared" si="105"/>
+        <v>52</v>
+      </c>
       <c r="H2097" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>54553</v>
       </c>
       <c r="I2097" s="2">
@@ -47726,8 +47768,12 @@
         <f t="shared" si="104"/>
         <v>110</v>
       </c>
+      <c r="G2098" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
       <c r="H2098" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47746,8 +47792,12 @@
         <f t="shared" si="104"/>
         <v>265</v>
       </c>
+      <c r="G2099" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
       <c r="H2099" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47765,8 +47815,12 @@
         <f t="shared" si="104"/>
         <v>35</v>
       </c>
+      <c r="G2100" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
       <c r="H2100" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47784,8 +47838,12 @@
         <f t="shared" si="104"/>
         <v>205</v>
       </c>
+      <c r="G2101" s="2">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
       <c r="H2101" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47809,8 +47867,12 @@
         <f t="shared" si="104"/>
         <v>132</v>
       </c>
+      <c r="G2102" s="2">
+        <f t="shared" si="105"/>
+        <v>9</v>
+      </c>
       <c r="H2102" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>62297</v>
       </c>
       <c r="I2102" s="2">
@@ -47832,8 +47894,12 @@
         <f t="shared" si="104"/>
         <v>117</v>
       </c>
+      <c r="G2103" s="2">
+        <f t="shared" si="105"/>
+        <v>9</v>
+      </c>
       <c r="H2103" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47852,8 +47918,12 @@
         <f t="shared" si="104"/>
         <v>35</v>
       </c>
+      <c r="G2104" s="2">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
       <c r="H2104" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47872,8 +47942,12 @@
         <f t="shared" si="104"/>
         <v>96</v>
       </c>
+      <c r="G2105" s="2">
+        <f t="shared" si="105"/>
+        <v>6</v>
+      </c>
       <c r="H2105" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47889,11 +47963,15 @@
         <v>1990</v>
       </c>
       <c r="F2106" s="2">
-        <f t="shared" ref="F2106:F2156" si="106">SUM(D2106-D2076)</f>
+        <f t="shared" ref="F2106:F2131" si="107">SUM(D2106-D2076)</f>
         <v>38</v>
       </c>
+      <c r="G2106" s="2">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
       <c r="H2106" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0</v>
       </c>
     </row>
@@ -47911,11 +47989,15 @@
         <v>1635</v>
       </c>
       <c r="F2107" s="2">
+        <f t="shared" si="107"/>
+        <v>94</v>
+      </c>
+      <c r="G2107" s="2">
+        <f t="shared" si="105"/>
+        <v>7</v>
+      </c>
+      <c r="H2107" s="2">
         <f t="shared" si="106"/>
-        <v>94</v>
-      </c>
-      <c r="H2107" s="2">
-        <f t="shared" si="105"/>
         <v>19437</v>
       </c>
       <c r="I2107" s="2">
@@ -47934,11 +48016,15 @@
         <v>1242</v>
       </c>
       <c r="F2108" s="2">
+        <f t="shared" si="107"/>
+        <v>40</v>
+      </c>
+      <c r="G2108" s="2">
+        <f t="shared" si="105"/>
+        <v>7</v>
+      </c>
+      <c r="H2108" s="2">
         <f t="shared" si="106"/>
-        <v>40</v>
-      </c>
-      <c r="H2108" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -47954,11 +48040,15 @@
         <v>1723</v>
       </c>
       <c r="F2109" s="2">
+        <f t="shared" si="107"/>
+        <v>55</v>
+      </c>
+      <c r="G2109" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="H2109" s="2">
         <f t="shared" si="106"/>
-        <v>55</v>
-      </c>
-      <c r="H2109" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -47974,11 +48064,15 @@
         <v>1103</v>
       </c>
       <c r="F2110" s="2">
+        <f t="shared" si="107"/>
+        <v>15</v>
+      </c>
+      <c r="G2110" s="2">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
+      <c r="H2110" s="2">
         <f t="shared" si="106"/>
-        <v>15</v>
-      </c>
-      <c r="H2110" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -47994,11 +48088,15 @@
         <v>982</v>
       </c>
       <c r="F2111" s="2">
+        <f t="shared" si="107"/>
+        <v>32</v>
+      </c>
+      <c r="G2111" s="2">
+        <f t="shared" si="105"/>
+        <v>5</v>
+      </c>
+      <c r="H2111" s="2">
         <f t="shared" si="106"/>
-        <v>32</v>
-      </c>
-      <c r="H2111" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48016,11 +48114,15 @@
         <v>936</v>
       </c>
       <c r="F2112" s="2">
+        <f t="shared" si="107"/>
+        <v>32</v>
+      </c>
+      <c r="G2112" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="H2112" s="2">
         <f t="shared" si="106"/>
-        <v>32</v>
-      </c>
-      <c r="H2112" s="2">
-        <f t="shared" si="105"/>
         <v>10034</v>
       </c>
       <c r="I2112" s="2">
@@ -48039,11 +48141,15 @@
         <v>1725</v>
       </c>
       <c r="F2113" s="2">
+        <f t="shared" si="107"/>
+        <v>44</v>
+      </c>
+      <c r="G2113" s="2">
+        <f t="shared" si="105"/>
+        <v>5</v>
+      </c>
+      <c r="H2113" s="2">
         <f t="shared" si="106"/>
-        <v>44</v>
-      </c>
-      <c r="H2113" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48056,14 +48162,18 @@
         <v>15365</v>
       </c>
       <c r="E2114" s="2">
-        <v>128</v>
+        <v>1024</v>
       </c>
       <c r="F2114" s="2">
+        <f t="shared" si="107"/>
+        <v>94</v>
+      </c>
+      <c r="G2114" s="2">
+        <f t="shared" si="105"/>
+        <v>8</v>
+      </c>
+      <c r="H2114" s="2">
         <f t="shared" si="106"/>
-        <v>94</v>
-      </c>
-      <c r="H2114" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48076,14 +48186,18 @@
         <v>8774</v>
       </c>
       <c r="E2115" s="2">
-        <v>122</v>
+        <v>873</v>
       </c>
       <c r="F2115" s="2">
+        <f t="shared" si="107"/>
+        <v>21</v>
+      </c>
+      <c r="G2115" s="2">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
+      <c r="H2115" s="2">
         <f t="shared" si="106"/>
-        <v>21</v>
-      </c>
-      <c r="H2115" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48099,11 +48213,15 @@
         <v>844</v>
       </c>
       <c r="F2116" s="2">
+        <f t="shared" si="107"/>
+        <v>17</v>
+      </c>
+      <c r="G2116" s="2">
+        <f t="shared" si="105"/>
+        <v>10</v>
+      </c>
+      <c r="H2116" s="2">
         <f t="shared" si="106"/>
-        <v>17</v>
-      </c>
-      <c r="H2116" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48121,11 +48239,15 @@
         <v>2535</v>
       </c>
       <c r="F2117" s="2">
+        <f t="shared" si="107"/>
+        <v>38</v>
+      </c>
+      <c r="G2117" s="2">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
+      <c r="H2117" s="2">
         <f t="shared" si="106"/>
-        <v>38</v>
-      </c>
-      <c r="H2117" s="2">
-        <f t="shared" si="105"/>
         <v>184</v>
       </c>
       <c r="I2117" s="2">
@@ -48144,11 +48266,15 @@
         <v>1017</v>
       </c>
       <c r="F2118" s="2">
+        <f t="shared" si="107"/>
+        <v>9</v>
+      </c>
+      <c r="G2118" s="2">
+        <f t="shared" si="105"/>
+        <v>2</v>
+      </c>
+      <c r="H2118" s="2">
         <f t="shared" si="106"/>
-        <v>9</v>
-      </c>
-      <c r="H2118" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48164,11 +48290,15 @@
         <v>838</v>
       </c>
       <c r="F2119" s="2">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="G2119" s="2">
+        <f t="shared" si="105"/>
+        <v>3</v>
+      </c>
+      <c r="H2119" s="2">
         <f t="shared" si="106"/>
-        <v>1</v>
-      </c>
-      <c r="H2119" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48184,11 +48314,15 @@
         <v>257</v>
       </c>
       <c r="F2120" s="2">
+        <f t="shared" si="107"/>
+        <v>5</v>
+      </c>
+      <c r="G2120" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="H2120" s="2">
         <f t="shared" si="106"/>
-        <v>5</v>
-      </c>
-      <c r="H2120" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48204,11 +48338,15 @@
         <v>101</v>
       </c>
       <c r="F2121" s="2">
+        <f t="shared" si="107"/>
+        <v>5</v>
+      </c>
+      <c r="G2121" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="H2121" s="2">
         <f t="shared" si="106"/>
-        <v>5</v>
-      </c>
-      <c r="H2121" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48226,11 +48364,15 @@
         <v>1454</v>
       </c>
       <c r="F2122" s="2">
+        <f t="shared" si="107"/>
+        <v>93</v>
+      </c>
+      <c r="G2122" s="2">
+        <f t="shared" si="105"/>
+        <v>18</v>
+      </c>
+      <c r="H2122" s="2">
         <f t="shared" si="106"/>
-        <v>93</v>
-      </c>
-      <c r="H2122" s="2">
-        <f t="shared" si="105"/>
         <v>10264</v>
       </c>
       <c r="I2122" s="2">
@@ -48250,11 +48392,15 @@
         <v>762</v>
       </c>
       <c r="F2123" s="2">
+        <f t="shared" si="107"/>
+        <v>37</v>
+      </c>
+      <c r="G2123" s="2">
+        <f t="shared" si="105"/>
+        <v>22</v>
+      </c>
+      <c r="H2123" s="2">
         <f t="shared" si="106"/>
-        <v>37</v>
-      </c>
-      <c r="H2123" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48270,11 +48416,15 @@
         <v>662</v>
       </c>
       <c r="F2124" s="2">
+        <f t="shared" si="107"/>
+        <v>21</v>
+      </c>
+      <c r="G2124" s="2">
+        <f t="shared" si="105"/>
+        <v>10</v>
+      </c>
+      <c r="H2124" s="2">
         <f t="shared" si="106"/>
-        <v>21</v>
-      </c>
-      <c r="H2124" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48290,11 +48440,15 @@
         <v>259</v>
       </c>
       <c r="F2125" s="2">
+        <f t="shared" si="107"/>
+        <v>5</v>
+      </c>
+      <c r="G2125" s="2">
+        <f t="shared" si="105"/>
+        <v>6</v>
+      </c>
+      <c r="H2125" s="2">
         <f t="shared" si="106"/>
-        <v>5</v>
-      </c>
-      <c r="H2125" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48310,11 +48464,15 @@
         <v>334</v>
       </c>
       <c r="F2126" s="2">
+        <f t="shared" si="107"/>
+        <v>15</v>
+      </c>
+      <c r="G2126" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="H2126" s="2">
         <f t="shared" si="106"/>
-        <v>15</v>
-      </c>
-      <c r="H2126" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48332,11 +48490,15 @@
         <v>2768</v>
       </c>
       <c r="F2127" s="2">
+        <f t="shared" si="107"/>
+        <v>1191</v>
+      </c>
+      <c r="G2127" s="2">
+        <f t="shared" si="105"/>
+        <v>61</v>
+      </c>
+      <c r="H2127" s="2">
         <f t="shared" si="106"/>
-        <v>1191</v>
-      </c>
-      <c r="H2127" s="2">
-        <f t="shared" si="105"/>
         <v>56849</v>
       </c>
       <c r="I2127" s="2">
@@ -48355,11 +48517,15 @@
         <v>312</v>
       </c>
       <c r="F2128" s="2">
+        <f t="shared" si="107"/>
+        <v>108</v>
+      </c>
+      <c r="G2128" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="H2128" s="2">
         <f t="shared" si="106"/>
-        <v>108</v>
-      </c>
-      <c r="H2128" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48375,11 +48541,15 @@
         <v>380</v>
       </c>
       <c r="F2129" s="2">
+        <f t="shared" si="107"/>
+        <v>346</v>
+      </c>
+      <c r="G2129" s="2">
+        <f t="shared" si="105"/>
+        <v>15</v>
+      </c>
+      <c r="H2129" s="2">
         <f t="shared" si="106"/>
-        <v>346</v>
-      </c>
-      <c r="H2129" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48394,11 +48564,15 @@
         <v>149</v>
       </c>
       <c r="F2130" s="2">
+        <f t="shared" si="107"/>
+        <v>26</v>
+      </c>
+      <c r="G2130" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="H2130" s="2">
         <f t="shared" si="106"/>
-        <v>26</v>
-      </c>
-      <c r="H2130" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48413,11 +48587,15 @@
         <v>198</v>
       </c>
       <c r="F2131" s="2">
+        <f t="shared" si="107"/>
+        <v>231</v>
+      </c>
+      <c r="G2131" s="2">
+        <f t="shared" si="105"/>
+        <v>13</v>
+      </c>
+      <c r="H2131" s="2">
         <f t="shared" si="106"/>
-        <v>231</v>
-      </c>
-      <c r="H2131" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48437,12 +48615,8 @@
       <c r="E2132" s="2">
         <v>3983</v>
       </c>
-      <c r="F2132" s="2">
+      <c r="H2132" s="2">
         <f t="shared" si="106"/>
-        <v>106</v>
-      </c>
-      <c r="H2132" s="2">
-        <f t="shared" si="105"/>
         <v>60839</v>
       </c>
       <c r="I2132" s="2">
@@ -48460,12 +48634,8 @@
       <c r="E2133" s="2">
         <v>4476</v>
       </c>
-      <c r="F2133" s="2">
+      <c r="H2133" s="2">
         <f t="shared" si="106"/>
-        <v>121</v>
-      </c>
-      <c r="H2133" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48480,12 +48650,8 @@
       <c r="E2134" s="2">
         <v>2654</v>
       </c>
-      <c r="F2134" s="2">
+      <c r="H2134" s="2">
         <f t="shared" si="106"/>
-        <v>45</v>
-      </c>
-      <c r="H2134" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48500,12 +48666,8 @@
       <c r="E2135" s="2">
         <v>3006</v>
       </c>
-      <c r="F2135" s="2">
+      <c r="H2135" s="2">
         <f t="shared" si="106"/>
-        <v>93</v>
-      </c>
-      <c r="H2135" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48520,12 +48682,8 @@
       <c r="E2136" s="2">
         <v>1994</v>
       </c>
-      <c r="F2136" s="2">
+      <c r="H2136" s="2">
         <f t="shared" si="106"/>
-        <v>48</v>
-      </c>
-      <c r="H2136" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48542,12 +48700,11 @@
       <c r="E2137" s="2">
         <v>1646</v>
       </c>
-      <c r="F2137" s="2">
+      <c r="G2137" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2137" s="2">
         <f t="shared" si="106"/>
-        <v>52</v>
-      </c>
-      <c r="H2137" s="2">
-        <f t="shared" si="105"/>
         <v>21859</v>
       </c>
       <c r="I2137" s="2">
@@ -48565,12 +48722,8 @@
       <c r="E2138" s="2">
         <v>1242</v>
       </c>
-      <c r="F2138" s="2">
+      <c r="H2138" s="2">
         <f t="shared" si="106"/>
-        <v>28</v>
-      </c>
-      <c r="H2138" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48585,12 +48738,8 @@
       <c r="E2139" s="2">
         <v>1723</v>
       </c>
-      <c r="F2139" s="2">
+      <c r="H2139" s="2">
         <f t="shared" si="106"/>
-        <v>28</v>
-      </c>
-      <c r="H2139" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48605,12 +48754,8 @@
       <c r="E2140" s="2">
         <v>1104</v>
       </c>
-      <c r="F2140" s="2">
+      <c r="H2140" s="2">
         <f t="shared" si="106"/>
-        <v>20</v>
-      </c>
-      <c r="H2140" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48625,12 +48770,8 @@
       <c r="E2141" s="2">
         <v>984</v>
       </c>
-      <c r="F2141" s="2">
+      <c r="H2141" s="2">
         <f t="shared" si="106"/>
-        <v>31</v>
-      </c>
-      <c r="H2141" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48647,12 +48788,8 @@
       <c r="E2142" s="2">
         <v>938</v>
       </c>
-      <c r="F2142" s="2">
+      <c r="H2142" s="2">
         <f t="shared" si="106"/>
-        <v>96</v>
-      </c>
-      <c r="H2142" s="2">
-        <f t="shared" si="105"/>
         <v>10833</v>
       </c>
       <c r="I2142" s="2">
@@ -48670,12 +48807,8 @@
       <c r="E2143" s="2">
         <v>1733</v>
       </c>
-      <c r="F2143" s="2">
+      <c r="H2143" s="2">
         <f t="shared" si="106"/>
-        <v>107</v>
-      </c>
-      <c r="H2143" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48690,12 +48823,8 @@
       <c r="E2144" s="2">
         <v>1031</v>
       </c>
-      <c r="F2144" s="2">
+      <c r="H2144" s="2">
         <f t="shared" si="106"/>
-        <v>100</v>
-      </c>
-      <c r="H2144" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48710,12 +48839,8 @@
       <c r="E2145" s="2">
         <v>876</v>
       </c>
-      <c r="F2145" s="2">
+      <c r="H2145" s="2">
         <f t="shared" si="106"/>
-        <v>35</v>
-      </c>
-      <c r="H2145" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48730,12 +48855,8 @@
       <c r="E2146" s="2">
         <v>849</v>
       </c>
-      <c r="F2146" s="2">
+      <c r="H2146" s="2">
         <f t="shared" si="106"/>
-        <v>65</v>
-      </c>
-      <c r="H2146" s="2">
-        <f t="shared" si="105"/>
         <v>0</v>
       </c>
     </row>
@@ -48752,12 +48873,8 @@
       <c r="E2147" s="2">
         <v>2543</v>
       </c>
-      <c r="F2147" s="2">
+      <c r="H2147" s="2">
         <f t="shared" si="106"/>
-        <v>49</v>
-      </c>
-      <c r="H2147" s="2">
-        <f t="shared" si="105"/>
         <v>33185</v>
       </c>
       <c r="I2147" s="2">
@@ -48775,12 +48892,8 @@
       <c r="E2148" s="2">
         <v>1020</v>
       </c>
-      <c r="F2148" s="2">
-        <f t="shared" si="106"/>
-        <v>14</v>
-      </c>
       <c r="H2148" s="2">
-        <f t="shared" ref="H2148:H2156" si="107">SUM(I2148-I2118)</f>
+        <f t="shared" ref="H2148:H2156" si="108">SUM(I2148-I2118)</f>
         <v>0</v>
       </c>
     </row>
@@ -48795,12 +48908,8 @@
       <c r="E2149" s="2">
         <v>842</v>
       </c>
-      <c r="F2149" s="2">
-        <f t="shared" si="106"/>
-        <v>7</v>
-      </c>
       <c r="H2149" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
     </row>
@@ -48815,12 +48924,8 @@
       <c r="E2150" s="2">
         <v>258</v>
       </c>
-      <c r="F2150" s="2">
-        <f t="shared" si="106"/>
-        <v>4</v>
-      </c>
       <c r="H2150" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
     </row>
@@ -48835,12 +48940,8 @@
       <c r="E2151" s="2">
         <v>101</v>
       </c>
-      <c r="F2151" s="2">
-        <f t="shared" si="106"/>
-        <v>8</v>
-      </c>
       <c r="H2151" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
     </row>
@@ -48857,12 +48958,8 @@
       <c r="E2152" s="2">
         <v>1471</v>
       </c>
-      <c r="F2152" s="2">
-        <f t="shared" si="106"/>
-        <v>91</v>
-      </c>
       <c r="H2152" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>9942</v>
       </c>
       <c r="I2152" s="2">
@@ -48881,12 +48978,8 @@
       <c r="E2153" s="2">
         <v>765</v>
       </c>
-      <c r="F2153" s="2">
-        <f t="shared" si="106"/>
-        <v>45</v>
-      </c>
       <c r="H2153" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
     </row>
@@ -48901,12 +48994,8 @@
       <c r="E2154" s="2">
         <v>662</v>
       </c>
-      <c r="F2154" s="2">
-        <f t="shared" si="106"/>
-        <v>51</v>
-      </c>
       <c r="H2154" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
     </row>
@@ -48921,12 +49010,8 @@
       <c r="E2155" s="2">
         <v>263</v>
       </c>
-      <c r="F2155" s="2">
-        <f t="shared" si="106"/>
-        <v>12</v>
-      </c>
       <c r="H2155" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
     </row>
@@ -48941,12 +49026,8 @@
       <c r="E2156" s="2">
         <v>335</v>
       </c>
-      <c r="F2156" s="2">
-        <f t="shared" si="106"/>
-        <v>11</v>
-      </c>
       <c r="H2156" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
     </row>
@@ -49632,7 +49713,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="2209" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2209" s="3"/>
       <c r="C2209" s="3" t="s">
         <v>28</v>
@@ -49644,7 +49725,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="2210" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2210" s="3"/>
       <c r="C2210" s="3" t="s">
         <v>38</v>
@@ -49656,7 +49737,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2211" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2211" s="3"/>
       <c r="C2211" s="3" t="s">
         <v>39</v>
@@ -49668,7 +49749,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2212" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2212" s="3" t="s">
         <v>16</v>
       </c>
@@ -49686,7 +49767,7 @@
         <v>575051</v>
       </c>
     </row>
-    <row r="2213" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2213" s="3"/>
       <c r="C2213" s="3" t="s">
         <v>18</v>
@@ -49698,7 +49779,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="2214" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2214" s="3"/>
       <c r="C2214" s="3" t="s">
         <v>19</v>
@@ -49710,7 +49791,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="2215" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2215" s="3"/>
       <c r="C2215" s="3" t="s">
         <v>40</v>
@@ -49722,7 +49803,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2216" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2216" s="3"/>
       <c r="C2216" s="3" t="s">
         <v>41</v>
@@ -49734,33 +49815,1993 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2217" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2217" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2217" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2218" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2217" s="2">
+        <v>71938</v>
+      </c>
+      <c r="E2217" s="2">
+        <v>2890</v>
+      </c>
+      <c r="I2217" s="2">
+        <v>2801996</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2218" s="3"/>
       <c r="C2218" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2219" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2218" s="2">
+        <v>9316</v>
+      </c>
+      <c r="E2218" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2219" s="3"/>
       <c r="C2219" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2220" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2219" s="2">
+        <v>10931</v>
+      </c>
+      <c r="E2219" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2220" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2221" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2220" s="2">
+        <v>3141</v>
+      </c>
+      <c r="E2220" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2221" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2221" s="2">
+        <v>8581</v>
+      </c>
+      <c r="E2221" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2222" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B2222" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2222" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2222" s="2">
+        <v>63822</v>
+      </c>
+      <c r="E2222" s="2">
+        <v>3991</v>
+      </c>
+      <c r="I2222" s="2">
+        <v>2934599</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2223" s="3"/>
+      <c r="C2223" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2223" s="2">
+        <v>58059</v>
+      </c>
+      <c r="E2223" s="2">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2224" s="3"/>
+      <c r="C2224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2224" s="2">
+        <v>41204</v>
+      </c>
+      <c r="E2224" s="2">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="2225" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2225" s="3"/>
+      <c r="C2225" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2225" s="2">
+        <v>46567</v>
+      </c>
+      <c r="E2225" s="2">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="2226" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2226" s="3"/>
+      <c r="C2226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2226" s="2">
+        <v>40659</v>
+      </c>
+      <c r="E2226" s="2">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="2227" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2227" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2227" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2227" s="2">
+        <v>18818</v>
+      </c>
+      <c r="E2227" s="2">
+        <v>1662</v>
+      </c>
+      <c r="I2227" s="2">
+        <v>1097616</v>
+      </c>
+    </row>
+    <row r="2228" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2228" s="3"/>
+      <c r="C2228" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2228" s="2">
+        <v>18746</v>
+      </c>
+      <c r="E2228" s="2">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="2229" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2229" s="3"/>
+      <c r="C2229" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2229" s="2">
+        <v>18364</v>
+      </c>
+      <c r="E2229" s="2">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="2230" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2230" s="3"/>
+      <c r="C2230" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2230" s="2">
+        <v>16322</v>
+      </c>
+      <c r="E2230" s="2">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="2231" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2231" s="3"/>
+      <c r="C2231" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2231" s="2">
+        <v>16627</v>
+      </c>
+      <c r="E2231" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="2232" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2232" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2232" s="2">
+        <v>19335</v>
+      </c>
+      <c r="E2232" s="2">
+        <v>950</v>
+      </c>
+      <c r="I2232" s="2">
+        <v>708383</v>
+      </c>
+    </row>
+    <row r="2233" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2233" s="3"/>
+      <c r="C2233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2233" s="2">
+        <v>23195</v>
+      </c>
+      <c r="E2233" s="2">
+        <v>1756</v>
+      </c>
+    </row>
+    <row r="2234" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2234" s="3"/>
+      <c r="C2234" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2234" s="2">
+        <v>15604</v>
+      </c>
+      <c r="E2234" s="2">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="2235" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2235" s="3"/>
+      <c r="C2235" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2235" s="2">
+        <v>8866</v>
+      </c>
+      <c r="E2235" s="2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="2236" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2236" s="3"/>
+      <c r="C2236" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2236" s="2">
+        <v>11975</v>
+      </c>
+      <c r="E2236" s="2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="2237" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2237" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2237" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2237" s="2">
+        <v>21023</v>
+      </c>
+      <c r="E2237" s="2">
+        <v>2552</v>
+      </c>
+      <c r="I2237" s="2">
+        <v>813498</v>
+      </c>
+    </row>
+    <row r="2238" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2238" s="3"/>
+      <c r="C2238" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2238" s="2">
+        <v>8559</v>
+      </c>
+      <c r="E2238" s="2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="2239" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2239" s="3"/>
+      <c r="C2239" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2239" s="2">
+        <v>6886</v>
+      </c>
+      <c r="E2239" s="2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2240" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2240" s="3"/>
+      <c r="C2240" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2240" s="2">
+        <v>2084</v>
+      </c>
+      <c r="E2240" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2241" s="3"/>
+      <c r="C2241" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2241" s="2">
+        <v>1373</v>
+      </c>
+      <c r="E2241" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2242" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2242" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2242" s="2">
+        <v>19933</v>
+      </c>
+      <c r="E2242" s="2">
+        <v>1505</v>
+      </c>
+      <c r="I2242" s="2">
+        <f>SUM(78798+504435)</f>
+        <v>583233</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2243" s="3"/>
+      <c r="C2243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2243" s="2">
+        <v>7898</v>
+      </c>
+      <c r="E2243" s="2">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2244" s="3"/>
+      <c r="C2244" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2244" s="2">
+        <v>6888</v>
+      </c>
+      <c r="E2244" s="2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2245" s="3"/>
+      <c r="C2245" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2245" s="2">
+        <v>3953</v>
+      </c>
+      <c r="E2245" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2246" s="3"/>
+      <c r="C2246" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2246" s="2">
+        <v>4319</v>
+      </c>
+      <c r="E2246" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2247" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2247" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2247" s="2">
+        <v>72932</v>
+      </c>
+      <c r="E2247" s="2">
+        <v>2907</v>
+      </c>
+      <c r="I2247" s="2">
+        <v>2868182</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2248" s="3"/>
+      <c r="C2248" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2248" s="2">
+        <v>9442</v>
+      </c>
+      <c r="E2248" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2249" s="3"/>
+      <c r="C2249" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2249" s="2">
+        <v>11218</v>
+      </c>
+      <c r="E2249" s="2">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2250" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2250" s="2">
+        <v>3178</v>
+      </c>
+      <c r="E2250" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2251" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2251" s="2">
+        <v>8744</v>
+      </c>
+      <c r="E2251" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2252" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B2252" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2252" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2252" s="2">
+        <v>63932</v>
+      </c>
+      <c r="E2252" s="2">
+        <v>3992</v>
+      </c>
+      <c r="I2252" s="2">
+        <v>2991210</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2253" s="3"/>
+      <c r="C2253" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2253" s="2">
+        <v>58177</v>
+      </c>
+      <c r="E2253" s="2">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2254" s="3"/>
+      <c r="C2254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2254" s="2">
+        <v>41240</v>
+      </c>
+      <c r="E2254" s="2">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2255" s="3"/>
+      <c r="C2255" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2255" s="2">
+        <v>46645</v>
+      </c>
+      <c r="E2255" s="2">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2256" s="3"/>
+      <c r="C2256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2256" s="2">
+        <v>40692</v>
+      </c>
+      <c r="E2256" s="2">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="2257" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2257" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2257" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2257" s="2">
+        <v>18848</v>
+      </c>
+      <c r="E2257" s="2">
+        <v>1664</v>
+      </c>
+      <c r="I2257" s="2">
+        <v>1116083</v>
+      </c>
+    </row>
+    <row r="2258" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2258" s="3"/>
+      <c r="C2258" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2258" s="2">
+        <v>18765</v>
+      </c>
+      <c r="E2258" s="2">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="2259" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2259" s="3"/>
+      <c r="C2259" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2259" s="2">
+        <v>18375</v>
+      </c>
+      <c r="E2259" s="2">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="2260" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2260" s="3"/>
+      <c r="C2260" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2260" s="2">
+        <v>16308</v>
+      </c>
+      <c r="E2260" s="2">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="2261" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2261" s="3"/>
+      <c r="C2261" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2261" s="2">
+        <v>16649</v>
+      </c>
+      <c r="E2261" s="2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="2262" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2262" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2262" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2262" s="2">
+        <v>19334</v>
+      </c>
+      <c r="E2262" s="2">
+        <v>951</v>
+      </c>
+      <c r="I2262" s="2">
+        <v>712875</v>
+      </c>
+    </row>
+    <row r="2263" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2263" s="3"/>
+      <c r="C2263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2263" s="2">
+        <v>23227</v>
+      </c>
+      <c r="E2263" s="2">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="2264" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2264" s="3"/>
+      <c r="C2264" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2264" s="2">
+        <v>15627</v>
+      </c>
+      <c r="E2264" s="2">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="2265" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2265" s="3"/>
+      <c r="C2265" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2265" s="2">
+        <v>8872</v>
+      </c>
+      <c r="E2265" s="2">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="2266" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2266" s="3"/>
+      <c r="C2266" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2266" s="2">
+        <v>11991</v>
+      </c>
+      <c r="E2266" s="2">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2267" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2267" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2267" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2267" s="2">
+        <v>21061</v>
+      </c>
+      <c r="E2267" s="2">
+        <v>2552</v>
+      </c>
+      <c r="I2267" s="2">
+        <v>824037</v>
+      </c>
+    </row>
+    <row r="2268" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2268" s="3"/>
+      <c r="C2268" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2268" s="2">
+        <v>8564</v>
+      </c>
+      <c r="E2268" s="2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="2269" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2269" s="3"/>
+      <c r="C2269" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2269" s="2">
+        <v>6895</v>
+      </c>
+      <c r="E2269" s="2">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="2270" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2270" s="3"/>
+      <c r="C2270" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2270" s="2">
+        <v>2086</v>
+      </c>
+      <c r="E2270" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2271" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2271" s="3"/>
+      <c r="C2271" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2271" s="2">
+        <v>1375</v>
+      </c>
+      <c r="E2271" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2272" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2272" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2272" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2272" s="2">
+        <v>20007</v>
+      </c>
+      <c r="E2272" s="2">
+        <v>1509</v>
+      </c>
+      <c r="I2272" s="2">
+        <f>SUM(79121+513909)</f>
+        <v>593030</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2273" s="3"/>
+      <c r="C2273" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2273" s="2">
+        <v>7930</v>
+      </c>
+      <c r="E2273" s="2">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2274" s="3"/>
+      <c r="C2274" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2274" s="2">
+        <v>6921</v>
+      </c>
+      <c r="E2274" s="2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2275" s="3"/>
+      <c r="C2275" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2275" s="2">
+        <v>3957</v>
+      </c>
+      <c r="E2275" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2276" s="3"/>
+      <c r="C2276" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2276" s="2">
+        <v>4324</v>
+      </c>
+      <c r="E2276" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2277" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2277" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2277" s="2">
+        <v>73705</v>
+      </c>
+      <c r="E2277" s="2">
+        <v>2926</v>
+      </c>
+      <c r="I2277" s="2">
+        <v>2937755</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2278" s="3"/>
+      <c r="C2278" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2278" s="2">
+        <v>9612</v>
+      </c>
+      <c r="E2278" s="2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2279" s="3"/>
+      <c r="C2279" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2279" s="2">
+        <v>11376</v>
+      </c>
+      <c r="E2279" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2280" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2280" s="2">
+        <v>3204</v>
+      </c>
+      <c r="E2280" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2281" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2281" s="2">
+        <v>8944</v>
+      </c>
+      <c r="E2281" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2282" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B2282" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2282" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2282" s="2">
+        <v>64042</v>
+      </c>
+      <c r="E2282" s="2">
+        <v>3992</v>
+      </c>
+      <c r="I2282" s="2">
+        <v>3051778</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2283" s="3"/>
+      <c r="C2283" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2283" s="2">
+        <v>58274</v>
+      </c>
+      <c r="E2283" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2284" s="3"/>
+      <c r="C2284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2284" s="2">
+        <v>41290</v>
+      </c>
+      <c r="E2284" s="2">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2285" s="3"/>
+      <c r="C2285" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2285" s="2">
+        <v>46710</v>
+      </c>
+      <c r="E2285" s="2">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2286" s="3"/>
+      <c r="C2286" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2286" s="2">
+        <v>40738</v>
+      </c>
+      <c r="E2286" s="2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2287" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2287" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2287" s="2">
+        <v>18901</v>
+      </c>
+      <c r="E2287" s="2">
+        <v>1673</v>
+      </c>
+      <c r="I2287" s="2">
+        <v>1131782</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2288" s="3"/>
+      <c r="C2288" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2288" s="2">
+        <v>18744</v>
+      </c>
+      <c r="E2288" s="2">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="2289" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2289" s="3"/>
+      <c r="C2289" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2289" s="2">
+        <v>18388</v>
+      </c>
+      <c r="E2289" s="2">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="2290" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2290" s="3"/>
+      <c r="C2290" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2290" s="2">
+        <v>16320</v>
+      </c>
+      <c r="E2290" s="2">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="2291" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2291" s="3"/>
+      <c r="C2291" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2291" s="2">
+        <v>16664</v>
+      </c>
+      <c r="E2291" s="2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="2292" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2292" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2292" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2292" s="2">
+        <v>19367</v>
+      </c>
+      <c r="E2292" s="2">
+        <v>952</v>
+      </c>
+      <c r="I2292" s="2">
+        <v>719236</v>
+      </c>
+    </row>
+    <row r="2293" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2293" s="3"/>
+      <c r="C2293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2293" s="2">
+        <v>23269</v>
+      </c>
+      <c r="E2293" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="2294" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2294" s="3"/>
+      <c r="C2294" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2294" s="2">
+        <v>15667</v>
+      </c>
+      <c r="E2294" s="2">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="2295" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2295" s="3"/>
+      <c r="C2295" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2295" s="2">
+        <v>8892</v>
+      </c>
+      <c r="E2295" s="2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="2296" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2296" s="3"/>
+      <c r="C2296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2296" s="2">
+        <v>12014</v>
+      </c>
+      <c r="E2296" s="2">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="2297" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2297" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2297" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2297" s="2">
+        <v>21053</v>
+      </c>
+      <c r="E2297" s="2">
+        <v>2558</v>
+      </c>
+      <c r="I2297" s="2">
+        <v>835534</v>
+      </c>
+    </row>
+    <row r="2298" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2298" s="3"/>
+      <c r="C2298" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2298" s="2">
+        <v>8595</v>
+      </c>
+      <c r="E2298" s="2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="2299" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2299" s="3"/>
+      <c r="C2299" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2299" s="2">
+        <v>6926</v>
+      </c>
+      <c r="E2299" s="2">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="2300" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2300" s="3"/>
+      <c r="C2300" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2300" s="2">
+        <v>2091</v>
+      </c>
+      <c r="E2300" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2301" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2301" s="3"/>
+      <c r="C2301" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2301" s="2">
+        <v>1382</v>
+      </c>
+      <c r="E2301" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2302" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2302" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2302" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2302" s="2">
+        <v>20096</v>
+      </c>
+      <c r="E2302" s="2">
+        <v>1518</v>
+      </c>
+      <c r="I2302" s="2">
+        <f>SUM(79483+523609)</f>
+        <v>603092</v>
+      </c>
+    </row>
+    <row r="2303" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2303" s="3"/>
+      <c r="C2303" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2303" s="2">
+        <v>7950</v>
+      </c>
+      <c r="E2303" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="2304" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2304" s="3"/>
+      <c r="C2304" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2304" s="2">
+        <v>6936</v>
+      </c>
+      <c r="E2304" s="2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2305" s="3"/>
+      <c r="C2305" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2305" s="2">
+        <v>3973</v>
+      </c>
+      <c r="E2305" s="2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2306" s="3"/>
+      <c r="C2306" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2306" s="2">
+        <v>4341</v>
+      </c>
+      <c r="E2306" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2307" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2307" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2307" s="2">
+        <v>75051</v>
+      </c>
+      <c r="E2307" s="2">
+        <v>2959</v>
+      </c>
+      <c r="I2307" s="2">
+        <v>2997988</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2308" s="3"/>
+      <c r="C2308" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2308" s="2">
+        <v>9732</v>
+      </c>
+      <c r="E2308" s="2">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2309" s="3"/>
+      <c r="C2309" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2309" s="2">
+        <v>11638</v>
+      </c>
+      <c r="E2309" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2310" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2310" s="2">
+        <v>3228</v>
+      </c>
+      <c r="E2310" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2311" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2311" s="2">
+        <v>9163</v>
+      </c>
+      <c r="E2311" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2312" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B2312" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2312" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2312" s="2">
+        <v>64176</v>
+      </c>
+      <c r="E2312" s="2">
+        <v>3993</v>
+      </c>
+      <c r="I2312" s="2">
+        <v>3111119</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2313" s="3"/>
+      <c r="C2313" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2313" s="2">
+        <v>58386</v>
+      </c>
+      <c r="E2313" s="2">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2314" s="3"/>
+      <c r="C2314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2314" s="2">
+        <v>41320</v>
+      </c>
+      <c r="E2314" s="2">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2315" s="3"/>
+      <c r="C2315" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2315" s="2">
+        <v>46778</v>
+      </c>
+      <c r="E2315" s="2">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2316" s="3"/>
+      <c r="C2316" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2316" s="2">
+        <v>40770</v>
+      </c>
+      <c r="E2316" s="2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2317" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2317" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2317" s="2">
+        <v>18928</v>
+      </c>
+      <c r="E2317" s="2">
+        <v>1681</v>
+      </c>
+      <c r="I2317" s="2">
+        <v>1147841</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2318" s="3"/>
+      <c r="C2318" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2318" s="2">
+        <v>18755</v>
+      </c>
+      <c r="E2318" s="2">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2319" s="3"/>
+      <c r="C2319" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2319" s="2">
+        <v>18421</v>
+      </c>
+      <c r="E2319" s="2">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2320" s="3"/>
+      <c r="C2320" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2320" s="2">
+        <v>16315</v>
+      </c>
+      <c r="E2320" s="2">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="2321" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2321" s="3"/>
+      <c r="C2321" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2321" s="2">
+        <v>16683</v>
+      </c>
+      <c r="E2321" s="2">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="2322" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2322" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2322" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2322" s="2">
+        <v>19434</v>
+      </c>
+      <c r="E2322" s="2">
+        <v>959</v>
+      </c>
+      <c r="I2322" s="2">
+        <v>727549</v>
+      </c>
+    </row>
+    <row r="2323" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2323" s="3"/>
+      <c r="C2323" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2323" s="2">
+        <v>23346</v>
+      </c>
+      <c r="E2323" s="2">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="2324" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2324" s="3"/>
+      <c r="C2324" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2324" s="2">
+        <v>15703</v>
+      </c>
+      <c r="E2324" s="2">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="2325" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2325" s="3"/>
+      <c r="C2325" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2325" s="2">
+        <v>8908</v>
+      </c>
+      <c r="E2325" s="2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="2326" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2326" s="3"/>
+      <c r="C2326" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2326" s="2">
+        <v>12032</v>
+      </c>
+      <c r="E2326" s="2">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="2327" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2327" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2327" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2327" s="2">
+        <v>21131</v>
+      </c>
+      <c r="E2327" s="2">
+        <v>2559</v>
+      </c>
+      <c r="I2327" s="2">
+        <v>849885</v>
+      </c>
+    </row>
+    <row r="2328" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2328" s="3"/>
+      <c r="C2328" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2328" s="2">
+        <v>8692</v>
+      </c>
+      <c r="E2328" s="2">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="2329" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2329" s="3"/>
+      <c r="C2329" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2329" s="2">
+        <v>6937</v>
+      </c>
+      <c r="E2329" s="2">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2330" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2330" s="3"/>
+      <c r="C2330" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2330" s="2">
+        <v>2097</v>
+      </c>
+      <c r="E2330" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2331" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2331" s="3"/>
+      <c r="C2331" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2331" s="2">
+        <v>1389</v>
+      </c>
+      <c r="E2331" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2332" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2332" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2332" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2332" s="2">
+        <v>20184</v>
+      </c>
+      <c r="E2332" s="2">
+        <v>1528</v>
+      </c>
+      <c r="I2332" s="2">
+        <f>SUM(79818+533013)</f>
+        <v>612831</v>
+      </c>
+    </row>
+    <row r="2333" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2333" s="3"/>
+      <c r="C2333" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2333" s="2">
+        <v>7990</v>
+      </c>
+      <c r="E2333" s="2">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="2334" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2334" s="3"/>
+      <c r="C2334" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2334" s="2">
+        <v>6967</v>
+      </c>
+      <c r="E2334" s="2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="2335" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2335" s="3"/>
+      <c r="C2335" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2335" s="2">
+        <v>3978</v>
+      </c>
+      <c r="E2335" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2336" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2336" s="3"/>
+      <c r="C2336" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2336" s="2">
+        <v>4350</v>
+      </c>
+      <c r="E2336" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2337" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2337" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2337" s="2">
+        <v>77166</v>
+      </c>
+      <c r="E2337" s="2">
+        <v>2991</v>
+      </c>
+      <c r="I2337" s="2">
+        <v>3074530</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2338" s="3"/>
+      <c r="C2338" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2338" s="2">
+        <v>9856</v>
+      </c>
+      <c r="E2338" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2339" s="3"/>
+      <c r="C2339" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2339" s="2">
+        <v>11859</v>
+      </c>
+      <c r="E2339" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2340" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2340" s="2">
+        <v>3264</v>
+      </c>
+      <c r="E2340" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2341" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2341" s="2">
+        <v>9278</v>
+      </c>
+      <c r="E2341" s="2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2342" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B2342" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2342" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2342" s="2">
+        <v>64268</v>
+      </c>
+      <c r="E2342" s="2">
+        <v>4002</v>
+      </c>
+      <c r="I2342" s="2">
+        <v>3179660</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2343" s="3"/>
+      <c r="C2343" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2343" s="2">
+        <v>58502</v>
+      </c>
+      <c r="E2343" s="2">
+        <v>4504</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2344" s="3"/>
+      <c r="C2344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2344" s="2">
+        <v>41349</v>
+      </c>
+      <c r="E2344" s="2">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2345" s="3"/>
+      <c r="C2345" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2345" s="2">
+        <v>46830</v>
+      </c>
+      <c r="E2345" s="2">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2346" s="3"/>
+      <c r="C2346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2346" s="2">
+        <v>40810</v>
+      </c>
+      <c r="E2346" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2347" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2347" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2347" s="2">
+        <v>18949</v>
+      </c>
+      <c r="E2347" s="2">
+        <v>1684</v>
+      </c>
+      <c r="I2347" s="2">
+        <v>1171734</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2348" s="3"/>
+      <c r="C2348" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2348" s="2">
+        <v>18753</v>
+      </c>
+      <c r="E2348" s="2">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2349" s="3"/>
+      <c r="C2349" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2349" s="2">
+        <v>18499</v>
+      </c>
+      <c r="E2349" s="2">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2350" s="3"/>
+      <c r="C2350" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2350" s="2">
+        <v>16304</v>
+      </c>
+      <c r="E2350" s="2">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2351" s="3"/>
+      <c r="C2351" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2351" s="2">
+        <v>16706</v>
+      </c>
+      <c r="E2351" s="2">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2352" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2352" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2352" s="2">
+        <v>19477</v>
+      </c>
+      <c r="E2352" s="2">
+        <v>963</v>
+      </c>
+      <c r="I2352" s="2">
+        <v>736691</v>
+      </c>
+    </row>
+    <row r="2353" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2353" s="3"/>
+      <c r="C2353" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2353" s="2">
+        <v>23407</v>
+      </c>
+      <c r="E2353" s="2">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="2354" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2354" s="3"/>
+      <c r="C2354" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2354" s="2">
+        <v>15739</v>
+      </c>
+      <c r="E2354" s="2">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="2355" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2355" s="3"/>
+      <c r="C2355" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2355" s="2">
+        <v>8935</v>
+      </c>
+      <c r="E2355" s="2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2356" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2356" s="3"/>
+      <c r="C2356" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2356" s="2">
+        <v>12050</v>
+      </c>
+      <c r="E2356" s="2">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="2357" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2357" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2357" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2357" s="2">
+        <v>21171</v>
+      </c>
+      <c r="E2357" s="2">
+        <v>2563</v>
+      </c>
+      <c r="I2357" s="2">
+        <v>850186</v>
+      </c>
+    </row>
+    <row r="2358" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2358" s="3"/>
+      <c r="C2358" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2358" s="2">
+        <v>8617</v>
+      </c>
+      <c r="E2358" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="2359" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2359" s="3"/>
+      <c r="C2359" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2359" s="2">
+        <v>6943</v>
+      </c>
+      <c r="E2359" s="2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2360" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2360" s="3"/>
+      <c r="C2360" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2360" s="2">
+        <v>2102</v>
+      </c>
+      <c r="E2360" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2361" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2361" s="3"/>
+      <c r="C2361" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2361" s="2">
+        <v>1394</v>
+      </c>
+      <c r="E2361" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2362" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2362" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2362" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2362" s="2">
+        <v>20276</v>
+      </c>
+      <c r="E2362" s="2">
+        <v>1540</v>
+      </c>
+      <c r="I2362" s="2">
+        <f>SUM(80236+543832)</f>
+        <v>624068</v>
+      </c>
+    </row>
+    <row r="2363" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2363" s="3"/>
+      <c r="C2363" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2363" s="2">
+        <v>8014</v>
+      </c>
+      <c r="E2363" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2364" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2364" s="3"/>
+      <c r="C2364" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2364" s="2">
+        <v>6981</v>
+      </c>
+      <c r="E2364" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="2365" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2365" s="3"/>
+      <c r="C2365" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2365" s="2">
+        <v>3997</v>
+      </c>
+      <c r="E2365" s="2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2366" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2366" s="3"/>
+      <c r="C2366" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2366" s="2">
+        <v>4359</v>
+      </c>
+      <c r="E2366" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2367" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2367" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2367" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2368" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2368" s="3"/>
+      <c r="C2368" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2369" s="3"/>
+      <c r="C2369" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2370" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2371" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F9239F-04E7-384D-AA01-C1A8852C280C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842E055-12C3-D546-8455-364254F82D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="940" windowWidth="12440" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12440" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="45">
   <si>
     <t>DATE</t>
   </si>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2371"/>
+  <dimension ref="A1:M2401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2325" zoomScale="81" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F2341" sqref="F2341"/>
+    <sheetView tabSelected="1" topLeftCell="A2334" zoomScale="82" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J2344" sqref="J2344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -48615,6 +48615,10 @@
       <c r="E2132" s="2">
         <v>3983</v>
       </c>
+      <c r="F2132" s="2">
+        <f>SUM(D2132-D2102)</f>
+        <v>106</v>
+      </c>
       <c r="H2132" s="2">
         <f t="shared" si="106"/>
         <v>60839</v>
@@ -48634,6 +48638,10 @@
       <c r="E2133" s="2">
         <v>4476</v>
       </c>
+      <c r="F2133" s="2">
+        <f t="shared" ref="F2133:F2196" si="108">SUM(D2133-D2103)</f>
+        <v>121</v>
+      </c>
       <c r="H2133" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48650,6 +48658,10 @@
       <c r="E2134" s="2">
         <v>2654</v>
       </c>
+      <c r="F2134" s="2">
+        <f t="shared" si="108"/>
+        <v>45</v>
+      </c>
       <c r="H2134" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48666,6 +48678,10 @@
       <c r="E2135" s="2">
         <v>3006</v>
       </c>
+      <c r="F2135" s="2">
+        <f t="shared" si="108"/>
+        <v>93</v>
+      </c>
       <c r="H2135" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48682,6 +48698,10 @@
       <c r="E2136" s="2">
         <v>1994</v>
       </c>
+      <c r="F2136" s="2">
+        <f t="shared" si="108"/>
+        <v>48</v>
+      </c>
       <c r="H2136" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48699,6 +48719,10 @@
       </c>
       <c r="E2137" s="2">
         <v>1646</v>
+      </c>
+      <c r="F2137" s="2">
+        <f t="shared" si="108"/>
+        <v>52</v>
       </c>
       <c r="G2137" s="2" t="s">
         <v>44</v>
@@ -48722,6 +48746,10 @@
       <c r="E2138" s="2">
         <v>1242</v>
       </c>
+      <c r="F2138" s="2">
+        <f t="shared" si="108"/>
+        <v>28</v>
+      </c>
       <c r="H2138" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48738,6 +48766,10 @@
       <c r="E2139" s="2">
         <v>1723</v>
       </c>
+      <c r="F2139" s="2">
+        <f t="shared" si="108"/>
+        <v>28</v>
+      </c>
       <c r="H2139" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48754,6 +48786,10 @@
       <c r="E2140" s="2">
         <v>1104</v>
       </c>
+      <c r="F2140" s="2">
+        <f t="shared" si="108"/>
+        <v>20</v>
+      </c>
       <c r="H2140" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48770,6 +48806,10 @@
       <c r="E2141" s="2">
         <v>984</v>
       </c>
+      <c r="F2141" s="2">
+        <f t="shared" si="108"/>
+        <v>31</v>
+      </c>
       <c r="H2141" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48787,6 +48827,10 @@
       </c>
       <c r="E2142" s="2">
         <v>938</v>
+      </c>
+      <c r="F2142" s="2">
+        <f t="shared" si="108"/>
+        <v>96</v>
       </c>
       <c r="H2142" s="2">
         <f t="shared" si="106"/>
@@ -48807,6 +48851,10 @@
       <c r="E2143" s="2">
         <v>1733</v>
       </c>
+      <c r="F2143" s="2">
+        <f t="shared" si="108"/>
+        <v>107</v>
+      </c>
       <c r="H2143" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48823,6 +48871,10 @@
       <c r="E2144" s="2">
         <v>1031</v>
       </c>
+      <c r="F2144" s="2">
+        <f t="shared" si="108"/>
+        <v>100</v>
+      </c>
       <c r="H2144" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48839,6 +48891,10 @@
       <c r="E2145" s="2">
         <v>876</v>
       </c>
+      <c r="F2145" s="2">
+        <f t="shared" si="108"/>
+        <v>35</v>
+      </c>
       <c r="H2145" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48855,6 +48911,10 @@
       <c r="E2146" s="2">
         <v>849</v>
       </c>
+      <c r="F2146" s="2">
+        <f t="shared" si="108"/>
+        <v>65</v>
+      </c>
       <c r="H2146" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48872,6 +48932,10 @@
       </c>
       <c r="E2147" s="2">
         <v>2543</v>
+      </c>
+      <c r="F2147" s="2">
+        <f t="shared" si="108"/>
+        <v>49</v>
       </c>
       <c r="H2147" s="2">
         <f t="shared" si="106"/>
@@ -48892,8 +48956,12 @@
       <c r="E2148" s="2">
         <v>1020</v>
       </c>
+      <c r="F2148" s="2">
+        <f t="shared" si="108"/>
+        <v>14</v>
+      </c>
       <c r="H2148" s="2">
-        <f t="shared" ref="H2148:H2156" si="108">SUM(I2148-I2118)</f>
+        <f t="shared" ref="H2148:H2156" si="109">SUM(I2148-I2118)</f>
         <v>0</v>
       </c>
     </row>
@@ -48908,8 +48976,12 @@
       <c r="E2149" s="2">
         <v>842</v>
       </c>
+      <c r="F2149" s="2">
+        <f t="shared" si="108"/>
+        <v>7</v>
+      </c>
       <c r="H2149" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -48924,8 +48996,12 @@
       <c r="E2150" s="2">
         <v>258</v>
       </c>
+      <c r="F2150" s="2">
+        <f t="shared" si="108"/>
+        <v>4</v>
+      </c>
       <c r="H2150" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -48940,8 +49016,12 @@
       <c r="E2151" s="2">
         <v>101</v>
       </c>
+      <c r="F2151" s="2">
+        <f t="shared" si="108"/>
+        <v>8</v>
+      </c>
       <c r="H2151" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -48958,8 +49038,12 @@
       <c r="E2152" s="2">
         <v>1471</v>
       </c>
+      <c r="F2152" s="2">
+        <f t="shared" si="108"/>
+        <v>91</v>
+      </c>
       <c r="H2152" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>9942</v>
       </c>
       <c r="I2152" s="2">
@@ -48978,8 +49062,12 @@
       <c r="E2153" s="2">
         <v>765</v>
       </c>
+      <c r="F2153" s="2">
+        <f t="shared" si="108"/>
+        <v>45</v>
+      </c>
       <c r="H2153" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -48994,8 +49082,12 @@
       <c r="E2154" s="2">
         <v>662</v>
       </c>
+      <c r="F2154" s="2">
+        <f t="shared" si="108"/>
+        <v>51</v>
+      </c>
       <c r="H2154" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -49010,8 +49102,12 @@
       <c r="E2155" s="2">
         <v>263</v>
       </c>
+      <c r="F2155" s="2">
+        <f t="shared" si="108"/>
+        <v>12</v>
+      </c>
       <c r="H2155" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -49026,8 +49122,12 @@
       <c r="E2156" s="2">
         <v>335</v>
       </c>
+      <c r="F2156" s="2">
+        <f t="shared" si="108"/>
+        <v>11</v>
+      </c>
       <c r="H2156" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
     </row>
@@ -49043,6 +49143,14 @@
       </c>
       <c r="E2157" s="2">
         <v>2813</v>
+      </c>
+      <c r="F2157" s="2">
+        <f t="shared" si="108"/>
+        <v>1789</v>
+      </c>
+      <c r="H2157" s="2">
+        <f>SUM(I2157-I2127)</f>
+        <v>64611</v>
       </c>
       <c r="I2157" s="2">
         <v>2662258</v>
@@ -49059,6 +49167,14 @@
       <c r="E2158" s="2">
         <v>312</v>
       </c>
+      <c r="F2158" s="2">
+        <f t="shared" si="108"/>
+        <v>161</v>
+      </c>
+      <c r="H2158" s="2">
+        <f t="shared" ref="H2158:H2221" si="110">SUM(I2158-I2128)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="2159" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2159" s="3"/>
@@ -49071,6 +49187,14 @@
       <c r="E2159" s="2">
         <v>380</v>
       </c>
+      <c r="F2159" s="2">
+        <f t="shared" si="108"/>
+        <v>157</v>
+      </c>
+      <c r="H2159" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2160" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2160" s="3" t="s">
@@ -49082,6 +49206,14 @@
       <c r="E2160" s="2">
         <v>149</v>
       </c>
+      <c r="F2160" s="2">
+        <f t="shared" si="108"/>
+        <v>17</v>
+      </c>
+      <c r="H2160" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2161" s="3" t="s">
@@ -49093,6 +49225,14 @@
       <c r="E2161" s="2">
         <v>202</v>
       </c>
+      <c r="F2161" s="2">
+        <f t="shared" si="108"/>
+        <v>82</v>
+      </c>
+      <c r="H2161" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2162" s="1">
@@ -49109,6 +49249,14 @@
       </c>
       <c r="E2162" s="2">
         <v>3988</v>
+      </c>
+      <c r="F2162" s="2">
+        <f t="shared" si="108"/>
+        <v>141</v>
+      </c>
+      <c r="H2162" s="2">
+        <f t="shared" si="110"/>
+        <v>72395</v>
       </c>
       <c r="I2162" s="2">
         <v>2801400</v>
@@ -49125,6 +49273,14 @@
       <c r="E2163" s="2">
         <v>4484</v>
       </c>
+      <c r="F2163" s="2">
+        <f t="shared" si="108"/>
+        <v>128</v>
+      </c>
+      <c r="H2163" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2164" s="3"/>
@@ -49137,6 +49293,14 @@
       <c r="E2164" s="2">
         <v>2667</v>
       </c>
+      <c r="F2164" s="2">
+        <f t="shared" si="108"/>
+        <v>54</v>
+      </c>
+      <c r="H2164" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2165" s="3"/>
@@ -49149,6 +49313,14 @@
       <c r="E2165" s="2">
         <v>3013</v>
       </c>
+      <c r="F2165" s="2">
+        <f t="shared" si="108"/>
+        <v>80</v>
+      </c>
+      <c r="H2165" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2166" s="3"/>
@@ -49161,6 +49333,14 @@
       <c r="E2166" s="2">
         <v>1994</v>
       </c>
+      <c r="F2166" s="2">
+        <f t="shared" si="108"/>
+        <v>47</v>
+      </c>
+      <c r="H2166" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2167" s="3" t="s">
@@ -49174,6 +49354,14 @@
       </c>
       <c r="E2167" s="2">
         <v>1649</v>
+      </c>
+      <c r="F2167" s="2">
+        <f t="shared" si="108"/>
+        <v>24</v>
+      </c>
+      <c r="H2167" s="2">
+        <f t="shared" si="110"/>
+        <v>24603</v>
       </c>
       <c r="I2167" s="2">
         <v>1055396</v>
@@ -49190,6 +49378,14 @@
       <c r="E2168" s="2">
         <v>1246</v>
       </c>
+      <c r="F2168" s="2">
+        <f t="shared" si="108"/>
+        <v>18</v>
+      </c>
+      <c r="H2168" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2169" s="3"/>
@@ -49202,6 +49398,14 @@
       <c r="E2169" s="2">
         <v>1728</v>
       </c>
+      <c r="F2169" s="2">
+        <f t="shared" si="108"/>
+        <v>61</v>
+      </c>
+      <c r="H2169" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2170" s="3"/>
@@ -49214,6 +49418,14 @@
       <c r="E2170" s="2">
         <v>1112</v>
       </c>
+      <c r="F2170" s="2">
+        <f t="shared" si="108"/>
+        <v>14</v>
+      </c>
+      <c r="H2170" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2171" s="3"/>
@@ -49226,6 +49438,14 @@
       <c r="E2171" s="2">
         <v>988</v>
       </c>
+      <c r="F2171" s="2">
+        <f t="shared" si="108"/>
+        <v>26</v>
+      </c>
+      <c r="H2171" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2172" s="3" t="s">
@@ -49239,6 +49459,14 @@
       </c>
       <c r="E2172" s="2">
         <v>941</v>
+      </c>
+      <c r="F2172" s="2">
+        <f t="shared" si="108"/>
+        <v>54</v>
+      </c>
+      <c r="H2172" s="2">
+        <f t="shared" si="110"/>
+        <v>10186</v>
       </c>
       <c r="I2172" s="2">
         <v>689111</v>
@@ -49255,6 +49483,14 @@
       <c r="E2173" s="2">
         <v>1744</v>
       </c>
+      <c r="F2173" s="2">
+        <f t="shared" si="108"/>
+        <v>79</v>
+      </c>
+      <c r="H2173" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2174" s="3"/>
@@ -49267,6 +49503,14 @@
       <c r="E2174" s="2">
         <v>1035</v>
       </c>
+      <c r="F2174" s="2">
+        <f t="shared" si="108"/>
+        <v>53</v>
+      </c>
+      <c r="H2174" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2175" s="3"/>
@@ -49279,6 +49523,14 @@
       <c r="E2175" s="2">
         <v>882</v>
       </c>
+      <c r="F2175" s="2">
+        <f t="shared" si="108"/>
+        <v>33</v>
+      </c>
+      <c r="H2175" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2176" s="3"/>
@@ -49291,6 +49543,14 @@
       <c r="E2176" s="2">
         <v>856</v>
       </c>
+      <c r="F2176" s="2">
+        <f t="shared" si="108"/>
+        <v>52</v>
+      </c>
+      <c r="H2176" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2177" s="3" t="s">
@@ -49304,6 +49564,14 @@
       </c>
       <c r="E2177" s="2">
         <v>2547</v>
+      </c>
+      <c r="F2177" s="2">
+        <f t="shared" si="108"/>
+        <v>32</v>
+      </c>
+      <c r="H2177" s="2">
+        <f t="shared" si="110"/>
+        <v>15767</v>
       </c>
       <c r="I2177" s="2">
         <v>786287</v>
@@ -49320,6 +49588,14 @@
       <c r="E2178" s="2">
         <v>1021</v>
       </c>
+      <c r="F2178" s="2">
+        <f t="shared" si="108"/>
+        <v>15</v>
+      </c>
+      <c r="H2178" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2179" s="3"/>
@@ -49332,6 +49608,14 @@
       <c r="E2179" s="2">
         <v>844</v>
       </c>
+      <c r="F2179" s="2">
+        <f t="shared" si="108"/>
+        <v>10</v>
+      </c>
+      <c r="H2179" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2180" s="3"/>
@@ -49344,6 +49628,14 @@
       <c r="E2180" s="2">
         <v>256</v>
       </c>
+      <c r="F2180" s="2">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="H2180" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2181" s="3"/>
@@ -49356,6 +49648,14 @@
       <c r="E2181" s="2">
         <v>101</v>
       </c>
+      <c r="F2181" s="2">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="H2181" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2182" s="3" t="s">
@@ -49369,6 +49669,14 @@
       </c>
       <c r="E2182" s="2">
         <v>1487</v>
+      </c>
+      <c r="F2182" s="2">
+        <f t="shared" si="108"/>
+        <v>174</v>
+      </c>
+      <c r="H2182" s="2">
+        <f t="shared" si="110"/>
+        <v>12632</v>
       </c>
       <c r="I2182" s="2">
         <f>SUM(77999+488385)</f>
@@ -49386,6 +49694,14 @@
       <c r="E2183" s="2">
         <v>768</v>
       </c>
+      <c r="F2183" s="2">
+        <f t="shared" si="108"/>
+        <v>80</v>
+      </c>
+      <c r="H2183" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2184" s="3"/>
@@ -49398,6 +49714,14 @@
       <c r="E2184" s="2">
         <v>664</v>
       </c>
+      <c r="F2184" s="2">
+        <f t="shared" si="108"/>
+        <v>32</v>
+      </c>
+      <c r="H2184" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2185" s="3"/>
@@ -49410,6 +49734,14 @@
       <c r="E2185" s="2">
         <v>264</v>
       </c>
+      <c r="F2185" s="2">
+        <f t="shared" si="108"/>
+        <v>19</v>
+      </c>
+      <c r="H2185" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2186" s="3"/>
@@ -49422,6 +49754,14 @@
       <c r="E2186" s="2">
         <v>338</v>
       </c>
+      <c r="F2186" s="2">
+        <f t="shared" si="108"/>
+        <v>19</v>
+      </c>
+      <c r="H2186" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2187" s="3" t="s">
@@ -49435,6 +49775,14 @@
       </c>
       <c r="E2187" s="2">
         <v>2834</v>
+      </c>
+      <c r="F2187" s="2">
+        <f t="shared" si="108"/>
+        <v>1578</v>
+      </c>
+      <c r="H2187" s="2">
+        <f t="shared" si="110"/>
+        <v>62135</v>
       </c>
       <c r="I2187" s="2">
         <v>2724393</v>
@@ -49451,6 +49799,14 @@
       <c r="E2188" s="2">
         <v>312</v>
       </c>
+      <c r="F2188" s="2">
+        <f t="shared" si="108"/>
+        <v>132</v>
+      </c>
+      <c r="H2188" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2189" s="3"/>
@@ -49463,6 +49819,14 @@
       <c r="E2189" s="2">
         <v>383</v>
       </c>
+      <c r="F2189" s="2">
+        <f t="shared" si="108"/>
+        <v>602</v>
+      </c>
+      <c r="H2189" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2190" s="3" t="s">
@@ -49474,6 +49838,14 @@
       <c r="E2190" s="2">
         <v>150</v>
       </c>
+      <c r="F2190" s="2">
+        <f t="shared" si="108"/>
+        <v>50</v>
+      </c>
+      <c r="H2190" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2191" s="3" t="s">
@@ -49485,6 +49857,14 @@
       <c r="E2191" s="2">
         <v>210</v>
       </c>
+      <c r="F2191" s="2">
+        <f t="shared" si="108"/>
+        <v>136</v>
+      </c>
+      <c r="H2191" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2192" s="1">
@@ -49501,6 +49881,14 @@
       </c>
       <c r="E2192" s="2">
         <v>3989</v>
+      </c>
+      <c r="F2192" s="2">
+        <f t="shared" si="108"/>
+        <v>154</v>
+      </c>
+      <c r="H2192" s="2">
+        <f t="shared" si="110"/>
+        <v>70840</v>
       </c>
       <c r="I2192" s="2">
         <v>2872240</v>
@@ -49517,6 +49905,14 @@
       <c r="E2193" s="2">
         <v>4490</v>
       </c>
+      <c r="F2193" s="2">
+        <f t="shared" si="108"/>
+        <v>186</v>
+      </c>
+      <c r="H2193" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2194" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2194" s="3"/>
@@ -49529,6 +49925,14 @@
       <c r="E2194" s="2">
         <v>2668</v>
       </c>
+      <c r="F2194" s="2">
+        <f t="shared" si="108"/>
+        <v>58</v>
+      </c>
+      <c r="H2194" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2195" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2195" s="3"/>
@@ -49541,6 +49945,14 @@
       <c r="E2195" s="2">
         <v>3013</v>
       </c>
+      <c r="F2195" s="2">
+        <f t="shared" si="108"/>
+        <v>105</v>
+      </c>
+      <c r="H2195" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2196" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2196" s="3"/>
@@ -49553,6 +49965,14 @@
       <c r="E2196" s="2">
         <v>1996</v>
       </c>
+      <c r="F2196" s="2">
+        <f t="shared" si="108"/>
+        <v>56</v>
+      </c>
+      <c r="H2196" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2197" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2197" s="3" t="s">
@@ -49566,6 +49986,14 @@
       </c>
       <c r="E2197" s="2">
         <v>1664</v>
+      </c>
+      <c r="F2197" s="2">
+        <f t="shared" ref="F2197:F2260" si="111">SUM(D2197-D2167)</f>
+        <v>62</v>
+      </c>
+      <c r="H2197" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
       </c>
       <c r="I2197" s="2">
         <v>1055396</v>
@@ -49582,6 +50010,14 @@
       <c r="E2198" s="2">
         <v>1253</v>
       </c>
+      <c r="F2198" s="2">
+        <f t="shared" si="111"/>
+        <v>24</v>
+      </c>
+      <c r="H2198" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2199" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2199" s="3"/>
@@ -49594,6 +50030,14 @@
       <c r="E2199" s="2">
         <v>1741</v>
       </c>
+      <c r="F2199" s="2">
+        <f t="shared" si="111"/>
+        <v>41</v>
+      </c>
+      <c r="H2199" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2200" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2200" s="3"/>
@@ -49606,6 +50050,14 @@
       <c r="E2200" s="2">
         <v>1121</v>
       </c>
+      <c r="F2200" s="2">
+        <f t="shared" si="111"/>
+        <v>-14</v>
+      </c>
+      <c r="H2200" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2201" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2201" s="3"/>
@@ -49618,6 +50070,14 @@
       <c r="E2201" s="2">
         <v>997</v>
       </c>
+      <c r="F2201" s="2">
+        <f t="shared" si="111"/>
+        <v>31</v>
+      </c>
+      <c r="H2201" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2202" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2202" s="3" t="s">
@@ -49631,6 +50091,14 @@
       </c>
       <c r="E2202" s="2">
         <v>943</v>
+      </c>
+      <c r="F2202" s="2">
+        <f t="shared" si="111"/>
+        <v>50</v>
+      </c>
+      <c r="H2202" s="2">
+        <f t="shared" si="110"/>
+        <v>10160</v>
       </c>
       <c r="I2202" s="2">
         <v>699271</v>
@@ -49647,6 +50115,14 @@
       <c r="E2203" s="2">
         <v>1748</v>
       </c>
+      <c r="F2203" s="2">
+        <f t="shared" si="111"/>
+        <v>81</v>
+      </c>
+      <c r="H2203" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2204" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2204" s="3"/>
@@ -49659,6 +50135,14 @@
       <c r="E2204" s="2">
         <v>1041</v>
       </c>
+      <c r="F2204" s="2">
+        <f t="shared" si="111"/>
+        <v>55</v>
+      </c>
+      <c r="H2204" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2205" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2205" s="3"/>
@@ -49671,6 +50155,14 @@
       <c r="E2205" s="2">
         <v>882</v>
       </c>
+      <c r="F2205" s="2">
+        <f t="shared" si="111"/>
+        <v>18</v>
+      </c>
+      <c r="H2205" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2206" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2206" s="3"/>
@@ -49683,6 +50175,14 @@
       <c r="E2206" s="2">
         <v>863</v>
       </c>
+      <c r="F2206" s="2">
+        <f t="shared" si="111"/>
+        <v>24</v>
+      </c>
+      <c r="H2206" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2207" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2207" s="3" t="s">
@@ -49696,6 +50196,14 @@
       </c>
       <c r="E2207" s="2">
         <v>2551</v>
+      </c>
+      <c r="F2207" s="2">
+        <f t="shared" si="111"/>
+        <v>55</v>
+      </c>
+      <c r="H2207" s="2">
+        <f t="shared" si="110"/>
+        <v>13196</v>
       </c>
       <c r="I2207" s="2">
         <v>799483</v>
@@ -49712,6 +50220,14 @@
       <c r="E2208" s="2">
         <v>1025</v>
       </c>
+      <c r="F2208" s="2">
+        <f t="shared" si="111"/>
+        <v>19</v>
+      </c>
+      <c r="H2208" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2209" s="3"/>
@@ -49724,6 +50240,14 @@
       <c r="E2209" s="2">
         <v>852</v>
       </c>
+      <c r="F2209" s="2">
+        <f t="shared" si="111"/>
+        <v>20</v>
+      </c>
+      <c r="H2209" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2210" s="3"/>
@@ -49736,6 +50260,14 @@
       <c r="E2210" s="2">
         <v>258</v>
       </c>
+      <c r="F2210" s="2">
+        <f t="shared" si="111"/>
+        <v>6</v>
+      </c>
+      <c r="H2210" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2211" s="3"/>
@@ -49748,6 +50280,14 @@
       <c r="E2211" s="2">
         <v>101</v>
       </c>
+      <c r="F2211" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="H2211" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2212" s="3" t="s">
@@ -49761,6 +50301,14 @@
       </c>
       <c r="E2212" s="2">
         <v>1502</v>
+      </c>
+      <c r="F2212" s="2">
+        <f t="shared" si="111"/>
+        <v>110</v>
+      </c>
+      <c r="H2212" s="2">
+        <f t="shared" si="110"/>
+        <v>8667</v>
       </c>
       <c r="I2212" s="2">
         <f>SUM(78462+496589)</f>
@@ -49778,6 +50326,14 @@
       <c r="E2213" s="2">
         <v>768</v>
       </c>
+      <c r="F2213" s="2">
+        <f t="shared" si="111"/>
+        <v>31</v>
+      </c>
+      <c r="H2213" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2214" s="3"/>
@@ -49790,6 +50346,14 @@
       <c r="E2214" s="2">
         <v>664</v>
       </c>
+      <c r="F2214" s="2">
+        <f t="shared" si="111"/>
+        <v>31</v>
+      </c>
+      <c r="H2214" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2215" s="3"/>
@@ -49802,6 +50366,14 @@
       <c r="E2215" s="2">
         <v>267</v>
       </c>
+      <c r="F2215" s="2">
+        <f t="shared" si="111"/>
+        <v>13</v>
+      </c>
+      <c r="H2215" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2216" s="3"/>
@@ -49814,6 +50386,14 @@
       <c r="E2216" s="2">
         <v>338</v>
       </c>
+      <c r="F2216" s="2">
+        <f t="shared" si="111"/>
+        <v>22</v>
+      </c>
+      <c r="H2216" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2217" s="3" t="s">
@@ -49827,6 +50407,14 @@
       </c>
       <c r="E2217" s="2">
         <v>2890</v>
+      </c>
+      <c r="F2217" s="2">
+        <f t="shared" si="111"/>
+        <v>1553</v>
+      </c>
+      <c r="H2217" s="2">
+        <f t="shared" si="110"/>
+        <v>77603</v>
       </c>
       <c r="I2217" s="2">
         <v>2801996</v>
@@ -49843,6 +50431,14 @@
       <c r="E2218" s="2">
         <v>320</v>
       </c>
+      <c r="F2218" s="2">
+        <f t="shared" si="111"/>
+        <v>184</v>
+      </c>
+      <c r="H2218" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2219" s="3"/>
@@ -49855,6 +50451,14 @@
       <c r="E2219" s="2">
         <v>383</v>
       </c>
+      <c r="F2219" s="2">
+        <f t="shared" si="111"/>
+        <v>315</v>
+      </c>
+      <c r="H2219" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2220" s="3" t="s">
@@ -49866,6 +50470,14 @@
       <c r="E2220" s="2">
         <v>150</v>
       </c>
+      <c r="F2220" s="2">
+        <f t="shared" si="111"/>
+        <v>42</v>
+      </c>
+      <c r="H2220" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2221" s="3" t="s">
@@ -49877,6 +50489,14 @@
       <c r="E2221" s="2">
         <v>217</v>
       </c>
+      <c r="F2221" s="2">
+        <f t="shared" si="111"/>
+        <v>141</v>
+      </c>
+      <c r="H2221" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2222" s="1">
@@ -49893,6 +50513,14 @@
       </c>
       <c r="E2222" s="2">
         <v>3991</v>
+      </c>
+      <c r="F2222" s="2">
+        <f t="shared" si="111"/>
+        <v>95</v>
+      </c>
+      <c r="H2222" s="2">
+        <f t="shared" ref="H2222:H2285" si="112">SUM(I2222-I2192)</f>
+        <v>62359</v>
       </c>
       <c r="I2222" s="2">
         <v>2934599</v>
@@ -49909,6 +50537,14 @@
       <c r="E2223" s="2">
         <v>4493</v>
       </c>
+      <c r="F2223" s="2">
+        <f t="shared" si="111"/>
+        <v>140</v>
+      </c>
+      <c r="H2223" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2224" s="3"/>
@@ -49921,6 +50557,14 @@
       <c r="E2224" s="2">
         <v>2670</v>
       </c>
+      <c r="F2224" s="2">
+        <f t="shared" si="111"/>
+        <v>32</v>
+      </c>
+      <c r="H2224" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2225" s="3"/>
@@ -49933,6 +50577,14 @@
       <c r="E2225" s="2">
         <v>3015</v>
       </c>
+      <c r="F2225" s="2">
+        <f t="shared" si="111"/>
+        <v>66</v>
+      </c>
+      <c r="H2225" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2226" s="3"/>
@@ -49945,6 +50597,14 @@
       <c r="E2226" s="2">
         <v>1997</v>
       </c>
+      <c r="F2226" s="2">
+        <f t="shared" si="111"/>
+        <v>44</v>
+      </c>
+      <c r="H2226" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2227" s="3" t="s">
@@ -49958,6 +50618,14 @@
       </c>
       <c r="E2227" s="2">
         <v>1662</v>
+      </c>
+      <c r="F2227" s="2">
+        <f t="shared" si="111"/>
+        <v>13</v>
+      </c>
+      <c r="H2227" s="2">
+        <f t="shared" si="112"/>
+        <v>42220</v>
       </c>
       <c r="I2227" s="2">
         <v>1097616</v>
@@ -49974,6 +50642,14 @@
       <c r="E2228" s="2">
         <v>1254</v>
       </c>
+      <c r="F2228" s="2">
+        <f t="shared" si="111"/>
+        <v>29</v>
+      </c>
+      <c r="H2228" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2229" s="3"/>
@@ -49986,6 +50662,14 @@
       <c r="E2229" s="2">
         <v>1745</v>
       </c>
+      <c r="F2229" s="2">
+        <f t="shared" si="111"/>
+        <v>28</v>
+      </c>
+      <c r="H2229" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2230" s="3"/>
@@ -49998,6 +50682,14 @@
       <c r="E2230" s="2">
         <v>1126</v>
       </c>
+      <c r="F2230" s="2">
+        <f t="shared" si="111"/>
+        <v>-15</v>
+      </c>
+      <c r="H2230" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2231" s="3"/>
@@ -50010,6 +50702,14 @@
       <c r="E2231" s="2">
         <v>999</v>
       </c>
+      <c r="F2231" s="2">
+        <f t="shared" si="111"/>
+        <v>15</v>
+      </c>
+      <c r="H2231" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2232" s="3" t="s">
@@ -50023,6 +50723,14 @@
       </c>
       <c r="E2232" s="2">
         <v>950</v>
+      </c>
+      <c r="F2232" s="2">
+        <f t="shared" si="111"/>
+        <v>36</v>
+      </c>
+      <c r="H2232" s="2">
+        <f t="shared" si="112"/>
+        <v>9112</v>
       </c>
       <c r="I2232" s="2">
         <v>708383</v>
@@ -50039,6 +50747,14 @@
       <c r="E2233" s="2">
         <v>1756</v>
       </c>
+      <c r="F2233" s="2">
+        <f t="shared" si="111"/>
+        <v>39</v>
+      </c>
+      <c r="H2233" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2234" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2234" s="3"/>
@@ -50051,6 +50767,14 @@
       <c r="E2234" s="2">
         <v>1046</v>
       </c>
+      <c r="F2234" s="2">
+        <f t="shared" si="111"/>
+        <v>31</v>
+      </c>
+      <c r="H2234" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2235" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2235" s="3"/>
@@ -50063,6 +50787,14 @@
       <c r="E2235" s="2">
         <v>888</v>
       </c>
+      <c r="F2235" s="2">
+        <f t="shared" si="111"/>
+        <v>6</v>
+      </c>
+      <c r="H2235" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2236" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2236" s="3"/>
@@ -50075,6 +50807,14 @@
       <c r="E2236" s="2">
         <v>870</v>
       </c>
+      <c r="F2236" s="2">
+        <f t="shared" si="111"/>
+        <v>14</v>
+      </c>
+      <c r="H2236" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2237" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2237" s="3" t="s">
@@ -50088,6 +50828,14 @@
       </c>
       <c r="E2237" s="2">
         <v>2552</v>
+      </c>
+      <c r="F2237" s="2">
+        <f t="shared" si="111"/>
+        <v>20</v>
+      </c>
+      <c r="H2237" s="2">
+        <f t="shared" si="112"/>
+        <v>14015</v>
       </c>
       <c r="I2237" s="2">
         <v>813498</v>
@@ -50104,6 +50852,14 @@
       <c r="E2238" s="2">
         <v>1025</v>
       </c>
+      <c r="F2238" s="2">
+        <f t="shared" si="111"/>
+        <v>7</v>
+      </c>
+      <c r="H2238" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2239" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2239" s="3"/>
@@ -50116,6 +50872,14 @@
       <c r="E2239" s="2">
         <v>852</v>
       </c>
+      <c r="F2239" s="2">
+        <f t="shared" si="111"/>
+        <v>9</v>
+      </c>
+      <c r="H2239" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2240" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2240" s="3"/>
@@ -50128,6 +50892,14 @@
       <c r="E2240" s="2">
         <v>257</v>
       </c>
+      <c r="F2240" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="H2240" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2241" s="3"/>
@@ -50140,6 +50912,14 @@
       <c r="E2241" s="2">
         <v>101</v>
       </c>
+      <c r="F2241" s="2">
+        <f t="shared" si="111"/>
+        <v>6</v>
+      </c>
+      <c r="H2241" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2242" s="3" t="s">
@@ -50153,6 +50933,14 @@
       </c>
       <c r="E2242" s="2">
         <v>1505</v>
+      </c>
+      <c r="F2242" s="2">
+        <f t="shared" si="111"/>
+        <v>77</v>
+      </c>
+      <c r="H2242" s="2">
+        <f t="shared" si="112"/>
+        <v>8182</v>
       </c>
       <c r="I2242" s="2">
         <f>SUM(78798+504435)</f>
@@ -50170,6 +50958,14 @@
       <c r="E2243" s="2">
         <v>768</v>
       </c>
+      <c r="F2243" s="2">
+        <f t="shared" si="111"/>
+        <v>33</v>
+      </c>
+      <c r="H2243" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2244" s="3"/>
@@ -50182,6 +50978,14 @@
       <c r="E2244" s="2">
         <v>671</v>
       </c>
+      <c r="F2244" s="2">
+        <f t="shared" si="111"/>
+        <v>20</v>
+      </c>
+      <c r="H2244" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2245" s="3"/>
@@ -50194,6 +50998,14 @@
       <c r="E2245" s="2">
         <v>267</v>
       </c>
+      <c r="F2245" s="2">
+        <f t="shared" si="111"/>
+        <v>14</v>
+      </c>
+      <c r="H2245" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2246" s="3"/>
@@ -50206,6 +51018,14 @@
       <c r="E2246" s="2">
         <v>338</v>
       </c>
+      <c r="F2246" s="2">
+        <f t="shared" si="111"/>
+        <v>16</v>
+      </c>
+      <c r="H2246" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2247" s="3" t="s">
@@ -50219,6 +51039,14 @@
       </c>
       <c r="E2247" s="2">
         <v>2907</v>
+      </c>
+      <c r="F2247" s="2">
+        <f t="shared" si="111"/>
+        <v>994</v>
+      </c>
+      <c r="H2247" s="2">
+        <f t="shared" si="112"/>
+        <v>66186</v>
       </c>
       <c r="I2247" s="2">
         <v>2868182</v>
@@ -50235,6 +51063,14 @@
       <c r="E2248" s="2">
         <v>320</v>
       </c>
+      <c r="F2248" s="2">
+        <f t="shared" si="111"/>
+        <v>126</v>
+      </c>
+      <c r="H2248" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2249" s="3"/>
@@ -50247,6 +51083,14 @@
       <c r="E2249" s="2">
         <v>383</v>
       </c>
+      <c r="F2249" s="2">
+        <f t="shared" si="111"/>
+        <v>287</v>
+      </c>
+      <c r="H2249" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2250" s="3" t="s">
@@ -50258,6 +51102,14 @@
       <c r="E2250" s="2">
         <v>151</v>
       </c>
+      <c r="F2250" s="2">
+        <f t="shared" si="111"/>
+        <v>37</v>
+      </c>
+      <c r="H2250" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2251" s="3" t="s">
@@ -50269,6 +51121,14 @@
       <c r="E2251" s="2">
         <v>221</v>
       </c>
+      <c r="F2251" s="2">
+        <f t="shared" si="111"/>
+        <v>163</v>
+      </c>
+      <c r="H2251" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2252" s="1">
@@ -50285,6 +51145,14 @@
       </c>
       <c r="E2252" s="2">
         <v>3992</v>
+      </c>
+      <c r="F2252" s="2">
+        <f t="shared" si="111"/>
+        <v>110</v>
+      </c>
+      <c r="H2252" s="2">
+        <f t="shared" si="112"/>
+        <v>56611</v>
       </c>
       <c r="I2252" s="2">
         <v>2991210</v>
@@ -50301,6 +51169,14 @@
       <c r="E2253" s="2">
         <v>4498</v>
       </c>
+      <c r="F2253" s="2">
+        <f t="shared" si="111"/>
+        <v>118</v>
+      </c>
+      <c r="H2253" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2254" s="3"/>
@@ -50313,6 +51189,14 @@
       <c r="E2254" s="2">
         <v>2672</v>
       </c>
+      <c r="F2254" s="2">
+        <f t="shared" si="111"/>
+        <v>36</v>
+      </c>
+      <c r="H2254" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2255" s="3"/>
@@ -50325,6 +51209,14 @@
       <c r="E2255" s="2">
         <v>3018</v>
       </c>
+      <c r="F2255" s="2">
+        <f t="shared" si="111"/>
+        <v>78</v>
+      </c>
+      <c r="H2255" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2256" s="3"/>
@@ -50337,6 +51229,14 @@
       <c r="E2256" s="2">
         <v>2004</v>
       </c>
+      <c r="F2256" s="2">
+        <f t="shared" si="111"/>
+        <v>33</v>
+      </c>
+      <c r="H2256" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2257" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2257" s="3" t="s">
@@ -50350,6 +51250,14 @@
       </c>
       <c r="E2257" s="2">
         <v>1664</v>
+      </c>
+      <c r="F2257" s="2">
+        <f t="shared" si="111"/>
+        <v>30</v>
+      </c>
+      <c r="H2257" s="2">
+        <f t="shared" si="112"/>
+        <v>18467</v>
       </c>
       <c r="I2257" s="2">
         <v>1116083</v>
@@ -50366,6 +51274,14 @@
       <c r="E2258" s="2">
         <v>1256</v>
       </c>
+      <c r="F2258" s="2">
+        <f t="shared" si="111"/>
+        <v>19</v>
+      </c>
+      <c r="H2258" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2259" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2259" s="3"/>
@@ -50378,6 +51294,14 @@
       <c r="E2259" s="2">
         <v>1751</v>
       </c>
+      <c r="F2259" s="2">
+        <f t="shared" si="111"/>
+        <v>11</v>
+      </c>
+      <c r="H2259" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2260" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2260" s="3"/>
@@ -50390,6 +51314,14 @@
       <c r="E2260" s="2">
         <v>1128</v>
       </c>
+      <c r="F2260" s="2">
+        <f t="shared" si="111"/>
+        <v>-14</v>
+      </c>
+      <c r="H2260" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2261" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2261" s="3"/>
@@ -50402,6 +51334,14 @@
       <c r="E2261" s="2">
         <v>1001</v>
       </c>
+      <c r="F2261" s="2">
+        <f t="shared" ref="F2261:F2324" si="113">SUM(D2261-D2231)</f>
+        <v>22</v>
+      </c>
+      <c r="H2261" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2262" s="3" t="s">
@@ -50415,6 +51355,14 @@
       </c>
       <c r="E2262" s="2">
         <v>951</v>
+      </c>
+      <c r="F2262" s="2">
+        <f t="shared" si="113"/>
+        <v>-1</v>
+      </c>
+      <c r="H2262" s="2">
+        <f t="shared" si="112"/>
+        <v>4492</v>
       </c>
       <c r="I2262" s="2">
         <v>712875</v>
@@ -50431,6 +51379,14 @@
       <c r="E2263" s="2">
         <v>1763</v>
       </c>
+      <c r="F2263" s="2">
+        <f t="shared" si="113"/>
+        <v>32</v>
+      </c>
+      <c r="H2263" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2264" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2264" s="3"/>
@@ -50443,6 +51399,14 @@
       <c r="E2264" s="2">
         <v>1051</v>
       </c>
+      <c r="F2264" s="2">
+        <f t="shared" si="113"/>
+        <v>23</v>
+      </c>
+      <c r="H2264" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2265" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2265" s="3"/>
@@ -50455,6 +51419,14 @@
       <c r="E2265" s="2">
         <v>890</v>
       </c>
+      <c r="F2265" s="2">
+        <f t="shared" si="113"/>
+        <v>6</v>
+      </c>
+      <c r="H2265" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2266" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2266" s="3"/>
@@ -50467,6 +51439,14 @@
       <c r="E2266" s="2">
         <v>871</v>
       </c>
+      <c r="F2266" s="2">
+        <f t="shared" si="113"/>
+        <v>16</v>
+      </c>
+      <c r="H2266" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2267" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2267" s="3" t="s">
@@ -50480,6 +51460,14 @@
       </c>
       <c r="E2267" s="2">
         <v>2552</v>
+      </c>
+      <c r="F2267" s="2">
+        <f t="shared" si="113"/>
+        <v>38</v>
+      </c>
+      <c r="H2267" s="2">
+        <f t="shared" si="112"/>
+        <v>10539</v>
       </c>
       <c r="I2267" s="2">
         <v>824037</v>
@@ -50496,6 +51484,14 @@
       <c r="E2268" s="2">
         <v>1025</v>
       </c>
+      <c r="F2268" s="2">
+        <f t="shared" si="113"/>
+        <v>5</v>
+      </c>
+      <c r="H2268" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2269" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2269" s="3"/>
@@ -50508,6 +51504,14 @@
       <c r="E2269" s="2">
         <v>852</v>
       </c>
+      <c r="F2269" s="2">
+        <f t="shared" si="113"/>
+        <v>9</v>
+      </c>
+      <c r="H2269" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2270" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2270" s="3"/>
@@ -50520,6 +51524,14 @@
       <c r="E2270" s="2">
         <v>257</v>
       </c>
+      <c r="F2270" s="2">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
+      <c r="H2270" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2271" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2271" s="3"/>
@@ -50532,6 +51544,14 @@
       <c r="E2271" s="2">
         <v>101</v>
       </c>
+      <c r="F2271" s="2">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
+      <c r="H2271" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2272" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2272" s="3" t="s">
@@ -50545,6 +51565,14 @@
       </c>
       <c r="E2272" s="2">
         <v>1509</v>
+      </c>
+      <c r="F2272" s="2">
+        <f t="shared" si="113"/>
+        <v>74</v>
+      </c>
+      <c r="H2272" s="2">
+        <f t="shared" si="112"/>
+        <v>9797</v>
       </c>
       <c r="I2272" s="2">
         <f>SUM(79121+513909)</f>
@@ -50562,6 +51590,14 @@
       <c r="E2273" s="2">
         <v>777</v>
       </c>
+      <c r="F2273" s="2">
+        <f t="shared" si="113"/>
+        <v>32</v>
+      </c>
+      <c r="H2273" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2274" s="3"/>
@@ -50574,6 +51610,14 @@
       <c r="E2274" s="2">
         <v>671</v>
       </c>
+      <c r="F2274" s="2">
+        <f t="shared" si="113"/>
+        <v>33</v>
+      </c>
+      <c r="H2274" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2275" s="3"/>
@@ -50586,6 +51630,14 @@
       <c r="E2275" s="2">
         <v>269</v>
       </c>
+      <c r="F2275" s="2">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
+      <c r="H2275" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2276" s="3"/>
@@ -50598,6 +51650,14 @@
       <c r="E2276" s="2">
         <v>338</v>
       </c>
+      <c r="F2276" s="2">
+        <f t="shared" si="113"/>
+        <v>5</v>
+      </c>
+      <c r="H2276" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2277" s="3" t="s">
@@ -50611,6 +51671,14 @@
       </c>
       <c r="E2277" s="2">
         <v>2926</v>
+      </c>
+      <c r="F2277" s="2">
+        <f t="shared" si="113"/>
+        <v>773</v>
+      </c>
+      <c r="H2277" s="2">
+        <f t="shared" si="112"/>
+        <v>69573</v>
       </c>
       <c r="I2277" s="2">
         <v>2937755</v>
@@ -50627,6 +51695,14 @@
       <c r="E2278" s="2">
         <v>320</v>
       </c>
+      <c r="F2278" s="2">
+        <f t="shared" si="113"/>
+        <v>170</v>
+      </c>
+      <c r="H2278" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2279" s="3"/>
@@ -50639,6 +51715,14 @@
       <c r="E2279" s="2">
         <v>384</v>
       </c>
+      <c r="F2279" s="2">
+        <f t="shared" si="113"/>
+        <v>158</v>
+      </c>
+      <c r="H2279" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2280" s="3" t="s">
@@ -50650,6 +51734,14 @@
       <c r="E2280" s="2">
         <v>152</v>
       </c>
+      <c r="F2280" s="2">
+        <f t="shared" si="113"/>
+        <v>26</v>
+      </c>
+      <c r="H2280" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2281" s="3" t="s">
@@ -50661,6 +51753,14 @@
       <c r="E2281" s="2">
         <v>221</v>
       </c>
+      <c r="F2281" s="2">
+        <f t="shared" si="113"/>
+        <v>200</v>
+      </c>
+      <c r="H2281" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2282" s="1">
@@ -50677,6 +51777,14 @@
       </c>
       <c r="E2282" s="2">
         <v>3992</v>
+      </c>
+      <c r="F2282" s="2">
+        <f t="shared" si="113"/>
+        <v>110</v>
+      </c>
+      <c r="H2282" s="2">
+        <f t="shared" si="112"/>
+        <v>60568</v>
       </c>
       <c r="I2282" s="2">
         <v>3051778</v>
@@ -50693,6 +51801,14 @@
       <c r="E2283" s="2">
         <v>4500</v>
       </c>
+      <c r="F2283" s="2">
+        <f t="shared" si="113"/>
+        <v>97</v>
+      </c>
+      <c r="H2283" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2284" s="3"/>
@@ -50705,6 +51821,14 @@
       <c r="E2284" s="2">
         <v>2676</v>
       </c>
+      <c r="F2284" s="2">
+        <f t="shared" si="113"/>
+        <v>50</v>
+      </c>
+      <c r="H2284" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2285" s="3"/>
@@ -50717,6 +51841,14 @@
       <c r="E2285" s="2">
         <v>3022</v>
       </c>
+      <c r="F2285" s="2">
+        <f t="shared" si="113"/>
+        <v>65</v>
+      </c>
+      <c r="H2285" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2286" s="3"/>
@@ -50729,6 +51861,14 @@
       <c r="E2286" s="2">
         <v>2005</v>
       </c>
+      <c r="F2286" s="2">
+        <f t="shared" si="113"/>
+        <v>46</v>
+      </c>
+      <c r="H2286" s="2">
+        <f t="shared" ref="H2286:H2349" si="114">SUM(I2286-I2256)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="2287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2287" s="3" t="s">
@@ -50742,6 +51882,14 @@
       </c>
       <c r="E2287" s="2">
         <v>1673</v>
+      </c>
+      <c r="F2287" s="2">
+        <f t="shared" si="113"/>
+        <v>53</v>
+      </c>
+      <c r="H2287" s="2">
+        <f t="shared" si="114"/>
+        <v>15699</v>
       </c>
       <c r="I2287" s="2">
         <v>1131782</v>
@@ -50758,6 +51906,14 @@
       <c r="E2288" s="2">
         <v>1255</v>
       </c>
+      <c r="F2288" s="2">
+        <f t="shared" si="113"/>
+        <v>-21</v>
+      </c>
+      <c r="H2288" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2289" s="3"/>
@@ -50770,6 +51926,14 @@
       <c r="E2289" s="2">
         <v>1751</v>
       </c>
+      <c r="F2289" s="2">
+        <f t="shared" si="113"/>
+        <v>13</v>
+      </c>
+      <c r="H2289" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2290" s="3"/>
@@ -50782,6 +51946,14 @@
       <c r="E2290" s="2">
         <v>1130</v>
       </c>
+      <c r="F2290" s="2">
+        <f t="shared" si="113"/>
+        <v>12</v>
+      </c>
+      <c r="H2290" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2291" s="3"/>
@@ -50794,6 +51966,14 @@
       <c r="E2291" s="2">
         <v>1006</v>
       </c>
+      <c r="F2291" s="2">
+        <f t="shared" si="113"/>
+        <v>15</v>
+      </c>
+      <c r="H2291" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2292" s="3" t="s">
@@ -50807,6 +51987,14 @@
       </c>
       <c r="E2292" s="2">
         <v>952</v>
+      </c>
+      <c r="F2292" s="2">
+        <f t="shared" si="113"/>
+        <v>33</v>
+      </c>
+      <c r="H2292" s="2">
+        <f t="shared" si="114"/>
+        <v>6361</v>
       </c>
       <c r="I2292" s="2">
         <v>719236</v>
@@ -50823,6 +52011,14 @@
       <c r="E2293" s="2">
         <v>1765</v>
       </c>
+      <c r="F2293" s="2">
+        <f t="shared" si="113"/>
+        <v>42</v>
+      </c>
+      <c r="H2293" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2294" s="3"/>
@@ -50835,6 +52031,14 @@
       <c r="E2294" s="2">
         <v>1052</v>
       </c>
+      <c r="F2294" s="2">
+        <f t="shared" si="113"/>
+        <v>40</v>
+      </c>
+      <c r="H2294" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2295" s="3"/>
@@ -50847,6 +52051,14 @@
       <c r="E2295" s="2">
         <v>891</v>
       </c>
+      <c r="F2295" s="2">
+        <f t="shared" si="113"/>
+        <v>20</v>
+      </c>
+      <c r="H2295" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2296" s="3"/>
@@ -50859,6 +52071,14 @@
       <c r="E2296" s="2">
         <v>877</v>
       </c>
+      <c r="F2296" s="2">
+        <f t="shared" si="113"/>
+        <v>23</v>
+      </c>
+      <c r="H2296" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2297" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2297" s="3" t="s">
@@ -50872,6 +52092,14 @@
       </c>
       <c r="E2297" s="2">
         <v>2558</v>
+      </c>
+      <c r="F2297" s="2">
+        <f t="shared" si="113"/>
+        <v>-8</v>
+      </c>
+      <c r="H2297" s="2">
+        <f t="shared" si="114"/>
+        <v>11497</v>
       </c>
       <c r="I2297" s="2">
         <v>835534</v>
@@ -50888,6 +52116,14 @@
       <c r="E2298" s="2">
         <v>1028</v>
       </c>
+      <c r="F2298" s="2">
+        <f t="shared" si="113"/>
+        <v>31</v>
+      </c>
+      <c r="H2298" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2299" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2299" s="3"/>
@@ -50900,6 +52136,14 @@
       <c r="E2299" s="2">
         <v>854</v>
       </c>
+      <c r="F2299" s="2">
+        <f t="shared" si="113"/>
+        <v>31</v>
+      </c>
+      <c r="H2299" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2300" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2300" s="3"/>
@@ -50912,6 +52156,14 @@
       <c r="E2300" s="2">
         <v>258</v>
       </c>
+      <c r="F2300" s="2">
+        <f t="shared" si="113"/>
+        <v>5</v>
+      </c>
+      <c r="H2300" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2301" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2301" s="3"/>
@@ -50924,6 +52176,14 @@
       <c r="E2301" s="2">
         <v>101</v>
       </c>
+      <c r="F2301" s="2">
+        <f t="shared" si="113"/>
+        <v>7</v>
+      </c>
+      <c r="H2301" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2302" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2302" s="3" t="s">
@@ -50937,6 +52197,14 @@
       </c>
       <c r="E2302" s="2">
         <v>1518</v>
+      </c>
+      <c r="F2302" s="2">
+        <f t="shared" si="113"/>
+        <v>89</v>
+      </c>
+      <c r="H2302" s="2">
+        <f t="shared" si="114"/>
+        <v>10062</v>
       </c>
       <c r="I2302" s="2">
         <f>SUM(79483+523609)</f>
@@ -50954,6 +52222,14 @@
       <c r="E2303" s="2">
         <v>778</v>
       </c>
+      <c r="F2303" s="2">
+        <f t="shared" si="113"/>
+        <v>20</v>
+      </c>
+      <c r="H2303" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2304" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2304" s="3"/>
@@ -50966,6 +52242,14 @@
       <c r="E2304" s="2">
         <v>674</v>
       </c>
+      <c r="F2304" s="2">
+        <f t="shared" si="113"/>
+        <v>15</v>
+      </c>
+      <c r="H2304" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2305" s="3"/>
@@ -50978,6 +52262,14 @@
       <c r="E2305" s="2">
         <v>271</v>
       </c>
+      <c r="F2305" s="2">
+        <f t="shared" si="113"/>
+        <v>16</v>
+      </c>
+      <c r="H2305" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2306" s="3"/>
@@ -50990,6 +52282,14 @@
       <c r="E2306" s="2">
         <v>338</v>
       </c>
+      <c r="F2306" s="2">
+        <f t="shared" si="113"/>
+        <v>17</v>
+      </c>
+      <c r="H2306" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2307" s="3" t="s">
@@ -51003,6 +52303,14 @@
       </c>
       <c r="E2307" s="2">
         <v>2959</v>
+      </c>
+      <c r="F2307" s="2">
+        <f t="shared" si="113"/>
+        <v>1346</v>
+      </c>
+      <c r="H2307" s="2">
+        <f t="shared" si="114"/>
+        <v>60233</v>
       </c>
       <c r="I2307" s="2">
         <v>2997988</v>
@@ -51019,6 +52327,14 @@
       <c r="E2308" s="2">
         <v>323</v>
       </c>
+      <c r="F2308" s="2">
+        <f t="shared" si="113"/>
+        <v>120</v>
+      </c>
+      <c r="H2308" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2309" s="3"/>
@@ -51031,6 +52347,14 @@
       <c r="E2309" s="2">
         <v>395</v>
       </c>
+      <c r="F2309" s="2">
+        <f t="shared" si="113"/>
+        <v>262</v>
+      </c>
+      <c r="H2309" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2310" s="3" t="s">
@@ -51042,6 +52366,14 @@
       <c r="E2310" s="2">
         <v>152</v>
       </c>
+      <c r="F2310" s="2">
+        <f t="shared" si="113"/>
+        <v>24</v>
+      </c>
+      <c r="H2310" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2311" s="3" t="s">
@@ -51053,6 +52385,14 @@
       <c r="E2311" s="2">
         <v>233</v>
       </c>
+      <c r="F2311" s="2">
+        <f t="shared" si="113"/>
+        <v>219</v>
+      </c>
+      <c r="H2311" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2312" s="1">
@@ -51069,6 +52409,14 @@
       </c>
       <c r="E2312" s="2">
         <v>3993</v>
+      </c>
+      <c r="F2312" s="2">
+        <f t="shared" si="113"/>
+        <v>134</v>
+      </c>
+      <c r="H2312" s="2">
+        <f t="shared" si="114"/>
+        <v>59341</v>
       </c>
       <c r="I2312" s="2">
         <v>3111119</v>
@@ -51085,6 +52433,14 @@
       <c r="E2313" s="2">
         <v>4502</v>
       </c>
+      <c r="F2313" s="2">
+        <f t="shared" si="113"/>
+        <v>112</v>
+      </c>
+      <c r="H2313" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2314" s="3"/>
@@ -51097,6 +52453,14 @@
       <c r="E2314" s="2">
         <v>2677</v>
       </c>
+      <c r="F2314" s="2">
+        <f t="shared" si="113"/>
+        <v>30</v>
+      </c>
+      <c r="H2314" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2315" s="3"/>
@@ -51109,6 +52473,14 @@
       <c r="E2315" s="2">
         <v>3024</v>
       </c>
+      <c r="F2315" s="2">
+        <f t="shared" si="113"/>
+        <v>68</v>
+      </c>
+      <c r="H2315" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2316" s="3"/>
@@ -51121,6 +52493,14 @@
       <c r="E2316" s="2">
         <v>2006</v>
       </c>
+      <c r="F2316" s="2">
+        <f t="shared" si="113"/>
+        <v>32</v>
+      </c>
+      <c r="H2316" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2317" s="3" t="s">
@@ -51134,6 +52514,14 @@
       </c>
       <c r="E2317" s="2">
         <v>1681</v>
+      </c>
+      <c r="F2317" s="2">
+        <f t="shared" si="113"/>
+        <v>27</v>
+      </c>
+      <c r="H2317" s="2">
+        <f t="shared" si="114"/>
+        <v>16059</v>
       </c>
       <c r="I2317" s="2">
         <v>1147841</v>
@@ -51150,6 +52538,14 @@
       <c r="E2318" s="2">
         <v>1257</v>
       </c>
+      <c r="F2318" s="2">
+        <f t="shared" si="113"/>
+        <v>11</v>
+      </c>
+      <c r="H2318" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2319" s="3"/>
@@ -51162,6 +52558,14 @@
       <c r="E2319" s="2">
         <v>1755</v>
       </c>
+      <c r="F2319" s="2">
+        <f t="shared" si="113"/>
+        <v>33</v>
+      </c>
+      <c r="H2319" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2320" s="3"/>
@@ -51174,6 +52578,14 @@
       <c r="E2320" s="2">
         <v>1094</v>
       </c>
+      <c r="F2320" s="2">
+        <f t="shared" si="113"/>
+        <v>-5</v>
+      </c>
+      <c r="H2320" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2321" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2321" s="3"/>
@@ -51186,6 +52598,14 @@
       <c r="E2321" s="2">
         <v>1007</v>
       </c>
+      <c r="F2321" s="2">
+        <f t="shared" si="113"/>
+        <v>19</v>
+      </c>
+      <c r="H2321" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2322" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2322" s="3" t="s">
@@ -51199,6 +52619,14 @@
       </c>
       <c r="E2322" s="2">
         <v>959</v>
+      </c>
+      <c r="F2322" s="2">
+        <f t="shared" si="113"/>
+        <v>67</v>
+      </c>
+      <c r="H2322" s="2">
+        <f t="shared" si="114"/>
+        <v>8313</v>
       </c>
       <c r="I2322" s="2">
         <v>727549</v>
@@ -51215,6 +52643,14 @@
       <c r="E2323" s="2">
         <v>1781</v>
       </c>
+      <c r="F2323" s="2">
+        <f t="shared" si="113"/>
+        <v>77</v>
+      </c>
+      <c r="H2323" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2324" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2324" s="3"/>
@@ -51227,6 +52663,14 @@
       <c r="E2324" s="2">
         <v>1057</v>
       </c>
+      <c r="F2324" s="2">
+        <f t="shared" si="113"/>
+        <v>36</v>
+      </c>
+      <c r="H2324" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2325" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2325" s="3"/>
@@ -51239,6 +52683,14 @@
       <c r="E2325" s="2">
         <v>903</v>
       </c>
+      <c r="F2325" s="2">
+        <f t="shared" ref="F2325:F2371" si="115">SUM(D2325-D2295)</f>
+        <v>16</v>
+      </c>
+      <c r="H2325" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2326" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2326" s="3"/>
@@ -51251,6 +52703,14 @@
       <c r="E2326" s="2">
         <v>888</v>
       </c>
+      <c r="F2326" s="2">
+        <f t="shared" si="115"/>
+        <v>18</v>
+      </c>
+      <c r="H2326" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2327" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2327" s="3" t="s">
@@ -51264,6 +52724,14 @@
       </c>
       <c r="E2327" s="2">
         <v>2559</v>
+      </c>
+      <c r="F2327" s="2">
+        <f t="shared" si="115"/>
+        <v>78</v>
+      </c>
+      <c r="H2327" s="2">
+        <f t="shared" si="114"/>
+        <v>14351</v>
       </c>
       <c r="I2327" s="2">
         <v>849885</v>
@@ -51280,6 +52748,14 @@
       <c r="E2328" s="2">
         <v>1028</v>
       </c>
+      <c r="F2328" s="2">
+        <f t="shared" si="115"/>
+        <v>97</v>
+      </c>
+      <c r="H2328" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2329" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2329" s="3"/>
@@ -51292,6 +52768,14 @@
       <c r="E2329" s="2">
         <v>855</v>
       </c>
+      <c r="F2329" s="2">
+        <f t="shared" si="115"/>
+        <v>11</v>
+      </c>
+      <c r="H2329" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2330" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2330" s="3"/>
@@ -51304,6 +52788,14 @@
       <c r="E2330" s="2">
         <v>258</v>
       </c>
+      <c r="F2330" s="2">
+        <f t="shared" si="115"/>
+        <v>6</v>
+      </c>
+      <c r="H2330" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2331" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2331" s="3"/>
@@ -51316,6 +52808,14 @@
       <c r="E2331" s="2">
         <v>101</v>
       </c>
+      <c r="F2331" s="2">
+        <f t="shared" si="115"/>
+        <v>7</v>
+      </c>
+      <c r="H2331" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2332" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2332" s="3" t="s">
@@ -51329,6 +52829,14 @@
       </c>
       <c r="E2332" s="2">
         <v>1528</v>
+      </c>
+      <c r="F2332" s="2">
+        <f t="shared" si="115"/>
+        <v>88</v>
+      </c>
+      <c r="H2332" s="2">
+        <f t="shared" si="114"/>
+        <v>9739</v>
       </c>
       <c r="I2332" s="2">
         <f>SUM(79818+533013)</f>
@@ -51346,6 +52854,14 @@
       <c r="E2333" s="2">
         <v>778</v>
       </c>
+      <c r="F2333" s="2">
+        <f t="shared" si="115"/>
+        <v>40</v>
+      </c>
+      <c r="H2333" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2334" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2334" s="3"/>
@@ -51358,6 +52874,14 @@
       <c r="E2334" s="2">
         <v>678</v>
       </c>
+      <c r="F2334" s="2">
+        <f t="shared" si="115"/>
+        <v>31</v>
+      </c>
+      <c r="H2334" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2335" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2335" s="3"/>
@@ -51370,6 +52894,14 @@
       <c r="E2335" s="2">
         <v>273</v>
       </c>
+      <c r="F2335" s="2">
+        <f t="shared" si="115"/>
+        <v>5</v>
+      </c>
+      <c r="H2335" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2336" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2336" s="3"/>
@@ -51382,8 +52914,16 @@
       <c r="E2336" s="2">
         <v>340</v>
       </c>
-    </row>
-    <row r="2337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2336" s="2">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
+      <c r="H2336" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2337" s="3" t="s">
         <v>20</v>
       </c>
@@ -51396,11 +52936,19 @@
       <c r="E2337" s="2">
         <v>2991</v>
       </c>
+      <c r="F2337" s="2">
+        <f t="shared" si="115"/>
+        <v>2115</v>
+      </c>
+      <c r="H2337" s="2">
+        <f t="shared" si="114"/>
+        <v>76542</v>
+      </c>
       <c r="I2337" s="2">
         <v>3074530</v>
       </c>
     </row>
-    <row r="2338" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2338" s="3"/>
       <c r="C2338" s="3" t="s">
         <v>26</v>
@@ -51411,8 +52959,16 @@
       <c r="E2338" s="2">
         <v>327</v>
       </c>
-    </row>
-    <row r="2339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2338" s="2">
+        <f t="shared" si="115"/>
+        <v>124</v>
+      </c>
+      <c r="H2338" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2339" s="3"/>
       <c r="C2339" s="3" t="s">
         <v>27</v>
@@ -51423,8 +52979,16 @@
       <c r="E2339" s="2">
         <v>399</v>
       </c>
-    </row>
-    <row r="2340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2339" s="2">
+        <f t="shared" si="115"/>
+        <v>221</v>
+      </c>
+      <c r="H2339" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2340" s="3" t="s">
         <v>42</v>
       </c>
@@ -51434,8 +52998,16 @@
       <c r="E2340" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="2341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2340" s="2">
+        <f t="shared" si="115"/>
+        <v>36</v>
+      </c>
+      <c r="H2340" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2341" s="3" t="s">
         <v>43</v>
       </c>
@@ -51445,8 +53017,16 @@
       <c r="E2341" s="2">
         <v>244</v>
       </c>
-    </row>
-    <row r="2342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2341" s="2">
+        <f t="shared" si="115"/>
+        <v>115</v>
+      </c>
+      <c r="H2341" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2342" s="1">
         <v>44000</v>
       </c>
@@ -51462,11 +53042,19 @@
       <c r="E2342" s="2">
         <v>4002</v>
       </c>
+      <c r="F2342" s="2">
+        <f t="shared" si="115"/>
+        <v>92</v>
+      </c>
+      <c r="H2342" s="2">
+        <f t="shared" si="114"/>
+        <v>68541</v>
+      </c>
       <c r="I2342" s="2">
         <v>3179660</v>
       </c>
     </row>
-    <row r="2343" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2343" s="3"/>
       <c r="C2343" s="3" t="s">
         <v>7</v>
@@ -51477,8 +53065,16 @@
       <c r="E2343" s="2">
         <v>4504</v>
       </c>
-    </row>
-    <row r="2344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2343" s="2">
+        <f t="shared" si="115"/>
+        <v>116</v>
+      </c>
+      <c r="H2343" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2344" s="3"/>
       <c r="C2344" s="3" t="s">
         <v>8</v>
@@ -51489,8 +53085,17 @@
       <c r="E2344" s="2">
         <v>2677</v>
       </c>
-    </row>
-    <row r="2345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2344" s="2">
+        <f t="shared" si="115"/>
+        <v>29</v>
+      </c>
+      <c r="H2344" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="K2344" s="2"/>
+    </row>
+    <row r="2345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2345" s="3"/>
       <c r="C2345" s="3" t="s">
         <v>35</v>
@@ -51501,8 +53106,17 @@
       <c r="E2345" s="2">
         <v>3025</v>
       </c>
-    </row>
-    <row r="2346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2345" s="2">
+        <f t="shared" si="115"/>
+        <v>52</v>
+      </c>
+      <c r="H2345" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="K2345" s="2"/>
+    </row>
+    <row r="2346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2346" s="3"/>
       <c r="C2346" s="3" t="s">
         <v>14</v>
@@ -51513,8 +53127,17 @@
       <c r="E2346" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="2347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2346" s="2">
+        <f t="shared" si="115"/>
+        <v>40</v>
+      </c>
+      <c r="H2346" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="K2346" s="2"/>
+    </row>
+    <row r="2347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2347" s="3" t="s">
         <v>9</v>
       </c>
@@ -51527,11 +53150,20 @@
       <c r="E2347" s="2">
         <v>1684</v>
       </c>
+      <c r="F2347" s="2">
+        <f t="shared" si="115"/>
+        <v>21</v>
+      </c>
+      <c r="H2347" s="2">
+        <f t="shared" si="114"/>
+        <v>23893</v>
+      </c>
       <c r="I2347" s="2">
         <v>1171734</v>
       </c>
-    </row>
-    <row r="2348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K2347" s="2"/>
+    </row>
+    <row r="2348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2348" s="3"/>
       <c r="C2348" s="3" t="s">
         <v>11</v>
@@ -51542,8 +53174,17 @@
       <c r="E2348" s="2">
         <v>1256</v>
       </c>
-    </row>
-    <row r="2349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2348" s="2">
+        <f t="shared" si="115"/>
+        <v>-2</v>
+      </c>
+      <c r="H2348" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="K2348" s="2"/>
+    </row>
+    <row r="2349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2349" s="3"/>
       <c r="C2349" s="3" t="s">
         <v>12</v>
@@ -51554,8 +53195,17 @@
       <c r="E2349" s="2">
         <v>1758</v>
       </c>
-    </row>
-    <row r="2350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2349" s="2">
+        <f t="shared" si="115"/>
+        <v>78</v>
+      </c>
+      <c r="H2349" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="K2349" s="2"/>
+    </row>
+    <row r="2350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2350" s="3"/>
       <c r="C2350" s="3" t="s">
         <v>36</v>
@@ -51566,8 +53216,17 @@
       <c r="E2350" s="2">
         <v>1132</v>
       </c>
-    </row>
-    <row r="2351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2350" s="2">
+        <f t="shared" si="115"/>
+        <v>-11</v>
+      </c>
+      <c r="H2350" s="2">
+        <f t="shared" ref="H2350:H2371" si="116">SUM(I2350-I2320)</f>
+        <v>0</v>
+      </c>
+      <c r="K2350" s="2"/>
+    </row>
+    <row r="2351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2351" s="3"/>
       <c r="C2351" s="3" t="s">
         <v>37</v>
@@ -51578,8 +53237,17 @@
       <c r="E2351" s="2">
         <v>1009</v>
       </c>
-    </row>
-    <row r="2352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F2351" s="2">
+        <f t="shared" si="115"/>
+        <v>23</v>
+      </c>
+      <c r="H2351" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2351" s="2"/>
+    </row>
+    <row r="2352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2352" s="3" t="s">
         <v>13</v>
       </c>
@@ -51592,11 +53260,20 @@
       <c r="E2352" s="2">
         <v>963</v>
       </c>
+      <c r="F2352" s="2">
+        <f t="shared" si="115"/>
+        <v>43</v>
+      </c>
+      <c r="H2352" s="2">
+        <f t="shared" si="116"/>
+        <v>9142</v>
+      </c>
       <c r="I2352" s="2">
         <v>736691</v>
       </c>
-    </row>
-    <row r="2353" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K2352" s="2"/>
+    </row>
+    <row r="2353" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2353" s="3"/>
       <c r="C2353" s="3" t="s">
         <v>15</v>
@@ -51607,8 +53284,17 @@
       <c r="E2353" s="2">
         <v>1788</v>
       </c>
-    </row>
-    <row r="2354" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2353" s="2">
+        <f t="shared" si="115"/>
+        <v>61</v>
+      </c>
+      <c r="H2353" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2353" s="2"/>
+    </row>
+    <row r="2354" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2354" s="3"/>
       <c r="C2354" s="3" t="s">
         <v>12</v>
@@ -51619,8 +53305,17 @@
       <c r="E2354" s="2">
         <v>1063</v>
       </c>
-    </row>
-    <row r="2355" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2354" s="2">
+        <f t="shared" si="115"/>
+        <v>36</v>
+      </c>
+      <c r="H2354" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2354" s="2"/>
+    </row>
+    <row r="2355" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2355" s="3"/>
       <c r="C2355" s="3" t="s">
         <v>33</v>
@@ -51631,8 +53326,17 @@
       <c r="E2355" s="2">
         <v>905</v>
       </c>
-    </row>
-    <row r="2356" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2355" s="2">
+        <f t="shared" si="115"/>
+        <v>27</v>
+      </c>
+      <c r="H2355" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2355" s="2"/>
+    </row>
+    <row r="2356" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2356" s="3"/>
       <c r="C2356" s="3" t="s">
         <v>34</v>
@@ -51643,8 +53347,17 @@
       <c r="E2356" s="2">
         <v>889</v>
       </c>
-    </row>
-    <row r="2357" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2356" s="2">
+        <f t="shared" si="115"/>
+        <v>18</v>
+      </c>
+      <c r="H2356" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2356" s="2"/>
+    </row>
+    <row r="2357" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2357" s="3" t="s">
         <v>23</v>
       </c>
@@ -51657,11 +53370,20 @@
       <c r="E2357" s="2">
         <v>2563</v>
       </c>
+      <c r="F2357" s="2">
+        <f t="shared" si="115"/>
+        <v>40</v>
+      </c>
+      <c r="H2357" s="2">
+        <f t="shared" si="116"/>
+        <v>301</v>
+      </c>
       <c r="I2357" s="2">
         <v>850186</v>
       </c>
-    </row>
-    <row r="2358" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K2357" s="2"/>
+    </row>
+    <row r="2358" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2358" s="3"/>
       <c r="C2358" s="3" t="s">
         <v>25</v>
@@ -51672,8 +53394,17 @@
       <c r="E2358" s="2">
         <v>1030</v>
       </c>
-    </row>
-    <row r="2359" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2358" s="2">
+        <f t="shared" si="115"/>
+        <v>-75</v>
+      </c>
+      <c r="H2358" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2358" s="2"/>
+    </row>
+    <row r="2359" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2359" s="3"/>
       <c r="C2359" s="3" t="s">
         <v>28</v>
@@ -51684,8 +53415,17 @@
       <c r="E2359" s="2">
         <v>860</v>
       </c>
-    </row>
-    <row r="2360" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2359" s="2">
+        <f t="shared" si="115"/>
+        <v>6</v>
+      </c>
+      <c r="H2359" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2359" s="2"/>
+    </row>
+    <row r="2360" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2360" s="3"/>
       <c r="C2360" s="3" t="s">
         <v>38</v>
@@ -51696,8 +53436,17 @@
       <c r="E2360" s="2">
         <v>258</v>
       </c>
-    </row>
-    <row r="2361" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2360" s="2">
+        <f t="shared" si="115"/>
+        <v>5</v>
+      </c>
+      <c r="H2360" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2360" s="2"/>
+    </row>
+    <row r="2361" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2361" s="3"/>
       <c r="C2361" s="3" t="s">
         <v>39</v>
@@ -51708,8 +53457,17 @@
       <c r="E2361" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="2362" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2361" s="2">
+        <f t="shared" si="115"/>
+        <v>5</v>
+      </c>
+      <c r="H2361" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2361" s="2"/>
+    </row>
+    <row r="2362" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2362" s="3" t="s">
         <v>16</v>
       </c>
@@ -51721,13 +53479,22 @@
       </c>
       <c r="E2362" s="2">
         <v>1540</v>
+      </c>
+      <c r="F2362" s="2">
+        <f t="shared" si="115"/>
+        <v>92</v>
+      </c>
+      <c r="H2362" s="2">
+        <f t="shared" si="116"/>
+        <v>11237</v>
       </c>
       <c r="I2362" s="2">
         <f>SUM(80236+543832)</f>
         <v>624068</v>
       </c>
-    </row>
-    <row r="2363" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="K2362" s="2"/>
+    </row>
+    <row r="2363" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2363" s="3"/>
       <c r="C2363" s="3" t="s">
         <v>18</v>
@@ -51738,8 +53505,17 @@
       <c r="E2363" s="2">
         <v>780</v>
       </c>
-    </row>
-    <row r="2364" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2363" s="2">
+        <f t="shared" si="115"/>
+        <v>24</v>
+      </c>
+      <c r="H2363" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2363" s="2"/>
+    </row>
+    <row r="2364" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2364" s="3"/>
       <c r="C2364" s="3" t="s">
         <v>19</v>
@@ -51750,8 +53526,17 @@
       <c r="E2364" s="2">
         <v>680</v>
       </c>
-    </row>
-    <row r="2365" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2364" s="2">
+        <f t="shared" si="115"/>
+        <v>14</v>
+      </c>
+      <c r="H2364" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2364" s="2"/>
+    </row>
+    <row r="2365" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2365" s="3"/>
       <c r="C2365" s="3" t="s">
         <v>40</v>
@@ -51762,8 +53547,17 @@
       <c r="E2365" s="2">
         <v>276</v>
       </c>
-    </row>
-    <row r="2366" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2365" s="2">
+        <f t="shared" si="115"/>
+        <v>19</v>
+      </c>
+      <c r="H2365" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2365" s="2"/>
+    </row>
+    <row r="2366" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2366" s="3"/>
       <c r="C2366" s="3" t="s">
         <v>41</v>
@@ -51774,34 +53568,482 @@
       <c r="E2366" s="2">
         <v>342</v>
       </c>
-    </row>
-    <row r="2367" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F2366" s="2">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
+      <c r="H2366" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2366" s="2"/>
+    </row>
+    <row r="2367" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2367" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2367" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2368" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2367" s="2">
+        <v>78244</v>
+      </c>
+      <c r="E2367" s="2">
+        <v>3027</v>
+      </c>
+      <c r="F2367" s="2">
+        <f t="shared" si="115"/>
+        <v>1078</v>
+      </c>
+      <c r="H2367" s="2">
+        <f t="shared" si="116"/>
+        <v>81172</v>
+      </c>
+      <c r="I2367" s="2">
+        <v>3155702</v>
+      </c>
+      <c r="K2367" s="2"/>
+    </row>
+    <row r="2368" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2368" s="3"/>
       <c r="C2368" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D2368" s="2">
+        <v>10094</v>
+      </c>
+      <c r="E2368" s="2">
+        <v>331</v>
+      </c>
+      <c r="F2368" s="2">
+        <f t="shared" si="115"/>
+        <v>238</v>
+      </c>
+      <c r="H2368" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2368" s="2"/>
+    </row>
+    <row r="2369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2369" s="3"/>
       <c r="C2369" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D2369" s="2">
+        <v>12410</v>
+      </c>
+      <c r="E2369" s="2">
+        <v>408</v>
+      </c>
+      <c r="F2369" s="2">
+        <f t="shared" si="115"/>
+        <v>551</v>
+      </c>
+      <c r="H2369" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2369" s="2"/>
+    </row>
+    <row r="2370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2370" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D2370" s="2">
+        <v>3338</v>
+      </c>
+      <c r="E2370" s="2">
+        <v>152</v>
+      </c>
+      <c r="F2370" s="2">
+        <f t="shared" si="115"/>
+        <v>74</v>
+      </c>
+      <c r="H2370" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2370" s="2"/>
+    </row>
+    <row r="2371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C2371" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2371" s="2">
+        <v>9597</v>
+      </c>
+      <c r="E2371" s="2">
+        <v>250</v>
+      </c>
+      <c r="F2371" s="2">
+        <f t="shared" si="115"/>
+        <v>319</v>
+      </c>
+      <c r="H2371" s="2">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="K2371" s="2"/>
+    </row>
+    <row r="2372" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2372" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B2372" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2372" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2372" s="2">
+        <v>64380</v>
+      </c>
+      <c r="E2372" s="2">
+        <v>4007</v>
+      </c>
+      <c r="H2372" s="2">
+        <v>3258963</v>
+      </c>
+      <c r="K2372" s="2"/>
+    </row>
+    <row r="2373" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2373" s="3"/>
+      <c r="C2373" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2373" s="2">
+        <v>58634</v>
+      </c>
+      <c r="E2373" s="2">
+        <v>4506</v>
+      </c>
+      <c r="K2373" s="2"/>
+    </row>
+    <row r="2374" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2374" s="3"/>
+      <c r="C2374" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2374" s="2">
+        <v>41387</v>
+      </c>
+      <c r="E2374" s="2">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2375" s="3"/>
+      <c r="C2375" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2375" s="2">
+        <v>46915</v>
+      </c>
+      <c r="E2375" s="2">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2376" s="3"/>
+      <c r="C2376" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2376" s="2">
+        <v>40864</v>
+      </c>
+      <c r="E2376" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2377" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2377" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2377" s="2">
+        <v>18967</v>
+      </c>
+      <c r="E2377" s="2">
+        <v>1691</v>
+      </c>
+      <c r="H2377" s="2">
+        <v>1194343</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2378" s="3"/>
+      <c r="C2378" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2378" s="2">
+        <v>18761</v>
+      </c>
+      <c r="E2378" s="2">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2379" s="3"/>
+      <c r="C2379" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2379" s="2">
+        <v>18533</v>
+      </c>
+      <c r="E2379" s="2">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2380" s="3"/>
+      <c r="C2380" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2380" s="2">
+        <v>16291</v>
+      </c>
+      <c r="E2380" s="2">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2381" s="3"/>
+      <c r="C2381" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2381" s="2">
+        <v>16725</v>
+      </c>
+      <c r="E2381" s="2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2382" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2382" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2382" s="2">
+        <v>19493</v>
+      </c>
+      <c r="E2382" s="2">
+        <v>971</v>
+      </c>
+      <c r="H2382" s="2">
+        <v>746162</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2383" s="3"/>
+      <c r="C2383" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2383" s="2">
+        <v>23464</v>
+      </c>
+      <c r="E2383" s="2">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B2384" s="3"/>
+      <c r="C2384" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2384" s="2">
+        <v>15778</v>
+      </c>
+      <c r="E2384" s="2">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="2385" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2385" s="3"/>
+      <c r="C2385" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2385" s="2">
+        <v>8962</v>
+      </c>
+      <c r="E2385" s="2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="2386" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2386" s="3"/>
+      <c r="C2386" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2386" s="2">
+        <v>12085</v>
+      </c>
+      <c r="E2386" s="2">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="2387" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2387" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2387" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2387" s="2">
+        <v>21211</v>
+      </c>
+      <c r="E2387" s="2">
+        <v>2563</v>
+      </c>
+      <c r="H2387" s="2">
+        <v>879928</v>
+      </c>
+    </row>
+    <row r="2388" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2388" s="3"/>
+      <c r="C2388" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2388" s="2">
+        <v>8629</v>
+      </c>
+      <c r="E2388" s="2">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="2389" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2389" s="3"/>
+      <c r="C2389" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2389" s="2">
+        <v>6955</v>
+      </c>
+      <c r="E2389" s="2">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="2390" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2390" s="3"/>
+      <c r="C2390" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2390" s="2">
+        <v>2111</v>
+      </c>
+      <c r="E2390" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2391" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2391" s="3"/>
+      <c r="C2391" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2391" s="2">
+        <v>1397</v>
+      </c>
+      <c r="E2391" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2392" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2392" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2392" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2392" s="2">
+        <v>20404</v>
+      </c>
+      <c r="E2392" s="2">
+        <v>1550</v>
+      </c>
+      <c r="H2392" s="2">
+        <f>SUM(80762+556456)</f>
+        <v>637218</v>
+      </c>
+    </row>
+    <row r="2393" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2393" s="3"/>
+      <c r="C2393" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2393" s="2">
+        <v>8046</v>
+      </c>
+      <c r="E2393" s="2">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="2394" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2394" s="3"/>
+      <c r="C2394" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2394" s="2">
+        <v>7003</v>
+      </c>
+      <c r="E2394" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2395" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2395" s="3"/>
+      <c r="C2395" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2395" s="2">
+        <v>4024</v>
+      </c>
+      <c r="E2395" s="2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2396" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2396" s="3"/>
+      <c r="C2396" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2396" s="2">
+        <v>4374</v>
+      </c>
+      <c r="E2396" s="2">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2397" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2397" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2397" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2398" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2398" s="3"/>
+      <c r="C2398" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2399" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2399" s="3"/>
+      <c r="C2399" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2400" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C2400" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C2401" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5842E055-12C3-D546-8455-364254F82D3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD9DDF-BB67-1E40-90E1-80F773663775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12440" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="17800" yWindow="460" windowWidth="12440" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="45">
   <si>
     <t>DATE</t>
   </si>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2401"/>
+  <dimension ref="A1:M2431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2334" zoomScale="82" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J2344" sqref="J2344"/>
+    <sheetView tabSelected="1" topLeftCell="A2391" zoomScale="82" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E2400" sqref="E2400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54024,26 +54024,418 @@
       <c r="C2397" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D2397" s="2">
+        <v>79572</v>
+      </c>
+      <c r="E2397" s="2">
+        <v>3063</v>
+      </c>
+      <c r="H2397" s="2">
+        <v>3234412</v>
+      </c>
     </row>
     <row r="2398" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2398" s="3"/>
       <c r="C2398" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="D2398" s="2">
+        <v>10352</v>
+      </c>
+      <c r="E2398" s="2">
+        <v>332</v>
+      </c>
     </row>
     <row r="2399" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2399" s="3"/>
       <c r="C2399" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D2399" s="2">
+        <v>12710</v>
+      </c>
+      <c r="E2399" s="2">
+        <v>410</v>
+      </c>
     </row>
     <row r="2400" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C2400" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2401" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D2400" s="2">
+        <v>3376</v>
+      </c>
+      <c r="E2400" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2401" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2401" s="2">
+        <v>9972</v>
+      </c>
+      <c r="E2401" s="2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2402" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B2402" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2402" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2402" s="2">
+        <v>64486</v>
+      </c>
+      <c r="E2402" s="2">
+        <v>4009</v>
+      </c>
+      <c r="H2402" s="2">
+        <v>3327793</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2403" s="3"/>
+      <c r="C2403" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2403" s="2">
+        <v>58761</v>
+      </c>
+      <c r="E2403" s="2">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2404" s="3"/>
+      <c r="C2404" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2404" s="2">
+        <v>41443</v>
+      </c>
+      <c r="E2404" s="2">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2405" s="3"/>
+      <c r="C2405" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2405" s="2">
+        <v>46979</v>
+      </c>
+      <c r="E2405" s="2">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2406" s="3"/>
+      <c r="C2406" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2406" s="2">
+        <v>40908</v>
+      </c>
+      <c r="E2406" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2407" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2407" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2407" s="2">
+        <v>18996</v>
+      </c>
+      <c r="E2407" s="2">
+        <v>1693</v>
+      </c>
+      <c r="H2407" s="2">
+        <v>1218873</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2408" s="3"/>
+      <c r="C2408" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2408" s="2">
+        <v>18775</v>
+      </c>
+      <c r="E2408" s="2">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2409" s="3"/>
+      <c r="C2409" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2409" s="2">
+        <v>18515</v>
+      </c>
+      <c r="E2409" s="2">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2410" s="3"/>
+      <c r="C2410" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2410" s="2">
+        <v>16298</v>
+      </c>
+      <c r="E2410" s="2">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2411" s="3"/>
+      <c r="C2411" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2411" s="2">
+        <v>16735</v>
+      </c>
+      <c r="E2411" s="2">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2412" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2412" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2412" s="2">
+        <v>19528</v>
+      </c>
+      <c r="E2412" s="2">
+        <v>973</v>
+      </c>
+      <c r="H2412" s="2">
+        <v>760229</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2413" s="3"/>
+      <c r="C2413" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2413" s="2">
+        <v>23544</v>
+      </c>
+      <c r="E2413" s="2">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2414" s="3"/>
+      <c r="C2414" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2414" s="2">
+        <v>15817</v>
+      </c>
+      <c r="E2414" s="2">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2415" s="3"/>
+      <c r="C2415" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2415" s="2">
+        <v>8983</v>
+      </c>
+      <c r="E2415" s="2">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2416" s="3"/>
+      <c r="C2416" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2416" s="2">
+        <v>12122</v>
+      </c>
+      <c r="E2416" s="2">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="2417" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2417" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2417" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2417" s="2">
+        <v>21286</v>
+      </c>
+      <c r="E2417" s="2">
+        <v>2569</v>
+      </c>
+      <c r="H2417" s="2">
+        <v>894634</v>
+      </c>
+    </row>
+    <row r="2418" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2418" s="3"/>
+      <c r="C2418" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2418" s="2">
+        <v>8648</v>
+      </c>
+      <c r="E2418" s="2">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="2419" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2419" s="3"/>
+      <c r="C2419" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2419" s="2">
+        <v>6972</v>
+      </c>
+      <c r="E2419" s="2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2420" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2420" s="3"/>
+      <c r="C2420" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2420" s="2">
+        <v>2115</v>
+      </c>
+      <c r="E2420" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2421" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2421" s="3"/>
+      <c r="C2421" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2421" s="2">
+        <v>1404</v>
+      </c>
+      <c r="E2421" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2422" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2422" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2422" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2422" s="2">
+        <v>20517</v>
+      </c>
+      <c r="E2422" s="2">
+        <v>1552</v>
+      </c>
+      <c r="H2422" s="2">
+        <f>SUM(81266+556461)</f>
+        <v>637727</v>
+      </c>
+    </row>
+    <row r="2423" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2423" s="3"/>
+      <c r="C2423" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2423" s="2">
+        <v>8076</v>
+      </c>
+      <c r="E2423" s="2">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="2424" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2424" s="3"/>
+      <c r="C2424" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2424" s="2">
+        <v>7023</v>
+      </c>
+      <c r="E2424" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="2425" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2425" s="3"/>
+      <c r="C2425" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2425" s="2">
+        <v>4072</v>
+      </c>
+      <c r="E2425" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2426" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2426" s="3"/>
+      <c r="C2426" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2426" s="2">
+        <v>4388</v>
+      </c>
+      <c r="E2426" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2427" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2427" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2427" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2428" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2428" s="3"/>
+      <c r="C2428" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2429" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2429" s="3"/>
+      <c r="C2429" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2430" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C2430" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2431" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C2431" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD9DDF-BB67-1E40-90E1-80F773663775}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A4764F-4529-6F43-8CAB-F30D12AD8EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17800" yWindow="460" windowWidth="12440" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16360" yWindow="460" windowWidth="12440" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2927" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="45">
   <si>
     <t>DATE</t>
   </si>
@@ -530,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2431"/>
+  <dimension ref="A1:M2551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2391" zoomScale="82" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E2400" sqref="E2400"/>
+    <sheetView tabSelected="1" topLeftCell="A2508" zoomScale="82" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F2521" sqref="F2521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54278,7 +54278,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="2417" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2417" s="3" t="s">
         <v>23</v>
       </c>
@@ -54295,7 +54295,7 @@
         <v>894634</v>
       </c>
     </row>
-    <row r="2418" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2418" s="3"/>
       <c r="C2418" s="3" t="s">
         <v>25</v>
@@ -54307,7 +54307,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="2419" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2419" s="3"/>
       <c r="C2419" s="3" t="s">
         <v>28</v>
@@ -54319,7 +54319,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="2420" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2420" s="3"/>
       <c r="C2420" s="3" t="s">
         <v>38</v>
@@ -54331,7 +54331,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="2421" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2421" s="3"/>
       <c r="C2421" s="3" t="s">
         <v>39</v>
@@ -54343,7 +54343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2422" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2422" s="3" t="s">
         <v>16</v>
       </c>
@@ -54361,7 +54361,7 @@
         <v>637727</v>
       </c>
     </row>
-    <row r="2423" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2423" s="3"/>
       <c r="C2423" s="3" t="s">
         <v>18</v>
@@ -54373,7 +54373,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="2424" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2424" s="3"/>
       <c r="C2424" s="3" t="s">
         <v>19</v>
@@ -54385,7 +54385,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="2425" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2425" s="3"/>
       <c r="C2425" s="3" t="s">
         <v>40</v>
@@ -54397,7 +54397,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="2426" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2426" s="3"/>
       <c r="C2426" s="3" t="s">
         <v>41</v>
@@ -54409,33 +54409,1601 @@
         <v>344</v>
       </c>
     </row>
-    <row r="2427" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2427" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2427" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2428" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2427" s="2">
+        <v>81604</v>
+      </c>
+      <c r="E2427" s="2">
+        <v>3110</v>
+      </c>
+      <c r="H2427" s="2">
+        <v>3319256</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2428" s="3"/>
       <c r="C2428" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2429" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2428" s="2">
+        <v>10486</v>
+      </c>
+      <c r="E2428" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2429" s="3"/>
       <c r="C2429" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2430" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2429" s="2">
+        <v>13021</v>
+      </c>
+      <c r="E2429" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2430" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2431" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D2430" s="2">
+        <v>3435</v>
+      </c>
+      <c r="E2430" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C2431" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2431" s="2">
+        <v>10284</v>
+      </c>
+      <c r="E2431" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2432" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B2432" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2432" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2432" s="2">
+        <v>64621</v>
+      </c>
+      <c r="E2432" s="2">
+        <v>4011</v>
+      </c>
+      <c r="H2432" s="2">
+        <v>3395319</v>
+      </c>
+    </row>
+    <row r="2433" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2433" s="3"/>
+      <c r="C2433" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2433" s="2">
+        <v>58874</v>
+      </c>
+      <c r="E2433" s="2">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="2434" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2434" s="3"/>
+      <c r="C2434" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2434" s="2">
+        <v>41479</v>
+      </c>
+      <c r="E2434" s="2">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2435" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2435" s="3"/>
+      <c r="C2435" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2435" s="2">
+        <v>47027</v>
+      </c>
+      <c r="E2435" s="2">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="2436" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2436" s="3"/>
+      <c r="C2436" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2436" s="2">
+        <v>40972</v>
+      </c>
+      <c r="E2436" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="2437" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2437" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2437" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2437" s="2">
+        <v>19019</v>
+      </c>
+      <c r="E2437" s="2">
+        <v>1696</v>
+      </c>
+      <c r="H2437" s="2">
+        <v>1244967</v>
+      </c>
+    </row>
+    <row r="2438" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2438" s="3"/>
+      <c r="C2438" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2438" s="2">
+        <v>18744</v>
+      </c>
+      <c r="E2438" s="2">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="2439" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2439" s="3"/>
+      <c r="C2439" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2439" s="2">
+        <v>18551</v>
+      </c>
+      <c r="E2439" s="2">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="2440" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2440" s="3"/>
+      <c r="C2440" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2440" s="2">
+        <v>16322</v>
+      </c>
+      <c r="E2440" s="2">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="2441" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2441" s="3"/>
+      <c r="C2441" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2441" s="2">
+        <v>16769</v>
+      </c>
+      <c r="E2441" s="2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2442" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2442" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2442" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2442" s="2">
+        <v>19551</v>
+      </c>
+      <c r="E2442" s="2">
+        <v>978</v>
+      </c>
+      <c r="H2442" s="2">
+        <v>768592</v>
+      </c>
+    </row>
+    <row r="2443" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2443" s="3"/>
+      <c r="C2443" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2443" s="2">
+        <v>23574</v>
+      </c>
+      <c r="E2443" s="2">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="2444" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2444" s="3"/>
+      <c r="C2444" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2444" s="2">
+        <v>15829</v>
+      </c>
+      <c r="E2444" s="2">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="2445" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2445" s="3"/>
+      <c r="C2445" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2445" s="2">
+        <v>8994</v>
+      </c>
+      <c r="E2445" s="2">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2446" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2446" s="3"/>
+      <c r="C2446" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2446" s="2">
+        <v>12130</v>
+      </c>
+      <c r="E2446" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="2447" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2447" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2447" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2447" s="2">
+        <v>21329</v>
+      </c>
+      <c r="E2447" s="2">
+        <v>2569</v>
+      </c>
+      <c r="H2447" s="2">
+        <v>907426</v>
+      </c>
+    </row>
+    <row r="2448" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2448" s="3"/>
+      <c r="C2448" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2448" s="2">
+        <v>8667</v>
+      </c>
+      <c r="E2448" s="2">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2449" s="3"/>
+      <c r="C2449" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2449" s="2">
+        <v>6978</v>
+      </c>
+      <c r="E2449" s="2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2450" s="3"/>
+      <c r="C2450" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2450" s="2">
+        <v>2117</v>
+      </c>
+      <c r="E2450" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2451" s="3"/>
+      <c r="C2451" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2451" s="2">
+        <v>1408</v>
+      </c>
+      <c r="E2451" s="2">
+        <v>103</v>
+      </c>
+      <c r="H2451" s="2">
+        <f>SUM(81266+556461)</f>
+        <v>637727</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2452" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2452" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2452" s="2">
+        <v>20636</v>
+      </c>
+      <c r="E2452" s="2">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2453" s="3"/>
+      <c r="C2453" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2453" s="2">
+        <v>8103</v>
+      </c>
+      <c r="E2453" s="2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2454" s="3"/>
+      <c r="C2454" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2454" s="2">
+        <v>7038</v>
+      </c>
+      <c r="E2454" s="2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2455" s="3"/>
+      <c r="C2455" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2455" s="2">
+        <v>4085</v>
+      </c>
+      <c r="E2455" s="2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2456" s="3"/>
+      <c r="C2456" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2456" s="2">
+        <v>4407</v>
+      </c>
+      <c r="E2456" s="2">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2457" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2457" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2457" s="2">
+        <v>83383</v>
+      </c>
+      <c r="E2457" s="2">
+        <v>3120</v>
+      </c>
+      <c r="H2457" s="2">
+        <v>3411686</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2458" s="3"/>
+      <c r="C2458" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2458" s="2">
+        <v>10796</v>
+      </c>
+      <c r="E2458" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2459" s="3"/>
+      <c r="C2459" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2459" s="2">
+        <v>13528</v>
+      </c>
+      <c r="E2459" s="2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2460" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2460" s="2">
+        <v>3514</v>
+      </c>
+      <c r="E2460" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2461" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2461" s="2">
+        <v>10563</v>
+      </c>
+      <c r="E2461" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2462" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B2462" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2462" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2462" s="2">
+        <v>64712</v>
+      </c>
+      <c r="E2462" s="2">
+        <v>4011</v>
+      </c>
+      <c r="H2462" s="2">
+        <v>3452099</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2463" s="3"/>
+      <c r="C2463" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2463" s="2">
+        <v>58949</v>
+      </c>
+      <c r="E2463" s="2">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2464" s="3"/>
+      <c r="C2464" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2464" s="2">
+        <v>41513</v>
+      </c>
+      <c r="E2464" s="2">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="2465" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2465" s="3"/>
+      <c r="C2465" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2465" s="2">
+        <v>47092</v>
+      </c>
+      <c r="E2465" s="2">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="2466" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2466" s="3"/>
+      <c r="C2466" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2466" s="2">
+        <v>41010</v>
+      </c>
+      <c r="E2466" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2467" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2467" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2467" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2467" s="2">
+        <v>19037</v>
+      </c>
+      <c r="E2467" s="2">
+        <v>1701</v>
+      </c>
+      <c r="H2467" s="2">
+        <v>1267399</v>
+      </c>
+    </row>
+    <row r="2468" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2468" s="3"/>
+      <c r="C2468" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2468" s="2">
+        <v>18755</v>
+      </c>
+      <c r="E2468" s="2">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="2469" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2469" s="3"/>
+      <c r="C2469" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2469" s="2">
+        <v>18578</v>
+      </c>
+      <c r="E2469" s="2">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="2470" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2470" s="3"/>
+      <c r="C2470" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2470" s="2">
+        <v>16340</v>
+      </c>
+      <c r="E2470" s="2">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="2471" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2471" s="3"/>
+      <c r="C2471" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2471" s="2">
+        <v>16772</v>
+      </c>
+      <c r="E2471" s="2">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="2472" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2472" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2472" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2472" s="2">
+        <v>19567</v>
+      </c>
+      <c r="E2472" s="2">
+        <v>979</v>
+      </c>
+      <c r="H2472" s="2">
+        <v>775322</v>
+      </c>
+    </row>
+    <row r="2473" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2473" s="3"/>
+      <c r="C2473" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2473" s="2">
+        <v>23609</v>
+      </c>
+      <c r="E2473" s="2">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="2474" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2474" s="3"/>
+      <c r="C2474" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2474" s="2">
+        <v>15851</v>
+      </c>
+      <c r="E2474" s="2">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="2475" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2475" s="3"/>
+      <c r="C2475" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2475" s="2">
+        <v>9010</v>
+      </c>
+      <c r="E2475" s="2">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2476" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2476" s="3"/>
+      <c r="C2476" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2476" s="2">
+        <v>12143</v>
+      </c>
+      <c r="E2476" s="2">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="2477" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2477" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2477" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2477" s="2">
+        <v>21365</v>
+      </c>
+      <c r="E2477" s="2">
+        <v>2571</v>
+      </c>
+      <c r="H2477" s="2">
+        <v>918017</v>
+      </c>
+    </row>
+    <row r="2478" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2478" s="3"/>
+      <c r="C2478" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2478" s="2">
+        <v>8674</v>
+      </c>
+      <c r="E2478" s="2">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="2479" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2479" s="3"/>
+      <c r="C2479" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2479" s="2">
+        <v>6983</v>
+      </c>
+      <c r="E2479" s="2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2480" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2480" s="3"/>
+      <c r="C2480" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2480" s="2">
+        <v>2121</v>
+      </c>
+      <c r="E2480" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2481" s="3"/>
+      <c r="C2481" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2481" s="2">
+        <v>1414</v>
+      </c>
+      <c r="E2481" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2482" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2482" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2482" s="2">
+        <v>20726</v>
+      </c>
+      <c r="E2482" s="2">
+        <v>1553</v>
+      </c>
+      <c r="H2482" s="2">
+        <f>SUM(82186+585662)</f>
+        <v>667848</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2483" s="3"/>
+      <c r="C2483" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2483" s="2">
+        <v>8123</v>
+      </c>
+      <c r="E2483" s="2">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2484" s="3"/>
+      <c r="C2484" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2484" s="2">
+        <v>7051</v>
+      </c>
+      <c r="E2484" s="2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2485" s="3"/>
+      <c r="C2485" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2485" s="2">
+        <v>4091</v>
+      </c>
+      <c r="E2485" s="2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2486" s="3"/>
+      <c r="C2486" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2486" s="2">
+        <v>4419</v>
+      </c>
+      <c r="E2486" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2487" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2487" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2487" s="2">
+        <v>85925</v>
+      </c>
+      <c r="E2487" s="2">
+        <v>3138</v>
+      </c>
+      <c r="H2487" s="2">
+        <v>3496929</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2488" s="3"/>
+      <c r="C2488" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2488" s="2">
+        <v>11098</v>
+      </c>
+      <c r="E2488" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2489" s="3"/>
+      <c r="C2489" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2489" s="2">
+        <v>13948</v>
+      </c>
+      <c r="E2489" s="2">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2490" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2490" s="2">
+        <v>3580</v>
+      </c>
+      <c r="E2490" s="2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2491" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2491" s="2">
+        <v>10711</v>
+      </c>
+      <c r="E2491" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2492" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B2492" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2492" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2492" s="2">
+        <v>64797</v>
+      </c>
+      <c r="E2492" s="2">
+        <v>4015</v>
+      </c>
+      <c r="H2492" s="2">
+        <v>3500808</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2493" s="3"/>
+      <c r="C2493" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2493" s="2">
+        <v>59047</v>
+      </c>
+      <c r="E2493" s="2">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2494" s="3"/>
+      <c r="C2494" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2494" s="2">
+        <v>41544</v>
+      </c>
+      <c r="E2494" s="2">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2495" s="3"/>
+      <c r="C2495" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2495" s="2">
+        <v>47154</v>
+      </c>
+      <c r="E2495" s="2">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2496" s="3"/>
+      <c r="C2496" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2496" s="2">
+        <v>41056</v>
+      </c>
+      <c r="E2496" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="2497" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2497" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2497" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2497" s="2">
+        <v>19069</v>
+      </c>
+      <c r="E2497" s="2">
+        <v>1706</v>
+      </c>
+      <c r="H2497" s="2">
+        <v>1283451</v>
+      </c>
+    </row>
+    <row r="2498" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2498" s="3"/>
+      <c r="C2498" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2498" s="2">
+        <v>18773</v>
+      </c>
+      <c r="E2498" s="2">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="2499" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2499" s="3"/>
+      <c r="C2499" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2499" s="2">
+        <v>18592</v>
+      </c>
+      <c r="E2499" s="2">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="2500" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2500" s="3"/>
+      <c r="C2500" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2500" s="2">
+        <v>16341</v>
+      </c>
+      <c r="E2500" s="2">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="2501" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2501" s="3"/>
+      <c r="C2501" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2501" s="2">
+        <v>16794</v>
+      </c>
+      <c r="E2501" s="2">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="2502" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2502" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2502" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2502" s="2">
+        <v>19601</v>
+      </c>
+      <c r="E2502" s="2">
+        <v>976</v>
+      </c>
+      <c r="H2502" s="2">
+        <v>782854</v>
+      </c>
+    </row>
+    <row r="2503" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2503" s="3"/>
+      <c r="C2503" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2503" s="2">
+        <v>23647</v>
+      </c>
+      <c r="E2503" s="2">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="2504" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2504" s="3"/>
+      <c r="C2504" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2504" s="2">
+        <v>15885</v>
+      </c>
+      <c r="E2504" s="2">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="2505" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2505" s="3"/>
+      <c r="C2505" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2505" s="2">
+        <v>9042</v>
+      </c>
+      <c r="E2505" s="2">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2506" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2506" s="3"/>
+      <c r="C2506" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2506" s="2">
+        <v>12192</v>
+      </c>
+      <c r="E2506" s="2">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2507" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2507" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2507" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2507" s="2">
+        <v>21427</v>
+      </c>
+      <c r="E2507" s="2">
+        <v>2572</v>
+      </c>
+      <c r="H2507" s="2">
+        <v>928668</v>
+      </c>
+    </row>
+    <row r="2508" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2508" s="3"/>
+      <c r="C2508" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2508" s="2">
+        <v>8683</v>
+      </c>
+      <c r="E2508" s="2">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="2509" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2509" s="3"/>
+      <c r="C2509" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2509" s="2">
+        <v>6996</v>
+      </c>
+      <c r="E2509" s="2">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2510" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2510" s="3"/>
+      <c r="C2510" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2510" s="2">
+        <v>2126</v>
+      </c>
+      <c r="E2510" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2511" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2511" s="3"/>
+      <c r="C2511" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2511" s="2">
+        <v>1419</v>
+      </c>
+      <c r="E2511" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2512" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2512" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2512" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2512" s="2">
+        <v>20823</v>
+      </c>
+      <c r="E2512" s="2">
+        <v>1564</v>
+      </c>
+      <c r="H2512" s="2">
+        <f>SUM(82696+596407)</f>
+        <v>679103</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2513" s="3"/>
+      <c r="C2513" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2513" s="2">
+        <v>8159</v>
+      </c>
+      <c r="E2513" s="2">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2514" s="3"/>
+      <c r="C2514" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2514" s="2">
+        <v>7065</v>
+      </c>
+      <c r="E2514" s="2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2515" s="3"/>
+      <c r="C2515" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2515" s="2">
+        <v>4109</v>
+      </c>
+      <c r="E2515" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2516" s="3"/>
+      <c r="C2516" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2516" s="2">
+        <v>4444</v>
+      </c>
+      <c r="E2516" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2517" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2517" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2517" s="2">
+        <v>88433</v>
+      </c>
+      <c r="E2517" s="2">
+        <v>3171</v>
+      </c>
+      <c r="H2517" s="2">
+        <v>3592899</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2518" s="3"/>
+      <c r="C2518" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2518" s="2">
+        <v>11296</v>
+      </c>
+      <c r="E2518" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2519" s="3"/>
+      <c r="C2519" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2519" s="2">
+        <v>14469</v>
+      </c>
+      <c r="E2519" s="2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2520" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2520" s="2">
+        <v>3700</v>
+      </c>
+      <c r="E2520" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2521" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2521" s="2">
+        <v>11071</v>
+      </c>
+      <c r="E2521" s="2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2522" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B2522" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2522" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2522" s="2">
+        <v>64881</v>
+      </c>
+      <c r="E2522" s="2">
+        <v>4018</v>
+      </c>
+      <c r="H2522" s="2">
+        <v>3551952</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2523" s="3"/>
+      <c r="C2523" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2523" s="2">
+        <v>59111</v>
+      </c>
+      <c r="E2523" s="2">
+        <v>4516</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2524" s="3"/>
+      <c r="C2524" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2524" s="2">
+        <v>41585</v>
+      </c>
+      <c r="E2524" s="2">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2525" s="3"/>
+      <c r="C2525" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2525" s="2">
+        <v>47230</v>
+      </c>
+      <c r="E2525" s="2">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2526" s="3"/>
+      <c r="C2526" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2526" s="2">
+        <v>41101</v>
+      </c>
+      <c r="E2526" s="2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2527" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2527" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2527" s="2">
+        <v>19097</v>
+      </c>
+      <c r="E2527" s="2">
+        <v>1714</v>
+      </c>
+      <c r="H2527" s="2">
+        <v>1299645</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2528" s="3"/>
+      <c r="C2528" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2528" s="2">
+        <v>18771</v>
+      </c>
+      <c r="E2528" s="2">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="2529" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2529" s="3"/>
+      <c r="C2529" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2529" s="2">
+        <v>18617</v>
+      </c>
+      <c r="E2529" s="2">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="2530" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2530" s="3"/>
+      <c r="C2530" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2530" s="2">
+        <v>16330</v>
+      </c>
+      <c r="E2530" s="2">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="2531" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2531" s="3"/>
+      <c r="C2531" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2531" s="2">
+        <v>16788</v>
+      </c>
+      <c r="E2531" s="2">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="2532" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2532" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2532" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2532" s="2">
+        <v>19628</v>
+      </c>
+      <c r="E2532" s="2">
+        <v>984</v>
+      </c>
+      <c r="H2532" s="2">
+        <v>790223</v>
+      </c>
+    </row>
+    <row r="2533" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2533" s="3"/>
+      <c r="C2533" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2533" s="2">
+        <v>23697</v>
+      </c>
+      <c r="E2533" s="2">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="2534" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2534" s="3"/>
+      <c r="C2534" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2534" s="2">
+        <v>15920</v>
+      </c>
+      <c r="E2534" s="2">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="2535" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2535" s="3"/>
+      <c r="C2535" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2535" s="2">
+        <v>9056</v>
+      </c>
+      <c r="E2535" s="2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="2536" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2536" s="3"/>
+      <c r="C2536" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2536" s="2">
+        <v>12207</v>
+      </c>
+      <c r="E2536" s="2">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="2537" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2537" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2537" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2537" s="2">
+        <v>21505</v>
+      </c>
+      <c r="E2537" s="2">
+        <v>2574</v>
+      </c>
+      <c r="H2537" s="2">
+        <v>944805</v>
+      </c>
+    </row>
+    <row r="2538" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2538" s="3"/>
+      <c r="C2538" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2538" s="2">
+        <v>8705</v>
+      </c>
+      <c r="E2538" s="2">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="2539" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2539" s="3"/>
+      <c r="C2539" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2539" s="2">
+        <v>7017</v>
+      </c>
+      <c r="E2539" s="2">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="2540" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2540" s="3"/>
+      <c r="C2540" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2540" s="2">
+        <v>2133</v>
+      </c>
+      <c r="E2540" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2541" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2541" s="3"/>
+      <c r="C2541" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2541" s="2">
+        <v>1425</v>
+      </c>
+      <c r="E2541" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2542" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2542" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2542" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2542" s="2">
+        <v>20949</v>
+      </c>
+      <c r="E2542" s="2">
+        <v>1576</v>
+      </c>
+      <c r="H2542" s="2">
+        <f>SUM(83191+608217)</f>
+        <v>691408</v>
+      </c>
+    </row>
+    <row r="2543" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2543" s="3"/>
+      <c r="C2543" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2543" s="2">
+        <v>8188</v>
+      </c>
+      <c r="E2543" s="2">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="2544" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2544" s="3"/>
+      <c r="C2544" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2544" s="2">
+        <v>7079</v>
+      </c>
+      <c r="E2544" s="2">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="2545" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2545" s="3"/>
+      <c r="C2545" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2545" s="2">
+        <v>4130</v>
+      </c>
+      <c r="E2545" s="2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2546" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2546" s="3"/>
+      <c r="C2546" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2546" s="2">
+        <v>4453</v>
+      </c>
+      <c r="E2546" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2547" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2547" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2547" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2548" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2548" s="3"/>
+      <c r="C2548" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2549" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2549" s="3"/>
+      <c r="C2549" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2550" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C2550" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2551" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C2551" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A4764F-4529-6F43-8CAB-F30D12AD8EB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB32F9CE-6255-0646-8215-BCBF5FCC9FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16360" yWindow="460" windowWidth="12440" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3071" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>ORANGE</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
 </sst>
 </file>
@@ -530,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2551"/>
+  <dimension ref="A1:M2581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2508" zoomScale="82" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F2521" sqref="F2521"/>
+    <sheetView tabSelected="1" topLeftCell="A2525" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2522" sqref="F2522:F2526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26087,7 +26084,6 @@
         <v>7241</v>
       </c>
       <c r="I1177" s="2">
-        <f>SUM(138532+173915)</f>
         <v>312447</v>
       </c>
     </row>
@@ -26729,14 +26725,6 @@
         <f t="shared" si="58"/>
         <v>3</v>
       </c>
-      <c r="H1207" s="2">
-        <f t="shared" si="59"/>
-        <v>113486</v>
-      </c>
-      <c r="I1207" s="2">
-        <f>SUM(139945+285988)</f>
-        <v>425933</v>
-      </c>
     </row>
     <row r="1208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1208" s="3"/>
@@ -27376,10 +27364,6 @@
         <f t="shared" si="58"/>
         <v>30</v>
       </c>
-      <c r="H1237" s="2">
-        <f t="shared" si="59"/>
-        <v>7127</v>
-      </c>
       <c r="I1237" s="2">
         <f>SUM(140743+292317)</f>
         <v>433060</v>
@@ -45267,13 +45251,6 @@
         <f t="shared" si="99"/>
         <v>15</v>
       </c>
-      <c r="H1997" s="2">
-        <f t="shared" si="100"/>
-        <v>72302</v>
-      </c>
-      <c r="I1997" s="2">
-        <v>699849</v>
-      </c>
     </row>
     <row r="1998" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1998" s="3"/>
@@ -46008,10 +45985,6 @@
         <f t="shared" si="102"/>
         <v>1</v>
       </c>
-      <c r="H2027" s="2">
-        <f t="shared" si="103"/>
-        <v>10869</v>
-      </c>
       <c r="I2027" s="2">
         <v>710718</v>
       </c>
@@ -48619,6 +48592,10 @@
         <f>SUM(D2132-D2102)</f>
         <v>106</v>
       </c>
+      <c r="G2132" s="2">
+        <f>SUM(E2132-E2102)</f>
+        <v>4</v>
+      </c>
       <c r="H2132" s="2">
         <f t="shared" si="106"/>
         <v>60839</v>
@@ -48642,6 +48619,10 @@
         <f t="shared" ref="F2133:F2196" si="108">SUM(D2133-D2103)</f>
         <v>121</v>
       </c>
+      <c r="G2133" s="2">
+        <f t="shared" ref="G2133:G2196" si="109">SUM(E2133-E2103)</f>
+        <v>4</v>
+      </c>
       <c r="H2133" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48662,6 +48643,10 @@
         <f t="shared" si="108"/>
         <v>45</v>
       </c>
+      <c r="G2134" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
       <c r="H2134" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48682,6 +48667,10 @@
         <f t="shared" si="108"/>
         <v>93</v>
       </c>
+      <c r="G2135" s="2">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
       <c r="H2135" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48702,6 +48691,10 @@
         <f t="shared" si="108"/>
         <v>48</v>
       </c>
+      <c r="G2136" s="2">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
       <c r="H2136" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48724,8 +48717,9 @@
         <f t="shared" si="108"/>
         <v>52</v>
       </c>
-      <c r="G2137" s="2" t="s">
-        <v>44</v>
+      <c r="G2137" s="2">
+        <f t="shared" si="109"/>
+        <v>11</v>
       </c>
       <c r="H2137" s="2">
         <f t="shared" si="106"/>
@@ -48750,6 +48744,10 @@
         <f t="shared" si="108"/>
         <v>28</v>
       </c>
+      <c r="G2138" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2138" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48770,6 +48768,10 @@
         <f t="shared" si="108"/>
         <v>28</v>
       </c>
+      <c r="G2139" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2139" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48790,6 +48792,10 @@
         <f t="shared" si="108"/>
         <v>20</v>
       </c>
+      <c r="G2140" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
       <c r="H2140" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48810,6 +48816,10 @@
         <f t="shared" si="108"/>
         <v>31</v>
       </c>
+      <c r="G2141" s="2">
+        <f t="shared" si="109"/>
+        <v>2</v>
+      </c>
       <c r="H2141" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48831,6 +48841,10 @@
       <c r="F2142" s="2">
         <f t="shared" si="108"/>
         <v>96</v>
+      </c>
+      <c r="G2142" s="2">
+        <f t="shared" si="109"/>
+        <v>2</v>
       </c>
       <c r="H2142" s="2">
         <f t="shared" si="106"/>
@@ -48855,6 +48869,10 @@
         <f t="shared" si="108"/>
         <v>107</v>
       </c>
+      <c r="G2143" s="2">
+        <f t="shared" si="109"/>
+        <v>8</v>
+      </c>
       <c r="H2143" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48875,6 +48893,10 @@
         <f t="shared" si="108"/>
         <v>100</v>
       </c>
+      <c r="G2144" s="2">
+        <f t="shared" si="109"/>
+        <v>7</v>
+      </c>
       <c r="H2144" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48895,6 +48917,10 @@
         <f t="shared" si="108"/>
         <v>35</v>
       </c>
+      <c r="G2145" s="2">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
       <c r="H2145" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48915,6 +48941,10 @@
         <f t="shared" si="108"/>
         <v>65</v>
       </c>
+      <c r="G2146" s="2">
+        <f t="shared" si="109"/>
+        <v>5</v>
+      </c>
       <c r="H2146" s="2">
         <f t="shared" si="106"/>
         <v>0</v>
@@ -48936,6 +48966,10 @@
       <c r="F2147" s="2">
         <f t="shared" si="108"/>
         <v>49</v>
+      </c>
+      <c r="G2147" s="2">
+        <f t="shared" si="109"/>
+        <v>8</v>
       </c>
       <c r="H2147" s="2">
         <f t="shared" si="106"/>
@@ -48960,8 +48994,12 @@
         <f t="shared" si="108"/>
         <v>14</v>
       </c>
+      <c r="G2148" s="2">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
       <c r="H2148" s="2">
-        <f t="shared" ref="H2148:H2156" si="109">SUM(I2148-I2118)</f>
+        <f t="shared" ref="H2148:H2156" si="110">SUM(I2148-I2118)</f>
         <v>0</v>
       </c>
     </row>
@@ -48980,8 +49018,12 @@
         <f t="shared" si="108"/>
         <v>7</v>
       </c>
+      <c r="G2149" s="2">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
       <c r="H2149" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -49000,8 +49042,12 @@
         <f t="shared" si="108"/>
         <v>4</v>
       </c>
+      <c r="G2150" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
       <c r="H2150" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -49020,8 +49066,12 @@
         <f t="shared" si="108"/>
         <v>8</v>
       </c>
+      <c r="G2151" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2151" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -49042,8 +49092,12 @@
         <f t="shared" si="108"/>
         <v>91</v>
       </c>
+      <c r="G2152" s="2">
+        <f t="shared" si="109"/>
+        <v>17</v>
+      </c>
       <c r="H2152" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>9942</v>
       </c>
       <c r="I2152" s="2">
@@ -49066,8 +49120,12 @@
         <f t="shared" si="108"/>
         <v>45</v>
       </c>
+      <c r="G2153" s="2">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
       <c r="H2153" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -49086,8 +49144,12 @@
         <f t="shared" si="108"/>
         <v>51</v>
       </c>
+      <c r="G2154" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2154" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -49106,8 +49168,12 @@
         <f t="shared" si="108"/>
         <v>12</v>
       </c>
+      <c r="G2155" s="2">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
       <c r="H2155" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -49126,8 +49192,12 @@
         <f t="shared" si="108"/>
         <v>11</v>
       </c>
+      <c r="G2156" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
       <c r="H2156" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -49147,6 +49217,10 @@
       <c r="F2157" s="2">
         <f t="shared" si="108"/>
         <v>1789</v>
+      </c>
+      <c r="G2157" s="2">
+        <f t="shared" si="109"/>
+        <v>45</v>
       </c>
       <c r="H2157" s="2">
         <f>SUM(I2157-I2127)</f>
@@ -49171,8 +49245,12 @@
         <f t="shared" si="108"/>
         <v>161</v>
       </c>
+      <c r="G2158" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2158" s="2">
-        <f t="shared" ref="H2158:H2221" si="110">SUM(I2158-I2128)</f>
+        <f t="shared" ref="H2158:H2221" si="111">SUM(I2158-I2128)</f>
         <v>0</v>
       </c>
     </row>
@@ -49191,8 +49269,12 @@
         <f t="shared" si="108"/>
         <v>157</v>
       </c>
+      <c r="G2159" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2159" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49210,8 +49292,12 @@
         <f t="shared" si="108"/>
         <v>17</v>
       </c>
+      <c r="G2160" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2160" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49229,8 +49315,12 @@
         <f t="shared" si="108"/>
         <v>82</v>
       </c>
+      <c r="G2161" s="2">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
       <c r="H2161" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49254,8 +49344,12 @@
         <f t="shared" si="108"/>
         <v>141</v>
       </c>
+      <c r="G2162" s="2">
+        <f t="shared" si="109"/>
+        <v>5</v>
+      </c>
       <c r="H2162" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>72395</v>
       </c>
       <c r="I2162" s="2">
@@ -49277,8 +49371,12 @@
         <f t="shared" si="108"/>
         <v>128</v>
       </c>
+      <c r="G2163" s="2">
+        <f t="shared" si="109"/>
+        <v>8</v>
+      </c>
       <c r="H2163" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49297,8 +49395,12 @@
         <f t="shared" si="108"/>
         <v>54</v>
       </c>
+      <c r="G2164" s="2">
+        <f t="shared" si="109"/>
+        <v>13</v>
+      </c>
       <c r="H2164" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49317,8 +49419,12 @@
         <f t="shared" si="108"/>
         <v>80</v>
       </c>
+      <c r="G2165" s="2">
+        <f t="shared" si="109"/>
+        <v>7</v>
+      </c>
       <c r="H2165" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49337,8 +49443,12 @@
         <f t="shared" si="108"/>
         <v>47</v>
       </c>
+      <c r="G2166" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2166" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49359,8 +49469,12 @@
         <f t="shared" si="108"/>
         <v>24</v>
       </c>
+      <c r="G2167" s="2">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
       <c r="H2167" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>24603</v>
       </c>
       <c r="I2167" s="2">
@@ -49382,8 +49496,12 @@
         <f t="shared" si="108"/>
         <v>18</v>
       </c>
+      <c r="G2168" s="2">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
       <c r="H2168" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49402,8 +49520,12 @@
         <f t="shared" si="108"/>
         <v>61</v>
       </c>
+      <c r="G2169" s="2">
+        <f t="shared" si="109"/>
+        <v>5</v>
+      </c>
       <c r="H2169" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49422,8 +49544,12 @@
         <f t="shared" si="108"/>
         <v>14</v>
       </c>
+      <c r="G2170" s="2">
+        <f t="shared" si="109"/>
+        <v>8</v>
+      </c>
       <c r="H2170" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49442,8 +49568,12 @@
         <f t="shared" si="108"/>
         <v>26</v>
       </c>
+      <c r="G2171" s="2">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
       <c r="H2171" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49464,8 +49594,12 @@
         <f t="shared" si="108"/>
         <v>54</v>
       </c>
+      <c r="G2172" s="2">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
       <c r="H2172" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>10186</v>
       </c>
       <c r="I2172" s="2">
@@ -49487,8 +49621,12 @@
         <f t="shared" si="108"/>
         <v>79</v>
       </c>
+      <c r="G2173" s="2">
+        <f t="shared" si="109"/>
+        <v>11</v>
+      </c>
       <c r="H2173" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49507,8 +49645,12 @@
         <f t="shared" si="108"/>
         <v>53</v>
       </c>
+      <c r="G2174" s="2">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
       <c r="H2174" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49527,8 +49669,12 @@
         <f t="shared" si="108"/>
         <v>33</v>
       </c>
+      <c r="G2175" s="2">
+        <f t="shared" si="109"/>
+        <v>6</v>
+      </c>
       <c r="H2175" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49547,8 +49693,12 @@
         <f t="shared" si="108"/>
         <v>52</v>
       </c>
+      <c r="G2176" s="2">
+        <f t="shared" si="109"/>
+        <v>7</v>
+      </c>
       <c r="H2176" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49569,8 +49719,12 @@
         <f t="shared" si="108"/>
         <v>32</v>
       </c>
+      <c r="G2177" s="2">
+        <f t="shared" si="109"/>
+        <v>4</v>
+      </c>
       <c r="H2177" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>15767</v>
       </c>
       <c r="I2177" s="2">
@@ -49592,8 +49746,12 @@
         <f t="shared" si="108"/>
         <v>15</v>
       </c>
+      <c r="G2178" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
       <c r="H2178" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49612,8 +49770,12 @@
         <f t="shared" si="108"/>
         <v>10</v>
       </c>
+      <c r="G2179" s="2">
+        <f t="shared" si="109"/>
+        <v>2</v>
+      </c>
       <c r="H2179" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49632,8 +49794,12 @@
         <f t="shared" si="108"/>
         <v>1</v>
       </c>
+      <c r="G2180" s="2">
+        <f t="shared" si="109"/>
+        <v>-2</v>
+      </c>
       <c r="H2180" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49652,8 +49818,12 @@
         <f t="shared" si="108"/>
         <v>1</v>
       </c>
+      <c r="G2181" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2181" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49674,8 +49844,12 @@
         <f t="shared" si="108"/>
         <v>174</v>
       </c>
+      <c r="G2182" s="2">
+        <f t="shared" si="109"/>
+        <v>16</v>
+      </c>
       <c r="H2182" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>12632</v>
       </c>
       <c r="I2182" s="2">
@@ -49698,8 +49872,12 @@
         <f t="shared" si="108"/>
         <v>80</v>
       </c>
+      <c r="G2183" s="2">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
       <c r="H2183" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49718,8 +49896,12 @@
         <f t="shared" si="108"/>
         <v>32</v>
       </c>
+      <c r="G2184" s="2">
+        <f t="shared" si="109"/>
+        <v>2</v>
+      </c>
       <c r="H2184" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49738,8 +49920,12 @@
         <f t="shared" si="108"/>
         <v>19</v>
       </c>
+      <c r="G2185" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
       <c r="H2185" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49758,8 +49944,12 @@
         <f t="shared" si="108"/>
         <v>19</v>
       </c>
+      <c r="G2186" s="2">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
       <c r="H2186" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49780,8 +49970,12 @@
         <f t="shared" si="108"/>
         <v>1578</v>
       </c>
+      <c r="G2187" s="2">
+        <f t="shared" si="109"/>
+        <v>21</v>
+      </c>
       <c r="H2187" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>62135</v>
       </c>
       <c r="I2187" s="2">
@@ -49803,8 +49997,12 @@
         <f t="shared" si="108"/>
         <v>132</v>
       </c>
+      <c r="G2188" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2188" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49823,8 +50021,12 @@
         <f t="shared" si="108"/>
         <v>602</v>
       </c>
+      <c r="G2189" s="2">
+        <f t="shared" si="109"/>
+        <v>3</v>
+      </c>
       <c r="H2189" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49842,8 +50044,12 @@
         <f t="shared" si="108"/>
         <v>50</v>
       </c>
+      <c r="G2190" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
       <c r="H2190" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49861,8 +50067,12 @@
         <f t="shared" si="108"/>
         <v>136</v>
       </c>
+      <c r="G2191" s="2">
+        <f t="shared" si="109"/>
+        <v>8</v>
+      </c>
       <c r="H2191" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49886,8 +50096,12 @@
         <f t="shared" si="108"/>
         <v>154</v>
       </c>
+      <c r="G2192" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
       <c r="H2192" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>70840</v>
       </c>
       <c r="I2192" s="2">
@@ -49909,8 +50123,12 @@
         <f t="shared" si="108"/>
         <v>186</v>
       </c>
+      <c r="G2193" s="2">
+        <f t="shared" si="109"/>
+        <v>6</v>
+      </c>
       <c r="H2193" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49929,8 +50147,12 @@
         <f t="shared" si="108"/>
         <v>58</v>
       </c>
+      <c r="G2194" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
       <c r="H2194" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49949,8 +50171,12 @@
         <f t="shared" si="108"/>
         <v>105</v>
       </c>
+      <c r="G2195" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
       <c r="H2195" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49969,8 +50195,12 @@
         <f t="shared" si="108"/>
         <v>56</v>
       </c>
+      <c r="G2196" s="2">
+        <f t="shared" si="109"/>
+        <v>2</v>
+      </c>
       <c r="H2196" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
     </row>
@@ -49988,11 +50218,15 @@
         <v>1664</v>
       </c>
       <c r="F2197" s="2">
-        <f t="shared" ref="F2197:F2260" si="111">SUM(D2197-D2167)</f>
+        <f t="shared" ref="F2197:F2260" si="112">SUM(D2197-D2167)</f>
         <v>62</v>
       </c>
+      <c r="G2197" s="2">
+        <f t="shared" ref="G2197:G2232" si="113">SUM(E2197-E2167)</f>
+        <v>15</v>
+      </c>
       <c r="H2197" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>0</v>
       </c>
       <c r="I2197" s="2">
@@ -50011,11 +50245,15 @@
         <v>1253</v>
       </c>
       <c r="F2198" s="2">
+        <f t="shared" si="112"/>
+        <v>24</v>
+      </c>
+      <c r="G2198" s="2">
+        <f t="shared" si="113"/>
+        <v>7</v>
+      </c>
+      <c r="H2198" s="2">
         <f t="shared" si="111"/>
-        <v>24</v>
-      </c>
-      <c r="H2198" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50031,11 +50269,15 @@
         <v>1741</v>
       </c>
       <c r="F2199" s="2">
+        <f t="shared" si="112"/>
+        <v>41</v>
+      </c>
+      <c r="G2199" s="2">
+        <f t="shared" si="113"/>
+        <v>13</v>
+      </c>
+      <c r="H2199" s="2">
         <f t="shared" si="111"/>
-        <v>41</v>
-      </c>
-      <c r="H2199" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50051,11 +50293,15 @@
         <v>1121</v>
       </c>
       <c r="F2200" s="2">
+        <f t="shared" si="112"/>
+        <v>-14</v>
+      </c>
+      <c r="G2200" s="2">
+        <f t="shared" si="113"/>
+        <v>9</v>
+      </c>
+      <c r="H2200" s="2">
         <f t="shared" si="111"/>
-        <v>-14</v>
-      </c>
-      <c r="H2200" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50071,11 +50317,15 @@
         <v>997</v>
       </c>
       <c r="F2201" s="2">
+        <f t="shared" si="112"/>
+        <v>31</v>
+      </c>
+      <c r="G2201" s="2">
+        <f t="shared" si="113"/>
+        <v>9</v>
+      </c>
+      <c r="H2201" s="2">
         <f t="shared" si="111"/>
-        <v>31</v>
-      </c>
-      <c r="H2201" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50093,11 +50343,15 @@
         <v>943</v>
       </c>
       <c r="F2202" s="2">
+        <f t="shared" si="112"/>
+        <v>50</v>
+      </c>
+      <c r="G2202" s="2">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
+      <c r="H2202" s="2">
         <f t="shared" si="111"/>
-        <v>50</v>
-      </c>
-      <c r="H2202" s="2">
-        <f t="shared" si="110"/>
         <v>10160</v>
       </c>
       <c r="I2202" s="2">
@@ -50116,11 +50370,15 @@
         <v>1748</v>
       </c>
       <c r="F2203" s="2">
+        <f t="shared" si="112"/>
+        <v>81</v>
+      </c>
+      <c r="G2203" s="2">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
+      <c r="H2203" s="2">
         <f t="shared" si="111"/>
-        <v>81</v>
-      </c>
-      <c r="H2203" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50136,11 +50394,15 @@
         <v>1041</v>
       </c>
       <c r="F2204" s="2">
+        <f t="shared" si="112"/>
+        <v>55</v>
+      </c>
+      <c r="G2204" s="2">
+        <f t="shared" si="113"/>
+        <v>6</v>
+      </c>
+      <c r="H2204" s="2">
         <f t="shared" si="111"/>
-        <v>55</v>
-      </c>
-      <c r="H2204" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50156,11 +50418,15 @@
         <v>882</v>
       </c>
       <c r="F2205" s="2">
+        <f t="shared" si="112"/>
+        <v>18</v>
+      </c>
+      <c r="G2205" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="H2205" s="2">
         <f t="shared" si="111"/>
-        <v>18</v>
-      </c>
-      <c r="H2205" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50176,11 +50442,15 @@
         <v>863</v>
       </c>
       <c r="F2206" s="2">
+        <f t="shared" si="112"/>
+        <v>24</v>
+      </c>
+      <c r="G2206" s="2">
+        <f t="shared" si="113"/>
+        <v>7</v>
+      </c>
+      <c r="H2206" s="2">
         <f t="shared" si="111"/>
-        <v>24</v>
-      </c>
-      <c r="H2206" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50198,11 +50468,15 @@
         <v>2551</v>
       </c>
       <c r="F2207" s="2">
+        <f t="shared" si="112"/>
+        <v>55</v>
+      </c>
+      <c r="G2207" s="2">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
+      <c r="H2207" s="2">
         <f t="shared" si="111"/>
-        <v>55</v>
-      </c>
-      <c r="H2207" s="2">
-        <f t="shared" si="110"/>
         <v>13196</v>
       </c>
       <c r="I2207" s="2">
@@ -50221,11 +50495,15 @@
         <v>1025</v>
       </c>
       <c r="F2208" s="2">
+        <f t="shared" si="112"/>
+        <v>19</v>
+      </c>
+      <c r="G2208" s="2">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
+      <c r="H2208" s="2">
         <f t="shared" si="111"/>
-        <v>19</v>
-      </c>
-      <c r="H2208" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50241,11 +50519,15 @@
         <v>852</v>
       </c>
       <c r="F2209" s="2">
+        <f t="shared" si="112"/>
+        <v>20</v>
+      </c>
+      <c r="G2209" s="2">
+        <f t="shared" si="113"/>
+        <v>8</v>
+      </c>
+      <c r="H2209" s="2">
         <f t="shared" si="111"/>
-        <v>20</v>
-      </c>
-      <c r="H2209" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50261,11 +50543,15 @@
         <v>258</v>
       </c>
       <c r="F2210" s="2">
+        <f t="shared" si="112"/>
+        <v>6</v>
+      </c>
+      <c r="G2210" s="2">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
+      <c r="H2210" s="2">
         <f t="shared" si="111"/>
-        <v>6</v>
-      </c>
-      <c r="H2210" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50281,11 +50567,15 @@
         <v>101</v>
       </c>
       <c r="F2211" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="G2211" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="H2211" s="2">
         <f t="shared" si="111"/>
-        <v>0</v>
-      </c>
-      <c r="H2211" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50303,11 +50593,15 @@
         <v>1502</v>
       </c>
       <c r="F2212" s="2">
+        <f t="shared" si="112"/>
+        <v>110</v>
+      </c>
+      <c r="G2212" s="2">
+        <f t="shared" si="113"/>
+        <v>15</v>
+      </c>
+      <c r="H2212" s="2">
         <f t="shared" si="111"/>
-        <v>110</v>
-      </c>
-      <c r="H2212" s="2">
-        <f t="shared" si="110"/>
         <v>8667</v>
       </c>
       <c r="I2212" s="2">
@@ -50327,11 +50621,15 @@
         <v>768</v>
       </c>
       <c r="F2213" s="2">
+        <f t="shared" si="112"/>
+        <v>31</v>
+      </c>
+      <c r="G2213" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="H2213" s="2">
         <f t="shared" si="111"/>
-        <v>31</v>
-      </c>
-      <c r="H2213" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50347,11 +50645,15 @@
         <v>664</v>
       </c>
       <c r="F2214" s="2">
+        <f t="shared" si="112"/>
+        <v>31</v>
+      </c>
+      <c r="G2214" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="H2214" s="2">
         <f t="shared" si="111"/>
-        <v>31</v>
-      </c>
-      <c r="H2214" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50367,11 +50669,15 @@
         <v>267</v>
       </c>
       <c r="F2215" s="2">
+        <f t="shared" si="112"/>
+        <v>13</v>
+      </c>
+      <c r="G2215" s="2">
+        <f t="shared" si="113"/>
+        <v>3</v>
+      </c>
+      <c r="H2215" s="2">
         <f t="shared" si="111"/>
-        <v>13</v>
-      </c>
-      <c r="H2215" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50387,11 +50693,15 @@
         <v>338</v>
       </c>
       <c r="F2216" s="2">
+        <f t="shared" si="112"/>
+        <v>22</v>
+      </c>
+      <c r="G2216" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="H2216" s="2">
         <f t="shared" si="111"/>
-        <v>22</v>
-      </c>
-      <c r="H2216" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50409,11 +50719,15 @@
         <v>2890</v>
       </c>
       <c r="F2217" s="2">
+        <f t="shared" si="112"/>
+        <v>1553</v>
+      </c>
+      <c r="G2217" s="2">
+        <f t="shared" si="113"/>
+        <v>56</v>
+      </c>
+      <c r="H2217" s="2">
         <f t="shared" si="111"/>
-        <v>1553</v>
-      </c>
-      <c r="H2217" s="2">
-        <f t="shared" si="110"/>
         <v>77603</v>
       </c>
       <c r="I2217" s="2">
@@ -50432,11 +50746,15 @@
         <v>320</v>
       </c>
       <c r="F2218" s="2">
+        <f t="shared" si="112"/>
+        <v>184</v>
+      </c>
+      <c r="G2218" s="2">
+        <f t="shared" si="113"/>
+        <v>8</v>
+      </c>
+      <c r="H2218" s="2">
         <f t="shared" si="111"/>
-        <v>184</v>
-      </c>
-      <c r="H2218" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50452,11 +50770,15 @@
         <v>383</v>
       </c>
       <c r="F2219" s="2">
+        <f t="shared" si="112"/>
+        <v>315</v>
+      </c>
+      <c r="G2219" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="H2219" s="2">
         <f t="shared" si="111"/>
-        <v>315</v>
-      </c>
-      <c r="H2219" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50471,11 +50793,15 @@
         <v>150</v>
       </c>
       <c r="F2220" s="2">
+        <f t="shared" si="112"/>
+        <v>42</v>
+      </c>
+      <c r="G2220" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="H2220" s="2">
         <f t="shared" si="111"/>
-        <v>42</v>
-      </c>
-      <c r="H2220" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50490,11 +50816,15 @@
         <v>217</v>
       </c>
       <c r="F2221" s="2">
+        <f t="shared" si="112"/>
+        <v>141</v>
+      </c>
+      <c r="G2221" s="2">
+        <f t="shared" si="113"/>
+        <v>7</v>
+      </c>
+      <c r="H2221" s="2">
         <f t="shared" si="111"/>
-        <v>141</v>
-      </c>
-      <c r="H2221" s="2">
-        <f t="shared" si="110"/>
         <v>0</v>
       </c>
     </row>
@@ -50515,11 +50845,15 @@
         <v>3991</v>
       </c>
       <c r="F2222" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>95</v>
       </c>
+      <c r="G2222" s="2">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
       <c r="H2222" s="2">
-        <f t="shared" ref="H2222:H2285" si="112">SUM(I2222-I2192)</f>
+        <f t="shared" ref="H2222:H2285" si="114">SUM(I2222-I2192)</f>
         <v>62359</v>
       </c>
       <c r="I2222" s="2">
@@ -50538,11 +50872,15 @@
         <v>4493</v>
       </c>
       <c r="F2223" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>140</v>
       </c>
+      <c r="G2223" s="2">
+        <f t="shared" si="113"/>
+        <v>3</v>
+      </c>
       <c r="H2223" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50558,11 +50896,15 @@
         <v>2670</v>
       </c>
       <c r="F2224" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>32</v>
       </c>
+      <c r="G2224" s="2">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
       <c r="H2224" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50578,11 +50920,15 @@
         <v>3015</v>
       </c>
       <c r="F2225" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>66</v>
       </c>
+      <c r="G2225" s="2">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
       <c r="H2225" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50598,11 +50944,15 @@
         <v>1997</v>
       </c>
       <c r="F2226" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>44</v>
       </c>
+      <c r="G2226" s="2">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
       <c r="H2226" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50620,11 +50970,15 @@
         <v>1662</v>
       </c>
       <c r="F2227" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>13</v>
       </c>
+      <c r="G2227" s="2">
+        <f t="shared" si="113"/>
+        <v>-2</v>
+      </c>
       <c r="H2227" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>42220</v>
       </c>
       <c r="I2227" s="2">
@@ -50643,11 +50997,15 @@
         <v>1254</v>
       </c>
       <c r="F2228" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>29</v>
       </c>
+      <c r="G2228" s="2">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
       <c r="H2228" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50663,11 +51021,15 @@
         <v>1745</v>
       </c>
       <c r="F2229" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>28</v>
       </c>
+      <c r="G2229" s="2">
+        <f t="shared" si="113"/>
+        <v>4</v>
+      </c>
       <c r="H2229" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50683,11 +51045,15 @@
         <v>1126</v>
       </c>
       <c r="F2230" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>-15</v>
       </c>
+      <c r="G2230" s="2">
+        <f t="shared" si="113"/>
+        <v>5</v>
+      </c>
       <c r="H2230" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50703,11 +51069,15 @@
         <v>999</v>
       </c>
       <c r="F2231" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>15</v>
       </c>
+      <c r="G2231" s="2">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
       <c r="H2231" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50725,11 +51095,15 @@
         <v>950</v>
       </c>
       <c r="F2232" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>36</v>
       </c>
+      <c r="G2232" s="2">
+        <f t="shared" si="113"/>
+        <v>7</v>
+      </c>
       <c r="H2232" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>9112</v>
       </c>
       <c r="I2232" s="2">
@@ -50748,11 +51122,15 @@
         <v>1756</v>
       </c>
       <c r="F2233" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>39</v>
       </c>
+      <c r="G2233" s="2">
+        <f>SUM(E2233-E2203)</f>
+        <v>8</v>
+      </c>
       <c r="H2233" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50768,11 +51146,15 @@
         <v>1046</v>
       </c>
       <c r="F2234" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>31</v>
       </c>
+      <c r="G2234" s="2">
+        <f t="shared" ref="G2234:G2297" si="115">SUM(E2234-E2204)</f>
+        <v>5</v>
+      </c>
       <c r="H2234" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50788,11 +51170,15 @@
         <v>888</v>
       </c>
       <c r="F2235" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>6</v>
       </c>
+      <c r="G2235" s="2">
+        <f t="shared" si="115"/>
+        <v>6</v>
+      </c>
       <c r="H2235" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50808,11 +51194,15 @@
         <v>870</v>
       </c>
       <c r="F2236" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>14</v>
       </c>
+      <c r="G2236" s="2">
+        <f t="shared" si="115"/>
+        <v>7</v>
+      </c>
       <c r="H2236" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50830,11 +51220,15 @@
         <v>2552</v>
       </c>
       <c r="F2237" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>20</v>
       </c>
+      <c r="G2237" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2237" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>14015</v>
       </c>
       <c r="I2237" s="2">
@@ -50853,11 +51247,15 @@
         <v>1025</v>
       </c>
       <c r="F2238" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>7</v>
       </c>
+      <c r="G2238" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2238" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50873,11 +51271,15 @@
         <v>852</v>
       </c>
       <c r="F2239" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>9</v>
       </c>
+      <c r="G2239" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2239" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50893,11 +51295,15 @@
         <v>257</v>
       </c>
       <c r="F2240" s="2">
-        <f t="shared" si="111"/>
-        <v>0</v>
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="G2240" s="2">
+        <f t="shared" si="115"/>
+        <v>-1</v>
       </c>
       <c r="H2240" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50913,11 +51319,15 @@
         <v>101</v>
       </c>
       <c r="F2241" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>6</v>
       </c>
+      <c r="G2241" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2241" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50935,11 +51345,15 @@
         <v>1505</v>
       </c>
       <c r="F2242" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>77</v>
       </c>
+      <c r="G2242" s="2">
+        <f t="shared" si="115"/>
+        <v>3</v>
+      </c>
       <c r="H2242" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>8182</v>
       </c>
       <c r="I2242" s="2">
@@ -50959,11 +51373,15 @@
         <v>768</v>
       </c>
       <c r="F2243" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>33</v>
       </c>
+      <c r="G2243" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2243" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50979,11 +51397,15 @@
         <v>671</v>
       </c>
       <c r="F2244" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>20</v>
       </c>
+      <c r="G2244" s="2">
+        <f t="shared" si="115"/>
+        <v>7</v>
+      </c>
       <c r="H2244" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -50999,11 +51421,15 @@
         <v>267</v>
       </c>
       <c r="F2245" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>14</v>
       </c>
+      <c r="G2245" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2245" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51019,11 +51445,15 @@
         <v>338</v>
       </c>
       <c r="F2246" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>16</v>
       </c>
+      <c r="G2246" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2246" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51041,11 +51471,15 @@
         <v>2907</v>
       </c>
       <c r="F2247" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>994</v>
       </c>
+      <c r="G2247" s="2">
+        <f t="shared" si="115"/>
+        <v>17</v>
+      </c>
       <c r="H2247" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>66186</v>
       </c>
       <c r="I2247" s="2">
@@ -51064,11 +51498,15 @@
         <v>320</v>
       </c>
       <c r="F2248" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>126</v>
       </c>
+      <c r="G2248" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2248" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51084,11 +51522,15 @@
         <v>383</v>
       </c>
       <c r="F2249" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>287</v>
       </c>
+      <c r="G2249" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2249" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51103,11 +51545,15 @@
         <v>151</v>
       </c>
       <c r="F2250" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>37</v>
       </c>
+      <c r="G2250" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2250" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51122,11 +51568,15 @@
         <v>221</v>
       </c>
       <c r="F2251" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>163</v>
       </c>
+      <c r="G2251" s="2">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
       <c r="H2251" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51147,11 +51597,15 @@
         <v>3992</v>
       </c>
       <c r="F2252" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>110</v>
       </c>
+      <c r="G2252" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2252" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>56611</v>
       </c>
       <c r="I2252" s="2">
@@ -51170,11 +51624,15 @@
         <v>4498</v>
       </c>
       <c r="F2253" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>118</v>
       </c>
+      <c r="G2253" s="2">
+        <f t="shared" si="115"/>
+        <v>5</v>
+      </c>
       <c r="H2253" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51190,11 +51648,15 @@
         <v>2672</v>
       </c>
       <c r="F2254" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>36</v>
       </c>
+      <c r="G2254" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2254" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51210,11 +51672,15 @@
         <v>3018</v>
       </c>
       <c r="F2255" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>78</v>
       </c>
+      <c r="G2255" s="2">
+        <f t="shared" si="115"/>
+        <v>3</v>
+      </c>
       <c r="H2255" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51230,11 +51696,15 @@
         <v>2004</v>
       </c>
       <c r="F2256" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>33</v>
       </c>
+      <c r="G2256" s="2">
+        <f t="shared" si="115"/>
+        <v>7</v>
+      </c>
       <c r="H2256" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51252,11 +51722,15 @@
         <v>1664</v>
       </c>
       <c r="F2257" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>30</v>
       </c>
+      <c r="G2257" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2257" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>18467</v>
       </c>
       <c r="I2257" s="2">
@@ -51275,11 +51749,15 @@
         <v>1256</v>
       </c>
       <c r="F2258" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>19</v>
       </c>
+      <c r="G2258" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2258" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51295,11 +51773,15 @@
         <v>1751</v>
       </c>
       <c r="F2259" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>11</v>
       </c>
+      <c r="G2259" s="2">
+        <f t="shared" si="115"/>
+        <v>6</v>
+      </c>
       <c r="H2259" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51315,11 +51797,15 @@
         <v>1128</v>
       </c>
       <c r="F2260" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>-14</v>
       </c>
+      <c r="G2260" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2260" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51335,11 +51821,15 @@
         <v>1001</v>
       </c>
       <c r="F2261" s="2">
-        <f t="shared" ref="F2261:F2324" si="113">SUM(D2261-D2231)</f>
+        <f t="shared" ref="F2261:F2324" si="116">SUM(D2261-D2231)</f>
         <v>22</v>
       </c>
+      <c r="G2261" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2261" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51357,11 +51847,15 @@
         <v>951</v>
       </c>
       <c r="F2262" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>-1</v>
       </c>
+      <c r="G2262" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2262" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>4492</v>
       </c>
       <c r="I2262" s="2">
@@ -51380,11 +51874,15 @@
         <v>1763</v>
       </c>
       <c r="F2263" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>32</v>
       </c>
+      <c r="G2263" s="2">
+        <f t="shared" si="115"/>
+        <v>7</v>
+      </c>
       <c r="H2263" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51400,11 +51898,15 @@
         <v>1051</v>
       </c>
       <c r="F2264" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>23</v>
       </c>
+      <c r="G2264" s="2">
+        <f t="shared" si="115"/>
+        <v>5</v>
+      </c>
       <c r="H2264" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51420,11 +51922,15 @@
         <v>890</v>
       </c>
       <c r="F2265" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>6</v>
       </c>
+      <c r="G2265" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2265" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51440,11 +51946,15 @@
         <v>871</v>
       </c>
       <c r="F2266" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>16</v>
       </c>
+      <c r="G2266" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2266" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51462,11 +51972,15 @@
         <v>2552</v>
       </c>
       <c r="F2267" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>38</v>
       </c>
+      <c r="G2267" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2267" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>10539</v>
       </c>
       <c r="I2267" s="2">
@@ -51485,11 +51999,15 @@
         <v>1025</v>
       </c>
       <c r="F2268" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>5</v>
       </c>
+      <c r="G2268" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2268" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51505,11 +52023,15 @@
         <v>852</v>
       </c>
       <c r="F2269" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>9</v>
       </c>
+      <c r="G2269" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2269" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51525,11 +52047,15 @@
         <v>257</v>
       </c>
       <c r="F2270" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>2</v>
       </c>
+      <c r="G2270" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2270" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51545,11 +52071,15 @@
         <v>101</v>
       </c>
       <c r="F2271" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>2</v>
       </c>
+      <c r="G2271" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2271" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51567,11 +52097,15 @@
         <v>1509</v>
       </c>
       <c r="F2272" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>74</v>
       </c>
+      <c r="G2272" s="2">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
       <c r="H2272" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>9797</v>
       </c>
       <c r="I2272" s="2">
@@ -51591,11 +52125,15 @@
         <v>777</v>
       </c>
       <c r="F2273" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>32</v>
       </c>
+      <c r="G2273" s="2">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
       <c r="H2273" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51611,11 +52149,15 @@
         <v>671</v>
       </c>
       <c r="F2274" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>33</v>
       </c>
+      <c r="G2274" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2274" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51631,11 +52173,15 @@
         <v>269</v>
       </c>
       <c r="F2275" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>4</v>
       </c>
+      <c r="G2275" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2275" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51651,11 +52197,15 @@
         <v>338</v>
       </c>
       <c r="F2276" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>5</v>
       </c>
+      <c r="G2276" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2276" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51673,11 +52223,15 @@
         <v>2926</v>
       </c>
       <c r="F2277" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>773</v>
       </c>
+      <c r="G2277" s="2">
+        <f t="shared" si="115"/>
+        <v>19</v>
+      </c>
       <c r="H2277" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>69573</v>
       </c>
       <c r="I2277" s="2">
@@ -51696,11 +52250,15 @@
         <v>320</v>
       </c>
       <c r="F2278" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>170</v>
       </c>
+      <c r="G2278" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2278" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51716,11 +52274,15 @@
         <v>384</v>
       </c>
       <c r="F2279" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>158</v>
       </c>
+      <c r="G2279" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2279" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51735,11 +52297,15 @@
         <v>152</v>
       </c>
       <c r="F2280" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>26</v>
       </c>
+      <c r="G2280" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2280" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51754,11 +52320,15 @@
         <v>221</v>
       </c>
       <c r="F2281" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>200</v>
       </c>
+      <c r="G2281" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2281" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51779,11 +52349,15 @@
         <v>3992</v>
       </c>
       <c r="F2282" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>110</v>
       </c>
+      <c r="G2282" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2282" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>60568</v>
       </c>
       <c r="I2282" s="2">
@@ -51802,11 +52376,15 @@
         <v>4500</v>
       </c>
       <c r="F2283" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>97</v>
       </c>
+      <c r="G2283" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2283" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51822,11 +52400,15 @@
         <v>2676</v>
       </c>
       <c r="F2284" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>50</v>
       </c>
+      <c r="G2284" s="2">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
       <c r="H2284" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51842,11 +52424,15 @@
         <v>3022</v>
       </c>
       <c r="F2285" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>65</v>
       </c>
+      <c r="G2285" s="2">
+        <f t="shared" si="115"/>
+        <v>4</v>
+      </c>
       <c r="H2285" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
     </row>
@@ -51862,11 +52448,15 @@
         <v>2005</v>
       </c>
       <c r="F2286" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>46</v>
       </c>
+      <c r="G2286" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2286" s="2">
-        <f t="shared" ref="H2286:H2349" si="114">SUM(I2286-I2256)</f>
+        <f t="shared" ref="H2286:H2349" si="117">SUM(I2286-I2256)</f>
         <v>0</v>
       </c>
     </row>
@@ -51884,11 +52474,15 @@
         <v>1673</v>
       </c>
       <c r="F2287" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>53</v>
       </c>
+      <c r="G2287" s="2">
+        <f t="shared" si="115"/>
+        <v>9</v>
+      </c>
       <c r="H2287" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>15699</v>
       </c>
       <c r="I2287" s="2">
@@ -51907,11 +52501,15 @@
         <v>1255</v>
       </c>
       <c r="F2288" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>-21</v>
       </c>
+      <c r="G2288" s="2">
+        <f t="shared" si="115"/>
+        <v>-1</v>
+      </c>
       <c r="H2288" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -51927,11 +52525,15 @@
         <v>1751</v>
       </c>
       <c r="F2289" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>13</v>
       </c>
+      <c r="G2289" s="2">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
       <c r="H2289" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -51947,11 +52549,15 @@
         <v>1130</v>
       </c>
       <c r="F2290" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>12</v>
       </c>
+      <c r="G2290" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2290" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -51967,11 +52573,15 @@
         <v>1006</v>
       </c>
       <c r="F2291" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>15</v>
       </c>
+      <c r="G2291" s="2">
+        <f t="shared" si="115"/>
+        <v>5</v>
+      </c>
       <c r="H2291" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -51989,11 +52599,15 @@
         <v>952</v>
       </c>
       <c r="F2292" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>33</v>
       </c>
+      <c r="G2292" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2292" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>6361</v>
       </c>
       <c r="I2292" s="2">
@@ -52012,11 +52626,15 @@
         <v>1765</v>
       </c>
       <c r="F2293" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>42</v>
       </c>
+      <c r="G2293" s="2">
+        <f t="shared" si="115"/>
+        <v>2</v>
+      </c>
       <c r="H2293" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52032,11 +52650,15 @@
         <v>1052</v>
       </c>
       <c r="F2294" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>40</v>
       </c>
+      <c r="G2294" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2294" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52052,11 +52674,15 @@
         <v>891</v>
       </c>
       <c r="F2295" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>20</v>
       </c>
+      <c r="G2295" s="2">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
       <c r="H2295" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52072,11 +52698,15 @@
         <v>877</v>
       </c>
       <c r="F2296" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>23</v>
       </c>
+      <c r="G2296" s="2">
+        <f t="shared" si="115"/>
+        <v>6</v>
+      </c>
       <c r="H2296" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52094,11 +52724,15 @@
         <v>2558</v>
       </c>
       <c r="F2297" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>-8</v>
       </c>
+      <c r="G2297" s="2">
+        <f t="shared" si="115"/>
+        <v>6</v>
+      </c>
       <c r="H2297" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>11497</v>
       </c>
       <c r="I2297" s="2">
@@ -52117,11 +52751,15 @@
         <v>1028</v>
       </c>
       <c r="F2298" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>31</v>
       </c>
+      <c r="G2298" s="2">
+        <f t="shared" ref="G2298:G2361" si="118">SUM(E2298-E2268)</f>
+        <v>3</v>
+      </c>
       <c r="H2298" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52137,11 +52775,15 @@
         <v>854</v>
       </c>
       <c r="F2299" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>31</v>
       </c>
+      <c r="G2299" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2299" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52157,11 +52799,15 @@
         <v>258</v>
       </c>
       <c r="F2300" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>5</v>
       </c>
+      <c r="G2300" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2300" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52177,11 +52823,15 @@
         <v>101</v>
       </c>
       <c r="F2301" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>7</v>
       </c>
+      <c r="G2301" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2301" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52199,11 +52849,15 @@
         <v>1518</v>
       </c>
       <c r="F2302" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>89</v>
       </c>
+      <c r="G2302" s="2">
+        <f t="shared" si="118"/>
+        <v>9</v>
+      </c>
       <c r="H2302" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>10062</v>
       </c>
       <c r="I2302" s="2">
@@ -52223,11 +52877,15 @@
         <v>778</v>
       </c>
       <c r="F2303" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>20</v>
       </c>
+      <c r="G2303" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2303" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52243,11 +52901,15 @@
         <v>674</v>
       </c>
       <c r="F2304" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>15</v>
       </c>
+      <c r="G2304" s="2">
+        <f t="shared" si="118"/>
+        <v>3</v>
+      </c>
       <c r="H2304" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52263,11 +52925,15 @@
         <v>271</v>
       </c>
       <c r="F2305" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>16</v>
       </c>
+      <c r="G2305" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2305" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52283,11 +52949,15 @@
         <v>338</v>
       </c>
       <c r="F2306" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>17</v>
       </c>
+      <c r="G2306" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2306" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52305,11 +52975,15 @@
         <v>2959</v>
       </c>
       <c r="F2307" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>1346</v>
       </c>
+      <c r="G2307" s="2">
+        <f t="shared" si="118"/>
+        <v>33</v>
+      </c>
       <c r="H2307" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>60233</v>
       </c>
       <c r="I2307" s="2">
@@ -52328,11 +53002,15 @@
         <v>323</v>
       </c>
       <c r="F2308" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>120</v>
       </c>
+      <c r="G2308" s="2">
+        <f t="shared" si="118"/>
+        <v>3</v>
+      </c>
       <c r="H2308" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52348,11 +53026,15 @@
         <v>395</v>
       </c>
       <c r="F2309" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>262</v>
       </c>
+      <c r="G2309" s="2">
+        <f t="shared" si="118"/>
+        <v>11</v>
+      </c>
       <c r="H2309" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52367,11 +53049,15 @@
         <v>152</v>
       </c>
       <c r="F2310" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>24</v>
       </c>
+      <c r="G2310" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2310" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52386,11 +53072,15 @@
         <v>233</v>
       </c>
       <c r="F2311" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>219</v>
       </c>
+      <c r="G2311" s="2">
+        <f t="shared" si="118"/>
+        <v>12</v>
+      </c>
       <c r="H2311" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52411,11 +53101,15 @@
         <v>3993</v>
       </c>
       <c r="F2312" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>134</v>
       </c>
+      <c r="G2312" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2312" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>59341</v>
       </c>
       <c r="I2312" s="2">
@@ -52434,11 +53128,15 @@
         <v>4502</v>
       </c>
       <c r="F2313" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>112</v>
       </c>
+      <c r="G2313" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2313" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52454,11 +53152,15 @@
         <v>2677</v>
       </c>
       <c r="F2314" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>30</v>
       </c>
+      <c r="G2314" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2314" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52474,11 +53176,15 @@
         <v>3024</v>
       </c>
       <c r="F2315" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>68</v>
       </c>
+      <c r="G2315" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2315" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52494,11 +53200,15 @@
         <v>2006</v>
       </c>
       <c r="F2316" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>32</v>
       </c>
+      <c r="G2316" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2316" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52516,11 +53226,15 @@
         <v>1681</v>
       </c>
       <c r="F2317" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>27</v>
       </c>
+      <c r="G2317" s="2">
+        <f t="shared" si="118"/>
+        <v>8</v>
+      </c>
       <c r="H2317" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>16059</v>
       </c>
       <c r="I2317" s="2">
@@ -52539,11 +53253,15 @@
         <v>1257</v>
       </c>
       <c r="F2318" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>11</v>
       </c>
+      <c r="G2318" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2318" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52559,11 +53277,15 @@
         <v>1755</v>
       </c>
       <c r="F2319" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>33</v>
       </c>
+      <c r="G2319" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
       <c r="H2319" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52579,11 +53301,15 @@
         <v>1094</v>
       </c>
       <c r="F2320" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>-5</v>
       </c>
+      <c r="G2320" s="2">
+        <f t="shared" si="118"/>
+        <v>-36</v>
+      </c>
       <c r="H2320" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52599,11 +53325,15 @@
         <v>1007</v>
       </c>
       <c r="F2321" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>19</v>
       </c>
+      <c r="G2321" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2321" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52621,11 +53351,15 @@
         <v>959</v>
       </c>
       <c r="F2322" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>67</v>
       </c>
+      <c r="G2322" s="2">
+        <f t="shared" si="118"/>
+        <v>7</v>
+      </c>
       <c r="H2322" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>8313</v>
       </c>
       <c r="I2322" s="2">
@@ -52644,11 +53378,15 @@
         <v>1781</v>
       </c>
       <c r="F2323" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>77</v>
       </c>
+      <c r="G2323" s="2">
+        <f t="shared" si="118"/>
+        <v>16</v>
+      </c>
       <c r="H2323" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52664,11 +53402,15 @@
         <v>1057</v>
       </c>
       <c r="F2324" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="116"/>
         <v>36</v>
       </c>
+      <c r="G2324" s="2">
+        <f t="shared" si="118"/>
+        <v>5</v>
+      </c>
       <c r="H2324" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52684,11 +53426,15 @@
         <v>903</v>
       </c>
       <c r="F2325" s="2">
-        <f t="shared" ref="F2325:F2371" si="115">SUM(D2325-D2295)</f>
+        <f t="shared" ref="F2325:F2371" si="119">SUM(D2325-D2295)</f>
         <v>16</v>
       </c>
+      <c r="G2325" s="2">
+        <f t="shared" si="118"/>
+        <v>12</v>
+      </c>
       <c r="H2325" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52704,11 +53450,15 @@
         <v>888</v>
       </c>
       <c r="F2326" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>18</v>
       </c>
+      <c r="G2326" s="2">
+        <f t="shared" si="118"/>
+        <v>11</v>
+      </c>
       <c r="H2326" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52726,11 +53476,15 @@
         <v>2559</v>
       </c>
       <c r="F2327" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>78</v>
       </c>
+      <c r="G2327" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2327" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>14351</v>
       </c>
       <c r="I2327" s="2">
@@ -52749,11 +53503,15 @@
         <v>1028</v>
       </c>
       <c r="F2328" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>97</v>
       </c>
+      <c r="G2328" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2328" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52769,11 +53527,15 @@
         <v>855</v>
       </c>
       <c r="F2329" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>11</v>
       </c>
+      <c r="G2329" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2329" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52789,11 +53551,15 @@
         <v>258</v>
       </c>
       <c r="F2330" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>6</v>
       </c>
+      <c r="G2330" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2330" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52809,11 +53575,15 @@
         <v>101</v>
       </c>
       <c r="F2331" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>7</v>
       </c>
+      <c r="G2331" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2331" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52831,11 +53601,15 @@
         <v>1528</v>
       </c>
       <c r="F2332" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>88</v>
       </c>
+      <c r="G2332" s="2">
+        <f t="shared" si="118"/>
+        <v>10</v>
+      </c>
       <c r="H2332" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>9739</v>
       </c>
       <c r="I2332" s="2">
@@ -52855,11 +53629,15 @@
         <v>778</v>
       </c>
       <c r="F2333" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>40</v>
       </c>
+      <c r="G2333" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2333" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52875,11 +53653,15 @@
         <v>678</v>
       </c>
       <c r="F2334" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>31</v>
       </c>
+      <c r="G2334" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
       <c r="H2334" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52895,11 +53677,15 @@
         <v>273</v>
       </c>
       <c r="F2335" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>5</v>
       </c>
+      <c r="G2335" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2335" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52915,11 +53701,15 @@
         <v>340</v>
       </c>
       <c r="F2336" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>9</v>
       </c>
+      <c r="G2336" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2336" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52937,11 +53727,15 @@
         <v>2991</v>
       </c>
       <c r="F2337" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>2115</v>
       </c>
+      <c r="G2337" s="2">
+        <f t="shared" si="118"/>
+        <v>32</v>
+      </c>
       <c r="H2337" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>76542</v>
       </c>
       <c r="I2337" s="2">
@@ -52960,11 +53754,15 @@
         <v>327</v>
       </c>
       <c r="F2338" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>124</v>
       </c>
+      <c r="G2338" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
       <c r="H2338" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52980,11 +53778,15 @@
         <v>399</v>
       </c>
       <c r="F2339" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>221</v>
       </c>
+      <c r="G2339" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
       <c r="H2339" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -52999,11 +53801,15 @@
         <v>152</v>
       </c>
       <c r="F2340" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>36</v>
       </c>
+      <c r="G2340" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2340" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -53018,11 +53824,15 @@
         <v>244</v>
       </c>
       <c r="F2341" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>115</v>
       </c>
+      <c r="G2341" s="2">
+        <f t="shared" si="118"/>
+        <v>11</v>
+      </c>
       <c r="H2341" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -53043,11 +53853,15 @@
         <v>4002</v>
       </c>
       <c r="F2342" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>92</v>
       </c>
+      <c r="G2342" s="2">
+        <f t="shared" si="118"/>
+        <v>9</v>
+      </c>
       <c r="H2342" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>68541</v>
       </c>
       <c r="I2342" s="2">
@@ -53066,11 +53880,15 @@
         <v>4504</v>
       </c>
       <c r="F2343" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>116</v>
       </c>
+      <c r="G2343" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2343" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
     </row>
@@ -53086,11 +53904,15 @@
         <v>2677</v>
       </c>
       <c r="F2344" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>29</v>
       </c>
+      <c r="G2344" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2344" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="K2344" s="2"/>
@@ -53107,11 +53929,15 @@
         <v>3025</v>
       </c>
       <c r="F2345" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>52</v>
       </c>
+      <c r="G2345" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2345" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="K2345" s="2"/>
@@ -53128,11 +53954,15 @@
         <v>2010</v>
       </c>
       <c r="F2346" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>40</v>
       </c>
+      <c r="G2346" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
       <c r="H2346" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="K2346" s="2"/>
@@ -53151,11 +53981,15 @@
         <v>1684</v>
       </c>
       <c r="F2347" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>21</v>
       </c>
+      <c r="G2347" s="2">
+        <f t="shared" si="118"/>
+        <v>3</v>
+      </c>
       <c r="H2347" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>23893</v>
       </c>
       <c r="I2347" s="2">
@@ -53175,11 +54009,15 @@
         <v>1256</v>
       </c>
       <c r="F2348" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>-2</v>
       </c>
+      <c r="G2348" s="2">
+        <f t="shared" si="118"/>
+        <v>-1</v>
+      </c>
       <c r="H2348" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="K2348" s="2"/>
@@ -53196,11 +54034,15 @@
         <v>1758</v>
       </c>
       <c r="F2349" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>78</v>
       </c>
+      <c r="G2349" s="2">
+        <f t="shared" si="118"/>
+        <v>3</v>
+      </c>
       <c r="H2349" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="K2349" s="2"/>
@@ -53217,11 +54059,15 @@
         <v>1132</v>
       </c>
       <c r="F2350" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>-11</v>
       </c>
+      <c r="G2350" s="2">
+        <f t="shared" si="118"/>
+        <v>38</v>
+      </c>
       <c r="H2350" s="2">
-        <f t="shared" ref="H2350:H2371" si="116">SUM(I2350-I2320)</f>
+        <f t="shared" ref="H2350:H2371" si="120">SUM(I2350-I2320)</f>
         <v>0</v>
       </c>
       <c r="K2350" s="2"/>
@@ -53238,11 +54084,15 @@
         <v>1009</v>
       </c>
       <c r="F2351" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>23</v>
       </c>
+      <c r="G2351" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2351" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2351" s="2"/>
@@ -53261,11 +54111,15 @@
         <v>963</v>
       </c>
       <c r="F2352" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>43</v>
       </c>
+      <c r="G2352" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
       <c r="H2352" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>9142</v>
       </c>
       <c r="I2352" s="2">
@@ -53285,11 +54139,15 @@
         <v>1788</v>
       </c>
       <c r="F2353" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>61</v>
       </c>
+      <c r="G2353" s="2">
+        <f t="shared" si="118"/>
+        <v>7</v>
+      </c>
       <c r="H2353" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2353" s="2"/>
@@ -53306,11 +54164,15 @@
         <v>1063</v>
       </c>
       <c r="F2354" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>36</v>
       </c>
+      <c r="G2354" s="2">
+        <f t="shared" si="118"/>
+        <v>6</v>
+      </c>
       <c r="H2354" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2354" s="2"/>
@@ -53327,11 +54189,15 @@
         <v>905</v>
       </c>
       <c r="F2355" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>27</v>
       </c>
+      <c r="G2355" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2355" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2355" s="2"/>
@@ -53348,11 +54214,15 @@
         <v>889</v>
       </c>
       <c r="F2356" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>18</v>
       </c>
+      <c r="G2356" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
       <c r="H2356" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2356" s="2"/>
@@ -53371,11 +54241,15 @@
         <v>2563</v>
       </c>
       <c r="F2357" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>40</v>
       </c>
+      <c r="G2357" s="2">
+        <f t="shared" si="118"/>
+        <v>4</v>
+      </c>
       <c r="H2357" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>301</v>
       </c>
       <c r="I2357" s="2">
@@ -53395,11 +54269,15 @@
         <v>1030</v>
       </c>
       <c r="F2358" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>-75</v>
       </c>
+      <c r="G2358" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2358" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2358" s="2"/>
@@ -53416,11 +54294,15 @@
         <v>860</v>
       </c>
       <c r="F2359" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>6</v>
       </c>
+      <c r="G2359" s="2">
+        <f t="shared" si="118"/>
+        <v>5</v>
+      </c>
       <c r="H2359" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2359" s="2"/>
@@ -53437,11 +54319,15 @@
         <v>258</v>
       </c>
       <c r="F2360" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>5</v>
       </c>
+      <c r="G2360" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
       <c r="H2360" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2360" s="2"/>
@@ -53458,11 +54344,15 @@
         <v>103</v>
       </c>
       <c r="F2361" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>5</v>
       </c>
+      <c r="G2361" s="2">
+        <f t="shared" si="118"/>
+        <v>2</v>
+      </c>
       <c r="H2361" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2361" s="2"/>
@@ -53481,11 +54371,15 @@
         <v>1540</v>
       </c>
       <c r="F2362" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>92</v>
       </c>
+      <c r="G2362" s="2">
+        <f t="shared" ref="G2362:G2425" si="121">SUM(E2362-E2332)</f>
+        <v>12</v>
+      </c>
       <c r="H2362" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>11237</v>
       </c>
       <c r="I2362" s="2">
@@ -53506,11 +54400,15 @@
         <v>780</v>
       </c>
       <c r="F2363" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>24</v>
       </c>
+      <c r="G2363" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
       <c r="H2363" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2363" s="2"/>
@@ -53527,11 +54425,15 @@
         <v>680</v>
       </c>
       <c r="F2364" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>14</v>
       </c>
+      <c r="G2364" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
       <c r="H2364" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2364" s="2"/>
@@ -53548,11 +54450,15 @@
         <v>276</v>
       </c>
       <c r="F2365" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>19</v>
       </c>
+      <c r="G2365" s="2">
+        <f t="shared" si="121"/>
+        <v>3</v>
+      </c>
       <c r="H2365" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2365" s="2"/>
@@ -53569,11 +54475,15 @@
         <v>342</v>
       </c>
       <c r="F2366" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>9</v>
       </c>
+      <c r="G2366" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
       <c r="H2366" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2366" s="2"/>
@@ -53592,11 +54502,15 @@
         <v>3027</v>
       </c>
       <c r="F2367" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>1078</v>
       </c>
+      <c r="G2367" s="2">
+        <f t="shared" si="121"/>
+        <v>36</v>
+      </c>
       <c r="H2367" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>81172</v>
       </c>
       <c r="I2367" s="2">
@@ -53616,11 +54530,15 @@
         <v>331</v>
       </c>
       <c r="F2368" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>238</v>
       </c>
+      <c r="G2368" s="2">
+        <f t="shared" si="121"/>
+        <v>4</v>
+      </c>
       <c r="H2368" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2368" s="2"/>
@@ -53637,11 +54555,15 @@
         <v>408</v>
       </c>
       <c r="F2369" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>551</v>
       </c>
+      <c r="G2369" s="2">
+        <f t="shared" si="121"/>
+        <v>9</v>
+      </c>
       <c r="H2369" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2369" s="2"/>
@@ -53657,11 +54579,15 @@
         <v>152</v>
       </c>
       <c r="F2370" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>74</v>
       </c>
+      <c r="G2370" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
       <c r="H2370" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2370" s="2"/>
@@ -53677,11 +54603,15 @@
         <v>250</v>
       </c>
       <c r="F2371" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>319</v>
       </c>
+      <c r="G2371" s="2">
+        <f t="shared" si="121"/>
+        <v>6</v>
+      </c>
       <c r="H2371" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>0</v>
       </c>
       <c r="K2371" s="2"/>
@@ -53702,7 +54632,15 @@
       <c r="E2372" s="2">
         <v>4007</v>
       </c>
-      <c r="H2372" s="2">
+      <c r="F2372" s="2">
+        <f>SUM(D2372-D2342)</f>
+        <v>112</v>
+      </c>
+      <c r="G2372" s="2">
+        <f t="shared" si="121"/>
+        <v>5</v>
+      </c>
+      <c r="I2372" s="2">
         <v>3258963</v>
       </c>
       <c r="K2372" s="2"/>
@@ -53718,6 +54656,14 @@
       <c r="E2373" s="2">
         <v>4506</v>
       </c>
+      <c r="F2373" s="2">
+        <f t="shared" ref="F2373:F2436" si="122">SUM(D2373-D2343)</f>
+        <v>132</v>
+      </c>
+      <c r="G2373" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
       <c r="K2373" s="2"/>
     </row>
     <row r="2374" spans="1:11" x14ac:dyDescent="0.2">
@@ -53731,6 +54677,14 @@
       <c r="E2374" s="2">
         <v>2680</v>
       </c>
+      <c r="F2374" s="2">
+        <f t="shared" si="122"/>
+        <v>38</v>
+      </c>
+      <c r="G2374" s="2">
+        <f t="shared" si="121"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2375" s="3"/>
@@ -53743,6 +54697,14 @@
       <c r="E2375" s="2">
         <v>3027</v>
       </c>
+      <c r="F2375" s="2">
+        <f t="shared" si="122"/>
+        <v>85</v>
+      </c>
+      <c r="G2375" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2376" s="3"/>
@@ -53755,6 +54717,14 @@
       <c r="E2376" s="2">
         <v>2011</v>
       </c>
+      <c r="F2376" s="2">
+        <f t="shared" si="122"/>
+        <v>54</v>
+      </c>
+      <c r="G2376" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2377" s="3" t="s">
@@ -53769,7 +54739,15 @@
       <c r="E2377" s="2">
         <v>1691</v>
       </c>
-      <c r="H2377" s="2">
+      <c r="F2377" s="2">
+        <f t="shared" si="122"/>
+        <v>18</v>
+      </c>
+      <c r="G2377" s="2">
+        <f t="shared" si="121"/>
+        <v>7</v>
+      </c>
+      <c r="I2377" s="2">
         <v>1194343</v>
       </c>
     </row>
@@ -53784,6 +54762,14 @@
       <c r="E2378" s="2">
         <v>1261</v>
       </c>
+      <c r="F2378" s="2">
+        <f t="shared" si="122"/>
+        <v>8</v>
+      </c>
+      <c r="G2378" s="2">
+        <f t="shared" si="121"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="2379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2379" s="3"/>
@@ -53796,6 +54782,14 @@
       <c r="E2379" s="2">
         <v>1758</v>
       </c>
+      <c r="F2379" s="2">
+        <f t="shared" si="122"/>
+        <v>34</v>
+      </c>
+      <c r="G2379" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2380" s="3"/>
@@ -53808,6 +54802,14 @@
       <c r="E2380" s="2">
         <v>1131</v>
       </c>
+      <c r="F2380" s="2">
+        <f t="shared" si="122"/>
+        <v>-13</v>
+      </c>
+      <c r="G2380" s="2">
+        <f t="shared" si="121"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="2381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2381" s="3"/>
@@ -53820,6 +54822,14 @@
       <c r="E2381" s="2">
         <v>1013</v>
       </c>
+      <c r="F2381" s="2">
+        <f t="shared" si="122"/>
+        <v>19</v>
+      </c>
+      <c r="G2381" s="2">
+        <f t="shared" si="121"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="2382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2382" s="3" t="s">
@@ -53834,7 +54844,15 @@
       <c r="E2382" s="2">
         <v>971</v>
       </c>
-      <c r="H2382" s="2">
+      <c r="F2382" s="2">
+        <f t="shared" si="122"/>
+        <v>16</v>
+      </c>
+      <c r="G2382" s="2">
+        <f t="shared" si="121"/>
+        <v>8</v>
+      </c>
+      <c r="I2382" s="2">
         <v>746162</v>
       </c>
     </row>
@@ -53849,6 +54867,14 @@
       <c r="E2383" s="2">
         <v>1791</v>
       </c>
+      <c r="F2383" s="2">
+        <f t="shared" si="122"/>
+        <v>57</v>
+      </c>
+      <c r="G2383" s="2">
+        <f t="shared" si="121"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2384" s="3"/>
@@ -53861,8 +54887,16 @@
       <c r="E2384" s="2">
         <v>1065</v>
       </c>
-    </row>
-    <row r="2385" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2384" s="2">
+        <f t="shared" si="122"/>
+        <v>39</v>
+      </c>
+      <c r="G2384" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2385" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2385" s="3"/>
       <c r="C2385" s="3" t="s">
         <v>33</v>
@@ -53873,8 +54907,16 @@
       <c r="E2385" s="2">
         <v>907</v>
       </c>
-    </row>
-    <row r="2386" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2385" s="2">
+        <f t="shared" si="122"/>
+        <v>27</v>
+      </c>
+      <c r="G2385" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2386" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2386" s="3"/>
       <c r="C2386" s="3" t="s">
         <v>34</v>
@@ -53885,8 +54927,16 @@
       <c r="E2386" s="2">
         <v>893</v>
       </c>
-    </row>
-    <row r="2387" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2386" s="2">
+        <f t="shared" si="122"/>
+        <v>35</v>
+      </c>
+      <c r="G2386" s="2">
+        <f t="shared" si="121"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2387" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2387" s="3" t="s">
         <v>23</v>
       </c>
@@ -53899,11 +54949,19 @@
       <c r="E2387" s="2">
         <v>2563</v>
       </c>
-      <c r="H2387" s="2">
+      <c r="F2387" s="2">
+        <f t="shared" si="122"/>
+        <v>40</v>
+      </c>
+      <c r="G2387" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="I2387" s="2">
         <v>879928</v>
       </c>
     </row>
-    <row r="2388" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2388" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2388" s="3"/>
       <c r="C2388" s="3" t="s">
         <v>25</v>
@@ -53914,8 +54972,16 @@
       <c r="E2388" s="2">
         <v>1030</v>
       </c>
-    </row>
-    <row r="2389" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2388" s="2">
+        <f t="shared" si="122"/>
+        <v>12</v>
+      </c>
+      <c r="G2388" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2389" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2389" s="3"/>
       <c r="C2389" s="3" t="s">
         <v>28</v>
@@ -53926,8 +54992,16 @@
       <c r="E2389" s="2">
         <v>860</v>
       </c>
-    </row>
-    <row r="2390" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2389" s="2">
+        <f t="shared" si="122"/>
+        <v>12</v>
+      </c>
+      <c r="G2389" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2390" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2390" s="3"/>
       <c r="C2390" s="3" t="s">
         <v>38</v>
@@ -53938,8 +55012,16 @@
       <c r="E2390" s="2">
         <v>258</v>
       </c>
-    </row>
-    <row r="2391" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2390" s="2">
+        <f t="shared" si="122"/>
+        <v>9</v>
+      </c>
+      <c r="G2390" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2391" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2391" s="3"/>
       <c r="C2391" s="3" t="s">
         <v>39</v>
@@ -53950,8 +55032,16 @@
       <c r="E2391" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="2392" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2391" s="2">
+        <f t="shared" si="122"/>
+        <v>3</v>
+      </c>
+      <c r="G2391" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2392" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2392" s="3" t="s">
         <v>16</v>
       </c>
@@ -53964,12 +55054,20 @@
       <c r="E2392" s="2">
         <v>1550</v>
       </c>
-      <c r="H2392" s="2">
+      <c r="F2392" s="2">
+        <f t="shared" si="122"/>
+        <v>128</v>
+      </c>
+      <c r="G2392" s="2">
+        <f t="shared" si="121"/>
+        <v>10</v>
+      </c>
+      <c r="I2392" s="2">
         <f>SUM(80762+556456)</f>
         <v>637218</v>
       </c>
     </row>
-    <row r="2393" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2393" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2393" s="3"/>
       <c r="C2393" s="3" t="s">
         <v>18</v>
@@ -53980,8 +55078,16 @@
       <c r="E2393" s="2">
         <v>780</v>
       </c>
-    </row>
-    <row r="2394" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2393" s="2">
+        <f t="shared" si="122"/>
+        <v>32</v>
+      </c>
+      <c r="G2393" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2394" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2394" s="3"/>
       <c r="C2394" s="3" t="s">
         <v>19</v>
@@ -53992,8 +55098,16 @@
       <c r="E2394" s="2">
         <v>681</v>
       </c>
-    </row>
-    <row r="2395" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2394" s="2">
+        <f t="shared" si="122"/>
+        <v>22</v>
+      </c>
+      <c r="G2394" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2395" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2395" s="3"/>
       <c r="C2395" s="3" t="s">
         <v>40</v>
@@ -54004,8 +55118,16 @@
       <c r="E2395" s="2">
         <v>277</v>
       </c>
-    </row>
-    <row r="2396" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2395" s="2">
+        <f t="shared" si="122"/>
+        <v>27</v>
+      </c>
+      <c r="G2395" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2396" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2396" s="3"/>
       <c r="C2396" s="3" t="s">
         <v>41</v>
@@ -54016,8 +55138,16 @@
       <c r="E2396" s="2">
         <v>343</v>
       </c>
-    </row>
-    <row r="2397" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2396" s="2">
+        <f t="shared" si="122"/>
+        <v>15</v>
+      </c>
+      <c r="G2396" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2397" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2397" s="3" t="s">
         <v>20</v>
       </c>
@@ -54030,11 +55160,19 @@
       <c r="E2397" s="2">
         <v>3063</v>
       </c>
-      <c r="H2397" s="2">
+      <c r="F2397" s="2">
+        <f t="shared" si="122"/>
+        <v>1328</v>
+      </c>
+      <c r="G2397" s="2">
+        <f t="shared" si="121"/>
+        <v>36</v>
+      </c>
+      <c r="I2397" s="2">
         <v>3234412</v>
       </c>
     </row>
-    <row r="2398" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2398" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2398" s="3"/>
       <c r="C2398" s="3" t="s">
         <v>26</v>
@@ -54045,8 +55183,16 @@
       <c r="E2398" s="2">
         <v>332</v>
       </c>
-    </row>
-    <row r="2399" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2398" s="2">
+        <f t="shared" si="122"/>
+        <v>258</v>
+      </c>
+      <c r="G2398" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2399" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2399" s="3"/>
       <c r="C2399" s="3" t="s">
         <v>27</v>
@@ -54057,8 +55203,16 @@
       <c r="E2399" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="2400" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2399" s="2">
+        <f t="shared" si="122"/>
+        <v>300</v>
+      </c>
+      <c r="G2399" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2400" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2400" s="3" t="s">
         <v>42</v>
       </c>
@@ -54068,8 +55222,16 @@
       <c r="E2400" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="2401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2400" s="2">
+        <f t="shared" si="122"/>
+        <v>38</v>
+      </c>
+      <c r="G2400" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2401" s="3" t="s">
         <v>43</v>
       </c>
@@ -54079,8 +55241,16 @@
       <c r="E2401" s="2">
         <v>257</v>
       </c>
-    </row>
-    <row r="2402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2401" s="2">
+        <f t="shared" si="122"/>
+        <v>375</v>
+      </c>
+      <c r="G2401" s="2">
+        <f t="shared" si="121"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2402" s="1">
         <v>44002</v>
       </c>
@@ -54096,11 +55266,19 @@
       <c r="E2402" s="2">
         <v>4009</v>
       </c>
-      <c r="H2402" s="2">
+      <c r="F2402" s="2">
+        <f t="shared" si="122"/>
+        <v>106</v>
+      </c>
+      <c r="G2402" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+      <c r="I2402" s="2">
         <v>3327793</v>
       </c>
     </row>
-    <row r="2403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2403" s="3"/>
       <c r="C2403" s="3" t="s">
         <v>7</v>
@@ -54111,8 +55289,16 @@
       <c r="E2403" s="2">
         <v>4508</v>
       </c>
-    </row>
-    <row r="2404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2403" s="2">
+        <f t="shared" si="122"/>
+        <v>127</v>
+      </c>
+      <c r="G2403" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2404" s="3"/>
       <c r="C2404" s="3" t="s">
         <v>8</v>
@@ -54123,8 +55309,16 @@
       <c r="E2404" s="2">
         <v>2680</v>
       </c>
-    </row>
-    <row r="2405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2404" s="2">
+        <f t="shared" si="122"/>
+        <v>56</v>
+      </c>
+      <c r="G2404" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2405" s="3"/>
       <c r="C2405" s="3" t="s">
         <v>35</v>
@@ -54135,8 +55329,16 @@
       <c r="E2405" s="2">
         <v>3028</v>
       </c>
-    </row>
-    <row r="2406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2405" s="2">
+        <f t="shared" si="122"/>
+        <v>64</v>
+      </c>
+      <c r="G2405" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2406" s="3"/>
       <c r="C2406" s="3" t="s">
         <v>14</v>
@@ -54147,8 +55349,16 @@
       <c r="E2406" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="2407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2406" s="2">
+        <f t="shared" si="122"/>
+        <v>44</v>
+      </c>
+      <c r="G2406" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2407" s="3" t="s">
         <v>9</v>
       </c>
@@ -54161,11 +55371,19 @@
       <c r="E2407" s="2">
         <v>1693</v>
       </c>
-      <c r="H2407" s="2">
+      <c r="F2407" s="2">
+        <f t="shared" si="122"/>
+        <v>29</v>
+      </c>
+      <c r="G2407" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+      <c r="I2407" s="2">
         <v>1218873</v>
       </c>
     </row>
-    <row r="2408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2408" s="3"/>
       <c r="C2408" s="3" t="s">
         <v>11</v>
@@ -54176,8 +55394,16 @@
       <c r="E2408" s="2">
         <v>1261</v>
       </c>
-    </row>
-    <row r="2409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2408" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="G2408" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2409" s="3"/>
       <c r="C2409" s="3" t="s">
         <v>12</v>
@@ -54188,8 +55414,16 @@
       <c r="E2409" s="2">
         <v>1759</v>
       </c>
-    </row>
-    <row r="2410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2409" s="2">
+        <f t="shared" si="122"/>
+        <v>-18</v>
+      </c>
+      <c r="G2409" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2410" s="3"/>
       <c r="C2410" s="3" t="s">
         <v>36</v>
@@ -54200,8 +55434,16 @@
       <c r="E2410" s="2">
         <v>1135</v>
       </c>
-    </row>
-    <row r="2411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2410" s="2">
+        <f t="shared" si="122"/>
+        <v>7</v>
+      </c>
+      <c r="G2410" s="2">
+        <f t="shared" si="121"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2411" s="3"/>
       <c r="C2411" s="3" t="s">
         <v>37</v>
@@ -54212,8 +55454,16 @@
       <c r="E2411" s="2">
         <v>1013</v>
       </c>
-    </row>
-    <row r="2412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2411" s="2">
+        <f t="shared" si="122"/>
+        <v>10</v>
+      </c>
+      <c r="G2411" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2412" s="3" t="s">
         <v>13</v>
       </c>
@@ -54226,11 +55476,19 @@
       <c r="E2412" s="2">
         <v>973</v>
       </c>
-      <c r="H2412" s="2">
+      <c r="F2412" s="2">
+        <f t="shared" si="122"/>
+        <v>35</v>
+      </c>
+      <c r="G2412" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+      <c r="I2412" s="2">
         <v>760229</v>
       </c>
     </row>
-    <row r="2413" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2413" s="3"/>
       <c r="C2413" s="3" t="s">
         <v>15</v>
@@ -54241,8 +55499,16 @@
       <c r="E2413" s="2">
         <v>1801</v>
       </c>
-    </row>
-    <row r="2414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2413" s="2">
+        <f t="shared" si="122"/>
+        <v>80</v>
+      </c>
+      <c r="G2413" s="2">
+        <f t="shared" si="121"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2414" s="3"/>
       <c r="C2414" s="3" t="s">
         <v>12</v>
@@ -54253,8 +55519,16 @@
       <c r="E2414" s="2">
         <v>1071</v>
       </c>
-    </row>
-    <row r="2415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2414" s="2">
+        <f t="shared" si="122"/>
+        <v>39</v>
+      </c>
+      <c r="G2414" s="2">
+        <f t="shared" si="121"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2415" s="3"/>
       <c r="C2415" s="3" t="s">
         <v>33</v>
@@ -54265,8 +55539,16 @@
       <c r="E2415" s="2">
         <v>908</v>
       </c>
-    </row>
-    <row r="2416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2415" s="2">
+        <f t="shared" si="122"/>
+        <v>21</v>
+      </c>
+      <c r="G2415" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2416" s="3"/>
       <c r="C2416" s="3" t="s">
         <v>34</v>
@@ -54277,8 +55559,16 @@
       <c r="E2416" s="2">
         <v>897</v>
       </c>
-    </row>
-    <row r="2417" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2416" s="2">
+        <f t="shared" si="122"/>
+        <v>37</v>
+      </c>
+      <c r="G2416" s="2">
+        <f t="shared" si="121"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2417" s="3" t="s">
         <v>23</v>
       </c>
@@ -54291,11 +55581,19 @@
       <c r="E2417" s="2">
         <v>2569</v>
       </c>
-      <c r="H2417" s="2">
+      <c r="F2417" s="2">
+        <f t="shared" si="122"/>
+        <v>75</v>
+      </c>
+      <c r="G2417" s="2">
+        <f t="shared" si="121"/>
+        <v>6</v>
+      </c>
+      <c r="I2417" s="2">
         <v>894634</v>
       </c>
     </row>
-    <row r="2418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2418" s="3"/>
       <c r="C2418" s="3" t="s">
         <v>25</v>
@@ -54306,8 +55604,16 @@
       <c r="E2418" s="2">
         <v>1035</v>
       </c>
-    </row>
-    <row r="2419" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2418" s="2">
+        <f t="shared" si="122"/>
+        <v>19</v>
+      </c>
+      <c r="G2418" s="2">
+        <f t="shared" si="121"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2419" s="3"/>
       <c r="C2419" s="3" t="s">
         <v>28</v>
@@ -54318,8 +55624,16 @@
       <c r="E2419" s="2">
         <v>862</v>
       </c>
-    </row>
-    <row r="2420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2419" s="2">
+        <f t="shared" si="122"/>
+        <v>17</v>
+      </c>
+      <c r="G2419" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2420" s="3"/>
       <c r="C2420" s="3" t="s">
         <v>38</v>
@@ -54330,8 +55644,16 @@
       <c r="E2420" s="2">
         <v>259</v>
       </c>
-    </row>
-    <row r="2421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2420" s="2">
+        <f t="shared" si="122"/>
+        <v>4</v>
+      </c>
+      <c r="G2420" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2421" s="3"/>
       <c r="C2421" s="3" t="s">
         <v>39</v>
@@ -54342,8 +55664,16 @@
       <c r="E2421" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="2422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2421" s="2">
+        <f t="shared" si="122"/>
+        <v>7</v>
+      </c>
+      <c r="G2421" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2422" s="3" t="s">
         <v>16</v>
       </c>
@@ -54356,12 +55686,20 @@
       <c r="E2422" s="2">
         <v>1552</v>
       </c>
-      <c r="H2422" s="2">
+      <c r="F2422" s="2">
+        <f t="shared" si="122"/>
+        <v>113</v>
+      </c>
+      <c r="G2422" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+      <c r="I2422" s="2">
         <f>SUM(81266+556461)</f>
         <v>637727</v>
       </c>
     </row>
-    <row r="2423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2423" s="3"/>
       <c r="C2423" s="3" t="s">
         <v>18</v>
@@ -54372,8 +55710,16 @@
       <c r="E2423" s="2">
         <v>783</v>
       </c>
-    </row>
-    <row r="2424" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2423" s="2">
+        <f t="shared" si="122"/>
+        <v>30</v>
+      </c>
+      <c r="G2423" s="2">
+        <f t="shared" si="121"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2424" s="3"/>
       <c r="C2424" s="3" t="s">
         <v>19</v>
@@ -54384,8 +55730,16 @@
       <c r="E2424" s="2">
         <v>683</v>
       </c>
-    </row>
-    <row r="2425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2424" s="2">
+        <f t="shared" si="122"/>
+        <v>20</v>
+      </c>
+      <c r="G2424" s="2">
+        <f t="shared" si="121"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2425" s="3"/>
       <c r="C2425" s="3" t="s">
         <v>40</v>
@@ -54396,8 +55750,16 @@
       <c r="E2425" s="2">
         <v>278</v>
       </c>
-    </row>
-    <row r="2426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2425" s="2">
+        <f t="shared" si="122"/>
+        <v>48</v>
+      </c>
+      <c r="G2425" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2426" s="3"/>
       <c r="C2426" s="3" t="s">
         <v>41</v>
@@ -54408,8 +55770,16 @@
       <c r="E2426" s="2">
         <v>344</v>
       </c>
-    </row>
-    <row r="2427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2426" s="2">
+        <f t="shared" si="122"/>
+        <v>14</v>
+      </c>
+      <c r="G2426" s="2">
+        <f t="shared" ref="G2426:G2489" si="123">SUM(E2426-E2396)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2427" s="3" t="s">
         <v>20</v>
       </c>
@@ -54422,11 +55792,19 @@
       <c r="E2427" s="2">
         <v>3110</v>
       </c>
-      <c r="H2427" s="2">
+      <c r="F2427" s="2">
+        <f t="shared" si="122"/>
+        <v>2032</v>
+      </c>
+      <c r="G2427" s="2">
+        <f t="shared" si="123"/>
+        <v>47</v>
+      </c>
+      <c r="I2427" s="2">
         <v>3319256</v>
       </c>
     </row>
-    <row r="2428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2428" s="3"/>
       <c r="C2428" s="3" t="s">
         <v>26</v>
@@ -54437,8 +55815,16 @@
       <c r="E2428" s="2">
         <v>338</v>
       </c>
-    </row>
-    <row r="2429" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2428" s="2">
+        <f t="shared" si="122"/>
+        <v>134</v>
+      </c>
+      <c r="G2428" s="2">
+        <f t="shared" si="123"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2429" s="3"/>
       <c r="C2429" s="3" t="s">
         <v>27</v>
@@ -54449,8 +55835,16 @@
       <c r="E2429" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="2430" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2429" s="2">
+        <f t="shared" si="122"/>
+        <v>311</v>
+      </c>
+      <c r="G2429" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2430" s="3" t="s">
         <v>42</v>
       </c>
@@ -54460,8 +55854,16 @@
       <c r="E2430" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="2431" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2430" s="2">
+        <f t="shared" si="122"/>
+        <v>59</v>
+      </c>
+      <c r="G2430" s="2">
+        <f t="shared" si="123"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2431" s="3" t="s">
         <v>43</v>
       </c>
@@ -54471,8 +55873,16 @@
       <c r="E2431" s="2">
         <v>267</v>
       </c>
-    </row>
-    <row r="2432" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2431" s="2">
+        <f t="shared" si="122"/>
+        <v>312</v>
+      </c>
+      <c r="G2431" s="2">
+        <f t="shared" si="123"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2432" s="1">
         <v>44003</v>
       </c>
@@ -54488,11 +55898,19 @@
       <c r="E2432" s="2">
         <v>4011</v>
       </c>
-      <c r="H2432" s="2">
+      <c r="F2432" s="2">
+        <f t="shared" si="122"/>
+        <v>135</v>
+      </c>
+      <c r="G2432" s="2">
+        <f t="shared" si="123"/>
+        <v>2</v>
+      </c>
+      <c r="I2432" s="2">
         <v>3395319</v>
       </c>
     </row>
-    <row r="2433" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2433" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2433" s="3"/>
       <c r="C2433" s="3" t="s">
         <v>7</v>
@@ -54503,8 +55921,16 @@
       <c r="E2433" s="2">
         <v>4508</v>
       </c>
-    </row>
-    <row r="2434" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2433" s="2">
+        <f t="shared" si="122"/>
+        <v>113</v>
+      </c>
+      <c r="G2433" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2434" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2434" s="3"/>
       <c r="C2434" s="3" t="s">
         <v>8</v>
@@ -54515,8 +55941,16 @@
       <c r="E2434" s="2">
         <v>2683</v>
       </c>
-    </row>
-    <row r="2435" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2434" s="2">
+        <f t="shared" si="122"/>
+        <v>36</v>
+      </c>
+      <c r="G2434" s="2">
+        <f t="shared" si="123"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2435" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2435" s="3"/>
       <c r="C2435" s="3" t="s">
         <v>35</v>
@@ -54527,8 +55961,16 @@
       <c r="E2435" s="2">
         <v>3029</v>
       </c>
-    </row>
-    <row r="2436" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2435" s="2">
+        <f t="shared" si="122"/>
+        <v>48</v>
+      </c>
+      <c r="G2435" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2436" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2436" s="3"/>
       <c r="C2436" s="3" t="s">
         <v>14</v>
@@ -54539,8 +55981,16 @@
       <c r="E2436" s="2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="2437" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2436" s="2">
+        <f t="shared" si="122"/>
+        <v>64</v>
+      </c>
+      <c r="G2436" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2437" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2437" s="3" t="s">
         <v>9</v>
       </c>
@@ -54553,11 +56003,19 @@
       <c r="E2437" s="2">
         <v>1696</v>
       </c>
-      <c r="H2437" s="2">
+      <c r="F2437" s="2">
+        <f t="shared" ref="F2437:F2500" si="124">SUM(D2437-D2407)</f>
+        <v>23</v>
+      </c>
+      <c r="G2437" s="2">
+        <f t="shared" si="123"/>
+        <v>3</v>
+      </c>
+      <c r="I2437" s="2">
         <v>1244967</v>
       </c>
     </row>
-    <row r="2438" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2438" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2438" s="3"/>
       <c r="C2438" s="3" t="s">
         <v>11</v>
@@ -54568,8 +56026,16 @@
       <c r="E2438" s="2">
         <v>1262</v>
       </c>
-    </row>
-    <row r="2439" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2438" s="2">
+        <f t="shared" si="124"/>
+        <v>-31</v>
+      </c>
+      <c r="G2438" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2439" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2439" s="3"/>
       <c r="C2439" s="3" t="s">
         <v>12</v>
@@ -54580,8 +56046,16 @@
       <c r="E2439" s="2">
         <v>1760</v>
       </c>
-    </row>
-    <row r="2440" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2439" s="2">
+        <f t="shared" si="124"/>
+        <v>36</v>
+      </c>
+      <c r="G2439" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2440" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2440" s="3"/>
       <c r="C2440" s="3" t="s">
         <v>36</v>
@@ -54592,8 +56066,16 @@
       <c r="E2440" s="2">
         <v>1135</v>
       </c>
-    </row>
-    <row r="2441" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2440" s="2">
+        <f t="shared" si="124"/>
+        <v>24</v>
+      </c>
+      <c r="G2440" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2441" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2441" s="3"/>
       <c r="C2441" s="3" t="s">
         <v>37</v>
@@ -54604,8 +56086,16 @@
       <c r="E2441" s="2">
         <v>1014</v>
       </c>
-    </row>
-    <row r="2442" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2441" s="2">
+        <f t="shared" si="124"/>
+        <v>34</v>
+      </c>
+      <c r="G2441" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2442" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2442" s="3" t="s">
         <v>13</v>
       </c>
@@ -54618,11 +56108,19 @@
       <c r="E2442" s="2">
         <v>978</v>
       </c>
-      <c r="H2442" s="2">
+      <c r="F2442" s="2">
+        <f t="shared" si="124"/>
+        <v>23</v>
+      </c>
+      <c r="G2442" s="2">
+        <f t="shared" si="123"/>
+        <v>5</v>
+      </c>
+      <c r="I2442" s="2">
         <v>768592</v>
       </c>
     </row>
-    <row r="2443" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2443" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2443" s="3"/>
       <c r="C2443" s="3" t="s">
         <v>15</v>
@@ -54633,8 +56131,16 @@
       <c r="E2443" s="2">
         <v>1807</v>
       </c>
-    </row>
-    <row r="2444" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2443" s="2">
+        <f t="shared" si="124"/>
+        <v>30</v>
+      </c>
+      <c r="G2443" s="2">
+        <f t="shared" si="123"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2444" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2444" s="3"/>
       <c r="C2444" s="3" t="s">
         <v>12</v>
@@ -54645,8 +56151,16 @@
       <c r="E2444" s="2">
         <v>1076</v>
       </c>
-    </row>
-    <row r="2445" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2444" s="2">
+        <f t="shared" si="124"/>
+        <v>12</v>
+      </c>
+      <c r="G2444" s="2">
+        <f t="shared" si="123"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2445" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2445" s="3"/>
       <c r="C2445" s="3" t="s">
         <v>33</v>
@@ -54657,8 +56171,16 @@
       <c r="E2445" s="2">
         <v>912</v>
       </c>
-    </row>
-    <row r="2446" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2445" s="2">
+        <f t="shared" si="124"/>
+        <v>11</v>
+      </c>
+      <c r="G2445" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2446" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2446" s="3"/>
       <c r="C2446" s="3" t="s">
         <v>34</v>
@@ -54669,8 +56191,16 @@
       <c r="E2446" s="2">
         <v>900</v>
       </c>
-    </row>
-    <row r="2447" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2446" s="2">
+        <f t="shared" si="124"/>
+        <v>8</v>
+      </c>
+      <c r="G2446" s="2">
+        <f t="shared" si="123"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2447" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2447" s="3" t="s">
         <v>23</v>
       </c>
@@ -54683,11 +56213,19 @@
       <c r="E2447" s="2">
         <v>2569</v>
       </c>
-      <c r="H2447" s="2">
+      <c r="F2447" s="2">
+        <f t="shared" si="124"/>
+        <v>43</v>
+      </c>
+      <c r="G2447" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="I2447" s="2">
         <v>907426</v>
       </c>
     </row>
-    <row r="2448" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2448" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2448" s="3"/>
       <c r="C2448" s="3" t="s">
         <v>25</v>
@@ -54698,8 +56236,16 @@
       <c r="E2448" s="2">
         <v>1036</v>
       </c>
-    </row>
-    <row r="2449" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2448" s="2">
+        <f t="shared" si="124"/>
+        <v>19</v>
+      </c>
+      <c r="G2448" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2449" s="3"/>
       <c r="C2449" s="3" t="s">
         <v>28</v>
@@ -54710,8 +56256,16 @@
       <c r="E2449" s="2">
         <v>862</v>
       </c>
-    </row>
-    <row r="2450" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2449" s="2">
+        <f t="shared" si="124"/>
+        <v>6</v>
+      </c>
+      <c r="G2449" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2450" s="3"/>
       <c r="C2450" s="3" t="s">
         <v>38</v>
@@ -54722,8 +56276,16 @@
       <c r="E2450" s="2">
         <v>259</v>
       </c>
-    </row>
-    <row r="2451" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2450" s="2">
+        <f t="shared" si="124"/>
+        <v>2</v>
+      </c>
+      <c r="G2450" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2451" s="3"/>
       <c r="C2451" s="3" t="s">
         <v>39</v>
@@ -54734,12 +56296,20 @@
       <c r="E2451" s="2">
         <v>103</v>
       </c>
-      <c r="H2451" s="2">
+      <c r="F2451" s="2">
+        <f t="shared" si="124"/>
+        <v>4</v>
+      </c>
+      <c r="G2451" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="I2451" s="2">
         <f>SUM(81266+556461)</f>
         <v>637727</v>
       </c>
     </row>
-    <row r="2452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2452" s="3" t="s">
         <v>16</v>
       </c>
@@ -54752,8 +56322,16 @@
       <c r="E2452" s="2">
         <v>1553</v>
       </c>
-    </row>
-    <row r="2453" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2452" s="2">
+        <f t="shared" si="124"/>
+        <v>119</v>
+      </c>
+      <c r="G2452" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2453" s="3"/>
       <c r="C2453" s="3" t="s">
         <v>18</v>
@@ -54764,8 +56342,16 @@
       <c r="E2453" s="2">
         <v>784</v>
       </c>
-    </row>
-    <row r="2454" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2453" s="2">
+        <f t="shared" si="124"/>
+        <v>27</v>
+      </c>
+      <c r="G2453" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2454" s="3"/>
       <c r="C2454" s="3" t="s">
         <v>19</v>
@@ -54776,8 +56362,16 @@
       <c r="E2454" s="2">
         <v>684</v>
       </c>
-    </row>
-    <row r="2455" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2454" s="2">
+        <f t="shared" si="124"/>
+        <v>15</v>
+      </c>
+      <c r="G2454" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2455" s="3"/>
       <c r="C2455" s="3" t="s">
         <v>40</v>
@@ -54788,8 +56382,16 @@
       <c r="E2455" s="2">
         <v>278</v>
       </c>
-    </row>
-    <row r="2456" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2455" s="2">
+        <f t="shared" si="124"/>
+        <v>13</v>
+      </c>
+      <c r="G2455" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2456" s="3"/>
       <c r="C2456" s="3" t="s">
         <v>41</v>
@@ -54800,8 +56402,16 @@
       <c r="E2456" s="2">
         <v>344</v>
       </c>
-    </row>
-    <row r="2457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2456" s="2">
+        <f t="shared" si="124"/>
+        <v>19</v>
+      </c>
+      <c r="G2456" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2457" s="3" t="s">
         <v>20</v>
       </c>
@@ -54814,11 +56424,19 @@
       <c r="E2457" s="2">
         <v>3120</v>
       </c>
-      <c r="H2457" s="2">
+      <c r="F2457" s="2">
+        <f t="shared" si="124"/>
+        <v>1779</v>
+      </c>
+      <c r="G2457" s="2">
+        <f t="shared" si="123"/>
+        <v>10</v>
+      </c>
+      <c r="I2457" s="2">
         <v>3411686</v>
       </c>
     </row>
-    <row r="2458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2458" s="3"/>
       <c r="C2458" s="3" t="s">
         <v>26</v>
@@ -54829,8 +56447,16 @@
       <c r="E2458" s="2">
         <v>338</v>
       </c>
-    </row>
-    <row r="2459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2458" s="2">
+        <f t="shared" si="124"/>
+        <v>310</v>
+      </c>
+      <c r="G2458" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2459" s="3"/>
       <c r="C2459" s="3" t="s">
         <v>27</v>
@@ -54841,8 +56467,16 @@
       <c r="E2459" s="2">
         <v>410</v>
       </c>
-    </row>
-    <row r="2460" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2459" s="2">
+        <f t="shared" si="124"/>
+        <v>507</v>
+      </c>
+      <c r="G2459" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2460" s="3" t="s">
         <v>42</v>
       </c>
@@ -54852,8 +56486,16 @@
       <c r="E2460" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="2461" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2460" s="2">
+        <f t="shared" si="124"/>
+        <v>79</v>
+      </c>
+      <c r="G2460" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2461" s="3" t="s">
         <v>43</v>
       </c>
@@ -54863,8 +56505,16 @@
       <c r="E2461" s="2">
         <v>269</v>
       </c>
-    </row>
-    <row r="2462" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2461" s="2">
+        <f t="shared" si="124"/>
+        <v>279</v>
+      </c>
+      <c r="G2461" s="2">
+        <f t="shared" si="123"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2462" s="1">
         <v>44004</v>
       </c>
@@ -54880,11 +56530,19 @@
       <c r="E2462" s="2">
         <v>4011</v>
       </c>
-      <c r="H2462" s="2">
+      <c r="F2462" s="2">
+        <f t="shared" si="124"/>
+        <v>91</v>
+      </c>
+      <c r="G2462" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="I2462" s="2">
         <v>3452099</v>
       </c>
     </row>
-    <row r="2463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2463" s="3"/>
       <c r="C2463" s="3" t="s">
         <v>7</v>
@@ -54895,8 +56553,16 @@
       <c r="E2463" s="2">
         <v>4513</v>
       </c>
-    </row>
-    <row r="2464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2463" s="2">
+        <f t="shared" si="124"/>
+        <v>75</v>
+      </c>
+      <c r="G2463" s="2">
+        <f t="shared" si="123"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2464" s="3"/>
       <c r="C2464" s="3" t="s">
         <v>8</v>
@@ -54907,8 +56573,16 @@
       <c r="E2464" s="2">
         <v>2683</v>
       </c>
-    </row>
-    <row r="2465" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2464" s="2">
+        <f t="shared" si="124"/>
+        <v>34</v>
+      </c>
+      <c r="G2464" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2465" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2465" s="3"/>
       <c r="C2465" s="3" t="s">
         <v>35</v>
@@ -54919,8 +56593,16 @@
       <c r="E2465" s="2">
         <v>3030</v>
       </c>
-    </row>
-    <row r="2466" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2465" s="2">
+        <f t="shared" si="124"/>
+        <v>65</v>
+      </c>
+      <c r="G2465" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2466" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2466" s="3"/>
       <c r="C2466" s="3" t="s">
         <v>14</v>
@@ -54931,8 +56613,16 @@
       <c r="E2466" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="2467" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2466" s="2">
+        <f t="shared" si="124"/>
+        <v>38</v>
+      </c>
+      <c r="G2466" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2467" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2467" s="3" t="s">
         <v>9</v>
       </c>
@@ -54945,11 +56635,19 @@
       <c r="E2467" s="2">
         <v>1701</v>
       </c>
-      <c r="H2467" s="2">
+      <c r="F2467" s="2">
+        <f t="shared" si="124"/>
+        <v>18</v>
+      </c>
+      <c r="G2467" s="2">
+        <f t="shared" si="123"/>
+        <v>5</v>
+      </c>
+      <c r="I2467" s="2">
         <v>1267399</v>
       </c>
     </row>
-    <row r="2468" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2468" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2468" s="3"/>
       <c r="C2468" s="3" t="s">
         <v>11</v>
@@ -54960,8 +56658,16 @@
       <c r="E2468" s="2">
         <v>1266</v>
       </c>
-    </row>
-    <row r="2469" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2468" s="2">
+        <f t="shared" si="124"/>
+        <v>11</v>
+      </c>
+      <c r="G2468" s="2">
+        <f t="shared" si="123"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2469" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2469" s="3"/>
       <c r="C2469" s="3" t="s">
         <v>12</v>
@@ -54972,8 +56678,16 @@
       <c r="E2469" s="2">
         <v>1761</v>
       </c>
-    </row>
-    <row r="2470" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2469" s="2">
+        <f t="shared" si="124"/>
+        <v>27</v>
+      </c>
+      <c r="G2469" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2470" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2470" s="3"/>
       <c r="C2470" s="3" t="s">
         <v>36</v>
@@ -54984,8 +56698,16 @@
       <c r="E2470" s="2">
         <v>1138</v>
       </c>
-    </row>
-    <row r="2471" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2470" s="2">
+        <f t="shared" si="124"/>
+        <v>18</v>
+      </c>
+      <c r="G2470" s="2">
+        <f t="shared" si="123"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2471" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2471" s="3"/>
       <c r="C2471" s="3" t="s">
         <v>37</v>
@@ -54996,8 +56718,16 @@
       <c r="E2471" s="2">
         <v>1015</v>
       </c>
-    </row>
-    <row r="2472" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2471" s="2">
+        <f t="shared" si="124"/>
+        <v>3</v>
+      </c>
+      <c r="G2471" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2472" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2472" s="3" t="s">
         <v>13</v>
       </c>
@@ -55010,11 +56740,19 @@
       <c r="E2472" s="2">
         <v>979</v>
       </c>
-      <c r="H2472" s="2">
+      <c r="F2472" s="2">
+        <f t="shared" si="124"/>
+        <v>16</v>
+      </c>
+      <c r="G2472" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="I2472" s="2">
         <v>775322</v>
       </c>
     </row>
-    <row r="2473" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2473" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2473" s="3"/>
       <c r="C2473" s="3" t="s">
         <v>15</v>
@@ -55025,8 +56763,16 @@
       <c r="E2473" s="2">
         <v>1809</v>
       </c>
-    </row>
-    <row r="2474" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2473" s="2">
+        <f t="shared" si="124"/>
+        <v>35</v>
+      </c>
+      <c r="G2473" s="2">
+        <f t="shared" si="123"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2474" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2474" s="3"/>
       <c r="C2474" s="3" t="s">
         <v>12</v>
@@ -55037,8 +56783,16 @@
       <c r="E2474" s="2">
         <v>1077</v>
       </c>
-    </row>
-    <row r="2475" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2474" s="2">
+        <f t="shared" si="124"/>
+        <v>22</v>
+      </c>
+      <c r="G2474" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2475" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2475" s="3"/>
       <c r="C2475" s="3" t="s">
         <v>33</v>
@@ -55049,8 +56803,16 @@
       <c r="E2475" s="2">
         <v>914</v>
       </c>
-    </row>
-    <row r="2476" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2475" s="2">
+        <f t="shared" si="124"/>
+        <v>16</v>
+      </c>
+      <c r="G2475" s="2">
+        <f t="shared" si="123"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2476" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2476" s="3"/>
       <c r="C2476" s="3" t="s">
         <v>34</v>
@@ -55061,8 +56823,16 @@
       <c r="E2476" s="2">
         <v>903</v>
       </c>
-    </row>
-    <row r="2477" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2476" s="2">
+        <f t="shared" si="124"/>
+        <v>13</v>
+      </c>
+      <c r="G2476" s="2">
+        <f t="shared" si="123"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2477" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2477" s="3" t="s">
         <v>23</v>
       </c>
@@ -55075,11 +56845,19 @@
       <c r="E2477" s="2">
         <v>2571</v>
       </c>
-      <c r="H2477" s="2">
+      <c r="F2477" s="2">
+        <f t="shared" si="124"/>
+        <v>36</v>
+      </c>
+      <c r="G2477" s="2">
+        <f t="shared" si="123"/>
+        <v>2</v>
+      </c>
+      <c r="I2477" s="2">
         <v>918017</v>
       </c>
     </row>
-    <row r="2478" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2478" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2478" s="3"/>
       <c r="C2478" s="3" t="s">
         <v>25</v>
@@ -55090,8 +56868,16 @@
       <c r="E2478" s="2">
         <v>1037</v>
       </c>
-    </row>
-    <row r="2479" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2478" s="2">
+        <f t="shared" si="124"/>
+        <v>7</v>
+      </c>
+      <c r="G2478" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2479" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2479" s="3"/>
       <c r="C2479" s="3" t="s">
         <v>28</v>
@@ -55102,8 +56888,16 @@
       <c r="E2479" s="2">
         <v>862</v>
       </c>
-    </row>
-    <row r="2480" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2479" s="2">
+        <f t="shared" si="124"/>
+        <v>5</v>
+      </c>
+      <c r="G2479" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2480" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2480" s="3"/>
       <c r="C2480" s="3" t="s">
         <v>38</v>
@@ -55114,8 +56908,16 @@
       <c r="E2480" s="2">
         <v>259</v>
       </c>
-    </row>
-    <row r="2481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2480" s="2">
+        <f t="shared" si="124"/>
+        <v>4</v>
+      </c>
+      <c r="G2480" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2481" s="3"/>
       <c r="C2481" s="3" t="s">
         <v>39</v>
@@ -55126,8 +56928,16 @@
       <c r="E2481" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="2482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2481" s="2">
+        <f t="shared" si="124"/>
+        <v>6</v>
+      </c>
+      <c r="G2481" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2482" s="3" t="s">
         <v>16</v>
       </c>
@@ -55140,12 +56950,20 @@
       <c r="E2482" s="2">
         <v>1553</v>
       </c>
-      <c r="H2482" s="2">
+      <c r="F2482" s="2">
+        <f t="shared" si="124"/>
+        <v>90</v>
+      </c>
+      <c r="G2482" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="I2482" s="2">
         <f>SUM(82186+585662)</f>
         <v>667848</v>
       </c>
     </row>
-    <row r="2483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2483" s="3"/>
       <c r="C2483" s="3" t="s">
         <v>18</v>
@@ -55156,8 +56974,16 @@
       <c r="E2483" s="2">
         <v>784</v>
       </c>
-    </row>
-    <row r="2484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2483" s="2">
+        <f t="shared" si="124"/>
+        <v>20</v>
+      </c>
+      <c r="G2483" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2484" s="3"/>
       <c r="C2484" s="3" t="s">
         <v>19</v>
@@ -55168,8 +56994,16 @@
       <c r="E2484" s="2">
         <v>684</v>
       </c>
-    </row>
-    <row r="2485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2484" s="2">
+        <f t="shared" si="124"/>
+        <v>13</v>
+      </c>
+      <c r="G2484" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2485" s="3"/>
       <c r="C2485" s="3" t="s">
         <v>40</v>
@@ -55180,8 +57014,16 @@
       <c r="E2485" s="2">
         <v>279</v>
       </c>
-    </row>
-    <row r="2486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2485" s="2">
+        <f t="shared" si="124"/>
+        <v>6</v>
+      </c>
+      <c r="G2485" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2486" s="3"/>
       <c r="C2486" s="3" t="s">
         <v>41</v>
@@ -55192,8 +57034,16 @@
       <c r="E2486" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="2487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2486" s="2">
+        <f t="shared" si="124"/>
+        <v>12</v>
+      </c>
+      <c r="G2486" s="2">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2487" s="3" t="s">
         <v>20</v>
       </c>
@@ -55206,11 +57056,19 @@
       <c r="E2487" s="2">
         <v>3138</v>
       </c>
-      <c r="H2487" s="2">
+      <c r="F2487" s="2">
+        <f t="shared" si="124"/>
+        <v>2542</v>
+      </c>
+      <c r="G2487" s="2">
+        <f t="shared" si="123"/>
+        <v>18</v>
+      </c>
+      <c r="I2487" s="2">
         <v>3496929</v>
       </c>
     </row>
-    <row r="2488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2488" s="3"/>
       <c r="C2488" s="3" t="s">
         <v>26</v>
@@ -55221,8 +57079,16 @@
       <c r="E2488" s="2">
         <v>338</v>
       </c>
-    </row>
-    <row r="2489" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2488" s="2">
+        <f t="shared" si="124"/>
+        <v>302</v>
+      </c>
+      <c r="G2488" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2489" s="3"/>
       <c r="C2489" s="3" t="s">
         <v>27</v>
@@ -55233,8 +57099,16 @@
       <c r="E2489" s="2">
         <v>424</v>
       </c>
-    </row>
-    <row r="2490" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2489" s="2">
+        <f t="shared" si="124"/>
+        <v>420</v>
+      </c>
+      <c r="G2489" s="2">
+        <f t="shared" si="123"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2490" s="3" t="s">
         <v>42</v>
       </c>
@@ -55244,8 +57118,16 @@
       <c r="E2490" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="2491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2490" s="2">
+        <f t="shared" si="124"/>
+        <v>66</v>
+      </c>
+      <c r="G2490" s="2">
+        <f t="shared" ref="G2490:G2553" si="125">SUM(E2490-E2460)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2491" s="3" t="s">
         <v>43</v>
       </c>
@@ -55255,8 +57137,16 @@
       <c r="E2491" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="2492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2491" s="2">
+        <f t="shared" si="124"/>
+        <v>148</v>
+      </c>
+      <c r="G2491" s="2">
+        <f t="shared" si="125"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2492" s="1">
         <v>44005</v>
       </c>
@@ -55272,11 +57162,19 @@
       <c r="E2492" s="2">
         <v>4015</v>
       </c>
-      <c r="H2492" s="2">
+      <c r="F2492" s="2">
+        <f t="shared" si="124"/>
+        <v>85</v>
+      </c>
+      <c r="G2492" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="I2492" s="2">
         <v>3500808</v>
       </c>
     </row>
-    <row r="2493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2493" s="3"/>
       <c r="C2493" s="3" t="s">
         <v>7</v>
@@ -55287,8 +57185,16 @@
       <c r="E2493" s="2">
         <v>4514</v>
       </c>
-    </row>
-    <row r="2494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2493" s="2">
+        <f t="shared" si="124"/>
+        <v>98</v>
+      </c>
+      <c r="G2493" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2494" s="3"/>
       <c r="C2494" s="3" t="s">
         <v>8</v>
@@ -55299,8 +57205,16 @@
       <c r="E2494" s="2">
         <v>2686</v>
       </c>
-    </row>
-    <row r="2495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2494" s="2">
+        <f t="shared" si="124"/>
+        <v>31</v>
+      </c>
+      <c r="G2494" s="2">
+        <f t="shared" si="125"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2495" s="3"/>
       <c r="C2495" s="3" t="s">
         <v>35</v>
@@ -55311,8 +57225,16 @@
       <c r="E2495" s="2">
         <v>3033</v>
       </c>
-    </row>
-    <row r="2496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2495" s="2">
+        <f t="shared" si="124"/>
+        <v>62</v>
+      </c>
+      <c r="G2495" s="2">
+        <f t="shared" si="125"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2496" s="3"/>
       <c r="C2496" s="3" t="s">
         <v>14</v>
@@ -55323,8 +57245,16 @@
       <c r="E2496" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2497" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2496" s="2">
+        <f t="shared" si="124"/>
+        <v>46</v>
+      </c>
+      <c r="G2496" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2497" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2497" s="3" t="s">
         <v>9</v>
       </c>
@@ -55337,11 +57267,19 @@
       <c r="E2497" s="2">
         <v>1706</v>
       </c>
-      <c r="H2497" s="2">
+      <c r="F2497" s="2">
+        <f t="shared" si="124"/>
+        <v>32</v>
+      </c>
+      <c r="G2497" s="2">
+        <f t="shared" si="125"/>
+        <v>5</v>
+      </c>
+      <c r="I2497" s="2">
         <v>1283451</v>
       </c>
     </row>
-    <row r="2498" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2498" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2498" s="3"/>
       <c r="C2498" s="3" t="s">
         <v>11</v>
@@ -55352,8 +57290,16 @@
       <c r="E2498" s="2">
         <v>1268</v>
       </c>
-    </row>
-    <row r="2499" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2498" s="2">
+        <f t="shared" si="124"/>
+        <v>18</v>
+      </c>
+      <c r="G2498" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2499" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2499" s="3"/>
       <c r="C2499" s="3" t="s">
         <v>12</v>
@@ -55364,8 +57310,16 @@
       <c r="E2499" s="2">
         <v>1765</v>
       </c>
-    </row>
-    <row r="2500" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2499" s="2">
+        <f t="shared" si="124"/>
+        <v>14</v>
+      </c>
+      <c r="G2499" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2500" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2500" s="3"/>
       <c r="C2500" s="3" t="s">
         <v>36</v>
@@ -55376,8 +57330,16 @@
       <c r="E2500" s="2">
         <v>1139</v>
       </c>
-    </row>
-    <row r="2501" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2500" s="2">
+        <f t="shared" si="124"/>
+        <v>1</v>
+      </c>
+      <c r="G2500" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2501" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2501" s="3"/>
       <c r="C2501" s="3" t="s">
         <v>37</v>
@@ -55388,8 +57350,16 @@
       <c r="E2501" s="2">
         <v>1019</v>
       </c>
-    </row>
-    <row r="2502" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2501" s="2">
+        <f t="shared" ref="F2501:F2564" si="126">SUM(D2501-D2471)</f>
+        <v>22</v>
+      </c>
+      <c r="G2501" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2502" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2502" s="3" t="s">
         <v>13</v>
       </c>
@@ -55402,11 +57372,19 @@
       <c r="E2502" s="2">
         <v>976</v>
       </c>
-      <c r="H2502" s="2">
+      <c r="F2502" s="2">
+        <f t="shared" si="126"/>
+        <v>34</v>
+      </c>
+      <c r="G2502" s="2">
+        <f t="shared" si="125"/>
+        <v>-3</v>
+      </c>
+      <c r="I2502" s="2">
         <v>782854</v>
       </c>
     </row>
-    <row r="2503" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2503" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2503" s="3"/>
       <c r="C2503" s="3" t="s">
         <v>15</v>
@@ -55417,8 +57395,16 @@
       <c r="E2503" s="2">
         <v>1812</v>
       </c>
-    </row>
-    <row r="2504" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2503" s="2">
+        <f t="shared" si="126"/>
+        <v>38</v>
+      </c>
+      <c r="G2503" s="2">
+        <f t="shared" si="125"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2504" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2504" s="3"/>
       <c r="C2504" s="3" t="s">
         <v>12</v>
@@ -55429,8 +57415,16 @@
       <c r="E2504" s="2">
         <v>1081</v>
       </c>
-    </row>
-    <row r="2505" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2504" s="2">
+        <f t="shared" si="126"/>
+        <v>34</v>
+      </c>
+      <c r="G2504" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2505" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2505" s="3"/>
       <c r="C2505" s="3" t="s">
         <v>33</v>
@@ -55441,8 +57435,16 @@
       <c r="E2505" s="2">
         <v>919</v>
       </c>
-    </row>
-    <row r="2506" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2505" s="2">
+        <f t="shared" si="126"/>
+        <v>32</v>
+      </c>
+      <c r="G2505" s="2">
+        <f t="shared" si="125"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2506" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2506" s="3"/>
       <c r="C2506" s="3" t="s">
         <v>34</v>
@@ -55453,8 +57455,16 @@
       <c r="E2506" s="2">
         <v>905</v>
       </c>
-    </row>
-    <row r="2507" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2506" s="2">
+        <f t="shared" si="126"/>
+        <v>49</v>
+      </c>
+      <c r="G2506" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2507" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2507" s="3" t="s">
         <v>23</v>
       </c>
@@ -55467,11 +57477,19 @@
       <c r="E2507" s="2">
         <v>2572</v>
       </c>
-      <c r="H2507" s="2">
+      <c r="F2507" s="2">
+        <f t="shared" si="126"/>
+        <v>62</v>
+      </c>
+      <c r="G2507" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="I2507" s="2">
         <v>928668</v>
       </c>
     </row>
-    <row r="2508" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2508" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2508" s="3"/>
       <c r="C2508" s="3" t="s">
         <v>25</v>
@@ -55482,8 +57500,16 @@
       <c r="E2508" s="2">
         <v>1040</v>
       </c>
-    </row>
-    <row r="2509" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2508" s="2">
+        <f t="shared" si="126"/>
+        <v>9</v>
+      </c>
+      <c r="G2508" s="2">
+        <f t="shared" si="125"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2509" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2509" s="3"/>
       <c r="C2509" s="3" t="s">
         <v>28</v>
@@ -55494,8 +57520,16 @@
       <c r="E2509" s="2">
         <v>861</v>
       </c>
-    </row>
-    <row r="2510" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2509" s="2">
+        <f t="shared" si="126"/>
+        <v>13</v>
+      </c>
+      <c r="G2509" s="2">
+        <f t="shared" si="125"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2510" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2510" s="3"/>
       <c r="C2510" s="3" t="s">
         <v>38</v>
@@ -55506,8 +57540,16 @@
       <c r="E2510" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="2511" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2510" s="2">
+        <f t="shared" si="126"/>
+        <v>5</v>
+      </c>
+      <c r="G2510" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2511" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2511" s="3"/>
       <c r="C2511" s="3" t="s">
         <v>39</v>
@@ -55518,8 +57560,16 @@
       <c r="E2511" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="2512" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2511" s="2">
+        <f t="shared" si="126"/>
+        <v>5</v>
+      </c>
+      <c r="G2511" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2512" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2512" s="3" t="s">
         <v>16</v>
       </c>
@@ -55532,12 +57582,20 @@
       <c r="E2512" s="2">
         <v>1564</v>
       </c>
-      <c r="H2512" s="2">
+      <c r="F2512" s="2">
+        <f t="shared" si="126"/>
+        <v>97</v>
+      </c>
+      <c r="G2512" s="2">
+        <f t="shared" si="125"/>
+        <v>11</v>
+      </c>
+      <c r="I2512" s="2">
         <f>SUM(82696+596407)</f>
         <v>679103</v>
       </c>
     </row>
-    <row r="2513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2513" s="3"/>
       <c r="C2513" s="3" t="s">
         <v>18</v>
@@ -55548,8 +57606,16 @@
       <c r="E2513" s="2">
         <v>787</v>
       </c>
-    </row>
-    <row r="2514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2513" s="2">
+        <f t="shared" si="126"/>
+        <v>36</v>
+      </c>
+      <c r="G2513" s="2">
+        <f t="shared" si="125"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2514" s="3"/>
       <c r="C2514" s="3" t="s">
         <v>19</v>
@@ -55560,8 +57626,16 @@
       <c r="E2514" s="2">
         <v>684</v>
       </c>
-    </row>
-    <row r="2515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2514" s="2">
+        <f t="shared" si="126"/>
+        <v>14</v>
+      </c>
+      <c r="G2514" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2515" s="3"/>
       <c r="C2515" s="3" t="s">
         <v>40</v>
@@ -55572,8 +57646,16 @@
       <c r="E2515" s="2">
         <v>281</v>
       </c>
-    </row>
-    <row r="2516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2515" s="2">
+        <f t="shared" si="126"/>
+        <v>18</v>
+      </c>
+      <c r="G2515" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2516" s="3"/>
       <c r="C2516" s="3" t="s">
         <v>41</v>
@@ -55584,8 +57666,16 @@
       <c r="E2516" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="2517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2516" s="2">
+        <f t="shared" si="126"/>
+        <v>25</v>
+      </c>
+      <c r="G2516" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2517" s="3" t="s">
         <v>20</v>
       </c>
@@ -55598,11 +57688,19 @@
       <c r="E2517" s="2">
         <v>3171</v>
       </c>
-      <c r="H2517" s="2">
+      <c r="F2517" s="2">
+        <f t="shared" si="126"/>
+        <v>2508</v>
+      </c>
+      <c r="G2517" s="2">
+        <f t="shared" si="125"/>
+        <v>33</v>
+      </c>
+      <c r="I2517" s="2">
         <v>3592899</v>
       </c>
     </row>
-    <row r="2518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2518" s="3"/>
       <c r="C2518" s="3" t="s">
         <v>26</v>
@@ -55613,8 +57711,16 @@
       <c r="E2518" s="2">
         <v>338</v>
       </c>
-    </row>
-    <row r="2519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2518" s="2">
+        <f t="shared" si="126"/>
+        <v>198</v>
+      </c>
+      <c r="G2518" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2519" s="3"/>
       <c r="C2519" s="3" t="s">
         <v>27</v>
@@ -55625,8 +57731,16 @@
       <c r="E2519" s="2">
         <v>431</v>
       </c>
-    </row>
-    <row r="2520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2519" s="2">
+        <f t="shared" si="126"/>
+        <v>521</v>
+      </c>
+      <c r="G2519" s="2">
+        <f t="shared" si="125"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2520" s="3" t="s">
         <v>42</v>
       </c>
@@ -55636,8 +57750,16 @@
       <c r="E2520" s="2">
         <v>155</v>
       </c>
-    </row>
-    <row r="2521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2520" s="2">
+        <f t="shared" si="126"/>
+        <v>120</v>
+      </c>
+      <c r="G2520" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2521" s="3" t="s">
         <v>43</v>
       </c>
@@ -55647,8 +57769,16 @@
       <c r="E2521" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="2522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2521" s="2">
+        <f t="shared" si="126"/>
+        <v>360</v>
+      </c>
+      <c r="G2521" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2522" s="1">
         <v>44006</v>
       </c>
@@ -55664,11 +57794,19 @@
       <c r="E2522" s="2">
         <v>4018</v>
       </c>
-      <c r="H2522" s="2">
+      <c r="F2522" s="2">
+        <f t="shared" si="126"/>
+        <v>84</v>
+      </c>
+      <c r="G2522" s="2">
+        <f t="shared" si="125"/>
+        <v>3</v>
+      </c>
+      <c r="I2522" s="2">
         <v>3551952</v>
       </c>
     </row>
-    <row r="2523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2523" s="3"/>
       <c r="C2523" s="3" t="s">
         <v>7</v>
@@ -55679,8 +57817,16 @@
       <c r="E2523" s="2">
         <v>4516</v>
       </c>
-    </row>
-    <row r="2524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2523" s="2">
+        <f t="shared" si="126"/>
+        <v>64</v>
+      </c>
+      <c r="G2523" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2524" s="3"/>
       <c r="C2524" s="3" t="s">
         <v>8</v>
@@ -55691,8 +57837,16 @@
       <c r="E2524" s="2">
         <v>2687</v>
       </c>
-    </row>
-    <row r="2525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2524" s="2">
+        <f t="shared" si="126"/>
+        <v>41</v>
+      </c>
+      <c r="G2524" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2525" s="3"/>
       <c r="C2525" s="3" t="s">
         <v>35</v>
@@ -55703,8 +57857,16 @@
       <c r="E2525" s="2">
         <v>3033</v>
       </c>
-    </row>
-    <row r="2526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2525" s="2">
+        <f t="shared" si="126"/>
+        <v>76</v>
+      </c>
+      <c r="G2525" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2526" s="3"/>
       <c r="C2526" s="3" t="s">
         <v>14</v>
@@ -55715,8 +57877,16 @@
       <c r="E2526" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2526" s="2">
+        <f t="shared" si="126"/>
+        <v>45</v>
+      </c>
+      <c r="G2526" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2527" s="3" t="s">
         <v>9</v>
       </c>
@@ -55729,11 +57899,19 @@
       <c r="E2527" s="2">
         <v>1714</v>
       </c>
-      <c r="H2527" s="2">
+      <c r="F2527" s="2">
+        <f t="shared" si="126"/>
+        <v>28</v>
+      </c>
+      <c r="G2527" s="2">
+        <f t="shared" si="125"/>
+        <v>8</v>
+      </c>
+      <c r="I2527" s="2">
         <v>1299645</v>
       </c>
     </row>
-    <row r="2528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2528" s="3"/>
       <c r="C2528" s="3" t="s">
         <v>11</v>
@@ -55744,8 +57922,16 @@
       <c r="E2528" s="2">
         <v>1272</v>
       </c>
-    </row>
-    <row r="2529" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2528" s="2">
+        <f t="shared" si="126"/>
+        <v>-2</v>
+      </c>
+      <c r="G2528" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2529" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2529" s="3"/>
       <c r="C2529" s="3" t="s">
         <v>12</v>
@@ -55756,8 +57942,16 @@
       <c r="E2529" s="2">
         <v>1764</v>
       </c>
-    </row>
-    <row r="2530" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2529" s="2">
+        <f t="shared" si="126"/>
+        <v>25</v>
+      </c>
+      <c r="G2529" s="2">
+        <f t="shared" si="125"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="2530" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2530" s="3"/>
       <c r="C2530" s="3" t="s">
         <v>36</v>
@@ -55768,8 +57962,16 @@
       <c r="E2530" s="2">
         <v>1140</v>
       </c>
-    </row>
-    <row r="2531" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2530" s="2">
+        <f t="shared" si="126"/>
+        <v>-11</v>
+      </c>
+      <c r="G2530" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2531" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2531" s="3"/>
       <c r="C2531" s="3" t="s">
         <v>37</v>
@@ -55780,8 +57982,16 @@
       <c r="E2531" s="2">
         <v>1025</v>
       </c>
-    </row>
-    <row r="2532" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2531" s="2">
+        <f t="shared" si="126"/>
+        <v>-6</v>
+      </c>
+      <c r="G2531" s="2">
+        <f t="shared" si="125"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2532" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2532" s="3" t="s">
         <v>13</v>
       </c>
@@ -55794,11 +58004,19 @@
       <c r="E2532" s="2">
         <v>984</v>
       </c>
-      <c r="H2532" s="2">
+      <c r="F2532" s="2">
+        <f t="shared" si="126"/>
+        <v>27</v>
+      </c>
+      <c r="G2532" s="2">
+        <f t="shared" si="125"/>
+        <v>8</v>
+      </c>
+      <c r="I2532" s="2">
         <v>790223</v>
       </c>
     </row>
-    <row r="2533" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2533" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2533" s="3"/>
       <c r="C2533" s="3" t="s">
         <v>15</v>
@@ -55809,8 +58027,16 @@
       <c r="E2533" s="2">
         <v>1820</v>
       </c>
-    </row>
-    <row r="2534" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2533" s="2">
+        <f t="shared" si="126"/>
+        <v>50</v>
+      </c>
+      <c r="G2533" s="2">
+        <f t="shared" si="125"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2534" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2534" s="3"/>
       <c r="C2534" s="3" t="s">
         <v>12</v>
@@ -55821,8 +58047,16 @@
       <c r="E2534" s="2">
         <v>1083</v>
       </c>
-    </row>
-    <row r="2535" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2534" s="2">
+        <f t="shared" si="126"/>
+        <v>35</v>
+      </c>
+      <c r="G2534" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2535" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2535" s="3"/>
       <c r="C2535" s="3" t="s">
         <v>33</v>
@@ -55833,8 +58067,16 @@
       <c r="E2535" s="2">
         <v>923</v>
       </c>
-    </row>
-    <row r="2536" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2535" s="2">
+        <f t="shared" si="126"/>
+        <v>14</v>
+      </c>
+      <c r="G2535" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2536" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2536" s="3"/>
       <c r="C2536" s="3" t="s">
         <v>34</v>
@@ -55845,8 +58087,16 @@
       <c r="E2536" s="2">
         <v>914</v>
       </c>
-    </row>
-    <row r="2537" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2536" s="2">
+        <f t="shared" si="126"/>
+        <v>15</v>
+      </c>
+      <c r="G2536" s="2">
+        <f t="shared" si="125"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2537" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2537" s="3" t="s">
         <v>23</v>
       </c>
@@ -55859,11 +58109,19 @@
       <c r="E2537" s="2">
         <v>2574</v>
       </c>
-      <c r="H2537" s="2">
+      <c r="F2537" s="2">
+        <f t="shared" si="126"/>
+        <v>78</v>
+      </c>
+      <c r="G2537" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+      <c r="I2537" s="2">
         <v>944805</v>
       </c>
     </row>
-    <row r="2538" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2538" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2538" s="3"/>
       <c r="C2538" s="3" t="s">
         <v>25</v>
@@ -55874,8 +58132,16 @@
       <c r="E2538" s="2">
         <v>1040</v>
       </c>
-    </row>
-    <row r="2539" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2538" s="2">
+        <f t="shared" si="126"/>
+        <v>22</v>
+      </c>
+      <c r="G2538" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2539" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2539" s="3"/>
       <c r="C2539" s="3" t="s">
         <v>28</v>
@@ -55886,8 +58152,16 @@
       <c r="E2539" s="2">
         <v>861</v>
       </c>
-    </row>
-    <row r="2540" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2539" s="2">
+        <f t="shared" si="126"/>
+        <v>21</v>
+      </c>
+      <c r="G2539" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2540" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2540" s="3"/>
       <c r="C2540" s="3" t="s">
         <v>38</v>
@@ -55898,8 +58172,16 @@
       <c r="E2540" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="2541" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2540" s="2">
+        <f t="shared" si="126"/>
+        <v>7</v>
+      </c>
+      <c r="G2540" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2541" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2541" s="3"/>
       <c r="C2541" s="3" t="s">
         <v>39</v>
@@ -55910,8 +58192,16 @@
       <c r="E2541" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="2542" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2541" s="2">
+        <f t="shared" si="126"/>
+        <v>6</v>
+      </c>
+      <c r="G2541" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2542" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2542" s="3" t="s">
         <v>16</v>
       </c>
@@ -55924,12 +58214,20 @@
       <c r="E2542" s="2">
         <v>1576</v>
       </c>
-      <c r="H2542" s="2">
+      <c r="F2542" s="2">
+        <f t="shared" si="126"/>
+        <v>126</v>
+      </c>
+      <c r="G2542" s="2">
+        <f t="shared" si="125"/>
+        <v>12</v>
+      </c>
+      <c r="I2542" s="2">
         <f>SUM(83191+608217)</f>
         <v>691408</v>
       </c>
     </row>
-    <row r="2543" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2543" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2543" s="3"/>
       <c r="C2543" s="3" t="s">
         <v>18</v>
@@ -55940,8 +58238,16 @@
       <c r="E2543" s="2">
         <v>791</v>
       </c>
-    </row>
-    <row r="2544" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="F2543" s="2">
+        <f t="shared" si="126"/>
+        <v>29</v>
+      </c>
+      <c r="G2543" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2544" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2544" s="3"/>
       <c r="C2544" s="3" t="s">
         <v>19</v>
@@ -55952,8 +58258,16 @@
       <c r="E2544" s="2">
         <v>693</v>
       </c>
-    </row>
-    <row r="2545" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2544" s="2">
+        <f t="shared" si="126"/>
+        <v>14</v>
+      </c>
+      <c r="G2544" s="2">
+        <f t="shared" si="125"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2545" s="3"/>
       <c r="C2545" s="3" t="s">
         <v>40</v>
@@ -55964,8 +58278,16 @@
       <c r="E2545" s="2">
         <v>284</v>
       </c>
-    </row>
-    <row r="2546" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2545" s="2">
+        <f t="shared" si="126"/>
+        <v>21</v>
+      </c>
+      <c r="G2545" s="2">
+        <f t="shared" si="125"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2546" s="3"/>
       <c r="C2546" s="3" t="s">
         <v>41</v>
@@ -55976,35 +58298,715 @@
       <c r="E2546" s="2">
         <v>347</v>
       </c>
-    </row>
-    <row r="2547" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2546" s="2">
+        <f t="shared" si="126"/>
+        <v>9</v>
+      </c>
+      <c r="G2546" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2547" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2547" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2548" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2547" s="2">
+        <v>89566</v>
+      </c>
+      <c r="E2547" s="2">
+        <v>3205</v>
+      </c>
+      <c r="F2547" s="2">
+        <f t="shared" si="126"/>
+        <v>1133</v>
+      </c>
+      <c r="G2547" s="2">
+        <f t="shared" si="125"/>
+        <v>34</v>
+      </c>
+      <c r="I2547" s="2">
+        <v>3694345</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2548" s="3"/>
       <c r="C2548" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2549" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2548" s="2">
+        <v>11628</v>
+      </c>
+      <c r="E2548" s="2">
+        <v>347</v>
+      </c>
+      <c r="F2548" s="2">
+        <f t="shared" si="126"/>
+        <v>332</v>
+      </c>
+      <c r="G2548" s="2">
+        <f t="shared" si="125"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2549" s="3"/>
       <c r="C2549" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2550" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2549" s="2">
+        <v>14946</v>
+      </c>
+      <c r="E2549" s="2">
+        <v>432</v>
+      </c>
+      <c r="F2549" s="2">
+        <f t="shared" si="126"/>
+        <v>477</v>
+      </c>
+      <c r="G2549" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2550" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2551" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2550" s="2">
+        <v>3812</v>
+      </c>
+      <c r="E2550" s="2">
+        <v>155</v>
+      </c>
+      <c r="F2550" s="2">
+        <f t="shared" si="126"/>
+        <v>112</v>
+      </c>
+      <c r="G2550" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2551" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="D2551" s="2">
+        <v>11804</v>
+      </c>
+      <c r="E2551" s="2">
+        <v>299</v>
+      </c>
+      <c r="F2551" s="2">
+        <f t="shared" si="126"/>
+        <v>733</v>
+      </c>
+      <c r="G2551" s="2">
+        <f t="shared" si="125"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2552" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B2552" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2552" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2552" s="2">
+        <v>64987</v>
+      </c>
+      <c r="E2552" s="2">
+        <v>4020</v>
+      </c>
+      <c r="F2552" s="2">
+        <f t="shared" si="126"/>
+        <v>106</v>
+      </c>
+      <c r="G2552" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+      <c r="I2552" s="2">
+        <v>390415</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2553" s="3"/>
+      <c r="C2553" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2553" s="2">
+        <v>59206</v>
+      </c>
+      <c r="E2553" s="2">
+        <v>4517</v>
+      </c>
+      <c r="F2553" s="2">
+        <f t="shared" si="126"/>
+        <v>95</v>
+      </c>
+      <c r="G2553" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2554" s="3"/>
+      <c r="C2554" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2554" s="2">
+        <v>41646</v>
+      </c>
+      <c r="E2554" s="2">
+        <v>2688</v>
+      </c>
+      <c r="F2554" s="2">
+        <f t="shared" si="126"/>
+        <v>61</v>
+      </c>
+      <c r="G2554" s="2">
+        <f t="shared" ref="G2554:G2581" si="127">SUM(E2554-E2524)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2555" s="3"/>
+      <c r="C2555" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2555" s="2">
+        <v>47294</v>
+      </c>
+      <c r="E2555" s="2">
+        <v>3035</v>
+      </c>
+      <c r="F2555" s="2">
+        <f t="shared" si="126"/>
+        <v>64</v>
+      </c>
+      <c r="G2555" s="2">
+        <f t="shared" si="127"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2556" s="3"/>
+      <c r="C2556" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2556" s="2">
+        <v>41151</v>
+      </c>
+      <c r="E2556" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F2556" s="2">
+        <f t="shared" si="126"/>
+        <v>50</v>
+      </c>
+      <c r="G2556" s="2">
+        <f t="shared" si="127"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2557" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2557" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2557" s="2">
+        <v>19167</v>
+      </c>
+      <c r="E2557" s="2">
+        <v>1716</v>
+      </c>
+      <c r="F2557" s="2">
+        <f t="shared" si="126"/>
+        <v>70</v>
+      </c>
+      <c r="G2557" s="2">
+        <f t="shared" si="127"/>
+        <v>2</v>
+      </c>
+      <c r="I2557" s="2">
+        <v>1320910</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2558" s="3"/>
+      <c r="C2558" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2558" s="2">
+        <v>18775</v>
+      </c>
+      <c r="E2558" s="2">
+        <v>1273</v>
+      </c>
+      <c r="F2558" s="2">
+        <f t="shared" si="126"/>
+        <v>4</v>
+      </c>
+      <c r="G2558" s="2">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2559" s="3"/>
+      <c r="C2559" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2559" s="2">
+        <v>18637</v>
+      </c>
+      <c r="E2559" s="2">
+        <v>1774</v>
+      </c>
+      <c r="F2559" s="2">
+        <f t="shared" si="126"/>
+        <v>20</v>
+      </c>
+      <c r="G2559" s="2">
+        <f t="shared" si="127"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2560" s="3"/>
+      <c r="C2560" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2560" s="2">
+        <v>16334</v>
+      </c>
+      <c r="E2560" s="2">
+        <v>1141</v>
+      </c>
+      <c r="F2560" s="2">
+        <f t="shared" si="126"/>
+        <v>4</v>
+      </c>
+      <c r="G2560" s="2">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2561" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2561" s="3"/>
+      <c r="C2561" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2561" s="2">
+        <v>16819</v>
+      </c>
+      <c r="E2561" s="2">
+        <v>1025</v>
+      </c>
+      <c r="F2561" s="2">
+        <f t="shared" si="126"/>
+        <v>31</v>
+      </c>
+      <c r="G2561" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2562" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2562" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2562" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2562" s="2">
+        <v>19664</v>
+      </c>
+      <c r="E2562" s="2">
+        <v>990</v>
+      </c>
+      <c r="F2562" s="2">
+        <f t="shared" si="126"/>
+        <v>36</v>
+      </c>
+      <c r="G2562" s="2">
+        <f t="shared" si="127"/>
+        <v>6</v>
+      </c>
+      <c r="I2562" s="2">
+        <v>800541</v>
+      </c>
+    </row>
+    <row r="2563" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2563" s="3"/>
+      <c r="C2563" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2563" s="2">
+        <v>23741</v>
+      </c>
+      <c r="E2563" s="2">
+        <v>1825</v>
+      </c>
+      <c r="F2563" s="2">
+        <f t="shared" si="126"/>
+        <v>44</v>
+      </c>
+      <c r="G2563" s="2">
+        <f t="shared" si="127"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2564" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2564" s="3"/>
+      <c r="C2564" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2564" s="2">
+        <v>15952</v>
+      </c>
+      <c r="E2564" s="2">
+        <v>1086</v>
+      </c>
+      <c r="F2564" s="2">
+        <f t="shared" si="126"/>
+        <v>32</v>
+      </c>
+      <c r="G2564" s="2">
+        <f t="shared" si="127"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2565" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2565" s="3"/>
+      <c r="C2565" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2565" s="2">
+        <v>9082</v>
+      </c>
+      <c r="E2565" s="2">
+        <v>924</v>
+      </c>
+      <c r="F2565" s="2">
+        <f t="shared" ref="F2565:F2581" si="128">SUM(D2565-D2535)</f>
+        <v>26</v>
+      </c>
+      <c r="G2565" s="2">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2566" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2566" s="3"/>
+      <c r="C2566" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2566" s="2">
+        <v>12236</v>
+      </c>
+      <c r="E2566" s="2">
+        <v>917</v>
+      </c>
+      <c r="F2566" s="2">
+        <f t="shared" si="128"/>
+        <v>29</v>
+      </c>
+      <c r="G2566" s="2">
+        <f t="shared" si="127"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2567" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2567" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2567" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2567" s="2">
+        <v>21573</v>
+      </c>
+      <c r="E2567" s="2">
+        <v>2583</v>
+      </c>
+      <c r="F2567" s="2">
+        <f t="shared" si="128"/>
+        <v>68</v>
+      </c>
+      <c r="G2567" s="2">
+        <f t="shared" si="127"/>
+        <v>9</v>
+      </c>
+      <c r="I2567" s="2">
+        <v>962839</v>
+      </c>
+    </row>
+    <row r="2568" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2568" s="3"/>
+      <c r="C2568" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2568" s="2">
+        <v>8733</v>
+      </c>
+      <c r="E2568" s="2">
+        <v>1043</v>
+      </c>
+      <c r="F2568" s="2">
+        <f t="shared" si="128"/>
+        <v>28</v>
+      </c>
+      <c r="G2568" s="2">
+        <f t="shared" si="127"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2569" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2569" s="3"/>
+      <c r="C2569" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2569" s="2">
+        <v>7047</v>
+      </c>
+      <c r="E2569" s="2">
+        <v>863</v>
+      </c>
+      <c r="F2569" s="2">
+        <f t="shared" si="128"/>
+        <v>30</v>
+      </c>
+      <c r="G2569" s="2">
+        <f t="shared" si="127"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2570" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2570" s="3"/>
+      <c r="C2570" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2570" s="2">
+        <v>2144</v>
+      </c>
+      <c r="E2570" s="2">
+        <v>260</v>
+      </c>
+      <c r="F2570" s="2">
+        <f t="shared" si="128"/>
+        <v>11</v>
+      </c>
+      <c r="G2570" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2571" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2571" s="3"/>
+      <c r="C2571" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2571" s="2">
+        <v>1431</v>
+      </c>
+      <c r="E2571" s="2">
+        <v>103</v>
+      </c>
+      <c r="F2571" s="2">
+        <f t="shared" si="128"/>
+        <v>6</v>
+      </c>
+      <c r="G2571" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2572" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2572" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2572" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2572" s="2">
+        <v>21072</v>
+      </c>
+      <c r="E2572" s="2">
+        <v>1583</v>
+      </c>
+      <c r="F2572" s="2">
+        <f t="shared" si="128"/>
+        <v>123</v>
+      </c>
+      <c r="G2572" s="2">
+        <f t="shared" si="127"/>
+        <v>7</v>
+      </c>
+      <c r="I2572" s="2">
+        <f>SUM(83770+621031)</f>
+        <v>704801</v>
+      </c>
+    </row>
+    <row r="2573" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2573" s="3"/>
+      <c r="C2573" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2573" s="2">
+        <v>8244</v>
+      </c>
+      <c r="E2573" s="2">
+        <v>792</v>
+      </c>
+      <c r="F2573" s="2">
+        <f t="shared" si="128"/>
+        <v>56</v>
+      </c>
+      <c r="G2573" s="2">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2574" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2574" s="3"/>
+      <c r="C2574" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2574" s="2">
+        <v>7095</v>
+      </c>
+      <c r="E2574" s="2">
+        <v>693</v>
+      </c>
+      <c r="F2574" s="2">
+        <f t="shared" si="128"/>
+        <v>16</v>
+      </c>
+      <c r="G2574" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2575" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2575" s="3"/>
+      <c r="C2575" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2575" s="2">
+        <v>4164</v>
+      </c>
+      <c r="E2575" s="2">
+        <v>285</v>
+      </c>
+      <c r="F2575" s="2">
+        <f t="shared" si="128"/>
+        <v>34</v>
+      </c>
+      <c r="G2575" s="2">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2576" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2576" s="3"/>
+      <c r="C2576" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2576" s="2">
+        <v>4461</v>
+      </c>
+      <c r="E2576" s="2">
+        <v>348</v>
+      </c>
+      <c r="F2576" s="2">
+        <f t="shared" si="128"/>
+        <v>8</v>
+      </c>
+      <c r="G2576" s="2">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2577" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2577" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2577" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2577" s="2">
+        <f t="shared" si="128"/>
+        <v>-89566</v>
+      </c>
+      <c r="G2577" s="2">
+        <f t="shared" si="127"/>
+        <v>-3205</v>
+      </c>
+    </row>
+    <row r="2578" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2578" s="3"/>
+      <c r="C2578" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2578" s="2">
+        <f t="shared" si="128"/>
+        <v>-11628</v>
+      </c>
+      <c r="G2578" s="2">
+        <f t="shared" si="127"/>
+        <v>-347</v>
+      </c>
+    </row>
+    <row r="2579" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2579" s="3"/>
+      <c r="C2579" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2579" s="2">
+        <f t="shared" si="128"/>
+        <v>-14946</v>
+      </c>
+      <c r="G2579" s="2">
+        <f t="shared" si="127"/>
+        <v>-432</v>
+      </c>
+    </row>
+    <row r="2580" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C2580" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2580" s="2">
+        <f t="shared" si="128"/>
+        <v>-3812</v>
+      </c>
+      <c r="G2580" s="2">
+        <f t="shared" si="127"/>
+        <v>-155</v>
+      </c>
+    </row>
+    <row r="2581" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C2581" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2581" s="2">
+        <f t="shared" si="128"/>
+        <v>-11804</v>
+      </c>
+      <c r="G2581" s="2">
+        <f t="shared" si="127"/>
+        <v>-299</v>
       </c>
     </row>
   </sheetData>

--- a/county.xlsx
+++ b/county.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB32F9CE-6255-0646-8215-BCBF5FCC9FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A692B56E-F593-CB4D-BBA4-A72ABB7B2653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2581"/>
+  <dimension ref="A1:M2641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2525" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2522" sqref="F2522:F2526"/>
+    <sheetView tabSelected="1" topLeftCell="A2579" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2582" sqref="H2582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -54640,6 +54640,10 @@
         <f t="shared" si="121"/>
         <v>5</v>
       </c>
+      <c r="H2372" s="2">
+        <f>SUM(I2372-I2342)</f>
+        <v>79303</v>
+      </c>
       <c r="I2372" s="2">
         <v>3258963</v>
       </c>
@@ -54664,6 +54668,10 @@
         <f t="shared" si="121"/>
         <v>2</v>
       </c>
+      <c r="H2373" s="2">
+        <f t="shared" ref="H2373:H2436" si="123">SUM(I2373-I2343)</f>
+        <v>0</v>
+      </c>
       <c r="K2373" s="2"/>
     </row>
     <row r="2374" spans="1:11" x14ac:dyDescent="0.2">
@@ -54685,6 +54693,10 @@
         <f t="shared" si="121"/>
         <v>3</v>
       </c>
+      <c r="H2374" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2375" s="3"/>
@@ -54705,6 +54717,10 @@
         <f t="shared" si="121"/>
         <v>2</v>
       </c>
+      <c r="H2375" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2376" s="3"/>
@@ -54725,6 +54741,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2376" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2377" s="3" t="s">
@@ -54746,6 +54766,10 @@
       <c r="G2377" s="2">
         <f t="shared" si="121"/>
         <v>7</v>
+      </c>
+      <c r="H2377" s="2">
+        <f t="shared" si="123"/>
+        <v>22609</v>
       </c>
       <c r="I2377" s="2">
         <v>1194343</v>
@@ -54770,6 +54794,10 @@
         <f t="shared" si="121"/>
         <v>5</v>
       </c>
+      <c r="H2378" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2379" s="3"/>
@@ -54790,6 +54818,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2379" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2380" s="3"/>
@@ -54810,6 +54842,10 @@
         <f t="shared" si="121"/>
         <v>-1</v>
       </c>
+      <c r="H2380" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2381" s="3"/>
@@ -54830,6 +54866,10 @@
         <f t="shared" si="121"/>
         <v>4</v>
       </c>
+      <c r="H2381" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2382" s="3" t="s">
@@ -54851,6 +54891,10 @@
       <c r="G2382" s="2">
         <f t="shared" si="121"/>
         <v>8</v>
+      </c>
+      <c r="H2382" s="2">
+        <f t="shared" si="123"/>
+        <v>9471</v>
       </c>
       <c r="I2382" s="2">
         <v>746162</v>
@@ -54875,6 +54919,10 @@
         <f t="shared" si="121"/>
         <v>3</v>
       </c>
+      <c r="H2383" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2384" s="3"/>
@@ -54895,6 +54943,10 @@
         <f t="shared" si="121"/>
         <v>2</v>
       </c>
+      <c r="H2384" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2385" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2385" s="3"/>
@@ -54915,6 +54967,10 @@
         <f t="shared" si="121"/>
         <v>2</v>
       </c>
+      <c r="H2385" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2386" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2386" s="3"/>
@@ -54935,6 +54991,10 @@
         <f t="shared" si="121"/>
         <v>4</v>
       </c>
+      <c r="H2386" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2387" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2387" s="3" t="s">
@@ -54956,6 +55016,10 @@
       <c r="G2387" s="2">
         <f t="shared" si="121"/>
         <v>0</v>
+      </c>
+      <c r="H2387" s="2">
+        <f t="shared" si="123"/>
+        <v>29742</v>
       </c>
       <c r="I2387" s="2">
         <v>879928</v>
@@ -54980,6 +55044,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2388" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2389" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2389" s="3"/>
@@ -55000,6 +55068,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2389" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2390" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2390" s="3"/>
@@ -55020,6 +55092,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2390" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2391" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2391" s="3"/>
@@ -55040,6 +55116,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2391" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2392" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2392" s="3" t="s">
@@ -55061,6 +55141,10 @@
       <c r="G2392" s="2">
         <f t="shared" si="121"/>
         <v>10</v>
+      </c>
+      <c r="H2392" s="2">
+        <f t="shared" si="123"/>
+        <v>13150</v>
       </c>
       <c r="I2392" s="2">
         <f>SUM(80762+556456)</f>
@@ -55086,6 +55170,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2393" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2394" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2394" s="3"/>
@@ -55106,6 +55194,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2394" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2395" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2395" s="3"/>
@@ -55126,6 +55218,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2395" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2396" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2396" s="3"/>
@@ -55146,6 +55242,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2396" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2397" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2397" s="3" t="s">
@@ -55167,6 +55267,10 @@
       <c r="G2397" s="2">
         <f t="shared" si="121"/>
         <v>36</v>
+      </c>
+      <c r="H2397" s="2">
+        <f t="shared" si="123"/>
+        <v>78710</v>
       </c>
       <c r="I2397" s="2">
         <v>3234412</v>
@@ -55191,6 +55295,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2398" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2399" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2399" s="3"/>
@@ -55211,6 +55319,10 @@
         <f t="shared" si="121"/>
         <v>2</v>
       </c>
+      <c r="H2399" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2400" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2400" s="3" t="s">
@@ -55230,6 +55342,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2400" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2401" s="3" t="s">
@@ -55249,6 +55365,10 @@
         <f t="shared" si="121"/>
         <v>7</v>
       </c>
+      <c r="H2401" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2402" s="1">
@@ -55273,6 +55393,10 @@
       <c r="G2402" s="2">
         <f t="shared" si="121"/>
         <v>2</v>
+      </c>
+      <c r="H2402" s="2">
+        <f t="shared" si="123"/>
+        <v>68830</v>
       </c>
       <c r="I2402" s="2">
         <v>3327793</v>
@@ -55297,6 +55421,10 @@
         <f t="shared" si="121"/>
         <v>2</v>
       </c>
+      <c r="H2403" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2404" s="3"/>
@@ -55317,6 +55445,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2404" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2405" s="3"/>
@@ -55337,6 +55469,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2405" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2406" s="3"/>
@@ -55357,6 +55493,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2406" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2407" s="3" t="s">
@@ -55378,6 +55518,10 @@
       <c r="G2407" s="2">
         <f t="shared" si="121"/>
         <v>2</v>
+      </c>
+      <c r="H2407" s="2">
+        <f t="shared" si="123"/>
+        <v>24530</v>
       </c>
       <c r="I2407" s="2">
         <v>1218873</v>
@@ -55402,6 +55546,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2408" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2409" s="3"/>
@@ -55422,6 +55570,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2409" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2410" s="3"/>
@@ -55442,6 +55594,10 @@
         <f t="shared" si="121"/>
         <v>4</v>
       </c>
+      <c r="H2410" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2411" s="3"/>
@@ -55462,6 +55618,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2411" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2412" s="3" t="s">
@@ -55483,6 +55643,10 @@
       <c r="G2412" s="2">
         <f t="shared" si="121"/>
         <v>2</v>
+      </c>
+      <c r="H2412" s="2">
+        <f t="shared" si="123"/>
+        <v>14067</v>
       </c>
       <c r="I2412" s="2">
         <v>760229</v>
@@ -55507,6 +55671,10 @@
         <f t="shared" si="121"/>
         <v>10</v>
       </c>
+      <c r="H2413" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2414" s="3"/>
@@ -55527,6 +55695,10 @@
         <f t="shared" si="121"/>
         <v>6</v>
       </c>
+      <c r="H2414" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2415" s="3"/>
@@ -55547,6 +55719,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2415" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2416" s="3"/>
@@ -55567,6 +55743,10 @@
         <f t="shared" si="121"/>
         <v>4</v>
       </c>
+      <c r="H2416" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2417" s="3" t="s">
@@ -55588,6 +55768,10 @@
       <c r="G2417" s="2">
         <f t="shared" si="121"/>
         <v>6</v>
+      </c>
+      <c r="H2417" s="2">
+        <f t="shared" si="123"/>
+        <v>14706</v>
       </c>
       <c r="I2417" s="2">
         <v>894634</v>
@@ -55612,6 +55796,10 @@
         <f t="shared" si="121"/>
         <v>5</v>
       </c>
+      <c r="H2418" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2419" s="3"/>
@@ -55632,6 +55820,10 @@
         <f t="shared" si="121"/>
         <v>2</v>
       </c>
+      <c r="H2419" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2420" s="3"/>
@@ -55652,6 +55844,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2420" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2421" s="3"/>
@@ -55672,6 +55868,10 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
+      <c r="H2421" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2422" s="3" t="s">
@@ -55693,6 +55893,10 @@
       <c r="G2422" s="2">
         <f t="shared" si="121"/>
         <v>2</v>
+      </c>
+      <c r="H2422" s="2">
+        <f t="shared" si="123"/>
+        <v>509</v>
       </c>
       <c r="I2422" s="2">
         <f>SUM(81266+556461)</f>
@@ -55718,6 +55922,10 @@
         <f t="shared" si="121"/>
         <v>3</v>
       </c>
+      <c r="H2423" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2424" s="3"/>
@@ -55738,6 +55946,10 @@
         <f t="shared" si="121"/>
         <v>2</v>
       </c>
+      <c r="H2424" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2425" s="3"/>
@@ -55758,6 +55970,10 @@
         <f t="shared" si="121"/>
         <v>1</v>
       </c>
+      <c r="H2425" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2426" s="3"/>
@@ -55775,8 +55991,12 @@
         <v>14</v>
       </c>
       <c r="G2426" s="2">
-        <f t="shared" ref="G2426:G2489" si="123">SUM(E2426-E2396)</f>
+        <f t="shared" ref="G2426:G2489" si="124">SUM(E2426-E2396)</f>
         <v>1</v>
+      </c>
+      <c r="H2426" s="2">
+        <f t="shared" si="123"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2427" spans="1:9" x14ac:dyDescent="0.2">
@@ -55797,8 +56017,12 @@
         <v>2032</v>
       </c>
       <c r="G2427" s="2">
+        <f t="shared" si="124"/>
+        <v>47</v>
+      </c>
+      <c r="H2427" s="2">
         <f t="shared" si="123"/>
-        <v>47</v>
+        <v>84844</v>
       </c>
       <c r="I2427" s="2">
         <v>3319256</v>
@@ -55820,8 +56044,12 @@
         <v>134</v>
       </c>
       <c r="G2428" s="2">
+        <f t="shared" si="124"/>
+        <v>6</v>
+      </c>
+      <c r="H2428" s="2">
         <f t="shared" si="123"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2429" spans="1:9" x14ac:dyDescent="0.2">
@@ -55840,6 +56068,10 @@
         <v>311</v>
       </c>
       <c r="G2429" s="2">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="H2429" s="2">
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
@@ -55859,8 +56091,12 @@
         <v>59</v>
       </c>
       <c r="G2430" s="2">
+        <f t="shared" si="124"/>
+        <v>2</v>
+      </c>
+      <c r="H2430" s="2">
         <f t="shared" si="123"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2431" spans="1:9" x14ac:dyDescent="0.2">
@@ -55878,8 +56114,12 @@
         <v>312</v>
       </c>
       <c r="G2431" s="2">
+        <f t="shared" si="124"/>
+        <v>10</v>
+      </c>
+      <c r="H2431" s="2">
         <f t="shared" si="123"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2432" spans="1:9" x14ac:dyDescent="0.2">
@@ -55903,8 +56143,12 @@
         <v>135</v>
       </c>
       <c r="G2432" s="2">
+        <f t="shared" si="124"/>
+        <v>2</v>
+      </c>
+      <c r="H2432" s="2">
         <f t="shared" si="123"/>
-        <v>2</v>
+        <v>67526</v>
       </c>
       <c r="I2432" s="2">
         <v>3395319</v>
@@ -55926,6 +56170,10 @@
         <v>113</v>
       </c>
       <c r="G2433" s="2">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="H2433" s="2">
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
@@ -55946,8 +56194,12 @@
         <v>36</v>
       </c>
       <c r="G2434" s="2">
+        <f t="shared" si="124"/>
+        <v>3</v>
+      </c>
+      <c r="H2434" s="2">
         <f t="shared" si="123"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2435" spans="2:9" x14ac:dyDescent="0.2">
@@ -55966,8 +56218,12 @@
         <v>48</v>
       </c>
       <c r="G2435" s="2">
+        <f t="shared" si="124"/>
+        <v>1</v>
+      </c>
+      <c r="H2435" s="2">
         <f t="shared" si="123"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2436" spans="2:9" x14ac:dyDescent="0.2">
@@ -55986,8 +56242,12 @@
         <v>64</v>
       </c>
       <c r="G2436" s="2">
+        <f t="shared" si="124"/>
+        <v>1</v>
+      </c>
+      <c r="H2436" s="2">
         <f t="shared" si="123"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2437" spans="2:9" x14ac:dyDescent="0.2">
@@ -56004,12 +56264,16 @@
         <v>1696</v>
       </c>
       <c r="F2437" s="2">
-        <f t="shared" ref="F2437:F2500" si="124">SUM(D2437-D2407)</f>
+        <f t="shared" ref="F2437:F2500" si="125">SUM(D2437-D2407)</f>
         <v>23</v>
       </c>
       <c r="G2437" s="2">
-        <f t="shared" si="123"/>
+        <f t="shared" si="124"/>
         <v>3</v>
+      </c>
+      <c r="H2437" s="2">
+        <f t="shared" ref="H2437:H2500" si="126">SUM(I2437-I2407)</f>
+        <v>26094</v>
       </c>
       <c r="I2437" s="2">
         <v>1244967</v>
@@ -56027,12 +56291,16 @@
         <v>1262</v>
       </c>
       <c r="F2438" s="2">
+        <f t="shared" si="125"/>
+        <v>-31</v>
+      </c>
+      <c r="G2438" s="2">
         <f t="shared" si="124"/>
-        <v>-31</v>
-      </c>
-      <c r="G2438" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2438" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2439" spans="2:9" x14ac:dyDescent="0.2">
@@ -56047,12 +56315,16 @@
         <v>1760</v>
       </c>
       <c r="F2439" s="2">
+        <f t="shared" si="125"/>
+        <v>36</v>
+      </c>
+      <c r="G2439" s="2">
         <f t="shared" si="124"/>
-        <v>36</v>
-      </c>
-      <c r="G2439" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2439" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2440" spans="2:9" x14ac:dyDescent="0.2">
@@ -56067,11 +56339,15 @@
         <v>1135</v>
       </c>
       <c r="F2440" s="2">
+        <f t="shared" si="125"/>
+        <v>24</v>
+      </c>
+      <c r="G2440" s="2">
         <f t="shared" si="124"/>
-        <v>24</v>
-      </c>
-      <c r="G2440" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2440" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56087,12 +56363,16 @@
         <v>1014</v>
       </c>
       <c r="F2441" s="2">
+        <f t="shared" si="125"/>
+        <v>34</v>
+      </c>
+      <c r="G2441" s="2">
         <f t="shared" si="124"/>
-        <v>34</v>
-      </c>
-      <c r="G2441" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2441" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2442" spans="2:9" x14ac:dyDescent="0.2">
@@ -56109,12 +56389,16 @@
         <v>978</v>
       </c>
       <c r="F2442" s="2">
+        <f t="shared" si="125"/>
+        <v>23</v>
+      </c>
+      <c r="G2442" s="2">
         <f t="shared" si="124"/>
-        <v>23</v>
-      </c>
-      <c r="G2442" s="2">
-        <f t="shared" si="123"/>
         <v>5</v>
+      </c>
+      <c r="H2442" s="2">
+        <f t="shared" si="126"/>
+        <v>8363</v>
       </c>
       <c r="I2442" s="2">
         <v>768592</v>
@@ -56132,12 +56416,16 @@
         <v>1807</v>
       </c>
       <c r="F2443" s="2">
+        <f t="shared" si="125"/>
+        <v>30</v>
+      </c>
+      <c r="G2443" s="2">
         <f t="shared" si="124"/>
-        <v>30</v>
-      </c>
-      <c r="G2443" s="2">
-        <f t="shared" si="123"/>
         <v>6</v>
+      </c>
+      <c r="H2443" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2444" spans="2:9" x14ac:dyDescent="0.2">
@@ -56152,12 +56440,16 @@
         <v>1076</v>
       </c>
       <c r="F2444" s="2">
+        <f t="shared" si="125"/>
+        <v>12</v>
+      </c>
+      <c r="G2444" s="2">
         <f t="shared" si="124"/>
-        <v>12</v>
-      </c>
-      <c r="G2444" s="2">
-        <f t="shared" si="123"/>
         <v>5</v>
+      </c>
+      <c r="H2444" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2445" spans="2:9" x14ac:dyDescent="0.2">
@@ -56172,12 +56464,16 @@
         <v>912</v>
       </c>
       <c r="F2445" s="2">
+        <f t="shared" si="125"/>
+        <v>11</v>
+      </c>
+      <c r="G2445" s="2">
         <f t="shared" si="124"/>
-        <v>11</v>
-      </c>
-      <c r="G2445" s="2">
-        <f t="shared" si="123"/>
         <v>4</v>
+      </c>
+      <c r="H2445" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2446" spans="2:9" x14ac:dyDescent="0.2">
@@ -56192,12 +56488,16 @@
         <v>900</v>
       </c>
       <c r="F2446" s="2">
+        <f t="shared" si="125"/>
+        <v>8</v>
+      </c>
+      <c r="G2446" s="2">
         <f t="shared" si="124"/>
-        <v>8</v>
-      </c>
-      <c r="G2446" s="2">
-        <f t="shared" si="123"/>
         <v>3</v>
+      </c>
+      <c r="H2446" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2447" spans="2:9" x14ac:dyDescent="0.2">
@@ -56214,12 +56514,16 @@
         <v>2569</v>
       </c>
       <c r="F2447" s="2">
+        <f t="shared" si="125"/>
+        <v>43</v>
+      </c>
+      <c r="G2447" s="2">
         <f t="shared" si="124"/>
-        <v>43</v>
-      </c>
-      <c r="G2447" s="2">
-        <f t="shared" si="123"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2447" s="2">
+        <f t="shared" si="126"/>
+        <v>12792</v>
       </c>
       <c r="I2447" s="2">
         <v>907426</v>
@@ -56237,12 +56541,16 @@
         <v>1036</v>
       </c>
       <c r="F2448" s="2">
+        <f t="shared" si="125"/>
+        <v>19</v>
+      </c>
+      <c r="G2448" s="2">
         <f t="shared" si="124"/>
-        <v>19</v>
-      </c>
-      <c r="G2448" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2448" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2449" spans="1:9" x14ac:dyDescent="0.2">
@@ -56257,11 +56565,15 @@
         <v>862</v>
       </c>
       <c r="F2449" s="2">
+        <f t="shared" si="125"/>
+        <v>6</v>
+      </c>
+      <c r="G2449" s="2">
         <f t="shared" si="124"/>
-        <v>6</v>
-      </c>
-      <c r="G2449" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2449" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56277,11 +56589,15 @@
         <v>259</v>
       </c>
       <c r="F2450" s="2">
+        <f t="shared" si="125"/>
+        <v>2</v>
+      </c>
+      <c r="G2450" s="2">
         <f t="shared" si="124"/>
-        <v>2</v>
-      </c>
-      <c r="G2450" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2450" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56297,12 +56613,16 @@
         <v>103</v>
       </c>
       <c r="F2451" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="G2451" s="2">
         <f t="shared" si="124"/>
-        <v>4</v>
-      </c>
-      <c r="G2451" s="2">
-        <f t="shared" si="123"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2451" s="2">
+        <f t="shared" si="126"/>
+        <v>637727</v>
       </c>
       <c r="I2451" s="2">
         <f>SUM(81266+556461)</f>
@@ -56323,12 +56643,16 @@
         <v>1553</v>
       </c>
       <c r="F2452" s="2">
+        <f t="shared" si="125"/>
+        <v>119</v>
+      </c>
+      <c r="G2452" s="2">
         <f t="shared" si="124"/>
-        <v>119</v>
-      </c>
-      <c r="G2452" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2452" s="2">
+        <f t="shared" si="126"/>
+        <v>-637727</v>
       </c>
     </row>
     <row r="2453" spans="1:9" x14ac:dyDescent="0.2">
@@ -56343,12 +56667,16 @@
         <v>784</v>
       </c>
       <c r="F2453" s="2">
+        <f t="shared" si="125"/>
+        <v>27</v>
+      </c>
+      <c r="G2453" s="2">
         <f t="shared" si="124"/>
-        <v>27</v>
-      </c>
-      <c r="G2453" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2453" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2454" spans="1:9" x14ac:dyDescent="0.2">
@@ -56363,12 +56691,16 @@
         <v>684</v>
       </c>
       <c r="F2454" s="2">
+        <f t="shared" si="125"/>
+        <v>15</v>
+      </c>
+      <c r="G2454" s="2">
         <f t="shared" si="124"/>
-        <v>15</v>
-      </c>
-      <c r="G2454" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2454" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2455" spans="1:9" x14ac:dyDescent="0.2">
@@ -56383,11 +56715,15 @@
         <v>278</v>
       </c>
       <c r="F2455" s="2">
+        <f t="shared" si="125"/>
+        <v>13</v>
+      </c>
+      <c r="G2455" s="2">
         <f t="shared" si="124"/>
-        <v>13</v>
-      </c>
-      <c r="G2455" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2455" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56403,11 +56739,15 @@
         <v>344</v>
       </c>
       <c r="F2456" s="2">
+        <f t="shared" si="125"/>
+        <v>19</v>
+      </c>
+      <c r="G2456" s="2">
         <f t="shared" si="124"/>
-        <v>19</v>
-      </c>
-      <c r="G2456" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2456" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56425,12 +56765,16 @@
         <v>3120</v>
       </c>
       <c r="F2457" s="2">
+        <f t="shared" si="125"/>
+        <v>1779</v>
+      </c>
+      <c r="G2457" s="2">
         <f t="shared" si="124"/>
-        <v>1779</v>
-      </c>
-      <c r="G2457" s="2">
-        <f t="shared" si="123"/>
         <v>10</v>
+      </c>
+      <c r="H2457" s="2">
+        <f t="shared" si="126"/>
+        <v>92430</v>
       </c>
       <c r="I2457" s="2">
         <v>3411686</v>
@@ -56448,11 +56792,15 @@
         <v>338</v>
       </c>
       <c r="F2458" s="2">
+        <f t="shared" si="125"/>
+        <v>310</v>
+      </c>
+      <c r="G2458" s="2">
         <f t="shared" si="124"/>
-        <v>310</v>
-      </c>
-      <c r="G2458" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2458" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56468,11 +56816,15 @@
         <v>410</v>
       </c>
       <c r="F2459" s="2">
+        <f t="shared" si="125"/>
+        <v>507</v>
+      </c>
+      <c r="G2459" s="2">
         <f t="shared" si="124"/>
-        <v>507</v>
-      </c>
-      <c r="G2459" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2459" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56487,11 +56839,15 @@
         <v>154</v>
       </c>
       <c r="F2460" s="2">
+        <f t="shared" si="125"/>
+        <v>79</v>
+      </c>
+      <c r="G2460" s="2">
         <f t="shared" si="124"/>
-        <v>79</v>
-      </c>
-      <c r="G2460" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2460" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56506,12 +56862,16 @@
         <v>269</v>
       </c>
       <c r="F2461" s="2">
+        <f t="shared" si="125"/>
+        <v>279</v>
+      </c>
+      <c r="G2461" s="2">
         <f t="shared" si="124"/>
-        <v>279</v>
-      </c>
-      <c r="G2461" s="2">
-        <f t="shared" si="123"/>
         <v>2</v>
+      </c>
+      <c r="H2461" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2462" spans="1:9" x14ac:dyDescent="0.2">
@@ -56531,12 +56891,16 @@
         <v>4011</v>
       </c>
       <c r="F2462" s="2">
+        <f t="shared" si="125"/>
+        <v>91</v>
+      </c>
+      <c r="G2462" s="2">
         <f t="shared" si="124"/>
-        <v>91</v>
-      </c>
-      <c r="G2462" s="2">
-        <f t="shared" si="123"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2462" s="2">
+        <f t="shared" si="126"/>
+        <v>56780</v>
       </c>
       <c r="I2462" s="2">
         <v>3452099</v>
@@ -56554,12 +56918,16 @@
         <v>4513</v>
       </c>
       <c r="F2463" s="2">
+        <f t="shared" si="125"/>
+        <v>75</v>
+      </c>
+      <c r="G2463" s="2">
         <f t="shared" si="124"/>
-        <v>75</v>
-      </c>
-      <c r="G2463" s="2">
-        <f t="shared" si="123"/>
         <v>5</v>
+      </c>
+      <c r="H2463" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2464" spans="1:9" x14ac:dyDescent="0.2">
@@ -56574,11 +56942,15 @@
         <v>2683</v>
       </c>
       <c r="F2464" s="2">
+        <f t="shared" si="125"/>
+        <v>34</v>
+      </c>
+      <c r="G2464" s="2">
         <f t="shared" si="124"/>
-        <v>34</v>
-      </c>
-      <c r="G2464" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2464" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56594,12 +56966,16 @@
         <v>3030</v>
       </c>
       <c r="F2465" s="2">
+        <f t="shared" si="125"/>
+        <v>65</v>
+      </c>
+      <c r="G2465" s="2">
         <f t="shared" si="124"/>
-        <v>65</v>
-      </c>
-      <c r="G2465" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2465" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2466" spans="2:9" x14ac:dyDescent="0.2">
@@ -56614,12 +56990,16 @@
         <v>2014</v>
       </c>
       <c r="F2466" s="2">
+        <f t="shared" si="125"/>
+        <v>38</v>
+      </c>
+      <c r="G2466" s="2">
         <f t="shared" si="124"/>
-        <v>38</v>
-      </c>
-      <c r="G2466" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2466" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2467" spans="2:9" x14ac:dyDescent="0.2">
@@ -56636,12 +57016,16 @@
         <v>1701</v>
       </c>
       <c r="F2467" s="2">
+        <f t="shared" si="125"/>
+        <v>18</v>
+      </c>
+      <c r="G2467" s="2">
         <f t="shared" si="124"/>
-        <v>18</v>
-      </c>
-      <c r="G2467" s="2">
-        <f t="shared" si="123"/>
         <v>5</v>
+      </c>
+      <c r="H2467" s="2">
+        <f t="shared" si="126"/>
+        <v>22432</v>
       </c>
       <c r="I2467" s="2">
         <v>1267399</v>
@@ -56659,12 +57043,16 @@
         <v>1266</v>
       </c>
       <c r="F2468" s="2">
+        <f t="shared" si="125"/>
+        <v>11</v>
+      </c>
+      <c r="G2468" s="2">
         <f t="shared" si="124"/>
-        <v>11</v>
-      </c>
-      <c r="G2468" s="2">
-        <f t="shared" si="123"/>
         <v>4</v>
+      </c>
+      <c r="H2468" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2469" spans="2:9" x14ac:dyDescent="0.2">
@@ -56679,12 +57067,16 @@
         <v>1761</v>
       </c>
       <c r="F2469" s="2">
+        <f t="shared" si="125"/>
+        <v>27</v>
+      </c>
+      <c r="G2469" s="2">
         <f t="shared" si="124"/>
-        <v>27</v>
-      </c>
-      <c r="G2469" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2469" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2470" spans="2:9" x14ac:dyDescent="0.2">
@@ -56699,12 +57091,16 @@
         <v>1138</v>
       </c>
       <c r="F2470" s="2">
+        <f t="shared" si="125"/>
+        <v>18</v>
+      </c>
+      <c r="G2470" s="2">
         <f t="shared" si="124"/>
-        <v>18</v>
-      </c>
-      <c r="G2470" s="2">
-        <f t="shared" si="123"/>
         <v>3</v>
+      </c>
+      <c r="H2470" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2471" spans="2:9" x14ac:dyDescent="0.2">
@@ -56719,12 +57115,16 @@
         <v>1015</v>
       </c>
       <c r="F2471" s="2">
+        <f t="shared" si="125"/>
+        <v>3</v>
+      </c>
+      <c r="G2471" s="2">
         <f t="shared" si="124"/>
-        <v>3</v>
-      </c>
-      <c r="G2471" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2471" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2472" spans="2:9" x14ac:dyDescent="0.2">
@@ -56741,12 +57141,16 @@
         <v>979</v>
       </c>
       <c r="F2472" s="2">
+        <f t="shared" si="125"/>
+        <v>16</v>
+      </c>
+      <c r="G2472" s="2">
         <f t="shared" si="124"/>
-        <v>16</v>
-      </c>
-      <c r="G2472" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2472" s="2">
+        <f t="shared" si="126"/>
+        <v>6730</v>
       </c>
       <c r="I2472" s="2">
         <v>775322</v>
@@ -56764,12 +57168,16 @@
         <v>1809</v>
       </c>
       <c r="F2473" s="2">
+        <f t="shared" si="125"/>
+        <v>35</v>
+      </c>
+      <c r="G2473" s="2">
         <f t="shared" si="124"/>
-        <v>35</v>
-      </c>
-      <c r="G2473" s="2">
-        <f t="shared" si="123"/>
         <v>2</v>
+      </c>
+      <c r="H2473" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2474" spans="2:9" x14ac:dyDescent="0.2">
@@ -56784,12 +57192,16 @@
         <v>1077</v>
       </c>
       <c r="F2474" s="2">
+        <f t="shared" si="125"/>
+        <v>22</v>
+      </c>
+      <c r="G2474" s="2">
         <f t="shared" si="124"/>
-        <v>22</v>
-      </c>
-      <c r="G2474" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2474" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2475" spans="2:9" x14ac:dyDescent="0.2">
@@ -56804,12 +57216,16 @@
         <v>914</v>
       </c>
       <c r="F2475" s="2">
+        <f t="shared" si="125"/>
+        <v>16</v>
+      </c>
+      <c r="G2475" s="2">
         <f t="shared" si="124"/>
-        <v>16</v>
-      </c>
-      <c r="G2475" s="2">
-        <f t="shared" si="123"/>
         <v>2</v>
+      </c>
+      <c r="H2475" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2476" spans="2:9" x14ac:dyDescent="0.2">
@@ -56824,12 +57240,16 @@
         <v>903</v>
       </c>
       <c r="F2476" s="2">
+        <f t="shared" si="125"/>
+        <v>13</v>
+      </c>
+      <c r="G2476" s="2">
         <f t="shared" si="124"/>
-        <v>13</v>
-      </c>
-      <c r="G2476" s="2">
-        <f t="shared" si="123"/>
         <v>3</v>
+      </c>
+      <c r="H2476" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2477" spans="2:9" x14ac:dyDescent="0.2">
@@ -56846,12 +57266,16 @@
         <v>2571</v>
       </c>
       <c r="F2477" s="2">
+        <f t="shared" si="125"/>
+        <v>36</v>
+      </c>
+      <c r="G2477" s="2">
         <f t="shared" si="124"/>
-        <v>36</v>
-      </c>
-      <c r="G2477" s="2">
-        <f t="shared" si="123"/>
         <v>2</v>
+      </c>
+      <c r="H2477" s="2">
+        <f t="shared" si="126"/>
+        <v>10591</v>
       </c>
       <c r="I2477" s="2">
         <v>918017</v>
@@ -56869,12 +57293,16 @@
         <v>1037</v>
       </c>
       <c r="F2478" s="2">
+        <f t="shared" si="125"/>
+        <v>7</v>
+      </c>
+      <c r="G2478" s="2">
         <f t="shared" si="124"/>
-        <v>7</v>
-      </c>
-      <c r="G2478" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2478" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2479" spans="2:9" x14ac:dyDescent="0.2">
@@ -56889,11 +57317,15 @@
         <v>862</v>
       </c>
       <c r="F2479" s="2">
+        <f t="shared" si="125"/>
+        <v>5</v>
+      </c>
+      <c r="G2479" s="2">
         <f t="shared" si="124"/>
-        <v>5</v>
-      </c>
-      <c r="G2479" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2479" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56909,11 +57341,15 @@
         <v>259</v>
       </c>
       <c r="F2480" s="2">
+        <f t="shared" si="125"/>
+        <v>4</v>
+      </c>
+      <c r="G2480" s="2">
         <f t="shared" si="124"/>
-        <v>4</v>
-      </c>
-      <c r="G2480" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2480" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56929,12 +57365,16 @@
         <v>103</v>
       </c>
       <c r="F2481" s="2">
+        <f t="shared" si="125"/>
+        <v>6</v>
+      </c>
+      <c r="G2481" s="2">
         <f t="shared" si="124"/>
-        <v>6</v>
-      </c>
-      <c r="G2481" s="2">
-        <f t="shared" si="123"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2481" s="2">
+        <f t="shared" si="126"/>
+        <v>-637727</v>
       </c>
     </row>
     <row r="2482" spans="1:9" x14ac:dyDescent="0.2">
@@ -56951,12 +57391,16 @@
         <v>1553</v>
       </c>
       <c r="F2482" s="2">
+        <f t="shared" si="125"/>
+        <v>90</v>
+      </c>
+      <c r="G2482" s="2">
         <f t="shared" si="124"/>
-        <v>90</v>
-      </c>
-      <c r="G2482" s="2">
-        <f t="shared" si="123"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H2482" s="2">
+        <f t="shared" si="126"/>
+        <v>667848</v>
       </c>
       <c r="I2482" s="2">
         <f>SUM(82186+585662)</f>
@@ -56975,11 +57419,15 @@
         <v>784</v>
       </c>
       <c r="F2483" s="2">
+        <f t="shared" si="125"/>
+        <v>20</v>
+      </c>
+      <c r="G2483" s="2">
         <f t="shared" si="124"/>
-        <v>20</v>
-      </c>
-      <c r="G2483" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2483" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -56995,11 +57443,15 @@
         <v>684</v>
       </c>
       <c r="F2484" s="2">
+        <f t="shared" si="125"/>
+        <v>13</v>
+      </c>
+      <c r="G2484" s="2">
         <f t="shared" si="124"/>
-        <v>13</v>
-      </c>
-      <c r="G2484" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2484" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -57015,12 +57467,16 @@
         <v>279</v>
       </c>
       <c r="F2485" s="2">
+        <f t="shared" si="125"/>
+        <v>6</v>
+      </c>
+      <c r="G2485" s="2">
         <f t="shared" si="124"/>
-        <v>6</v>
-      </c>
-      <c r="G2485" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2485" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2486" spans="1:9" x14ac:dyDescent="0.2">
@@ -57035,12 +57491,16 @@
         <v>345</v>
       </c>
       <c r="F2486" s="2">
+        <f t="shared" si="125"/>
+        <v>12</v>
+      </c>
+      <c r="G2486" s="2">
         <f t="shared" si="124"/>
-        <v>12</v>
-      </c>
-      <c r="G2486" s="2">
-        <f t="shared" si="123"/>
         <v>1</v>
+      </c>
+      <c r="H2486" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2487" spans="1:9" x14ac:dyDescent="0.2">
@@ -57057,12 +57517,16 @@
         <v>3138</v>
       </c>
       <c r="F2487" s="2">
+        <f t="shared" si="125"/>
+        <v>2542</v>
+      </c>
+      <c r="G2487" s="2">
         <f t="shared" si="124"/>
-        <v>2542</v>
-      </c>
-      <c r="G2487" s="2">
-        <f t="shared" si="123"/>
         <v>18</v>
+      </c>
+      <c r="H2487" s="2">
+        <f t="shared" si="126"/>
+        <v>85243</v>
       </c>
       <c r="I2487" s="2">
         <v>3496929</v>
@@ -57080,11 +57544,15 @@
         <v>338</v>
       </c>
       <c r="F2488" s="2">
+        <f t="shared" si="125"/>
+        <v>302</v>
+      </c>
+      <c r="G2488" s="2">
         <f t="shared" si="124"/>
-        <v>302</v>
-      </c>
-      <c r="G2488" s="2">
-        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="H2488" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -57100,12 +57568,16 @@
         <v>424</v>
       </c>
       <c r="F2489" s="2">
+        <f t="shared" si="125"/>
+        <v>420</v>
+      </c>
+      <c r="G2489" s="2">
         <f t="shared" si="124"/>
-        <v>420</v>
-      </c>
-      <c r="G2489" s="2">
-        <f t="shared" si="123"/>
         <v>14</v>
+      </c>
+      <c r="H2489" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2490" spans="1:9" x14ac:dyDescent="0.2">
@@ -57119,11 +57591,15 @@
         <v>154</v>
       </c>
       <c r="F2490" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>66</v>
       </c>
       <c r="G2490" s="2">
-        <f t="shared" ref="G2490:G2553" si="125">SUM(E2490-E2460)</f>
+        <f t="shared" ref="G2490:G2553" si="127">SUM(E2490-E2460)</f>
+        <v>0</v>
+      </c>
+      <c r="H2490" s="2">
+        <f t="shared" si="126"/>
         <v>0</v>
       </c>
     </row>
@@ -57138,12 +57614,16 @@
         <v>275</v>
       </c>
       <c r="F2491" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>148</v>
       </c>
       <c r="G2491" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>6</v>
+      </c>
+      <c r="H2491" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2492" spans="1:9" x14ac:dyDescent="0.2">
@@ -57163,12 +57643,16 @@
         <v>4015</v>
       </c>
       <c r="F2492" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>85</v>
       </c>
       <c r="G2492" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4</v>
+      </c>
+      <c r="H2492" s="2">
+        <f t="shared" si="126"/>
+        <v>48709</v>
       </c>
       <c r="I2492" s="2">
         <v>3500808</v>
@@ -57186,12 +57670,16 @@
         <v>4514</v>
       </c>
       <c r="F2493" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>98</v>
       </c>
       <c r="G2493" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1</v>
+      </c>
+      <c r="H2493" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2494" spans="1:9" x14ac:dyDescent="0.2">
@@ -57206,12 +57694,16 @@
         <v>2686</v>
       </c>
       <c r="F2494" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>31</v>
       </c>
       <c r="G2494" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3</v>
+      </c>
+      <c r="H2494" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2495" spans="1:9" x14ac:dyDescent="0.2">
@@ -57226,12 +57718,16 @@
         <v>3033</v>
       </c>
       <c r="F2495" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>62</v>
       </c>
       <c r="G2495" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3</v>
+      </c>
+      <c r="H2495" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2496" spans="1:9" x14ac:dyDescent="0.2">
@@ -57246,12 +57742,16 @@
         <v>2018</v>
       </c>
       <c r="F2496" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>46</v>
       </c>
       <c r="G2496" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4</v>
+      </c>
+      <c r="H2496" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2497" spans="2:9" x14ac:dyDescent="0.2">
@@ -57268,12 +57768,16 @@
         <v>1706</v>
       </c>
       <c r="F2497" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>32</v>
       </c>
       <c r="G2497" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>5</v>
+      </c>
+      <c r="H2497" s="2">
+        <f t="shared" si="126"/>
+        <v>16052</v>
       </c>
       <c r="I2497" s="2">
         <v>1283451</v>
@@ -57291,12 +57795,16 @@
         <v>1268</v>
       </c>
       <c r="F2498" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>18</v>
       </c>
       <c r="G2498" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2</v>
+      </c>
+      <c r="H2498" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2499" spans="2:9" x14ac:dyDescent="0.2">
@@ -57311,12 +57819,16 @@
         <v>1765</v>
       </c>
       <c r="F2499" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>14</v>
       </c>
       <c r="G2499" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4</v>
+      </c>
+      <c r="H2499" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2500" spans="2:9" x14ac:dyDescent="0.2">
@@ -57331,12 +57843,16 @@
         <v>1139</v>
       </c>
       <c r="F2500" s="2">
-        <f t="shared" si="124"/>
-        <v>1</v>
-      </c>
-      <c r="G2500" s="2">
         <f t="shared" si="125"/>
         <v>1</v>
+      </c>
+      <c r="G2500" s="2">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+      <c r="H2500" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2501" spans="2:9" x14ac:dyDescent="0.2">
@@ -57351,12 +57867,16 @@
         <v>1019</v>
       </c>
       <c r="F2501" s="2">
-        <f t="shared" ref="F2501:F2564" si="126">SUM(D2501-D2471)</f>
+        <f t="shared" ref="F2501:F2564" si="128">SUM(D2501-D2471)</f>
         <v>22</v>
       </c>
       <c r="G2501" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4</v>
+      </c>
+      <c r="H2501" s="2">
+        <f t="shared" ref="H2501:H2564" si="129">SUM(I2501-I2471)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2502" spans="2:9" x14ac:dyDescent="0.2">
@@ -57373,12 +57893,16 @@
         <v>976</v>
       </c>
       <c r="F2502" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>34</v>
       </c>
       <c r="G2502" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>-3</v>
+      </c>
+      <c r="H2502" s="2">
+        <f t="shared" si="129"/>
+        <v>7532</v>
       </c>
       <c r="I2502" s="2">
         <v>782854</v>
@@ -57396,12 +57920,16 @@
         <v>1812</v>
       </c>
       <c r="F2503" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>38</v>
       </c>
       <c r="G2503" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3</v>
+      </c>
+      <c r="H2503" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2504" spans="2:9" x14ac:dyDescent="0.2">
@@ -57416,12 +57944,16 @@
         <v>1081</v>
       </c>
       <c r="F2504" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>34</v>
       </c>
       <c r="G2504" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4</v>
+      </c>
+      <c r="H2504" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2505" spans="2:9" x14ac:dyDescent="0.2">
@@ -57436,12 +57968,16 @@
         <v>919</v>
       </c>
       <c r="F2505" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>32</v>
       </c>
       <c r="G2505" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>5</v>
+      </c>
+      <c r="H2505" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2506" spans="2:9" x14ac:dyDescent="0.2">
@@ -57456,12 +57992,16 @@
         <v>905</v>
       </c>
       <c r="F2506" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>49</v>
       </c>
       <c r="G2506" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2</v>
+      </c>
+      <c r="H2506" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2507" spans="2:9" x14ac:dyDescent="0.2">
@@ -57478,12 +58018,16 @@
         <v>2572</v>
       </c>
       <c r="F2507" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>62</v>
       </c>
       <c r="G2507" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1</v>
+      </c>
+      <c r="H2507" s="2">
+        <f t="shared" si="129"/>
+        <v>10651</v>
       </c>
       <c r="I2507" s="2">
         <v>928668</v>
@@ -57501,12 +58045,16 @@
         <v>1040</v>
       </c>
       <c r="F2508" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>9</v>
       </c>
       <c r="G2508" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3</v>
+      </c>
+      <c r="H2508" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2509" spans="2:9" x14ac:dyDescent="0.2">
@@ -57521,12 +58069,16 @@
         <v>861</v>
       </c>
       <c r="F2509" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>13</v>
       </c>
       <c r="G2509" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>-1</v>
+      </c>
+      <c r="H2509" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2510" spans="2:9" x14ac:dyDescent="0.2">
@@ -57541,12 +58093,16 @@
         <v>260</v>
       </c>
       <c r="F2510" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>5</v>
       </c>
       <c r="G2510" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1</v>
+      </c>
+      <c r="H2510" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2511" spans="2:9" x14ac:dyDescent="0.2">
@@ -57561,11 +58117,15 @@
         <v>103</v>
       </c>
       <c r="F2511" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>5</v>
       </c>
       <c r="G2511" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2511" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -57583,12 +58143,16 @@
         <v>1564</v>
       </c>
       <c r="F2512" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>97</v>
       </c>
       <c r="G2512" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>11</v>
+      </c>
+      <c r="H2512" s="2">
+        <f t="shared" si="129"/>
+        <v>11255</v>
       </c>
       <c r="I2512" s="2">
         <f>SUM(82696+596407)</f>
@@ -57607,12 +58171,16 @@
         <v>787</v>
       </c>
       <c r="F2513" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>36</v>
       </c>
       <c r="G2513" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3</v>
+      </c>
+      <c r="H2513" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2514" spans="1:9" x14ac:dyDescent="0.2">
@@ -57627,11 +58195,15 @@
         <v>684</v>
       </c>
       <c r="F2514" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>14</v>
       </c>
       <c r="G2514" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2514" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -57647,12 +58219,16 @@
         <v>281</v>
       </c>
       <c r="F2515" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>18</v>
       </c>
       <c r="G2515" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2</v>
+      </c>
+      <c r="H2515" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2516" spans="1:9" x14ac:dyDescent="0.2">
@@ -57667,11 +58243,15 @@
         <v>345</v>
       </c>
       <c r="F2516" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>25</v>
       </c>
       <c r="G2516" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2516" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -57689,12 +58269,16 @@
         <v>3171</v>
       </c>
       <c r="F2517" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>2508</v>
       </c>
       <c r="G2517" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>33</v>
+      </c>
+      <c r="H2517" s="2">
+        <f t="shared" si="129"/>
+        <v>95970</v>
       </c>
       <c r="I2517" s="2">
         <v>3592899</v>
@@ -57712,11 +58296,15 @@
         <v>338</v>
       </c>
       <c r="F2518" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>198</v>
       </c>
       <c r="G2518" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2518" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -57732,12 +58320,16 @@
         <v>431</v>
       </c>
       <c r="F2519" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>521</v>
       </c>
       <c r="G2519" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>7</v>
+      </c>
+      <c r="H2519" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2520" spans="1:9" x14ac:dyDescent="0.2">
@@ -57751,12 +58343,16 @@
         <v>155</v>
       </c>
       <c r="F2520" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>120</v>
       </c>
       <c r="G2520" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1</v>
+      </c>
+      <c r="H2520" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2521" spans="1:9" x14ac:dyDescent="0.2">
@@ -57770,11 +58366,15 @@
         <v>275</v>
       </c>
       <c r="F2521" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>360</v>
       </c>
       <c r="G2521" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2521" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -57795,12 +58395,16 @@
         <v>4018</v>
       </c>
       <c r="F2522" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>84</v>
       </c>
       <c r="G2522" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3</v>
+      </c>
+      <c r="H2522" s="2">
+        <f t="shared" si="129"/>
+        <v>51144</v>
       </c>
       <c r="I2522" s="2">
         <v>3551952</v>
@@ -57818,12 +58422,16 @@
         <v>4516</v>
       </c>
       <c r="F2523" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>64</v>
       </c>
       <c r="G2523" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2</v>
+      </c>
+      <c r="H2523" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2524" spans="1:9" x14ac:dyDescent="0.2">
@@ -57838,12 +58446,16 @@
         <v>2687</v>
       </c>
       <c r="F2524" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>41</v>
       </c>
       <c r="G2524" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1</v>
+      </c>
+      <c r="H2524" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2525" spans="1:9" x14ac:dyDescent="0.2">
@@ -57858,11 +58470,15 @@
         <v>3033</v>
       </c>
       <c r="F2525" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>76</v>
       </c>
       <c r="G2525" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2525" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -57878,12 +58494,16 @@
         <v>2020</v>
       </c>
       <c r="F2526" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>45</v>
       </c>
       <c r="G2526" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2</v>
+      </c>
+      <c r="H2526" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2527" spans="1:9" x14ac:dyDescent="0.2">
@@ -57900,12 +58520,16 @@
         <v>1714</v>
       </c>
       <c r="F2527" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>28</v>
       </c>
       <c r="G2527" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>8</v>
+      </c>
+      <c r="H2527" s="2">
+        <f t="shared" si="129"/>
+        <v>16194</v>
       </c>
       <c r="I2527" s="2">
         <v>1299645</v>
@@ -57923,12 +58547,16 @@
         <v>1272</v>
       </c>
       <c r="F2528" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>-2</v>
       </c>
       <c r="G2528" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4</v>
+      </c>
+      <c r="H2528" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2529" spans="2:9" x14ac:dyDescent="0.2">
@@ -57943,12 +58571,16 @@
         <v>1764</v>
       </c>
       <c r="F2529" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>25</v>
       </c>
       <c r="G2529" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>-1</v>
+      </c>
+      <c r="H2529" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2530" spans="2:9" x14ac:dyDescent="0.2">
@@ -57963,12 +58595,16 @@
         <v>1140</v>
       </c>
       <c r="F2530" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>-11</v>
       </c>
       <c r="G2530" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1</v>
+      </c>
+      <c r="H2530" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2531" spans="2:9" x14ac:dyDescent="0.2">
@@ -57983,12 +58619,16 @@
         <v>1025</v>
       </c>
       <c r="F2531" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>-6</v>
       </c>
       <c r="G2531" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>6</v>
+      </c>
+      <c r="H2531" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2532" spans="2:9" x14ac:dyDescent="0.2">
@@ -58005,12 +58645,16 @@
         <v>984</v>
       </c>
       <c r="F2532" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>27</v>
       </c>
       <c r="G2532" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>8</v>
+      </c>
+      <c r="H2532" s="2">
+        <f t="shared" si="129"/>
+        <v>7369</v>
       </c>
       <c r="I2532" s="2">
         <v>790223</v>
@@ -58028,12 +58672,16 @@
         <v>1820</v>
       </c>
       <c r="F2533" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>50</v>
       </c>
       <c r="G2533" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>8</v>
+      </c>
+      <c r="H2533" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2534" spans="2:9" x14ac:dyDescent="0.2">
@@ -58048,12 +58696,16 @@
         <v>1083</v>
       </c>
       <c r="F2534" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>35</v>
       </c>
       <c r="G2534" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2</v>
+      </c>
+      <c r="H2534" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2535" spans="2:9" x14ac:dyDescent="0.2">
@@ -58068,12 +58720,16 @@
         <v>923</v>
       </c>
       <c r="F2535" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>14</v>
       </c>
       <c r="G2535" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4</v>
+      </c>
+      <c r="H2535" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2536" spans="2:9" x14ac:dyDescent="0.2">
@@ -58088,12 +58744,16 @@
         <v>914</v>
       </c>
       <c r="F2536" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>15</v>
       </c>
       <c r="G2536" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>9</v>
+      </c>
+      <c r="H2536" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2537" spans="2:9" x14ac:dyDescent="0.2">
@@ -58110,12 +58770,16 @@
         <v>2574</v>
       </c>
       <c r="F2537" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>78</v>
       </c>
       <c r="G2537" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2</v>
+      </c>
+      <c r="H2537" s="2">
+        <f t="shared" si="129"/>
+        <v>16137</v>
       </c>
       <c r="I2537" s="2">
         <v>944805</v>
@@ -58133,11 +58797,15 @@
         <v>1040</v>
       </c>
       <c r="F2538" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>22</v>
       </c>
       <c r="G2538" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2538" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -58153,11 +58821,15 @@
         <v>861</v>
       </c>
       <c r="F2539" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>21</v>
       </c>
       <c r="G2539" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2539" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -58173,11 +58845,15 @@
         <v>260</v>
       </c>
       <c r="F2540" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>7</v>
       </c>
       <c r="G2540" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2540" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -58193,11 +58869,15 @@
         <v>103</v>
       </c>
       <c r="F2541" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>6</v>
       </c>
       <c r="G2541" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2541" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -58215,12 +58895,16 @@
         <v>1576</v>
       </c>
       <c r="F2542" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>126</v>
       </c>
       <c r="G2542" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>12</v>
+      </c>
+      <c r="H2542" s="2">
+        <f t="shared" si="129"/>
+        <v>12305</v>
       </c>
       <c r="I2542" s="2">
         <f>SUM(83191+608217)</f>
@@ -58239,12 +58923,16 @@
         <v>791</v>
       </c>
       <c r="F2543" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>29</v>
       </c>
       <c r="G2543" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>4</v>
+      </c>
+      <c r="H2543" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2544" spans="2:9" x14ac:dyDescent="0.2">
@@ -58259,12 +58947,16 @@
         <v>693</v>
       </c>
       <c r="F2544" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>14</v>
       </c>
       <c r="G2544" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>9</v>
+      </c>
+      <c r="H2544" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2545" spans="1:9" x14ac:dyDescent="0.2">
@@ -58279,12 +58971,16 @@
         <v>284</v>
       </c>
       <c r="F2545" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>21</v>
       </c>
       <c r="G2545" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>3</v>
+      </c>
+      <c r="H2545" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2546" spans="1:9" x14ac:dyDescent="0.2">
@@ -58299,12 +58995,16 @@
         <v>347</v>
       </c>
       <c r="F2546" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>9</v>
       </c>
       <c r="G2546" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2</v>
+      </c>
+      <c r="H2546" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2547" spans="1:9" x14ac:dyDescent="0.2">
@@ -58321,12 +59021,16 @@
         <v>3205</v>
       </c>
       <c r="F2547" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>1133</v>
       </c>
       <c r="G2547" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>34</v>
+      </c>
+      <c r="H2547" s="2">
+        <f t="shared" si="129"/>
+        <v>101446</v>
       </c>
       <c r="I2547" s="2">
         <v>3694345</v>
@@ -58344,12 +59048,16 @@
         <v>347</v>
       </c>
       <c r="F2548" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>332</v>
       </c>
       <c r="G2548" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>9</v>
+      </c>
+      <c r="H2548" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2549" spans="1:9" x14ac:dyDescent="0.2">
@@ -58364,12 +59072,16 @@
         <v>432</v>
       </c>
       <c r="F2549" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>477</v>
       </c>
       <c r="G2549" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1</v>
+      </c>
+      <c r="H2549" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2550" spans="1:9" x14ac:dyDescent="0.2">
@@ -58383,11 +59095,15 @@
         <v>155</v>
       </c>
       <c r="F2550" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>112</v>
       </c>
       <c r="G2550" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="H2550" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -58402,12 +59118,16 @@
         <v>299</v>
       </c>
       <c r="F2551" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>733</v>
       </c>
       <c r="G2551" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>24</v>
+      </c>
+      <c r="H2551" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2552" spans="1:9" x14ac:dyDescent="0.2">
@@ -58427,15 +59147,12 @@
         <v>4020</v>
       </c>
       <c r="F2552" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>106</v>
       </c>
       <c r="G2552" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>2</v>
-      </c>
-      <c r="I2552" s="2">
-        <v>390415</v>
       </c>
     </row>
     <row r="2553" spans="1:9" x14ac:dyDescent="0.2">
@@ -58450,12 +59167,16 @@
         <v>4517</v>
       </c>
       <c r="F2553" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>95</v>
       </c>
       <c r="G2553" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>1</v>
+      </c>
+      <c r="H2553" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2554" spans="1:9" x14ac:dyDescent="0.2">
@@ -58470,12 +59191,16 @@
         <v>2688</v>
       </c>
       <c r="F2554" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>61</v>
       </c>
       <c r="G2554" s="2">
-        <f t="shared" ref="G2554:G2581" si="127">SUM(E2554-E2524)</f>
+        <f t="shared" ref="G2554:G2581" si="130">SUM(E2554-E2524)</f>
         <v>1</v>
+      </c>
+      <c r="H2554" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2555" spans="1:9" x14ac:dyDescent="0.2">
@@ -58490,12 +59215,16 @@
         <v>3035</v>
       </c>
       <c r="F2555" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>64</v>
       </c>
       <c r="G2555" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2</v>
+      </c>
+      <c r="H2555" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2556" spans="1:9" x14ac:dyDescent="0.2">
@@ -58510,12 +59239,16 @@
         <v>2022</v>
       </c>
       <c r="F2556" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>50</v>
       </c>
       <c r="G2556" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2</v>
+      </c>
+      <c r="H2556" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2557" spans="1:9" x14ac:dyDescent="0.2">
@@ -58532,12 +59265,16 @@
         <v>1716</v>
       </c>
       <c r="F2557" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>70</v>
       </c>
       <c r="G2557" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2</v>
+      </c>
+      <c r="H2557" s="2">
+        <f t="shared" si="129"/>
+        <v>21265</v>
       </c>
       <c r="I2557" s="2">
         <v>1320910</v>
@@ -58555,12 +59292,16 @@
         <v>1273</v>
       </c>
       <c r="F2558" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>4</v>
       </c>
       <c r="G2558" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>1</v>
+      </c>
+      <c r="H2558" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2559" spans="1:9" x14ac:dyDescent="0.2">
@@ -58575,12 +59316,16 @@
         <v>1774</v>
       </c>
       <c r="F2559" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>20</v>
       </c>
       <c r="G2559" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>10</v>
+      </c>
+      <c r="H2559" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2560" spans="1:9" x14ac:dyDescent="0.2">
@@ -58595,12 +59340,16 @@
         <v>1141</v>
       </c>
       <c r="F2560" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>4</v>
       </c>
       <c r="G2560" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>1</v>
+      </c>
+      <c r="H2560" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2561" spans="2:9" x14ac:dyDescent="0.2">
@@ -58615,11 +59364,15 @@
         <v>1025</v>
       </c>
       <c r="F2561" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>31</v>
       </c>
       <c r="G2561" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="H2561" s="2">
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
     </row>
@@ -58637,12 +59390,16 @@
         <v>990</v>
       </c>
       <c r="F2562" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>36</v>
       </c>
       <c r="G2562" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>6</v>
+      </c>
+      <c r="H2562" s="2">
+        <f t="shared" si="129"/>
+        <v>10318</v>
       </c>
       <c r="I2562" s="2">
         <v>800541</v>
@@ -58660,12 +59417,16 @@
         <v>1825</v>
       </c>
       <c r="F2563" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>44</v>
       </c>
       <c r="G2563" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>5</v>
+      </c>
+      <c r="H2563" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2564" spans="2:9" x14ac:dyDescent="0.2">
@@ -58680,12 +59441,16 @@
         <v>1086</v>
       </c>
       <c r="F2564" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>32</v>
       </c>
       <c r="G2564" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>3</v>
+      </c>
+      <c r="H2564" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2565" spans="2:9" x14ac:dyDescent="0.2">
@@ -58700,12 +59465,16 @@
         <v>924</v>
       </c>
       <c r="F2565" s="2">
-        <f t="shared" ref="F2565:F2581" si="128">SUM(D2565-D2535)</f>
+        <f t="shared" ref="F2565:F2581" si="131">SUM(D2565-D2535)</f>
         <v>26</v>
       </c>
       <c r="G2565" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>1</v>
+      </c>
+      <c r="H2565" s="2">
+        <f t="shared" ref="H2565:H2628" si="132">SUM(I2565-I2535)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2566" spans="2:9" x14ac:dyDescent="0.2">
@@ -58720,12 +59489,16 @@
         <v>917</v>
       </c>
       <c r="F2566" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>29</v>
       </c>
       <c r="G2566" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>3</v>
+      </c>
+      <c r="H2566" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2567" spans="2:9" x14ac:dyDescent="0.2">
@@ -58742,12 +59515,16 @@
         <v>2583</v>
       </c>
       <c r="F2567" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>68</v>
       </c>
       <c r="G2567" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>9</v>
+      </c>
+      <c r="H2567" s="2">
+        <f t="shared" si="132"/>
+        <v>18034</v>
       </c>
       <c r="I2567" s="2">
         <v>962839</v>
@@ -58765,12 +59542,16 @@
         <v>1043</v>
       </c>
       <c r="F2568" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>28</v>
       </c>
       <c r="G2568" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>3</v>
+      </c>
+      <c r="H2568" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2569" spans="2:9" x14ac:dyDescent="0.2">
@@ -58785,12 +59566,16 @@
         <v>863</v>
       </c>
       <c r="F2569" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>30</v>
       </c>
       <c r="G2569" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>2</v>
+      </c>
+      <c r="H2569" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2570" spans="2:9" x14ac:dyDescent="0.2">
@@ -58805,11 +59590,15 @@
         <v>260</v>
       </c>
       <c r="F2570" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>11</v>
       </c>
       <c r="G2570" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="H2570" s="2">
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
     </row>
@@ -58825,11 +59614,15 @@
         <v>103</v>
       </c>
       <c r="F2571" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>6</v>
       </c>
       <c r="G2571" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="H2571" s="2">
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
     </row>
@@ -58847,12 +59640,16 @@
         <v>1583</v>
       </c>
       <c r="F2572" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>123</v>
       </c>
       <c r="G2572" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>7</v>
+      </c>
+      <c r="H2572" s="2">
+        <f t="shared" si="132"/>
+        <v>13393</v>
       </c>
       <c r="I2572" s="2">
         <f>SUM(83770+621031)</f>
@@ -58871,12 +59668,16 @@
         <v>792</v>
       </c>
       <c r="F2573" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>56</v>
       </c>
       <c r="G2573" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>1</v>
+      </c>
+      <c r="H2573" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2574" spans="2:9" x14ac:dyDescent="0.2">
@@ -58891,11 +59692,15 @@
         <v>693</v>
       </c>
       <c r="F2574" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>16</v>
       </c>
       <c r="G2574" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="H2574" s="2">
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
     </row>
@@ -58911,12 +59716,16 @@
         <v>285</v>
       </c>
       <c r="F2575" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>34</v>
       </c>
       <c r="G2575" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>1</v>
+      </c>
+      <c r="H2575" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2576" spans="2:9" x14ac:dyDescent="0.2">
@@ -58931,82 +59740,1591 @@
         <v>348</v>
       </c>
       <c r="F2576" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>8</v>
       </c>
       <c r="G2576" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="2577" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H2576" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2577" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2577" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D2577" s="2">
+        <v>91524</v>
+      </c>
+      <c r="E2577" s="2">
+        <v>3246</v>
+      </c>
       <c r="F2577" s="2">
-        <f t="shared" si="128"/>
-        <v>-89566</v>
+        <f t="shared" si="131"/>
+        <v>1958</v>
       </c>
       <c r="G2577" s="2">
-        <f t="shared" si="127"/>
-        <v>-3205</v>
-      </c>
-    </row>
-    <row r="2578" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="130"/>
+        <v>41</v>
+      </c>
+      <c r="H2577" s="2">
+        <f t="shared" si="132"/>
+        <v>76969</v>
+      </c>
+      <c r="I2577" s="2">
+        <v>3771314</v>
+      </c>
+    </row>
+    <row r="2578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2578" s="3"/>
       <c r="C2578" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="D2578" s="2">
+        <v>11963</v>
+      </c>
+      <c r="E2578" s="2">
+        <v>352</v>
+      </c>
       <c r="F2578" s="2">
-        <f t="shared" si="128"/>
-        <v>-11628</v>
+        <f t="shared" si="131"/>
+        <v>335</v>
       </c>
       <c r="G2578" s="2">
-        <f t="shared" si="127"/>
-        <v>-347</v>
-      </c>
-    </row>
-    <row r="2579" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="130"/>
+        <v>5</v>
+      </c>
+      <c r="H2578" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2579" s="3"/>
       <c r="C2579" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D2579" s="2">
+        <v>15224</v>
+      </c>
+      <c r="E2579" s="2">
+        <v>435</v>
+      </c>
       <c r="F2579" s="2">
-        <f t="shared" si="128"/>
-        <v>-14946</v>
+        <f t="shared" si="131"/>
+        <v>278</v>
       </c>
       <c r="G2579" s="2">
-        <f t="shared" si="127"/>
-        <v>-432</v>
-      </c>
-    </row>
-    <row r="2580" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="130"/>
+        <v>3</v>
+      </c>
+      <c r="H2579" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2580" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D2580" s="2">
+        <v>3871</v>
+      </c>
+      <c r="E2580" s="2">
+        <v>155</v>
+      </c>
       <c r="F2580" s="2">
-        <f t="shared" si="128"/>
-        <v>-3812</v>
+        <f t="shared" si="131"/>
+        <v>59</v>
       </c>
       <c r="G2580" s="2">
-        <f t="shared" si="127"/>
-        <v>-155</v>
-      </c>
-    </row>
-    <row r="2581" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="H2580" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2581" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D2581" s="2">
+        <v>12221</v>
+      </c>
+      <c r="E2581" s="2">
+        <v>306</v>
+      </c>
       <c r="F2581" s="2">
-        <f t="shared" si="128"/>
-        <v>-11804</v>
+        <f t="shared" si="131"/>
+        <v>417</v>
       </c>
       <c r="G2581" s="2">
-        <f t="shared" si="127"/>
-        <v>-299</v>
+        <f t="shared" si="130"/>
+        <v>7</v>
+      </c>
+      <c r="H2581" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2582" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2582" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B2582" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2582" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2582" s="2">
+        <v>65089</v>
+      </c>
+      <c r="E2582" s="2">
+        <v>4022</v>
+      </c>
+      <c r="F2582" s="2">
+        <f>SUM(D2582-D2552)</f>
+        <v>102</v>
+      </c>
+      <c r="G2582" s="2">
+        <f>SUM(E2582-E2552)</f>
+        <v>2</v>
+      </c>
+      <c r="I2582" s="2">
+        <v>3681317</v>
+      </c>
+    </row>
+    <row r="2583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2583" s="3"/>
+      <c r="C2583" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2583" s="2">
+        <v>59311</v>
+      </c>
+      <c r="E2583" s="2">
+        <v>4518</v>
+      </c>
+      <c r="F2583" s="2">
+        <f t="shared" ref="F2583:F2641" si="133">SUM(D2583-D2553)</f>
+        <v>105</v>
+      </c>
+      <c r="G2583" s="2">
+        <f t="shared" ref="G2583:G2641" si="134">SUM(E2583-E2553)</f>
+        <v>1</v>
+      </c>
+      <c r="H2583" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2584" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2584" s="3"/>
+      <c r="C2584" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2584" s="2">
+        <v>41684</v>
+      </c>
+      <c r="E2584" s="2">
+        <v>2690</v>
+      </c>
+      <c r="F2584" s="2">
+        <f t="shared" si="133"/>
+        <v>38</v>
+      </c>
+      <c r="G2584" s="2">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="H2584" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2585" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2585" s="3"/>
+      <c r="C2585" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2585" s="2">
+        <v>47383</v>
+      </c>
+      <c r="E2585" s="2">
+        <v>3036</v>
+      </c>
+      <c r="F2585" s="2">
+        <f t="shared" si="133"/>
+        <v>89</v>
+      </c>
+      <c r="G2585" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="H2585" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2586" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2586" s="3"/>
+      <c r="C2586" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2586" s="2">
+        <v>41208</v>
+      </c>
+      <c r="E2586" s="2">
+        <v>2022</v>
+      </c>
+      <c r="F2586" s="2">
+        <f t="shared" si="133"/>
+        <v>57</v>
+      </c>
+      <c r="G2586" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H2586" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2587" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2587" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2587" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2587" s="2">
+        <v>19264</v>
+      </c>
+      <c r="E2587" s="2">
+        <v>1718</v>
+      </c>
+      <c r="F2587" s="2">
+        <f t="shared" si="133"/>
+        <v>97</v>
+      </c>
+      <c r="G2587" s="2">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="H2587" s="2">
+        <f t="shared" si="132"/>
+        <v>25762</v>
+      </c>
+      <c r="I2587" s="2">
+        <v>1346672</v>
+      </c>
+    </row>
+    <row r="2588" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2588" s="3"/>
+      <c r="C2588" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2588" s="2">
+        <v>18788</v>
+      </c>
+      <c r="E2588" s="2">
+        <v>1274</v>
+      </c>
+      <c r="F2588" s="2">
+        <f t="shared" si="133"/>
+        <v>13</v>
+      </c>
+      <c r="G2588" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="H2588" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2589" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2589" s="3"/>
+      <c r="C2589" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2589" s="2">
+        <v>18666</v>
+      </c>
+      <c r="E2589" s="2">
+        <v>1778</v>
+      </c>
+      <c r="F2589" s="2">
+        <f t="shared" si="133"/>
+        <v>29</v>
+      </c>
+      <c r="G2589" s="2">
+        <f t="shared" si="134"/>
+        <v>4</v>
+      </c>
+      <c r="H2589" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2590" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2590" s="3"/>
+      <c r="C2590" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2590" s="2">
+        <v>16356</v>
+      </c>
+      <c r="E2590" s="2">
+        <v>1143</v>
+      </c>
+      <c r="F2590" s="2">
+        <f t="shared" si="133"/>
+        <v>22</v>
+      </c>
+      <c r="G2590" s="2">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="H2590" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2591" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2591" s="3"/>
+      <c r="C2591" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2591" s="2">
+        <v>16843</v>
+      </c>
+      <c r="E2591" s="2">
+        <v>1029</v>
+      </c>
+      <c r="F2591" s="2">
+        <f t="shared" si="133"/>
+        <v>24</v>
+      </c>
+      <c r="G2591" s="2">
+        <f t="shared" si="134"/>
+        <v>4</v>
+      </c>
+      <c r="H2591" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2592" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2592" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2592" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2592" s="2">
+        <v>19707</v>
+      </c>
+      <c r="E2592" s="2">
+        <v>997</v>
+      </c>
+      <c r="F2592" s="2">
+        <f t="shared" si="133"/>
+        <v>43</v>
+      </c>
+      <c r="G2592" s="2">
+        <f t="shared" si="134"/>
+        <v>7</v>
+      </c>
+      <c r="H2592" s="2">
+        <f t="shared" si="132"/>
+        <v>8545</v>
+      </c>
+      <c r="I2592" s="2">
+        <v>809086</v>
+      </c>
+    </row>
+    <row r="2593" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2593" s="3"/>
+      <c r="C2593" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2593" s="2">
+        <v>23786</v>
+      </c>
+      <c r="E2593" s="2">
+        <v>1839</v>
+      </c>
+      <c r="F2593" s="2">
+        <f t="shared" si="133"/>
+        <v>45</v>
+      </c>
+      <c r="G2593" s="2">
+        <f t="shared" si="134"/>
+        <v>14</v>
+      </c>
+      <c r="H2593" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2594" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2594" s="3"/>
+      <c r="C2594" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2594" s="2">
+        <v>15975</v>
+      </c>
+      <c r="E2594" s="2">
+        <v>1092</v>
+      </c>
+      <c r="F2594" s="2">
+        <f t="shared" si="133"/>
+        <v>23</v>
+      </c>
+      <c r="G2594" s="2">
+        <f t="shared" si="134"/>
+        <v>6</v>
+      </c>
+      <c r="H2594" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2595" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2595" s="3"/>
+      <c r="C2595" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2595" s="2">
+        <v>9100</v>
+      </c>
+      <c r="E2595" s="2">
+        <v>927</v>
+      </c>
+      <c r="F2595" s="2">
+        <f t="shared" si="133"/>
+        <v>18</v>
+      </c>
+      <c r="G2595" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2595" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2596" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2596" s="3"/>
+      <c r="C2596" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2596" s="2">
+        <v>12240</v>
+      </c>
+      <c r="E2596" s="2">
+        <v>920</v>
+      </c>
+      <c r="F2596" s="2">
+        <f t="shared" si="133"/>
+        <v>4</v>
+      </c>
+      <c r="G2596" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2596" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2597" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2597" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2597" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2597" s="2">
+        <v>21644</v>
+      </c>
+      <c r="E2597" s="2">
+        <v>2582</v>
+      </c>
+      <c r="F2597" s="2">
+        <f t="shared" si="133"/>
+        <v>71</v>
+      </c>
+      <c r="G2597" s="2">
+        <f t="shared" si="134"/>
+        <v>-1</v>
+      </c>
+      <c r="H2597" s="2">
+        <f t="shared" si="132"/>
+        <v>18867</v>
+      </c>
+      <c r="I2597" s="2">
+        <v>981706</v>
+      </c>
+    </row>
+    <row r="2598" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2598" s="3"/>
+      <c r="C2598" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2598" s="2">
+        <v>8754</v>
+      </c>
+      <c r="E2598" s="2">
+        <v>1042</v>
+      </c>
+      <c r="F2598" s="2">
+        <f t="shared" si="133"/>
+        <v>21</v>
+      </c>
+      <c r="G2598" s="2">
+        <f t="shared" si="134"/>
+        <v>-1</v>
+      </c>
+      <c r="H2598" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2599" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2599" s="3"/>
+      <c r="C2599" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2599" s="2">
+        <v>7074</v>
+      </c>
+      <c r="E2599" s="2">
+        <v>864</v>
+      </c>
+      <c r="F2599" s="2">
+        <f t="shared" si="133"/>
+        <v>27</v>
+      </c>
+      <c r="G2599" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="H2599" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2600" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2600" s="3"/>
+      <c r="C2600" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2600" s="2">
+        <v>2158</v>
+      </c>
+      <c r="E2600" s="2">
+        <v>260</v>
+      </c>
+      <c r="F2600" s="2">
+        <f t="shared" si="133"/>
+        <v>14</v>
+      </c>
+      <c r="G2600" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H2600" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2601" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2601" s="3"/>
+      <c r="C2601" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2601" s="2">
+        <v>1441</v>
+      </c>
+      <c r="E2601" s="2">
+        <v>104</v>
+      </c>
+      <c r="F2601" s="2">
+        <f t="shared" si="133"/>
+        <v>10</v>
+      </c>
+      <c r="G2601" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="H2601" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2602" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2602" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2602" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2602" s="2">
+        <v>21203</v>
+      </c>
+      <c r="E2602" s="2">
+        <v>1587</v>
+      </c>
+      <c r="F2602" s="2">
+        <f t="shared" si="133"/>
+        <v>131</v>
+      </c>
+      <c r="G2602" s="2">
+        <f t="shared" si="134"/>
+        <v>4</v>
+      </c>
+      <c r="H2602" s="2">
+        <f t="shared" si="132"/>
+        <v>14280</v>
+      </c>
+      <c r="I2602" s="2">
+        <f>SUM(84370+634711)</f>
+        <v>719081</v>
+      </c>
+    </row>
+    <row r="2603" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2603" s="3"/>
+      <c r="C2603" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2603" s="2">
+        <v>8301</v>
+      </c>
+      <c r="E2603" s="2">
+        <v>794</v>
+      </c>
+      <c r="F2603" s="2">
+        <f t="shared" si="133"/>
+        <v>57</v>
+      </c>
+      <c r="G2603" s="2">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="H2603" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2604" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2604" s="3"/>
+      <c r="C2604" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2604" s="2">
+        <v>7117</v>
+      </c>
+      <c r="E2604" s="2">
+        <v>696</v>
+      </c>
+      <c r="F2604" s="2">
+        <f t="shared" si="133"/>
+        <v>22</v>
+      </c>
+      <c r="G2604" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2604" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2605" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2605" s="3"/>
+      <c r="C2605" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2605" s="2">
+        <v>4187</v>
+      </c>
+      <c r="E2605" s="2">
+        <v>288</v>
+      </c>
+      <c r="F2605" s="2">
+        <f t="shared" si="133"/>
+        <v>23</v>
+      </c>
+      <c r="G2605" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2605" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2606" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2606" s="3"/>
+      <c r="C2606" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2606" s="2">
+        <v>4474</v>
+      </c>
+      <c r="E2606" s="2">
+        <v>348</v>
+      </c>
+      <c r="F2606" s="2">
+        <f t="shared" si="133"/>
+        <v>13</v>
+      </c>
+      <c r="G2606" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H2606" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2607" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2607" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2607" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2607" s="2">
+        <v>93328</v>
+      </c>
+      <c r="E2607" s="2">
+        <v>3267</v>
+      </c>
+      <c r="F2607" s="2">
+        <f t="shared" si="133"/>
+        <v>1804</v>
+      </c>
+      <c r="G2607" s="2">
+        <f t="shared" si="134"/>
+        <v>21</v>
+      </c>
+      <c r="H2607" s="2">
+        <f t="shared" si="132"/>
+        <v>90996</v>
+      </c>
+      <c r="I2607" s="2">
+        <v>3862310</v>
+      </c>
+    </row>
+    <row r="2608" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2608" s="3"/>
+      <c r="C2608" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2608" s="2">
+        <v>12402</v>
+      </c>
+      <c r="E2608" s="2">
+        <v>358</v>
+      </c>
+      <c r="F2608" s="2">
+        <f t="shared" si="133"/>
+        <v>439</v>
+      </c>
+      <c r="G2608" s="2">
+        <f t="shared" si="134"/>
+        <v>6</v>
+      </c>
+      <c r="H2608" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2609" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2609" s="3"/>
+      <c r="C2609" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2609" s="2">
+        <v>15858</v>
+      </c>
+      <c r="E2609" s="2">
+        <v>438</v>
+      </c>
+      <c r="F2609" s="2">
+        <f t="shared" si="133"/>
+        <v>634</v>
+      </c>
+      <c r="G2609" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2609" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2610" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2610" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2610" s="2">
+        <v>3968</v>
+      </c>
+      <c r="E2610" s="2">
+        <v>155</v>
+      </c>
+      <c r="F2610" s="2">
+        <f t="shared" si="133"/>
+        <v>97</v>
+      </c>
+      <c r="G2610" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H2610" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2611" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2611" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2611" s="2">
+        <v>12659</v>
+      </c>
+      <c r="E2611" s="2">
+        <v>323</v>
+      </c>
+      <c r="F2611" s="2">
+        <f t="shared" si="133"/>
+        <v>438</v>
+      </c>
+      <c r="G2611" s="2">
+        <f t="shared" si="134"/>
+        <v>17</v>
+      </c>
+      <c r="H2611" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2612" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2612" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B2612" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2612" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2612" s="2">
+        <v>65175</v>
+      </c>
+      <c r="E2612" s="2">
+        <v>4022</v>
+      </c>
+      <c r="F2612" s="2">
+        <f t="shared" si="133"/>
+        <v>86</v>
+      </c>
+      <c r="G2612" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H2612" s="2">
+        <f t="shared" si="132"/>
+        <v>73262</v>
+      </c>
+      <c r="I2612" s="2">
+        <v>3754579</v>
+      </c>
+    </row>
+    <row r="2613" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2613" s="3"/>
+      <c r="C2613" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2613" s="2">
+        <v>59420</v>
+      </c>
+      <c r="E2613" s="2">
+        <v>4520</v>
+      </c>
+      <c r="F2613" s="2">
+        <f t="shared" si="133"/>
+        <v>109</v>
+      </c>
+      <c r="G2613" s="2">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="H2613" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2614" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2614" s="3"/>
+      <c r="C2614" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2614" s="2">
+        <v>41725</v>
+      </c>
+      <c r="E2614" s="2">
+        <v>2691</v>
+      </c>
+      <c r="F2614" s="2">
+        <f t="shared" si="133"/>
+        <v>41</v>
+      </c>
+      <c r="G2614" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="H2614" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2615" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2615" s="3"/>
+      <c r="C2615" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2615" s="2">
+        <v>47456</v>
+      </c>
+      <c r="E2615" s="2">
+        <v>3038</v>
+      </c>
+      <c r="F2615" s="2">
+        <f t="shared" si="133"/>
+        <v>73</v>
+      </c>
+      <c r="G2615" s="2">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="H2615" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2616" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2616" s="3"/>
+      <c r="C2616" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2616" s="2">
+        <v>41253</v>
+      </c>
+      <c r="E2616" s="2">
+        <v>2025</v>
+      </c>
+      <c r="F2616" s="2">
+        <f t="shared" si="133"/>
+        <v>45</v>
+      </c>
+      <c r="G2616" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2616" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2617" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2617" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2617" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2617" s="2">
+        <v>19275</v>
+      </c>
+      <c r="E2617" s="2">
+        <v>1720</v>
+      </c>
+      <c r="F2617" s="2">
+        <f t="shared" si="133"/>
+        <v>11</v>
+      </c>
+      <c r="G2617" s="2">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="H2617" s="2">
+        <f t="shared" si="132"/>
+        <v>20578</v>
+      </c>
+      <c r="I2617" s="2">
+        <v>1367250</v>
+      </c>
+    </row>
+    <row r="2618" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2618" s="3"/>
+      <c r="C2618" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2618" s="2">
+        <v>18814</v>
+      </c>
+      <c r="E2618" s="2">
+        <v>1277</v>
+      </c>
+      <c r="F2618" s="2">
+        <f t="shared" si="133"/>
+        <v>26</v>
+      </c>
+      <c r="G2618" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2618" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2619" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2619" s="3"/>
+      <c r="C2619" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2619" s="2">
+        <v>18696</v>
+      </c>
+      <c r="E2619" s="2">
+        <v>1781</v>
+      </c>
+      <c r="F2619" s="2">
+        <f t="shared" si="133"/>
+        <v>30</v>
+      </c>
+      <c r="G2619" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2619" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2620" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2620" s="3"/>
+      <c r="C2620" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2620" s="2">
+        <v>16353</v>
+      </c>
+      <c r="E2620" s="2">
+        <v>1144</v>
+      </c>
+      <c r="F2620" s="2">
+        <f t="shared" si="133"/>
+        <v>-3</v>
+      </c>
+      <c r="G2620" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="H2620" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2621" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2621" s="3"/>
+      <c r="C2621" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2621" s="2">
+        <v>16868</v>
+      </c>
+      <c r="E2621" s="2">
+        <v>1032</v>
+      </c>
+      <c r="F2621" s="2">
+        <f t="shared" si="133"/>
+        <v>25</v>
+      </c>
+      <c r="G2621" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2621" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2622" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2622" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2622" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2622" s="2">
+        <v>19764</v>
+      </c>
+      <c r="E2622" s="2">
+        <v>1004</v>
+      </c>
+      <c r="F2622" s="2">
+        <f t="shared" si="133"/>
+        <v>57</v>
+      </c>
+      <c r="G2622" s="2">
+        <f t="shared" si="134"/>
+        <v>7</v>
+      </c>
+      <c r="H2622" s="2">
+        <f t="shared" si="132"/>
+        <v>12189</v>
+      </c>
+      <c r="I2622" s="2">
+        <v>821275</v>
+      </c>
+    </row>
+    <row r="2623" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2623" s="3"/>
+      <c r="C2623" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2623" s="2">
+        <v>23859</v>
+      </c>
+      <c r="E2623" s="2">
+        <v>1849</v>
+      </c>
+      <c r="F2623" s="2">
+        <f t="shared" si="133"/>
+        <v>73</v>
+      </c>
+      <c r="G2623" s="2">
+        <f t="shared" si="134"/>
+        <v>10</v>
+      </c>
+      <c r="H2623" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2624" s="3"/>
+      <c r="C2624" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2624" s="2">
+        <v>16028</v>
+      </c>
+      <c r="E2624" s="2">
+        <v>1096</v>
+      </c>
+      <c r="F2624" s="2">
+        <f t="shared" si="133"/>
+        <v>53</v>
+      </c>
+      <c r="G2624" s="2">
+        <f t="shared" si="134"/>
+        <v>4</v>
+      </c>
+      <c r="H2624" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2625" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2625" s="3"/>
+      <c r="C2625" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2625" s="2">
+        <v>9125</v>
+      </c>
+      <c r="E2625" s="2">
+        <v>927</v>
+      </c>
+      <c r="F2625" s="2">
+        <f t="shared" si="133"/>
+        <v>25</v>
+      </c>
+      <c r="G2625" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H2625" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2626" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2626" s="3"/>
+      <c r="C2626" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2626" s="2">
+        <v>12303</v>
+      </c>
+      <c r="E2626" s="2">
+        <v>920</v>
+      </c>
+      <c r="F2626" s="2">
+        <f t="shared" si="133"/>
+        <v>63</v>
+      </c>
+      <c r="G2626" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H2626" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2627" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2627" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2627" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2627" s="2">
+        <v>21730</v>
+      </c>
+      <c r="E2627" s="2">
+        <v>2589</v>
+      </c>
+      <c r="F2627" s="2">
+        <f t="shared" si="133"/>
+        <v>86</v>
+      </c>
+      <c r="G2627" s="2">
+        <f t="shared" si="134"/>
+        <v>7</v>
+      </c>
+      <c r="H2627" s="2">
+        <f t="shared" si="132"/>
+        <v>19115</v>
+      </c>
+      <c r="I2627" s="2">
+        <v>1000821</v>
+      </c>
+    </row>
+    <row r="2628" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2628" s="3"/>
+      <c r="C2628" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2628" s="2">
+        <v>8793</v>
+      </c>
+      <c r="E2628" s="2">
+        <v>1043</v>
+      </c>
+      <c r="F2628" s="2">
+        <f t="shared" si="133"/>
+        <v>39</v>
+      </c>
+      <c r="G2628" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="H2628" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2629" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2629" s="3"/>
+      <c r="C2629" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2629" s="2">
+        <v>7092</v>
+      </c>
+      <c r="E2629" s="2">
+        <v>868</v>
+      </c>
+      <c r="F2629" s="2">
+        <f t="shared" si="133"/>
+        <v>18</v>
+      </c>
+      <c r="G2629" s="2">
+        <f t="shared" si="134"/>
+        <v>4</v>
+      </c>
+      <c r="H2629" s="2">
+        <f t="shared" ref="H2629:H2641" si="135">SUM(I2629-I2599)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2630" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2630" s="3"/>
+      <c r="C2630" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2630" s="2">
+        <v>2161</v>
+      </c>
+      <c r="E2630" s="2">
+        <v>263</v>
+      </c>
+      <c r="F2630" s="2">
+        <f t="shared" si="133"/>
+        <v>3</v>
+      </c>
+      <c r="G2630" s="2">
+        <f t="shared" si="134"/>
+        <v>3</v>
+      </c>
+      <c r="H2630" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2631" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2631" s="3"/>
+      <c r="C2631" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2631" s="2">
+        <v>1448</v>
+      </c>
+      <c r="E2631" s="2">
+        <v>104</v>
+      </c>
+      <c r="F2631" s="2">
+        <f t="shared" si="133"/>
+        <v>7</v>
+      </c>
+      <c r="G2631" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H2631" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2632" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2632" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2632" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2632" s="2">
+        <v>1591</v>
+      </c>
+      <c r="F2632" s="2">
+        <f t="shared" si="133"/>
+        <v>-21203</v>
+      </c>
+      <c r="G2632" s="2">
+        <f t="shared" si="134"/>
+        <v>4</v>
+      </c>
+      <c r="H2632" s="2">
+        <f t="shared" si="135"/>
+        <v>12690</v>
+      </c>
+      <c r="I2632" s="2">
+        <f>SUM(84991+646780)</f>
+        <v>731771</v>
+      </c>
+    </row>
+    <row r="2633" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2633" s="3"/>
+      <c r="C2633" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2633" s="2">
+        <v>798</v>
+      </c>
+      <c r="F2633" s="2">
+        <f t="shared" si="133"/>
+        <v>-8301</v>
+      </c>
+      <c r="G2633" s="2">
+        <f t="shared" si="134"/>
+        <v>4</v>
+      </c>
+      <c r="H2633" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2634" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2634" s="3"/>
+      <c r="C2634" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2634" s="2">
+        <v>696</v>
+      </c>
+      <c r="F2634" s="2">
+        <f t="shared" si="133"/>
+        <v>-7117</v>
+      </c>
+      <c r="G2634" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H2634" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2635" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2635" s="3"/>
+      <c r="C2635" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2635" s="2">
+        <v>292</v>
+      </c>
+      <c r="F2635" s="2">
+        <f t="shared" si="133"/>
+        <v>-4187</v>
+      </c>
+      <c r="G2635" s="2">
+        <f t="shared" si="134"/>
+        <v>4</v>
+      </c>
+      <c r="H2635" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2636" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2636" s="3"/>
+      <c r="C2636" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2636" s="2">
+        <v>350</v>
+      </c>
+      <c r="F2636" s="2">
+        <f t="shared" si="133"/>
+        <v>-4474</v>
+      </c>
+      <c r="G2636" s="2">
+        <f t="shared" si="134"/>
+        <v>2</v>
+      </c>
+      <c r="H2636" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2637" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2637" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2637" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2637" s="2">
+        <f t="shared" si="133"/>
+        <v>-93328</v>
+      </c>
+      <c r="G2637" s="2">
+        <f t="shared" si="134"/>
+        <v>-3267</v>
+      </c>
+      <c r="H2637" s="2">
+        <f t="shared" si="135"/>
+        <v>-3862310</v>
+      </c>
+    </row>
+    <row r="2638" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2638" s="3"/>
+      <c r="C2638" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2638" s="2">
+        <f t="shared" si="133"/>
+        <v>-12402</v>
+      </c>
+      <c r="G2638" s="2">
+        <f t="shared" si="134"/>
+        <v>-358</v>
+      </c>
+      <c r="H2638" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2639" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2639" s="3"/>
+      <c r="C2639" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2639" s="2">
+        <f t="shared" si="133"/>
+        <v>-15858</v>
+      </c>
+      <c r="G2639" s="2">
+        <f t="shared" si="134"/>
+        <v>-438</v>
+      </c>
+      <c r="H2639" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2640" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2640" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2640" s="2">
+        <f t="shared" si="133"/>
+        <v>-3968</v>
+      </c>
+      <c r="G2640" s="2">
+        <f t="shared" si="134"/>
+        <v>-155</v>
+      </c>
+      <c r="H2640" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2641" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C2641" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2641" s="2">
+        <f t="shared" si="133"/>
+        <v>-12659</v>
+      </c>
+      <c r="G2641" s="2">
+        <f t="shared" si="134"/>
+        <v>-323</v>
+      </c>
+      <c r="H2641" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A692B56E-F593-CB4D-BBA4-A72ABB7B2653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7BB4FE-F937-1348-8C55-30D752333799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16040" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3178" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2641"/>
+  <dimension ref="A1:M2761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2579" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2582" sqref="H2582"/>
+    <sheetView tabSelected="1" topLeftCell="A2718" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2732" sqref="E2732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61244,17 +61244,26 @@
       <c r="C2637" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D2637" s="2">
+        <v>95341</v>
+      </c>
+      <c r="E2637" s="2">
+        <v>3285</v>
+      </c>
       <c r="F2637" s="2">
         <f t="shared" si="133"/>
-        <v>-93328</v>
+        <v>2013</v>
       </c>
       <c r="G2637" s="2">
         <f t="shared" si="134"/>
-        <v>-3267</v>
+        <v>18</v>
       </c>
       <c r="H2637" s="2">
         <f t="shared" si="135"/>
-        <v>-3862310</v>
+        <v>93642</v>
+      </c>
+      <c r="I2637" s="2">
+        <v>3955952</v>
       </c>
     </row>
     <row r="2638" spans="2:9" x14ac:dyDescent="0.2">
@@ -61262,13 +61271,19 @@
       <c r="C2638" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="D2638" s="2">
+        <v>12836</v>
+      </c>
+      <c r="E2638" s="2">
+        <v>360</v>
+      </c>
       <c r="F2638" s="2">
         <f t="shared" si="133"/>
-        <v>-12402</v>
+        <v>434</v>
       </c>
       <c r="G2638" s="2">
         <f t="shared" si="134"/>
-        <v>-358</v>
+        <v>2</v>
       </c>
       <c r="H2638" s="2">
         <f t="shared" si="135"/>
@@ -61280,13 +61295,19 @@
       <c r="C2639" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D2639" s="2">
+        <v>16209</v>
+      </c>
+      <c r="E2639" s="2">
+        <v>438</v>
+      </c>
       <c r="F2639" s="2">
         <f t="shared" si="133"/>
-        <v>-15858</v>
+        <v>351</v>
       </c>
       <c r="G2639" s="2">
         <f t="shared" si="134"/>
-        <v>-438</v>
+        <v>0</v>
       </c>
       <c r="H2639" s="2">
         <f t="shared" si="135"/>
@@ -61297,34 +61318,1563 @@
       <c r="C2640" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D2640" s="2">
+        <v>4020</v>
+      </c>
+      <c r="E2640" s="2">
+        <v>155</v>
+      </c>
       <c r="F2640" s="2">
         <f t="shared" si="133"/>
-        <v>-3968</v>
+        <v>52</v>
       </c>
       <c r="G2640" s="2">
         <f t="shared" si="134"/>
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="H2640" s="2">
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
     </row>
-    <row r="2641" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="2641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2641" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D2641" s="2">
+        <v>12951</v>
+      </c>
+      <c r="E2641" s="2">
+        <v>323</v>
+      </c>
       <c r="F2641" s="2">
         <f t="shared" si="133"/>
-        <v>-12659</v>
+        <v>292</v>
       </c>
       <c r="G2641" s="2">
         <f t="shared" si="134"/>
-        <v>-323</v>
+        <v>0</v>
       </c>
       <c r="H2641" s="2">
         <f t="shared" si="135"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2642" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B2642" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2642" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2642" s="2">
+        <v>65276</v>
+      </c>
+      <c r="E2642" s="2">
+        <v>4022</v>
+      </c>
+      <c r="I2642" s="2">
+        <v>3816485</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2643" s="3"/>
+      <c r="C2643" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2643" s="2">
+        <v>59507</v>
+      </c>
+      <c r="E2643" s="2">
+        <v>4520</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2644" s="3"/>
+      <c r="C2644" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2644" s="2">
+        <v>41754</v>
+      </c>
+      <c r="E2644" s="2">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2645" s="3"/>
+      <c r="C2645" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2645" s="2">
+        <v>47514</v>
+      </c>
+      <c r="E2645" s="2">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2646" s="3"/>
+      <c r="C2646" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2646" s="2">
+        <v>41306</v>
+      </c>
+      <c r="E2646" s="2">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2647" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2647" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2647" s="2">
+        <v>19354</v>
+      </c>
+      <c r="E2647" s="2">
+        <v>1720</v>
+      </c>
+      <c r="I2647" s="2">
+        <v>1387833</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2648" s="3"/>
+      <c r="C2648" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2648" s="2">
+        <v>18834</v>
+      </c>
+      <c r="E2648" s="2">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2649" s="3"/>
+      <c r="C2649" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2649" s="2">
+        <v>18716</v>
+      </c>
+      <c r="E2649" s="2">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2650" s="3"/>
+      <c r="C2650" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2650" s="2">
+        <v>16368</v>
+      </c>
+      <c r="E2650" s="2">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2651" s="3"/>
+      <c r="C2651" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2651" s="2">
+        <v>16867</v>
+      </c>
+      <c r="E2651" s="2">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2652" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2652" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2652" s="2">
+        <v>19795</v>
+      </c>
+      <c r="E2652" s="2">
+        <v>1004</v>
+      </c>
+      <c r="I2652" s="2">
+        <v>830666</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2653" s="3"/>
+      <c r="C2653" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2653" s="2">
+        <v>23915</v>
+      </c>
+      <c r="E2653" s="2">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2654" s="3"/>
+      <c r="C2654" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2654" s="2">
+        <v>16053</v>
+      </c>
+      <c r="E2654" s="2">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2655" s="3"/>
+      <c r="C2655" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2655" s="2">
+        <v>9151</v>
+      </c>
+      <c r="E2655" s="2">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2656" s="3"/>
+      <c r="C2656" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2656" s="2">
+        <v>12324</v>
+      </c>
+      <c r="E2656" s="2">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2657" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2657" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2657" s="2">
+        <v>21769</v>
+      </c>
+      <c r="E2657" s="2">
+        <v>2591</v>
+      </c>
+      <c r="I2657" s="2">
+        <v>1016697</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2658" s="3"/>
+      <c r="C2658" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2658" s="2">
+        <v>8823</v>
+      </c>
+      <c r="E2658" s="2">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2659" s="3"/>
+      <c r="C2659" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2659" s="2">
+        <v>7118</v>
+      </c>
+      <c r="E2659" s="2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2660" s="3"/>
+      <c r="C2660" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2660" s="2">
+        <v>2170</v>
+      </c>
+      <c r="E2660" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2661" s="3"/>
+      <c r="C2661" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2661" s="2">
+        <v>1458</v>
+      </c>
+      <c r="E2661" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2662" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2662" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2662" s="2">
+        <v>1592</v>
+      </c>
+      <c r="I2662" s="2">
+        <f>SUM(85496+657486)</f>
+        <v>742982</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2663" s="3"/>
+      <c r="C2663" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2663" s="2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2664" s="3"/>
+      <c r="C2664" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2664" s="2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2665" s="3"/>
+      <c r="C2665" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2665" s="2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2666" s="3"/>
+      <c r="C2666" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2666" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2667" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2667" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2667" s="2">
+        <v>98003</v>
+      </c>
+      <c r="E2667" s="2">
+        <v>3305</v>
+      </c>
+      <c r="I2667" s="2">
+        <v>4061692</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2668" s="3"/>
+      <c r="C2668" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2668" s="2">
+        <v>13333</v>
+      </c>
+      <c r="E2668" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2669" s="3"/>
+      <c r="C2669" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2669" s="2">
+        <v>16848</v>
+      </c>
+      <c r="E2669" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2670" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2670" s="2">
+        <v>4131</v>
+      </c>
+      <c r="E2670" s="2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2671" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2671" s="2">
+        <v>13213</v>
+      </c>
+      <c r="E2671" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2672" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B2672" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2672" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2672" s="2">
+        <v>65325</v>
+      </c>
+      <c r="E2672" s="2">
+        <v>4022</v>
+      </c>
+      <c r="I2672" s="2">
+        <v>3862913</v>
+      </c>
+    </row>
+    <row r="2673" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2673" s="3"/>
+      <c r="C2673" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2673" s="2">
+        <v>59576</v>
+      </c>
+      <c r="E2673" s="2">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="2674" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2674" s="3"/>
+      <c r="C2674" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2674" s="2">
+        <v>41780</v>
+      </c>
+      <c r="E2674" s="2">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="2675" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2675" s="3"/>
+      <c r="C2675" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2675" s="2">
+        <v>47555</v>
+      </c>
+      <c r="E2675" s="2">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="2676" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2676" s="3"/>
+      <c r="C2676" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2676" s="2">
+        <v>41339</v>
+      </c>
+      <c r="E2676" s="2">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="2677" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2677" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2677" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2677" s="2">
+        <v>19375</v>
+      </c>
+      <c r="E2677" s="2">
+        <v>1722</v>
+      </c>
+      <c r="I2677" s="2">
+        <v>1403984</v>
+      </c>
+    </row>
+    <row r="2678" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2678" s="3"/>
+      <c r="C2678" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2678" s="2">
+        <v>18838</v>
+      </c>
+      <c r="E2678" s="2">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="2679" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2679" s="3"/>
+      <c r="C2679" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2679" s="2">
+        <v>18731</v>
+      </c>
+      <c r="E2679" s="2">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="2680" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2680" s="3"/>
+      <c r="C2680" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2680" s="2">
+        <v>16377</v>
+      </c>
+      <c r="E2680" s="2">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="2681" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2681" s="3"/>
+      <c r="C2681" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2681" s="2">
+        <v>16876</v>
+      </c>
+      <c r="E2681" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2682" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2682" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2682" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2682" s="2">
+        <v>19795</v>
+      </c>
+      <c r="E2682" s="2">
+        <v>1007</v>
+      </c>
+      <c r="I2682" s="2">
+        <v>837147</v>
+      </c>
+    </row>
+    <row r="2683" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2683" s="3"/>
+      <c r="C2683" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2683" s="2">
+        <v>23946</v>
+      </c>
+      <c r="E2683" s="2">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="2684" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2684" s="3"/>
+      <c r="C2684" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2684" s="2">
+        <v>16069</v>
+      </c>
+      <c r="E2684" s="2">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="2685" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2685" s="3"/>
+      <c r="C2685" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2685" s="2">
+        <v>9161</v>
+      </c>
+      <c r="E2685" s="2">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="2686" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2686" s="3"/>
+      <c r="C2686" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2686" s="2">
+        <v>12342</v>
+      </c>
+      <c r="E2686" s="2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2687" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2687" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2687" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2687" s="2">
+        <v>21807</v>
+      </c>
+      <c r="E2687" s="2">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="2688" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2688" s="3"/>
+      <c r="C2688" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2688" s="2">
+        <v>8848</v>
+      </c>
+      <c r="E2688" s="2">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2689" s="3"/>
+      <c r="C2689" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2689" s="2">
+        <v>7136</v>
+      </c>
+      <c r="E2689" s="2">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2690" s="3"/>
+      <c r="C2690" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2690" s="2">
+        <v>2177</v>
+      </c>
+      <c r="E2690" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2691" s="3"/>
+      <c r="C2691" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2691" s="2">
+        <v>1467</v>
+      </c>
+      <c r="E2691" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2692" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2692" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2692" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2692" s="2">
+        <v>21512</v>
+      </c>
+      <c r="E2692" s="2">
+        <v>1595</v>
+      </c>
+      <c r="I2692" s="2">
+        <f>SUM(85988+666901)</f>
+        <v>752889</v>
+      </c>
+    </row>
+    <row r="2693" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2693" s="3"/>
+      <c r="C2693" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2693" s="2">
+        <v>8413</v>
+      </c>
+      <c r="E2693" s="2">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="2694" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2694" s="3"/>
+      <c r="C2694" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2694" s="2">
+        <v>7170</v>
+      </c>
+      <c r="E2694" s="2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2695" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2695" s="3"/>
+      <c r="C2695" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2695" s="2">
+        <v>4220</v>
+      </c>
+      <c r="E2695" s="2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2696" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2696" s="3"/>
+      <c r="C2696" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2696" s="2">
+        <v>4521</v>
+      </c>
+      <c r="E2696" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2697" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2697" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2697" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2697" s="2">
+        <v>100846</v>
+      </c>
+      <c r="E2697" s="2">
+        <v>3326</v>
+      </c>
+      <c r="I2697" s="2">
+        <v>4167139</v>
+      </c>
+    </row>
+    <row r="2698" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2698" s="3"/>
+      <c r="C2698" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2698" s="2">
+        <v>13834</v>
+      </c>
+      <c r="E2698" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2699" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2699" s="3"/>
+      <c r="C2699" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2699" s="2">
+        <v>17683</v>
+      </c>
+      <c r="E2699" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="2700" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2700" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2700" s="2">
+        <v>4231</v>
+      </c>
+      <c r="E2700" s="2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2701" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2701" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2701" s="2">
+        <v>13682</v>
+      </c>
+      <c r="E2701" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2702" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2702" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B2702" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2702" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2702" s="2">
+        <v>65391</v>
+      </c>
+      <c r="E2702" s="2">
+        <v>4023</v>
+      </c>
+      <c r="I2702" s="2">
+        <v>3914938</v>
+      </c>
+    </row>
+    <row r="2703" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2703" s="3"/>
+      <c r="C2703" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2703" s="2">
+        <v>59650</v>
+      </c>
+      <c r="E2703" s="2">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="2704" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2704" s="3"/>
+      <c r="C2704" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2704" s="2">
+        <v>41807</v>
+      </c>
+      <c r="E2704" s="2">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="2705" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2705" s="3"/>
+      <c r="C2705" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2705" s="2">
+        <v>47598</v>
+      </c>
+      <c r="E2705" s="2">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="2706" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2706" s="3"/>
+      <c r="C2706" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2706" s="2">
+        <v>41385</v>
+      </c>
+      <c r="E2706" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2707" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2707" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2707" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2707" s="2">
+        <v>19423</v>
+      </c>
+      <c r="E2707" s="2">
+        <v>1726</v>
+      </c>
+      <c r="I2707" s="2">
+        <v>1422374</v>
+      </c>
+    </row>
+    <row r="2708" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2708" s="3"/>
+      <c r="C2708" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2708" s="2">
+        <v>18841</v>
+      </c>
+      <c r="E2708" s="2">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="2709" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2709" s="3"/>
+      <c r="C2709" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2709" s="2">
+        <v>18758</v>
+      </c>
+      <c r="E2709" s="2">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="2710" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2710" s="3"/>
+      <c r="C2710" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2710" s="2">
+        <v>16386</v>
+      </c>
+      <c r="E2710" s="2">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="2711" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2711" s="3"/>
+      <c r="C2711" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2711" s="2">
+        <v>16879</v>
+      </c>
+      <c r="E2711" s="2">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="2712" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2712" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2712" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2712" s="2">
+        <v>19819</v>
+      </c>
+      <c r="E2712" s="2">
+        <v>1002</v>
+      </c>
+      <c r="I2712" s="2">
+        <v>842960</v>
+      </c>
+    </row>
+    <row r="2713" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2713" s="3"/>
+      <c r="C2713" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2713" s="2">
+        <v>23962</v>
+      </c>
+      <c r="E2713" s="2">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="2714" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2714" s="3"/>
+      <c r="C2714" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2714" s="2">
+        <v>16088</v>
+      </c>
+      <c r="E2714" s="2">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="2715" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2715" s="3"/>
+      <c r="C2715" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2715" s="2">
+        <v>9166</v>
+      </c>
+      <c r="E2715" s="2">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="2716" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2716" s="3"/>
+      <c r="C2716" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2716" s="2">
+        <v>12350</v>
+      </c>
+      <c r="E2716" s="2">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="2717" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2717" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2717" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2717" s="2">
+        <v>21872</v>
+      </c>
+      <c r="E2717" s="2">
+        <v>1048</v>
+      </c>
+      <c r="I2717" s="2">
+        <v>1045057</v>
+      </c>
+    </row>
+    <row r="2718" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2718" s="3"/>
+      <c r="C2718" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2718" s="2">
+        <v>8898</v>
+      </c>
+      <c r="E2718" s="2">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="2719" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2719" s="3"/>
+      <c r="C2719" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2719" s="2">
+        <v>7168</v>
+      </c>
+      <c r="E2719" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="2720" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2720" s="3"/>
+      <c r="C2720" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2720" s="2">
+        <v>2186</v>
+      </c>
+      <c r="E2720" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2721" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2721" s="3"/>
+      <c r="C2721" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2721" s="2">
+        <v>1480</v>
+      </c>
+      <c r="E2721" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2722" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2722" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2722" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2722" s="2">
+        <v>21600</v>
+      </c>
+      <c r="E2722" s="2">
+        <v>1606</v>
+      </c>
+      <c r="I2722" s="2">
+        <f>SUM(86606+677581)</f>
+        <v>764187</v>
+      </c>
+    </row>
+    <row r="2723" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2723" s="3"/>
+      <c r="C2723" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2723" s="2">
+        <v>8448</v>
+      </c>
+      <c r="E2723" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="2724" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2724" s="3"/>
+      <c r="C2724" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2724" s="2">
+        <v>7201</v>
+      </c>
+      <c r="E2724" s="2">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2725" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2725" s="3"/>
+      <c r="C2725" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2725" s="2">
+        <v>4235</v>
+      </c>
+      <c r="E2725" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2726" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2726" s="3"/>
+      <c r="C2726" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2726" s="2">
+        <v>4527</v>
+      </c>
+      <c r="E2726" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2727" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2727" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2727" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2727" s="2">
+        <v>103640</v>
+      </c>
+      <c r="E2727" s="2">
+        <v>3369</v>
+      </c>
+      <c r="I2727" s="2">
+        <v>4254176</v>
+      </c>
+    </row>
+    <row r="2728" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2728" s="3"/>
+      <c r="C2728" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2728" s="2">
+        <v>14150</v>
+      </c>
+      <c r="E2728" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2729" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2729" s="3"/>
+      <c r="C2729" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2729" s="2">
+        <v>18656</v>
+      </c>
+      <c r="E2729" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2730" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2730" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2730" s="2">
+        <v>4346</v>
+      </c>
+      <c r="E2730" s="2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2731" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2731" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2731" s="2">
+        <v>14354</v>
+      </c>
+      <c r="E2731" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="2732" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2732" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B2732" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2732" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2732" s="2">
+        <v>65455</v>
+      </c>
+      <c r="E2732" s="2">
+        <v>4025</v>
+      </c>
+      <c r="I2732" s="2">
+        <v>3971648</v>
+      </c>
+    </row>
+    <row r="2733" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2733" s="3"/>
+      <c r="C2733" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2733" s="2">
+        <v>59742</v>
+      </c>
+      <c r="E2733" s="2">
+        <v>4522</v>
+      </c>
+    </row>
+    <row r="2734" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2734" s="3"/>
+      <c r="C2734" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2734" s="2">
+        <v>41853</v>
+      </c>
+      <c r="E2734" s="2">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="2735" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2735" s="3"/>
+      <c r="C2735" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2735" s="2">
+        <v>47651</v>
+      </c>
+      <c r="E2735" s="2">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="2736" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2736" s="3"/>
+      <c r="C2736" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2736" s="2">
+        <v>41427</v>
+      </c>
+      <c r="E2736" s="2">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="2737" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2737" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2737" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2737" s="2">
+        <v>19445</v>
+      </c>
+      <c r="E2737" s="2">
+        <v>1733</v>
+      </c>
+      <c r="I2737" s="2">
+        <v>1442937</v>
+      </c>
+    </row>
+    <row r="2738" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2738" s="3"/>
+      <c r="C2738" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2738" s="2">
+        <v>18842</v>
+      </c>
+      <c r="E2738" s="2">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="2739" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2739" s="3"/>
+      <c r="C2739" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2739" s="2">
+        <v>18771</v>
+      </c>
+      <c r="E2739" s="2">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="2740" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2740" s="3"/>
+      <c r="C2740" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2740" s="2">
+        <v>16384</v>
+      </c>
+      <c r="E2740" s="2">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="2741" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2741" s="3"/>
+      <c r="C2741" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2741" s="2">
+        <v>16894</v>
+      </c>
+      <c r="E2741" s="2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="2742" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2742" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2742" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2742" s="2">
+        <v>19853</v>
+      </c>
+      <c r="E2742" s="2">
+        <v>1004</v>
+      </c>
+      <c r="I2742" s="2">
+        <v>853150</v>
+      </c>
+    </row>
+    <row r="2743" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2743" s="3"/>
+      <c r="C2743" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2743" s="2">
+        <v>23998</v>
+      </c>
+      <c r="E2743" s="2">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="2744" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2744" s="3"/>
+      <c r="C2744" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2744" s="2">
+        <v>16122</v>
+      </c>
+      <c r="E2744" s="2">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="2745" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2745" s="3"/>
+      <c r="C2745" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2745" s="2">
+        <v>9184</v>
+      </c>
+      <c r="E2745" s="2">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="2746" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2746" s="3"/>
+      <c r="C2746" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2746" s="2">
+        <v>12376</v>
+      </c>
+      <c r="E2746" s="2">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="2747" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2747" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2747" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2747" s="2">
+        <v>21932</v>
+      </c>
+      <c r="E2747" s="2">
+        <v>2602</v>
+      </c>
+      <c r="I2747" s="2">
+        <v>1061859</v>
+      </c>
+    </row>
+    <row r="2748" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2748" s="3"/>
+      <c r="C2748" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2748" s="2">
+        <v>8922</v>
+      </c>
+      <c r="E2748" s="2">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2749" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2749" s="3"/>
+      <c r="C2749" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2749" s="2">
+        <v>7194</v>
+      </c>
+      <c r="E2749" s="2">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="2750" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2750" s="3"/>
+      <c r="C2750" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2750" s="2">
+        <v>2196</v>
+      </c>
+      <c r="E2750" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2751" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2751" s="3"/>
+      <c r="C2751" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2751" s="2">
+        <v>1493</v>
+      </c>
+      <c r="E2751" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2752" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2752" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2752" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2752" s="2">
+        <v>21724</v>
+      </c>
+      <c r="E2752" s="2">
+        <v>1609</v>
+      </c>
+      <c r="I2752" s="2">
+        <f>SUM(87242+689562)</f>
+        <v>776804</v>
+      </c>
+    </row>
+    <row r="2753" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2753" s="3"/>
+      <c r="C2753" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2753" s="2">
+        <v>8483</v>
+      </c>
+      <c r="E2753" s="2">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="2754" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2754" s="3"/>
+      <c r="C2754" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2754" s="2">
+        <v>7230</v>
+      </c>
+      <c r="E2754" s="2">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="2755" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2755" s="3"/>
+      <c r="C2755" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2755" s="2">
+        <v>4258</v>
+      </c>
+      <c r="E2755" s="2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2756" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2756" s="3"/>
+      <c r="C2756" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2756" s="2">
+        <v>4559</v>
+      </c>
+      <c r="E2756" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2757" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2757" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2757" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2758" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2758" s="3"/>
+      <c r="C2758" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2759" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2759" s="3"/>
+      <c r="C2759" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2760" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C2760" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2761" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C2761" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7BB4FE-F937-1348-8C55-30D752333799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FD883-6F78-034A-93CD-76681743B614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="17220" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2761"/>
+  <dimension ref="A1:M2821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2718" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2732" sqref="E2732"/>
+    <sheetView tabSelected="1" topLeftCell="A2777" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2792" sqref="E2792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -59915,11 +59915,11 @@
         <v>4518</v>
       </c>
       <c r="F2583" s="2">
-        <f t="shared" ref="F2583:F2641" si="133">SUM(D2583-D2553)</f>
+        <f t="shared" ref="F2583:F2646" si="133">SUM(D2583-D2553)</f>
         <v>105</v>
       </c>
       <c r="G2583" s="2">
-        <f t="shared" ref="G2583:G2641" si="134">SUM(E2583-E2553)</f>
+        <f t="shared" ref="G2583:G2646" si="134">SUM(E2583-E2553)</f>
         <v>1</v>
       </c>
       <c r="H2583" s="2">
@@ -61136,10 +61136,6 @@
       <c r="E2632" s="2">
         <v>1591</v>
       </c>
-      <c r="F2632" s="2">
-        <f t="shared" si="133"/>
-        <v>-21203</v>
-      </c>
       <c r="G2632" s="2">
         <f t="shared" si="134"/>
         <v>4</v>
@@ -61161,10 +61157,6 @@
       <c r="E2633" s="2">
         <v>798</v>
       </c>
-      <c r="F2633" s="2">
-        <f t="shared" si="133"/>
-        <v>-8301</v>
-      </c>
       <c r="G2633" s="2">
         <f t="shared" si="134"/>
         <v>4</v>
@@ -61182,10 +61174,6 @@
       <c r="E2634" s="2">
         <v>696</v>
       </c>
-      <c r="F2634" s="2">
-        <f t="shared" si="133"/>
-        <v>-7117</v>
-      </c>
       <c r="G2634" s="2">
         <f t="shared" si="134"/>
         <v>0</v>
@@ -61203,10 +61191,6 @@
       <c r="E2635" s="2">
         <v>292</v>
       </c>
-      <c r="F2635" s="2">
-        <f t="shared" si="133"/>
-        <v>-4187</v>
-      </c>
       <c r="G2635" s="2">
         <f t="shared" si="134"/>
         <v>4</v>
@@ -61224,10 +61208,6 @@
       <c r="E2636" s="2">
         <v>350</v>
       </c>
-      <c r="F2636" s="2">
-        <f t="shared" si="133"/>
-        <v>-4474</v>
-      </c>
       <c r="G2636" s="2">
         <f t="shared" si="134"/>
         <v>2</v>
@@ -61376,6 +61356,14 @@
       <c r="E2642" s="2">
         <v>4022</v>
       </c>
+      <c r="F2642" s="2">
+        <f t="shared" si="133"/>
+        <v>101</v>
+      </c>
+      <c r="G2642" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
       <c r="I2642" s="2">
         <v>3816485</v>
       </c>
@@ -61391,6 +61379,14 @@
       <c r="E2643" s="2">
         <v>4520</v>
       </c>
+      <c r="F2643" s="2">
+        <f t="shared" si="133"/>
+        <v>87</v>
+      </c>
+      <c r="G2643" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2644" s="3"/>
@@ -61403,6 +61399,14 @@
       <c r="E2644" s="2">
         <v>2692</v>
       </c>
+      <c r="F2644" s="2">
+        <f t="shared" si="133"/>
+        <v>29</v>
+      </c>
+      <c r="G2644" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2645" s="3"/>
@@ -61415,6 +61419,14 @@
       <c r="E2645" s="2">
         <v>3038</v>
       </c>
+      <c r="F2645" s="2">
+        <f t="shared" si="133"/>
+        <v>58</v>
+      </c>
+      <c r="G2645" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2646" s="3"/>
@@ -61427,6 +61439,14 @@
       <c r="E2646" s="2">
         <v>2026</v>
       </c>
+      <c r="F2646" s="2">
+        <f t="shared" si="133"/>
+        <v>53</v>
+      </c>
+      <c r="G2646" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2647" s="3" t="s">
@@ -61440,6 +61460,14 @@
       </c>
       <c r="E2647" s="2">
         <v>1720</v>
+      </c>
+      <c r="F2647" s="2">
+        <f t="shared" ref="F2647:G2710" si="136">SUM(D2647-D2617)</f>
+        <v>79</v>
+      </c>
+      <c r="G2647" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
       </c>
       <c r="I2647" s="2">
         <v>1387833</v>
@@ -61456,6 +61484,14 @@
       <c r="E2648" s="2">
         <v>1278</v>
       </c>
+      <c r="F2648" s="2">
+        <f t="shared" si="136"/>
+        <v>20</v>
+      </c>
+      <c r="G2648" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2649" s="3"/>
@@ -61468,6 +61504,14 @@
       <c r="E2649" s="2">
         <v>1784</v>
       </c>
+      <c r="F2649" s="2">
+        <f t="shared" si="136"/>
+        <v>20</v>
+      </c>
+      <c r="G2649" s="2">
+        <f t="shared" si="136"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2650" s="3"/>
@@ -61480,6 +61524,14 @@
       <c r="E2650" s="2">
         <v>1145</v>
       </c>
+      <c r="F2650" s="2">
+        <f t="shared" si="136"/>
+        <v>15</v>
+      </c>
+      <c r="G2650" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2651" s="3"/>
@@ -61492,6 +61544,14 @@
       <c r="E2651" s="2">
         <v>1033</v>
       </c>
+      <c r="F2651" s="2">
+        <f t="shared" si="136"/>
+        <v>-1</v>
+      </c>
+      <c r="G2651" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2652" s="3" t="s">
@@ -61505,6 +61565,14 @@
       </c>
       <c r="E2652" s="2">
         <v>1004</v>
+      </c>
+      <c r="F2652" s="2">
+        <f t="shared" si="136"/>
+        <v>31</v>
+      </c>
+      <c r="G2652" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
       </c>
       <c r="I2652" s="2">
         <v>830666</v>
@@ -61521,6 +61589,14 @@
       <c r="E2653" s="2">
         <v>1855</v>
       </c>
+      <c r="F2653" s="2">
+        <f t="shared" si="136"/>
+        <v>56</v>
+      </c>
+      <c r="G2653" s="2">
+        <f t="shared" si="136"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="2654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2654" s="3"/>
@@ -61533,6 +61609,14 @@
       <c r="E2654" s="2">
         <v>1099</v>
       </c>
+      <c r="F2654" s="2">
+        <f t="shared" si="136"/>
+        <v>25</v>
+      </c>
+      <c r="G2654" s="2">
+        <f t="shared" si="136"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2655" s="3"/>
@@ -61545,6 +61629,14 @@
       <c r="E2655" s="2">
         <v>927</v>
       </c>
+      <c r="F2655" s="2">
+        <f t="shared" si="136"/>
+        <v>26</v>
+      </c>
+      <c r="G2655" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2656" s="3"/>
@@ -61557,6 +61649,14 @@
       <c r="E2656" s="2">
         <v>921</v>
       </c>
+      <c r="F2656" s="2">
+        <f t="shared" si="136"/>
+        <v>21</v>
+      </c>
+      <c r="G2656" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2657" s="3" t="s">
@@ -61570,6 +61670,14 @@
       </c>
       <c r="E2657" s="2">
         <v>2591</v>
+      </c>
+      <c r="F2657" s="2">
+        <f t="shared" si="136"/>
+        <v>39</v>
+      </c>
+      <c r="G2657" s="2">
+        <f t="shared" si="136"/>
+        <v>2</v>
       </c>
       <c r="I2657" s="2">
         <v>1016697</v>
@@ -61586,6 +61694,14 @@
       <c r="E2658" s="2">
         <v>1043</v>
       </c>
+      <c r="F2658" s="2">
+        <f t="shared" si="136"/>
+        <v>30</v>
+      </c>
+      <c r="G2658" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2659" s="3"/>
@@ -61598,6 +61714,14 @@
       <c r="E2659" s="2">
         <v>870</v>
       </c>
+      <c r="F2659" s="2">
+        <f t="shared" si="136"/>
+        <v>26</v>
+      </c>
+      <c r="G2659" s="2">
+        <f t="shared" si="136"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2660" s="3"/>
@@ -61610,6 +61734,14 @@
       <c r="E2660" s="2">
         <v>263</v>
       </c>
+      <c r="F2660" s="2">
+        <f t="shared" si="136"/>
+        <v>9</v>
+      </c>
+      <c r="G2660" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2661" s="3"/>
@@ -61622,6 +61754,14 @@
       <c r="E2661" s="2">
         <v>104</v>
       </c>
+      <c r="F2661" s="2">
+        <f t="shared" si="136"/>
+        <v>10</v>
+      </c>
+      <c r="G2661" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2662" s="3" t="s">
@@ -61632,6 +61772,14 @@
       </c>
       <c r="E2662" s="2">
         <v>1592</v>
+      </c>
+      <c r="F2662" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="G2662" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="I2662" s="2">
         <f>SUM(85496+657486)</f>
@@ -61646,6 +61794,14 @@
       <c r="E2663" s="2">
         <v>798</v>
       </c>
+      <c r="F2663" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="G2663" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2664" s="3"/>
@@ -61655,6 +61811,14 @@
       <c r="E2664" s="2">
         <v>696</v>
       </c>
+      <c r="F2664" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="G2664" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2665" s="3"/>
@@ -61664,6 +61828,14 @@
       <c r="E2665" s="2">
         <v>292</v>
       </c>
+      <c r="F2665" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="G2665" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2666" s="3"/>
@@ -61673,6 +61845,14 @@
       <c r="E2666" s="2">
         <v>350</v>
       </c>
+      <c r="F2666" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="G2666" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2667" s="3" t="s">
@@ -61686,6 +61866,14 @@
       </c>
       <c r="E2667" s="2">
         <v>3305</v>
+      </c>
+      <c r="F2667" s="2">
+        <f t="shared" si="136"/>
+        <v>2662</v>
+      </c>
+      <c r="G2667" s="2">
+        <f t="shared" si="136"/>
+        <v>20</v>
       </c>
       <c r="I2667" s="2">
         <v>4061692</v>
@@ -61702,6 +61890,14 @@
       <c r="E2668" s="2">
         <v>361</v>
       </c>
+      <c r="F2668" s="2">
+        <f t="shared" si="136"/>
+        <v>497</v>
+      </c>
+      <c r="G2668" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2669" s="3"/>
@@ -61714,6 +61910,14 @@
       <c r="E2669" s="2">
         <v>438</v>
       </c>
+      <c r="F2669" s="2">
+        <f t="shared" si="136"/>
+        <v>639</v>
+      </c>
+      <c r="G2669" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2670" s="3" t="s">
@@ -61725,6 +61929,14 @@
       <c r="E2670" s="2">
         <v>155</v>
       </c>
+      <c r="F2670" s="2">
+        <f t="shared" si="136"/>
+        <v>111</v>
+      </c>
+      <c r="G2670" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2671" s="3" t="s">
@@ -61736,6 +61948,14 @@
       <c r="E2671" s="2">
         <v>326</v>
       </c>
+      <c r="F2671" s="2">
+        <f t="shared" si="136"/>
+        <v>262</v>
+      </c>
+      <c r="G2671" s="2">
+        <f t="shared" si="136"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2672" s="1">
@@ -61752,6 +61972,14 @@
       </c>
       <c r="E2672" s="2">
         <v>4022</v>
+      </c>
+      <c r="F2672" s="2">
+        <f t="shared" si="136"/>
+        <v>49</v>
+      </c>
+      <c r="G2672" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
       </c>
       <c r="I2672" s="2">
         <v>3862913</v>
@@ -61768,6 +61996,14 @@
       <c r="E2673" s="2">
         <v>4521</v>
       </c>
+      <c r="F2673" s="2">
+        <f t="shared" si="136"/>
+        <v>69</v>
+      </c>
+      <c r="G2673" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2674" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2674" s="3"/>
@@ -61780,6 +62016,14 @@
       <c r="E2674" s="2">
         <v>2692</v>
       </c>
+      <c r="F2674" s="2">
+        <f t="shared" si="136"/>
+        <v>26</v>
+      </c>
+      <c r="G2674" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2675" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2675" s="3"/>
@@ -61792,6 +62036,14 @@
       <c r="E2675" s="2">
         <v>3038</v>
       </c>
+      <c r="F2675" s="2">
+        <f t="shared" si="136"/>
+        <v>41</v>
+      </c>
+      <c r="G2675" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2676" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2676" s="3"/>
@@ -61804,6 +62056,14 @@
       <c r="E2676" s="2">
         <v>2026</v>
       </c>
+      <c r="F2676" s="2">
+        <f t="shared" si="136"/>
+        <v>33</v>
+      </c>
+      <c r="G2676" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2677" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2677" s="3" t="s">
@@ -61817,6 +62077,14 @@
       </c>
       <c r="E2677" s="2">
         <v>1722</v>
+      </c>
+      <c r="F2677" s="2">
+        <f t="shared" si="136"/>
+        <v>21</v>
+      </c>
+      <c r="G2677" s="2">
+        <f t="shared" si="136"/>
+        <v>2</v>
       </c>
       <c r="I2677" s="2">
         <v>1403984</v>
@@ -61833,6 +62101,14 @@
       <c r="E2678" s="2">
         <v>1278</v>
       </c>
+      <c r="F2678" s="2">
+        <f t="shared" si="136"/>
+        <v>4</v>
+      </c>
+      <c r="G2678" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2679" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2679" s="3"/>
@@ -61845,6 +62121,14 @@
       <c r="E2679" s="2">
         <v>1784</v>
       </c>
+      <c r="F2679" s="2">
+        <f t="shared" si="136"/>
+        <v>15</v>
+      </c>
+      <c r="G2679" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2680" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2680" s="3"/>
@@ -61857,6 +62141,14 @@
       <c r="E2680" s="2">
         <v>1145</v>
       </c>
+      <c r="F2680" s="2">
+        <f t="shared" si="136"/>
+        <v>9</v>
+      </c>
+      <c r="G2680" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2681" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2681" s="3"/>
@@ -61866,8 +62158,13 @@
       <c r="D2681" s="2">
         <v>16876</v>
       </c>
-      <c r="E2681" s="2">
-        <v>148</v>
+      <c r="F2681" s="2">
+        <f t="shared" si="136"/>
+        <v>9</v>
+      </c>
+      <c r="G2681" s="2">
+        <f t="shared" si="136"/>
+        <v>-1033</v>
       </c>
     </row>
     <row r="2682" spans="2:9" x14ac:dyDescent="0.2">
@@ -61882,6 +62179,14 @@
       </c>
       <c r="E2682" s="2">
         <v>1007</v>
+      </c>
+      <c r="F2682" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="G2682" s="2">
+        <f t="shared" si="136"/>
+        <v>3</v>
       </c>
       <c r="I2682" s="2">
         <v>837147</v>
@@ -61898,6 +62203,14 @@
       <c r="E2683" s="2">
         <v>1862</v>
       </c>
+      <c r="F2683" s="2">
+        <f t="shared" si="136"/>
+        <v>31</v>
+      </c>
+      <c r="G2683" s="2">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="2684" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2684" s="3"/>
@@ -61910,6 +62223,14 @@
       <c r="E2684" s="2">
         <v>1106</v>
       </c>
+      <c r="F2684" s="2">
+        <f t="shared" si="136"/>
+        <v>16</v>
+      </c>
+      <c r="G2684" s="2">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="2685" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2685" s="3"/>
@@ -61922,6 +62243,14 @@
       <c r="E2685" s="2">
         <v>930</v>
       </c>
+      <c r="F2685" s="2">
+        <f t="shared" si="136"/>
+        <v>10</v>
+      </c>
+      <c r="G2685" s="2">
+        <f t="shared" si="136"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2686" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2686" s="3"/>
@@ -61934,6 +62263,14 @@
       <c r="E2686" s="2">
         <v>924</v>
       </c>
+      <c r="F2686" s="2">
+        <f t="shared" si="136"/>
+        <v>18</v>
+      </c>
+      <c r="G2686" s="2">
+        <f t="shared" si="136"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2687" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2687" s="3" t="s">
@@ -61947,6 +62284,14 @@
       </c>
       <c r="E2687" s="2">
         <v>2592</v>
+      </c>
+      <c r="F2687" s="2">
+        <f t="shared" si="136"/>
+        <v>38</v>
+      </c>
+      <c r="G2687" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
     </row>
     <row r="2688" spans="2:9" x14ac:dyDescent="0.2">
@@ -61960,6 +62305,14 @@
       <c r="E2688" s="2">
         <v>1043</v>
       </c>
+      <c r="F2688" s="2">
+        <f t="shared" si="136"/>
+        <v>25</v>
+      </c>
+      <c r="G2688" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2689" s="3"/>
@@ -61972,6 +62325,14 @@
       <c r="E2689" s="2">
         <v>870</v>
       </c>
+      <c r="F2689" s="2">
+        <f t="shared" si="136"/>
+        <v>18</v>
+      </c>
+      <c r="G2689" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2690" s="3"/>
@@ -61984,6 +62345,14 @@
       <c r="E2690" s="2">
         <v>263</v>
       </c>
+      <c r="F2690" s="2">
+        <f t="shared" si="136"/>
+        <v>7</v>
+      </c>
+      <c r="G2690" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2691" s="3"/>
@@ -61996,6 +62365,14 @@
       <c r="E2691" s="2">
         <v>104</v>
       </c>
+      <c r="F2691" s="2">
+        <f t="shared" si="136"/>
+        <v>9</v>
+      </c>
+      <c r="G2691" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2692" s="3" t="s">
@@ -62009,6 +62386,14 @@
       </c>
       <c r="E2692" s="2">
         <v>1595</v>
+      </c>
+      <c r="F2692" s="2">
+        <f t="shared" si="136"/>
+        <v>21512</v>
+      </c>
+      <c r="G2692" s="2">
+        <f t="shared" si="136"/>
+        <v>3</v>
       </c>
       <c r="I2692" s="2">
         <f>SUM(85988+666901)</f>
@@ -62026,6 +62411,14 @@
       <c r="E2693" s="2">
         <v>798</v>
       </c>
+      <c r="F2693" s="2">
+        <f t="shared" si="136"/>
+        <v>8413</v>
+      </c>
+      <c r="G2693" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2694" s="3"/>
@@ -62038,6 +62431,14 @@
       <c r="E2694" s="2">
         <v>696</v>
       </c>
+      <c r="F2694" s="2">
+        <f t="shared" si="136"/>
+        <v>7170</v>
+      </c>
+      <c r="G2694" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2695" s="3"/>
@@ -62050,6 +62451,14 @@
       <c r="E2695" s="2">
         <v>294</v>
       </c>
+      <c r="F2695" s="2">
+        <f t="shared" si="136"/>
+        <v>4220</v>
+      </c>
+      <c r="G2695" s="2">
+        <f t="shared" si="136"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2696" s="3"/>
@@ -62062,6 +62471,14 @@
       <c r="E2696" s="2">
         <v>350</v>
       </c>
+      <c r="F2696" s="2">
+        <f t="shared" si="136"/>
+        <v>4521</v>
+      </c>
+      <c r="G2696" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2697" s="3" t="s">
@@ -62075,6 +62492,14 @@
       </c>
       <c r="E2697" s="2">
         <v>3326</v>
+      </c>
+      <c r="F2697" s="2">
+        <f t="shared" si="136"/>
+        <v>2843</v>
+      </c>
+      <c r="G2697" s="2">
+        <f t="shared" si="136"/>
+        <v>21</v>
       </c>
       <c r="I2697" s="2">
         <v>4167139</v>
@@ -62091,6 +62516,14 @@
       <c r="E2698" s="2">
         <v>361</v>
       </c>
+      <c r="F2698" s="2">
+        <f t="shared" si="136"/>
+        <v>501</v>
+      </c>
+      <c r="G2698" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2699" s="3"/>
@@ -62103,6 +62536,14 @@
       <c r="E2699" s="2">
         <v>440</v>
       </c>
+      <c r="F2699" s="2">
+        <f t="shared" si="136"/>
+        <v>835</v>
+      </c>
+      <c r="G2699" s="2">
+        <f t="shared" si="136"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2700" s="3" t="s">
@@ -62114,6 +62555,14 @@
       <c r="E2700" s="2">
         <v>156</v>
       </c>
+      <c r="F2700" s="2">
+        <f t="shared" si="136"/>
+        <v>100</v>
+      </c>
+      <c r="G2700" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2701" s="3" t="s">
@@ -62125,6 +62574,14 @@
       <c r="E2701" s="2">
         <v>330</v>
       </c>
+      <c r="F2701" s="2">
+        <f t="shared" si="136"/>
+        <v>469</v>
+      </c>
+      <c r="G2701" s="2">
+        <f t="shared" si="136"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="2702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2702" s="1">
@@ -62141,6 +62598,14 @@
       </c>
       <c r="E2702" s="2">
         <v>4023</v>
+      </c>
+      <c r="F2702" s="2">
+        <f t="shared" si="136"/>
+        <v>66</v>
+      </c>
+      <c r="G2702" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
       </c>
       <c r="I2702" s="2">
         <v>3914938</v>
@@ -62157,6 +62622,14 @@
       <c r="E2703" s="2">
         <v>4522</v>
       </c>
+      <c r="F2703" s="2">
+        <f t="shared" si="136"/>
+        <v>74</v>
+      </c>
+      <c r="G2703" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2704" s="3"/>
@@ -62169,6 +62642,14 @@
       <c r="E2704" s="2">
         <v>2693</v>
       </c>
+      <c r="F2704" s="2">
+        <f t="shared" si="136"/>
+        <v>27</v>
+      </c>
+      <c r="G2704" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2705" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2705" s="3"/>
@@ -62181,6 +62662,14 @@
       <c r="E2705" s="2">
         <v>3039</v>
       </c>
+      <c r="F2705" s="2">
+        <f t="shared" si="136"/>
+        <v>43</v>
+      </c>
+      <c r="G2705" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2706" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2706" s="3"/>
@@ -62193,6 +62682,14 @@
       <c r="E2706" s="2">
         <v>2028</v>
       </c>
+      <c r="F2706" s="2">
+        <f t="shared" si="136"/>
+        <v>46</v>
+      </c>
+      <c r="G2706" s="2">
+        <f t="shared" si="136"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2707" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2707" s="3" t="s">
@@ -62206,6 +62703,14 @@
       </c>
       <c r="E2707" s="2">
         <v>1726</v>
+      </c>
+      <c r="F2707" s="2">
+        <f t="shared" si="136"/>
+        <v>48</v>
+      </c>
+      <c r="G2707" s="2">
+        <f t="shared" si="136"/>
+        <v>4</v>
       </c>
       <c r="I2707" s="2">
         <v>1422374</v>
@@ -62222,6 +62727,14 @@
       <c r="E2708" s="2">
         <v>1280</v>
       </c>
+      <c r="F2708" s="2">
+        <f t="shared" si="136"/>
+        <v>3</v>
+      </c>
+      <c r="G2708" s="2">
+        <f t="shared" si="136"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2709" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2709" s="3"/>
@@ -62234,6 +62747,14 @@
       <c r="E2709" s="2">
         <v>1784</v>
       </c>
+      <c r="F2709" s="2">
+        <f t="shared" si="136"/>
+        <v>27</v>
+      </c>
+      <c r="G2709" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2710" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2710" s="3"/>
@@ -62246,6 +62767,14 @@
       <c r="E2710" s="2">
         <v>1146</v>
       </c>
+      <c r="F2710" s="2">
+        <f t="shared" si="136"/>
+        <v>9</v>
+      </c>
+      <c r="G2710" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2711" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2711" s="3"/>
@@ -62258,6 +62787,14 @@
       <c r="E2711" s="2">
         <v>1038</v>
       </c>
+      <c r="F2711" s="2">
+        <f t="shared" ref="F2711:G2774" si="137">SUM(D2711-D2681)</f>
+        <v>3</v>
+      </c>
+      <c r="G2711" s="2">
+        <f t="shared" si="137"/>
+        <v>1038</v>
+      </c>
     </row>
     <row r="2712" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2712" s="3" t="s">
@@ -62271,6 +62808,14 @@
       </c>
       <c r="E2712" s="2">
         <v>1002</v>
+      </c>
+      <c r="F2712" s="2">
+        <f t="shared" si="137"/>
+        <v>24</v>
+      </c>
+      <c r="G2712" s="2">
+        <f t="shared" si="137"/>
+        <v>-5</v>
       </c>
       <c r="I2712" s="2">
         <v>842960</v>
@@ -62287,6 +62832,14 @@
       <c r="E2713" s="2">
         <v>1851</v>
       </c>
+      <c r="F2713" s="2">
+        <f t="shared" si="137"/>
+        <v>16</v>
+      </c>
+      <c r="G2713" s="2">
+        <f t="shared" si="137"/>
+        <v>-11</v>
+      </c>
     </row>
     <row r="2714" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2714" s="3"/>
@@ -62299,6 +62852,14 @@
       <c r="E2714" s="2">
         <v>1104</v>
       </c>
+      <c r="F2714" s="2">
+        <f t="shared" si="137"/>
+        <v>19</v>
+      </c>
+      <c r="G2714" s="2">
+        <f t="shared" si="137"/>
+        <v>-2</v>
+      </c>
     </row>
     <row r="2715" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2715" s="3"/>
@@ -62311,6 +62872,14 @@
       <c r="E2715" s="2">
         <v>923</v>
       </c>
+      <c r="F2715" s="2">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
+      <c r="G2715" s="2">
+        <f t="shared" si="137"/>
+        <v>-7</v>
+      </c>
     </row>
     <row r="2716" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2716" s="3"/>
@@ -62323,6 +62892,14 @@
       <c r="E2716" s="2">
         <v>920</v>
       </c>
+      <c r="F2716" s="2">
+        <f t="shared" si="137"/>
+        <v>8</v>
+      </c>
+      <c r="G2716" s="2">
+        <f t="shared" si="137"/>
+        <v>-4</v>
+      </c>
     </row>
     <row r="2717" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2717" s="3" t="s">
@@ -62336,6 +62913,14 @@
       </c>
       <c r="E2717" s="2">
         <v>1048</v>
+      </c>
+      <c r="F2717" s="2">
+        <f t="shared" si="137"/>
+        <v>65</v>
+      </c>
+      <c r="G2717" s="2">
+        <f t="shared" si="137"/>
+        <v>-1544</v>
       </c>
       <c r="I2717" s="2">
         <v>1045057</v>
@@ -62352,6 +62937,14 @@
       <c r="E2718" s="2">
         <v>1048</v>
       </c>
+      <c r="F2718" s="2">
+        <f t="shared" si="137"/>
+        <v>50</v>
+      </c>
+      <c r="G2718" s="2">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="2719" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2719" s="3"/>
@@ -62364,6 +62957,14 @@
       <c r="E2719" s="2">
         <v>879</v>
       </c>
+      <c r="F2719" s="2">
+        <f t="shared" si="137"/>
+        <v>32</v>
+      </c>
+      <c r="G2719" s="2">
+        <f t="shared" si="137"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="2720" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2720" s="3"/>
@@ -62376,6 +62977,14 @@
       <c r="E2720" s="2">
         <v>263</v>
       </c>
+      <c r="F2720" s="2">
+        <f t="shared" si="137"/>
+        <v>9</v>
+      </c>
+      <c r="G2720" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2721" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2721" s="3"/>
@@ -62388,6 +62997,14 @@
       <c r="E2721" s="2">
         <v>105</v>
       </c>
+      <c r="F2721" s="2">
+        <f t="shared" si="137"/>
+        <v>13</v>
+      </c>
+      <c r="G2721" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2722" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2722" s="3" t="s">
@@ -62401,6 +63018,14 @@
       </c>
       <c r="E2722" s="2">
         <v>1606</v>
+      </c>
+      <c r="F2722" s="2">
+        <f t="shared" si="137"/>
+        <v>88</v>
+      </c>
+      <c r="G2722" s="2">
+        <f t="shared" si="137"/>
+        <v>11</v>
       </c>
       <c r="I2722" s="2">
         <f>SUM(86606+677581)</f>
@@ -62418,6 +63043,14 @@
       <c r="E2723" s="2">
         <v>801</v>
       </c>
+      <c r="F2723" s="2">
+        <f t="shared" si="137"/>
+        <v>35</v>
+      </c>
+      <c r="G2723" s="2">
+        <f t="shared" si="137"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2724" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2724" s="3"/>
@@ -62430,6 +63063,14 @@
       <c r="E2724" s="2">
         <v>696</v>
       </c>
+      <c r="F2724" s="2">
+        <f t="shared" si="137"/>
+        <v>31</v>
+      </c>
+      <c r="G2724" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2725" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2725" s="3"/>
@@ -62442,6 +63083,14 @@
       <c r="E2725" s="2">
         <v>297</v>
       </c>
+      <c r="F2725" s="2">
+        <f t="shared" si="137"/>
+        <v>15</v>
+      </c>
+      <c r="G2725" s="2">
+        <f t="shared" si="137"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2726" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2726" s="3"/>
@@ -62454,6 +63103,14 @@
       <c r="E2726" s="2">
         <v>351</v>
       </c>
+      <c r="F2726" s="2">
+        <f t="shared" si="137"/>
+        <v>6</v>
+      </c>
+      <c r="G2726" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2727" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2727" s="3" t="s">
@@ -62467,6 +63124,14 @@
       </c>
       <c r="E2727" s="2">
         <v>3369</v>
+      </c>
+      <c r="F2727" s="2">
+        <f t="shared" si="137"/>
+        <v>2794</v>
+      </c>
+      <c r="G2727" s="2">
+        <f t="shared" si="137"/>
+        <v>43</v>
       </c>
       <c r="I2727" s="2">
         <v>4254176</v>
@@ -62483,6 +63148,14 @@
       <c r="E2728" s="2">
         <v>365</v>
       </c>
+      <c r="F2728" s="2">
+        <f t="shared" si="137"/>
+        <v>316</v>
+      </c>
+      <c r="G2728" s="2">
+        <f t="shared" si="137"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="2729" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2729" s="3"/>
@@ -62495,6 +63168,14 @@
       <c r="E2729" s="2">
         <v>457</v>
       </c>
+      <c r="F2729" s="2">
+        <f t="shared" si="137"/>
+        <v>973</v>
+      </c>
+      <c r="G2729" s="2">
+        <f t="shared" si="137"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="2730" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2730" s="3" t="s">
@@ -62506,6 +63187,14 @@
       <c r="E2730" s="2">
         <v>157</v>
       </c>
+      <c r="F2730" s="2">
+        <f t="shared" si="137"/>
+        <v>115</v>
+      </c>
+      <c r="G2730" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2731" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2731" s="3" t="s">
@@ -62517,6 +63206,14 @@
       <c r="E2731" s="2">
         <v>340</v>
       </c>
+      <c r="F2731" s="2">
+        <f t="shared" si="137"/>
+        <v>672</v>
+      </c>
+      <c r="G2731" s="2">
+        <f t="shared" si="137"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="2732" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2732" s="1">
@@ -62533,6 +63230,14 @@
       </c>
       <c r="E2732" s="2">
         <v>4025</v>
+      </c>
+      <c r="F2732" s="2">
+        <f t="shared" si="137"/>
+        <v>64</v>
+      </c>
+      <c r="G2732" s="2">
+        <f t="shared" si="137"/>
+        <v>2</v>
       </c>
       <c r="I2732" s="2">
         <v>3971648</v>
@@ -62549,6 +63254,14 @@
       <c r="E2733" s="2">
         <v>4522</v>
       </c>
+      <c r="F2733" s="2">
+        <f t="shared" si="137"/>
+        <v>92</v>
+      </c>
+      <c r="G2733" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2734" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2734" s="3"/>
@@ -62561,6 +63274,14 @@
       <c r="E2734" s="2">
         <v>2694</v>
       </c>
+      <c r="F2734" s="2">
+        <f t="shared" si="137"/>
+        <v>46</v>
+      </c>
+      <c r="G2734" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2735" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2735" s="3"/>
@@ -62573,6 +63294,14 @@
       <c r="E2735" s="2">
         <v>3040</v>
       </c>
+      <c r="F2735" s="2">
+        <f t="shared" si="137"/>
+        <v>53</v>
+      </c>
+      <c r="G2735" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2736" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2736" s="3"/>
@@ -62585,6 +63314,14 @@
       <c r="E2736" s="2">
         <v>2028</v>
       </c>
+      <c r="F2736" s="2">
+        <f t="shared" si="137"/>
+        <v>42</v>
+      </c>
+      <c r="G2736" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2737" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2737" s="3" t="s">
@@ -62598,6 +63335,14 @@
       </c>
       <c r="E2737" s="2">
         <v>1733</v>
+      </c>
+      <c r="F2737" s="2">
+        <f t="shared" si="137"/>
+        <v>22</v>
+      </c>
+      <c r="G2737" s="2">
+        <f t="shared" si="137"/>
+        <v>7</v>
       </c>
       <c r="I2737" s="2">
         <v>1442937</v>
@@ -62614,6 +63359,14 @@
       <c r="E2738" s="2">
         <v>1286</v>
       </c>
+      <c r="F2738" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="G2738" s="2">
+        <f t="shared" si="137"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="2739" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2739" s="3"/>
@@ -62626,6 +63379,14 @@
       <c r="E2739" s="2">
         <v>1787</v>
       </c>
+      <c r="F2739" s="2">
+        <f t="shared" si="137"/>
+        <v>13</v>
+      </c>
+      <c r="G2739" s="2">
+        <f t="shared" si="137"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2740" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2740" s="3"/>
@@ -62638,6 +63399,14 @@
       <c r="E2740" s="2">
         <v>1149</v>
       </c>
+      <c r="F2740" s="2">
+        <f t="shared" si="137"/>
+        <v>-2</v>
+      </c>
+      <c r="G2740" s="2">
+        <f t="shared" si="137"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2741" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2741" s="3"/>
@@ -62650,6 +63419,14 @@
       <c r="E2741" s="2">
         <v>1039</v>
       </c>
+      <c r="F2741" s="2">
+        <f t="shared" si="137"/>
+        <v>15</v>
+      </c>
+      <c r="G2741" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2742" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2742" s="3" t="s">
@@ -62663,6 +63440,14 @@
       </c>
       <c r="E2742" s="2">
         <v>1004</v>
+      </c>
+      <c r="F2742" s="2">
+        <f t="shared" si="137"/>
+        <v>34</v>
+      </c>
+      <c r="G2742" s="2">
+        <f t="shared" si="137"/>
+        <v>2</v>
       </c>
       <c r="I2742" s="2">
         <v>853150</v>
@@ -62679,6 +63464,14 @@
       <c r="E2743" s="2">
         <v>1858</v>
       </c>
+      <c r="F2743" s="2">
+        <f t="shared" si="137"/>
+        <v>36</v>
+      </c>
+      <c r="G2743" s="2">
+        <f t="shared" si="137"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="2744" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2744" s="3"/>
@@ -62691,6 +63484,14 @@
       <c r="E2744" s="2">
         <v>1104</v>
       </c>
+      <c r="F2744" s="2">
+        <f t="shared" si="137"/>
+        <v>34</v>
+      </c>
+      <c r="G2744" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2745" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2745" s="3"/>
@@ -62703,6 +63504,14 @@
       <c r="E2745" s="2">
         <v>930</v>
       </c>
+      <c r="F2745" s="2">
+        <f t="shared" si="137"/>
+        <v>18</v>
+      </c>
+      <c r="G2745" s="2">
+        <f t="shared" si="137"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="2746" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2746" s="3"/>
@@ -62715,6 +63524,14 @@
       <c r="E2746" s="2">
         <v>924</v>
       </c>
+      <c r="F2746" s="2">
+        <f t="shared" si="137"/>
+        <v>26</v>
+      </c>
+      <c r="G2746" s="2">
+        <f t="shared" si="137"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="2747" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2747" s="3" t="s">
@@ -62728,6 +63545,14 @@
       </c>
       <c r="E2747" s="2">
         <v>2602</v>
+      </c>
+      <c r="F2747" s="2">
+        <f t="shared" si="137"/>
+        <v>60</v>
+      </c>
+      <c r="G2747" s="2">
+        <f t="shared" si="137"/>
+        <v>1554</v>
       </c>
       <c r="I2747" s="2">
         <v>1061859</v>
@@ -62744,6 +63569,14 @@
       <c r="E2748" s="2">
         <v>1049</v>
       </c>
+      <c r="F2748" s="2">
+        <f t="shared" si="137"/>
+        <v>24</v>
+      </c>
+      <c r="G2748" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2749" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2749" s="3"/>
@@ -62756,6 +63589,14 @@
       <c r="E2749" s="2">
         <v>879</v>
       </c>
+      <c r="F2749" s="2">
+        <f t="shared" si="137"/>
+        <v>26</v>
+      </c>
+      <c r="G2749" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2750" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2750" s="3"/>
@@ -62768,6 +63609,14 @@
       <c r="E2750" s="2">
         <v>263</v>
       </c>
+      <c r="F2750" s="2">
+        <f t="shared" si="137"/>
+        <v>10</v>
+      </c>
+      <c r="G2750" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2751" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2751" s="3"/>
@@ -62780,6 +63629,14 @@
       <c r="E2751" s="2">
         <v>105</v>
       </c>
+      <c r="F2751" s="2">
+        <f t="shared" si="137"/>
+        <v>13</v>
+      </c>
+      <c r="G2751" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2752" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2752" s="3" t="s">
@@ -62794,12 +63651,20 @@
       <c r="E2752" s="2">
         <v>1609</v>
       </c>
+      <c r="F2752" s="2">
+        <f t="shared" si="137"/>
+        <v>124</v>
+      </c>
+      <c r="G2752" s="2">
+        <f t="shared" si="137"/>
+        <v>3</v>
+      </c>
       <c r="I2752" s="2">
         <f>SUM(87242+689562)</f>
         <v>776804</v>
       </c>
     </row>
-    <row r="2753" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2753" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2753" s="3"/>
       <c r="C2753" s="3" t="s">
         <v>18</v>
@@ -62810,8 +63675,16 @@
       <c r="E2753" s="2">
         <v>801</v>
       </c>
-    </row>
-    <row r="2754" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2753" s="2">
+        <f t="shared" si="137"/>
+        <v>35</v>
+      </c>
+      <c r="G2753" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2754" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2754" s="3"/>
       <c r="C2754" s="3" t="s">
         <v>19</v>
@@ -62822,8 +63695,16 @@
       <c r="E2754" s="2">
         <v>701</v>
       </c>
-    </row>
-    <row r="2755" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2754" s="2">
+        <f t="shared" si="137"/>
+        <v>29</v>
+      </c>
+      <c r="G2754" s="2">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2755" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2755" s="3"/>
       <c r="C2755" s="3" t="s">
         <v>40</v>
@@ -62834,8 +63715,16 @@
       <c r="E2755" s="2">
         <v>297</v>
       </c>
-    </row>
-    <row r="2756" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2755" s="2">
+        <f t="shared" si="137"/>
+        <v>23</v>
+      </c>
+      <c r="G2755" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2756" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2756" s="3"/>
       <c r="C2756" s="3" t="s">
         <v>41</v>
@@ -62846,34 +63735,1106 @@
       <c r="E2756" s="2">
         <v>351</v>
       </c>
-    </row>
-    <row r="2757" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2756" s="2">
+        <f t="shared" si="137"/>
+        <v>32</v>
+      </c>
+      <c r="G2756" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2757" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2757" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2757" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2758" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2757" s="2">
+        <v>105325</v>
+      </c>
+      <c r="E2757" s="2">
+        <v>3402</v>
+      </c>
+      <c r="F2757" s="2">
+        <f t="shared" si="137"/>
+        <v>1685</v>
+      </c>
+      <c r="G2757" s="2">
+        <f t="shared" si="137"/>
+        <v>33</v>
+      </c>
+      <c r="I2757" s="2">
+        <v>4338718</v>
+      </c>
+    </row>
+    <row r="2758" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2758" s="3"/>
       <c r="C2758" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2759" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2758" s="2">
+        <v>14624</v>
+      </c>
+      <c r="E2758" s="2">
+        <v>372</v>
+      </c>
+      <c r="F2758" s="2">
+        <f t="shared" si="137"/>
+        <v>474</v>
+      </c>
+      <c r="G2758" s="2">
+        <f t="shared" si="137"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2759" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2759" s="3"/>
       <c r="C2759" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2760" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2759" s="2">
+        <v>19537</v>
+      </c>
+      <c r="E2759" s="2">
+        <v>463</v>
+      </c>
+      <c r="F2759" s="2">
+        <f t="shared" si="137"/>
+        <v>881</v>
+      </c>
+      <c r="G2759" s="2">
+        <f t="shared" si="137"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2760" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2760" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2761" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D2760" s="2">
+        <v>4547</v>
+      </c>
+      <c r="E2760" s="2">
+        <v>158</v>
+      </c>
+      <c r="F2760" s="2">
+        <f t="shared" si="137"/>
+        <v>201</v>
+      </c>
+      <c r="G2760" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2761" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2761" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2761" s="2">
+        <v>15662</v>
+      </c>
+      <c r="E2761" s="2">
+        <v>345</v>
+      </c>
+      <c r="F2761" s="2">
+        <f t="shared" si="137"/>
+        <v>1308</v>
+      </c>
+      <c r="G2761" s="2">
+        <f t="shared" si="137"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2762" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2762" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B2762" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2762" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2762" s="2">
+        <v>65568</v>
+      </c>
+      <c r="E2762" s="2">
+        <v>4027</v>
+      </c>
+      <c r="F2762" s="2">
+        <f t="shared" si="137"/>
+        <v>113</v>
+      </c>
+      <c r="G2762" s="2">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+      <c r="I2762" s="2">
+        <v>4041593</v>
+      </c>
+    </row>
+    <row r="2763" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2763" s="3"/>
+      <c r="C2763" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2763" s="2">
+        <v>59855</v>
+      </c>
+      <c r="E2763" s="2">
+        <v>4524</v>
+      </c>
+      <c r="F2763" s="2">
+        <f t="shared" si="137"/>
+        <v>113</v>
+      </c>
+      <c r="G2763" s="2">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2764" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2764" s="3"/>
+      <c r="C2764" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2764" s="2">
+        <v>41910</v>
+      </c>
+      <c r="E2764" s="2">
+        <v>2695</v>
+      </c>
+      <c r="F2764" s="2">
+        <f t="shared" si="137"/>
+        <v>57</v>
+      </c>
+      <c r="G2764" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2765" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2765" s="3"/>
+      <c r="C2765" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2765" s="2">
+        <v>47758</v>
+      </c>
+      <c r="E2765" s="2">
+        <v>3042</v>
+      </c>
+      <c r="F2765" s="2">
+        <f t="shared" si="137"/>
+        <v>107</v>
+      </c>
+      <c r="G2765" s="2">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2766" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2766" s="3"/>
+      <c r="C2766" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2766" s="2">
+        <v>41491</v>
+      </c>
+      <c r="E2766" s="2">
+        <v>2028</v>
+      </c>
+      <c r="F2766" s="2">
+        <f t="shared" si="137"/>
+        <v>64</v>
+      </c>
+      <c r="G2766" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2767" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2767" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2767" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2767" s="2">
+        <v>19474</v>
+      </c>
+      <c r="E2767" s="2">
+        <v>1733</v>
+      </c>
+      <c r="F2767" s="2">
+        <f t="shared" si="137"/>
+        <v>29</v>
+      </c>
+      <c r="G2767" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="I2767" s="2">
+        <v>1463913</v>
+      </c>
+    </row>
+    <row r="2768" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2768" s="3"/>
+      <c r="C2768" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2768" s="2">
+        <v>18874</v>
+      </c>
+      <c r="E2768" s="2">
+        <v>1287</v>
+      </c>
+      <c r="F2768" s="2">
+        <f t="shared" si="137"/>
+        <v>32</v>
+      </c>
+      <c r="G2768" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2769" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2769" s="3"/>
+      <c r="C2769" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2769" s="2">
+        <v>18804</v>
+      </c>
+      <c r="E2769" s="2">
+        <v>1789</v>
+      </c>
+      <c r="F2769" s="2">
+        <f t="shared" si="137"/>
+        <v>33</v>
+      </c>
+      <c r="G2769" s="2">
+        <f t="shared" si="137"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2770" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2770" s="3"/>
+      <c r="C2770" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2770" s="2">
+        <v>16394</v>
+      </c>
+      <c r="E2770" s="2">
+        <v>1150</v>
+      </c>
+      <c r="F2770" s="2">
+        <f t="shared" si="137"/>
+        <v>10</v>
+      </c>
+      <c r="G2770" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2771" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2771" s="3"/>
+      <c r="C2771" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2771" s="2">
+        <v>16920</v>
+      </c>
+      <c r="E2771" s="2">
+        <v>1040</v>
+      </c>
+      <c r="F2771" s="2">
+        <f t="shared" si="137"/>
+        <v>26</v>
+      </c>
+      <c r="G2771" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2772" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2772" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2772" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2772" s="2">
+        <v>19892</v>
+      </c>
+      <c r="E2772" s="2">
+        <v>1008</v>
+      </c>
+      <c r="F2772" s="2">
+        <f t="shared" si="137"/>
+        <v>39</v>
+      </c>
+      <c r="G2772" s="2">
+        <f t="shared" si="137"/>
+        <v>4</v>
+      </c>
+      <c r="I2772" s="2">
+        <v>860936</v>
+      </c>
+    </row>
+    <row r="2773" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2773" s="3"/>
+      <c r="C2773" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2773" s="2">
+        <v>24039</v>
+      </c>
+      <c r="E2773" s="2">
+        <v>1867</v>
+      </c>
+      <c r="F2773" s="2">
+        <f t="shared" si="137"/>
+        <v>41</v>
+      </c>
+      <c r="G2773" s="2">
+        <f t="shared" si="137"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2774" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2774" s="3"/>
+      <c r="C2774" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2774" s="2">
+        <v>16176</v>
+      </c>
+      <c r="E2774" s="2">
+        <v>1111</v>
+      </c>
+      <c r="F2774" s="2">
+        <f t="shared" si="137"/>
+        <v>54</v>
+      </c>
+      <c r="G2774" s="2">
+        <f t="shared" si="137"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2775" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2775" s="3"/>
+      <c r="C2775" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2775" s="2">
+        <v>9200</v>
+      </c>
+      <c r="E2775" s="2">
+        <v>933</v>
+      </c>
+      <c r="F2775" s="2">
+        <f t="shared" ref="F2775:G2791" si="138">SUM(D2775-D2745)</f>
+        <v>16</v>
+      </c>
+      <c r="G2775" s="2">
+        <f t="shared" si="138"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2776" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2776" s="3"/>
+      <c r="C2776" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2776" s="2">
+        <v>12407</v>
+      </c>
+      <c r="E2776" s="2">
+        <v>934</v>
+      </c>
+      <c r="F2776" s="2">
+        <f t="shared" si="138"/>
+        <v>31</v>
+      </c>
+      <c r="G2776" s="2">
+        <f t="shared" si="138"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2777" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2777" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2777" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2777" s="2">
+        <v>22047</v>
+      </c>
+      <c r="E2777" s="2">
+        <v>2608</v>
+      </c>
+      <c r="F2777" s="2">
+        <f t="shared" si="138"/>
+        <v>115</v>
+      </c>
+      <c r="G2777" s="2">
+        <f t="shared" si="138"/>
+        <v>6</v>
+      </c>
+      <c r="I2777" s="2">
+        <v>1085137</v>
+      </c>
+    </row>
+    <row r="2778" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2778" s="3"/>
+      <c r="C2778" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2778" s="2">
+        <v>8980</v>
+      </c>
+      <c r="E2778" s="2">
+        <v>1049</v>
+      </c>
+      <c r="F2778" s="2">
+        <f t="shared" si="138"/>
+        <v>58</v>
+      </c>
+      <c r="G2778" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2779" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2779" s="3"/>
+      <c r="C2779" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2779" s="2">
+        <v>7228</v>
+      </c>
+      <c r="E2779" s="2">
+        <v>880</v>
+      </c>
+      <c r="F2779" s="2">
+        <f t="shared" si="138"/>
+        <v>34</v>
+      </c>
+      <c r="G2779" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2780" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2780" s="3"/>
+      <c r="C2780" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2780" s="2">
+        <v>2210</v>
+      </c>
+      <c r="E2780" s="2">
+        <v>263</v>
+      </c>
+      <c r="F2780" s="2">
+        <f t="shared" si="138"/>
+        <v>14</v>
+      </c>
+      <c r="G2780" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2781" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2781" s="3"/>
+      <c r="C2781" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2781" s="2">
+        <v>1508</v>
+      </c>
+      <c r="E2781" s="2">
+        <v>106</v>
+      </c>
+      <c r="F2781" s="2">
+        <f t="shared" si="138"/>
+        <v>15</v>
+      </c>
+      <c r="G2781" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2782" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2782" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2782" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2782" s="2">
+        <v>21862</v>
+      </c>
+      <c r="E2782" s="2">
+        <v>1615</v>
+      </c>
+      <c r="F2782" s="2">
+        <f t="shared" si="138"/>
+        <v>138</v>
+      </c>
+      <c r="G2782" s="2">
+        <f t="shared" si="138"/>
+        <v>6</v>
+      </c>
+      <c r="I2782" s="2">
+        <f>SUM(88074+702199)</f>
+        <v>790273</v>
+      </c>
+    </row>
+    <row r="2783" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2783" s="3"/>
+      <c r="C2783" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2783" s="2">
+        <v>8514</v>
+      </c>
+      <c r="E2783" s="2">
+        <v>806</v>
+      </c>
+      <c r="F2783" s="2">
+        <f t="shared" si="138"/>
+        <v>31</v>
+      </c>
+      <c r="G2783" s="2">
+        <f t="shared" si="138"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2784" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2784" s="3"/>
+      <c r="C2784" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2784" s="2">
+        <v>7253</v>
+      </c>
+      <c r="E2784" s="2">
+        <v>702</v>
+      </c>
+      <c r="F2784" s="2">
+        <f t="shared" si="138"/>
+        <v>23</v>
+      </c>
+      <c r="G2784" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2785" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2785" s="3"/>
+      <c r="C2785" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2785" s="2">
+        <v>4280</v>
+      </c>
+      <c r="E2785" s="2">
+        <v>305</v>
+      </c>
+      <c r="F2785" s="2">
+        <f t="shared" si="138"/>
+        <v>22</v>
+      </c>
+      <c r="G2785" s="2">
+        <f t="shared" si="138"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2786" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2786" s="3"/>
+      <c r="C2786" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2786" s="2">
+        <v>4563</v>
+      </c>
+      <c r="E2786" s="2">
+        <v>351</v>
+      </c>
+      <c r="F2786" s="2">
+        <f t="shared" si="138"/>
+        <v>4</v>
+      </c>
+      <c r="G2786" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2787" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2787" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2787" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2787" s="2">
+        <v>107144</v>
+      </c>
+      <c r="E2787" s="2">
+        <v>3454</v>
+      </c>
+      <c r="F2787" s="2">
+        <f t="shared" si="138"/>
+        <v>1819</v>
+      </c>
+      <c r="G2787" s="2">
+        <f t="shared" si="138"/>
+        <v>52</v>
+      </c>
+      <c r="I2787" s="2">
+        <v>4448176</v>
+      </c>
+    </row>
+    <row r="2788" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2788" s="3"/>
+      <c r="C2788" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2788" s="2">
+        <v>15208</v>
+      </c>
+      <c r="E2788" s="2">
+        <v>377</v>
+      </c>
+      <c r="F2788" s="2">
+        <f t="shared" si="138"/>
+        <v>584</v>
+      </c>
+      <c r="G2788" s="2">
+        <f t="shared" si="138"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2789" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2789" s="3"/>
+      <c r="C2789" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2789" s="2">
+        <v>20253</v>
+      </c>
+      <c r="E2789" s="2">
+        <v>465</v>
+      </c>
+      <c r="F2789" s="2">
+        <f t="shared" si="138"/>
+        <v>716</v>
+      </c>
+      <c r="G2789" s="2">
+        <f t="shared" si="138"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2790" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2790" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2790" s="2">
+        <v>4722</v>
+      </c>
+      <c r="E2790" s="2">
+        <v>159</v>
+      </c>
+      <c r="F2790" s="2">
+        <f t="shared" si="138"/>
+        <v>175</v>
+      </c>
+      <c r="G2790" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2791" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2791" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2791" s="2">
+        <v>17056</v>
+      </c>
+      <c r="E2791" s="2">
+        <v>354</v>
+      </c>
+      <c r="F2791" s="2">
+        <f t="shared" si="138"/>
+        <v>1394</v>
+      </c>
+      <c r="G2791" s="2">
+        <f t="shared" si="138"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2792" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2792" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B2792" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2792" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2792" s="2">
+        <v>65705</v>
+      </c>
+      <c r="E2792" s="2">
+        <v>4027</v>
+      </c>
+      <c r="I2792" s="2">
+        <v>4107985</v>
+      </c>
+    </row>
+    <row r="2793" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2793" s="3"/>
+      <c r="C2793" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2793" s="2">
+        <v>59957</v>
+      </c>
+      <c r="E2793" s="2">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="2794" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2794" s="3"/>
+      <c r="C2794" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2794" s="2">
+        <v>41947</v>
+      </c>
+      <c r="E2794" s="2">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="2795" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2795" s="3"/>
+      <c r="C2795" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2795" s="2">
+        <v>47838</v>
+      </c>
+      <c r="E2795" s="2">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="2796" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2796" s="3"/>
+      <c r="C2796" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2796" s="2">
+        <v>41538</v>
+      </c>
+      <c r="E2796" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2797" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2797" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2797" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2797" s="2">
+        <v>19532</v>
+      </c>
+      <c r="E2797" s="2">
+        <v>1739</v>
+      </c>
+      <c r="I2797" s="2">
+        <v>1485501</v>
+      </c>
+    </row>
+    <row r="2798" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2798" s="3"/>
+      <c r="C2798" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2798" s="2">
+        <v>18913</v>
+      </c>
+      <c r="E2798" s="2">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="2799" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2799" s="3"/>
+      <c r="C2799" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2799" s="2">
+        <v>18842</v>
+      </c>
+      <c r="E2799" s="2">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="2800" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2800" s="3"/>
+      <c r="C2800" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2800" s="2">
+        <v>16416</v>
+      </c>
+      <c r="E2800" s="2">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="2801" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2801" s="3"/>
+      <c r="C2801" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2801" s="2">
+        <v>16927</v>
+      </c>
+      <c r="E2801" s="2">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="2802" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2802" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2802" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2802" s="2">
+        <v>19936</v>
+      </c>
+      <c r="E2802" s="2">
+        <v>1009</v>
+      </c>
+      <c r="I2802" s="2">
+        <v>872380</v>
+      </c>
+    </row>
+    <row r="2803" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2803" s="3"/>
+      <c r="C2803" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2803" s="2">
+        <v>24083</v>
+      </c>
+      <c r="E2803" s="2">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="2804" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2804" s="3"/>
+      <c r="C2804" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2804" s="2">
+        <v>17210</v>
+      </c>
+      <c r="E2804" s="2">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="2805" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2805" s="3"/>
+      <c r="C2805" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2805" s="2">
+        <v>9242</v>
+      </c>
+      <c r="E2805" s="2">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="2806" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2806" s="3"/>
+      <c r="C2806" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2806" s="2">
+        <v>12443</v>
+      </c>
+      <c r="E2806" s="2">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="2807" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2807" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2807" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2807" s="2">
+        <v>22111</v>
+      </c>
+      <c r="E2807" s="2">
+        <v>2608</v>
+      </c>
+      <c r="I2807" s="2">
+        <v>1108265</v>
+      </c>
+    </row>
+    <row r="2808" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2808" s="3"/>
+      <c r="C2808" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2808" s="2">
+        <v>9033</v>
+      </c>
+      <c r="E2808" s="2">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2809" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2809" s="3"/>
+      <c r="C2809" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2809" s="2">
+        <v>7262</v>
+      </c>
+      <c r="E2809" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2810" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2810" s="3"/>
+      <c r="C2810" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2810" s="2">
+        <v>2221</v>
+      </c>
+      <c r="E2810" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2811" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2811" s="3"/>
+      <c r="C2811" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2811" s="2">
+        <v>1522</v>
+      </c>
+      <c r="E2811" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2812" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2812" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2812" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2812" s="2">
+        <v>21885</v>
+      </c>
+      <c r="E2812" s="2">
+        <v>1619</v>
+      </c>
+      <c r="I2812" s="2">
+        <f>SUM(88741+715403)</f>
+        <v>804144</v>
+      </c>
+    </row>
+    <row r="2813" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2813" s="3"/>
+      <c r="C2813" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2813" s="2">
+        <v>8562</v>
+      </c>
+      <c r="E2813" s="2">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="2814" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2814" s="3"/>
+      <c r="C2814" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2814" s="2">
+        <v>7288</v>
+      </c>
+      <c r="E2814" s="2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2815" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2815" s="3"/>
+      <c r="C2815" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2815" s="2">
+        <v>4292</v>
+      </c>
+      <c r="E2815" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2816" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2816" s="3"/>
+      <c r="C2816" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2816" s="2">
+        <v>4569</v>
+      </c>
+      <c r="E2816" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2817" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2817" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2817" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2818" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2818" s="3"/>
+      <c r="C2818" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2819" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2819" s="3"/>
+      <c r="C2819" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2820" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2820" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2821" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C2821" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0FD883-6F78-034A-93CD-76681743B614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F04D1-BAB4-5940-A15A-FF53A9F055B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17220" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="15960" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2821"/>
+  <dimension ref="A1:M2881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2777" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2792" sqref="E2792"/>
+    <sheetView tabSelected="1" topLeftCell="A2829" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2852" sqref="E2852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62387,10 +62387,6 @@
       <c r="E2692" s="2">
         <v>1595</v>
       </c>
-      <c r="F2692" s="2">
-        <f t="shared" si="136"/>
-        <v>21512</v>
-      </c>
       <c r="G2692" s="2">
         <f t="shared" si="136"/>
         <v>3</v>
@@ -62411,10 +62407,6 @@
       <c r="E2693" s="2">
         <v>798</v>
       </c>
-      <c r="F2693" s="2">
-        <f t="shared" si="136"/>
-        <v>8413</v>
-      </c>
       <c r="G2693" s="2">
         <f t="shared" si="136"/>
         <v>0</v>
@@ -62431,10 +62423,6 @@
       <c r="E2694" s="2">
         <v>696</v>
       </c>
-      <c r="F2694" s="2">
-        <f t="shared" si="136"/>
-        <v>7170</v>
-      </c>
       <c r="G2694" s="2">
         <f t="shared" si="136"/>
         <v>0</v>
@@ -62451,10 +62439,6 @@
       <c r="E2695" s="2">
         <v>294</v>
       </c>
-      <c r="F2695" s="2">
-        <f t="shared" si="136"/>
-        <v>4220</v>
-      </c>
       <c r="G2695" s="2">
         <f t="shared" si="136"/>
         <v>2</v>
@@ -62471,10 +62455,6 @@
       <c r="E2696" s="2">
         <v>350</v>
       </c>
-      <c r="F2696" s="2">
-        <f t="shared" si="136"/>
-        <v>4521</v>
-      </c>
       <c r="G2696" s="2">
         <f t="shared" si="136"/>
         <v>0</v>
@@ -64808,33 +64788,877 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2817" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2817" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2817" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2817" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2818" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D2817" s="2">
+        <v>107236</v>
+      </c>
+      <c r="E2817" s="2">
+        <v>3454</v>
+      </c>
+      <c r="I2817" s="2">
+        <v>4553031</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2818" s="3"/>
       <c r="C2818" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2819" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D2818" s="2">
+        <v>15698</v>
+      </c>
+      <c r="E2818" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2819" s="3"/>
       <c r="C2819" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2820" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D2819" s="2">
+        <v>21171</v>
+      </c>
+      <c r="E2819" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2820" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2821" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D2820" s="2">
+        <v>4820</v>
+      </c>
+      <c r="E2820" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2821" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2821" s="2">
+        <v>18819</v>
+      </c>
+      <c r="E2821" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2822" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B2822" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2822" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2822" s="2">
+        <v>65800</v>
+      </c>
+      <c r="E2822" s="2">
+        <v>4028</v>
+      </c>
+      <c r="I2822" s="2">
+        <v>4170388</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2823" s="3"/>
+      <c r="C2823" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2823" s="2">
+        <v>60078</v>
+      </c>
+      <c r="E2823" s="2">
+        <v>4525</v>
+      </c>
+      <c r="F2823" s="3"/>
+      <c r="G2823" s="3"/>
+    </row>
+    <row r="2824" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2824" s="3"/>
+      <c r="C2824" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2824" s="2">
+        <v>41988</v>
+      </c>
+      <c r="E2824">
+        <v>2697</v>
+      </c>
+      <c r="F2824" s="3"/>
+      <c r="G2824" s="3"/>
+    </row>
+    <row r="2825" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2825" s="3"/>
+      <c r="C2825" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2825" s="2">
+        <v>47902</v>
+      </c>
+      <c r="E2825" s="2">
+        <v>3044</v>
+      </c>
+      <c r="F2825" s="3"/>
+      <c r="G2825" s="3"/>
+    </row>
+    <row r="2826" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2826" s="3"/>
+      <c r="C2826" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2826" s="2">
+        <v>41585</v>
+      </c>
+      <c r="E2826" s="2">
+        <v>2029</v>
+      </c>
+      <c r="F2826" s="3"/>
+      <c r="G2826" s="3"/>
+    </row>
+    <row r="2827" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2827" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2827" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2827" s="2">
+        <v>19562</v>
+      </c>
+      <c r="E2827" s="2">
+        <v>1742</v>
+      </c>
+      <c r="F2827" s="3"/>
+      <c r="G2827" s="3"/>
+      <c r="I2827" s="2">
+        <v>1508548</v>
+      </c>
+    </row>
+    <row r="2828" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2828" s="3"/>
+      <c r="C2828" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2828" s="2">
+        <v>18945</v>
+      </c>
+      <c r="E2828" s="2">
+        <v>1288</v>
+      </c>
+      <c r="F2828" s="3"/>
+      <c r="G2828" s="3"/>
+    </row>
+    <row r="2829" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2829" s="3"/>
+      <c r="C2829" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2829" s="2">
+        <v>18859</v>
+      </c>
+      <c r="E2829" s="2">
+        <v>1797</v>
+      </c>
+      <c r="F2829" s="3"/>
+      <c r="G2829" s="3"/>
+    </row>
+    <row r="2830" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2830" s="3"/>
+      <c r="C2830" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2830" s="2">
+        <v>16441</v>
+      </c>
+      <c r="E2830" s="2">
+        <v>1152</v>
+      </c>
+      <c r="F2830" s="3"/>
+      <c r="G2830" s="3"/>
+    </row>
+    <row r="2831" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2831" s="3"/>
+      <c r="C2831" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2831" s="2">
+        <v>16941</v>
+      </c>
+      <c r="E2831" s="2">
+        <v>1045</v>
+      </c>
+      <c r="F2831" s="3"/>
+      <c r="G2831" s="3"/>
+    </row>
+    <row r="2832" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2832" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2832" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2832" s="2">
+        <v>19972</v>
+      </c>
+      <c r="E2832" s="2">
+        <v>1008</v>
+      </c>
+      <c r="F2832" s="3"/>
+      <c r="G2832" s="3"/>
+      <c r="I2832" s="2">
+        <v>880320</v>
+      </c>
+    </row>
+    <row r="2833" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2833" s="3"/>
+      <c r="C2833" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2833" s="2">
+        <v>24115</v>
+      </c>
+      <c r="E2833" s="2">
+        <v>1877</v>
+      </c>
+      <c r="F2833" s="3"/>
+      <c r="G2833" s="3"/>
+    </row>
+    <row r="2834" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2834" s="3"/>
+      <c r="C2834" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2834" s="2">
+        <v>16235</v>
+      </c>
+      <c r="E2834" s="2">
+        <v>1119</v>
+      </c>
+      <c r="F2834" s="3"/>
+      <c r="G2834" s="3"/>
+    </row>
+    <row r="2835" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2835" s="3"/>
+      <c r="C2835" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2835" s="2">
+        <v>9260</v>
+      </c>
+      <c r="E2835" s="2">
+        <v>937</v>
+      </c>
+      <c r="F2835" s="3"/>
+      <c r="G2835" s="3"/>
+    </row>
+    <row r="2836" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2836" s="3"/>
+      <c r="C2836" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2836" s="2">
+        <v>12481</v>
+      </c>
+      <c r="E2836" s="2">
+        <v>937</v>
+      </c>
+      <c r="F2836" s="3"/>
+      <c r="G2836" s="3"/>
+    </row>
+    <row r="2837" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2837" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2837" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2837" s="2">
+        <v>22179</v>
+      </c>
+      <c r="E2837" s="2">
+        <v>2608</v>
+      </c>
+      <c r="F2837" s="3"/>
+      <c r="G2837" s="3"/>
+      <c r="I2837" s="2">
+        <v>1130154</v>
+      </c>
+    </row>
+    <row r="2838" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2838" s="3"/>
+      <c r="C2838" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2838" s="2">
+        <v>9078</v>
+      </c>
+      <c r="E2838" s="2">
+        <v>1049</v>
+      </c>
+      <c r="F2838" s="3"/>
+      <c r="G2838" s="3"/>
+    </row>
+    <row r="2839" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2839" s="3"/>
+      <c r="C2839" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2839" s="2">
+        <v>7281</v>
+      </c>
+      <c r="E2839" s="2">
+        <v>882</v>
+      </c>
+      <c r="F2839" s="3"/>
+      <c r="G2839" s="3"/>
+    </row>
+    <row r="2840" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2840" s="3"/>
+      <c r="C2840" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2840" s="2">
+        <v>2229</v>
+      </c>
+      <c r="E2840" s="2">
+        <v>263</v>
+      </c>
+      <c r="F2840" s="3"/>
+      <c r="G2840" s="3"/>
+    </row>
+    <row r="2841" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2841" s="3"/>
+      <c r="C2841" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2841" s="2">
+        <v>1525</v>
+      </c>
+      <c r="E2841" s="2">
+        <v>106</v>
+      </c>
+      <c r="F2841" s="3"/>
+      <c r="G2841" s="3"/>
+    </row>
+    <row r="2842" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2842" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2842" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2842" s="2">
+        <v>22018</v>
+      </c>
+      <c r="E2842" s="2">
+        <v>1619</v>
+      </c>
+      <c r="F2842" s="3"/>
+      <c r="G2842" s="3"/>
+      <c r="I2842" s="2">
+        <f>SUM(89375+725448)</f>
+        <v>814823</v>
+      </c>
+    </row>
+    <row r="2843" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2843" s="3"/>
+      <c r="C2843" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2843" s="2">
+        <v>8589</v>
+      </c>
+      <c r="E2843" s="2">
+        <v>810</v>
+      </c>
+      <c r="F2843" s="3"/>
+      <c r="G2843" s="3"/>
+    </row>
+    <row r="2844" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2844" s="3"/>
+      <c r="C2844" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2844" s="2">
+        <v>7303</v>
+      </c>
+      <c r="E2844" s="2">
+        <v>702</v>
+      </c>
+      <c r="F2844" s="3"/>
+      <c r="G2844" s="3"/>
+    </row>
+    <row r="2845" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2845" s="3"/>
+      <c r="C2845" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2845" s="2">
+        <v>4303</v>
+      </c>
+      <c r="E2845" s="2">
+        <v>307</v>
+      </c>
+      <c r="F2845" s="3"/>
+      <c r="G2845" s="3"/>
+    </row>
+    <row r="2846" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2846" s="3"/>
+      <c r="C2846" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2846" s="2">
+        <v>4571</v>
+      </c>
+      <c r="E2846" s="2">
+        <v>352</v>
+      </c>
+      <c r="F2846" s="3"/>
+      <c r="G2846" s="3"/>
+    </row>
+    <row r="2847" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2847" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2847" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2847" s="2">
+        <v>107256</v>
+      </c>
+      <c r="E2847" s="2">
+        <v>3454</v>
+      </c>
+      <c r="F2847" s="3"/>
+      <c r="G2847" s="3"/>
+      <c r="I2847" s="2">
+        <v>4680138</v>
+      </c>
+    </row>
+    <row r="2848" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2848" s="3"/>
+      <c r="C2848" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2848" s="2">
+        <v>16166</v>
+      </c>
+      <c r="E2848" s="2">
+        <v>387</v>
+      </c>
+      <c r="F2848" s="3"/>
+      <c r="G2848" s="3"/>
+    </row>
+    <row r="2849" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2849" s="3"/>
+      <c r="C2849" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2849" s="2">
+        <v>21508</v>
+      </c>
+      <c r="E2849" s="2">
+        <v>479</v>
+      </c>
+      <c r="F2849" s="3"/>
+      <c r="G2849" s="3"/>
+    </row>
+    <row r="2850" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2850" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2850" s="2">
+        <v>5045</v>
+      </c>
+      <c r="E2850" s="2">
+        <v>160</v>
+      </c>
+      <c r="F2850" s="3"/>
+      <c r="G2850" s="3"/>
+    </row>
+    <row r="2851" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C2851" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2851" s="2">
+        <v>19247</v>
+      </c>
+      <c r="E2851" s="2">
+        <v>363</v>
+      </c>
+      <c r="F2851"/>
+      <c r="G2851" s="3"/>
+    </row>
+    <row r="2852" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2852" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B2852" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2852" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2852" s="2">
+        <v>65876</v>
+      </c>
+      <c r="E2852">
+        <v>4028</v>
+      </c>
+      <c r="F2852"/>
+      <c r="G2852" s="3"/>
+      <c r="I2852" s="2">
+        <v>4233803</v>
+      </c>
+    </row>
+    <row r="2853" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2853" s="3"/>
+      <c r="C2853" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2853" s="2">
+        <v>60149</v>
+      </c>
+      <c r="E2853" s="2">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="2854" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2854" s="3"/>
+      <c r="C2854" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2854" s="2">
+        <v>42031</v>
+      </c>
+      <c r="E2854" s="2">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="2855" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2855" s="3"/>
+      <c r="C2855" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2855" s="2">
+        <v>47938</v>
+      </c>
+      <c r="E2855" s="2">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="2856" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2856" s="3"/>
+      <c r="C2856" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2856" s="2">
+        <v>41642</v>
+      </c>
+      <c r="E2856" s="2">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="2857" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2857" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2857" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2857" s="2">
+        <v>19625</v>
+      </c>
+      <c r="E2857" s="2">
+        <v>1743</v>
+      </c>
+      <c r="I2857" s="2">
+        <v>1534640</v>
+      </c>
+    </row>
+    <row r="2858" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2858" s="3"/>
+      <c r="C2858" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2858" s="2">
+        <v>18976</v>
+      </c>
+      <c r="E2858" s="2">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="2859" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2859" s="3"/>
+      <c r="C2859" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2859" s="2">
+        <v>18887</v>
+      </c>
+      <c r="E2859" s="2">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="2860" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2860" s="3"/>
+      <c r="C2860" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2860" s="2">
+        <v>16455</v>
+      </c>
+      <c r="E2860" s="2">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="2861" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2861" s="3"/>
+      <c r="C2861" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2861" s="2">
+        <v>16954</v>
+      </c>
+      <c r="E2861" s="2">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="2862" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2862" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2862" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2862" s="2">
+        <v>19985</v>
+      </c>
+      <c r="E2862" s="2">
+        <v>1007</v>
+      </c>
+      <c r="I2862" s="2">
+        <v>886213</v>
+      </c>
+    </row>
+    <row r="2863" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2863" s="3"/>
+      <c r="C2863" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2863" s="2">
+        <v>24153</v>
+      </c>
+      <c r="E2863" s="2">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="2864" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2864" s="3"/>
+      <c r="C2864" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2864" s="2">
+        <v>16254</v>
+      </c>
+      <c r="E2864" s="2">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="2865" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2865" s="3"/>
+      <c r="C2865" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2865" s="2">
+        <v>9273</v>
+      </c>
+      <c r="E2865" s="2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="2866" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2866" s="3"/>
+      <c r="C2866" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2866" s="2">
+        <v>12499</v>
+      </c>
+      <c r="E2866" s="2">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="2867" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2867" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2867" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2867" s="2">
+        <v>22239</v>
+      </c>
+      <c r="E2867" s="2">
+        <v>2608</v>
+      </c>
+      <c r="I2867" s="2">
+        <v>1146819</v>
+      </c>
+    </row>
+    <row r="2868" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2868" s="3"/>
+      <c r="C2868" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2868" s="2">
+        <v>9104</v>
+      </c>
+      <c r="E2868" s="2">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2869" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2869" s="3"/>
+      <c r="C2869" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2869" s="2">
+        <v>7301</v>
+      </c>
+      <c r="E2869" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2870" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2870" s="3"/>
+      <c r="C2870" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2870" s="2">
+        <v>2239</v>
+      </c>
+      <c r="E2870" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2871" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2871" s="3"/>
+      <c r="C2871" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2871" s="2">
+        <v>1537</v>
+      </c>
+      <c r="E2871" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2872" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2872" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2872" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2872" s="2">
+        <v>22016</v>
+      </c>
+      <c r="E2872" s="2">
+        <v>1619</v>
+      </c>
+      <c r="I2872" s="2">
+        <f>SUM(89854+734846)</f>
+        <v>824700</v>
+      </c>
+    </row>
+    <row r="2873" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2873" s="3"/>
+      <c r="C2873" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2873" s="2">
+        <v>8610</v>
+      </c>
+      <c r="E2873" s="2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="2874" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2874" s="3"/>
+      <c r="C2874" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2874" s="2">
+        <v>7334</v>
+      </c>
+      <c r="E2874" s="2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2875" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2875" s="3"/>
+      <c r="C2875" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2875" s="2">
+        <v>4311</v>
+      </c>
+      <c r="E2875" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2876" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2876" s="3"/>
+      <c r="C2876" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2876" s="2">
+        <v>4578</v>
+      </c>
+      <c r="E2876" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2877" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2877" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2877" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2878" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2878" s="3"/>
+      <c r="C2878" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2879" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2879" s="3"/>
+      <c r="C2879" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2880" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2880" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2881" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C2881" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72F04D1-BAB4-5940-A15A-FF53A9F055B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA57B4-4B9D-4442-B6A4-CE5DAEFB2F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15960" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16540" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2881"/>
+  <dimension ref="A1:M2911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2829" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2852" sqref="E2852"/>
+    <sheetView tabSelected="1" topLeftCell="A2862" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2882" sqref="E2882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -62162,10 +62162,6 @@
         <f t="shared" si="136"/>
         <v>9</v>
       </c>
-      <c r="G2681" s="2">
-        <f t="shared" si="136"/>
-        <v>-1033</v>
-      </c>
     </row>
     <row r="2682" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2682" s="3" t="s">
@@ -62771,10 +62767,6 @@
         <f t="shared" ref="F2711:G2774" si="137">SUM(D2711-D2681)</f>
         <v>3</v>
       </c>
-      <c r="G2711" s="2">
-        <f t="shared" si="137"/>
-        <v>1038</v>
-      </c>
     </row>
     <row r="2712" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2712" s="3" t="s">
@@ -62792,10 +62784,6 @@
       <c r="F2712" s="2">
         <f t="shared" si="137"/>
         <v>24</v>
-      </c>
-      <c r="G2712" s="2">
-        <f t="shared" si="137"/>
-        <v>-5</v>
       </c>
       <c r="I2712" s="2">
         <v>842960</v>
@@ -62816,10 +62804,6 @@
         <f t="shared" si="137"/>
         <v>16</v>
       </c>
-      <c r="G2713" s="2">
-        <f t="shared" si="137"/>
-        <v>-11</v>
-      </c>
     </row>
     <row r="2714" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2714" s="3"/>
@@ -62836,10 +62820,6 @@
         <f t="shared" si="137"/>
         <v>19</v>
       </c>
-      <c r="G2714" s="2">
-        <f t="shared" si="137"/>
-        <v>-2</v>
-      </c>
     </row>
     <row r="2715" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2715" s="3"/>
@@ -62856,10 +62836,6 @@
         <f t="shared" si="137"/>
         <v>5</v>
       </c>
-      <c r="G2715" s="2">
-        <f t="shared" si="137"/>
-        <v>-7</v>
-      </c>
     </row>
     <row r="2716" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2716" s="3"/>
@@ -62876,10 +62852,6 @@
         <f t="shared" si="137"/>
         <v>8</v>
       </c>
-      <c r="G2716" s="2">
-        <f t="shared" si="137"/>
-        <v>-4</v>
-      </c>
     </row>
     <row r="2717" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2717" s="3" t="s">
@@ -62897,10 +62869,6 @@
       <c r="F2717" s="2">
         <f t="shared" si="137"/>
         <v>65</v>
-      </c>
-      <c r="G2717" s="2">
-        <f t="shared" si="137"/>
-        <v>-1544</v>
       </c>
       <c r="I2717" s="2">
         <v>1045057</v>
@@ -63530,10 +63498,6 @@
         <f t="shared" si="137"/>
         <v>60</v>
       </c>
-      <c r="G2747" s="2">
-        <f t="shared" si="137"/>
-        <v>1554</v>
-      </c>
       <c r="I2747" s="2">
         <v>1061859</v>
       </c>
@@ -64117,7 +64081,7 @@
         <v>933</v>
       </c>
       <c r="F2775" s="2">
-        <f t="shared" ref="F2775:G2791" si="138">SUM(D2775-D2745)</f>
+        <f t="shared" ref="F2775:G2792" si="138">SUM(D2775-D2745)</f>
         <v>16</v>
       </c>
       <c r="G2775" s="2">
@@ -64475,6 +64439,14 @@
       <c r="E2792" s="2">
         <v>4027</v>
       </c>
+      <c r="F2792" s="2">
+        <f t="shared" si="138"/>
+        <v>137</v>
+      </c>
+      <c r="G2792" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
       <c r="I2792" s="2">
         <v>4107985</v>
       </c>
@@ -64490,6 +64462,14 @@
       <c r="E2793" s="2">
         <v>4525</v>
       </c>
+      <c r="F2793" s="2">
+        <f t="shared" ref="F2793:G2856" si="139">SUM(D2793-D2763)</f>
+        <v>102</v>
+      </c>
+      <c r="G2793" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2794" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2794" s="3"/>
@@ -64502,6 +64482,14 @@
       <c r="E2794" s="2">
         <v>2697</v>
       </c>
+      <c r="F2794" s="2">
+        <f t="shared" si="139"/>
+        <v>37</v>
+      </c>
+      <c r="G2794" s="2">
+        <f t="shared" si="139"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2795" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2795" s="3"/>
@@ -64514,6 +64502,14 @@
       <c r="E2795" s="2">
         <v>3042</v>
       </c>
+      <c r="F2795" s="2">
+        <f t="shared" si="139"/>
+        <v>80</v>
+      </c>
+      <c r="G2795" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2796" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2796" s="3"/>
@@ -64526,6 +64522,14 @@
       <c r="E2796" s="2">
         <v>2029</v>
       </c>
+      <c r="F2796" s="2">
+        <f t="shared" si="139"/>
+        <v>47</v>
+      </c>
+      <c r="G2796" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2797" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2797" s="3" t="s">
@@ -64539,6 +64543,14 @@
       </c>
       <c r="E2797" s="2">
         <v>1739</v>
+      </c>
+      <c r="F2797" s="2">
+        <f t="shared" si="139"/>
+        <v>58</v>
+      </c>
+      <c r="G2797" s="2">
+        <f t="shared" si="139"/>
+        <v>6</v>
       </c>
       <c r="I2797" s="2">
         <v>1485501</v>
@@ -64555,6 +64567,14 @@
       <c r="E2798" s="2">
         <v>1287</v>
       </c>
+      <c r="F2798" s="2">
+        <f t="shared" si="139"/>
+        <v>39</v>
+      </c>
+      <c r="G2798" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2799" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2799" s="3"/>
@@ -64567,6 +64587,14 @@
       <c r="E2799" s="2">
         <v>1793</v>
       </c>
+      <c r="F2799" s="2">
+        <f t="shared" si="139"/>
+        <v>38</v>
+      </c>
+      <c r="G2799" s="2">
+        <f t="shared" si="139"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="2800" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2800" s="3"/>
@@ -64579,6 +64607,14 @@
       <c r="E2800" s="2">
         <v>1151</v>
       </c>
+      <c r="F2800" s="2">
+        <f t="shared" si="139"/>
+        <v>22</v>
+      </c>
+      <c r="G2800" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2801" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2801" s="3"/>
@@ -64591,6 +64627,14 @@
       <c r="E2801" s="2">
         <v>1045</v>
       </c>
+      <c r="F2801" s="2">
+        <f t="shared" si="139"/>
+        <v>7</v>
+      </c>
+      <c r="G2801" s="2">
+        <f t="shared" si="139"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="2802" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2802" s="3" t="s">
@@ -64604,6 +64648,14 @@
       </c>
       <c r="E2802" s="2">
         <v>1009</v>
+      </c>
+      <c r="F2802" s="2">
+        <f t="shared" si="139"/>
+        <v>44</v>
+      </c>
+      <c r="G2802" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
       </c>
       <c r="I2802" s="2">
         <v>872380</v>
@@ -64620,6 +64672,14 @@
       <c r="E2803" s="2">
         <v>1870</v>
       </c>
+      <c r="F2803" s="2">
+        <f t="shared" si="139"/>
+        <v>44</v>
+      </c>
+      <c r="G2803" s="2">
+        <f t="shared" si="139"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2804" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2804" s="3"/>
@@ -64627,10 +64687,18 @@
         <v>12</v>
       </c>
       <c r="D2804" s="2">
-        <v>17210</v>
+        <v>16210</v>
       </c>
       <c r="E2804" s="2">
         <v>1116</v>
+      </c>
+      <c r="F2804" s="2">
+        <f t="shared" si="139"/>
+        <v>34</v>
+      </c>
+      <c r="G2804" s="2">
+        <f t="shared" si="139"/>
+        <v>5</v>
       </c>
     </row>
     <row r="2805" spans="2:9" x14ac:dyDescent="0.2">
@@ -64644,6 +64712,14 @@
       <c r="E2805" s="2">
         <v>934</v>
       </c>
+      <c r="F2805" s="2">
+        <f t="shared" si="139"/>
+        <v>42</v>
+      </c>
+      <c r="G2805" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2806" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2806" s="3"/>
@@ -64656,6 +64732,14 @@
       <c r="E2806" s="2">
         <v>935</v>
       </c>
+      <c r="F2806" s="2">
+        <f t="shared" si="139"/>
+        <v>36</v>
+      </c>
+      <c r="G2806" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2807" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2807" s="3" t="s">
@@ -64669,6 +64753,14 @@
       </c>
       <c r="E2807" s="2">
         <v>2608</v>
+      </c>
+      <c r="F2807" s="2">
+        <f t="shared" si="139"/>
+        <v>64</v>
+      </c>
+      <c r="G2807" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
       <c r="I2807" s="2">
         <v>1108265</v>
@@ -64685,6 +64777,14 @@
       <c r="E2808" s="2">
         <v>1049</v>
       </c>
+      <c r="F2808" s="2">
+        <f t="shared" si="139"/>
+        <v>53</v>
+      </c>
+      <c r="G2808" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2809" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2809" s="3"/>
@@ -64697,6 +64797,14 @@
       <c r="E2809" s="2">
         <v>882</v>
       </c>
+      <c r="F2809" s="2">
+        <f t="shared" si="139"/>
+        <v>34</v>
+      </c>
+      <c r="G2809" s="2">
+        <f t="shared" si="139"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2810" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2810" s="3"/>
@@ -64709,6 +64817,14 @@
       <c r="E2810" s="2">
         <v>263</v>
       </c>
+      <c r="F2810" s="2">
+        <f t="shared" si="139"/>
+        <v>11</v>
+      </c>
+      <c r="G2810" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2811" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2811" s="3"/>
@@ -64721,6 +64837,14 @@
       <c r="E2811" s="2">
         <v>106</v>
       </c>
+      <c r="F2811" s="2">
+        <f t="shared" si="139"/>
+        <v>14</v>
+      </c>
+      <c r="G2811" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2812" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2812" s="3" t="s">
@@ -64734,6 +64858,14 @@
       </c>
       <c r="E2812" s="2">
         <v>1619</v>
+      </c>
+      <c r="F2812" s="2">
+        <f t="shared" si="139"/>
+        <v>23</v>
+      </c>
+      <c r="G2812" s="2">
+        <f t="shared" si="139"/>
+        <v>4</v>
       </c>
       <c r="I2812" s="2">
         <f>SUM(88741+715403)</f>
@@ -64751,6 +64883,14 @@
       <c r="E2813" s="2">
         <v>810</v>
       </c>
+      <c r="F2813" s="2">
+        <f t="shared" si="139"/>
+        <v>48</v>
+      </c>
+      <c r="G2813" s="2">
+        <f t="shared" si="139"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="2814" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2814" s="3"/>
@@ -64763,6 +64903,14 @@
       <c r="E2814" s="2">
         <v>702</v>
       </c>
+      <c r="F2814" s="2">
+        <f t="shared" si="139"/>
+        <v>35</v>
+      </c>
+      <c r="G2814" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2815" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2815" s="3"/>
@@ -64775,6 +64923,14 @@
       <c r="E2815" s="2">
         <v>307</v>
       </c>
+      <c r="F2815" s="2">
+        <f t="shared" si="139"/>
+        <v>12</v>
+      </c>
+      <c r="G2815" s="2">
+        <f t="shared" si="139"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2816" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2816" s="3"/>
@@ -64787,6 +64943,14 @@
       <c r="E2816" s="2">
         <v>352</v>
       </c>
+      <c r="F2816" s="2">
+        <f t="shared" si="139"/>
+        <v>6</v>
+      </c>
+      <c r="G2816" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2817" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2817" s="3" t="s">
@@ -64800,6 +64964,14 @@
       </c>
       <c r="E2817" s="2">
         <v>3454</v>
+      </c>
+      <c r="F2817" s="2">
+        <f t="shared" si="139"/>
+        <v>92</v>
+      </c>
+      <c r="G2817" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
       <c r="I2817" s="2">
         <v>4553031</v>
@@ -64816,6 +64988,14 @@
       <c r="E2818" s="2">
         <v>387</v>
       </c>
+      <c r="F2818" s="2">
+        <f t="shared" si="139"/>
+        <v>490</v>
+      </c>
+      <c r="G2818" s="2">
+        <f t="shared" si="139"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="2819" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2819" s="3"/>
@@ -64828,6 +65008,14 @@
       <c r="E2819" s="2">
         <v>479</v>
       </c>
+      <c r="F2819" s="2">
+        <f t="shared" si="139"/>
+        <v>918</v>
+      </c>
+      <c r="G2819" s="2">
+        <f t="shared" si="139"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="2820" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2820" s="3" t="s">
@@ -64839,6 +65027,14 @@
       <c r="E2820" s="2">
         <v>160</v>
       </c>
+      <c r="F2820" s="2">
+        <f t="shared" si="139"/>
+        <v>98</v>
+      </c>
+      <c r="G2820" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2821" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2821" s="3" t="s">
@@ -64850,6 +65046,14 @@
       <c r="E2821" s="2">
         <v>360</v>
       </c>
+      <c r="F2821" s="2">
+        <f t="shared" si="139"/>
+        <v>1763</v>
+      </c>
+      <c r="G2821" s="2">
+        <f t="shared" si="139"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="2822" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2822" s="1">
@@ -64866,6 +65070,14 @@
       </c>
       <c r="E2822" s="2">
         <v>4028</v>
+      </c>
+      <c r="F2822" s="2">
+        <f t="shared" si="139"/>
+        <v>95</v>
+      </c>
+      <c r="G2822" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
       </c>
       <c r="I2822" s="2">
         <v>4170388</v>
@@ -64882,8 +65094,14 @@
       <c r="E2823" s="2">
         <v>4525</v>
       </c>
-      <c r="F2823" s="3"/>
-      <c r="G2823" s="3"/>
+      <c r="F2823" s="2">
+        <f t="shared" si="139"/>
+        <v>121</v>
+      </c>
+      <c r="G2823" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2824" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2824" s="3"/>
@@ -64896,8 +65114,14 @@
       <c r="E2824">
         <v>2697</v>
       </c>
-      <c r="F2824" s="3"/>
-      <c r="G2824" s="3"/>
+      <c r="F2824" s="2">
+        <f t="shared" si="139"/>
+        <v>41</v>
+      </c>
+      <c r="G2824" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2825" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2825" s="3"/>
@@ -64910,8 +65134,14 @@
       <c r="E2825" s="2">
         <v>3044</v>
       </c>
-      <c r="F2825" s="3"/>
-      <c r="G2825" s="3"/>
+      <c r="F2825" s="2">
+        <f t="shared" si="139"/>
+        <v>64</v>
+      </c>
+      <c r="G2825" s="2">
+        <f t="shared" si="139"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2826" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2826" s="3"/>
@@ -64924,8 +65154,14 @@
       <c r="E2826" s="2">
         <v>2029</v>
       </c>
-      <c r="F2826" s="3"/>
-      <c r="G2826" s="3"/>
+      <c r="F2826" s="2">
+        <f t="shared" si="139"/>
+        <v>47</v>
+      </c>
+      <c r="G2826" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2827" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2827" s="3" t="s">
@@ -64940,8 +65176,14 @@
       <c r="E2827" s="2">
         <v>1742</v>
       </c>
-      <c r="F2827" s="3"/>
-      <c r="G2827" s="3"/>
+      <c r="F2827" s="2">
+        <f t="shared" si="139"/>
+        <v>30</v>
+      </c>
+      <c r="G2827" s="2">
+        <f t="shared" si="139"/>
+        <v>3</v>
+      </c>
       <c r="I2827" s="2">
         <v>1508548</v>
       </c>
@@ -64957,8 +65199,14 @@
       <c r="E2828" s="2">
         <v>1288</v>
       </c>
-      <c r="F2828" s="3"/>
-      <c r="G2828" s="3"/>
+      <c r="F2828" s="2">
+        <f t="shared" si="139"/>
+        <v>32</v>
+      </c>
+      <c r="G2828" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2829" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2829" s="3"/>
@@ -64971,8 +65219,14 @@
       <c r="E2829" s="2">
         <v>1797</v>
       </c>
-      <c r="F2829" s="3"/>
-      <c r="G2829" s="3"/>
+      <c r="F2829" s="2">
+        <f t="shared" si="139"/>
+        <v>17</v>
+      </c>
+      <c r="G2829" s="2">
+        <f t="shared" si="139"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="2830" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2830" s="3"/>
@@ -64985,8 +65239,14 @@
       <c r="E2830" s="2">
         <v>1152</v>
       </c>
-      <c r="F2830" s="3"/>
-      <c r="G2830" s="3"/>
+      <c r="F2830" s="2">
+        <f t="shared" si="139"/>
+        <v>25</v>
+      </c>
+      <c r="G2830" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2831" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2831" s="3"/>
@@ -64999,8 +65259,14 @@
       <c r="E2831" s="2">
         <v>1045</v>
       </c>
-      <c r="F2831" s="3"/>
-      <c r="G2831" s="3"/>
+      <c r="F2831" s="2">
+        <f t="shared" si="139"/>
+        <v>14</v>
+      </c>
+      <c r="G2831" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2832" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2832" s="3" t="s">
@@ -65015,8 +65281,14 @@
       <c r="E2832" s="2">
         <v>1008</v>
       </c>
-      <c r="F2832" s="3"/>
-      <c r="G2832" s="3"/>
+      <c r="F2832" s="2">
+        <f t="shared" si="139"/>
+        <v>36</v>
+      </c>
+      <c r="G2832" s="2">
+        <f t="shared" si="139"/>
+        <v>-1</v>
+      </c>
       <c r="I2832" s="2">
         <v>880320</v>
       </c>
@@ -65032,8 +65304,14 @@
       <c r="E2833" s="2">
         <v>1877</v>
       </c>
-      <c r="F2833" s="3"/>
-      <c r="G2833" s="3"/>
+      <c r="F2833" s="2">
+        <f t="shared" si="139"/>
+        <v>32</v>
+      </c>
+      <c r="G2833" s="2">
+        <f t="shared" si="139"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="2834" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2834" s="3"/>
@@ -65046,8 +65324,14 @@
       <c r="E2834" s="2">
         <v>1119</v>
       </c>
-      <c r="F2834" s="3"/>
-      <c r="G2834" s="3"/>
+      <c r="F2834" s="2">
+        <f t="shared" si="139"/>
+        <v>25</v>
+      </c>
+      <c r="G2834" s="2">
+        <f t="shared" si="139"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2835" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2835" s="3"/>
@@ -65060,8 +65344,14 @@
       <c r="E2835" s="2">
         <v>937</v>
       </c>
-      <c r="F2835" s="3"/>
-      <c r="G2835" s="3"/>
+      <c r="F2835" s="2">
+        <f t="shared" si="139"/>
+        <v>18</v>
+      </c>
+      <c r="G2835" s="2">
+        <f t="shared" si="139"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2836" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2836" s="3"/>
@@ -65074,8 +65364,14 @@
       <c r="E2836" s="2">
         <v>937</v>
       </c>
-      <c r="F2836" s="3"/>
-      <c r="G2836" s="3"/>
+      <c r="F2836" s="2">
+        <f t="shared" si="139"/>
+        <v>38</v>
+      </c>
+      <c r="G2836" s="2">
+        <f t="shared" si="139"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2837" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2837" s="3" t="s">
@@ -65090,8 +65386,14 @@
       <c r="E2837" s="2">
         <v>2608</v>
       </c>
-      <c r="F2837" s="3"/>
-      <c r="G2837" s="3"/>
+      <c r="F2837" s="2">
+        <f t="shared" si="139"/>
+        <v>68</v>
+      </c>
+      <c r="G2837" s="2">
+        <f>SUM(E2837-E2807)</f>
+        <v>0</v>
+      </c>
       <c r="I2837" s="2">
         <v>1130154</v>
       </c>
@@ -65107,8 +65409,14 @@
       <c r="E2838" s="2">
         <v>1049</v>
       </c>
-      <c r="F2838" s="3"/>
-      <c r="G2838" s="3"/>
+      <c r="F2838" s="2">
+        <f t="shared" si="139"/>
+        <v>45</v>
+      </c>
+      <c r="G2838" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2839" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2839" s="3"/>
@@ -65121,8 +65429,14 @@
       <c r="E2839" s="2">
         <v>882</v>
       </c>
-      <c r="F2839" s="3"/>
-      <c r="G2839" s="3"/>
+      <c r="F2839" s="2">
+        <f t="shared" si="139"/>
+        <v>19</v>
+      </c>
+      <c r="G2839" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2840" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2840" s="3"/>
@@ -65135,8 +65449,14 @@
       <c r="E2840" s="2">
         <v>263</v>
       </c>
-      <c r="F2840" s="3"/>
-      <c r="G2840" s="3"/>
+      <c r="F2840" s="2">
+        <f t="shared" si="139"/>
+        <v>8</v>
+      </c>
+      <c r="G2840" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2841" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2841" s="3"/>
@@ -65149,8 +65469,14 @@
       <c r="E2841" s="2">
         <v>106</v>
       </c>
-      <c r="F2841" s="3"/>
-      <c r="G2841" s="3"/>
+      <c r="F2841" s="2">
+        <f t="shared" si="139"/>
+        <v>3</v>
+      </c>
+      <c r="G2841" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2842" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2842" s="3" t="s">
@@ -65165,8 +65491,14 @@
       <c r="E2842" s="2">
         <v>1619</v>
       </c>
-      <c r="F2842" s="3"/>
-      <c r="G2842" s="3"/>
+      <c r="F2842" s="2">
+        <f t="shared" si="139"/>
+        <v>133</v>
+      </c>
+      <c r="G2842" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
       <c r="I2842" s="2">
         <f>SUM(89375+725448)</f>
         <v>814823</v>
@@ -65183,8 +65515,14 @@
       <c r="E2843" s="2">
         <v>810</v>
       </c>
-      <c r="F2843" s="3"/>
-      <c r="G2843" s="3"/>
+      <c r="F2843" s="2">
+        <f t="shared" si="139"/>
+        <v>27</v>
+      </c>
+      <c r="G2843" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2844" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2844" s="3"/>
@@ -65197,8 +65535,14 @@
       <c r="E2844" s="2">
         <v>702</v>
       </c>
-      <c r="F2844" s="3"/>
-      <c r="G2844" s="3"/>
+      <c r="F2844" s="2">
+        <f t="shared" si="139"/>
+        <v>15</v>
+      </c>
+      <c r="G2844" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2845" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2845" s="3"/>
@@ -65211,8 +65555,14 @@
       <c r="E2845" s="2">
         <v>307</v>
       </c>
-      <c r="F2845" s="3"/>
-      <c r="G2845" s="3"/>
+      <c r="F2845" s="2">
+        <f t="shared" si="139"/>
+        <v>11</v>
+      </c>
+      <c r="G2845" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2846" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2846" s="3"/>
@@ -65225,8 +65575,14 @@
       <c r="E2846" s="2">
         <v>352</v>
       </c>
-      <c r="F2846" s="3"/>
-      <c r="G2846" s="3"/>
+      <c r="F2846" s="2">
+        <f t="shared" si="139"/>
+        <v>2</v>
+      </c>
+      <c r="G2846" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2847" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2847" s="3" t="s">
@@ -65241,8 +65597,14 @@
       <c r="E2847" s="2">
         <v>3454</v>
       </c>
-      <c r="F2847" s="3"/>
-      <c r="G2847" s="3"/>
+      <c r="F2847" s="2">
+        <f t="shared" si="139"/>
+        <v>20</v>
+      </c>
+      <c r="G2847" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
       <c r="I2847" s="2">
         <v>4680138</v>
       </c>
@@ -65258,8 +65620,14 @@
       <c r="E2848" s="2">
         <v>387</v>
       </c>
-      <c r="F2848" s="3"/>
-      <c r="G2848" s="3"/>
+      <c r="F2848" s="2">
+        <f t="shared" si="139"/>
+        <v>468</v>
+      </c>
+      <c r="G2848" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2849" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2849" s="3"/>
@@ -65272,8 +65640,14 @@
       <c r="E2849" s="2">
         <v>479</v>
       </c>
-      <c r="F2849" s="3"/>
-      <c r="G2849" s="3"/>
+      <c r="F2849" s="2">
+        <f t="shared" si="139"/>
+        <v>337</v>
+      </c>
+      <c r="G2849" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2850" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2850" s="3" t="s">
@@ -65285,8 +65659,14 @@
       <c r="E2850" s="2">
         <v>160</v>
       </c>
-      <c r="F2850" s="3"/>
-      <c r="G2850" s="3"/>
+      <c r="F2850" s="2">
+        <f t="shared" si="139"/>
+        <v>225</v>
+      </c>
+      <c r="G2850" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2851" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2851" s="3" t="s">
@@ -65298,8 +65678,14 @@
       <c r="E2851" s="2">
         <v>363</v>
       </c>
-      <c r="F2851"/>
-      <c r="G2851" s="3"/>
+      <c r="F2851" s="2">
+        <f t="shared" si="139"/>
+        <v>428</v>
+      </c>
+      <c r="G2851" s="2">
+        <f t="shared" si="139"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2852" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2852" s="1">
@@ -65317,8 +65703,14 @@
       <c r="E2852">
         <v>4028</v>
       </c>
-      <c r="F2852"/>
-      <c r="G2852" s="3"/>
+      <c r="F2852" s="2">
+        <f t="shared" si="139"/>
+        <v>76</v>
+      </c>
+      <c r="G2852" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
       <c r="I2852" s="2">
         <v>4233803</v>
       </c>
@@ -65334,6 +65726,14 @@
       <c r="E2853" s="2">
         <v>4525</v>
       </c>
+      <c r="F2853" s="2">
+        <f t="shared" si="139"/>
+        <v>71</v>
+      </c>
+      <c r="G2853" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2854" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2854" s="3"/>
@@ -65346,6 +65746,14 @@
       <c r="E2854" s="2">
         <v>2697</v>
       </c>
+      <c r="F2854" s="2">
+        <f t="shared" si="139"/>
+        <v>43</v>
+      </c>
+      <c r="G2854" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2855" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2855" s="3"/>
@@ -65358,6 +65766,14 @@
       <c r="E2855" s="2">
         <v>3046</v>
       </c>
+      <c r="F2855" s="2">
+        <f t="shared" si="139"/>
+        <v>36</v>
+      </c>
+      <c r="G2855" s="2">
+        <f t="shared" si="139"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2856" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2856" s="3"/>
@@ -65370,6 +65786,14 @@
       <c r="E2856" s="2">
         <v>2029</v>
       </c>
+      <c r="F2856" s="2">
+        <f t="shared" si="139"/>
+        <v>57</v>
+      </c>
+      <c r="G2856" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2857" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2857" s="3" t="s">
@@ -65383,6 +65807,14 @@
       </c>
       <c r="E2857" s="2">
         <v>1743</v>
+      </c>
+      <c r="F2857" s="2">
+        <f t="shared" ref="F2857:G2881" si="140">SUM(D2857-D2827)</f>
+        <v>63</v>
+      </c>
+      <c r="G2857" s="2">
+        <f t="shared" si="140"/>
+        <v>1</v>
       </c>
       <c r="I2857" s="2">
         <v>1534640</v>
@@ -65399,6 +65831,14 @@
       <c r="E2858" s="2">
         <v>1288</v>
       </c>
+      <c r="F2858" s="2">
+        <f t="shared" si="140"/>
+        <v>31</v>
+      </c>
+      <c r="G2858" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2859" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2859" s="3"/>
@@ -65411,6 +65851,14 @@
       <c r="E2859" s="2">
         <v>1799</v>
       </c>
+      <c r="F2859" s="2">
+        <f t="shared" si="140"/>
+        <v>28</v>
+      </c>
+      <c r="G2859" s="2">
+        <f t="shared" si="140"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2860" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2860" s="3"/>
@@ -65423,6 +65871,14 @@
       <c r="E2860" s="2">
         <v>1153</v>
       </c>
+      <c r="F2860" s="2">
+        <f t="shared" si="140"/>
+        <v>14</v>
+      </c>
+      <c r="G2860" s="2">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2861" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2861" s="3"/>
@@ -65435,6 +65891,14 @@
       <c r="E2861" s="2">
         <v>1047</v>
       </c>
+      <c r="F2861" s="2">
+        <f t="shared" si="140"/>
+        <v>13</v>
+      </c>
+      <c r="G2861" s="2">
+        <f t="shared" si="140"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2862" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2862" s="3" t="s">
@@ -65448,6 +65912,14 @@
       </c>
       <c r="E2862" s="2">
         <v>1007</v>
+      </c>
+      <c r="F2862" s="2">
+        <f t="shared" si="140"/>
+        <v>13</v>
+      </c>
+      <c r="G2862" s="2">
+        <f t="shared" si="140"/>
+        <v>-1</v>
       </c>
       <c r="I2862" s="2">
         <v>886213</v>
@@ -65464,6 +65936,14 @@
       <c r="E2863" s="2">
         <v>1879</v>
       </c>
+      <c r="F2863" s="2">
+        <f t="shared" si="140"/>
+        <v>38</v>
+      </c>
+      <c r="G2863" s="2">
+        <f t="shared" si="140"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="2864" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2864" s="3"/>
@@ -65476,6 +65956,14 @@
       <c r="E2864" s="2">
         <v>1119</v>
       </c>
+      <c r="F2864" s="2">
+        <f t="shared" si="140"/>
+        <v>19</v>
+      </c>
+      <c r="G2864" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2865" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2865" s="3"/>
@@ -65488,6 +65976,14 @@
       <c r="E2865" s="2">
         <v>940</v>
       </c>
+      <c r="F2865" s="2">
+        <f t="shared" si="140"/>
+        <v>13</v>
+      </c>
+      <c r="G2865" s="2">
+        <f t="shared" si="140"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="2866" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2866" s="3"/>
@@ -65500,6 +65996,14 @@
       <c r="E2866" s="2">
         <v>941</v>
       </c>
+      <c r="F2866" s="2">
+        <f t="shared" si="140"/>
+        <v>18</v>
+      </c>
+      <c r="G2866" s="2">
+        <f t="shared" si="140"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="2867" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2867" s="3" t="s">
@@ -65513,6 +66017,14 @@
       </c>
       <c r="E2867" s="2">
         <v>2608</v>
+      </c>
+      <c r="F2867" s="2">
+        <f t="shared" si="140"/>
+        <v>60</v>
+      </c>
+      <c r="G2867" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
       </c>
       <c r="I2867" s="2">
         <v>1146819</v>
@@ -65529,6 +66041,14 @@
       <c r="E2868" s="2">
         <v>1049</v>
       </c>
+      <c r="F2868" s="2">
+        <f t="shared" si="140"/>
+        <v>26</v>
+      </c>
+      <c r="G2868" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2869" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2869" s="3"/>
@@ -65541,6 +66061,14 @@
       <c r="E2869" s="2">
         <v>882</v>
       </c>
+      <c r="F2869" s="2">
+        <f t="shared" si="140"/>
+        <v>20</v>
+      </c>
+      <c r="G2869" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2870" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2870" s="3"/>
@@ -65553,6 +66081,14 @@
       <c r="E2870" s="2">
         <v>263</v>
       </c>
+      <c r="F2870" s="2">
+        <f t="shared" si="140"/>
+        <v>10</v>
+      </c>
+      <c r="G2870" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2871" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2871" s="3"/>
@@ -65565,6 +66101,14 @@
       <c r="E2871" s="2">
         <v>106</v>
       </c>
+      <c r="F2871" s="2">
+        <f t="shared" si="140"/>
+        <v>12</v>
+      </c>
+      <c r="G2871" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2872" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2872" s="3" t="s">
@@ -65578,6 +66122,14 @@
       </c>
       <c r="E2872" s="2">
         <v>1619</v>
+      </c>
+      <c r="F2872" s="2">
+        <f t="shared" si="140"/>
+        <v>-2</v>
+      </c>
+      <c r="G2872" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
       </c>
       <c r="I2872" s="2">
         <f>SUM(89854+734846)</f>
@@ -65595,6 +66147,14 @@
       <c r="E2873" s="2">
         <v>811</v>
       </c>
+      <c r="F2873" s="2">
+        <f t="shared" si="140"/>
+        <v>21</v>
+      </c>
+      <c r="G2873" s="2">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="2874" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2874" s="3"/>
@@ -65607,6 +66167,14 @@
       <c r="E2874" s="2">
         <v>702</v>
       </c>
+      <c r="F2874" s="2">
+        <f t="shared" si="140"/>
+        <v>31</v>
+      </c>
+      <c r="G2874" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2875" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2875" s="3"/>
@@ -65619,6 +66187,14 @@
       <c r="E2875" s="2">
         <v>307</v>
       </c>
+      <c r="F2875" s="2">
+        <f t="shared" si="140"/>
+        <v>8</v>
+      </c>
+      <c r="G2875" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2876" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2876" s="3"/>
@@ -65631,6 +66207,14 @@
       <c r="E2876" s="2">
         <v>352</v>
       </c>
+      <c r="F2876" s="2">
+        <f t="shared" si="140"/>
+        <v>7</v>
+      </c>
+      <c r="G2876" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2877" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2877" s="3" t="s">
@@ -65638,6 +66222,23 @@
       </c>
       <c r="C2877" s="3" t="s">
         <v>22</v>
+      </c>
+      <c r="D2877" s="2">
+        <v>115133</v>
+      </c>
+      <c r="E2877" s="2">
+        <v>3454</v>
+      </c>
+      <c r="F2877" s="2">
+        <f t="shared" si="140"/>
+        <v>7877</v>
+      </c>
+      <c r="G2877" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="I2877" s="2">
+        <v>4793353</v>
       </c>
     </row>
     <row r="2878" spans="2:9" x14ac:dyDescent="0.2">
@@ -65645,20 +66246,435 @@
       <c r="C2878" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="D2878" s="2">
+        <v>16728</v>
+      </c>
+      <c r="E2878" s="2">
+        <v>387</v>
+      </c>
+      <c r="F2878" s="2">
+        <f t="shared" si="140"/>
+        <v>562</v>
+      </c>
+      <c r="G2878" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2879" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2879" s="3"/>
       <c r="C2879" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D2879" s="2">
+        <v>21511</v>
+      </c>
+      <c r="E2879" s="2">
+        <v>479</v>
+      </c>
+      <c r="F2879" s="2">
+        <f t="shared" si="140"/>
+        <v>3</v>
+      </c>
+      <c r="G2879" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2880" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C2880" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2881" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="D2880" s="2">
+        <v>5237</v>
+      </c>
+      <c r="E2880" s="2">
+        <v>161</v>
+      </c>
+      <c r="F2880" s="2">
+        <f t="shared" si="140"/>
+        <v>192</v>
+      </c>
+      <c r="G2880" s="2">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2881" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2881" s="2">
+        <v>19430</v>
+      </c>
+      <c r="E2881" s="2">
+        <v>366</v>
+      </c>
+      <c r="F2881" s="2">
+        <f t="shared" si="140"/>
+        <v>183</v>
+      </c>
+      <c r="G2881" s="2">
+        <f t="shared" si="140"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2882" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B2882" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2882" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2882" s="2">
+        <v>65928</v>
+      </c>
+      <c r="E2882" s="2">
+        <v>4028</v>
+      </c>
+      <c r="I2882" s="2">
+        <v>4288131</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2883" s="3"/>
+      <c r="C2883" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2883" s="2">
+        <v>60211</v>
+      </c>
+      <c r="E2883" s="2">
+        <v>4526</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2884" s="3"/>
+      <c r="C2884" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2884" s="2">
+        <v>42053</v>
+      </c>
+      <c r="E2884" s="2">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2885" s="3"/>
+      <c r="C2885" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2885" s="2">
+        <v>47994</v>
+      </c>
+      <c r="E2885" s="2">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2886" s="3"/>
+      <c r="C2886" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2886" s="2">
+        <v>41685</v>
+      </c>
+      <c r="E2886" s="2">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2887" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2887" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2887" s="2">
+        <v>19655</v>
+      </c>
+      <c r="E2887" s="2">
+        <v>1745</v>
+      </c>
+      <c r="I2887" s="2">
+        <v>1549209</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2888" s="3"/>
+      <c r="C2888" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2888" s="2">
+        <v>18990</v>
+      </c>
+      <c r="E2888" s="2">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2889" s="3"/>
+      <c r="C2889" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2889" s="2">
+        <v>18895</v>
+      </c>
+      <c r="E2889" s="2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2890" s="3"/>
+      <c r="C2890" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2890" s="2">
+        <v>16432</v>
+      </c>
+      <c r="E2890" s="2">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2891" s="3"/>
+      <c r="C2891" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2891" s="2">
+        <v>16963</v>
+      </c>
+      <c r="E2891" s="2">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2892" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2892" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2892" s="2">
+        <v>20014</v>
+      </c>
+      <c r="E2892" s="2">
+        <v>1008</v>
+      </c>
+      <c r="I2892" s="2">
+        <v>893939</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2893" s="3"/>
+      <c r="C2893" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2893" s="2">
+        <v>24193</v>
+      </c>
+      <c r="E2893" s="2">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2894" s="3"/>
+      <c r="C2894" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2894" s="2">
+        <v>16283</v>
+      </c>
+      <c r="E2894" s="2">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2895" s="3"/>
+      <c r="C2895" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2895" s="2">
+        <v>9284</v>
+      </c>
+      <c r="E2895" s="2">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2896" s="3"/>
+      <c r="C2896" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2896" s="2">
+        <v>12515</v>
+      </c>
+      <c r="E2896" s="2">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="2897" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2897" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2897" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2897" s="2">
+        <v>22307</v>
+      </c>
+      <c r="E2897" s="2">
+        <v>2610</v>
+      </c>
+      <c r="I2897" s="2">
+        <v>1159363</v>
+      </c>
+    </row>
+    <row r="2898" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2898" s="3"/>
+      <c r="C2898" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2898" s="2">
+        <v>9128</v>
+      </c>
+      <c r="E2898" s="2">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2899" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2899" s="3"/>
+      <c r="C2899" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2899" s="2">
+        <v>7341</v>
+      </c>
+      <c r="E2899" s="2">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="2900" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2900" s="3"/>
+      <c r="C2900" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2900" s="2">
+        <v>2244</v>
+      </c>
+      <c r="E2900" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2901" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2901" s="3"/>
+      <c r="C2901" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2901" s="2">
+        <v>1547</v>
+      </c>
+      <c r="E2901" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2902" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2902" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2902" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2902" s="2">
+        <v>22014</v>
+      </c>
+      <c r="E2902" s="2">
+        <v>1619</v>
+      </c>
+      <c r="I2902" s="2">
+        <f>SUM(90304+743020)</f>
+        <v>833324</v>
+      </c>
+    </row>
+    <row r="2903" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2903" s="3"/>
+      <c r="C2903" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2903" s="2">
+        <v>8634</v>
+      </c>
+      <c r="E2903" s="2">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="2904" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2904" s="3"/>
+      <c r="C2904" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2904" s="2">
+        <v>7349</v>
+      </c>
+      <c r="E2904" s="2">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="2905" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2905" s="3"/>
+      <c r="C2905" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2905" s="2">
+        <v>4317</v>
+      </c>
+      <c r="E2905" s="2">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="2906" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2906" s="3"/>
+      <c r="C2906" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2906" s="2">
+        <v>4581</v>
+      </c>
+      <c r="E2906" s="2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2907" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2907" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2907" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2908" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2908" s="3"/>
+      <c r="C2908" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2909" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2909" s="3"/>
+      <c r="C2909" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2910" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2910" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2911" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2911" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71BA57B4-4B9D-4442-B6A4-CE5DAEFB2F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2249C9-C2F1-0143-ABFD-498D17F496C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16540" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16040" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3502" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2911"/>
+  <dimension ref="A1:M2941"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2862" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2882" sqref="E2882"/>
+    <sheetView tabSelected="1" topLeftCell="A2888" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2912" sqref="E2912"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66517,7 +66517,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="2897" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2897" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2897" s="3" t="s">
         <v>23</v>
       </c>
@@ -66534,7 +66534,7 @@
         <v>1159363</v>
       </c>
     </row>
-    <row r="2898" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2898" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2898" s="3"/>
       <c r="C2898" s="3" t="s">
         <v>25</v>
@@ -66546,7 +66546,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="2899" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2899" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2899" s="3"/>
       <c r="C2899" s="3" t="s">
         <v>28</v>
@@ -66558,7 +66558,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="2900" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2900" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2900" s="3"/>
       <c r="C2900" s="3" t="s">
         <v>38</v>
@@ -66570,7 +66570,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2901" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2901" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2901" s="3"/>
       <c r="C2901" s="3" t="s">
         <v>39</v>
@@ -66582,7 +66582,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2902" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2902" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2902" s="3" t="s">
         <v>16</v>
       </c>
@@ -66600,7 +66600,7 @@
         <v>833324</v>
       </c>
     </row>
-    <row r="2903" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2903" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2903" s="3"/>
       <c r="C2903" s="3" t="s">
         <v>18</v>
@@ -66612,7 +66612,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="2904" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2904" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2904" s="3"/>
       <c r="C2904" s="3" t="s">
         <v>19</v>
@@ -66624,7 +66624,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="2905" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2905" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2905" s="3"/>
       <c r="C2905" s="3" t="s">
         <v>40</v>
@@ -66636,7 +66636,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2906" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2906" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2906" s="3"/>
       <c r="C2906" s="3" t="s">
         <v>41</v>
@@ -66648,33 +66648,425 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2907" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2907" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2907" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2907" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2908" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2907" s="2">
+        <v>116707</v>
+      </c>
+      <c r="E2907" s="2">
+        <v>3534</v>
+      </c>
+      <c r="I2907" s="2">
+        <v>4896370</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2908" s="3"/>
       <c r="C2908" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2909" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2908" s="2">
+        <v>17002</v>
+      </c>
+      <c r="E2908" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2909" s="3"/>
       <c r="C2909" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2910" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2909" s="2">
+        <v>22485</v>
+      </c>
+      <c r="E2909" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2910" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2911" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2910" s="2">
+        <v>5369</v>
+      </c>
+      <c r="E2910" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2911" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2911" s="2">
+        <v>20167</v>
+      </c>
+      <c r="E2911" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2912" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B2912" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2912" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2912" s="2">
+        <v>66024</v>
+      </c>
+      <c r="E2912" s="2">
+        <v>4029</v>
+      </c>
+      <c r="I2912" s="2">
+        <v>4344867</v>
+      </c>
+    </row>
+    <row r="2913" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2913" s="3"/>
+      <c r="C2913" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2913" s="2">
+        <v>60281</v>
+      </c>
+      <c r="E2913" s="2">
+        <v>4528</v>
+      </c>
+    </row>
+    <row r="2914" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2914" s="3"/>
+      <c r="C2914" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2914" s="2">
+        <v>42088</v>
+      </c>
+      <c r="E2914" s="2">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="2915" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2915" s="3"/>
+      <c r="C2915" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2915" s="2">
+        <v>48038</v>
+      </c>
+      <c r="E2915" s="2">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="2916" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2916" s="3"/>
+      <c r="C2916" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2916" s="2">
+        <v>41730</v>
+      </c>
+      <c r="E2916" s="2">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="2917" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2917" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2917" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2917" s="2">
+        <v>19676</v>
+      </c>
+      <c r="E2917" s="2">
+        <v>1748</v>
+      </c>
+      <c r="I2917" s="2">
+        <v>1560133</v>
+      </c>
+    </row>
+    <row r="2918" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2918" s="3"/>
+      <c r="C2918" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2918" s="2">
+        <v>10916</v>
+      </c>
+      <c r="E2918" s="2">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="2919" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2919" s="3"/>
+      <c r="C2919" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2919" s="2">
+        <v>18918</v>
+      </c>
+      <c r="E2919" s="2">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="2920" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2920" s="3"/>
+      <c r="C2920" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2920" s="2">
+        <v>16450</v>
+      </c>
+      <c r="E2920" s="2">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="2921" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2921" s="3"/>
+      <c r="C2921" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2921" s="2">
+        <v>16974</v>
+      </c>
+      <c r="E2921" s="2">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="2922" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2922" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2922" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2922" s="2">
+        <v>20048</v>
+      </c>
+      <c r="E2922" s="2">
+        <v>1008</v>
+      </c>
+      <c r="I2922" s="2">
+        <v>901221</v>
+      </c>
+    </row>
+    <row r="2923" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2923" s="3"/>
+      <c r="C2923" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2923" s="2">
+        <v>24243</v>
+      </c>
+      <c r="E2923" s="2">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="2924" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2924" s="3"/>
+      <c r="C2924" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2924" s="2">
+        <v>16318</v>
+      </c>
+      <c r="E2924" s="2">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="2925" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2925" s="3"/>
+      <c r="C2925" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2925" s="2">
+        <v>9306</v>
+      </c>
+      <c r="E2925" s="2">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="2926" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2926" s="3"/>
+      <c r="C2926" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2926" s="2">
+        <v>12534</v>
+      </c>
+      <c r="E2926" s="2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2927" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2927" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2927" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2927" s="2">
+        <v>22397</v>
+      </c>
+      <c r="E2927" s="2">
+        <v>2621</v>
+      </c>
+      <c r="I2927" s="2">
+        <v>1176511</v>
+      </c>
+    </row>
+    <row r="2928" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2928" s="3"/>
+      <c r="C2928" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2928" s="2">
+        <v>9175</v>
+      </c>
+      <c r="E2928" s="2">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="2929" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2929" s="3"/>
+      <c r="C2929" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2929" s="2">
+        <v>7374</v>
+      </c>
+      <c r="E2929" s="2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="2930" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2930" s="3"/>
+      <c r="C2930" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2930" s="2">
+        <v>2251</v>
+      </c>
+      <c r="E2930" s="2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2931" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2931" s="3"/>
+      <c r="C2931" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2931" s="2">
+        <v>1561</v>
+      </c>
+      <c r="E2931" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2932" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2932" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2932" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2932" s="2">
+        <v>22302</v>
+      </c>
+      <c r="E2932" s="2">
+        <v>1621</v>
+      </c>
+      <c r="I2932" s="2">
+        <f>SUM(91299+758803)</f>
+        <v>850102</v>
+      </c>
+    </row>
+    <row r="2933" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2933" s="3"/>
+      <c r="C2933" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2933" s="2">
+        <v>8682</v>
+      </c>
+      <c r="E2933" s="2">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="2934" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2934" s="3"/>
+      <c r="C2934" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2934" s="2">
+        <v>7384</v>
+      </c>
+      <c r="E2934" s="2">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="2935" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2935" s="3"/>
+      <c r="C2935" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2935" s="2">
+        <v>4334</v>
+      </c>
+      <c r="E2935" s="2">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2936" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2936" s="3"/>
+      <c r="C2936" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2936" s="2">
+        <v>4606</v>
+      </c>
+      <c r="E2936" s="2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2937" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2937" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2937" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2938" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2938" s="3"/>
+      <c r="C2938" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2939" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2939" s="3"/>
+      <c r="C2939" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2940" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2940" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2941" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2941" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2249C9-C2F1-0143-ABFD-498D17F496C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988A05B2-A945-9844-8976-061109B0963B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16600" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2941"/>
+  <dimension ref="A1:M2971"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2888" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2912" sqref="E2912"/>
+    <sheetView tabSelected="1" topLeftCell="A2928" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2942" sqref="E2942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61074,7 +61074,7 @@
         <v>4</v>
       </c>
       <c r="H2629" s="2">
-        <f t="shared" ref="H2629:H2641" si="135">SUM(I2629-I2599)</f>
+        <f t="shared" ref="H2629:H2692" si="135">SUM(I2629-I2599)</f>
         <v>0</v>
       </c>
     </row>
@@ -61364,6 +61364,10 @@
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
+      <c r="H2642" s="2">
+        <f t="shared" si="135"/>
+        <v>61906</v>
+      </c>
       <c r="I2642" s="2">
         <v>3816485</v>
       </c>
@@ -61387,6 +61391,10 @@
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
+      <c r="H2643" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2644" s="3"/>
@@ -61407,6 +61415,10 @@
         <f t="shared" si="134"/>
         <v>1</v>
       </c>
+      <c r="H2644" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2645" s="3"/>
@@ -61427,6 +61439,10 @@
         <f t="shared" si="134"/>
         <v>0</v>
       </c>
+      <c r="H2645" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2646" s="3"/>
@@ -61447,6 +61463,10 @@
         <f t="shared" si="134"/>
         <v>1</v>
       </c>
+      <c r="H2646" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2647" s="3" t="s">
@@ -61468,6 +61488,10 @@
       <c r="G2647" s="2">
         <f t="shared" si="136"/>
         <v>0</v>
+      </c>
+      <c r="H2647" s="2">
+        <f t="shared" si="135"/>
+        <v>20583</v>
       </c>
       <c r="I2647" s="2">
         <v>1387833</v>
@@ -61492,6 +61516,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2648" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2649" s="3"/>
@@ -61512,6 +61540,10 @@
         <f t="shared" si="136"/>
         <v>3</v>
       </c>
+      <c r="H2649" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2650" s="3"/>
@@ -61532,6 +61564,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2650" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2651" s="3"/>
@@ -61552,6 +61588,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2651" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2652" s="3" t="s">
@@ -61573,6 +61613,10 @@
       <c r="G2652" s="2">
         <f t="shared" si="136"/>
         <v>0</v>
+      </c>
+      <c r="H2652" s="2">
+        <f t="shared" si="135"/>
+        <v>9391</v>
       </c>
       <c r="I2652" s="2">
         <v>830666</v>
@@ -61597,6 +61641,10 @@
         <f t="shared" si="136"/>
         <v>6</v>
       </c>
+      <c r="H2653" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2654" s="3"/>
@@ -61617,6 +61665,10 @@
         <f t="shared" si="136"/>
         <v>3</v>
       </c>
+      <c r="H2654" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2655" s="3"/>
@@ -61637,6 +61689,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2655" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2656" s="3"/>
@@ -61657,6 +61713,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2656" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2657" s="3" t="s">
@@ -61678,6 +61738,10 @@
       <c r="G2657" s="2">
         <f t="shared" si="136"/>
         <v>2</v>
+      </c>
+      <c r="H2657" s="2">
+        <f t="shared" si="135"/>
+        <v>15876</v>
       </c>
       <c r="I2657" s="2">
         <v>1016697</v>
@@ -61702,6 +61766,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2658" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2659" s="3"/>
@@ -61722,6 +61790,10 @@
         <f t="shared" si="136"/>
         <v>2</v>
       </c>
+      <c r="H2659" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2660" s="3"/>
@@ -61742,6 +61814,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2660" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2661" s="3"/>
@@ -61762,6 +61838,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2661" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2662" s="3" t="s">
@@ -61780,6 +61860,10 @@
       <c r="G2662" s="2">
         <f t="shared" si="136"/>
         <v>1</v>
+      </c>
+      <c r="H2662" s="2">
+        <f t="shared" si="135"/>
+        <v>11211</v>
       </c>
       <c r="I2662" s="2">
         <f>SUM(85496+657486)</f>
@@ -61802,6 +61886,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2663" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2664" s="3"/>
@@ -61819,6 +61907,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2664" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2665" s="3"/>
@@ -61836,6 +61928,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2665" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2666" s="3"/>
@@ -61853,6 +61949,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2666" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2667" s="3" t="s">
@@ -61874,6 +61974,10 @@
       <c r="G2667" s="2">
         <f t="shared" si="136"/>
         <v>20</v>
+      </c>
+      <c r="H2667" s="2">
+        <f t="shared" si="135"/>
+        <v>105740</v>
       </c>
       <c r="I2667" s="2">
         <v>4061692</v>
@@ -61898,6 +62002,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2668" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2669" s="3"/>
@@ -61918,6 +62026,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2669" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2670" s="3" t="s">
@@ -61937,6 +62049,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2670" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2671" s="3" t="s">
@@ -61956,6 +62072,10 @@
         <f t="shared" si="136"/>
         <v>3</v>
       </c>
+      <c r="H2671" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2672" s="1">
@@ -61980,6 +62100,10 @@
       <c r="G2672" s="2">
         <f t="shared" si="136"/>
         <v>0</v>
+      </c>
+      <c r="H2672" s="2">
+        <f t="shared" si="135"/>
+        <v>46428</v>
       </c>
       <c r="I2672" s="2">
         <v>3862913</v>
@@ -62004,6 +62128,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2673" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2674" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2674" s="3"/>
@@ -62024,6 +62152,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2674" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2675" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2675" s="3"/>
@@ -62044,6 +62176,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2675" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2676" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2676" s="3"/>
@@ -62064,6 +62200,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2676" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2677" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2677" s="3" t="s">
@@ -62085,6 +62225,10 @@
       <c r="G2677" s="2">
         <f t="shared" si="136"/>
         <v>2</v>
+      </c>
+      <c r="H2677" s="2">
+        <f t="shared" si="135"/>
+        <v>16151</v>
       </c>
       <c r="I2677" s="2">
         <v>1403984</v>
@@ -62109,6 +62253,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2678" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2679" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2679" s="3"/>
@@ -62129,6 +62277,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2679" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2680" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2680" s="3"/>
@@ -62149,6 +62301,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2680" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2681" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2681" s="3"/>
@@ -62162,6 +62318,10 @@
         <f t="shared" si="136"/>
         <v>9</v>
       </c>
+      <c r="H2681" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2682" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2682" s="3" t="s">
@@ -62183,6 +62343,10 @@
       <c r="G2682" s="2">
         <f t="shared" si="136"/>
         <v>3</v>
+      </c>
+      <c r="H2682" s="2">
+        <f t="shared" si="135"/>
+        <v>6481</v>
       </c>
       <c r="I2682" s="2">
         <v>837147</v>
@@ -62207,6 +62371,10 @@
         <f t="shared" si="136"/>
         <v>7</v>
       </c>
+      <c r="H2683" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2684" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2684" s="3"/>
@@ -62227,6 +62395,10 @@
         <f t="shared" si="136"/>
         <v>7</v>
       </c>
+      <c r="H2684" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2685" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2685" s="3"/>
@@ -62247,6 +62419,10 @@
         <f t="shared" si="136"/>
         <v>3</v>
       </c>
+      <c r="H2685" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2686" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2686" s="3"/>
@@ -62267,6 +62443,10 @@
         <f t="shared" si="136"/>
         <v>3</v>
       </c>
+      <c r="H2686" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2687" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2687" s="3" t="s">
@@ -62288,6 +62468,13 @@
       <c r="G2687" s="2">
         <f t="shared" si="136"/>
         <v>1</v>
+      </c>
+      <c r="H2687" s="2">
+        <f t="shared" si="135"/>
+        <v>12678</v>
+      </c>
+      <c r="I2687" s="2">
+        <v>1029375</v>
       </c>
     </row>
     <row r="2688" spans="2:9" x14ac:dyDescent="0.2">
@@ -62309,6 +62496,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2688" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2689" s="3"/>
@@ -62329,6 +62520,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2689" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2690" s="3"/>
@@ -62349,6 +62544,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2690" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2691" s="3"/>
@@ -62369,6 +62568,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2691" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2692" s="3" t="s">
@@ -62386,6 +62589,10 @@
       <c r="G2692" s="2">
         <f t="shared" si="136"/>
         <v>3</v>
+      </c>
+      <c r="H2692" s="2">
+        <f t="shared" si="135"/>
+        <v>9907</v>
       </c>
       <c r="I2692" s="2">
         <f>SUM(85988+666901)</f>
@@ -62407,6 +62614,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2693" s="2">
+        <f t="shared" ref="H2693:H2756" si="137">SUM(I2693-I2663)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="2694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2694" s="3"/>
@@ -62423,6 +62634,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2694" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2695" s="3"/>
@@ -62439,6 +62654,10 @@
         <f t="shared" si="136"/>
         <v>2</v>
       </c>
+      <c r="H2695" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2696" s="3"/>
@@ -62455,6 +62674,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2696" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2697" s="3" t="s">
@@ -62476,6 +62699,10 @@
       <c r="G2697" s="2">
         <f t="shared" si="136"/>
         <v>21</v>
+      </c>
+      <c r="H2697" s="2">
+        <f t="shared" si="137"/>
+        <v>105447</v>
       </c>
       <c r="I2697" s="2">
         <v>4167139</v>
@@ -62500,6 +62727,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2698" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2699" s="3"/>
@@ -62520,6 +62751,10 @@
         <f t="shared" si="136"/>
         <v>2</v>
       </c>
+      <c r="H2699" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2700" s="3" t="s">
@@ -62539,6 +62774,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2700" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2701" s="3" t="s">
@@ -62558,6 +62797,10 @@
         <f t="shared" si="136"/>
         <v>4</v>
       </c>
+      <c r="H2701" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2702" s="1">
@@ -62582,6 +62825,10 @@
       <c r="G2702" s="2">
         <f t="shared" si="136"/>
         <v>1</v>
+      </c>
+      <c r="H2702" s="2">
+        <f t="shared" si="137"/>
+        <v>52025</v>
       </c>
       <c r="I2702" s="2">
         <v>3914938</v>
@@ -62606,6 +62853,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2703" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2704" s="3"/>
@@ -62626,6 +62877,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2704" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2705" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2705" s="3"/>
@@ -62646,6 +62901,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2705" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2706" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2706" s="3"/>
@@ -62666,6 +62925,10 @@
         <f t="shared" si="136"/>
         <v>2</v>
       </c>
+      <c r="H2706" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2707" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2707" s="3" t="s">
@@ -62687,6 +62950,10 @@
       <c r="G2707" s="2">
         <f t="shared" si="136"/>
         <v>4</v>
+      </c>
+      <c r="H2707" s="2">
+        <f t="shared" si="137"/>
+        <v>18390</v>
       </c>
       <c r="I2707" s="2">
         <v>1422374</v>
@@ -62711,6 +62978,10 @@
         <f t="shared" si="136"/>
         <v>2</v>
       </c>
+      <c r="H2708" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2709" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2709" s="3"/>
@@ -62731,6 +63002,10 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
+      <c r="H2709" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2710" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2710" s="3"/>
@@ -62751,6 +63026,10 @@
         <f t="shared" si="136"/>
         <v>1</v>
       </c>
+      <c r="H2710" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2711" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2711" s="3"/>
@@ -62764,8 +63043,12 @@
         <v>1038</v>
       </c>
       <c r="F2711" s="2">
-        <f t="shared" ref="F2711:G2774" si="137">SUM(D2711-D2681)</f>
+        <f t="shared" ref="F2711:G2774" si="138">SUM(D2711-D2681)</f>
         <v>3</v>
+      </c>
+      <c r="H2711" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2712" spans="2:9" x14ac:dyDescent="0.2">
@@ -62782,8 +63065,12 @@
         <v>1002</v>
       </c>
       <c r="F2712" s="2">
+        <f t="shared" si="138"/>
+        <v>24</v>
+      </c>
+      <c r="H2712" s="2">
         <f t="shared" si="137"/>
-        <v>24</v>
+        <v>5813</v>
       </c>
       <c r="I2712" s="2">
         <v>842960</v>
@@ -62801,8 +63088,12 @@
         <v>1851</v>
       </c>
       <c r="F2713" s="2">
+        <f t="shared" si="138"/>
+        <v>16</v>
+      </c>
+      <c r="H2713" s="2">
         <f t="shared" si="137"/>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2714" spans="2:9" x14ac:dyDescent="0.2">
@@ -62817,8 +63108,12 @@
         <v>1104</v>
       </c>
       <c r="F2714" s="2">
+        <f t="shared" si="138"/>
+        <v>19</v>
+      </c>
+      <c r="H2714" s="2">
         <f t="shared" si="137"/>
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2715" spans="2:9" x14ac:dyDescent="0.2">
@@ -62833,8 +63128,12 @@
         <v>923</v>
       </c>
       <c r="F2715" s="2">
+        <f t="shared" si="138"/>
+        <v>5</v>
+      </c>
+      <c r="H2715" s="2">
         <f t="shared" si="137"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2716" spans="2:9" x14ac:dyDescent="0.2">
@@ -62849,8 +63148,12 @@
         <v>920</v>
       </c>
       <c r="F2716" s="2">
+        <f t="shared" si="138"/>
+        <v>8</v>
+      </c>
+      <c r="H2716" s="2">
         <f t="shared" si="137"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2717" spans="2:9" x14ac:dyDescent="0.2">
@@ -62867,8 +63170,12 @@
         <v>1048</v>
       </c>
       <c r="F2717" s="2">
+        <f t="shared" si="138"/>
+        <v>65</v>
+      </c>
+      <c r="H2717" s="2">
         <f t="shared" si="137"/>
-        <v>65</v>
+        <v>15682</v>
       </c>
       <c r="I2717" s="2">
         <v>1045057</v>
@@ -62886,12 +63193,16 @@
         <v>1048</v>
       </c>
       <c r="F2718" s="2">
+        <f t="shared" si="138"/>
+        <v>50</v>
+      </c>
+      <c r="G2718" s="2">
+        <f t="shared" si="138"/>
+        <v>5</v>
+      </c>
+      <c r="H2718" s="2">
         <f t="shared" si="137"/>
-        <v>50</v>
-      </c>
-      <c r="G2718" s="2">
-        <f t="shared" si="137"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2719" spans="2:9" x14ac:dyDescent="0.2">
@@ -62906,12 +63217,16 @@
         <v>879</v>
       </c>
       <c r="F2719" s="2">
+        <f t="shared" si="138"/>
+        <v>32</v>
+      </c>
+      <c r="G2719" s="2">
+        <f t="shared" si="138"/>
+        <v>9</v>
+      </c>
+      <c r="H2719" s="2">
         <f t="shared" si="137"/>
-        <v>32</v>
-      </c>
-      <c r="G2719" s="2">
-        <f t="shared" si="137"/>
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2720" spans="2:9" x14ac:dyDescent="0.2">
@@ -62926,10 +63241,14 @@
         <v>263</v>
       </c>
       <c r="F2720" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>9</v>
       </c>
       <c r="G2720" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2720" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -62946,12 +63265,16 @@
         <v>105</v>
       </c>
       <c r="F2721" s="2">
+        <f t="shared" si="138"/>
+        <v>13</v>
+      </c>
+      <c r="G2721" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="H2721" s="2">
         <f t="shared" si="137"/>
-        <v>13</v>
-      </c>
-      <c r="G2721" s="2">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2722" spans="1:9" x14ac:dyDescent="0.2">
@@ -62968,12 +63291,16 @@
         <v>1606</v>
       </c>
       <c r="F2722" s="2">
+        <f t="shared" si="138"/>
+        <v>88</v>
+      </c>
+      <c r="G2722" s="2">
+        <f t="shared" si="138"/>
+        <v>11</v>
+      </c>
+      <c r="H2722" s="2">
         <f t="shared" si="137"/>
-        <v>88</v>
-      </c>
-      <c r="G2722" s="2">
-        <f t="shared" si="137"/>
-        <v>11</v>
+        <v>11298</v>
       </c>
       <c r="I2722" s="2">
         <f>SUM(86606+677581)</f>
@@ -62992,12 +63319,16 @@
         <v>801</v>
       </c>
       <c r="F2723" s="2">
+        <f t="shared" si="138"/>
+        <v>35</v>
+      </c>
+      <c r="G2723" s="2">
+        <f t="shared" si="138"/>
+        <v>3</v>
+      </c>
+      <c r="H2723" s="2">
         <f t="shared" si="137"/>
-        <v>35</v>
-      </c>
-      <c r="G2723" s="2">
-        <f t="shared" si="137"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2724" spans="1:9" x14ac:dyDescent="0.2">
@@ -63012,10 +63343,14 @@
         <v>696</v>
       </c>
       <c r="F2724" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>31</v>
       </c>
       <c r="G2724" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2724" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63032,12 +63367,16 @@
         <v>297</v>
       </c>
       <c r="F2725" s="2">
+        <f t="shared" si="138"/>
+        <v>15</v>
+      </c>
+      <c r="G2725" s="2">
+        <f t="shared" si="138"/>
+        <v>3</v>
+      </c>
+      <c r="H2725" s="2">
         <f t="shared" si="137"/>
-        <v>15</v>
-      </c>
-      <c r="G2725" s="2">
-        <f t="shared" si="137"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2726" spans="1:9" x14ac:dyDescent="0.2">
@@ -63052,12 +63391,16 @@
         <v>351</v>
       </c>
       <c r="F2726" s="2">
+        <f t="shared" si="138"/>
+        <v>6</v>
+      </c>
+      <c r="G2726" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="H2726" s="2">
         <f t="shared" si="137"/>
-        <v>6</v>
-      </c>
-      <c r="G2726" s="2">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2727" spans="1:9" x14ac:dyDescent="0.2">
@@ -63074,12 +63417,16 @@
         <v>3369</v>
       </c>
       <c r="F2727" s="2">
+        <f t="shared" si="138"/>
+        <v>2794</v>
+      </c>
+      <c r="G2727" s="2">
+        <f t="shared" si="138"/>
+        <v>43</v>
+      </c>
+      <c r="H2727" s="2">
         <f t="shared" si="137"/>
-        <v>2794</v>
-      </c>
-      <c r="G2727" s="2">
-        <f t="shared" si="137"/>
-        <v>43</v>
+        <v>87037</v>
       </c>
       <c r="I2727" s="2">
         <v>4254176</v>
@@ -63097,12 +63444,16 @@
         <v>365</v>
       </c>
       <c r="F2728" s="2">
+        <f t="shared" si="138"/>
+        <v>316</v>
+      </c>
+      <c r="G2728" s="2">
+        <f t="shared" si="138"/>
+        <v>4</v>
+      </c>
+      <c r="H2728" s="2">
         <f t="shared" si="137"/>
-        <v>316</v>
-      </c>
-      <c r="G2728" s="2">
-        <f t="shared" si="137"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2729" spans="1:9" x14ac:dyDescent="0.2">
@@ -63117,12 +63468,16 @@
         <v>457</v>
       </c>
       <c r="F2729" s="2">
+        <f t="shared" si="138"/>
+        <v>973</v>
+      </c>
+      <c r="G2729" s="2">
+        <f t="shared" si="138"/>
+        <v>17</v>
+      </c>
+      <c r="H2729" s="2">
         <f t="shared" si="137"/>
-        <v>973</v>
-      </c>
-      <c r="G2729" s="2">
-        <f t="shared" si="137"/>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2730" spans="1:9" x14ac:dyDescent="0.2">
@@ -63136,12 +63491,16 @@
         <v>157</v>
       </c>
       <c r="F2730" s="2">
+        <f t="shared" si="138"/>
+        <v>115</v>
+      </c>
+      <c r="G2730" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="H2730" s="2">
         <f t="shared" si="137"/>
-        <v>115</v>
-      </c>
-      <c r="G2730" s="2">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2731" spans="1:9" x14ac:dyDescent="0.2">
@@ -63155,12 +63514,16 @@
         <v>340</v>
       </c>
       <c r="F2731" s="2">
+        <f t="shared" si="138"/>
+        <v>672</v>
+      </c>
+      <c r="G2731" s="2">
+        <f t="shared" si="138"/>
+        <v>10</v>
+      </c>
+      <c r="H2731" s="2">
         <f t="shared" si="137"/>
-        <v>672</v>
-      </c>
-      <c r="G2731" s="2">
-        <f t="shared" si="137"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2732" spans="1:9" x14ac:dyDescent="0.2">
@@ -63180,12 +63543,16 @@
         <v>4025</v>
       </c>
       <c r="F2732" s="2">
+        <f t="shared" si="138"/>
+        <v>64</v>
+      </c>
+      <c r="G2732" s="2">
+        <f t="shared" si="138"/>
+        <v>2</v>
+      </c>
+      <c r="H2732" s="2">
         <f t="shared" si="137"/>
-        <v>64</v>
-      </c>
-      <c r="G2732" s="2">
-        <f t="shared" si="137"/>
-        <v>2</v>
+        <v>56710</v>
       </c>
       <c r="I2732" s="2">
         <v>3971648</v>
@@ -63203,10 +63570,14 @@
         <v>4522</v>
       </c>
       <c r="F2733" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>92</v>
       </c>
       <c r="G2733" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2733" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63223,12 +63594,16 @@
         <v>2694</v>
       </c>
       <c r="F2734" s="2">
+        <f t="shared" si="138"/>
+        <v>46</v>
+      </c>
+      <c r="G2734" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="H2734" s="2">
         <f t="shared" si="137"/>
-        <v>46</v>
-      </c>
-      <c r="G2734" s="2">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2735" spans="1:9" x14ac:dyDescent="0.2">
@@ -63243,12 +63618,16 @@
         <v>3040</v>
       </c>
       <c r="F2735" s="2">
+        <f t="shared" si="138"/>
+        <v>53</v>
+      </c>
+      <c r="G2735" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="H2735" s="2">
         <f t="shared" si="137"/>
-        <v>53</v>
-      </c>
-      <c r="G2735" s="2">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2736" spans="1:9" x14ac:dyDescent="0.2">
@@ -63263,10 +63642,14 @@
         <v>2028</v>
       </c>
       <c r="F2736" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>42</v>
       </c>
       <c r="G2736" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2736" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63285,12 +63668,16 @@
         <v>1733</v>
       </c>
       <c r="F2737" s="2">
+        <f t="shared" si="138"/>
+        <v>22</v>
+      </c>
+      <c r="G2737" s="2">
+        <f t="shared" si="138"/>
+        <v>7</v>
+      </c>
+      <c r="H2737" s="2">
         <f t="shared" si="137"/>
-        <v>22</v>
-      </c>
-      <c r="G2737" s="2">
-        <f t="shared" si="137"/>
-        <v>7</v>
+        <v>20563</v>
       </c>
       <c r="I2737" s="2">
         <v>1442937</v>
@@ -63308,12 +63695,16 @@
         <v>1286</v>
       </c>
       <c r="F2738" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="G2738" s="2">
+        <f t="shared" si="138"/>
+        <v>6</v>
+      </c>
+      <c r="H2738" s="2">
         <f t="shared" si="137"/>
-        <v>1</v>
-      </c>
-      <c r="G2738" s="2">
-        <f t="shared" si="137"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2739" spans="2:9" x14ac:dyDescent="0.2">
@@ -63328,12 +63719,16 @@
         <v>1787</v>
       </c>
       <c r="F2739" s="2">
+        <f t="shared" si="138"/>
+        <v>13</v>
+      </c>
+      <c r="G2739" s="2">
+        <f t="shared" si="138"/>
+        <v>3</v>
+      </c>
+      <c r="H2739" s="2">
         <f t="shared" si="137"/>
-        <v>13</v>
-      </c>
-      <c r="G2739" s="2">
-        <f t="shared" si="137"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2740" spans="2:9" x14ac:dyDescent="0.2">
@@ -63348,12 +63743,16 @@
         <v>1149</v>
       </c>
       <c r="F2740" s="2">
+        <f t="shared" si="138"/>
+        <v>-2</v>
+      </c>
+      <c r="G2740" s="2">
+        <f t="shared" si="138"/>
+        <v>3</v>
+      </c>
+      <c r="H2740" s="2">
         <f t="shared" si="137"/>
-        <v>-2</v>
-      </c>
-      <c r="G2740" s="2">
-        <f t="shared" si="137"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2741" spans="2:9" x14ac:dyDescent="0.2">
@@ -63368,12 +63767,16 @@
         <v>1039</v>
       </c>
       <c r="F2741" s="2">
+        <f t="shared" si="138"/>
+        <v>15</v>
+      </c>
+      <c r="G2741" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="H2741" s="2">
         <f t="shared" si="137"/>
-        <v>15</v>
-      </c>
-      <c r="G2741" s="2">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2742" spans="2:9" x14ac:dyDescent="0.2">
@@ -63390,12 +63793,16 @@
         <v>1004</v>
       </c>
       <c r="F2742" s="2">
+        <f t="shared" si="138"/>
+        <v>34</v>
+      </c>
+      <c r="G2742" s="2">
+        <f t="shared" si="138"/>
+        <v>2</v>
+      </c>
+      <c r="H2742" s="2">
         <f t="shared" si="137"/>
-        <v>34</v>
-      </c>
-      <c r="G2742" s="2">
-        <f t="shared" si="137"/>
-        <v>2</v>
+        <v>10190</v>
       </c>
       <c r="I2742" s="2">
         <v>853150</v>
@@ -63413,12 +63820,16 @@
         <v>1858</v>
       </c>
       <c r="F2743" s="2">
+        <f t="shared" si="138"/>
+        <v>36</v>
+      </c>
+      <c r="G2743" s="2">
+        <f t="shared" si="138"/>
+        <v>7</v>
+      </c>
+      <c r="H2743" s="2">
         <f t="shared" si="137"/>
-        <v>36</v>
-      </c>
-      <c r="G2743" s="2">
-        <f t="shared" si="137"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2744" spans="2:9" x14ac:dyDescent="0.2">
@@ -63433,10 +63844,14 @@
         <v>1104</v>
       </c>
       <c r="F2744" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>34</v>
       </c>
       <c r="G2744" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2744" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63453,12 +63868,16 @@
         <v>930</v>
       </c>
       <c r="F2745" s="2">
+        <f t="shared" si="138"/>
+        <v>18</v>
+      </c>
+      <c r="G2745" s="2">
+        <f t="shared" si="138"/>
+        <v>7</v>
+      </c>
+      <c r="H2745" s="2">
         <f t="shared" si="137"/>
-        <v>18</v>
-      </c>
-      <c r="G2745" s="2">
-        <f t="shared" si="137"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2746" spans="2:9" x14ac:dyDescent="0.2">
@@ -63473,12 +63892,16 @@
         <v>924</v>
       </c>
       <c r="F2746" s="2">
+        <f t="shared" si="138"/>
+        <v>26</v>
+      </c>
+      <c r="G2746" s="2">
+        <f t="shared" si="138"/>
+        <v>4</v>
+      </c>
+      <c r="H2746" s="2">
         <f t="shared" si="137"/>
-        <v>26</v>
-      </c>
-      <c r="G2746" s="2">
-        <f t="shared" si="137"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2747" spans="2:9" x14ac:dyDescent="0.2">
@@ -63495,8 +63918,12 @@
         <v>2602</v>
       </c>
       <c r="F2747" s="2">
+        <f t="shared" si="138"/>
+        <v>60</v>
+      </c>
+      <c r="H2747" s="2">
         <f t="shared" si="137"/>
-        <v>60</v>
+        <v>16802</v>
       </c>
       <c r="I2747" s="2">
         <v>1061859</v>
@@ -63514,12 +63941,16 @@
         <v>1049</v>
       </c>
       <c r="F2748" s="2">
+        <f t="shared" si="138"/>
+        <v>24</v>
+      </c>
+      <c r="G2748" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="H2748" s="2">
         <f t="shared" si="137"/>
-        <v>24</v>
-      </c>
-      <c r="G2748" s="2">
-        <f t="shared" si="137"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2749" spans="2:9" x14ac:dyDescent="0.2">
@@ -63534,10 +63965,14 @@
         <v>879</v>
       </c>
       <c r="F2749" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>26</v>
       </c>
       <c r="G2749" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2749" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63554,10 +63989,14 @@
         <v>263</v>
       </c>
       <c r="F2750" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>10</v>
       </c>
       <c r="G2750" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2750" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63574,10 +64013,14 @@
         <v>105</v>
       </c>
       <c r="F2751" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>13</v>
       </c>
       <c r="G2751" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2751" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63596,12 +64039,16 @@
         <v>1609</v>
       </c>
       <c r="F2752" s="2">
+        <f t="shared" si="138"/>
+        <v>124</v>
+      </c>
+      <c r="G2752" s="2">
+        <f t="shared" si="138"/>
+        <v>3</v>
+      </c>
+      <c r="H2752" s="2">
         <f t="shared" si="137"/>
-        <v>124</v>
-      </c>
-      <c r="G2752" s="2">
-        <f t="shared" si="137"/>
-        <v>3</v>
+        <v>12617</v>
       </c>
       <c r="I2752" s="2">
         <f>SUM(87242+689562)</f>
@@ -63620,10 +64067,14 @@
         <v>801</v>
       </c>
       <c r="F2753" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>35</v>
       </c>
       <c r="G2753" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2753" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63640,12 +64091,16 @@
         <v>701</v>
       </c>
       <c r="F2754" s="2">
+        <f t="shared" si="138"/>
+        <v>29</v>
+      </c>
+      <c r="G2754" s="2">
+        <f t="shared" si="138"/>
+        <v>5</v>
+      </c>
+      <c r="H2754" s="2">
         <f t="shared" si="137"/>
-        <v>29</v>
-      </c>
-      <c r="G2754" s="2">
-        <f t="shared" si="137"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2755" spans="1:9" x14ac:dyDescent="0.2">
@@ -63660,10 +64115,14 @@
         <v>297</v>
       </c>
       <c r="F2755" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>23</v>
       </c>
       <c r="G2755" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2755" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63680,10 +64139,14 @@
         <v>351</v>
       </c>
       <c r="F2756" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>32</v>
       </c>
       <c r="G2756" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2756" s="2">
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
@@ -63702,12 +64165,16 @@
         <v>3402</v>
       </c>
       <c r="F2757" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1685</v>
       </c>
       <c r="G2757" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>33</v>
+      </c>
+      <c r="H2757" s="2">
+        <f t="shared" ref="H2757:H2820" si="139">SUM(I2757-I2727)</f>
+        <v>84542</v>
       </c>
       <c r="I2757" s="2">
         <v>4338718</v>
@@ -63725,12 +64192,16 @@
         <v>372</v>
       </c>
       <c r="F2758" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>474</v>
       </c>
       <c r="G2758" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>7</v>
+      </c>
+      <c r="H2758" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2759" spans="1:9" x14ac:dyDescent="0.2">
@@ -63745,12 +64216,16 @@
         <v>463</v>
       </c>
       <c r="F2759" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>881</v>
       </c>
       <c r="G2759" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>6</v>
+      </c>
+      <c r="H2759" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2760" spans="1:9" x14ac:dyDescent="0.2">
@@ -63764,12 +64239,16 @@
         <v>158</v>
       </c>
       <c r="F2760" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>201</v>
       </c>
       <c r="G2760" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1</v>
+      </c>
+      <c r="H2760" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2761" spans="1:9" x14ac:dyDescent="0.2">
@@ -63783,12 +64262,16 @@
         <v>345</v>
       </c>
       <c r="F2761" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1308</v>
       </c>
       <c r="G2761" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>5</v>
+      </c>
+      <c r="H2761" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2762" spans="1:9" x14ac:dyDescent="0.2">
@@ -63808,12 +64291,16 @@
         <v>4027</v>
       </c>
       <c r="F2762" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>113</v>
       </c>
       <c r="G2762" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>2</v>
+      </c>
+      <c r="H2762" s="2">
+        <f t="shared" si="139"/>
+        <v>69945</v>
       </c>
       <c r="I2762" s="2">
         <v>4041593</v>
@@ -63831,12 +64318,16 @@
         <v>4524</v>
       </c>
       <c r="F2763" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>113</v>
       </c>
       <c r="G2763" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>2</v>
+      </c>
+      <c r="H2763" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2764" spans="1:9" x14ac:dyDescent="0.2">
@@ -63851,12 +64342,16 @@
         <v>2695</v>
       </c>
       <c r="F2764" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>57</v>
       </c>
       <c r="G2764" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1</v>
+      </c>
+      <c r="H2764" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2765" spans="1:9" x14ac:dyDescent="0.2">
@@ -63871,12 +64366,16 @@
         <v>3042</v>
       </c>
       <c r="F2765" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>107</v>
       </c>
       <c r="G2765" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>2</v>
+      </c>
+      <c r="H2765" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2766" spans="1:9" x14ac:dyDescent="0.2">
@@ -63891,11 +64390,15 @@
         <v>2028</v>
       </c>
       <c r="F2766" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>64</v>
       </c>
       <c r="G2766" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2766" s="2">
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
     </row>
@@ -63913,12 +64416,16 @@
         <v>1733</v>
       </c>
       <c r="F2767" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>29</v>
       </c>
       <c r="G2767" s="2">
-        <f t="shared" si="137"/>
-        <v>0</v>
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="H2767" s="2">
+        <f t="shared" si="139"/>
+        <v>20976</v>
       </c>
       <c r="I2767" s="2">
         <v>1463913</v>
@@ -63936,12 +64443,16 @@
         <v>1287</v>
       </c>
       <c r="F2768" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>32</v>
       </c>
       <c r="G2768" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1</v>
+      </c>
+      <c r="H2768" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2769" spans="2:9" x14ac:dyDescent="0.2">
@@ -63956,12 +64467,16 @@
         <v>1789</v>
       </c>
       <c r="F2769" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>33</v>
       </c>
       <c r="G2769" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>2</v>
+      </c>
+      <c r="H2769" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2770" spans="2:9" x14ac:dyDescent="0.2">
@@ -63976,12 +64491,16 @@
         <v>1150</v>
       </c>
       <c r="F2770" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>10</v>
       </c>
       <c r="G2770" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1</v>
+      </c>
+      <c r="H2770" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2771" spans="2:9" x14ac:dyDescent="0.2">
@@ -63996,12 +64515,16 @@
         <v>1040</v>
       </c>
       <c r="F2771" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>26</v>
       </c>
       <c r="G2771" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>1</v>
+      </c>
+      <c r="H2771" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2772" spans="2:9" x14ac:dyDescent="0.2">
@@ -64018,12 +64541,16 @@
         <v>1008</v>
       </c>
       <c r="F2772" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>39</v>
       </c>
       <c r="G2772" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>4</v>
+      </c>
+      <c r="H2772" s="2">
+        <f t="shared" si="139"/>
+        <v>7786</v>
       </c>
       <c r="I2772" s="2">
         <v>860936</v>
@@ -64041,12 +64568,16 @@
         <v>1867</v>
       </c>
       <c r="F2773" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>41</v>
       </c>
       <c r="G2773" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>9</v>
+      </c>
+      <c r="H2773" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2774" spans="2:9" x14ac:dyDescent="0.2">
@@ -64061,12 +64592,16 @@
         <v>1111</v>
       </c>
       <c r="F2774" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>54</v>
       </c>
       <c r="G2774" s="2">
-        <f t="shared" si="137"/>
+        <f t="shared" si="138"/>
         <v>7</v>
+      </c>
+      <c r="H2774" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2775" spans="2:9" x14ac:dyDescent="0.2">
@@ -64081,12 +64616,16 @@
         <v>933</v>
       </c>
       <c r="F2775" s="2">
-        <f t="shared" ref="F2775:G2792" si="138">SUM(D2775-D2745)</f>
+        <f t="shared" ref="F2775:G2792" si="140">SUM(D2775-D2745)</f>
         <v>16</v>
       </c>
       <c r="G2775" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>3</v>
+      </c>
+      <c r="H2775" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2776" spans="2:9" x14ac:dyDescent="0.2">
@@ -64101,12 +64640,16 @@
         <v>934</v>
       </c>
       <c r="F2776" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>31</v>
       </c>
       <c r="G2776" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>10</v>
+      </c>
+      <c r="H2776" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2777" spans="2:9" x14ac:dyDescent="0.2">
@@ -64123,12 +64666,16 @@
         <v>2608</v>
       </c>
       <c r="F2777" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>115</v>
       </c>
       <c r="G2777" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>6</v>
+      </c>
+      <c r="H2777" s="2">
+        <f t="shared" si="139"/>
+        <v>23278</v>
       </c>
       <c r="I2777" s="2">
         <v>1085137</v>
@@ -64146,11 +64693,15 @@
         <v>1049</v>
       </c>
       <c r="F2778" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>58</v>
       </c>
       <c r="G2778" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="H2778" s="2">
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
     </row>
@@ -64166,12 +64717,16 @@
         <v>880</v>
       </c>
       <c r="F2779" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>34</v>
       </c>
       <c r="G2779" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>1</v>
+      </c>
+      <c r="H2779" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2780" spans="2:9" x14ac:dyDescent="0.2">
@@ -64186,11 +64741,15 @@
         <v>263</v>
       </c>
       <c r="F2780" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>14</v>
       </c>
       <c r="G2780" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="H2780" s="2">
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
     </row>
@@ -64206,12 +64765,16 @@
         <v>106</v>
       </c>
       <c r="F2781" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>15</v>
       </c>
       <c r="G2781" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>1</v>
+      </c>
+      <c r="H2781" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2782" spans="2:9" x14ac:dyDescent="0.2">
@@ -64228,12 +64791,16 @@
         <v>1615</v>
       </c>
       <c r="F2782" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>138</v>
       </c>
       <c r="G2782" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>6</v>
+      </c>
+      <c r="H2782" s="2">
+        <f t="shared" si="139"/>
+        <v>13469</v>
       </c>
       <c r="I2782" s="2">
         <f>SUM(88074+702199)</f>
@@ -64252,12 +64819,16 @@
         <v>806</v>
       </c>
       <c r="F2783" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>31</v>
       </c>
       <c r="G2783" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>5</v>
+      </c>
+      <c r="H2783" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2784" spans="2:9" x14ac:dyDescent="0.2">
@@ -64272,12 +64843,16 @@
         <v>702</v>
       </c>
       <c r="F2784" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>23</v>
       </c>
       <c r="G2784" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>1</v>
+      </c>
+      <c r="H2784" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2785" spans="1:9" x14ac:dyDescent="0.2">
@@ -64292,12 +64867,16 @@
         <v>305</v>
       </c>
       <c r="F2785" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>22</v>
       </c>
       <c r="G2785" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>8</v>
+      </c>
+      <c r="H2785" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2786" spans="1:9" x14ac:dyDescent="0.2">
@@ -64312,11 +64891,15 @@
         <v>351</v>
       </c>
       <c r="F2786" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>4</v>
       </c>
       <c r="G2786" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="H2786" s="2">
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
     </row>
@@ -64334,12 +64917,16 @@
         <v>3454</v>
       </c>
       <c r="F2787" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>1819</v>
       </c>
       <c r="G2787" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>52</v>
+      </c>
+      <c r="H2787" s="2">
+        <f t="shared" si="139"/>
+        <v>109458</v>
       </c>
       <c r="I2787" s="2">
         <v>4448176</v>
@@ -64357,12 +64944,16 @@
         <v>377</v>
       </c>
       <c r="F2788" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>584</v>
       </c>
       <c r="G2788" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>5</v>
+      </c>
+      <c r="H2788" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2789" spans="1:9" x14ac:dyDescent="0.2">
@@ -64377,12 +64968,16 @@
         <v>465</v>
       </c>
       <c r="F2789" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>716</v>
       </c>
       <c r="G2789" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>2</v>
+      </c>
+      <c r="H2789" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2790" spans="1:9" x14ac:dyDescent="0.2">
@@ -64396,12 +64991,16 @@
         <v>159</v>
       </c>
       <c r="F2790" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>175</v>
       </c>
       <c r="G2790" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>1</v>
+      </c>
+      <c r="H2790" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2791" spans="1:9" x14ac:dyDescent="0.2">
@@ -64415,12 +65014,16 @@
         <v>354</v>
       </c>
       <c r="F2791" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>1394</v>
       </c>
       <c r="G2791" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>9</v>
+      </c>
+      <c r="H2791" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2792" spans="1:9" x14ac:dyDescent="0.2">
@@ -64440,12 +65043,16 @@
         <v>4027</v>
       </c>
       <c r="F2792" s="2">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>137</v>
       </c>
       <c r="G2792" s="2">
-        <f t="shared" si="138"/>
-        <v>0</v>
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="H2792" s="2">
+        <f t="shared" si="139"/>
+        <v>66392</v>
       </c>
       <c r="I2792" s="2">
         <v>4107985</v>
@@ -64463,12 +65070,16 @@
         <v>4525</v>
       </c>
       <c r="F2793" s="2">
-        <f t="shared" ref="F2793:G2856" si="139">SUM(D2793-D2763)</f>
+        <f t="shared" ref="F2793:G2856" si="141">SUM(D2793-D2763)</f>
         <v>102</v>
       </c>
       <c r="G2793" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="H2793" s="2">
         <f t="shared" si="139"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2794" spans="1:9" x14ac:dyDescent="0.2">
@@ -64483,12 +65094,16 @@
         <v>2697</v>
       </c>
       <c r="F2794" s="2">
+        <f t="shared" si="141"/>
+        <v>37</v>
+      </c>
+      <c r="G2794" s="2">
+        <f t="shared" si="141"/>
+        <v>2</v>
+      </c>
+      <c r="H2794" s="2">
         <f t="shared" si="139"/>
-        <v>37</v>
-      </c>
-      <c r="G2794" s="2">
-        <f t="shared" si="139"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2795" spans="1:9" x14ac:dyDescent="0.2">
@@ -64503,10 +65118,14 @@
         <v>3042</v>
       </c>
       <c r="F2795" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>80</v>
       </c>
       <c r="G2795" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2795" s="2">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
@@ -64523,12 +65142,16 @@
         <v>2029</v>
       </c>
       <c r="F2796" s="2">
+        <f t="shared" si="141"/>
+        <v>47</v>
+      </c>
+      <c r="G2796" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="H2796" s="2">
         <f t="shared" si="139"/>
-        <v>47</v>
-      </c>
-      <c r="G2796" s="2">
-        <f t="shared" si="139"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2797" spans="1:9" x14ac:dyDescent="0.2">
@@ -64545,12 +65168,16 @@
         <v>1739</v>
       </c>
       <c r="F2797" s="2">
+        <f t="shared" si="141"/>
+        <v>58</v>
+      </c>
+      <c r="G2797" s="2">
+        <f t="shared" si="141"/>
+        <v>6</v>
+      </c>
+      <c r="H2797" s="2">
         <f t="shared" si="139"/>
-        <v>58</v>
-      </c>
-      <c r="G2797" s="2">
-        <f t="shared" si="139"/>
-        <v>6</v>
+        <v>21588</v>
       </c>
       <c r="I2797" s="2">
         <v>1485501</v>
@@ -64568,10 +65195,14 @@
         <v>1287</v>
       </c>
       <c r="F2798" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>39</v>
       </c>
       <c r="G2798" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2798" s="2">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
@@ -64588,12 +65219,16 @@
         <v>1793</v>
       </c>
       <c r="F2799" s="2">
+        <f t="shared" si="141"/>
+        <v>38</v>
+      </c>
+      <c r="G2799" s="2">
+        <f t="shared" si="141"/>
+        <v>4</v>
+      </c>
+      <c r="H2799" s="2">
         <f t="shared" si="139"/>
-        <v>38</v>
-      </c>
-      <c r="G2799" s="2">
-        <f t="shared" si="139"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2800" spans="1:9" x14ac:dyDescent="0.2">
@@ -64608,12 +65243,16 @@
         <v>1151</v>
       </c>
       <c r="F2800" s="2">
+        <f t="shared" si="141"/>
+        <v>22</v>
+      </c>
+      <c r="G2800" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="H2800" s="2">
         <f t="shared" si="139"/>
-        <v>22</v>
-      </c>
-      <c r="G2800" s="2">
-        <f t="shared" si="139"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2801" spans="2:9" x14ac:dyDescent="0.2">
@@ -64628,12 +65267,16 @@
         <v>1045</v>
       </c>
       <c r="F2801" s="2">
+        <f t="shared" si="141"/>
+        <v>7</v>
+      </c>
+      <c r="G2801" s="2">
+        <f t="shared" si="141"/>
+        <v>5</v>
+      </c>
+      <c r="H2801" s="2">
         <f t="shared" si="139"/>
-        <v>7</v>
-      </c>
-      <c r="G2801" s="2">
-        <f t="shared" si="139"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2802" spans="2:9" x14ac:dyDescent="0.2">
@@ -64650,12 +65293,16 @@
         <v>1009</v>
       </c>
       <c r="F2802" s="2">
+        <f t="shared" si="141"/>
+        <v>44</v>
+      </c>
+      <c r="G2802" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="H2802" s="2">
         <f t="shared" si="139"/>
-        <v>44</v>
-      </c>
-      <c r="G2802" s="2">
-        <f t="shared" si="139"/>
-        <v>1</v>
+        <v>11444</v>
       </c>
       <c r="I2802" s="2">
         <v>872380</v>
@@ -64673,12 +65320,16 @@
         <v>1870</v>
       </c>
       <c r="F2803" s="2">
+        <f t="shared" si="141"/>
+        <v>44</v>
+      </c>
+      <c r="G2803" s="2">
+        <f t="shared" si="141"/>
+        <v>3</v>
+      </c>
+      <c r="H2803" s="2">
         <f t="shared" si="139"/>
-        <v>44</v>
-      </c>
-      <c r="G2803" s="2">
-        <f t="shared" si="139"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2804" spans="2:9" x14ac:dyDescent="0.2">
@@ -64693,12 +65344,16 @@
         <v>1116</v>
       </c>
       <c r="F2804" s="2">
+        <f t="shared" si="141"/>
+        <v>34</v>
+      </c>
+      <c r="G2804" s="2">
+        <f t="shared" si="141"/>
+        <v>5</v>
+      </c>
+      <c r="H2804" s="2">
         <f t="shared" si="139"/>
-        <v>34</v>
-      </c>
-      <c r="G2804" s="2">
-        <f t="shared" si="139"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2805" spans="2:9" x14ac:dyDescent="0.2">
@@ -64713,12 +65368,16 @@
         <v>934</v>
       </c>
       <c r="F2805" s="2">
+        <f t="shared" si="141"/>
+        <v>42</v>
+      </c>
+      <c r="G2805" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="H2805" s="2">
         <f t="shared" si="139"/>
-        <v>42</v>
-      </c>
-      <c r="G2805" s="2">
-        <f t="shared" si="139"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2806" spans="2:9" x14ac:dyDescent="0.2">
@@ -64733,12 +65392,16 @@
         <v>935</v>
       </c>
       <c r="F2806" s="2">
+        <f t="shared" si="141"/>
+        <v>36</v>
+      </c>
+      <c r="G2806" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="H2806" s="2">
         <f t="shared" si="139"/>
-        <v>36</v>
-      </c>
-      <c r="G2806" s="2">
-        <f t="shared" si="139"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2807" spans="2:9" x14ac:dyDescent="0.2">
@@ -64755,12 +65418,16 @@
         <v>2608</v>
       </c>
       <c r="F2807" s="2">
+        <f t="shared" si="141"/>
+        <v>64</v>
+      </c>
+      <c r="G2807" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2807" s="2">
         <f t="shared" si="139"/>
-        <v>64</v>
-      </c>
-      <c r="G2807" s="2">
-        <f t="shared" si="139"/>
-        <v>0</v>
+        <v>23128</v>
       </c>
       <c r="I2807" s="2">
         <v>1108265</v>
@@ -64778,10 +65445,14 @@
         <v>1049</v>
       </c>
       <c r="F2808" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>53</v>
       </c>
       <c r="G2808" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2808" s="2">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
@@ -64798,12 +65469,16 @@
         <v>882</v>
       </c>
       <c r="F2809" s="2">
+        <f t="shared" si="141"/>
+        <v>34</v>
+      </c>
+      <c r="G2809" s="2">
+        <f t="shared" si="141"/>
+        <v>2</v>
+      </c>
+      <c r="H2809" s="2">
         <f t="shared" si="139"/>
-        <v>34</v>
-      </c>
-      <c r="G2809" s="2">
-        <f t="shared" si="139"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2810" spans="2:9" x14ac:dyDescent="0.2">
@@ -64818,10 +65493,14 @@
         <v>263</v>
       </c>
       <c r="F2810" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>11</v>
       </c>
       <c r="G2810" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2810" s="2">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
@@ -64838,10 +65517,14 @@
         <v>106</v>
       </c>
       <c r="F2811" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>14</v>
       </c>
       <c r="G2811" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2811" s="2">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
@@ -64860,12 +65543,16 @@
         <v>1619</v>
       </c>
       <c r="F2812" s="2">
+        <f t="shared" si="141"/>
+        <v>23</v>
+      </c>
+      <c r="G2812" s="2">
+        <f t="shared" si="141"/>
+        <v>4</v>
+      </c>
+      <c r="H2812" s="2">
         <f t="shared" si="139"/>
-        <v>23</v>
-      </c>
-      <c r="G2812" s="2">
-        <f t="shared" si="139"/>
-        <v>4</v>
+        <v>13871</v>
       </c>
       <c r="I2812" s="2">
         <f>SUM(88741+715403)</f>
@@ -64884,12 +65571,16 @@
         <v>810</v>
       </c>
       <c r="F2813" s="2">
+        <f t="shared" si="141"/>
+        <v>48</v>
+      </c>
+      <c r="G2813" s="2">
+        <f t="shared" si="141"/>
+        <v>4</v>
+      </c>
+      <c r="H2813" s="2">
         <f t="shared" si="139"/>
-        <v>48</v>
-      </c>
-      <c r="G2813" s="2">
-        <f t="shared" si="139"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2814" spans="2:9" x14ac:dyDescent="0.2">
@@ -64904,10 +65595,14 @@
         <v>702</v>
       </c>
       <c r="F2814" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>35</v>
       </c>
       <c r="G2814" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2814" s="2">
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
@@ -64924,12 +65619,16 @@
         <v>307</v>
       </c>
       <c r="F2815" s="2">
+        <f t="shared" si="141"/>
+        <v>12</v>
+      </c>
+      <c r="G2815" s="2">
+        <f t="shared" si="141"/>
+        <v>2</v>
+      </c>
+      <c r="H2815" s="2">
         <f t="shared" si="139"/>
-        <v>12</v>
-      </c>
-      <c r="G2815" s="2">
-        <f t="shared" si="139"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2816" spans="2:9" x14ac:dyDescent="0.2">
@@ -64944,12 +65643,16 @@
         <v>352</v>
       </c>
       <c r="F2816" s="2">
+        <f t="shared" si="141"/>
+        <v>6</v>
+      </c>
+      <c r="G2816" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="H2816" s="2">
         <f t="shared" si="139"/>
-        <v>6</v>
-      </c>
-      <c r="G2816" s="2">
-        <f t="shared" si="139"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2817" spans="1:9" x14ac:dyDescent="0.2">
@@ -64966,12 +65669,16 @@
         <v>3454</v>
       </c>
       <c r="F2817" s="2">
+        <f t="shared" si="141"/>
+        <v>92</v>
+      </c>
+      <c r="G2817" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2817" s="2">
         <f t="shared" si="139"/>
-        <v>92</v>
-      </c>
-      <c r="G2817" s="2">
-        <f t="shared" si="139"/>
-        <v>0</v>
+        <v>104855</v>
       </c>
       <c r="I2817" s="2">
         <v>4553031</v>
@@ -64989,12 +65696,16 @@
         <v>387</v>
       </c>
       <c r="F2818" s="2">
+        <f t="shared" si="141"/>
+        <v>490</v>
+      </c>
+      <c r="G2818" s="2">
+        <f t="shared" si="141"/>
+        <v>10</v>
+      </c>
+      <c r="H2818" s="2">
         <f t="shared" si="139"/>
-        <v>490</v>
-      </c>
-      <c r="G2818" s="2">
-        <f t="shared" si="139"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2819" spans="1:9" x14ac:dyDescent="0.2">
@@ -65009,12 +65720,16 @@
         <v>479</v>
       </c>
       <c r="F2819" s="2">
+        <f t="shared" si="141"/>
+        <v>918</v>
+      </c>
+      <c r="G2819" s="2">
+        <f t="shared" si="141"/>
+        <v>14</v>
+      </c>
+      <c r="H2819" s="2">
         <f t="shared" si="139"/>
-        <v>918</v>
-      </c>
-      <c r="G2819" s="2">
-        <f t="shared" si="139"/>
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2820" spans="1:9" x14ac:dyDescent="0.2">
@@ -65028,12 +65743,16 @@
         <v>160</v>
       </c>
       <c r="F2820" s="2">
+        <f t="shared" si="141"/>
+        <v>98</v>
+      </c>
+      <c r="G2820" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="H2820" s="2">
         <f t="shared" si="139"/>
-        <v>98</v>
-      </c>
-      <c r="G2820" s="2">
-        <f t="shared" si="139"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2821" spans="1:9" x14ac:dyDescent="0.2">
@@ -65047,12 +65766,16 @@
         <v>360</v>
       </c>
       <c r="F2821" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>1763</v>
       </c>
       <c r="G2821" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>6</v>
+      </c>
+      <c r="H2821" s="2">
+        <f t="shared" ref="H2821:H2884" si="142">SUM(I2821-I2791)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2822" spans="1:9" x14ac:dyDescent="0.2">
@@ -65072,12 +65795,16 @@
         <v>4028</v>
       </c>
       <c r="F2822" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>95</v>
       </c>
       <c r="G2822" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>1</v>
+      </c>
+      <c r="H2822" s="2">
+        <f t="shared" si="142"/>
+        <v>62403</v>
       </c>
       <c r="I2822" s="2">
         <v>4170388</v>
@@ -65095,11 +65822,15 @@
         <v>4525</v>
       </c>
       <c r="F2823" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>121</v>
       </c>
       <c r="G2823" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2823" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65115,11 +65846,15 @@
         <v>2697</v>
       </c>
       <c r="F2824" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>41</v>
       </c>
       <c r="G2824" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2824" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65135,12 +65870,16 @@
         <v>3044</v>
       </c>
       <c r="F2825" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>64</v>
       </c>
       <c r="G2825" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>2</v>
+      </c>
+      <c r="H2825" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2826" spans="1:9" x14ac:dyDescent="0.2">
@@ -65155,11 +65894,15 @@
         <v>2029</v>
       </c>
       <c r="F2826" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>47</v>
       </c>
       <c r="G2826" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2826" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65177,12 +65920,16 @@
         <v>1742</v>
       </c>
       <c r="F2827" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>30</v>
       </c>
       <c r="G2827" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>3</v>
+      </c>
+      <c r="H2827" s="2">
+        <f t="shared" si="142"/>
+        <v>23047</v>
       </c>
       <c r="I2827" s="2">
         <v>1508548</v>
@@ -65200,12 +65947,16 @@
         <v>1288</v>
       </c>
       <c r="F2828" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>32</v>
       </c>
       <c r="G2828" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>1</v>
+      </c>
+      <c r="H2828" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2829" spans="1:9" x14ac:dyDescent="0.2">
@@ -65220,12 +65971,16 @@
         <v>1797</v>
       </c>
       <c r="F2829" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>17</v>
       </c>
       <c r="G2829" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>4</v>
+      </c>
+      <c r="H2829" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2830" spans="1:9" x14ac:dyDescent="0.2">
@@ -65240,12 +65995,16 @@
         <v>1152</v>
       </c>
       <c r="F2830" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>25</v>
       </c>
       <c r="G2830" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>1</v>
+      </c>
+      <c r="H2830" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2831" spans="1:9" x14ac:dyDescent="0.2">
@@ -65260,11 +66019,15 @@
         <v>1045</v>
       </c>
       <c r="F2831" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>14</v>
       </c>
       <c r="G2831" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2831" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65282,12 +66045,16 @@
         <v>1008</v>
       </c>
       <c r="F2832" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>36</v>
       </c>
       <c r="G2832" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>-1</v>
+      </c>
+      <c r="H2832" s="2">
+        <f t="shared" si="142"/>
+        <v>7940</v>
       </c>
       <c r="I2832" s="2">
         <v>880320</v>
@@ -65305,12 +66072,16 @@
         <v>1877</v>
       </c>
       <c r="F2833" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>32</v>
       </c>
       <c r="G2833" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>7</v>
+      </c>
+      <c r="H2833" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2834" spans="2:9" x14ac:dyDescent="0.2">
@@ -65325,12 +66096,16 @@
         <v>1119</v>
       </c>
       <c r="F2834" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>25</v>
       </c>
       <c r="G2834" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>3</v>
+      </c>
+      <c r="H2834" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2835" spans="2:9" x14ac:dyDescent="0.2">
@@ -65345,12 +66120,16 @@
         <v>937</v>
       </c>
       <c r="F2835" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>18</v>
       </c>
       <c r="G2835" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>3</v>
+      </c>
+      <c r="H2835" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2836" spans="2:9" x14ac:dyDescent="0.2">
@@ -65365,12 +66144,16 @@
         <v>937</v>
       </c>
       <c r="F2836" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>38</v>
       </c>
       <c r="G2836" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>2</v>
+      </c>
+      <c r="H2836" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2837" spans="2:9" x14ac:dyDescent="0.2">
@@ -65387,12 +66170,16 @@
         <v>2608</v>
       </c>
       <c r="F2837" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>68</v>
       </c>
       <c r="G2837" s="2">
         <f>SUM(E2837-E2807)</f>
         <v>0</v>
+      </c>
+      <c r="H2837" s="2">
+        <f t="shared" si="142"/>
+        <v>21889</v>
       </c>
       <c r="I2837" s="2">
         <v>1130154</v>
@@ -65410,11 +66197,15 @@
         <v>1049</v>
       </c>
       <c r="F2838" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>45</v>
       </c>
       <c r="G2838" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2838" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65430,11 +66221,15 @@
         <v>882</v>
       </c>
       <c r="F2839" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>19</v>
       </c>
       <c r="G2839" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2839" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65450,11 +66245,15 @@
         <v>263</v>
       </c>
       <c r="F2840" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>8</v>
       </c>
       <c r="G2840" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2840" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65470,11 +66269,15 @@
         <v>106</v>
       </c>
       <c r="F2841" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>3</v>
       </c>
       <c r="G2841" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2841" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65492,12 +66295,16 @@
         <v>1619</v>
       </c>
       <c r="F2842" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>133</v>
       </c>
       <c r="G2842" s="2">
-        <f t="shared" si="139"/>
-        <v>0</v>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2842" s="2">
+        <f t="shared" si="142"/>
+        <v>10679</v>
       </c>
       <c r="I2842" s="2">
         <f>SUM(89375+725448)</f>
@@ -65516,11 +66323,15 @@
         <v>810</v>
       </c>
       <c r="F2843" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>27</v>
       </c>
       <c r="G2843" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2843" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65536,11 +66347,15 @@
         <v>702</v>
       </c>
       <c r="F2844" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>15</v>
       </c>
       <c r="G2844" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2844" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65556,11 +66371,15 @@
         <v>307</v>
       </c>
       <c r="F2845" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>11</v>
       </c>
       <c r="G2845" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2845" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65576,11 +66395,15 @@
         <v>352</v>
       </c>
       <c r="F2846" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>2</v>
       </c>
       <c r="G2846" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2846" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65598,12 +66421,16 @@
         <v>3454</v>
       </c>
       <c r="F2847" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>20</v>
       </c>
       <c r="G2847" s="2">
-        <f t="shared" si="139"/>
-        <v>0</v>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2847" s="2">
+        <f t="shared" si="142"/>
+        <v>127107</v>
       </c>
       <c r="I2847" s="2">
         <v>4680138</v>
@@ -65621,11 +66448,15 @@
         <v>387</v>
       </c>
       <c r="F2848" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>468</v>
       </c>
       <c r="G2848" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2848" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65641,11 +66472,15 @@
         <v>479</v>
       </c>
       <c r="F2849" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>337</v>
       </c>
       <c r="G2849" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2849" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65660,11 +66495,15 @@
         <v>160</v>
       </c>
       <c r="F2850" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>225</v>
       </c>
       <c r="G2850" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2850" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65679,12 +66518,16 @@
         <v>363</v>
       </c>
       <c r="F2851" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>428</v>
       </c>
       <c r="G2851" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>3</v>
+      </c>
+      <c r="H2851" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2852" spans="1:9" x14ac:dyDescent="0.2">
@@ -65704,12 +66547,16 @@
         <v>4028</v>
       </c>
       <c r="F2852" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>76</v>
       </c>
       <c r="G2852" s="2">
-        <f t="shared" si="139"/>
-        <v>0</v>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2852" s="2">
+        <f t="shared" si="142"/>
+        <v>63415</v>
       </c>
       <c r="I2852" s="2">
         <v>4233803</v>
@@ -65727,11 +66574,15 @@
         <v>4525</v>
       </c>
       <c r="F2853" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>71</v>
       </c>
       <c r="G2853" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2853" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65747,11 +66598,15 @@
         <v>2697</v>
       </c>
       <c r="F2854" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>43</v>
       </c>
       <c r="G2854" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2854" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65767,12 +66622,16 @@
         <v>3046</v>
       </c>
       <c r="F2855" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>36</v>
       </c>
       <c r="G2855" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>2</v>
+      </c>
+      <c r="H2855" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2856" spans="1:9" x14ac:dyDescent="0.2">
@@ -65787,11 +66646,15 @@
         <v>2029</v>
       </c>
       <c r="F2856" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>57</v>
       </c>
       <c r="G2856" s="2">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="H2856" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65809,12 +66672,16 @@
         <v>1743</v>
       </c>
       <c r="F2857" s="2">
-        <f t="shared" ref="F2857:G2881" si="140">SUM(D2857-D2827)</f>
+        <f t="shared" ref="F2857:G2881" si="143">SUM(D2857-D2827)</f>
         <v>63</v>
       </c>
       <c r="G2857" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>1</v>
+      </c>
+      <c r="H2857" s="2">
+        <f t="shared" si="142"/>
+        <v>26092</v>
       </c>
       <c r="I2857" s="2">
         <v>1534640</v>
@@ -65832,11 +66699,15 @@
         <v>1288</v>
       </c>
       <c r="F2858" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>31</v>
       </c>
       <c r="G2858" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2858" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65852,12 +66723,16 @@
         <v>1799</v>
       </c>
       <c r="F2859" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>28</v>
       </c>
       <c r="G2859" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>2</v>
+      </c>
+      <c r="H2859" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2860" spans="1:9" x14ac:dyDescent="0.2">
@@ -65872,12 +66747,16 @@
         <v>1153</v>
       </c>
       <c r="F2860" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>14</v>
       </c>
       <c r="G2860" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>1</v>
+      </c>
+      <c r="H2860" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2861" spans="1:9" x14ac:dyDescent="0.2">
@@ -65892,12 +66771,16 @@
         <v>1047</v>
       </c>
       <c r="F2861" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>13</v>
       </c>
       <c r="G2861" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>2</v>
+      </c>
+      <c r="H2861" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2862" spans="1:9" x14ac:dyDescent="0.2">
@@ -65914,12 +66797,16 @@
         <v>1007</v>
       </c>
       <c r="F2862" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>13</v>
       </c>
       <c r="G2862" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>-1</v>
+      </c>
+      <c r="H2862" s="2">
+        <f t="shared" si="142"/>
+        <v>5893</v>
       </c>
       <c r="I2862" s="2">
         <v>886213</v>
@@ -65937,12 +66824,16 @@
         <v>1879</v>
       </c>
       <c r="F2863" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>38</v>
       </c>
       <c r="G2863" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>2</v>
+      </c>
+      <c r="H2863" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2864" spans="1:9" x14ac:dyDescent="0.2">
@@ -65957,11 +66848,15 @@
         <v>1119</v>
       </c>
       <c r="F2864" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>19</v>
       </c>
       <c r="G2864" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2864" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -65977,12 +66872,16 @@
         <v>940</v>
       </c>
       <c r="F2865" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>13</v>
       </c>
       <c r="G2865" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>3</v>
+      </c>
+      <c r="H2865" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2866" spans="2:9" x14ac:dyDescent="0.2">
@@ -65997,12 +66896,16 @@
         <v>941</v>
       </c>
       <c r="F2866" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>18</v>
       </c>
       <c r="G2866" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>4</v>
+      </c>
+      <c r="H2866" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2867" spans="2:9" x14ac:dyDescent="0.2">
@@ -66019,12 +66922,16 @@
         <v>2608</v>
       </c>
       <c r="F2867" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>60</v>
       </c>
       <c r="G2867" s="2">
-        <f t="shared" si="140"/>
-        <v>0</v>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2867" s="2">
+        <f t="shared" si="142"/>
+        <v>16665</v>
       </c>
       <c r="I2867" s="2">
         <v>1146819</v>
@@ -66042,11 +66949,15 @@
         <v>1049</v>
       </c>
       <c r="F2868" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>26</v>
       </c>
       <c r="G2868" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2868" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -66062,11 +66973,15 @@
         <v>882</v>
       </c>
       <c r="F2869" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>20</v>
       </c>
       <c r="G2869" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2869" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -66082,11 +66997,15 @@
         <v>263</v>
       </c>
       <c r="F2870" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>10</v>
       </c>
       <c r="G2870" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2870" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -66102,11 +67021,15 @@
         <v>106</v>
       </c>
       <c r="F2871" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>12</v>
       </c>
       <c r="G2871" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2871" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -66124,12 +67047,16 @@
         <v>1619</v>
       </c>
       <c r="F2872" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>-2</v>
       </c>
       <c r="G2872" s="2">
-        <f t="shared" si="140"/>
-        <v>0</v>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2872" s="2">
+        <f t="shared" si="142"/>
+        <v>9877</v>
       </c>
       <c r="I2872" s="2">
         <f>SUM(89854+734846)</f>
@@ -66148,12 +67075,16 @@
         <v>811</v>
       </c>
       <c r="F2873" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>21</v>
       </c>
       <c r="G2873" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>1</v>
+      </c>
+      <c r="H2873" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2874" spans="2:9" x14ac:dyDescent="0.2">
@@ -66168,11 +67099,15 @@
         <v>702</v>
       </c>
       <c r="F2874" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>31</v>
       </c>
       <c r="G2874" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2874" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -66188,11 +67123,15 @@
         <v>307</v>
       </c>
       <c r="F2875" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>8</v>
       </c>
       <c r="G2875" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2875" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -66208,11 +67147,15 @@
         <v>352</v>
       </c>
       <c r="F2876" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>7</v>
       </c>
       <c r="G2876" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2876" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -66230,12 +67173,16 @@
         <v>3454</v>
       </c>
       <c r="F2877" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>7877</v>
       </c>
       <c r="G2877" s="2">
-        <f t="shared" si="140"/>
-        <v>0</v>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2877" s="2">
+        <f t="shared" si="142"/>
+        <v>113215</v>
       </c>
       <c r="I2877" s="2">
         <v>4793353</v>
@@ -66253,11 +67200,15 @@
         <v>387</v>
       </c>
       <c r="F2878" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>562</v>
       </c>
       <c r="G2878" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2878" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -66273,11 +67224,15 @@
         <v>479</v>
       </c>
       <c r="F2879" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>3</v>
       </c>
       <c r="G2879" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="H2879" s="2">
+        <f t="shared" si="142"/>
         <v>0</v>
       </c>
     </row>
@@ -66292,12 +67247,16 @@
         <v>161</v>
       </c>
       <c r="F2880" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>192</v>
       </c>
       <c r="G2880" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>1</v>
+      </c>
+      <c r="H2880" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2881" spans="1:9" x14ac:dyDescent="0.2">
@@ -66311,12 +67270,16 @@
         <v>366</v>
       </c>
       <c r="F2881" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>183</v>
       </c>
       <c r="G2881" s="2">
-        <f t="shared" si="140"/>
+        <f t="shared" si="143"/>
         <v>3</v>
+      </c>
+      <c r="H2881" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
       </c>
     </row>
     <row r="2882" spans="1:9" x14ac:dyDescent="0.2">
@@ -66334,6 +67297,10 @@
       </c>
       <c r="E2882" s="2">
         <v>4028</v>
+      </c>
+      <c r="H2882" s="2">
+        <f t="shared" si="142"/>
+        <v>54328</v>
       </c>
       <c r="I2882" s="2">
         <v>4288131</v>
@@ -66350,6 +67317,10 @@
       <c r="E2883" s="2">
         <v>4526</v>
       </c>
+      <c r="H2883" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2884" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2884" s="3"/>
@@ -66362,6 +67333,10 @@
       <c r="E2884" s="2">
         <v>2698</v>
       </c>
+      <c r="H2884" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2885" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2885" s="3"/>
@@ -66374,6 +67349,10 @@
       <c r="E2885" s="2">
         <v>3047</v>
       </c>
+      <c r="H2885" s="2">
+        <f t="shared" ref="H2885:H2941" si="144">SUM(I2885-I2855)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="2886" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2886" s="3"/>
@@ -66386,6 +67365,10 @@
       <c r="E2886" s="2">
         <v>2030</v>
       </c>
+      <c r="H2886" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2887" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2887" s="3" t="s">
@@ -66399,6 +67382,10 @@
       </c>
       <c r="E2887" s="2">
         <v>1745</v>
+      </c>
+      <c r="H2887" s="2">
+        <f t="shared" si="144"/>
+        <v>14569</v>
       </c>
       <c r="I2887" s="2">
         <v>1549209</v>
@@ -66415,6 +67402,10 @@
       <c r="E2888" s="2">
         <v>1289</v>
       </c>
+      <c r="H2888" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2889" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2889" s="3"/>
@@ -66427,6 +67418,10 @@
       <c r="E2889" s="2">
         <v>1800</v>
       </c>
+      <c r="H2889" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2890" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2890" s="3"/>
@@ -66439,6 +67434,10 @@
       <c r="E2890" s="2">
         <v>1153</v>
       </c>
+      <c r="H2890" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2891" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2891" s="3"/>
@@ -66451,6 +67450,10 @@
       <c r="E2891" s="2">
         <v>1049</v>
       </c>
+      <c r="H2891" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2892" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2892" s="3" t="s">
@@ -66464,6 +67467,10 @@
       </c>
       <c r="E2892" s="2">
         <v>1008</v>
+      </c>
+      <c r="H2892" s="2">
+        <f t="shared" si="144"/>
+        <v>7726</v>
       </c>
       <c r="I2892" s="2">
         <v>893939</v>
@@ -66480,6 +67487,10 @@
       <c r="E2893" s="2">
         <v>1882</v>
       </c>
+      <c r="H2893" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2894" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2894" s="3"/>
@@ -66492,6 +67503,10 @@
       <c r="E2894" s="2">
         <v>1122</v>
       </c>
+      <c r="H2894" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2895" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2895" s="3"/>
@@ -66504,6 +67519,10 @@
       <c r="E2895" s="2">
         <v>940</v>
       </c>
+      <c r="H2895" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2896" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2896" s="3"/>
@@ -66516,6 +67535,10 @@
       <c r="E2896" s="2">
         <v>942</v>
       </c>
+      <c r="H2896" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2897" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2897" s="3" t="s">
@@ -66529,6 +67552,10 @@
       </c>
       <c r="E2897" s="2">
         <v>2610</v>
+      </c>
+      <c r="H2897" s="2">
+        <f t="shared" si="144"/>
+        <v>12544</v>
       </c>
       <c r="I2897" s="2">
         <v>1159363</v>
@@ -66545,6 +67572,10 @@
       <c r="E2898" s="2">
         <v>1049</v>
       </c>
+      <c r="H2898" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2899" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2899" s="3"/>
@@ -66557,6 +67588,10 @@
       <c r="E2899" s="2">
         <v>882</v>
       </c>
+      <c r="H2899" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2900" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2900" s="3"/>
@@ -66569,6 +67604,10 @@
       <c r="E2900" s="2">
         <v>263</v>
       </c>
+      <c r="H2900" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2901" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2901" s="3"/>
@@ -66581,6 +67620,10 @@
       <c r="E2901" s="2">
         <v>106</v>
       </c>
+      <c r="H2901" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2902" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2902" s="3" t="s">
@@ -66594,6 +67637,10 @@
       </c>
       <c r="E2902" s="2">
         <v>1619</v>
+      </c>
+      <c r="H2902" s="2">
+        <f t="shared" si="144"/>
+        <v>8624</v>
       </c>
       <c r="I2902" s="2">
         <f>SUM(90304+743020)</f>
@@ -66611,6 +67658,10 @@
       <c r="E2903" s="2">
         <v>811</v>
       </c>
+      <c r="H2903" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2904" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2904" s="3"/>
@@ -66623,6 +67674,10 @@
       <c r="E2904" s="2">
         <v>702</v>
       </c>
+      <c r="H2904" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2905" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2905" s="3"/>
@@ -66635,6 +67690,10 @@
       <c r="E2905" s="2">
         <v>307</v>
       </c>
+      <c r="H2905" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2906" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2906" s="3"/>
@@ -66647,6 +67706,10 @@
       <c r="E2906" s="2">
         <v>352</v>
       </c>
+      <c r="H2906" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2907" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2907" s="3" t="s">
@@ -66660,6 +67723,10 @@
       </c>
       <c r="E2907" s="2">
         <v>3534</v>
+      </c>
+      <c r="H2907" s="2">
+        <f t="shared" si="144"/>
+        <v>103017</v>
       </c>
       <c r="I2907" s="2">
         <v>4896370</v>
@@ -66676,6 +67743,10 @@
       <c r="E2908" s="2">
         <v>387</v>
       </c>
+      <c r="H2908" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2909" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2909" s="3"/>
@@ -66688,6 +67759,10 @@
       <c r="E2909" s="2">
         <v>486</v>
       </c>
+      <c r="H2909" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2910" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2910" s="3" t="s">
@@ -66699,6 +67774,10 @@
       <c r="E2910" s="2">
         <v>164</v>
       </c>
+      <c r="H2910" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2911" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2911" s="3" t="s">
@@ -66710,6 +67789,10 @@
       <c r="E2911" s="2">
         <v>366</v>
       </c>
+      <c r="H2911" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2912" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2912" s="1">
@@ -66726,6 +67809,10 @@
       </c>
       <c r="E2912" s="2">
         <v>4029</v>
+      </c>
+      <c r="H2912" s="2">
+        <f t="shared" si="144"/>
+        <v>56736</v>
       </c>
       <c r="I2912" s="2">
         <v>4344867</v>
@@ -66742,6 +67829,10 @@
       <c r="E2913" s="2">
         <v>4528</v>
       </c>
+      <c r="H2913" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2914" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2914" s="3"/>
@@ -66754,6 +67845,10 @@
       <c r="E2914" s="2">
         <v>2698</v>
       </c>
+      <c r="H2914" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2915" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2915" s="3"/>
@@ -66766,6 +67861,10 @@
       <c r="E2915" s="2">
         <v>3049</v>
       </c>
+      <c r="H2915" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2916" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2916" s="3"/>
@@ -66778,6 +67877,10 @@
       <c r="E2916" s="2">
         <v>2031</v>
       </c>
+      <c r="H2916" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2917" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2917" s="3" t="s">
@@ -66791,6 +67894,10 @@
       </c>
       <c r="E2917" s="2">
         <v>1748</v>
+      </c>
+      <c r="H2917" s="2">
+        <f t="shared" si="144"/>
+        <v>10924</v>
       </c>
       <c r="I2917" s="2">
         <v>1560133</v>
@@ -66807,6 +67914,10 @@
       <c r="E2918" s="2">
         <v>1293</v>
       </c>
+      <c r="H2918" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2919" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2919" s="3"/>
@@ -66819,6 +67930,10 @@
       <c r="E2919" s="2">
         <v>1801</v>
       </c>
+      <c r="H2919" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2920" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2920" s="3"/>
@@ -66831,6 +67946,10 @@
       <c r="E2920" s="2">
         <v>1156</v>
       </c>
+      <c r="H2920" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2921" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2921" s="3"/>
@@ -66843,6 +67962,10 @@
       <c r="E2921" s="2">
         <v>1053</v>
       </c>
+      <c r="H2921" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2922" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2922" s="3" t="s">
@@ -66856,6 +67979,10 @@
       </c>
       <c r="E2922" s="2">
         <v>1008</v>
+      </c>
+      <c r="H2922" s="2">
+        <f t="shared" si="144"/>
+        <v>7282</v>
       </c>
       <c r="I2922" s="2">
         <v>901221</v>
@@ -66872,6 +67999,10 @@
       <c r="E2923" s="2">
         <v>1888</v>
       </c>
+      <c r="H2923" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2924" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2924" s="3"/>
@@ -66884,6 +68015,10 @@
       <c r="E2924" s="2">
         <v>1126</v>
       </c>
+      <c r="H2924" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2925" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2925" s="3"/>
@@ -66896,6 +68031,10 @@
       <c r="E2925" s="2">
         <v>941</v>
       </c>
+      <c r="H2925" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2926" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2926" s="3"/>
@@ -66908,6 +68047,10 @@
       <c r="E2926" s="2">
         <v>943</v>
       </c>
+      <c r="H2926" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2927" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2927" s="3" t="s">
@@ -66921,6 +68064,10 @@
       </c>
       <c r="E2927" s="2">
         <v>2621</v>
+      </c>
+      <c r="H2927" s="2">
+        <f t="shared" si="144"/>
+        <v>17148</v>
       </c>
       <c r="I2927" s="2">
         <v>1176511</v>
@@ -66937,8 +68084,12 @@
       <c r="E2928" s="2">
         <v>1053</v>
       </c>
-    </row>
-    <row r="2929" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2928" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2929" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2929" s="3"/>
       <c r="C2929" s="3" t="s">
         <v>28</v>
@@ -66949,8 +68100,12 @@
       <c r="E2929" s="2">
         <v>886</v>
       </c>
-    </row>
-    <row r="2930" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2929" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2930" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2930" s="3"/>
       <c r="C2930" s="3" t="s">
         <v>38</v>
@@ -66961,8 +68116,12 @@
       <c r="E2930" s="2">
         <v>263</v>
       </c>
-    </row>
-    <row r="2931" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2930" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2931" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2931" s="3"/>
       <c r="C2931" s="3" t="s">
         <v>39</v>
@@ -66973,8 +68132,12 @@
       <c r="E2931" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="2932" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2931" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2932" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2932" s="3" t="s">
         <v>16</v>
       </c>
@@ -66986,13 +68149,17 @@
       </c>
       <c r="E2932" s="2">
         <v>1621</v>
+      </c>
+      <c r="H2932" s="2">
+        <f t="shared" si="144"/>
+        <v>16778</v>
       </c>
       <c r="I2932" s="2">
         <f>SUM(91299+758803)</f>
         <v>850102</v>
       </c>
     </row>
-    <row r="2933" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2933" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2933" s="3"/>
       <c r="C2933" s="3" t="s">
         <v>18</v>
@@ -67003,8 +68170,12 @@
       <c r="E2933" s="2">
         <v>815</v>
       </c>
-    </row>
-    <row r="2934" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2933" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2934" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2934" s="3"/>
       <c r="C2934" s="3" t="s">
         <v>19</v>
@@ -67015,8 +68186,12 @@
       <c r="E2934" s="2">
         <v>704</v>
       </c>
-    </row>
-    <row r="2935" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2934" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2935" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2935" s="3"/>
       <c r="C2935" s="3" t="s">
         <v>40</v>
@@ -67027,8 +68202,12 @@
       <c r="E2935" s="2">
         <v>309</v>
       </c>
-    </row>
-    <row r="2936" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2935" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2936" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2936" s="3"/>
       <c r="C2936" s="3" t="s">
         <v>41</v>
@@ -67039,34 +68218,450 @@
       <c r="E2936" s="2">
         <v>353</v>
       </c>
-    </row>
-    <row r="2937" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H2936" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2937" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2937" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2937" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2938" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2937" s="2">
+        <v>121026</v>
+      </c>
+      <c r="E2937" s="2">
+        <v>3579</v>
+      </c>
+      <c r="H2937" s="2">
+        <f t="shared" si="144"/>
+        <v>99805</v>
+      </c>
+      <c r="I2937" s="2">
+        <v>4996175</v>
+      </c>
+    </row>
+    <row r="2938" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2938" s="3"/>
       <c r="C2938" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2939" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2938" s="2">
+        <v>17580</v>
+      </c>
+      <c r="E2938" s="2">
+        <v>399</v>
+      </c>
+      <c r="H2938" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2939" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2939" s="3"/>
       <c r="C2939" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2940" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2939" s="2">
+        <v>23279</v>
+      </c>
+      <c r="E2939" s="2">
+        <v>506</v>
+      </c>
+      <c r="H2939" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2940" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2940" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2941" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2940" s="2">
+        <v>5438</v>
+      </c>
+      <c r="E2940" s="2">
+        <v>165</v>
+      </c>
+      <c r="H2940" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2941" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2941" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2941" s="2">
+        <v>21741</v>
+      </c>
+      <c r="E2941" s="2">
+        <v>369</v>
+      </c>
+      <c r="H2941" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2942" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2942" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B2942" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2942" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2942" s="2">
+        <v>66099</v>
+      </c>
+      <c r="E2942" s="2">
+        <v>4035</v>
+      </c>
+      <c r="I2942" s="2">
+        <v>4402452</v>
+      </c>
+    </row>
+    <row r="2943" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2943" s="3"/>
+      <c r="C2943" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2943" s="2">
+        <v>60386</v>
+      </c>
+      <c r="E2943" s="2">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="2944" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2944" s="3"/>
+      <c r="C2944" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2944" s="2">
+        <v>42122</v>
+      </c>
+      <c r="E2944" s="2">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="2945" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2945" s="3"/>
+      <c r="C2945" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2945" s="2">
+        <v>48076</v>
+      </c>
+      <c r="E2945" s="2">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="2946" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2946" s="3"/>
+      <c r="C2946" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2946" s="2">
+        <v>41799</v>
+      </c>
+      <c r="E2946" s="2">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="2947" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2947" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2947" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2947" s="2">
+        <v>19732</v>
+      </c>
+      <c r="E2947" s="2">
+        <v>1749</v>
+      </c>
+      <c r="I2947" s="2">
+        <v>1577848</v>
+      </c>
+    </row>
+    <row r="2948" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2948" s="3"/>
+      <c r="C2948" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2948" s="2">
+        <v>19024</v>
+      </c>
+      <c r="E2948" s="2">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="2949" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2949" s="3"/>
+      <c r="C2949" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2949" s="2">
+        <v>18920</v>
+      </c>
+      <c r="E2949" s="2">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="2950" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2950" s="3"/>
+      <c r="C2950" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2950" s="2">
+        <v>16443</v>
+      </c>
+      <c r="E2950" s="2">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="2951" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2951" s="3"/>
+      <c r="C2951" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2951" s="2">
+        <v>16978</v>
+      </c>
+      <c r="E2951" s="2">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="2952" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2952" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2952" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2952" s="2">
+        <v>20120</v>
+      </c>
+      <c r="E2952" s="2">
+        <v>1012</v>
+      </c>
+      <c r="I2952" s="2">
+        <v>910354</v>
+      </c>
+    </row>
+    <row r="2953" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2953" s="3"/>
+      <c r="C2953" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2953" s="2">
+        <v>24300</v>
+      </c>
+      <c r="E2953" s="2">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="2954" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2954" s="3"/>
+      <c r="C2954" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2954" s="2">
+        <v>16342</v>
+      </c>
+      <c r="E2954" s="2">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="2955" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2955" s="3"/>
+      <c r="C2955" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2955" s="2">
+        <v>9339</v>
+      </c>
+      <c r="E2955" s="2">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2956" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2956" s="3"/>
+      <c r="C2956" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2956" s="2">
+        <v>12562</v>
+      </c>
+      <c r="E2956" s="2">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="2957" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2957" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2957" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2957" s="2">
+        <v>22558</v>
+      </c>
+      <c r="E2957" s="2">
+        <v>2622</v>
+      </c>
+      <c r="I2957" s="2">
+        <v>1200003</v>
+      </c>
+    </row>
+    <row r="2958" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2958" s="3"/>
+      <c r="C2958" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2958" s="2">
+        <v>9244</v>
+      </c>
+      <c r="E2958" s="2">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="2959" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2959" s="3"/>
+      <c r="C2959" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2959" s="2">
+        <v>7404</v>
+      </c>
+      <c r="E2959" s="2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="2960" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2960" s="3"/>
+      <c r="C2960" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2960" s="2">
+        <v>2275</v>
+      </c>
+      <c r="E2960" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2961" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2961" s="3"/>
+      <c r="C2961" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2961" s="2">
+        <v>1588</v>
+      </c>
+      <c r="E2961" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2962" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2962" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2962" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2962" s="2">
+        <v>22392</v>
+      </c>
+      <c r="E2962" s="2">
+        <v>1628</v>
+      </c>
+      <c r="I2962" s="2">
+        <f>SUM(92148+774378)</f>
+        <v>866526</v>
+      </c>
+    </row>
+    <row r="2963" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2963" s="3"/>
+      <c r="C2963" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2963" s="2">
+        <v>8718</v>
+      </c>
+      <c r="E2963" s="2">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="2964" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2964" s="3"/>
+      <c r="C2964" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2964" s="2">
+        <v>7427</v>
+      </c>
+      <c r="E2964" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2965" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2965" s="3"/>
+      <c r="C2965" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2965" s="2">
+        <v>4354</v>
+      </c>
+      <c r="E2965" s="2">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2966" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2966" s="3"/>
+      <c r="C2966" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2966" s="2">
+        <v>4623</v>
+      </c>
+      <c r="E2966" s="2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2967" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2967" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2967" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2968" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2968" s="3"/>
+      <c r="C2968" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2969" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2969" s="3"/>
+      <c r="C2969" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2970" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2970" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2971" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C2971" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988A05B2-A945-9844-8976-061109B0963B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919A22B-4008-7548-8D15-A0206DB30769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16600" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16040" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3574" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M2971"/>
+  <dimension ref="A1:M3031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2928" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2942" sqref="E2942"/>
+    <sheetView tabSelected="1" topLeftCell="A2974" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3002" sqref="E3002"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -68557,7 +68557,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2961" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2961" s="3"/>
       <c r="C2961" s="3" t="s">
         <v>39</v>
@@ -68569,7 +68569,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2962" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2962" s="3" t="s">
         <v>16</v>
       </c>
@@ -68587,7 +68587,7 @@
         <v>866526</v>
       </c>
     </row>
-    <row r="2963" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2963" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2963" s="3"/>
       <c r="C2963" s="3" t="s">
         <v>18</v>
@@ -68599,7 +68599,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2964" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2964" s="3"/>
       <c r="C2964" s="3" t="s">
         <v>19</v>
@@ -68611,7 +68611,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="2965" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2965" s="3"/>
       <c r="C2965" s="3" t="s">
         <v>40</v>
@@ -68623,7 +68623,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2966" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2966" s="3"/>
       <c r="C2966" s="3" t="s">
         <v>41</v>
@@ -68635,33 +68635,817 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2967" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2967" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2967" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2968" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2967" s="2">
+        <v>123462</v>
+      </c>
+      <c r="E2967" s="2">
+        <v>3642</v>
+      </c>
+      <c r="I2967" s="2">
+        <v>5078434</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2968" s="3"/>
       <c r="C2968" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2969" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2968" s="2">
+        <v>17844</v>
+      </c>
+      <c r="E2968" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2969" s="3"/>
       <c r="C2969" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2970" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2969" s="2">
+        <v>24042</v>
+      </c>
+      <c r="E2969" s="2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2970" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2971" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D2970" s="2">
+        <v>5510</v>
+      </c>
+      <c r="E2970" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2971" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2971" s="2">
+        <v>22088</v>
+      </c>
+      <c r="E2971" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2972" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B2972" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2972" s="2">
+        <v>66174</v>
+      </c>
+      <c r="E2972" s="2">
+        <v>4035</v>
+      </c>
+      <c r="I2972" s="2">
+        <v>4468016</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2973" s="3"/>
+      <c r="C2973" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2973" s="2">
+        <v>60461</v>
+      </c>
+      <c r="E2973" s="2">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2974" s="3"/>
+      <c r="C2974" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2974" s="2">
+        <v>42164</v>
+      </c>
+      <c r="E2974" s="2">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2975" s="3"/>
+      <c r="C2975" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2975" s="2">
+        <v>48126</v>
+      </c>
+      <c r="E2975" s="2">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2976" s="3"/>
+      <c r="C2976" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2976" s="2">
+        <v>41849</v>
+      </c>
+      <c r="E2976" s="2">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="2977" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2977" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2977" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2977" s="2">
+        <v>19771</v>
+      </c>
+      <c r="E2977" s="2">
+        <v>1748</v>
+      </c>
+      <c r="I2977" s="2">
+        <v>1599417</v>
+      </c>
+    </row>
+    <row r="2978" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2978" s="3"/>
+      <c r="C2978" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2978" s="2">
+        <v>19037</v>
+      </c>
+      <c r="E2978" s="2">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="2979" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2979" s="3"/>
+      <c r="C2979" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2979" s="2">
+        <v>18928</v>
+      </c>
+      <c r="E2979" s="2">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="2980" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2980" s="3"/>
+      <c r="C2980" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2980" s="2">
+        <v>16462</v>
+      </c>
+      <c r="E2980" s="2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="2981" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2981" s="3"/>
+      <c r="C2981" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2981" s="2">
+        <v>17000</v>
+      </c>
+      <c r="E2981" s="2">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="2982" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2982" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2982" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2982" s="2">
+        <v>20172</v>
+      </c>
+      <c r="E2982" s="2">
+        <v>1013</v>
+      </c>
+      <c r="I2982" s="2">
+        <v>920002</v>
+      </c>
+    </row>
+    <row r="2983" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2983" s="3"/>
+      <c r="C2983" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2983" s="2">
+        <v>24348</v>
+      </c>
+      <c r="E2983" s="2">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="2984" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2984" s="3"/>
+      <c r="C2984" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2984" s="2">
+        <v>16379</v>
+      </c>
+      <c r="E2984" s="2">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="2985" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2985" s="3"/>
+      <c r="C2985" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2985" s="2">
+        <v>9384</v>
+      </c>
+      <c r="E2985" s="2">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="2986" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2986" s="3"/>
+      <c r="C2986" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2986" s="2">
+        <v>12583</v>
+      </c>
+      <c r="E2986" s="2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="2987" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2987" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2987" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2987" s="2">
+        <v>22646</v>
+      </c>
+      <c r="E2987" s="2">
+        <v>2623</v>
+      </c>
+      <c r="I2987" s="2">
+        <v>1223553</v>
+      </c>
+    </row>
+    <row r="2988" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2988" s="3"/>
+      <c r="C2988" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2988" s="2">
+        <v>9323</v>
+      </c>
+      <c r="E2988" s="2">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2989" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2989" s="3"/>
+      <c r="C2989" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2989" s="2">
+        <v>7443</v>
+      </c>
+      <c r="E2989" s="2">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="2990" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2990" s="3"/>
+      <c r="C2990" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2990" s="2">
+        <v>2282</v>
+      </c>
+      <c r="E2990" s="2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2991" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2991" s="3"/>
+      <c r="C2991" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2991" s="2">
+        <v>1609</v>
+      </c>
+      <c r="E2991" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2992" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B2992" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2992" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2992" s="2">
+        <v>22553</v>
+      </c>
+      <c r="E2992" s="2">
+        <v>1633</v>
+      </c>
+      <c r="I2992" s="2">
+        <f>SUM(92867+787156)</f>
+        <v>880023</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2993" s="3"/>
+      <c r="C2993" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2993" s="2">
+        <v>8749</v>
+      </c>
+      <c r="E2993" s="2">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2994" s="3"/>
+      <c r="C2994" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2994" s="2">
+        <v>7447</v>
+      </c>
+      <c r="E2994" s="2">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2995" s="3"/>
+      <c r="C2995" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2995" s="2">
+        <v>4370</v>
+      </c>
+      <c r="E2995" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2996" s="3"/>
+      <c r="C2996" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2996" s="2">
+        <v>4647</v>
+      </c>
+      <c r="E2996" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2997" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2997" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2997" s="2">
+        <v>125062</v>
+      </c>
+      <c r="E2997" s="2">
+        <v>3689</v>
+      </c>
+      <c r="I2997" s="2">
+        <v>5175737</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2998" s="3"/>
+      <c r="C2998" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2998" s="2">
+        <v>18404</v>
+      </c>
+      <c r="E2998" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B2999" s="3"/>
+      <c r="C2999" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2999" s="2">
+        <v>24980</v>
+      </c>
+      <c r="E2999" s="2">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3000" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3000" s="2">
+        <v>5638</v>
+      </c>
+      <c r="E3000" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3001" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3001" s="2">
+        <v>22960</v>
+      </c>
+      <c r="E3001" s="2">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3002" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B3002" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3002" s="2">
+        <v>66241</v>
+      </c>
+      <c r="E3002" s="2">
+        <v>4036</v>
+      </c>
+      <c r="I3002" s="2">
+        <v>4541574</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3003" s="3"/>
+      <c r="C3003" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3003" s="2">
+        <v>60560</v>
+      </c>
+      <c r="E3003" s="2">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3004" s="3"/>
+      <c r="C3004" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3004" s="2">
+        <v>42232</v>
+      </c>
+      <c r="E3004" s="2">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3005" s="3"/>
+      <c r="C3005" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3005" s="2">
+        <v>48208</v>
+      </c>
+      <c r="E3005" s="2">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3006" s="3"/>
+      <c r="C3006" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3006" s="2">
+        <v>41911</v>
+      </c>
+      <c r="E3006" s="2">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3007" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3007" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3007" s="2">
+        <v>19827</v>
+      </c>
+      <c r="E3007" s="2">
+        <v>1751</v>
+      </c>
+      <c r="I3007" s="2">
+        <v>1623158</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3008" s="3"/>
+      <c r="C3008" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3008" s="2">
+        <v>19056</v>
+      </c>
+      <c r="E3008" s="2">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="3009" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3009" s="3"/>
+      <c r="C3009" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3009" s="2">
+        <v>18954</v>
+      </c>
+      <c r="E3009" s="2">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="3010" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3010" s="3"/>
+      <c r="C3010" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3010" s="2">
+        <v>16460</v>
+      </c>
+      <c r="E3010" s="2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="3011" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3011" s="3"/>
+      <c r="C3011" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3011" s="2">
+        <v>17030</v>
+      </c>
+      <c r="E3011" s="2">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3012" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3012" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3012" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3012" s="2">
+        <v>20228</v>
+      </c>
+      <c r="E3012" s="2">
+        <v>1016</v>
+      </c>
+      <c r="I3012" s="2">
+        <v>932796</v>
+      </c>
+    </row>
+    <row r="3013" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3013" s="3"/>
+      <c r="C3013" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3013" s="2">
+        <v>24377</v>
+      </c>
+      <c r="E3013" s="2">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="3014" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3014" s="3"/>
+      <c r="C3014" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3014" s="2">
+        <v>16414</v>
+      </c>
+      <c r="E3014" s="2">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="3015" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3015" s="3"/>
+      <c r="C3015" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3015" s="2">
+        <v>9403</v>
+      </c>
+      <c r="E3015" s="2">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="3016" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3016" s="3"/>
+      <c r="C3016" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3016" s="2">
+        <v>12603</v>
+      </c>
+      <c r="E3016" s="2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3017" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3017" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3017" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3017" s="2">
+        <v>22756</v>
+      </c>
+      <c r="E3017" s="2">
+        <v>2628</v>
+      </c>
+      <c r="I3017" s="2">
+        <v>1246805</v>
+      </c>
+    </row>
+    <row r="3018" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3018" s="3"/>
+      <c r="C3018" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3018" s="2">
+        <v>9406</v>
+      </c>
+      <c r="E3018" s="2">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3019" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3019" s="3"/>
+      <c r="C3019" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3019" s="2">
+        <v>7490</v>
+      </c>
+      <c r="E3019" s="2">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="3020" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3020" s="3"/>
+      <c r="C3020" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3020" s="2">
+        <v>2302</v>
+      </c>
+      <c r="E3020" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3021" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3021" s="3"/>
+      <c r="C3021" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3021" s="2">
+        <v>1649</v>
+      </c>
+      <c r="E3021" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3022" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3022" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3022" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3022" s="2">
+        <v>22735</v>
+      </c>
+      <c r="E3022" s="2">
+        <v>1635</v>
+      </c>
+      <c r="I3022" s="2">
+        <f>SUM(93876+804764)</f>
+        <v>898640</v>
+      </c>
+    </row>
+    <row r="3023" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3023" s="3"/>
+      <c r="C3023" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3023" s="2">
+        <v>8790</v>
+      </c>
+      <c r="E3023" s="2">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="3024" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3024" s="3"/>
+      <c r="C3024" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3024" s="2">
+        <v>7495</v>
+      </c>
+      <c r="E3024" s="2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="3025" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3025" s="3"/>
+      <c r="C3025" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3025" s="2">
+        <v>4391</v>
+      </c>
+      <c r="E3025" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3026" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3026" s="3"/>
+      <c r="C3026" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3026" s="2">
+        <v>4663</v>
+      </c>
+      <c r="E3026" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3027" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3027" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3027" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3028" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3028" s="3"/>
+      <c r="C3028" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3029" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3029" s="3"/>
+      <c r="C3029" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3030" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3030" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3031" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3031" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8919A22B-4008-7548-8D15-A0206DB30769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E910D1-7B8A-9741-A3AA-DD0E64B027BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="440" yWindow="480" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
   <dimension ref="A1:M3031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2974" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3002" sqref="E3002"/>
+    <sheetView tabSelected="1" topLeftCell="A2968" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2942" sqref="G2942"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -66672,7 +66672,7 @@
         <v>1743</v>
       </c>
       <c r="F2857" s="2">
-        <f t="shared" ref="F2857:G2881" si="143">SUM(D2857-D2827)</f>
+        <f t="shared" ref="F2857:G2882" si="143">SUM(D2857-D2827)</f>
         <v>63</v>
       </c>
       <c r="G2857" s="2">
@@ -67298,6 +67298,14 @@
       <c r="E2882" s="2">
         <v>4028</v>
       </c>
+      <c r="F2882" s="2">
+        <f t="shared" si="143"/>
+        <v>52</v>
+      </c>
+      <c r="G2882" s="2">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
       <c r="H2882" s="2">
         <f t="shared" si="142"/>
         <v>54328</v>
@@ -67317,6 +67325,14 @@
       <c r="E2883" s="2">
         <v>4526</v>
       </c>
+      <c r="F2883" s="2">
+        <f t="shared" ref="F2883:G2946" si="144">SUM(D2883-D2853)</f>
+        <v>62</v>
+      </c>
+      <c r="G2883" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2883" s="2">
         <f t="shared" si="142"/>
         <v>0</v>
@@ -67333,6 +67349,14 @@
       <c r="E2884" s="2">
         <v>2698</v>
       </c>
+      <c r="F2884" s="2">
+        <f t="shared" si="144"/>
+        <v>22</v>
+      </c>
+      <c r="G2884" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2884" s="2">
         <f t="shared" si="142"/>
         <v>0</v>
@@ -67349,8 +67373,16 @@
       <c r="E2885" s="2">
         <v>3047</v>
       </c>
+      <c r="F2885" s="2">
+        <f t="shared" si="144"/>
+        <v>56</v>
+      </c>
+      <c r="G2885" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2885" s="2">
-        <f t="shared" ref="H2885:H2941" si="144">SUM(I2885-I2855)</f>
+        <f t="shared" ref="H2885:H2941" si="145">SUM(I2885-I2855)</f>
         <v>0</v>
       </c>
     </row>
@@ -67365,8 +67397,16 @@
       <c r="E2886" s="2">
         <v>2030</v>
       </c>
+      <c r="F2886" s="2">
+        <f t="shared" si="144"/>
+        <v>43</v>
+      </c>
+      <c r="G2886" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2886" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67383,8 +67423,16 @@
       <c r="E2887" s="2">
         <v>1745</v>
       </c>
+      <c r="F2887" s="2">
+        <f t="shared" si="144"/>
+        <v>30</v>
+      </c>
+      <c r="G2887" s="2">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
       <c r="H2887" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>14569</v>
       </c>
       <c r="I2887" s="2">
@@ -67402,8 +67450,16 @@
       <c r="E2888" s="2">
         <v>1289</v>
       </c>
+      <c r="F2888" s="2">
+        <f t="shared" si="144"/>
+        <v>14</v>
+      </c>
+      <c r="G2888" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2888" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67418,8 +67474,16 @@
       <c r="E2889" s="2">
         <v>1800</v>
       </c>
+      <c r="F2889" s="2">
+        <f t="shared" si="144"/>
+        <v>8</v>
+      </c>
+      <c r="G2889" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2889" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67434,8 +67498,16 @@
       <c r="E2890" s="2">
         <v>1153</v>
       </c>
+      <c r="F2890" s="2">
+        <f t="shared" si="144"/>
+        <v>-23</v>
+      </c>
+      <c r="G2890" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2890" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67450,8 +67522,16 @@
       <c r="E2891" s="2">
         <v>1049</v>
       </c>
+      <c r="F2891" s="2">
+        <f t="shared" si="144"/>
+        <v>9</v>
+      </c>
+      <c r="G2891" s="2">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
       <c r="H2891" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67468,8 +67548,16 @@
       <c r="E2892" s="2">
         <v>1008</v>
       </c>
+      <c r="F2892" s="2">
+        <f t="shared" si="144"/>
+        <v>29</v>
+      </c>
+      <c r="G2892" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2892" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>7726</v>
       </c>
       <c r="I2892" s="2">
@@ -67487,8 +67575,16 @@
       <c r="E2893" s="2">
         <v>1882</v>
       </c>
+      <c r="F2893" s="2">
+        <f t="shared" si="144"/>
+        <v>40</v>
+      </c>
+      <c r="G2893" s="2">
+        <f t="shared" si="144"/>
+        <v>3</v>
+      </c>
       <c r="H2893" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67503,8 +67599,16 @@
       <c r="E2894" s="2">
         <v>1122</v>
       </c>
+      <c r="F2894" s="2">
+        <f t="shared" si="144"/>
+        <v>29</v>
+      </c>
+      <c r="G2894" s="2">
+        <f t="shared" si="144"/>
+        <v>3</v>
+      </c>
       <c r="H2894" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67519,8 +67623,16 @@
       <c r="E2895" s="2">
         <v>940</v>
       </c>
+      <c r="F2895" s="2">
+        <f t="shared" si="144"/>
+        <v>11</v>
+      </c>
+      <c r="G2895" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2895" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67535,8 +67647,16 @@
       <c r="E2896" s="2">
         <v>942</v>
       </c>
+      <c r="F2896" s="2">
+        <f t="shared" si="144"/>
+        <v>16</v>
+      </c>
+      <c r="G2896" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2896" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67553,8 +67673,16 @@
       <c r="E2897" s="2">
         <v>2610</v>
       </c>
+      <c r="F2897" s="2">
+        <f t="shared" si="144"/>
+        <v>68</v>
+      </c>
+      <c r="G2897" s="2">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
       <c r="H2897" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>12544</v>
       </c>
       <c r="I2897" s="2">
@@ -67572,8 +67700,16 @@
       <c r="E2898" s="2">
         <v>1049</v>
       </c>
+      <c r="F2898" s="2">
+        <f t="shared" si="144"/>
+        <v>24</v>
+      </c>
+      <c r="G2898" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2898" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67588,8 +67724,16 @@
       <c r="E2899" s="2">
         <v>882</v>
       </c>
+      <c r="F2899" s="2">
+        <f t="shared" si="144"/>
+        <v>40</v>
+      </c>
+      <c r="G2899" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2899" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67604,8 +67748,16 @@
       <c r="E2900" s="2">
         <v>263</v>
       </c>
+      <c r="F2900" s="2">
+        <f t="shared" si="144"/>
+        <v>5</v>
+      </c>
+      <c r="G2900" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2900" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67620,8 +67772,16 @@
       <c r="E2901" s="2">
         <v>106</v>
       </c>
+      <c r="F2901" s="2">
+        <f t="shared" si="144"/>
+        <v>10</v>
+      </c>
+      <c r="G2901" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2901" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67638,8 +67798,16 @@
       <c r="E2902" s="2">
         <v>1619</v>
       </c>
+      <c r="F2902" s="2">
+        <f t="shared" si="144"/>
+        <v>-2</v>
+      </c>
+      <c r="G2902" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2902" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>8624</v>
       </c>
       <c r="I2902" s="2">
@@ -67658,8 +67826,16 @@
       <c r="E2903" s="2">
         <v>811</v>
       </c>
+      <c r="F2903" s="2">
+        <f t="shared" si="144"/>
+        <v>24</v>
+      </c>
+      <c r="G2903" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2903" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67674,8 +67850,16 @@
       <c r="E2904" s="2">
         <v>702</v>
       </c>
+      <c r="F2904" s="2">
+        <f t="shared" si="144"/>
+        <v>15</v>
+      </c>
+      <c r="G2904" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2904" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67690,8 +67874,16 @@
       <c r="E2905" s="2">
         <v>307</v>
       </c>
+      <c r="F2905" s="2">
+        <f t="shared" si="144"/>
+        <v>6</v>
+      </c>
+      <c r="G2905" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2905" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67706,8 +67898,16 @@
       <c r="E2906" s="2">
         <v>352</v>
       </c>
+      <c r="F2906" s="2">
+        <f t="shared" si="144"/>
+        <v>3</v>
+      </c>
+      <c r="G2906" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2906" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67724,8 +67924,16 @@
       <c r="E2907" s="2">
         <v>3534</v>
       </c>
+      <c r="F2907" s="2">
+        <f t="shared" si="144"/>
+        <v>1574</v>
+      </c>
+      <c r="G2907" s="2">
+        <f t="shared" si="144"/>
+        <v>80</v>
+      </c>
       <c r="H2907" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>103017</v>
       </c>
       <c r="I2907" s="2">
@@ -67743,8 +67951,16 @@
       <c r="E2908" s="2">
         <v>387</v>
       </c>
+      <c r="F2908" s="2">
+        <f t="shared" si="144"/>
+        <v>274</v>
+      </c>
+      <c r="G2908" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2908" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67759,8 +67975,16 @@
       <c r="E2909" s="2">
         <v>486</v>
       </c>
+      <c r="F2909" s="2">
+        <f t="shared" si="144"/>
+        <v>974</v>
+      </c>
+      <c r="G2909" s="2">
+        <f t="shared" si="144"/>
+        <v>7</v>
+      </c>
       <c r="H2909" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67774,8 +67998,16 @@
       <c r="E2910" s="2">
         <v>164</v>
       </c>
+      <c r="F2910" s="2">
+        <f t="shared" si="144"/>
+        <v>132</v>
+      </c>
+      <c r="G2910" s="2">
+        <f t="shared" si="144"/>
+        <v>3</v>
+      </c>
       <c r="H2910" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67789,8 +68021,16 @@
       <c r="E2911" s="2">
         <v>366</v>
       </c>
+      <c r="F2911" s="2">
+        <f t="shared" si="144"/>
+        <v>737</v>
+      </c>
+      <c r="G2911" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2911" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67810,8 +68050,16 @@
       <c r="E2912" s="2">
         <v>4029</v>
       </c>
+      <c r="F2912" s="2">
+        <f t="shared" si="144"/>
+        <v>96</v>
+      </c>
+      <c r="G2912" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2912" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>56736</v>
       </c>
       <c r="I2912" s="2">
@@ -67829,8 +68077,16 @@
       <c r="E2913" s="2">
         <v>4528</v>
       </c>
+      <c r="F2913" s="2">
+        <f t="shared" si="144"/>
+        <v>70</v>
+      </c>
+      <c r="G2913" s="2">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
       <c r="H2913" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67845,8 +68101,16 @@
       <c r="E2914" s="2">
         <v>2698</v>
       </c>
+      <c r="F2914" s="2">
+        <f t="shared" si="144"/>
+        <v>35</v>
+      </c>
+      <c r="G2914" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2914" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67861,8 +68125,16 @@
       <c r="E2915" s="2">
         <v>3049</v>
       </c>
+      <c r="F2915" s="2">
+        <f t="shared" si="144"/>
+        <v>44</v>
+      </c>
+      <c r="G2915" s="2">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
       <c r="H2915" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67877,8 +68149,16 @@
       <c r="E2916" s="2">
         <v>2031</v>
       </c>
+      <c r="F2916" s="2">
+        <f t="shared" si="144"/>
+        <v>45</v>
+      </c>
+      <c r="G2916" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2916" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67895,8 +68175,16 @@
       <c r="E2917" s="2">
         <v>1748</v>
       </c>
+      <c r="F2917" s="2">
+        <f t="shared" si="144"/>
+        <v>21</v>
+      </c>
+      <c r="G2917" s="2">
+        <f t="shared" si="144"/>
+        <v>3</v>
+      </c>
       <c r="H2917" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>10924</v>
       </c>
       <c r="I2917" s="2">
@@ -67914,8 +68202,16 @@
       <c r="E2918" s="2">
         <v>1293</v>
       </c>
+      <c r="F2918" s="2">
+        <f t="shared" si="144"/>
+        <v>-8074</v>
+      </c>
+      <c r="G2918" s="2">
+        <f t="shared" si="144"/>
+        <v>4</v>
+      </c>
       <c r="H2918" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67930,8 +68226,16 @@
       <c r="E2919" s="2">
         <v>1801</v>
       </c>
+      <c r="F2919" s="2">
+        <f t="shared" si="144"/>
+        <v>23</v>
+      </c>
+      <c r="G2919" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2919" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67946,8 +68250,16 @@
       <c r="E2920" s="2">
         <v>1156</v>
       </c>
+      <c r="F2920" s="2">
+        <f t="shared" si="144"/>
+        <v>18</v>
+      </c>
+      <c r="G2920" s="2">
+        <f t="shared" si="144"/>
+        <v>3</v>
+      </c>
       <c r="H2920" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67962,8 +68274,16 @@
       <c r="E2921" s="2">
         <v>1053</v>
       </c>
+      <c r="F2921" s="2">
+        <f t="shared" si="144"/>
+        <v>11</v>
+      </c>
+      <c r="G2921" s="2">
+        <f t="shared" si="144"/>
+        <v>4</v>
+      </c>
       <c r="H2921" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -67980,8 +68300,16 @@
       <c r="E2922" s="2">
         <v>1008</v>
       </c>
+      <c r="F2922" s="2">
+        <f t="shared" si="144"/>
+        <v>34</v>
+      </c>
+      <c r="G2922" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2922" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>7282</v>
       </c>
       <c r="I2922" s="2">
@@ -67999,8 +68327,16 @@
       <c r="E2923" s="2">
         <v>1888</v>
       </c>
+      <c r="F2923" s="2">
+        <f t="shared" si="144"/>
+        <v>50</v>
+      </c>
+      <c r="G2923" s="2">
+        <f t="shared" si="144"/>
+        <v>6</v>
+      </c>
       <c r="H2923" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68015,8 +68351,16 @@
       <c r="E2924" s="2">
         <v>1126</v>
       </c>
+      <c r="F2924" s="2">
+        <f t="shared" si="144"/>
+        <v>35</v>
+      </c>
+      <c r="G2924" s="2">
+        <f t="shared" si="144"/>
+        <v>4</v>
+      </c>
       <c r="H2924" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68031,8 +68375,16 @@
       <c r="E2925" s="2">
         <v>941</v>
       </c>
+      <c r="F2925" s="2">
+        <f t="shared" si="144"/>
+        <v>22</v>
+      </c>
+      <c r="G2925" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2925" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68047,8 +68399,16 @@
       <c r="E2926" s="2">
         <v>943</v>
       </c>
+      <c r="F2926" s="2">
+        <f t="shared" si="144"/>
+        <v>19</v>
+      </c>
+      <c r="G2926" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2926" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68065,8 +68425,16 @@
       <c r="E2927" s="2">
         <v>2621</v>
       </c>
+      <c r="F2927" s="2">
+        <f t="shared" si="144"/>
+        <v>90</v>
+      </c>
+      <c r="G2927" s="2">
+        <f t="shared" si="144"/>
+        <v>11</v>
+      </c>
       <c r="H2927" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>17148</v>
       </c>
       <c r="I2927" s="2">
@@ -68084,8 +68452,16 @@
       <c r="E2928" s="2">
         <v>1053</v>
       </c>
+      <c r="F2928" s="2">
+        <f t="shared" si="144"/>
+        <v>47</v>
+      </c>
+      <c r="G2928" s="2">
+        <f t="shared" si="144"/>
+        <v>4</v>
+      </c>
       <c r="H2928" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68100,8 +68476,16 @@
       <c r="E2929" s="2">
         <v>886</v>
       </c>
+      <c r="F2929" s="2">
+        <f t="shared" si="144"/>
+        <v>33</v>
+      </c>
+      <c r="G2929" s="2">
+        <f t="shared" si="144"/>
+        <v>4</v>
+      </c>
       <c r="H2929" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68116,8 +68500,16 @@
       <c r="E2930" s="2">
         <v>263</v>
       </c>
+      <c r="F2930" s="2">
+        <f t="shared" si="144"/>
+        <v>7</v>
+      </c>
+      <c r="G2930" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
       <c r="H2930" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68132,8 +68524,16 @@
       <c r="E2931" s="2">
         <v>107</v>
       </c>
+      <c r="F2931" s="2">
+        <f t="shared" si="144"/>
+        <v>14</v>
+      </c>
+      <c r="G2931" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2931" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68150,8 +68550,16 @@
       <c r="E2932" s="2">
         <v>1621</v>
       </c>
+      <c r="F2932" s="2">
+        <f t="shared" si="144"/>
+        <v>288</v>
+      </c>
+      <c r="G2932" s="2">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
       <c r="H2932" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>16778</v>
       </c>
       <c r="I2932" s="2">
@@ -68170,8 +68578,16 @@
       <c r="E2933" s="2">
         <v>815</v>
       </c>
+      <c r="F2933" s="2">
+        <f t="shared" si="144"/>
+        <v>48</v>
+      </c>
+      <c r="G2933" s="2">
+        <f t="shared" si="144"/>
+        <v>4</v>
+      </c>
       <c r="H2933" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68186,8 +68602,16 @@
       <c r="E2934" s="2">
         <v>704</v>
       </c>
+      <c r="F2934" s="2">
+        <f t="shared" si="144"/>
+        <v>35</v>
+      </c>
+      <c r="G2934" s="2">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
       <c r="H2934" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68202,8 +68626,16 @@
       <c r="E2935" s="2">
         <v>309</v>
       </c>
+      <c r="F2935" s="2">
+        <f t="shared" si="144"/>
+        <v>17</v>
+      </c>
+      <c r="G2935" s="2">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
       <c r="H2935" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68218,8 +68650,16 @@
       <c r="E2936" s="2">
         <v>353</v>
       </c>
+      <c r="F2936" s="2">
+        <f t="shared" si="144"/>
+        <v>25</v>
+      </c>
+      <c r="G2936" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2936" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68236,8 +68676,16 @@
       <c r="E2937" s="2">
         <v>3579</v>
       </c>
+      <c r="F2937" s="2">
+        <f t="shared" si="144"/>
+        <v>4319</v>
+      </c>
+      <c r="G2937" s="2">
+        <f t="shared" si="144"/>
+        <v>45</v>
+      </c>
       <c r="H2937" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>99805</v>
       </c>
       <c r="I2937" s="2">
@@ -68255,8 +68703,16 @@
       <c r="E2938" s="2">
         <v>399</v>
       </c>
+      <c r="F2938" s="2">
+        <f t="shared" si="144"/>
+        <v>578</v>
+      </c>
+      <c r="G2938" s="2">
+        <f t="shared" si="144"/>
+        <v>12</v>
+      </c>
       <c r="H2938" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68271,8 +68727,16 @@
       <c r="E2939" s="2">
         <v>506</v>
       </c>
+      <c r="F2939" s="2">
+        <f t="shared" si="144"/>
+        <v>794</v>
+      </c>
+      <c r="G2939" s="2">
+        <f t="shared" si="144"/>
+        <v>20</v>
+      </c>
       <c r="H2939" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68286,8 +68750,16 @@
       <c r="E2940" s="2">
         <v>165</v>
       </c>
+      <c r="F2940" s="2">
+        <f t="shared" si="144"/>
+        <v>69</v>
+      </c>
+      <c r="G2940" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
       <c r="H2940" s="2">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>0</v>
       </c>
     </row>
@@ -68301,8 +68773,16 @@
       <c r="E2941" s="2">
         <v>369</v>
       </c>
+      <c r="F2941" s="2">
+        <f t="shared" si="144"/>
+        <v>1574</v>
+      </c>
+      <c r="G2941" s="2">
+        <f t="shared" si="144"/>
+        <v>3</v>
+      </c>
       <c r="H2941" s="2">
-        <f t="shared" si="144"/>
+        <f>SUM(I2941-I2911)</f>
         <v>0</v>
       </c>
     </row>
@@ -68321,6 +68801,18 @@
       </c>
       <c r="E2942" s="2">
         <v>4035</v>
+      </c>
+      <c r="F2942" s="2">
+        <f t="shared" si="144"/>
+        <v>75</v>
+      </c>
+      <c r="G2942" s="2">
+        <f t="shared" si="144"/>
+        <v>6</v>
+      </c>
+      <c r="H2942" s="2">
+        <f t="shared" ref="H2942:H3005" si="146">SUM(I2942-I2912)</f>
+        <v>57585</v>
       </c>
       <c r="I2942" s="2">
         <v>4402452</v>
@@ -68337,6 +68829,18 @@
       <c r="E2943" s="2">
         <v>4534</v>
       </c>
+      <c r="F2943" s="2">
+        <f t="shared" si="144"/>
+        <v>105</v>
+      </c>
+      <c r="G2943" s="2">
+        <f t="shared" si="144"/>
+        <v>6</v>
+      </c>
+      <c r="H2943" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2944" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2944" s="3"/>
@@ -68349,6 +68853,18 @@
       <c r="E2944" s="2">
         <v>2699</v>
       </c>
+      <c r="F2944" s="2">
+        <f t="shared" si="144"/>
+        <v>34</v>
+      </c>
+      <c r="G2944" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
+      <c r="H2944" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2945" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2945" s="3"/>
@@ -68361,6 +68877,18 @@
       <c r="E2945" s="2">
         <v>3051</v>
       </c>
+      <c r="F2945" s="2">
+        <f t="shared" si="144"/>
+        <v>38</v>
+      </c>
+      <c r="G2945" s="2">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
+      <c r="H2945" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2946" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2946" s="3"/>
@@ -68373,6 +68901,18 @@
       <c r="E2946" s="2">
         <v>2030</v>
       </c>
+      <c r="F2946" s="2">
+        <f t="shared" si="144"/>
+        <v>69</v>
+      </c>
+      <c r="G2946" s="2">
+        <f t="shared" si="144"/>
+        <v>-1</v>
+      </c>
+      <c r="H2946" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2947" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2947" s="3" t="s">
@@ -68386,6 +68926,18 @@
       </c>
       <c r="E2947" s="2">
         <v>1749</v>
+      </c>
+      <c r="F2947" s="2">
+        <f t="shared" ref="F2947:G3010" si="147">SUM(D2947-D2917)</f>
+        <v>56</v>
+      </c>
+      <c r="G2947" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2947" s="2">
+        <f t="shared" si="146"/>
+        <v>17715</v>
       </c>
       <c r="I2947" s="2">
         <v>1577848</v>
@@ -68402,6 +68954,18 @@
       <c r="E2948" s="2">
         <v>1295</v>
       </c>
+      <c r="F2948" s="2">
+        <f t="shared" si="147"/>
+        <v>8108</v>
+      </c>
+      <c r="G2948" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="H2948" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2949" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2949" s="3"/>
@@ -68414,6 +68978,18 @@
       <c r="E2949" s="2">
         <v>1805</v>
       </c>
+      <c r="F2949" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="G2949" s="2">
+        <f t="shared" si="147"/>
+        <v>4</v>
+      </c>
+      <c r="H2949" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2950" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2950" s="3"/>
@@ -68426,6 +69002,18 @@
       <c r="E2950" s="2">
         <v>1155</v>
       </c>
+      <c r="F2950" s="2">
+        <f t="shared" si="147"/>
+        <v>-7</v>
+      </c>
+      <c r="G2950" s="2">
+        <f t="shared" si="147"/>
+        <v>-1</v>
+      </c>
+      <c r="H2950" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2951" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2951" s="3"/>
@@ -68438,6 +69026,18 @@
       <c r="E2951" s="2">
         <v>1057</v>
       </c>
+      <c r="F2951" s="2">
+        <f t="shared" si="147"/>
+        <v>4</v>
+      </c>
+      <c r="G2951" s="2">
+        <f t="shared" si="147"/>
+        <v>4</v>
+      </c>
+      <c r="H2951" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2952" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2952" s="3" t="s">
@@ -68451,6 +69051,18 @@
       </c>
       <c r="E2952" s="2">
         <v>1012</v>
+      </c>
+      <c r="F2952" s="2">
+        <f t="shared" si="147"/>
+        <v>72</v>
+      </c>
+      <c r="G2952" s="2">
+        <f t="shared" si="147"/>
+        <v>4</v>
+      </c>
+      <c r="H2952" s="2">
+        <f t="shared" si="146"/>
+        <v>9133</v>
       </c>
       <c r="I2952" s="2">
         <v>910354</v>
@@ -68467,6 +69079,18 @@
       <c r="E2953" s="2">
         <v>1897</v>
       </c>
+      <c r="F2953" s="2">
+        <f t="shared" si="147"/>
+        <v>57</v>
+      </c>
+      <c r="G2953" s="2">
+        <f t="shared" si="147"/>
+        <v>9</v>
+      </c>
+      <c r="H2953" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2954" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2954" s="3"/>
@@ -68479,6 +69103,18 @@
       <c r="E2954" s="2">
         <v>1131</v>
       </c>
+      <c r="F2954" s="2">
+        <f t="shared" si="147"/>
+        <v>24</v>
+      </c>
+      <c r="G2954" s="2">
+        <f t="shared" si="147"/>
+        <v>5</v>
+      </c>
+      <c r="H2954" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2955" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2955" s="3"/>
@@ -68491,6 +69127,18 @@
       <c r="E2955" s="2">
         <v>943</v>
       </c>
+      <c r="F2955" s="2">
+        <f t="shared" si="147"/>
+        <v>33</v>
+      </c>
+      <c r="G2955" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="H2955" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2956" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2956" s="3"/>
@@ -68503,6 +69151,18 @@
       <c r="E2956" s="2">
         <v>949</v>
       </c>
+      <c r="F2956" s="2">
+        <f t="shared" si="147"/>
+        <v>28</v>
+      </c>
+      <c r="G2956" s="2">
+        <f t="shared" si="147"/>
+        <v>6</v>
+      </c>
+      <c r="H2956" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2957" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2957" s="3" t="s">
@@ -68516,6 +69176,18 @@
       </c>
       <c r="E2957" s="2">
         <v>2622</v>
+      </c>
+      <c r="F2957" s="2">
+        <f t="shared" si="147"/>
+        <v>161</v>
+      </c>
+      <c r="G2957" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2957" s="2">
+        <f t="shared" si="146"/>
+        <v>23492</v>
       </c>
       <c r="I2957" s="2">
         <v>1200003</v>
@@ -68532,6 +69204,18 @@
       <c r="E2958" s="2">
         <v>1054</v>
       </c>
+      <c r="F2958" s="2">
+        <f t="shared" si="147"/>
+        <v>69</v>
+      </c>
+      <c r="G2958" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2958" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2959" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2959" s="3"/>
@@ -68544,6 +69228,18 @@
       <c r="E2959" s="2">
         <v>886</v>
       </c>
+      <c r="F2959" s="2">
+        <f t="shared" si="147"/>
+        <v>30</v>
+      </c>
+      <c r="G2959" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H2959" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2960" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2960" s="3"/>
@@ -68556,6 +69252,18 @@
       <c r="E2960" s="2">
         <v>265</v>
       </c>
+      <c r="F2960" s="2">
+        <f t="shared" si="147"/>
+        <v>24</v>
+      </c>
+      <c r="G2960" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="H2960" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2961" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2961" s="3"/>
@@ -68568,6 +69276,18 @@
       <c r="E2961" s="2">
         <v>107</v>
       </c>
+      <c r="F2961" s="2">
+        <f t="shared" si="147"/>
+        <v>27</v>
+      </c>
+      <c r="G2961" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H2961" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2962" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2962" s="3" t="s">
@@ -68581,6 +69301,18 @@
       </c>
       <c r="E2962" s="2">
         <v>1628</v>
+      </c>
+      <c r="F2962" s="2">
+        <f t="shared" si="147"/>
+        <v>90</v>
+      </c>
+      <c r="G2962" s="2">
+        <f t="shared" si="147"/>
+        <v>7</v>
+      </c>
+      <c r="H2962" s="2">
+        <f t="shared" si="146"/>
+        <v>16424</v>
       </c>
       <c r="I2962" s="2">
         <f>SUM(92148+774378)</f>
@@ -68598,6 +69330,18 @@
       <c r="E2963" s="2">
         <v>818</v>
       </c>
+      <c r="F2963" s="2">
+        <f t="shared" si="147"/>
+        <v>36</v>
+      </c>
+      <c r="G2963" s="2">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="H2963" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2964" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2964" s="3"/>
@@ -68610,6 +69354,18 @@
       <c r="E2964" s="2">
         <v>706</v>
       </c>
+      <c r="F2964" s="2">
+        <f t="shared" si="147"/>
+        <v>43</v>
+      </c>
+      <c r="G2964" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="H2964" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2965" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2965" s="3"/>
@@ -68622,6 +69378,18 @@
       <c r="E2965" s="2">
         <v>312</v>
       </c>
+      <c r="F2965" s="2">
+        <f t="shared" si="147"/>
+        <v>20</v>
+      </c>
+      <c r="G2965" s="2">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="H2965" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2966" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2966" s="3"/>
@@ -68634,6 +69402,18 @@
       <c r="E2966" s="2">
         <v>355</v>
       </c>
+      <c r="F2966" s="2">
+        <f t="shared" si="147"/>
+        <v>17</v>
+      </c>
+      <c r="G2966" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="H2966" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2967" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2967" s="3" t="s">
@@ -68647,6 +69427,18 @@
       </c>
       <c r="E2967" s="2">
         <v>3642</v>
+      </c>
+      <c r="F2967" s="2">
+        <f t="shared" si="147"/>
+        <v>2436</v>
+      </c>
+      <c r="G2967" s="2">
+        <f t="shared" si="147"/>
+        <v>63</v>
+      </c>
+      <c r="H2967" s="2">
+        <f t="shared" si="146"/>
+        <v>82259</v>
       </c>
       <c r="I2967" s="2">
         <v>5078434</v>
@@ -68663,6 +69455,18 @@
       <c r="E2968" s="2">
         <v>406</v>
       </c>
+      <c r="F2968" s="2">
+        <f t="shared" si="147"/>
+        <v>264</v>
+      </c>
+      <c r="G2968" s="2">
+        <f t="shared" si="147"/>
+        <v>7</v>
+      </c>
+      <c r="H2968" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2969" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2969" s="3"/>
@@ -68675,6 +69479,18 @@
       <c r="E2969" s="2">
         <v>515</v>
       </c>
+      <c r="F2969" s="2">
+        <f t="shared" si="147"/>
+        <v>763</v>
+      </c>
+      <c r="G2969" s="2">
+        <f t="shared" si="147"/>
+        <v>9</v>
+      </c>
+      <c r="H2969" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2970" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2970" s="3" t="s">
@@ -68686,6 +69502,18 @@
       <c r="E2970" s="2">
         <v>165</v>
       </c>
+      <c r="F2970" s="2">
+        <f t="shared" si="147"/>
+        <v>72</v>
+      </c>
+      <c r="G2970" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H2970" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2971" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C2971" s="3" t="s">
@@ -68697,6 +69525,18 @@
       <c r="E2971" s="2">
         <v>376</v>
       </c>
+      <c r="F2971" s="2">
+        <f t="shared" si="147"/>
+        <v>347</v>
+      </c>
+      <c r="G2971" s="2">
+        <f t="shared" si="147"/>
+        <v>7</v>
+      </c>
+      <c r="H2971" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2972" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2972" s="1">
@@ -68713,6 +69553,18 @@
       </c>
       <c r="E2972" s="2">
         <v>4035</v>
+      </c>
+      <c r="F2972" s="2">
+        <f t="shared" si="147"/>
+        <v>75</v>
+      </c>
+      <c r="G2972" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H2972" s="2">
+        <f t="shared" si="146"/>
+        <v>65564</v>
       </c>
       <c r="I2972" s="2">
         <v>4468016</v>
@@ -68729,6 +69581,18 @@
       <c r="E2973" s="2">
         <v>4535</v>
       </c>
+      <c r="F2973" s="2">
+        <f t="shared" si="147"/>
+        <v>75</v>
+      </c>
+      <c r="G2973" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2973" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2974" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2974" s="3"/>
@@ -68741,6 +69605,18 @@
       <c r="E2974" s="2">
         <v>2699</v>
       </c>
+      <c r="F2974" s="2">
+        <f t="shared" si="147"/>
+        <v>42</v>
+      </c>
+      <c r="G2974" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H2974" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2975" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2975" s="3"/>
@@ -68753,6 +69629,18 @@
       <c r="E2975" s="2">
         <v>3052</v>
       </c>
+      <c r="F2975" s="2">
+        <f t="shared" si="147"/>
+        <v>50</v>
+      </c>
+      <c r="G2975" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2975" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2976" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2976" s="3"/>
@@ -68765,6 +69653,18 @@
       <c r="E2976" s="2">
         <v>2037</v>
       </c>
+      <c r="F2976" s="2">
+        <f t="shared" si="147"/>
+        <v>50</v>
+      </c>
+      <c r="G2976" s="2">
+        <f t="shared" si="147"/>
+        <v>7</v>
+      </c>
+      <c r="H2976" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2977" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2977" s="3" t="s">
@@ -68778,6 +69678,18 @@
       </c>
       <c r="E2977" s="2">
         <v>1748</v>
+      </c>
+      <c r="F2977" s="2">
+        <f t="shared" si="147"/>
+        <v>39</v>
+      </c>
+      <c r="G2977" s="2">
+        <f t="shared" si="147"/>
+        <v>-1</v>
+      </c>
+      <c r="H2977" s="2">
+        <f t="shared" si="146"/>
+        <v>21569</v>
       </c>
       <c r="I2977" s="2">
         <v>1599417</v>
@@ -68794,6 +69706,18 @@
       <c r="E2978" s="2">
         <v>1298</v>
       </c>
+      <c r="F2978" s="2">
+        <f t="shared" si="147"/>
+        <v>13</v>
+      </c>
+      <c r="G2978" s="2">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="H2978" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2979" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2979" s="3"/>
@@ -68806,6 +69730,18 @@
       <c r="E2979" s="2">
         <v>1811</v>
       </c>
+      <c r="F2979" s="2">
+        <f t="shared" si="147"/>
+        <v>8</v>
+      </c>
+      <c r="G2979" s="2">
+        <f t="shared" si="147"/>
+        <v>6</v>
+      </c>
+      <c r="H2979" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2980" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2980" s="3"/>
@@ -68818,6 +69754,18 @@
       <c r="E2980" s="2">
         <v>1157</v>
       </c>
+      <c r="F2980" s="2">
+        <f t="shared" si="147"/>
+        <v>19</v>
+      </c>
+      <c r="G2980" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="H2980" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2981" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2981" s="3"/>
@@ -68830,6 +69778,18 @@
       <c r="E2981" s="2">
         <v>1058</v>
       </c>
+      <c r="F2981" s="2">
+        <f t="shared" si="147"/>
+        <v>22</v>
+      </c>
+      <c r="G2981" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2981" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2982" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2982" s="3" t="s">
@@ -68843,6 +69803,18 @@
       </c>
       <c r="E2982" s="2">
         <v>1013</v>
+      </c>
+      <c r="F2982" s="2">
+        <f t="shared" si="147"/>
+        <v>52</v>
+      </c>
+      <c r="G2982" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2982" s="2">
+        <f t="shared" si="146"/>
+        <v>9648</v>
       </c>
       <c r="I2982" s="2">
         <v>920002</v>
@@ -68859,6 +69831,18 @@
       <c r="E2983" s="2">
         <v>1903</v>
       </c>
+      <c r="F2983" s="2">
+        <f t="shared" si="147"/>
+        <v>48</v>
+      </c>
+      <c r="G2983" s="2">
+        <f t="shared" si="147"/>
+        <v>6</v>
+      </c>
+      <c r="H2983" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2984" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2984" s="3"/>
@@ -68871,6 +69855,18 @@
       <c r="E2984" s="2">
         <v>1133</v>
       </c>
+      <c r="F2984" s="2">
+        <f t="shared" si="147"/>
+        <v>37</v>
+      </c>
+      <c r="G2984" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="H2984" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2985" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2985" s="3"/>
@@ -68883,6 +69879,18 @@
       <c r="E2985" s="2">
         <v>950</v>
       </c>
+      <c r="F2985" s="2">
+        <f t="shared" si="147"/>
+        <v>45</v>
+      </c>
+      <c r="G2985" s="2">
+        <f t="shared" si="147"/>
+        <v>7</v>
+      </c>
+      <c r="H2985" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2986" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2986" s="3"/>
@@ -68895,6 +69903,18 @@
       <c r="E2986" s="2">
         <v>954</v>
       </c>
+      <c r="F2986" s="2">
+        <f t="shared" si="147"/>
+        <v>21</v>
+      </c>
+      <c r="G2986" s="2">
+        <f t="shared" si="147"/>
+        <v>5</v>
+      </c>
+      <c r="H2986" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2987" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2987" s="3" t="s">
@@ -68908,6 +69928,18 @@
       </c>
       <c r="E2987" s="2">
         <v>2623</v>
+      </c>
+      <c r="F2987" s="2">
+        <f t="shared" si="147"/>
+        <v>88</v>
+      </c>
+      <c r="G2987" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2987" s="2">
+        <f t="shared" si="146"/>
+        <v>23550</v>
       </c>
       <c r="I2987" s="2">
         <v>1223553</v>
@@ -68924,6 +69956,18 @@
       <c r="E2988" s="2">
         <v>1055</v>
       </c>
+      <c r="F2988" s="2">
+        <f t="shared" si="147"/>
+        <v>79</v>
+      </c>
+      <c r="G2988" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2988" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2989" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2989" s="3"/>
@@ -68936,6 +69980,18 @@
       <c r="E2989" s="2">
         <v>886</v>
       </c>
+      <c r="F2989" s="2">
+        <f t="shared" si="147"/>
+        <v>39</v>
+      </c>
+      <c r="G2989" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H2989" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2990" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2990" s="3"/>
@@ -68948,6 +70004,18 @@
       <c r="E2990" s="2">
         <v>265</v>
       </c>
+      <c r="F2990" s="2">
+        <f t="shared" si="147"/>
+        <v>7</v>
+      </c>
+      <c r="G2990" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H2990" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2991" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2991" s="3"/>
@@ -68960,6 +70028,18 @@
       <c r="E2991" s="2">
         <v>107</v>
       </c>
+      <c r="F2991" s="2">
+        <f t="shared" si="147"/>
+        <v>21</v>
+      </c>
+      <c r="G2991" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H2991" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2992" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2992" s="3" t="s">
@@ -68973,6 +70053,18 @@
       </c>
       <c r="E2992" s="2">
         <v>1633</v>
+      </c>
+      <c r="F2992" s="2">
+        <f t="shared" si="147"/>
+        <v>161</v>
+      </c>
+      <c r="G2992" s="2">
+        <f t="shared" si="147"/>
+        <v>5</v>
+      </c>
+      <c r="H2992" s="2">
+        <f t="shared" si="146"/>
+        <v>13497</v>
       </c>
       <c r="I2992" s="2">
         <f>SUM(92867+787156)</f>
@@ -68990,6 +70082,18 @@
       <c r="E2993" s="2">
         <v>822</v>
       </c>
+      <c r="F2993" s="2">
+        <f t="shared" si="147"/>
+        <v>31</v>
+      </c>
+      <c r="G2993" s="2">
+        <f t="shared" si="147"/>
+        <v>4</v>
+      </c>
+      <c r="H2993" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2994" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2994" s="3"/>
@@ -69002,6 +70106,18 @@
       <c r="E2994" s="2">
         <v>706</v>
       </c>
+      <c r="F2994" s="2">
+        <f t="shared" si="147"/>
+        <v>20</v>
+      </c>
+      <c r="G2994" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H2994" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2995" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2995" s="3"/>
@@ -69014,6 +70130,18 @@
       <c r="E2995" s="2">
         <v>315</v>
       </c>
+      <c r="F2995" s="2">
+        <f t="shared" si="147"/>
+        <v>16</v>
+      </c>
+      <c r="G2995" s="2">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="H2995" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2996" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2996" s="3"/>
@@ -69026,6 +70154,18 @@
       <c r="E2996" s="2">
         <v>356</v>
       </c>
+      <c r="F2996" s="2">
+        <f t="shared" si="147"/>
+        <v>24</v>
+      </c>
+      <c r="G2996" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H2996" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2997" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2997" s="3" t="s">
@@ -69039,6 +70179,18 @@
       </c>
       <c r="E2997" s="2">
         <v>3689</v>
+      </c>
+      <c r="F2997" s="2">
+        <f t="shared" si="147"/>
+        <v>1600</v>
+      </c>
+      <c r="G2997" s="2">
+        <f t="shared" si="147"/>
+        <v>47</v>
+      </c>
+      <c r="H2997" s="2">
+        <f t="shared" si="146"/>
+        <v>97303</v>
       </c>
       <c r="I2997" s="2">
         <v>5175737</v>
@@ -69055,6 +70207,18 @@
       <c r="E2998" s="2">
         <v>415</v>
       </c>
+      <c r="F2998" s="2">
+        <f t="shared" si="147"/>
+        <v>560</v>
+      </c>
+      <c r="G2998" s="2">
+        <f t="shared" si="147"/>
+        <v>9</v>
+      </c>
+      <c r="H2998" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="2999" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B2999" s="3"/>
@@ -69067,6 +70231,18 @@
       <c r="E2999" s="2">
         <v>533</v>
       </c>
+      <c r="F2999" s="2">
+        <f t="shared" si="147"/>
+        <v>938</v>
+      </c>
+      <c r="G2999" s="2">
+        <f t="shared" si="147"/>
+        <v>18</v>
+      </c>
+      <c r="H2999" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3000" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3000" s="3" t="s">
@@ -69078,6 +70254,18 @@
       <c r="E3000" s="2">
         <v>166</v>
       </c>
+      <c r="F3000" s="2">
+        <f t="shared" si="147"/>
+        <v>128</v>
+      </c>
+      <c r="G3000" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H3000" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3001" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3001" s="3" t="s">
@@ -69089,6 +70277,18 @@
       <c r="E3001" s="2">
         <v>402</v>
       </c>
+      <c r="F3001" s="2">
+        <f t="shared" si="147"/>
+        <v>872</v>
+      </c>
+      <c r="G3001" s="2">
+        <f t="shared" si="147"/>
+        <v>26</v>
+      </c>
+      <c r="H3001" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3002" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3002" s="1">
@@ -69105,6 +70305,18 @@
       </c>
       <c r="E3002" s="2">
         <v>4036</v>
+      </c>
+      <c r="F3002" s="2">
+        <f t="shared" si="147"/>
+        <v>67</v>
+      </c>
+      <c r="G3002" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H3002" s="2">
+        <f t="shared" si="146"/>
+        <v>73558</v>
       </c>
       <c r="I3002" s="2">
         <v>4541574</v>
@@ -69121,6 +70333,18 @@
       <c r="E3003" s="2">
         <v>4535</v>
       </c>
+      <c r="F3003" s="2">
+        <f t="shared" si="147"/>
+        <v>99</v>
+      </c>
+      <c r="G3003" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H3003" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3004" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3004" s="3"/>
@@ -69133,6 +70357,18 @@
       <c r="E3004" s="2">
         <v>2701</v>
       </c>
+      <c r="F3004" s="2">
+        <f t="shared" si="147"/>
+        <v>68</v>
+      </c>
+      <c r="G3004" s="2">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+      <c r="H3004" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3005" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3005" s="3"/>
@@ -69145,6 +70381,18 @@
       <c r="E3005" s="2">
         <v>3052</v>
       </c>
+      <c r="F3005" s="2">
+        <f t="shared" si="147"/>
+        <v>82</v>
+      </c>
+      <c r="G3005" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H3005" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3006" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3006" s="3"/>
@@ -69157,6 +70405,18 @@
       <c r="E3006" s="2">
         <v>2038</v>
       </c>
+      <c r="F3006" s="2">
+        <f t="shared" si="147"/>
+        <v>62</v>
+      </c>
+      <c r="G3006" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H3006" s="2">
+        <f t="shared" ref="H3006:H3031" si="148">SUM(I3006-I2976)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="3007" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3007" s="3" t="s">
@@ -69170,6 +70430,18 @@
       </c>
       <c r="E3007" s="2">
         <v>1751</v>
+      </c>
+      <c r="F3007" s="2">
+        <f t="shared" si="147"/>
+        <v>56</v>
+      </c>
+      <c r="G3007" s="2">
+        <f t="shared" si="147"/>
+        <v>3</v>
+      </c>
+      <c r="H3007" s="2">
+        <f t="shared" si="148"/>
+        <v>23741</v>
       </c>
       <c r="I3007" s="2">
         <v>1623158</v>
@@ -69186,6 +70458,18 @@
       <c r="E3008" s="2">
         <v>1302</v>
       </c>
+      <c r="F3008" s="2">
+        <f t="shared" si="147"/>
+        <v>19</v>
+      </c>
+      <c r="G3008" s="2">
+        <f t="shared" si="147"/>
+        <v>4</v>
+      </c>
+      <c r="H3008" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3009" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3009" s="3"/>
@@ -69198,6 +70482,18 @@
       <c r="E3009" s="2">
         <v>1812</v>
       </c>
+      <c r="F3009" s="2">
+        <f t="shared" si="147"/>
+        <v>26</v>
+      </c>
+      <c r="G3009" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="H3009" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3010" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3010" s="3"/>
@@ -69210,6 +70506,18 @@
       <c r="E3010" s="2">
         <v>1157</v>
       </c>
+      <c r="F3010" s="2">
+        <f t="shared" si="147"/>
+        <v>-2</v>
+      </c>
+      <c r="G3010" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="H3010" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3011" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3011" s="3"/>
@@ -69222,6 +70530,18 @@
       <c r="E3011" s="2">
         <v>1060</v>
       </c>
+      <c r="F3011" s="2">
+        <f t="shared" ref="F3011:G3031" si="149">SUM(D3011-D2981)</f>
+        <v>30</v>
+      </c>
+      <c r="G3011" s="2">
+        <f t="shared" si="149"/>
+        <v>2</v>
+      </c>
+      <c r="H3011" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3012" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3012" s="3" t="s">
@@ -69235,6 +70555,18 @@
       </c>
       <c r="E3012" s="2">
         <v>1016</v>
+      </c>
+      <c r="F3012" s="2">
+        <f t="shared" si="149"/>
+        <v>56</v>
+      </c>
+      <c r="G3012" s="2">
+        <f t="shared" si="149"/>
+        <v>3</v>
+      </c>
+      <c r="H3012" s="2">
+        <f t="shared" si="148"/>
+        <v>12794</v>
       </c>
       <c r="I3012" s="2">
         <v>932796</v>
@@ -69251,6 +70583,18 @@
       <c r="E3013" s="2">
         <v>1908</v>
       </c>
+      <c r="F3013" s="2">
+        <f t="shared" si="149"/>
+        <v>29</v>
+      </c>
+      <c r="G3013" s="2">
+        <f t="shared" si="149"/>
+        <v>5</v>
+      </c>
+      <c r="H3013" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3014" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3014" s="3"/>
@@ -69263,6 +70607,18 @@
       <c r="E3014" s="2">
         <v>1136</v>
       </c>
+      <c r="F3014" s="2">
+        <f t="shared" si="149"/>
+        <v>35</v>
+      </c>
+      <c r="G3014" s="2">
+        <f t="shared" si="149"/>
+        <v>3</v>
+      </c>
+      <c r="H3014" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3015" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3015" s="3"/>
@@ -69275,6 +70631,18 @@
       <c r="E3015" s="2">
         <v>956</v>
       </c>
+      <c r="F3015" s="2">
+        <f t="shared" si="149"/>
+        <v>19</v>
+      </c>
+      <c r="G3015" s="2">
+        <f t="shared" si="149"/>
+        <v>6</v>
+      </c>
+      <c r="H3015" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3016" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3016" s="3"/>
@@ -69287,6 +70655,18 @@
       <c r="E3016" s="2">
         <v>958</v>
       </c>
+      <c r="F3016" s="2">
+        <f t="shared" si="149"/>
+        <v>20</v>
+      </c>
+      <c r="G3016" s="2">
+        <f t="shared" si="149"/>
+        <v>4</v>
+      </c>
+      <c r="H3016" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3017" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3017" s="3" t="s">
@@ -69300,6 +70680,18 @@
       </c>
       <c r="E3017" s="2">
         <v>2628</v>
+      </c>
+      <c r="F3017" s="2">
+        <f t="shared" si="149"/>
+        <v>110</v>
+      </c>
+      <c r="G3017" s="2">
+        <f t="shared" si="149"/>
+        <v>5</v>
+      </c>
+      <c r="H3017" s="2">
+        <f t="shared" si="148"/>
+        <v>23252</v>
       </c>
       <c r="I3017" s="2">
         <v>1246805</v>
@@ -69316,6 +70708,18 @@
       <c r="E3018" s="2">
         <v>1060</v>
       </c>
+      <c r="F3018" s="2">
+        <f t="shared" si="149"/>
+        <v>83</v>
+      </c>
+      <c r="G3018" s="2">
+        <f t="shared" si="149"/>
+        <v>5</v>
+      </c>
+      <c r="H3018" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3019" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3019" s="3"/>
@@ -69328,6 +70732,18 @@
       <c r="E3019" s="2">
         <v>887</v>
       </c>
+      <c r="F3019" s="2">
+        <f t="shared" si="149"/>
+        <v>47</v>
+      </c>
+      <c r="G3019" s="2">
+        <f t="shared" si="149"/>
+        <v>1</v>
+      </c>
+      <c r="H3019" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3020" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3020" s="3"/>
@@ -69340,6 +70756,18 @@
       <c r="E3020" s="2">
         <v>266</v>
       </c>
+      <c r="F3020" s="2">
+        <f t="shared" si="149"/>
+        <v>20</v>
+      </c>
+      <c r="G3020" s="2">
+        <f t="shared" si="149"/>
+        <v>1</v>
+      </c>
+      <c r="H3020" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3021" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3021" s="3"/>
@@ -69352,6 +70780,18 @@
       <c r="E3021" s="2">
         <v>107</v>
       </c>
+      <c r="F3021" s="2">
+        <f t="shared" si="149"/>
+        <v>40</v>
+      </c>
+      <c r="G3021" s="2">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="H3021" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3022" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3022" s="3" t="s">
@@ -69365,6 +70805,18 @@
       </c>
       <c r="E3022" s="2">
         <v>1635</v>
+      </c>
+      <c r="F3022" s="2">
+        <f t="shared" si="149"/>
+        <v>182</v>
+      </c>
+      <c r="G3022" s="2">
+        <f t="shared" si="149"/>
+        <v>2</v>
+      </c>
+      <c r="H3022" s="2">
+        <f t="shared" si="148"/>
+        <v>18617</v>
       </c>
       <c r="I3022" s="2">
         <f>SUM(93876+804764)</f>
@@ -69382,6 +70834,18 @@
       <c r="E3023" s="2">
         <v>826</v>
       </c>
+      <c r="F3023" s="2">
+        <f t="shared" si="149"/>
+        <v>41</v>
+      </c>
+      <c r="G3023" s="2">
+        <f t="shared" si="149"/>
+        <v>4</v>
+      </c>
+      <c r="H3023" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3024" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3024" s="3"/>
@@ -69394,8 +70858,20 @@
       <c r="E3024" s="2">
         <v>709</v>
       </c>
-    </row>
-    <row r="3025" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3024" s="2">
+        <f t="shared" si="149"/>
+        <v>48</v>
+      </c>
+      <c r="G3024" s="2">
+        <f t="shared" si="149"/>
+        <v>3</v>
+      </c>
+      <c r="H3024" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3025" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3025" s="3"/>
       <c r="C3025" s="3" t="s">
         <v>40</v>
@@ -69406,8 +70882,20 @@
       <c r="E3025" s="2">
         <v>319</v>
       </c>
-    </row>
-    <row r="3026" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3025" s="2">
+        <f t="shared" si="149"/>
+        <v>21</v>
+      </c>
+      <c r="G3025" s="2">
+        <f t="shared" si="149"/>
+        <v>4</v>
+      </c>
+      <c r="H3025" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3026" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3026" s="3"/>
       <c r="C3026" s="3" t="s">
         <v>41</v>
@@ -69418,35 +70906,107 @@
       <c r="E3026" s="2">
         <v>357</v>
       </c>
-    </row>
-    <row r="3027" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3026" s="2">
+        <f t="shared" si="149"/>
+        <v>16</v>
+      </c>
+      <c r="G3026" s="2">
+        <f t="shared" si="149"/>
+        <v>1</v>
+      </c>
+      <c r="H3026" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3027" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3027" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3027" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3028" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3027" s="2">
+        <f t="shared" si="149"/>
+        <v>-125062</v>
+      </c>
+      <c r="G3027" s="2">
+        <f t="shared" si="149"/>
+        <v>-3689</v>
+      </c>
+      <c r="H3027" s="2">
+        <f t="shared" si="148"/>
+        <v>-5175737</v>
+      </c>
+    </row>
+    <row r="3028" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3028" s="3"/>
       <c r="C3028" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3029" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3028" s="2">
+        <f t="shared" si="149"/>
+        <v>-18404</v>
+      </c>
+      <c r="G3028" s="2">
+        <f t="shared" si="149"/>
+        <v>-415</v>
+      </c>
+      <c r="H3028" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3029" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3029" s="3"/>
       <c r="C3029" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3030" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3029" s="2">
+        <f t="shared" si="149"/>
+        <v>-24980</v>
+      </c>
+      <c r="G3029" s="2">
+        <f t="shared" si="149"/>
+        <v>-533</v>
+      </c>
+      <c r="H3029" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3030" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3030" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3031" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3030" s="2">
+        <f t="shared" si="149"/>
+        <v>-5638</v>
+      </c>
+      <c r="G3030" s="2">
+        <f t="shared" si="149"/>
+        <v>-166</v>
+      </c>
+      <c r="H3030" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3031" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3031" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="F3031" s="2">
+        <f t="shared" si="149"/>
+        <v>-22960</v>
+      </c>
+      <c r="G3031" s="2">
+        <f t="shared" si="149"/>
+        <v>-402</v>
+      </c>
+      <c r="H3031" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E910D1-7B8A-9741-A3AA-DD0E64B027BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8980AB6E-7D52-894D-8B87-EEA7452C0BC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="480" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16280" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M3031"/>
+  <dimension ref="A1:M3061"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2968" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2942" sqref="G2942"/>
+    <sheetView tabSelected="1" topLeftCell="A3010" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3032" sqref="E3032"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -67382,7 +67382,7 @@
         <v>1</v>
       </c>
       <c r="H2885" s="2">
-        <f t="shared" ref="H2885:H2941" si="145">SUM(I2885-I2855)</f>
+        <f t="shared" ref="H2885:H2940" si="145">SUM(I2885-I2855)</f>
         <v>0</v>
       </c>
     </row>
@@ -70871,7 +70871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3025" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3025" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3025" s="3"/>
       <c r="C3025" s="3" t="s">
         <v>40</v>
@@ -70895,7 +70895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3026" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3026" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3026" s="3"/>
       <c r="C3026" s="3" t="s">
         <v>41</v>
@@ -70919,94 +70919,486 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3027" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3027" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3027" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3027" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D3027" s="2">
+        <v>127503</v>
+      </c>
+      <c r="E3027" s="2">
+        <v>3738</v>
+      </c>
       <c r="F3027" s="2">
         <f t="shared" si="149"/>
-        <v>-125062</v>
+        <v>2441</v>
       </c>
       <c r="G3027" s="2">
         <f t="shared" si="149"/>
-        <v>-3689</v>
+        <v>49</v>
       </c>
       <c r="H3027" s="2">
         <f t="shared" si="148"/>
-        <v>-5175737</v>
-      </c>
-    </row>
-    <row r="3028" spans="2:8" x14ac:dyDescent="0.2">
+        <v>99958</v>
+      </c>
+      <c r="I3027" s="2">
+        <v>5275695</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3028" s="3"/>
       <c r="C3028" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="D3028" s="2">
+        <v>18862</v>
+      </c>
+      <c r="E3028" s="2">
+        <v>420</v>
+      </c>
       <c r="F3028" s="2">
         <f t="shared" si="149"/>
-        <v>-18404</v>
+        <v>458</v>
       </c>
       <c r="G3028" s="2">
         <f t="shared" si="149"/>
-        <v>-415</v>
+        <v>5</v>
       </c>
       <c r="H3028" s="2">
         <f t="shared" si="148"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3029" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3029" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3029" s="3"/>
       <c r="C3029" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D3029" s="2">
+        <v>25481</v>
+      </c>
+      <c r="E3029" s="2">
+        <v>537</v>
+      </c>
       <c r="F3029" s="2">
         <f t="shared" si="149"/>
-        <v>-24980</v>
+        <v>501</v>
       </c>
       <c r="G3029" s="2">
         <f t="shared" si="149"/>
-        <v>-533</v>
+        <v>4</v>
       </c>
       <c r="H3029" s="2">
         <f t="shared" si="148"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3030" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3030" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3030" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D3030" s="2">
+        <v>5819</v>
+      </c>
+      <c r="E3030" s="2">
+        <v>166</v>
+      </c>
       <c r="F3030" s="2">
         <f t="shared" si="149"/>
-        <v>-5638</v>
+        <v>181</v>
       </c>
       <c r="G3030" s="2">
         <f t="shared" si="149"/>
-        <v>-166</v>
+        <v>0</v>
       </c>
       <c r="H3030" s="2">
         <f t="shared" si="148"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3031" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="3031" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3031" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D3031" s="2">
+        <v>23692</v>
+      </c>
+      <c r="E3031" s="2">
+        <v>412</v>
+      </c>
       <c r="F3031" s="2">
         <f t="shared" si="149"/>
-        <v>-22960</v>
+        <v>732</v>
       </c>
       <c r="G3031" s="2">
         <f t="shared" si="149"/>
-        <v>-402</v>
+        <v>10</v>
       </c>
       <c r="H3031" s="2">
         <f t="shared" si="148"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3032" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B3032" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3032" s="2">
+        <v>66323</v>
+      </c>
+      <c r="E3032" s="2">
+        <v>4036</v>
+      </c>
+      <c r="I3032" s="2">
+        <v>4610777</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3033" s="3"/>
+      <c r="C3033" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3033" s="2">
+        <v>60647</v>
+      </c>
+      <c r="E3033" s="2">
+        <v>4535</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3034" s="3"/>
+      <c r="C3034" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3034" s="2">
+        <v>42267</v>
+      </c>
+      <c r="E3034" s="2">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3035" s="3"/>
+      <c r="C3035" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3035" s="2">
+        <v>48267</v>
+      </c>
+      <c r="E3035" s="2">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3036" s="3"/>
+      <c r="C3036" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3036" s="2">
+        <v>41987</v>
+      </c>
+      <c r="E3036" s="2">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3037" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3037" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3037" s="2">
+        <v>19847</v>
+      </c>
+      <c r="E3037" s="2">
+        <v>1756</v>
+      </c>
+      <c r="I3037" s="2">
+        <v>1661284</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3038" s="3"/>
+      <c r="C3038" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3038" s="2">
+        <v>19089</v>
+      </c>
+      <c r="E3038" s="2">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3039" s="3"/>
+      <c r="C3039" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3039" s="2">
+        <v>18988</v>
+      </c>
+      <c r="E3039" s="2">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3040" s="3"/>
+      <c r="C3040" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3040" s="2">
+        <v>16471</v>
+      </c>
+      <c r="E3040" s="2">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="3041" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3041" s="3"/>
+      <c r="C3041" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3041" s="2">
+        <v>17050</v>
+      </c>
+      <c r="E3041" s="2">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="3042" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3042" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3042" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3042" s="2">
+        <v>20272</v>
+      </c>
+      <c r="E3042" s="2">
+        <v>1018</v>
+      </c>
+      <c r="I3042" s="2">
+        <v>940393</v>
+      </c>
+    </row>
+    <row r="3043" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3043" s="3"/>
+      <c r="C3043" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3043" s="2">
+        <v>24436</v>
+      </c>
+      <c r="E3043" s="2">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="3044" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3044" s="3"/>
+      <c r="C3044" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3044" s="2">
+        <v>16452</v>
+      </c>
+      <c r="E3044" s="2">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="3045" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3045" s="3"/>
+      <c r="C3045" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3045" s="2">
+        <v>9440</v>
+      </c>
+      <c r="E3045" s="2">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="3046" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3046" s="3"/>
+      <c r="C3046" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3046" s="2">
+        <v>12629</v>
+      </c>
+      <c r="E3046" s="2">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3047" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3047" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3047" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3047" s="2">
+        <v>22834</v>
+      </c>
+      <c r="E3047" s="2">
+        <v>2638</v>
+      </c>
+      <c r="I3047" s="2">
+        <v>1274122</v>
+      </c>
+    </row>
+    <row r="3048" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3048" s="3"/>
+      <c r="C3048" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3048" s="2">
+        <v>9481</v>
+      </c>
+      <c r="E3048" s="2">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="3049" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3049" s="3"/>
+      <c r="C3049" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3049" s="2">
+        <v>7539</v>
+      </c>
+      <c r="E3049" s="2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="3050" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3050" s="3"/>
+      <c r="C3050" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3050" s="2">
+        <v>2310</v>
+      </c>
+      <c r="E3050" s="2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3051" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3051" s="3"/>
+      <c r="C3051" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3051" s="2">
+        <v>1674</v>
+      </c>
+      <c r="E3051" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3052" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3052" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3052" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3052" s="2">
+        <v>22840</v>
+      </c>
+      <c r="E3052" s="2">
+        <v>1636</v>
+      </c>
+      <c r="I3052" s="2">
+        <f>SUM(817634+94689)</f>
+        <v>912323</v>
+      </c>
+    </row>
+    <row r="3053" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3053" s="3"/>
+      <c r="C3053" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3053" s="2">
+        <v>8828</v>
+      </c>
+      <c r="E3053" s="2">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="3054" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3054" s="3"/>
+      <c r="C3054" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3054" s="2">
+        <v>7513</v>
+      </c>
+      <c r="E3054" s="2">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="3055" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3055" s="3"/>
+      <c r="C3055" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3055" s="2">
+        <v>4424</v>
+      </c>
+      <c r="E3055" s="2">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3056" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3056" s="3"/>
+      <c r="C3056" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3056" s="2">
+        <v>4680</v>
+      </c>
+      <c r="E3056" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3057" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3057" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3057" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3058" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3058" s="3"/>
+      <c r="C3058" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3059" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3059" s="3"/>
+      <c r="C3059" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3060" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3060" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3061" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C3061" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8980AB6E-7D52-894D-8B87-EEA7452C0BC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79C3AE8-5879-C34E-8FA6-480BC2FBD805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M3061"/>
+  <dimension ref="A1:M3211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3010" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3032" sqref="E3032"/>
+    <sheetView tabSelected="1" topLeftCell="A3152" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3179" sqref="G3179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70414,7 +70414,7 @@
         <v>1</v>
       </c>
       <c r="H3006" s="2">
-        <f t="shared" ref="H3006:H3031" si="148">SUM(I3006-I2976)</f>
+        <f t="shared" ref="H3006:H3069" si="148">SUM(I3006-I2976)</f>
         <v>0</v>
       </c>
     </row>
@@ -70531,7 +70531,7 @@
         <v>1060</v>
       </c>
       <c r="F3011" s="2">
-        <f t="shared" ref="F3011:G3031" si="149">SUM(D3011-D2981)</f>
+        <f t="shared" ref="F3011:G3032" si="149">SUM(D3011-D2981)</f>
         <v>30</v>
       </c>
       <c r="G3011" s="2">
@@ -71058,6 +71058,18 @@
       <c r="E3032" s="2">
         <v>4036</v>
       </c>
+      <c r="F3032" s="2">
+        <f t="shared" si="149"/>
+        <v>82</v>
+      </c>
+      <c r="G3032" s="2">
+        <f t="shared" si="149"/>
+        <v>0</v>
+      </c>
+      <c r="H3032" s="2">
+        <f t="shared" si="148"/>
+        <v>69203</v>
+      </c>
       <c r="I3032" s="2">
         <v>4610777</v>
       </c>
@@ -71073,6 +71085,18 @@
       <c r="E3033" s="2">
         <v>4535</v>
       </c>
+      <c r="F3033" s="2">
+        <f t="shared" ref="F3033:G3096" si="150">SUM(D3033-D3003)</f>
+        <v>87</v>
+      </c>
+      <c r="G3033" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3033" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3034" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3034" s="3"/>
@@ -71085,6 +71109,18 @@
       <c r="E3034" s="2">
         <v>2701</v>
       </c>
+      <c r="F3034" s="2">
+        <f t="shared" si="150"/>
+        <v>35</v>
+      </c>
+      <c r="G3034" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3034" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3035" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3035" s="3"/>
@@ -71097,6 +71133,18 @@
       <c r="E3035" s="2">
         <v>3053</v>
       </c>
+      <c r="F3035" s="2">
+        <f t="shared" si="150"/>
+        <v>59</v>
+      </c>
+      <c r="G3035" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3035" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3036" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3036" s="3"/>
@@ -71109,6 +71157,18 @@
       <c r="E3036" s="2">
         <v>2039</v>
       </c>
+      <c r="F3036" s="2">
+        <f t="shared" si="150"/>
+        <v>76</v>
+      </c>
+      <c r="G3036" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3036" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3037" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3037" s="3" t="s">
@@ -71122,6 +71182,18 @@
       </c>
       <c r="E3037" s="2">
         <v>1756</v>
+      </c>
+      <c r="F3037" s="2">
+        <f t="shared" si="150"/>
+        <v>20</v>
+      </c>
+      <c r="G3037" s="2">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="H3037" s="2">
+        <f t="shared" si="148"/>
+        <v>38126</v>
       </c>
       <c r="I3037" s="2">
         <v>1661284</v>
@@ -71138,6 +71210,18 @@
       <c r="E3038" s="2">
         <v>1303</v>
       </c>
+      <c r="F3038" s="2">
+        <f t="shared" si="150"/>
+        <v>33</v>
+      </c>
+      <c r="G3038" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3038" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3039" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3039" s="3"/>
@@ -71150,6 +71234,18 @@
       <c r="E3039" s="2">
         <v>1821</v>
       </c>
+      <c r="F3039" s="2">
+        <f t="shared" si="150"/>
+        <v>34</v>
+      </c>
+      <c r="G3039" s="2">
+        <f t="shared" si="150"/>
+        <v>9</v>
+      </c>
+      <c r="H3039" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3040" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3040" s="3"/>
@@ -71162,6 +71258,18 @@
       <c r="E3040" s="2">
         <v>1159</v>
       </c>
+      <c r="F3040" s="2">
+        <f t="shared" si="150"/>
+        <v>11</v>
+      </c>
+      <c r="G3040" s="2">
+        <f t="shared" si="150"/>
+        <v>2</v>
+      </c>
+      <c r="H3040" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3041" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3041" s="3"/>
@@ -71174,6 +71282,18 @@
       <c r="E3041" s="2">
         <v>1061</v>
       </c>
+      <c r="F3041" s="2">
+        <f t="shared" si="150"/>
+        <v>20</v>
+      </c>
+      <c r="G3041" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3041" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3042" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3042" s="3" t="s">
@@ -71187,6 +71307,18 @@
       </c>
       <c r="E3042" s="2">
         <v>1018</v>
+      </c>
+      <c r="F3042" s="2">
+        <f t="shared" si="150"/>
+        <v>44</v>
+      </c>
+      <c r="G3042" s="2">
+        <f t="shared" si="150"/>
+        <v>2</v>
+      </c>
+      <c r="H3042" s="2">
+        <f t="shared" si="148"/>
+        <v>7597</v>
       </c>
       <c r="I3042" s="2">
         <v>940393</v>
@@ -71203,6 +71335,18 @@
       <c r="E3043" s="2">
         <v>1913</v>
       </c>
+      <c r="F3043" s="2">
+        <f t="shared" si="150"/>
+        <v>59</v>
+      </c>
+      <c r="G3043" s="2">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="H3043" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3044" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3044" s="3"/>
@@ -71215,6 +71359,18 @@
       <c r="E3044" s="2">
         <v>1136</v>
       </c>
+      <c r="F3044" s="2">
+        <f t="shared" si="150"/>
+        <v>38</v>
+      </c>
+      <c r="G3044" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3044" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3045" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3045" s="3"/>
@@ -71227,6 +71383,18 @@
       <c r="E3045" s="2">
         <v>957</v>
       </c>
+      <c r="F3045" s="2">
+        <f t="shared" si="150"/>
+        <v>37</v>
+      </c>
+      <c r="G3045" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3045" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3046" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3046" s="3"/>
@@ -71239,6 +71407,18 @@
       <c r="E3046" s="2">
         <v>958</v>
       </c>
+      <c r="F3046" s="2">
+        <f t="shared" si="150"/>
+        <v>26</v>
+      </c>
+      <c r="G3046" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3046" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3047" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3047" s="3" t="s">
@@ -71252,6 +71432,18 @@
       </c>
       <c r="E3047" s="2">
         <v>2638</v>
+      </c>
+      <c r="F3047" s="2">
+        <f t="shared" si="150"/>
+        <v>78</v>
+      </c>
+      <c r="G3047" s="2">
+        <f t="shared" si="150"/>
+        <v>10</v>
+      </c>
+      <c r="H3047" s="2">
+        <f t="shared" si="148"/>
+        <v>27317</v>
       </c>
       <c r="I3047" s="2">
         <v>1274122</v>
@@ -71268,6 +71460,18 @@
       <c r="E3048" s="2">
         <v>1066</v>
       </c>
+      <c r="F3048" s="2">
+        <f t="shared" si="150"/>
+        <v>75</v>
+      </c>
+      <c r="G3048" s="2">
+        <f t="shared" si="150"/>
+        <v>6</v>
+      </c>
+      <c r="H3048" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3049" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3049" s="3"/>
@@ -71280,6 +71484,18 @@
       <c r="E3049" s="2">
         <v>891</v>
       </c>
+      <c r="F3049" s="2">
+        <f t="shared" si="150"/>
+        <v>49</v>
+      </c>
+      <c r="G3049" s="2">
+        <f t="shared" si="150"/>
+        <v>4</v>
+      </c>
+      <c r="H3049" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3050" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3050" s="3"/>
@@ -71292,6 +71508,18 @@
       <c r="E3050" s="2">
         <v>266</v>
       </c>
+      <c r="F3050" s="2">
+        <f t="shared" si="150"/>
+        <v>8</v>
+      </c>
+      <c r="G3050" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3050" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3051" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3051" s="3"/>
@@ -71304,6 +71532,18 @@
       <c r="E3051" s="2">
         <v>108</v>
       </c>
+      <c r="F3051" s="2">
+        <f t="shared" si="150"/>
+        <v>25</v>
+      </c>
+      <c r="G3051" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3051" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3052" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3052" s="3" t="s">
@@ -71317,6 +71557,18 @@
       </c>
       <c r="E3052" s="2">
         <v>1636</v>
+      </c>
+      <c r="F3052" s="2">
+        <f t="shared" si="150"/>
+        <v>105</v>
+      </c>
+      <c r="G3052" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3052" s="2">
+        <f t="shared" si="148"/>
+        <v>13683</v>
       </c>
       <c r="I3052" s="2">
         <f>SUM(817634+94689)</f>
@@ -71334,6 +71586,18 @@
       <c r="E3053" s="2">
         <v>829</v>
       </c>
+      <c r="F3053" s="2">
+        <f t="shared" si="150"/>
+        <v>38</v>
+      </c>
+      <c r="G3053" s="2">
+        <f t="shared" si="150"/>
+        <v>3</v>
+      </c>
+      <c r="H3053" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3054" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3054" s="3"/>
@@ -71346,6 +71610,18 @@
       <c r="E3054" s="2">
         <v>709</v>
       </c>
+      <c r="F3054" s="2">
+        <f t="shared" si="150"/>
+        <v>18</v>
+      </c>
+      <c r="G3054" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3054" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3055" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3055" s="3"/>
@@ -71358,6 +71634,18 @@
       <c r="E3055" s="2">
         <v>324</v>
       </c>
+      <c r="F3055" s="2">
+        <f t="shared" si="150"/>
+        <v>33</v>
+      </c>
+      <c r="G3055" s="2">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="H3055" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3056" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3056" s="3"/>
@@ -71370,35 +71658,3382 @@
       <c r="E3056" s="2">
         <v>358</v>
       </c>
-    </row>
-    <row r="3057" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="F3056" s="2">
+        <f t="shared" si="150"/>
+        <v>17</v>
+      </c>
+      <c r="G3056" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3056" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3057" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3057" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3058" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D3057" s="2">
+        <v>130479</v>
+      </c>
+      <c r="E3057" s="2">
+        <v>3793</v>
+      </c>
+      <c r="F3057" s="2">
+        <f t="shared" si="150"/>
+        <v>2976</v>
+      </c>
+      <c r="G3057" s="2">
+        <f t="shared" si="150"/>
+        <v>55</v>
+      </c>
+      <c r="H3057" s="2">
+        <f t="shared" si="148"/>
+        <v>130904</v>
+      </c>
+      <c r="I3057" s="2">
+        <v>5406599</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3058" s="3"/>
       <c r="C3058" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3059" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D3058" s="2">
+        <v>19371</v>
+      </c>
+      <c r="E3058" s="2">
+        <v>422</v>
+      </c>
+      <c r="F3058" s="2">
+        <f t="shared" si="150"/>
+        <v>509</v>
+      </c>
+      <c r="G3058" s="2">
+        <f t="shared" si="150"/>
+        <v>2</v>
+      </c>
+      <c r="H3058" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3059" s="3"/>
       <c r="C3059" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3060" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D3059" s="2">
+        <v>25994</v>
+      </c>
+      <c r="E3059" s="2">
+        <v>537</v>
+      </c>
+      <c r="F3059" s="2">
+        <f t="shared" si="150"/>
+        <v>513</v>
+      </c>
+      <c r="G3059" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3059" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3060" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3061" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="D3060" s="2">
+        <v>5959</v>
+      </c>
+      <c r="E3060" s="2">
+        <v>166</v>
+      </c>
+      <c r="F3060" s="2">
+        <f t="shared" si="150"/>
+        <v>140</v>
+      </c>
+      <c r="G3060" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3060" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3061" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="D3061" s="2">
+        <v>24430</v>
+      </c>
+      <c r="E3061" s="2">
+        <v>421</v>
+      </c>
+      <c r="F3061" s="2">
+        <f t="shared" si="150"/>
+        <v>738</v>
+      </c>
+      <c r="G3061" s="2">
+        <f t="shared" si="150"/>
+        <v>9</v>
+      </c>
+      <c r="H3061" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3062" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B3062" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3062" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3062" s="2">
+        <v>66410</v>
+      </c>
+      <c r="E3062" s="2">
+        <v>4036</v>
+      </c>
+      <c r="F3062" s="2">
+        <f t="shared" si="150"/>
+        <v>87</v>
+      </c>
+      <c r="G3062" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3062" s="2">
+        <f t="shared" si="148"/>
+        <v>62418</v>
+      </c>
+      <c r="I3062" s="2">
+        <v>4673195</v>
+      </c>
+    </row>
+    <row r="3063" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3063" s="3"/>
+      <c r="C3063" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3063" s="2">
+        <v>60748</v>
+      </c>
+      <c r="E3063" s="2">
+        <v>4535</v>
+      </c>
+      <c r="F3063" s="2">
+        <f t="shared" si="150"/>
+        <v>101</v>
+      </c>
+      <c r="G3063" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3063" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3064" s="3"/>
+      <c r="C3064" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3064" s="2">
+        <v>42307</v>
+      </c>
+      <c r="E3064" s="2">
+        <v>2701</v>
+      </c>
+      <c r="F3064" s="2">
+        <f t="shared" si="150"/>
+        <v>40</v>
+      </c>
+      <c r="G3064" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3064" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3065" s="3"/>
+      <c r="C3065" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3065" s="2">
+        <v>48327</v>
+      </c>
+      <c r="E3065" s="2">
+        <v>3053</v>
+      </c>
+      <c r="F3065" s="2">
+        <f t="shared" si="150"/>
+        <v>60</v>
+      </c>
+      <c r="G3065" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3065" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3066" s="3"/>
+      <c r="C3066" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3066" s="2">
+        <v>42028</v>
+      </c>
+      <c r="E3066" s="2">
+        <v>2039</v>
+      </c>
+      <c r="F3066" s="2">
+        <f t="shared" si="150"/>
+        <v>41</v>
+      </c>
+      <c r="G3066" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3066" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3067" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3067" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3067" s="2">
+        <v>19871</v>
+      </c>
+      <c r="E3067" s="2">
+        <v>1756</v>
+      </c>
+      <c r="F3067" s="2">
+        <f t="shared" si="150"/>
+        <v>24</v>
+      </c>
+      <c r="G3067" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3067" s="2">
+        <f t="shared" si="148"/>
+        <v>24320</v>
+      </c>
+      <c r="I3067" s="2">
+        <v>1685604</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3068" s="3"/>
+      <c r="C3068" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3068" s="2">
+        <v>19121</v>
+      </c>
+      <c r="E3068" s="2">
+        <v>1303</v>
+      </c>
+      <c r="F3068" s="2">
+        <f t="shared" si="150"/>
+        <v>32</v>
+      </c>
+      <c r="G3068" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3068" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3069" s="3"/>
+      <c r="C3069" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3069" s="2">
+        <v>19008</v>
+      </c>
+      <c r="E3069" s="2">
+        <v>1821</v>
+      </c>
+      <c r="F3069" s="2">
+        <f t="shared" si="150"/>
+        <v>20</v>
+      </c>
+      <c r="G3069" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3069" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3070" s="3"/>
+      <c r="C3070" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3070" s="2">
+        <v>16501</v>
+      </c>
+      <c r="E3070" s="2">
+        <v>1159</v>
+      </c>
+      <c r="F3070" s="2">
+        <f t="shared" si="150"/>
+        <v>30</v>
+      </c>
+      <c r="G3070" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3070" s="2">
+        <f t="shared" ref="H3070:H3133" si="151">SUM(I3070-I3040)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3071" s="3"/>
+      <c r="C3071" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3071" s="2">
+        <v>17064</v>
+      </c>
+      <c r="E3071" s="2">
+        <v>1061</v>
+      </c>
+      <c r="F3071" s="2">
+        <f t="shared" si="150"/>
+        <v>14</v>
+      </c>
+      <c r="G3071" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3071" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3072" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3072" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3072" s="2">
+        <v>20301</v>
+      </c>
+      <c r="E3072" s="2">
+        <v>1020</v>
+      </c>
+      <c r="F3072" s="2">
+        <f t="shared" si="150"/>
+        <v>29</v>
+      </c>
+      <c r="G3072" s="2">
+        <f t="shared" si="150"/>
+        <v>2</v>
+      </c>
+      <c r="H3072" s="2">
+        <f t="shared" si="151"/>
+        <v>11119</v>
+      </c>
+      <c r="I3072" s="2">
+        <v>951512</v>
+      </c>
+    </row>
+    <row r="3073" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3073" s="3"/>
+      <c r="C3073" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3073" s="2">
+        <v>24483</v>
+      </c>
+      <c r="E3073" s="2">
+        <v>1916</v>
+      </c>
+      <c r="F3073" s="2">
+        <f t="shared" si="150"/>
+        <v>47</v>
+      </c>
+      <c r="G3073" s="2">
+        <f t="shared" si="150"/>
+        <v>3</v>
+      </c>
+      <c r="H3073" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3074" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3074" s="3"/>
+      <c r="C3074" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3074" s="2">
+        <v>16469</v>
+      </c>
+      <c r="E3074" s="2">
+        <v>1137</v>
+      </c>
+      <c r="F3074" s="2">
+        <f t="shared" si="150"/>
+        <v>17</v>
+      </c>
+      <c r="G3074" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3074" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3075" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3075" s="3"/>
+      <c r="C3075" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3075" s="2">
+        <v>9462</v>
+      </c>
+      <c r="E3075" s="2">
+        <v>958</v>
+      </c>
+      <c r="F3075" s="2">
+        <f t="shared" si="150"/>
+        <v>22</v>
+      </c>
+      <c r="G3075" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3075" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3076" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3076" s="3"/>
+      <c r="C3076" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3076" s="2">
+        <v>12648</v>
+      </c>
+      <c r="E3076" s="2">
+        <v>958</v>
+      </c>
+      <c r="F3076" s="2">
+        <f t="shared" si="150"/>
+        <v>19</v>
+      </c>
+      <c r="G3076" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3076" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3077" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3077" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3077" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3077" s="2">
+        <v>22932</v>
+      </c>
+      <c r="E3077" s="2">
+        <v>2639</v>
+      </c>
+      <c r="F3077" s="2">
+        <f t="shared" si="150"/>
+        <v>98</v>
+      </c>
+      <c r="G3077" s="2">
+        <f t="shared" si="150"/>
+        <v>1</v>
+      </c>
+      <c r="H3077" s="2">
+        <f t="shared" si="151"/>
+        <v>22033</v>
+      </c>
+      <c r="I3077" s="2">
+        <v>1296155</v>
+      </c>
+    </row>
+    <row r="3078" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3078" s="3"/>
+      <c r="C3078" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3078" s="2">
+        <v>9535</v>
+      </c>
+      <c r="E3078" s="2">
+        <v>1066</v>
+      </c>
+      <c r="F3078" s="2">
+        <f t="shared" si="150"/>
+        <v>54</v>
+      </c>
+      <c r="G3078" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3078" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3079" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3079" s="3"/>
+      <c r="C3079" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3079" s="2">
+        <v>7582</v>
+      </c>
+      <c r="E3079" s="2">
+        <v>891</v>
+      </c>
+      <c r="F3079" s="2">
+        <f t="shared" si="150"/>
+        <v>43</v>
+      </c>
+      <c r="G3079" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3079" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3080" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3080" s="3"/>
+      <c r="C3080" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3080" s="2">
+        <v>2322</v>
+      </c>
+      <c r="E3080" s="2">
+        <v>266</v>
+      </c>
+      <c r="F3080" s="2">
+        <f t="shared" si="150"/>
+        <v>12</v>
+      </c>
+      <c r="G3080" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3080" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3081" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3081" s="3"/>
+      <c r="C3081" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3081" s="2">
+        <v>1679</v>
+      </c>
+      <c r="E3081" s="2">
+        <v>108</v>
+      </c>
+      <c r="F3081" s="2">
+        <f t="shared" si="150"/>
+        <v>5</v>
+      </c>
+      <c r="G3081" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3081" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3082" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3082" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3082" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3083" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3083" s="3"/>
+      <c r="C3083" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3083" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3084" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3084" s="3"/>
+      <c r="C3084" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3084" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3085" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3085" s="3"/>
+      <c r="C3085" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3085" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3086" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3086" s="3"/>
+      <c r="C3086" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3086" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3087" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3087" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3087" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3087" s="2">
+        <v>133830</v>
+      </c>
+      <c r="E3087" s="2">
+        <v>3908</v>
+      </c>
+      <c r="F3087" s="2">
+        <f t="shared" si="150"/>
+        <v>3351</v>
+      </c>
+      <c r="G3087" s="2">
+        <f t="shared" si="150"/>
+        <v>115</v>
+      </c>
+      <c r="H3087" s="2">
+        <f t="shared" si="151"/>
+        <v>137766</v>
+      </c>
+      <c r="I3087" s="2">
+        <v>5544365</v>
+      </c>
+    </row>
+    <row r="3088" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3088" s="3"/>
+      <c r="C3088" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3088" s="2">
+        <v>19929</v>
+      </c>
+      <c r="E3088" s="2">
+        <v>422</v>
+      </c>
+      <c r="F3088" s="2">
+        <f t="shared" si="150"/>
+        <v>558</v>
+      </c>
+      <c r="G3088" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3088" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3089" s="3"/>
+      <c r="C3089" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3089" s="2">
+        <v>26404</v>
+      </c>
+      <c r="E3089" s="2">
+        <v>537</v>
+      </c>
+      <c r="F3089" s="2">
+        <f t="shared" si="150"/>
+        <v>410</v>
+      </c>
+      <c r="G3089" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3089" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3090" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3090" s="2">
+        <v>6252</v>
+      </c>
+      <c r="E3090" s="2">
+        <v>166</v>
+      </c>
+      <c r="F3090" s="2">
+        <f t="shared" si="150"/>
+        <v>293</v>
+      </c>
+      <c r="G3090" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3090" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3091" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3091" s="2">
+        <v>25399</v>
+      </c>
+      <c r="E3091" s="2">
+        <v>423</v>
+      </c>
+      <c r="F3091" s="2">
+        <f t="shared" si="150"/>
+        <v>969</v>
+      </c>
+      <c r="G3091" s="2">
+        <f t="shared" si="150"/>
+        <v>2</v>
+      </c>
+      <c r="H3091" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3092" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B3092" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3092" s="2">
+        <v>66466</v>
+      </c>
+      <c r="E3092" s="2">
+        <v>4038</v>
+      </c>
+      <c r="F3092" s="2">
+        <f t="shared" si="150"/>
+        <v>56</v>
+      </c>
+      <c r="G3092" s="2">
+        <f t="shared" si="150"/>
+        <v>2</v>
+      </c>
+      <c r="H3092" s="2">
+        <f t="shared" si="151"/>
+        <v>51687</v>
+      </c>
+      <c r="I3092" s="2">
+        <v>4724882</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3093" s="3"/>
+      <c r="C3093" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3093" s="2">
+        <v>60815</v>
+      </c>
+      <c r="E3093" s="2">
+        <v>4535</v>
+      </c>
+      <c r="F3093" s="2">
+        <f t="shared" si="150"/>
+        <v>67</v>
+      </c>
+      <c r="G3093" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3093" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3094" s="3"/>
+      <c r="C3094" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3094" s="2">
+        <v>42354</v>
+      </c>
+      <c r="E3094" s="2">
+        <v>2701</v>
+      </c>
+      <c r="F3094" s="2">
+        <f t="shared" si="150"/>
+        <v>47</v>
+      </c>
+      <c r="G3094" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3094" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3095" s="3"/>
+      <c r="C3095" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3095" s="2">
+        <v>48377</v>
+      </c>
+      <c r="E3095" s="2">
+        <v>3055</v>
+      </c>
+      <c r="F3095" s="2">
+        <f t="shared" si="150"/>
+        <v>50</v>
+      </c>
+      <c r="G3095" s="2">
+        <f t="shared" si="150"/>
+        <v>2</v>
+      </c>
+      <c r="H3095" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3096" s="3"/>
+      <c r="C3096" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3096" s="2">
+        <v>42112</v>
+      </c>
+      <c r="E3096" s="2">
+        <v>2039</v>
+      </c>
+      <c r="F3096" s="2">
+        <f t="shared" si="150"/>
+        <v>84</v>
+      </c>
+      <c r="G3096" s="2">
+        <f t="shared" si="150"/>
+        <v>0</v>
+      </c>
+      <c r="H3096" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3097" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3097" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3097" s="2">
+        <v>19891</v>
+      </c>
+      <c r="E3097" s="2">
+        <v>1758</v>
+      </c>
+      <c r="F3097" s="2">
+        <f t="shared" ref="F3097:G3160" si="152">SUM(D3097-D3067)</f>
+        <v>20</v>
+      </c>
+      <c r="G3097" s="2">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+      <c r="H3097" s="2">
+        <f t="shared" si="151"/>
+        <v>14781</v>
+      </c>
+      <c r="I3097" s="2">
+        <v>1700385</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3098" s="3"/>
+      <c r="C3098" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3098" s="2">
+        <v>19135</v>
+      </c>
+      <c r="E3098" s="2">
+        <v>1305</v>
+      </c>
+      <c r="F3098" s="2">
+        <f t="shared" si="152"/>
+        <v>14</v>
+      </c>
+      <c r="G3098" s="2">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+      <c r="H3098" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3099" s="3"/>
+      <c r="C3099" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3099" s="2">
+        <v>19039</v>
+      </c>
+      <c r="E3099" s="2">
+        <v>1828</v>
+      </c>
+      <c r="F3099" s="2">
+        <f t="shared" si="152"/>
+        <v>31</v>
+      </c>
+      <c r="G3099" s="2">
+        <f t="shared" si="152"/>
+        <v>7</v>
+      </c>
+      <c r="H3099" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3100" s="3"/>
+      <c r="C3100" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3100" s="2">
+        <v>16519</v>
+      </c>
+      <c r="E3100" s="2">
+        <v>1159</v>
+      </c>
+      <c r="F3100" s="2">
+        <f t="shared" si="152"/>
+        <v>18</v>
+      </c>
+      <c r="G3100" s="2">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="H3100" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3101" s="3"/>
+      <c r="C3101" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3101" s="2">
+        <v>17080</v>
+      </c>
+      <c r="E3101" s="2">
+        <v>1066</v>
+      </c>
+      <c r="F3101" s="2">
+        <f t="shared" si="152"/>
+        <v>16</v>
+      </c>
+      <c r="G3101" s="2">
+        <f t="shared" si="152"/>
+        <v>5</v>
+      </c>
+      <c r="H3101" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3102" s="2">
+        <v>20342</v>
+      </c>
+      <c r="E3102" s="2">
+        <v>1020</v>
+      </c>
+      <c r="F3102" s="2">
+        <f t="shared" si="152"/>
+        <v>41</v>
+      </c>
+      <c r="G3102" s="2">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="H3102" s="2">
+        <f t="shared" si="151"/>
+        <v>8587</v>
+      </c>
+      <c r="I3102" s="2">
+        <v>960099</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3103" s="3"/>
+      <c r="C3103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3103" s="2">
+        <v>24536</v>
+      </c>
+      <c r="E3103" s="2">
+        <v>1921</v>
+      </c>
+      <c r="F3103" s="2">
+        <f t="shared" si="152"/>
+        <v>53</v>
+      </c>
+      <c r="G3103" s="2">
+        <f t="shared" si="152"/>
+        <v>5</v>
+      </c>
+      <c r="H3103" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3104" s="3"/>
+      <c r="C3104" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3104" s="2">
+        <v>16485</v>
+      </c>
+      <c r="E3104" s="2">
+        <v>1136</v>
+      </c>
+      <c r="F3104" s="2">
+        <f t="shared" si="152"/>
+        <v>16</v>
+      </c>
+      <c r="G3104" s="2">
+        <f t="shared" si="152"/>
+        <v>-1</v>
+      </c>
+      <c r="H3104" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3105" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3105" s="3"/>
+      <c r="C3105" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3105" s="2">
+        <v>9485</v>
+      </c>
+      <c r="E3105" s="2">
+        <v>958</v>
+      </c>
+      <c r="F3105" s="2">
+        <f t="shared" si="152"/>
+        <v>23</v>
+      </c>
+      <c r="G3105" s="2">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="H3105" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3106" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3106" s="3"/>
+      <c r="C3106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3106" s="2">
+        <v>12679</v>
+      </c>
+      <c r="E3106" s="2">
+        <v>959</v>
+      </c>
+      <c r="F3106" s="2">
+        <f t="shared" si="152"/>
+        <v>31</v>
+      </c>
+      <c r="G3106" s="2">
+        <f t="shared" si="152"/>
+        <v>1</v>
+      </c>
+      <c r="H3106" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3107" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3107" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3107" s="2">
+        <v>23013</v>
+      </c>
+      <c r="E3107" s="2">
+        <v>2641</v>
+      </c>
+      <c r="F3107" s="2">
+        <f t="shared" si="152"/>
+        <v>81</v>
+      </c>
+      <c r="G3107" s="2">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+      <c r="H3107" s="2">
+        <f t="shared" si="151"/>
+        <v>17272</v>
+      </c>
+      <c r="I3107" s="2">
+        <v>1313427</v>
+      </c>
+    </row>
+    <row r="3108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3108" s="3"/>
+      <c r="C3108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3108" s="2">
+        <v>9585</v>
+      </c>
+      <c r="E3108" s="2">
+        <v>1067</v>
+      </c>
+      <c r="F3108" s="2">
+        <f t="shared" si="152"/>
+        <v>50</v>
+      </c>
+      <c r="G3108" s="2">
+        <f t="shared" si="152"/>
+        <v>1</v>
+      </c>
+      <c r="H3108" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3109" s="3"/>
+      <c r="C3109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3109" s="2">
+        <v>7625</v>
+      </c>
+      <c r="E3109" s="2">
+        <v>891</v>
+      </c>
+      <c r="F3109" s="2">
+        <f t="shared" si="152"/>
+        <v>43</v>
+      </c>
+      <c r="G3109" s="2">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="H3109" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3110" s="3"/>
+      <c r="C3110" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3110" s="2">
+        <v>2323</v>
+      </c>
+      <c r="E3110" s="2">
+        <v>266</v>
+      </c>
+      <c r="F3110" s="2">
+        <f t="shared" si="152"/>
+        <v>1</v>
+      </c>
+      <c r="G3110" s="2">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="H3110" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3111" s="3"/>
+      <c r="C3111" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3111" s="2">
+        <v>1599</v>
+      </c>
+      <c r="E3111" s="2">
+        <v>108</v>
+      </c>
+      <c r="F3111" s="2">
+        <f t="shared" si="152"/>
+        <v>-80</v>
+      </c>
+      <c r="G3111" s="2">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="H3111" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3112" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3112" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3112" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3112" s="2">
+        <v>22987</v>
+      </c>
+      <c r="E3112" s="2">
+        <v>1640</v>
+      </c>
+      <c r="I3112" s="2">
+        <f>SUM(95742+835732)</f>
+        <v>931474</v>
+      </c>
+    </row>
+    <row r="3113" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3113" s="3"/>
+      <c r="C3113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3113" s="2">
+        <v>8876</v>
+      </c>
+      <c r="E3113" s="2">
+        <v>829</v>
+      </c>
+      <c r="H3113" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3114" s="3"/>
+      <c r="C3114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3114" s="2">
+        <v>7569</v>
+      </c>
+      <c r="E3114" s="2">
+        <v>709</v>
+      </c>
+      <c r="H3114" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3115" s="3"/>
+      <c r="C3115" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3115" s="2">
+        <v>4439</v>
+      </c>
+      <c r="E3115" s="2">
+        <v>327</v>
+      </c>
+      <c r="H3115" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3116" s="3"/>
+      <c r="C3116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3116" s="2">
+        <v>4700</v>
+      </c>
+      <c r="E3116" s="2">
+        <v>358</v>
+      </c>
+      <c r="H3116" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3117" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3117" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3117" s="2">
+        <f t="shared" si="152"/>
+        <v>-133830</v>
+      </c>
+      <c r="G3117" s="2">
+        <f t="shared" si="152"/>
+        <v>-3908</v>
+      </c>
+      <c r="H3117" s="2">
+        <f t="shared" si="151"/>
+        <v>130590</v>
+      </c>
+      <c r="I3117" s="2">
+        <v>5674955</v>
+      </c>
+    </row>
+    <row r="3118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3118" s="3"/>
+      <c r="C3118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3118" s="2">
+        <f t="shared" si="152"/>
+        <v>-19929</v>
+      </c>
+      <c r="G3118" s="2">
+        <f t="shared" si="152"/>
+        <v>-422</v>
+      </c>
+      <c r="H3118" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3119" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3119" s="3"/>
+      <c r="C3119" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3119" s="2">
+        <f t="shared" si="152"/>
+        <v>-26404</v>
+      </c>
+      <c r="G3119" s="2">
+        <f t="shared" si="152"/>
+        <v>-537</v>
+      </c>
+      <c r="H3119" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3120" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C3120" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3120" s="2">
+        <f t="shared" si="152"/>
+        <v>-6252</v>
+      </c>
+      <c r="G3120" s="2">
+        <f t="shared" si="152"/>
+        <v>-166</v>
+      </c>
+      <c r="H3120" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3121" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3121" s="2">
+        <f t="shared" si="152"/>
+        <v>-25399</v>
+      </c>
+      <c r="G3121" s="2">
+        <f t="shared" si="152"/>
+        <v>-423</v>
+      </c>
+      <c r="H3121" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3122" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B3122" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3122" s="2">
+        <f t="shared" si="152"/>
+        <v>-66466</v>
+      </c>
+      <c r="G3122" s="2">
+        <f t="shared" si="152"/>
+        <v>-4038</v>
+      </c>
+      <c r="H3122" s="2">
+        <f t="shared" si="151"/>
+        <v>-4724882</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3123" s="3"/>
+      <c r="C3123" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3123" s="2">
+        <f t="shared" si="152"/>
+        <v>-60815</v>
+      </c>
+      <c r="G3123" s="2">
+        <f t="shared" si="152"/>
+        <v>-4535</v>
+      </c>
+      <c r="H3123" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3124" s="3"/>
+      <c r="C3124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3124" s="2">
+        <f t="shared" si="152"/>
+        <v>-42354</v>
+      </c>
+      <c r="G3124" s="2">
+        <f t="shared" si="152"/>
+        <v>-2701</v>
+      </c>
+      <c r="H3124" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3125" s="3"/>
+      <c r="C3125" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3125" s="2">
+        <f t="shared" si="152"/>
+        <v>-48377</v>
+      </c>
+      <c r="G3125" s="2">
+        <f t="shared" si="152"/>
+        <v>-3055</v>
+      </c>
+      <c r="H3125" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3126" s="3"/>
+      <c r="C3126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3126" s="2">
+        <f t="shared" si="152"/>
+        <v>-42112</v>
+      </c>
+      <c r="G3126" s="2">
+        <f t="shared" si="152"/>
+        <v>-2039</v>
+      </c>
+      <c r="H3126" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3127" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3127" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3127" s="2">
+        <f t="shared" si="152"/>
+        <v>-19891</v>
+      </c>
+      <c r="G3127" s="2">
+        <f t="shared" si="152"/>
+        <v>-1758</v>
+      </c>
+      <c r="H3127" s="2">
+        <f t="shared" si="151"/>
+        <v>-1700385</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3128" s="3"/>
+      <c r="C3128" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3128" s="2">
+        <f t="shared" si="152"/>
+        <v>-19135</v>
+      </c>
+      <c r="G3128" s="2">
+        <f t="shared" si="152"/>
+        <v>-1305</v>
+      </c>
+      <c r="H3128" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3129" s="3"/>
+      <c r="C3129" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3129" s="2">
+        <f t="shared" si="152"/>
+        <v>-19039</v>
+      </c>
+      <c r="G3129" s="2">
+        <f t="shared" si="152"/>
+        <v>-1828</v>
+      </c>
+      <c r="H3129" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3130" s="3"/>
+      <c r="C3130" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3130" s="2">
+        <f t="shared" si="152"/>
+        <v>-16519</v>
+      </c>
+      <c r="G3130" s="2">
+        <f t="shared" si="152"/>
+        <v>-1159</v>
+      </c>
+      <c r="H3130" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3131" s="3"/>
+      <c r="C3131" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3131" s="2">
+        <f t="shared" si="152"/>
+        <v>-17080</v>
+      </c>
+      <c r="G3131" s="2">
+        <f t="shared" si="152"/>
+        <v>-1066</v>
+      </c>
+      <c r="H3131" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3132" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3132" s="2">
+        <v>20386</v>
+      </c>
+      <c r="E3132" s="2">
+        <v>1022</v>
+      </c>
+      <c r="F3132" s="2">
+        <f t="shared" si="152"/>
+        <v>44</v>
+      </c>
+      <c r="G3132" s="2">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+      <c r="H3132" s="2">
+        <f t="shared" si="151"/>
+        <v>11971</v>
+      </c>
+      <c r="I3132" s="2">
+        <v>972070</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3133" s="3"/>
+      <c r="C3133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3133" s="2">
+        <v>24600</v>
+      </c>
+      <c r="E3133" s="2">
+        <v>1923</v>
+      </c>
+      <c r="F3133" s="2">
+        <f t="shared" si="152"/>
+        <v>64</v>
+      </c>
+      <c r="G3133" s="2">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+      <c r="H3133" s="2">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3134" s="3"/>
+      <c r="C3134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3134" s="2">
+        <v>16530</v>
+      </c>
+      <c r="E3134" s="2">
+        <v>1136</v>
+      </c>
+      <c r="F3134" s="2">
+        <f t="shared" si="152"/>
+        <v>45</v>
+      </c>
+      <c r="G3134" s="2">
+        <f t="shared" si="152"/>
+        <v>0</v>
+      </c>
+      <c r="H3134" s="2">
+        <f t="shared" ref="H3134:H3197" si="153">SUM(I3134-I3104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3135" s="3"/>
+      <c r="C3135" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3135" s="2">
+        <v>9530</v>
+      </c>
+      <c r="E3135" s="2">
+        <v>959</v>
+      </c>
+      <c r="F3135" s="2">
+        <f t="shared" si="152"/>
+        <v>45</v>
+      </c>
+      <c r="G3135" s="2">
+        <f t="shared" si="152"/>
+        <v>1</v>
+      </c>
+      <c r="H3135" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3136" s="3"/>
+      <c r="C3136" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3136" s="2">
+        <v>12710</v>
+      </c>
+      <c r="E3136" s="2">
+        <v>961</v>
+      </c>
+      <c r="F3136" s="2">
+        <f t="shared" si="152"/>
+        <v>31</v>
+      </c>
+      <c r="G3136" s="2">
+        <f t="shared" si="152"/>
+        <v>2</v>
+      </c>
+      <c r="H3136" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3137" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3137" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3137" s="2">
+        <f t="shared" si="152"/>
+        <v>-23013</v>
+      </c>
+      <c r="G3137" s="2">
+        <f t="shared" si="152"/>
+        <v>-2641</v>
+      </c>
+      <c r="H3137" s="2">
+        <f t="shared" si="153"/>
+        <v>-1313427</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3138" s="3"/>
+      <c r="C3138" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3138" s="2">
+        <f t="shared" si="152"/>
+        <v>-9585</v>
+      </c>
+      <c r="G3138" s="2">
+        <f t="shared" si="152"/>
+        <v>-1067</v>
+      </c>
+      <c r="H3138" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3139" s="3"/>
+      <c r="C3139" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3139" s="2">
+        <f t="shared" si="152"/>
+        <v>-7625</v>
+      </c>
+      <c r="G3139" s="2">
+        <f t="shared" si="152"/>
+        <v>-891</v>
+      </c>
+      <c r="H3139" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3140" s="3"/>
+      <c r="C3140" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3140" s="2">
+        <f t="shared" si="152"/>
+        <v>-2323</v>
+      </c>
+      <c r="G3140" s="2">
+        <f t="shared" si="152"/>
+        <v>-266</v>
+      </c>
+      <c r="H3140" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3141" s="3"/>
+      <c r="C3141" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3141" s="2">
+        <f t="shared" si="152"/>
+        <v>-1599</v>
+      </c>
+      <c r="G3141" s="2">
+        <f t="shared" si="152"/>
+        <v>-108</v>
+      </c>
+      <c r="H3141" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3142" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3142" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3142" s="2">
+        <f t="shared" si="152"/>
+        <v>-22987</v>
+      </c>
+      <c r="G3142" s="2">
+        <f t="shared" si="152"/>
+        <v>-1640</v>
+      </c>
+      <c r="H3142" s="2">
+        <f t="shared" si="153"/>
+        <v>-931474</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3143" s="3"/>
+      <c r="C3143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3143" s="2">
+        <f t="shared" si="152"/>
+        <v>-8876</v>
+      </c>
+      <c r="G3143" s="2">
+        <f t="shared" si="152"/>
+        <v>-829</v>
+      </c>
+      <c r="H3143" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3144" s="3"/>
+      <c r="C3144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3144" s="2">
+        <f t="shared" si="152"/>
+        <v>-7569</v>
+      </c>
+      <c r="G3144" s="2">
+        <f t="shared" si="152"/>
+        <v>-709</v>
+      </c>
+      <c r="H3144" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3145" s="3"/>
+      <c r="C3145" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3145" s="2">
+        <f t="shared" si="152"/>
+        <v>-4439</v>
+      </c>
+      <c r="G3145" s="2">
+        <f t="shared" si="152"/>
+        <v>-327</v>
+      </c>
+      <c r="H3145" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3146" s="3"/>
+      <c r="C3146" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3146" s="2">
+        <f t="shared" si="152"/>
+        <v>-4700</v>
+      </c>
+      <c r="G3146" s="2">
+        <f t="shared" si="152"/>
+        <v>-358</v>
+      </c>
+      <c r="H3146" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3147" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3147" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3147" s="2">
+        <v>140632</v>
+      </c>
+      <c r="E3147" s="2">
+        <v>3894</v>
+      </c>
+      <c r="H3147" s="2">
+        <f t="shared" si="153"/>
+        <v>118321</v>
+      </c>
+      <c r="I3147" s="2">
+        <v>5793276</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3148" s="3"/>
+      <c r="C3148" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3148" s="2">
+        <v>20887</v>
+      </c>
+      <c r="E3148" s="2">
+        <v>436</v>
+      </c>
+      <c r="H3148" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3149" s="3"/>
+      <c r="C3149" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3149" s="2">
+        <v>27850</v>
+      </c>
+      <c r="E3149" s="2">
+        <v>553</v>
+      </c>
+      <c r="H3149" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3150" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3150" s="2">
+        <v>6686</v>
+      </c>
+      <c r="E3150" s="2">
+        <v>170</v>
+      </c>
+      <c r="H3150" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3151" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3151" s="2">
+        <v>26915</v>
+      </c>
+      <c r="E3151" s="2">
+        <v>433</v>
+      </c>
+      <c r="H3151" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3152" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B3152" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3152" s="2">
+        <v>66643</v>
+      </c>
+      <c r="E3152" s="2">
+        <v>4040</v>
+      </c>
+      <c r="H3152" s="2">
+        <f t="shared" si="153"/>
+        <v>4848525</v>
+      </c>
+      <c r="I3152" s="2">
+        <v>4848525</v>
+      </c>
+    </row>
+    <row r="3153" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3153" s="3"/>
+      <c r="C3153" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3153" s="2">
+        <v>61012</v>
+      </c>
+      <c r="E3153" s="2">
+        <v>4535</v>
+      </c>
+      <c r="H3153" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3154" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3154" s="3"/>
+      <c r="C3154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3154" s="2">
+        <v>42462</v>
+      </c>
+      <c r="E3154" s="2">
+        <v>2702</v>
+      </c>
+      <c r="H3154" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3155" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3155" s="3"/>
+      <c r="C3155" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3155" s="2">
+        <v>48496</v>
+      </c>
+      <c r="E3155" s="2">
+        <v>3056</v>
+      </c>
+      <c r="H3155" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3156" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3156" s="3"/>
+      <c r="C3156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3156" s="2">
+        <v>42267</v>
+      </c>
+      <c r="E3156" s="2">
+        <v>2039</v>
+      </c>
+      <c r="H3156" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3157" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3157" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3157" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3157" s="2">
+        <v>19927</v>
+      </c>
+      <c r="E3157" s="2">
+        <v>1761</v>
+      </c>
+      <c r="H3157" s="2">
+        <f t="shared" si="153"/>
+        <v>1742347</v>
+      </c>
+      <c r="I3157" s="2">
+        <v>1742347</v>
+      </c>
+    </row>
+    <row r="3158" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3158" s="3"/>
+      <c r="C3158" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3158" s="2">
+        <v>19219</v>
+      </c>
+      <c r="E3158" s="2">
+        <v>1309</v>
+      </c>
+      <c r="H3158" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3159" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3159" s="3"/>
+      <c r="C3159" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3159" s="2">
+        <v>19100</v>
+      </c>
+      <c r="E3159" s="2">
+        <v>1830</v>
+      </c>
+      <c r="H3159" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3160" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3160" s="3"/>
+      <c r="C3160" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3160" s="2">
+        <v>16563</v>
+      </c>
+      <c r="E3160" s="2">
+        <v>1161</v>
+      </c>
+      <c r="H3160" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3161" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3161" s="3"/>
+      <c r="C3161" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3161" s="2">
+        <v>17127</v>
+      </c>
+      <c r="E3161" s="2">
+        <v>1069</v>
+      </c>
+      <c r="H3161" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3162" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3162" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3162" s="2">
+        <v>20411</v>
+      </c>
+      <c r="E3162" s="2">
+        <v>1024</v>
+      </c>
+      <c r="F3162" s="2">
+        <f t="shared" ref="F3161:G3211" si="154">SUM(D3162-D3132)</f>
+        <v>25</v>
+      </c>
+      <c r="G3162" s="2">
+        <f t="shared" si="154"/>
+        <v>2</v>
+      </c>
+      <c r="H3162" s="2">
+        <f t="shared" si="153"/>
+        <v>10424</v>
+      </c>
+      <c r="I3162" s="2">
+        <v>982494</v>
+      </c>
+    </row>
+    <row r="3163" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3163" s="3"/>
+      <c r="C3163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3163" s="2">
+        <v>24652</v>
+      </c>
+      <c r="E3163" s="2">
+        <v>1928</v>
+      </c>
+      <c r="F3163" s="2">
+        <f t="shared" si="154"/>
+        <v>52</v>
+      </c>
+      <c r="G3163" s="2">
+        <f t="shared" si="154"/>
+        <v>5</v>
+      </c>
+      <c r="H3163" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3164" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3164" s="3"/>
+      <c r="C3164" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3164" s="2">
+        <v>16564</v>
+      </c>
+      <c r="E3164" s="2">
+        <v>1136</v>
+      </c>
+      <c r="F3164" s="2">
+        <f t="shared" si="154"/>
+        <v>34</v>
+      </c>
+      <c r="G3164" s="2">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="H3164" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3165" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3165" s="3"/>
+      <c r="C3165" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3165" s="2">
+        <v>9560</v>
+      </c>
+      <c r="E3165" s="2">
+        <v>962</v>
+      </c>
+      <c r="F3165" s="2">
+        <f t="shared" si="154"/>
+        <v>30</v>
+      </c>
+      <c r="G3165" s="2">
+        <f t="shared" si="154"/>
+        <v>3</v>
+      </c>
+      <c r="H3165" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3166" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3166" s="3"/>
+      <c r="C3166" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3166" s="2">
+        <v>12724</v>
+      </c>
+      <c r="E3166" s="2">
+        <v>967</v>
+      </c>
+      <c r="F3166" s="2">
+        <f t="shared" si="154"/>
+        <v>14</v>
+      </c>
+      <c r="G3166" s="2">
+        <f t="shared" si="154"/>
+        <v>6</v>
+      </c>
+      <c r="H3166" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3167" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3167" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3167" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3167" s="2">
+        <v>23382</v>
+      </c>
+      <c r="E3167" s="2">
+        <v>2642</v>
+      </c>
+      <c r="H3167" s="2">
+        <f t="shared" si="153"/>
+        <v>1367919</v>
+      </c>
+      <c r="I3167" s="2">
+        <v>1367919</v>
+      </c>
+    </row>
+    <row r="3168" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3168" s="3"/>
+      <c r="C3168" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3168" s="2">
+        <v>9822</v>
+      </c>
+      <c r="E3168" s="2">
+        <v>1069</v>
+      </c>
+      <c r="H3168" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3169" s="3"/>
+      <c r="C3169" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3169" s="2">
+        <v>7783</v>
+      </c>
+      <c r="E3169" s="2">
+        <v>892</v>
+      </c>
+      <c r="H3169" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3170" s="3"/>
+      <c r="C3170" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3170" s="2">
+        <v>2370</v>
+      </c>
+      <c r="E3170" s="2">
+        <v>266</v>
+      </c>
+      <c r="H3170" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3171" s="3"/>
+      <c r="C3171" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3171" s="2">
+        <v>1749</v>
+      </c>
+      <c r="E3171" s="2">
+        <v>109</v>
+      </c>
+      <c r="H3171" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3172" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3172" s="2">
+        <v>23263</v>
+      </c>
+      <c r="E3172" s="2">
+        <v>1653</v>
+      </c>
+      <c r="H3172" s="2">
+        <f t="shared" si="153"/>
+        <v>968649</v>
+      </c>
+      <c r="I3172" s="2">
+        <f>SUM(97665+870984)</f>
+        <v>968649</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3173" s="3"/>
+      <c r="C3173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3173" s="2">
+        <v>8972</v>
+      </c>
+      <c r="E3173" s="2">
+        <v>832</v>
+      </c>
+      <c r="H3173" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3174" s="3"/>
+      <c r="C3174" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3174" s="2">
+        <v>7651</v>
+      </c>
+      <c r="E3174" s="2">
+        <v>717</v>
+      </c>
+      <c r="H3174" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3175" s="3"/>
+      <c r="C3175" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3175" s="2">
+        <v>4465</v>
+      </c>
+      <c r="E3175" s="2">
+        <v>330</v>
+      </c>
+      <c r="H3175" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3176" s="3"/>
+      <c r="C3176" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3176" s="2">
+        <v>4744</v>
+      </c>
+      <c r="E3176" s="2">
+        <v>359</v>
+      </c>
+      <c r="H3176" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3177" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3177" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3177" s="2">
+        <v>143343</v>
+      </c>
+      <c r="E3177" s="2">
+        <v>3932</v>
+      </c>
+      <c r="F3177" s="2">
+        <f t="shared" si="154"/>
+        <v>2711</v>
+      </c>
+      <c r="G3177" s="2">
+        <f t="shared" si="154"/>
+        <v>38</v>
+      </c>
+      <c r="H3177" s="2">
+        <f t="shared" si="153"/>
+        <v>122232</v>
+      </c>
+      <c r="I3177" s="2">
+        <v>5915508</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3178" s="3"/>
+      <c r="C3178" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3178" s="2">
+        <v>21448</v>
+      </c>
+      <c r="E3178" s="2">
+        <v>448</v>
+      </c>
+      <c r="F3178" s="2">
+        <f t="shared" si="154"/>
+        <v>561</v>
+      </c>
+      <c r="G3178" s="2">
+        <f t="shared" si="154"/>
+        <v>12</v>
+      </c>
+      <c r="H3178" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3179" s="3"/>
+      <c r="C3179" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3179" s="2">
+        <v>28492</v>
+      </c>
+      <c r="E3179" s="2">
+        <v>577</v>
+      </c>
+      <c r="F3179" s="2">
+        <f t="shared" si="154"/>
+        <v>642</v>
+      </c>
+      <c r="G3179" s="2">
+        <f t="shared" si="154"/>
+        <v>24</v>
+      </c>
+      <c r="H3179" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3180" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3180" s="2">
+        <v>6900</v>
+      </c>
+      <c r="E3180" s="2">
+        <v>173</v>
+      </c>
+      <c r="F3180" s="2">
+        <f t="shared" si="154"/>
+        <v>214</v>
+      </c>
+      <c r="G3180" s="2">
+        <f t="shared" si="154"/>
+        <v>3</v>
+      </c>
+      <c r="H3180" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3181" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3181" s="2">
+        <v>27718</v>
+      </c>
+      <c r="E3181" s="2">
+        <v>455</v>
+      </c>
+      <c r="F3181" s="2">
+        <f t="shared" si="154"/>
+        <v>803</v>
+      </c>
+      <c r="G3181" s="2">
+        <f t="shared" si="154"/>
+        <v>22</v>
+      </c>
+      <c r="H3181" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3182" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B3182" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3182" s="2">
+        <v>66735</v>
+      </c>
+      <c r="E3182" s="2">
+        <v>4043</v>
+      </c>
+      <c r="F3182" s="2">
+        <f t="shared" si="154"/>
+        <v>92</v>
+      </c>
+      <c r="G3182" s="2">
+        <f t="shared" si="154"/>
+        <v>3</v>
+      </c>
+      <c r="H3182" s="2">
+        <f t="shared" si="153"/>
+        <v>72685</v>
+      </c>
+      <c r="I3182" s="2">
+        <v>4921210</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3183" s="3"/>
+      <c r="C3183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3183" s="2">
+        <v>61124</v>
+      </c>
+      <c r="E3183" s="2">
+        <v>4539</v>
+      </c>
+      <c r="F3183" s="2">
+        <f t="shared" si="154"/>
+        <v>112</v>
+      </c>
+      <c r="G3183" s="2">
+        <f t="shared" si="154"/>
+        <v>4</v>
+      </c>
+      <c r="H3183" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3184" s="3"/>
+      <c r="C3184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3184" s="2">
+        <v>42506</v>
+      </c>
+      <c r="E3184" s="2">
+        <v>2704</v>
+      </c>
+      <c r="F3184" s="2">
+        <f t="shared" si="154"/>
+        <v>44</v>
+      </c>
+      <c r="G3184" s="2">
+        <f t="shared" si="154"/>
+        <v>2</v>
+      </c>
+      <c r="H3184" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3185" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3185" s="3"/>
+      <c r="C3185" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3185" s="2">
+        <v>48575</v>
+      </c>
+      <c r="E3185" s="2">
+        <v>3058</v>
+      </c>
+      <c r="F3185" s="2">
+        <f t="shared" si="154"/>
+        <v>79</v>
+      </c>
+      <c r="G3185" s="2">
+        <f t="shared" si="154"/>
+        <v>2</v>
+      </c>
+      <c r="H3185" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3186" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3186" s="3"/>
+      <c r="C3186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3186" s="2">
+        <v>42333</v>
+      </c>
+      <c r="E3186" s="2">
+        <v>2039</v>
+      </c>
+      <c r="F3186" s="2">
+        <f t="shared" si="154"/>
+        <v>66</v>
+      </c>
+      <c r="G3186" s="2">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="H3186" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3187" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3187" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3187" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3187" s="2">
+        <v>19950</v>
+      </c>
+      <c r="E3187" s="2">
+        <v>1762</v>
+      </c>
+      <c r="F3187" s="2">
+        <f t="shared" si="154"/>
+        <v>23</v>
+      </c>
+      <c r="G3187" s="2">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="H3187" s="2">
+        <f t="shared" si="153"/>
+        <v>17557</v>
+      </c>
+      <c r="I3187" s="2">
+        <v>1759904</v>
+      </c>
+    </row>
+    <row r="3188" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3188" s="3"/>
+      <c r="C3188" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3188" s="2">
+        <v>19240</v>
+      </c>
+      <c r="E3188" s="2">
+        <v>1312</v>
+      </c>
+      <c r="F3188" s="2">
+        <f t="shared" si="154"/>
+        <v>21</v>
+      </c>
+      <c r="G3188" s="2">
+        <f t="shared" si="154"/>
+        <v>3</v>
+      </c>
+      <c r="H3188" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3189" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3189" s="3"/>
+      <c r="C3189" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3189" s="2">
+        <v>19119</v>
+      </c>
+      <c r="E3189" s="2">
+        <v>1834</v>
+      </c>
+      <c r="F3189" s="2">
+        <f t="shared" si="154"/>
+        <v>19</v>
+      </c>
+      <c r="G3189" s="2">
+        <f t="shared" si="154"/>
+        <v>4</v>
+      </c>
+      <c r="H3189" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3190" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3190" s="3"/>
+      <c r="C3190" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3190" s="2">
+        <v>16567</v>
+      </c>
+      <c r="E3190" s="2">
+        <v>1162</v>
+      </c>
+      <c r="F3190" s="2">
+        <f t="shared" si="154"/>
+        <v>4</v>
+      </c>
+      <c r="G3190" s="2">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="H3190" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3191" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3191" s="3"/>
+      <c r="C3191" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3191" s="2">
+        <v>17150</v>
+      </c>
+      <c r="E3191" s="2">
+        <v>1074</v>
+      </c>
+      <c r="F3191" s="2">
+        <f t="shared" si="154"/>
+        <v>23</v>
+      </c>
+      <c r="G3191" s="2">
+        <f t="shared" si="154"/>
+        <v>5</v>
+      </c>
+      <c r="H3191" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3192" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3192" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3192" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3192" s="2">
+        <v>20445</v>
+      </c>
+      <c r="E3192" s="2">
+        <v>1027</v>
+      </c>
+      <c r="F3192" s="2">
+        <f t="shared" si="154"/>
+        <v>34</v>
+      </c>
+      <c r="G3192" s="2">
+        <f t="shared" si="154"/>
+        <v>3</v>
+      </c>
+      <c r="H3192" s="2">
+        <f t="shared" si="153"/>
+        <v>12880</v>
+      </c>
+      <c r="I3192" s="2">
+        <v>995374</v>
+      </c>
+    </row>
+    <row r="3193" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3193" s="3"/>
+      <c r="C3193" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3193" s="2">
+        <v>24685</v>
+      </c>
+      <c r="E3193" s="2">
+        <v>1934</v>
+      </c>
+      <c r="F3193" s="2">
+        <f t="shared" si="154"/>
+        <v>33</v>
+      </c>
+      <c r="G3193" s="2">
+        <f t="shared" si="154"/>
+        <v>6</v>
+      </c>
+      <c r="H3193" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3194" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3194" s="3"/>
+      <c r="C3194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3194" s="2">
+        <v>16596</v>
+      </c>
+      <c r="E3194" s="2">
+        <v>1136</v>
+      </c>
+      <c r="F3194" s="2">
+        <f t="shared" si="154"/>
+        <v>32</v>
+      </c>
+      <c r="G3194" s="2">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="H3194" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3195" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3195" s="3"/>
+      <c r="C3195" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3195" s="2">
+        <v>9588</v>
+      </c>
+      <c r="E3195" s="2">
+        <v>962</v>
+      </c>
+      <c r="F3195" s="2">
+        <f t="shared" si="154"/>
+        <v>28</v>
+      </c>
+      <c r="G3195" s="2">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="H3195" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3196" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3196" s="3"/>
+      <c r="C3196" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3196" s="2">
+        <v>12738</v>
+      </c>
+      <c r="E3196" s="2">
+        <v>968</v>
+      </c>
+      <c r="F3196" s="2">
+        <f t="shared" si="154"/>
+        <v>14</v>
+      </c>
+      <c r="G3196" s="2">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="H3196" s="2">
+        <f t="shared" si="153"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3197" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3197" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3197" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3197" s="2">
+        <v>23516</v>
+      </c>
+      <c r="E3197" s="2">
+        <v>2648</v>
+      </c>
+      <c r="F3197" s="2">
+        <f t="shared" si="154"/>
+        <v>134</v>
+      </c>
+      <c r="G3197" s="2">
+        <f t="shared" si="154"/>
+        <v>6</v>
+      </c>
+      <c r="H3197" s="2">
+        <f t="shared" si="153"/>
+        <v>27235</v>
+      </c>
+      <c r="I3197" s="2">
+        <v>1395154</v>
+      </c>
+    </row>
+    <row r="3198" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3198" s="3"/>
+      <c r="C3198" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3198" s="2">
+        <v>9931</v>
+      </c>
+      <c r="E3198" s="2">
+        <v>1072</v>
+      </c>
+      <c r="F3198" s="2">
+        <f t="shared" si="154"/>
+        <v>109</v>
+      </c>
+      <c r="G3198" s="2">
+        <f t="shared" si="154"/>
+        <v>3</v>
+      </c>
+      <c r="H3198" s="2">
+        <f t="shared" ref="H3198:H3211" si="155">SUM(I3198-I3168)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3199" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3199" s="3"/>
+      <c r="C3199" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3199" s="2">
+        <v>7844</v>
+      </c>
+      <c r="E3199" s="2">
+        <v>895</v>
+      </c>
+      <c r="F3199" s="2">
+        <f t="shared" si="154"/>
+        <v>61</v>
+      </c>
+      <c r="G3199" s="2">
+        <f t="shared" si="154"/>
+        <v>3</v>
+      </c>
+      <c r="H3199" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3200" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3200" s="3"/>
+      <c r="C3200" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3200" s="2">
+        <v>2389</v>
+      </c>
+      <c r="E3200" s="2">
+        <v>267</v>
+      </c>
+      <c r="F3200" s="2">
+        <f t="shared" si="154"/>
+        <v>19</v>
+      </c>
+      <c r="G3200" s="2">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="H3200" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3201" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3201" s="3"/>
+      <c r="C3201" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3201" s="2">
+        <v>1777</v>
+      </c>
+      <c r="E3201" s="2">
+        <v>109</v>
+      </c>
+      <c r="F3201" s="2">
+        <f t="shared" si="154"/>
+        <v>28</v>
+      </c>
+      <c r="G3201" s="2">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="H3201" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3202" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3202" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3202" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3202" s="2">
+        <v>23395</v>
+      </c>
+      <c r="E3202" s="2">
+        <v>1664</v>
+      </c>
+      <c r="F3202" s="2">
+        <f t="shared" si="154"/>
+        <v>132</v>
+      </c>
+      <c r="G3202" s="2">
+        <f t="shared" si="154"/>
+        <v>11</v>
+      </c>
+      <c r="H3202" s="2">
+        <f t="shared" si="155"/>
+        <v>14992</v>
+      </c>
+      <c r="I3202" s="2">
+        <f>SUM(98446+885195)</f>
+        <v>983641</v>
+      </c>
+    </row>
+    <row r="3203" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3203" s="3"/>
+      <c r="C3203" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3203" s="2">
+        <v>8999</v>
+      </c>
+      <c r="E3203" s="2">
+        <v>835</v>
+      </c>
+      <c r="F3203" s="2">
+        <f t="shared" si="154"/>
+        <v>27</v>
+      </c>
+      <c r="G3203" s="2">
+        <f t="shared" si="154"/>
+        <v>3</v>
+      </c>
+      <c r="H3203" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3204" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3204" s="3"/>
+      <c r="C3204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3204" s="2">
+        <v>7696</v>
+      </c>
+      <c r="E3204" s="2">
+        <v>718</v>
+      </c>
+      <c r="F3204" s="2">
+        <f t="shared" si="154"/>
+        <v>45</v>
+      </c>
+      <c r="G3204" s="2">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="H3204" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3205" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3205" s="3"/>
+      <c r="C3205" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3205" s="2">
+        <v>4495</v>
+      </c>
+      <c r="E3205" s="2">
+        <v>330</v>
+      </c>
+      <c r="F3205" s="2">
+        <f t="shared" si="154"/>
+        <v>30</v>
+      </c>
+      <c r="G3205" s="2">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+      <c r="H3205" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3206" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3206" s="3"/>
+      <c r="C3206" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3206" s="2">
+        <v>4763</v>
+      </c>
+      <c r="E3206" s="2">
+        <v>360</v>
+      </c>
+      <c r="F3206" s="2">
+        <f t="shared" si="154"/>
+        <v>19</v>
+      </c>
+      <c r="G3206" s="2">
+        <f t="shared" si="154"/>
+        <v>1</v>
+      </c>
+      <c r="H3206" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3207" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3207" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3207" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3207" s="2">
+        <f t="shared" si="154"/>
+        <v>-143343</v>
+      </c>
+      <c r="G3207" s="2">
+        <f t="shared" si="154"/>
+        <v>-3932</v>
+      </c>
+      <c r="H3207" s="2">
+        <f t="shared" si="155"/>
+        <v>-5915508</v>
+      </c>
+    </row>
+    <row r="3208" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3208" s="3"/>
+      <c r="C3208" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3208" s="2">
+        <f t="shared" si="154"/>
+        <v>-21448</v>
+      </c>
+      <c r="G3208" s="2">
+        <f t="shared" si="154"/>
+        <v>-448</v>
+      </c>
+      <c r="H3208" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3209" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3209" s="3"/>
+      <c r="C3209" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3209" s="2">
+        <f t="shared" si="154"/>
+        <v>-28492</v>
+      </c>
+      <c r="G3209" s="2">
+        <f t="shared" si="154"/>
+        <v>-577</v>
+      </c>
+      <c r="H3209" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3210" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C3210" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3210" s="2">
+        <f t="shared" si="154"/>
+        <v>-6900</v>
+      </c>
+      <c r="G3210" s="2">
+        <f t="shared" si="154"/>
+        <v>-173</v>
+      </c>
+      <c r="H3210" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3211" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C3211" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3211" s="2">
+        <f t="shared" si="154"/>
+        <v>-27718</v>
+      </c>
+      <c r="G3211" s="2">
+        <f t="shared" si="154"/>
+        <v>-455</v>
+      </c>
+      <c r="H3211" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/county.xlsx
+++ b/county.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79C3AE8-5879-C34E-8FA6-480BC2FBD805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF551D-35B5-BF43-9BE4-D879F409564F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M3211"/>
+  <dimension ref="A1:M3241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3152" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3179" sqref="G3179"/>
+    <sheetView tabSelected="1" topLeftCell="A3148" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3172" sqref="H3172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -72610,7 +72610,7 @@
         <v>1758</v>
       </c>
       <c r="F3097" s="2">
-        <f t="shared" ref="F3097:G3160" si="152">SUM(D3097-D3067)</f>
+        <f t="shared" ref="F3097:G3146" si="152">SUM(D3097-D3067)</f>
         <v>20</v>
       </c>
       <c r="G3097" s="2">
@@ -73741,10 +73741,6 @@
       <c r="E3152" s="2">
         <v>4040</v>
       </c>
-      <c r="H3152" s="2">
-        <f t="shared" si="153"/>
-        <v>4848525</v>
-      </c>
       <c r="I3152" s="2">
         <v>4848525</v>
       </c>
@@ -73826,10 +73822,6 @@
       <c r="E3157" s="2">
         <v>1761</v>
       </c>
-      <c r="H3157" s="2">
-        <f t="shared" si="153"/>
-        <v>1742347</v>
-      </c>
       <c r="I3157" s="2">
         <v>1742347</v>
       </c>
@@ -73912,7 +73904,7 @@
         <v>1024</v>
       </c>
       <c r="F3162" s="2">
-        <f t="shared" ref="F3161:G3211" si="154">SUM(D3162-D3132)</f>
+        <f t="shared" ref="F3162:G3211" si="154">SUM(D3162-D3132)</f>
         <v>25</v>
       </c>
       <c r="G3162" s="2">
@@ -74036,10 +74028,6 @@
       <c r="E3167" s="2">
         <v>2642</v>
       </c>
-      <c r="H3167" s="2">
-        <f t="shared" si="153"/>
-        <v>1367919</v>
-      </c>
       <c r="I3167" s="2">
         <v>1367919</v>
       </c>
@@ -74121,10 +74109,6 @@
       <c r="E3172" s="2">
         <v>1653</v>
       </c>
-      <c r="H3172" s="2">
-        <f t="shared" si="153"/>
-        <v>968649</v>
-      </c>
       <c r="I3172" s="2">
         <f>SUM(97665+870984)</f>
         <v>968649</v>
@@ -74796,7 +74780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3201" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3201" s="3"/>
       <c r="C3201" s="3" t="s">
         <v>39</v>
@@ -74820,7 +74804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3202" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3202" s="3" t="s">
         <v>16</v>
       </c>
@@ -74850,7 +74834,7 @@
         <v>983641</v>
       </c>
     </row>
-    <row r="3203" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3203" s="3"/>
       <c r="C3203" s="3" t="s">
         <v>18</v>
@@ -74874,7 +74858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3204" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3204" s="3"/>
       <c r="C3204" s="3" t="s">
         <v>19</v>
@@ -74898,7 +74882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3205" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3205" s="3"/>
       <c r="C3205" s="3" t="s">
         <v>40</v>
@@ -74922,7 +74906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3206" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3206" s="3"/>
       <c r="C3206" s="3" t="s">
         <v>41</v>
@@ -74946,94 +74930,486 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3207" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3207" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3207" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="D3207" s="2">
+        <v>147759</v>
+      </c>
+      <c r="E3207" s="2">
+        <v>3988</v>
+      </c>
       <c r="F3207" s="2">
         <f t="shared" si="154"/>
-        <v>-143343</v>
+        <v>4416</v>
       </c>
       <c r="G3207" s="2">
         <f t="shared" si="154"/>
-        <v>-3932</v>
+        <v>56</v>
       </c>
       <c r="H3207" s="2">
         <f t="shared" si="155"/>
-        <v>-5915508</v>
-      </c>
-    </row>
-    <row r="3208" spans="2:9" x14ac:dyDescent="0.2">
+        <v>128591</v>
+      </c>
+      <c r="I3207" s="2">
+        <v>6044099</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3208" s="3"/>
       <c r="C3208" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="D3208" s="2">
+        <v>21857</v>
+      </c>
+      <c r="E3208" s="2">
+        <v>465</v>
+      </c>
       <c r="F3208" s="2">
         <f t="shared" si="154"/>
-        <v>-21448</v>
+        <v>409</v>
       </c>
       <c r="G3208" s="2">
         <f t="shared" si="154"/>
-        <v>-448</v>
+        <v>17</v>
       </c>
       <c r="H3208" s="2">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3209" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3209" s="3"/>
       <c r="C3209" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D3209" s="2">
+        <v>28904</v>
+      </c>
+      <c r="E3209" s="2">
+        <v>585</v>
+      </c>
       <c r="F3209" s="2">
         <f t="shared" si="154"/>
-        <v>-28492</v>
+        <v>412</v>
       </c>
       <c r="G3209" s="2">
         <f t="shared" si="154"/>
-        <v>-577</v>
+        <v>8</v>
       </c>
       <c r="H3209" s="2">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3210" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3210" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="D3210" s="2">
+        <v>6990</v>
+      </c>
+      <c r="E3210" s="2">
+        <v>176</v>
+      </c>
       <c r="F3210" s="2">
         <f t="shared" si="154"/>
-        <v>-6900</v>
+        <v>90</v>
       </c>
       <c r="G3210" s="2">
         <f t="shared" si="154"/>
-        <v>-173</v>
+        <v>3</v>
       </c>
       <c r="H3210" s="2">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3211" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3211" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="D3211" s="2">
+        <v>28525</v>
+      </c>
+      <c r="E3211" s="2">
+        <v>466</v>
+      </c>
       <c r="F3211" s="2">
         <f t="shared" si="154"/>
-        <v>-27718</v>
+        <v>807</v>
       </c>
       <c r="G3211" s="2">
         <f t="shared" si="154"/>
-        <v>-455</v>
+        <v>11</v>
       </c>
       <c r="H3211" s="2">
         <f t="shared" si="155"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3212" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B3212" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3212" s="2">
+        <v>66829</v>
+      </c>
+      <c r="E3212" s="2">
+        <v>4045</v>
+      </c>
+      <c r="I3212" s="2">
+        <v>499449</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3213" s="3"/>
+      <c r="C3213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3213" s="2">
+        <v>61233</v>
+      </c>
+      <c r="E3213" s="2">
+        <v>4539</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3214" s="3"/>
+      <c r="C3214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3214" s="2">
+        <v>42555</v>
+      </c>
+      <c r="E3214" s="2">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3215" s="3"/>
+      <c r="C3215" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3215" s="2">
+        <v>48643</v>
+      </c>
+      <c r="E3215" s="2">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3216" s="3"/>
+      <c r="C3216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3216" s="2">
+        <v>42382</v>
+      </c>
+      <c r="E3216" s="2">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="3217" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3217" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3217" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3217" s="2">
+        <v>19966</v>
+      </c>
+      <c r="E3217" s="2">
+        <v>1765</v>
+      </c>
+      <c r="I3217" s="2">
+        <v>1768928</v>
+      </c>
+    </row>
+    <row r="3218" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3218" s="3"/>
+      <c r="C3218" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3218" s="2">
+        <v>19246</v>
+      </c>
+      <c r="E3218" s="2">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="3219" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3219" s="3"/>
+      <c r="C3219" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3219" s="2">
+        <v>19111</v>
+      </c>
+      <c r="E3219" s="2">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="3220" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3220" s="3"/>
+      <c r="C3220" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3220" s="2">
+        <v>16540</v>
+      </c>
+      <c r="E3220" s="2">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="3221" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3221" s="3"/>
+      <c r="C3221" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3221" s="2">
+        <v>17154</v>
+      </c>
+      <c r="E3221" s="2">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="3222" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3222" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3222" s="2">
+        <v>20499</v>
+      </c>
+      <c r="E3222" s="2">
+        <v>1030</v>
+      </c>
+      <c r="I3222" s="2">
+        <v>1008195</v>
+      </c>
+    </row>
+    <row r="3223" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3223" s="3"/>
+      <c r="C3223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3223" s="2">
+        <v>24738</v>
+      </c>
+      <c r="E3223" s="2">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="3224" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3224" s="3"/>
+      <c r="C3224" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3224" s="2">
+        <v>16632</v>
+      </c>
+      <c r="E3224" s="2">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="3225" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3225" s="3"/>
+      <c r="C3225" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3225" s="2">
+        <v>9612</v>
+      </c>
+      <c r="E3225" s="2">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="3226" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3226" s="3"/>
+      <c r="C3226" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3226" s="2">
+        <v>12762</v>
+      </c>
+      <c r="E3226" s="2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="3227" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3227" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3227" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3227" s="2">
+        <v>23629</v>
+      </c>
+      <c r="E3227" s="2">
+        <v>2652</v>
+      </c>
+      <c r="I3227" s="2">
+        <v>1425506</v>
+      </c>
+    </row>
+    <row r="3228" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3228" s="3"/>
+      <c r="C3228" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3228" s="2">
+        <v>10016</v>
+      </c>
+      <c r="E3228" s="2">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3229" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3229" s="3"/>
+      <c r="C3229" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3229" s="2">
+        <v>7906</v>
+      </c>
+      <c r="E3229" s="2">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="3230" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3230" s="3"/>
+      <c r="C3230" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3230" s="2">
+        <v>2407</v>
+      </c>
+      <c r="E3230" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3231" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3231" s="3"/>
+      <c r="C3231" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3231" s="2">
+        <v>1824</v>
+      </c>
+      <c r="E3231" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3232" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3232" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3232" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3232" s="2">
+        <v>23558</v>
+      </c>
+      <c r="E3232" s="2">
+        <v>1665</v>
+      </c>
+      <c r="I3232" s="2">
+        <f>SUM(99478+899912)</f>
+        <v>999390</v>
+      </c>
+    </row>
+    <row r="3233" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3233" s="3"/>
+      <c r="C3233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3233" s="2">
+        <v>9060</v>
+      </c>
+      <c r="E3233" s="2">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3234" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3234" s="3"/>
+      <c r="C3234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3234" s="2">
+        <v>7762</v>
+      </c>
+      <c r="E3234" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3235" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3235" s="3"/>
+      <c r="C3235" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3235" s="2">
+        <v>4519</v>
+      </c>
+      <c r="E3235" s="2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3236" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3236" s="3"/>
+      <c r="C3236" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3236" s="2">
+        <v>4781</v>
+      </c>
+      <c r="E3236" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3237" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3237" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3237" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3238" s="3"/>
+      <c r="C3238" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3239" s="3"/>
+      <c r="C3239" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3240" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C3241" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/county.xlsx
+++ b/county.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Library/Containers/com.microsoft.Excel/Data/Desktop/raissa/coronavirus-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FF551D-35B5-BF43-9BE4-D879F409564F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093529EC-8061-704F-B6FC-95ED39057CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="16040" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M3241"/>
+  <dimension ref="A1:M3451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3148" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H3172" sqref="H3172"/>
+    <sheetView tabSelected="1" topLeftCell="A3407" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3422" sqref="E3422"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -75334,7 +75334,7 @@
         <v>999390</v>
       </c>
     </row>
-    <row r="3233" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3233" s="3"/>
       <c r="C3233" s="3" t="s">
         <v>18</v>
@@ -75346,7 +75346,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="3234" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3234" s="3"/>
       <c r="C3234" s="3" t="s">
         <v>19</v>
@@ -75358,7 +75358,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="3235" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3235" s="3"/>
       <c r="C3235" s="3" t="s">
         <v>40</v>
@@ -75370,7 +75370,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3236" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3236" s="3"/>
       <c r="C3236" s="3" t="s">
         <v>41</v>
@@ -75382,33 +75382,2774 @@
         <v>360</v>
       </c>
     </row>
-    <row r="3237" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3237" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3237" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3238" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3237" s="2">
+        <v>150481</v>
+      </c>
+      <c r="E3237" s="2">
+        <v>4047</v>
+      </c>
+      <c r="I3237" s="2">
+        <v>6167218</v>
+      </c>
+    </row>
+    <row r="3238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3238" s="3"/>
       <c r="C3238" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3239" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3238" s="2">
+        <v>22491</v>
+      </c>
+      <c r="E3238" s="2">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3239" s="3"/>
       <c r="C3239" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3240" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3239" s="2">
+        <v>29639</v>
+      </c>
+      <c r="E3239" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3240" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3241" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D3240" s="2">
+        <v>7080</v>
+      </c>
+      <c r="E3240" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3241" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3241" s="2">
+        <v>28962</v>
+      </c>
+      <c r="E3241" s="2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3242" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B3242" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3242" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3242" s="2">
+        <v>66921</v>
+      </c>
+      <c r="E3242" s="2">
+        <v>4045</v>
+      </c>
+      <c r="I3242" s="2">
+        <v>5069266</v>
+      </c>
+    </row>
+    <row r="3243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3243" s="3"/>
+      <c r="C3243" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3243" s="2">
+        <v>61351</v>
+      </c>
+      <c r="E3243" s="2">
+        <v>4540</v>
+      </c>
+    </row>
+    <row r="3244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3244" s="3"/>
+      <c r="C3244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3244" s="2">
+        <v>42594</v>
+      </c>
+      <c r="E3244" s="2">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="3245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3245" s="3"/>
+      <c r="C3245" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3245" s="2">
+        <v>48715</v>
+      </c>
+      <c r="E3245" s="2">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3246" s="3"/>
+      <c r="C3246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3246" s="2">
+        <v>42440</v>
+      </c>
+      <c r="E3246" s="2">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="3247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3247" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3247" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3247" s="2">
+        <v>19979</v>
+      </c>
+      <c r="E3247" s="2">
+        <v>1766</v>
+      </c>
+      <c r="I3247" s="2">
+        <v>1781450</v>
+      </c>
+    </row>
+    <row r="3248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3248" s="3"/>
+      <c r="C3248" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3248" s="2">
+        <v>19261</v>
+      </c>
+      <c r="E3248" s="2">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="3249" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3249" s="3"/>
+      <c r="C3249" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3249" s="2">
+        <v>19105</v>
+      </c>
+      <c r="E3249" s="2">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="3250" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3250" s="3"/>
+      <c r="C3250" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3250" s="2">
+        <v>16546</v>
+      </c>
+      <c r="E3250" s="2">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="3251" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3251" s="3"/>
+      <c r="C3251" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3251" s="2">
+        <v>17167</v>
+      </c>
+      <c r="E3251" s="2">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="3252" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3252" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3252" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3252" s="2">
+        <v>20555</v>
+      </c>
+      <c r="E3252" s="2">
+        <v>1035</v>
+      </c>
+      <c r="I3252" s="2">
+        <v>1020259</v>
+      </c>
+    </row>
+    <row r="3253" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3253" s="3"/>
+      <c r="C3253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3253" s="2">
+        <v>24809</v>
+      </c>
+      <c r="E3253" s="2">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="3254" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3254" s="3"/>
+      <c r="C3254" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3254" s="2">
+        <v>16710</v>
+      </c>
+      <c r="E3254" s="2">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="3255" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3255" s="3"/>
+      <c r="C3255" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3255" s="2">
+        <v>9658</v>
+      </c>
+      <c r="E3255" s="2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="3256" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3256" s="3"/>
+      <c r="C3256" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3256" s="2">
+        <v>12802</v>
+      </c>
+      <c r="E3256" s="2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="3257" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3257" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3257" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3257" s="2">
+        <v>23750</v>
+      </c>
+      <c r="E3257" s="2">
+        <v>2658</v>
+      </c>
+      <c r="I3257" s="2">
+        <v>1456078</v>
+      </c>
+    </row>
+    <row r="3258" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3258" s="3"/>
+      <c r="C3258" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3258" s="2">
+        <v>10081</v>
+      </c>
+      <c r="E3258" s="2">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3259" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3259" s="3"/>
+      <c r="C3259" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3259" s="2">
+        <v>7960</v>
+      </c>
+      <c r="E3259" s="2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3260" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3260" s="3"/>
+      <c r="C3260" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3260" s="2">
+        <v>2438</v>
+      </c>
+      <c r="E3260" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3261" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3261" s="3"/>
+      <c r="C3261" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3261" s="2">
+        <v>1874</v>
+      </c>
+      <c r="E3261" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3262" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3262" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3262" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3262" s="2">
+        <v>23657</v>
+      </c>
+      <c r="E3262" s="2">
+        <v>1665</v>
+      </c>
+      <c r="I3262" s="2">
+        <f>SUM(100241+912486)</f>
+        <v>1012727</v>
+      </c>
+    </row>
+    <row r="3263" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3263" s="3"/>
+      <c r="C3263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3263" s="2">
+        <v>9091</v>
+      </c>
+      <c r="E3263" s="2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3264" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3264" s="3"/>
+      <c r="C3264" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3264" s="2">
+        <v>7815</v>
+      </c>
+      <c r="E3264" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3265" s="3"/>
+      <c r="C3265" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3265" s="2">
+        <v>4541</v>
+      </c>
+      <c r="E3265" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3266" s="3"/>
+      <c r="C3266" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3266" s="2">
+        <v>4798</v>
+      </c>
+      <c r="E3266" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3267" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3267" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3267" s="2">
+        <v>153265</v>
+      </c>
+      <c r="E3267" s="2">
+        <v>4084</v>
+      </c>
+      <c r="I3267" s="2">
+        <v>6286852</v>
+      </c>
+    </row>
+    <row r="3268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3268" s="3"/>
+      <c r="C3268" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3268" s="2">
+        <v>23116</v>
+      </c>
+      <c r="E3268" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3269" s="3"/>
+      <c r="C3269" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3269" s="2">
+        <v>30245</v>
+      </c>
+      <c r="E3269" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3270" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3270" s="2">
+        <v>7255</v>
+      </c>
+      <c r="E3270" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3271" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3271" s="2">
+        <v>29603</v>
+      </c>
+      <c r="E3271" s="2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3272" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B3272" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3272" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3272" s="2">
+        <v>67007</v>
+      </c>
+      <c r="E3272" s="2">
+        <v>4048</v>
+      </c>
+      <c r="I3272" s="2">
+        <v>5115470</v>
+      </c>
+    </row>
+    <row r="3273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3273" s="3"/>
+      <c r="C3273" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3273" s="2">
+        <v>61432</v>
+      </c>
+      <c r="E3273" s="2">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="3274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3274" s="3"/>
+      <c r="C3274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3274" s="2">
+        <v>42622</v>
+      </c>
+      <c r="E3274" s="2">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="3275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3275" s="3"/>
+      <c r="C3275" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3275" s="2">
+        <v>48769</v>
+      </c>
+      <c r="E3275" s="2">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="3276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3276" s="3"/>
+      <c r="C3276" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3276" s="2">
+        <v>42466</v>
+      </c>
+      <c r="E3276" s="2">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="3277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3277" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3277" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3277" s="2">
+        <v>19980</v>
+      </c>
+      <c r="E3277" s="2">
+        <v>1765</v>
+      </c>
+      <c r="I3277" s="2">
+        <v>1791137</v>
+      </c>
+    </row>
+    <row r="3278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3278" s="3"/>
+      <c r="C3278" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3278" s="2">
+        <v>19248</v>
+      </c>
+      <c r="E3278" s="2">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="3279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3279" s="3"/>
+      <c r="C3279" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3279" s="2">
+        <v>19105</v>
+      </c>
+      <c r="E3279" s="2">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="3280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3280" s="3"/>
+      <c r="C3280" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3280" s="2">
+        <v>16508</v>
+      </c>
+      <c r="E3280" s="2">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="3281" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3281" s="3"/>
+      <c r="C3281" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3281" s="2">
+        <v>17162</v>
+      </c>
+      <c r="E3281" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="3282" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3282" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3282" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3282" s="2">
+        <v>20601</v>
+      </c>
+      <c r="E3282" s="2">
+        <v>1035</v>
+      </c>
+      <c r="I3282" s="2">
+        <v>1033883</v>
+      </c>
+    </row>
+    <row r="3283" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3283" s="3"/>
+      <c r="C3283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3283" s="2">
+        <v>24886</v>
+      </c>
+      <c r="E3283" s="2">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="3284" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3284" s="3"/>
+      <c r="C3284" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3284" s="2">
+        <v>16733</v>
+      </c>
+      <c r="E3284" s="2">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="3285" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3285" s="3"/>
+      <c r="C3285" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3285" s="2">
+        <v>9699</v>
+      </c>
+      <c r="E3285" s="2">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="3286" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3286" s="3"/>
+      <c r="C3286" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3286" s="2">
+        <v>12830</v>
+      </c>
+      <c r="E3286" s="2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="3287" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3287" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3287" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3287" s="2">
+        <v>23827</v>
+      </c>
+      <c r="E3287" s="2">
+        <v>2659</v>
+      </c>
+      <c r="I3287" s="2">
+        <v>1484459</v>
+      </c>
+    </row>
+    <row r="3288" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3288" s="3"/>
+      <c r="C3288" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3288" s="2">
+        <v>10149</v>
+      </c>
+      <c r="E3288" s="2">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="3289" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3289" s="3"/>
+      <c r="C3289" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3289" s="2">
+        <v>8042</v>
+      </c>
+      <c r="E3289" s="2">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3290" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3290" s="3"/>
+      <c r="C3290" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3290" s="2">
+        <v>2449</v>
+      </c>
+      <c r="E3290" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3291" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3291" s="3"/>
+      <c r="C3291" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3291" s="2">
+        <v>1833</v>
+      </c>
+      <c r="E3291" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3292" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3292" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3292" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3292" s="2">
+        <v>23839</v>
+      </c>
+      <c r="E3292" s="2">
+        <v>1665</v>
+      </c>
+      <c r="I3292" s="2">
+        <f>SUM(101027+926352)</f>
+        <v>1027379</v>
+      </c>
+    </row>
+    <row r="3293" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3293" s="3"/>
+      <c r="C3293" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3293" s="2">
+        <v>9148</v>
+      </c>
+      <c r="E3293" s="2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3294" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3294" s="3"/>
+      <c r="C3294" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3294" s="2">
+        <v>7863</v>
+      </c>
+      <c r="E3294" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3295" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3295" s="3"/>
+      <c r="C3295" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3295" s="2">
+        <v>4546</v>
+      </c>
+      <c r="E3295" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3296" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3296" s="3"/>
+      <c r="C3296" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3296" s="2">
+        <v>4821</v>
+      </c>
+      <c r="E3296" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3297" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3297" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3297" s="2">
+        <v>156039</v>
+      </c>
+      <c r="E3297" s="2">
+        <v>4095</v>
+      </c>
+      <c r="I3297" s="2">
+        <v>6414321</v>
+      </c>
+    </row>
+    <row r="3298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3298" s="3"/>
+      <c r="C3298" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3298" s="2">
+        <v>23684</v>
+      </c>
+      <c r="E3298" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3299" s="3"/>
+      <c r="C3299" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3299" s="2">
+        <v>30340</v>
+      </c>
+      <c r="E3299" s="2">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3300" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3300" s="2">
+        <v>7403</v>
+      </c>
+      <c r="E3300" s="2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3301" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3301" s="2">
+        <v>29941</v>
+      </c>
+      <c r="E3301" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3302" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B3302" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3302" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3302" s="2">
+        <v>67079</v>
+      </c>
+      <c r="E3302" s="2">
+        <v>4049</v>
+      </c>
+      <c r="I3302" s="2">
+        <v>5164812</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3303" s="3"/>
+      <c r="C3303" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3303" s="2">
+        <v>61488</v>
+      </c>
+      <c r="E3303" s="2">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3304" s="3"/>
+      <c r="C3304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3304" s="2">
+        <v>42678</v>
+      </c>
+      <c r="E3304" s="2">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3305" s="3"/>
+      <c r="C3305" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3305" s="2">
+        <v>48837</v>
+      </c>
+      <c r="E3305" s="2">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="3306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3306" s="3"/>
+      <c r="C3306" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3306" s="2">
+        <v>42496</v>
+      </c>
+      <c r="E3306" s="2">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3307" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3307" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3307" s="2">
+        <v>20034</v>
+      </c>
+      <c r="E3307" s="2">
+        <v>1765</v>
+      </c>
+      <c r="I3307" s="2">
+        <v>1802874</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3308" s="3"/>
+      <c r="C3308" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3308" s="2">
+        <v>19263</v>
+      </c>
+      <c r="E3308" s="2">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="3309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3309" s="3"/>
+      <c r="C3309" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3309" s="2">
+        <v>19121</v>
+      </c>
+      <c r="E3309" s="2">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3310" s="3"/>
+      <c r="C3310" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3310" s="2">
+        <v>16517</v>
+      </c>
+      <c r="E3310" s="2">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="3311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3311" s="3"/>
+      <c r="C3311" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3311" s="2">
+        <v>17172</v>
+      </c>
+      <c r="E3311" s="2">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3312" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3312" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3312" s="2">
+        <v>20621</v>
+      </c>
+      <c r="E3312" s="2">
+        <v>1035</v>
+      </c>
+      <c r="I3312" s="2">
+        <v>1044548</v>
+      </c>
+    </row>
+    <row r="3313" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3313" s="3"/>
+      <c r="C3313" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3313" s="2">
+        <v>24958</v>
+      </c>
+      <c r="E3313" s="2">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="3314" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3314" s="3"/>
+      <c r="C3314" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3314" s="2">
+        <v>16757</v>
+      </c>
+      <c r="E3314" s="2">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="3315" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3315" s="3"/>
+      <c r="C3315" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3315" s="2">
+        <v>9737</v>
+      </c>
+      <c r="E3315" s="2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="3316" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3316" s="3"/>
+      <c r="C3316" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3316" s="2">
+        <v>12859</v>
+      </c>
+      <c r="E3316" s="2">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="3317" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3317" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3317" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3317" s="2">
+        <v>34909</v>
+      </c>
+      <c r="E3317" s="2">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="3318" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3318" s="3"/>
+      <c r="C3318" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3318" s="2">
+        <v>10191</v>
+      </c>
+      <c r="E3318" s="2">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="3319" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3319" s="3"/>
+      <c r="C3319" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3319" s="2">
+        <v>8107</v>
+      </c>
+      <c r="E3319" s="2">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="3320" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3320" s="3"/>
+      <c r="C3320" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3320" s="2">
+        <v>2476</v>
+      </c>
+      <c r="E3320" s="2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3321" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3321" s="3"/>
+      <c r="C3321" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3321" s="2">
+        <v>1848</v>
+      </c>
+      <c r="E3321" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3322" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3322" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3322" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3322" s="2">
+        <v>23925</v>
+      </c>
+      <c r="E3322" s="2">
+        <v>1665</v>
+      </c>
+      <c r="I3322" s="2">
+        <f>SUM(101738+938175)</f>
+        <v>1039913</v>
+      </c>
+    </row>
+    <row r="3323" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3323" s="3"/>
+      <c r="C3323" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3323" s="2">
+        <v>9182</v>
+      </c>
+      <c r="E3323" s="2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3324" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3324" s="3"/>
+      <c r="C3324" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3324" s="2">
+        <v>7903</v>
+      </c>
+      <c r="E3324" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3325" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3325" s="3"/>
+      <c r="C3325" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3325" s="2">
+        <v>4564</v>
+      </c>
+      <c r="E3325" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3326" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3326" s="3"/>
+      <c r="C3326" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3326" s="2">
+        <v>4845</v>
+      </c>
+      <c r="E3326" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3327" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3327" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3327" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3327" s="2">
+        <v>159202</v>
+      </c>
+      <c r="E3327" s="2">
+        <v>4104</v>
+      </c>
+      <c r="I3327" s="2">
+        <v>6536932</v>
+      </c>
+    </row>
+    <row r="3328" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3328" s="3"/>
+      <c r="C3328" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3328" s="2">
+        <v>24137</v>
+      </c>
+      <c r="E3328" s="2">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3329" s="3"/>
+      <c r="C3329" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3329" s="2">
+        <v>31163</v>
+      </c>
+      <c r="E3329" s="2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3330" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3330" s="2">
+        <v>7711</v>
+      </c>
+      <c r="E3330" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3331" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3331" s="2">
+        <v>30337</v>
+      </c>
+      <c r="E3331" s="2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3332" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B3332" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3332" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3332" s="2">
+        <v>67194</v>
+      </c>
+      <c r="E3332" s="2">
+        <v>4049</v>
+      </c>
+      <c r="I3332" s="2">
+        <v>5230981</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3333" s="3"/>
+      <c r="C3333" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3333" s="2">
+        <v>61568</v>
+      </c>
+      <c r="E3333" s="2">
+        <v>4542</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3334" s="3"/>
+      <c r="C3334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3334" s="2">
+        <v>42729</v>
+      </c>
+      <c r="E3334" s="2">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3335" s="3"/>
+      <c r="C3335" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3335" s="2">
+        <v>48926</v>
+      </c>
+      <c r="E3335" s="2">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3336" s="3"/>
+      <c r="C3336" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3336" s="2">
+        <v>42575</v>
+      </c>
+      <c r="E3336" s="2">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3337" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3337" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3337" s="2">
+        <v>20052</v>
+      </c>
+      <c r="E3337" s="2">
+        <v>1764</v>
+      </c>
+      <c r="I3337" s="2">
+        <v>1817955</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3338" s="3"/>
+      <c r="C3338" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3338" s="2">
+        <v>19267</v>
+      </c>
+      <c r="E3338" s="2">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3339" s="3"/>
+      <c r="C3339" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3339" s="2">
+        <v>19153</v>
+      </c>
+      <c r="E3339" s="2">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3340" s="3"/>
+      <c r="C3340" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3340" s="2">
+        <v>16515</v>
+      </c>
+      <c r="E3340" s="2">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3341" s="3"/>
+      <c r="C3341" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3341" s="2">
+        <v>17181</v>
+      </c>
+      <c r="E3341" s="2">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3342" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3342" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3342" s="2">
+        <v>20650</v>
+      </c>
+      <c r="E3342" s="2">
+        <v>1039</v>
+      </c>
+      <c r="I3342" s="2">
+        <v>1052369</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3343" s="3"/>
+      <c r="C3343" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3343" s="2">
+        <v>25011</v>
+      </c>
+      <c r="E3343" s="2">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3344" s="3"/>
+      <c r="C3344" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3344" s="2">
+        <v>16784</v>
+      </c>
+      <c r="E3344" s="2">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="3345" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3345" s="3"/>
+      <c r="C3345" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3345" s="2">
+        <v>9779</v>
+      </c>
+      <c r="E3345" s="2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="3346" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3346" s="3"/>
+      <c r="C3346" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3346" s="2">
+        <v>12894</v>
+      </c>
+      <c r="E3346" s="2">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="3347" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3347" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3347" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3347" s="2">
+        <v>24033</v>
+      </c>
+      <c r="E3347" s="2">
+        <v>2660</v>
+      </c>
+      <c r="I3347" s="2">
+        <v>1529375</v>
+      </c>
+    </row>
+    <row r="3348" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3348" s="3"/>
+      <c r="C3348" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3348" s="2">
+        <v>10313</v>
+      </c>
+      <c r="E3348" s="2">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="3349" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3349" s="3"/>
+      <c r="C3349" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3349" s="2">
+        <v>8183</v>
+      </c>
+      <c r="E3349" s="2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="3350" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3350" s="3"/>
+      <c r="C3350" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3350" s="2">
+        <v>2501</v>
+      </c>
+      <c r="E3350" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3351" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3351" s="3"/>
+      <c r="C3351" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3351" s="2">
+        <v>1860</v>
+      </c>
+      <c r="E3351" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3352" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3352" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3352" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3352" s="2">
+        <v>24093</v>
+      </c>
+      <c r="E3352" s="2">
+        <v>1666</v>
+      </c>
+      <c r="I3352" s="2">
+        <f>SUM(102765+952998)</f>
+        <v>1055763</v>
+      </c>
+    </row>
+    <row r="3353" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3353" s="3"/>
+      <c r="C3353" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3353" s="2">
+        <v>9222</v>
+      </c>
+      <c r="E3353" s="2">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3354" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3354" s="3"/>
+      <c r="C3354" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3354" s="2">
+        <v>7962</v>
+      </c>
+      <c r="E3354" s="2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3355" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3355" s="3"/>
+      <c r="C3355" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3355" s="2">
+        <v>4585</v>
+      </c>
+      <c r="E3355" s="2">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3356" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3356" s="3"/>
+      <c r="C3356" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3356" s="2">
+        <v>4865</v>
+      </c>
+      <c r="E3356" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3357" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3357" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3357" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3357" s="2">
+        <v>162205</v>
+      </c>
+      <c r="E3357" s="2">
+        <v>4154</v>
+      </c>
+      <c r="I3357" s="2">
+        <v>6664998</v>
+      </c>
+    </row>
+    <row r="3358" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3358" s="3"/>
+      <c r="C3358" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3358" s="2">
+        <v>24522</v>
+      </c>
+      <c r="E3358" s="2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3359" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3359" s="3"/>
+      <c r="C3359" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3359" s="2">
+        <v>32231</v>
+      </c>
+      <c r="E3359" s="2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="3360" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C3360" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3360" s="2">
+        <v>7989</v>
+      </c>
+      <c r="E3360" s="2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3361" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3361" s="2">
+        <v>31356</v>
+      </c>
+      <c r="E3361" s="2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3362" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B3362" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3362" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3362" s="2">
+        <v>67265</v>
+      </c>
+      <c r="E3362" s="2">
+        <v>4050</v>
+      </c>
+      <c r="I3362" s="2">
+        <v>5298640</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3363" s="3"/>
+      <c r="C3363" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3363" s="2">
+        <v>61662</v>
+      </c>
+      <c r="E3363" s="2">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3364" s="3"/>
+      <c r="C3364" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3364" s="2">
+        <v>42765</v>
+      </c>
+      <c r="E3364" s="2">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3365" s="3"/>
+      <c r="C3365" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3365" s="2">
+        <v>49017</v>
+      </c>
+      <c r="E3365" s="2">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3366" s="3"/>
+      <c r="C3366" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3366" s="2">
+        <v>42621</v>
+      </c>
+      <c r="E3366" s="2">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3367" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3367" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3367" s="2">
+        <v>20099</v>
+      </c>
+      <c r="E3367" s="2">
+        <v>1768</v>
+      </c>
+      <c r="I3367" s="2">
+        <v>1840929</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3368" s="3"/>
+      <c r="C3368" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3368" s="2">
+        <v>19281</v>
+      </c>
+      <c r="E3368" s="2">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3369" s="3"/>
+      <c r="C3369" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3369" s="2">
+        <v>19173</v>
+      </c>
+      <c r="E3369" s="2">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3370" s="3"/>
+      <c r="C3370" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3370" s="2">
+        <v>16351</v>
+      </c>
+      <c r="E3370" s="2">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3371" s="3"/>
+      <c r="C3371" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3371" s="2">
+        <v>17196</v>
+      </c>
+      <c r="E3371" s="2">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3372" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3372" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3372" s="2">
+        <v>20678</v>
+      </c>
+      <c r="E3372" s="2">
+        <v>1039</v>
+      </c>
+      <c r="I3372" s="2">
+        <v>1063155</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3373" s="3"/>
+      <c r="C3373" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3373" s="2">
+        <v>25084</v>
+      </c>
+      <c r="E3373" s="2">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3374" s="3"/>
+      <c r="C3374" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3374" s="2">
+        <v>16815</v>
+      </c>
+      <c r="E3374" s="2">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3375" s="3"/>
+      <c r="C3375" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3375" s="2">
+        <v>9821</v>
+      </c>
+      <c r="E3375" s="2">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3376" s="3"/>
+      <c r="C3376" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3376" s="2">
+        <v>12933</v>
+      </c>
+      <c r="E3376" s="2">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3377" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3377" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3377" s="2">
+        <v>24143</v>
+      </c>
+      <c r="E3377" s="2">
+        <v>2662</v>
+      </c>
+      <c r="I3377" s="2">
+        <v>1559613</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3378" s="3"/>
+      <c r="C3378" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3378" s="2">
+        <v>10385</v>
+      </c>
+      <c r="E3378" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3379" s="3"/>
+      <c r="C3379" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3379" s="2">
+        <v>8263</v>
+      </c>
+      <c r="E3379" s="2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3380" s="3"/>
+      <c r="C3380" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3380" s="2">
+        <v>2524</v>
+      </c>
+      <c r="E3380" s="2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3381" s="3"/>
+      <c r="C3381" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3381" s="2">
+        <v>1890</v>
+      </c>
+      <c r="E3381" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3382" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3382" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3382" s="2">
+        <v>24092</v>
+      </c>
+      <c r="E3382" s="2">
+        <v>1673</v>
+      </c>
+      <c r="I3382" s="2">
+        <f>SUM(103396+968081)</f>
+        <v>1071477</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3383" s="3"/>
+      <c r="C3383" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3383" s="2">
+        <v>9282</v>
+      </c>
+      <c r="E3383" s="2">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3384" s="3"/>
+      <c r="C3384" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3384" s="2">
+        <v>8003</v>
+      </c>
+      <c r="E3384" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3385" s="3"/>
+      <c r="C3385" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3385" s="2">
+        <v>4600</v>
+      </c>
+      <c r="E3385" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3386" s="3"/>
+      <c r="C3386" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3386" s="2">
+        <v>4889</v>
+      </c>
+      <c r="E3386" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3387" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3387" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3387" s="2">
+        <v>165242</v>
+      </c>
+      <c r="E3387" s="2">
+        <v>4213</v>
+      </c>
+      <c r="I3387" s="2">
+        <v>6778304</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3388" s="3"/>
+      <c r="C3388" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3388" s="2">
+        <v>25109</v>
+      </c>
+      <c r="E3388" s="2">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3389" s="3"/>
+      <c r="C3389" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3389" s="2">
+        <v>33093</v>
+      </c>
+      <c r="E3389" s="2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3390" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3390" s="2">
+        <v>8266</v>
+      </c>
+      <c r="E3390" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3391" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3391" s="2">
+        <v>32047</v>
+      </c>
+      <c r="E3391" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3392" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B3392" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3392" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3392" s="2">
+        <v>67374</v>
+      </c>
+      <c r="E3392" s="2">
+        <v>4051</v>
+      </c>
+      <c r="I3392" s="2">
+        <v>5368338</v>
+      </c>
+    </row>
+    <row r="3393" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3393" s="3"/>
+      <c r="C3393" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3393" s="2">
+        <v>61752</v>
+      </c>
+      <c r="E3393" s="2">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="3394" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3394" s="3"/>
+      <c r="C3394" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3394" s="2">
+        <v>42816</v>
+      </c>
+      <c r="E3394" s="2">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3395" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3395" s="3"/>
+      <c r="C3395" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3395" s="2">
+        <v>49086</v>
+      </c>
+      <c r="E3395" s="2">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="3396" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3396" s="3"/>
+      <c r="C3396" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3396" s="2">
+        <v>42715</v>
+      </c>
+      <c r="E3396" s="2">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3397" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3397" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3397" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3397" s="2">
+        <v>20133</v>
+      </c>
+      <c r="E3397" s="2">
+        <v>1771</v>
+      </c>
+      <c r="I3397" s="2">
+        <v>1859638</v>
+      </c>
+    </row>
+    <row r="3398" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3398" s="3"/>
+      <c r="C3398" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3398" s="2">
+        <v>19289</v>
+      </c>
+      <c r="E3398" s="2">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="3399" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3399" s="3"/>
+      <c r="C3399" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3399" s="2">
+        <v>19198</v>
+      </c>
+      <c r="E3399" s="2">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="3400" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3400" s="3"/>
+      <c r="C3400" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3400" s="2">
+        <v>16297</v>
+      </c>
+      <c r="E3400" s="2">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="3401" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3401" s="3"/>
+      <c r="C3401" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3401" s="2">
+        <v>17214</v>
+      </c>
+      <c r="E3401" s="2">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="3402" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3402" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3402" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3402" s="2">
+        <v>20732</v>
+      </c>
+      <c r="E3402" s="2">
+        <v>1042</v>
+      </c>
+      <c r="I3402" s="2">
+        <v>1079288</v>
+      </c>
+    </row>
+    <row r="3403" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3403" s="3"/>
+      <c r="C3403" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3403" s="2">
+        <v>25123</v>
+      </c>
+      <c r="E3403" s="2">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="3404" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3404" s="3"/>
+      <c r="C3404" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3404" s="2">
+        <v>16856</v>
+      </c>
+      <c r="E3404" s="2">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="3405" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3405" s="3"/>
+      <c r="C3405" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3405" s="2">
+        <v>9849</v>
+      </c>
+      <c r="E3405" s="2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="3406" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3406" s="3"/>
+      <c r="C3406" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3406" s="2">
+        <v>12972</v>
+      </c>
+      <c r="E3406" s="2">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="3407" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3407" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3407" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3407" s="2">
+        <v>24261</v>
+      </c>
+      <c r="E3407" s="2">
+        <v>2666</v>
+      </c>
+      <c r="I3407" s="2">
+        <v>1586724</v>
+      </c>
+    </row>
+    <row r="3408" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3408" s="3"/>
+      <c r="C3408" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3408" s="2">
+        <v>10476</v>
+      </c>
+      <c r="E3408" s="2">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3409" s="3"/>
+      <c r="C3409" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3409" s="2">
+        <v>8323</v>
+      </c>
+      <c r="E3409" s="2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3410" s="3"/>
+      <c r="C3410" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3410" s="2">
+        <v>2557</v>
+      </c>
+      <c r="E3410" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3411" s="3"/>
+      <c r="C3411" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3411" s="2">
+        <v>1907</v>
+      </c>
+      <c r="E3411" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3412" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3412" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3412" s="2">
+        <v>24403</v>
+      </c>
+      <c r="E3412" s="2">
+        <v>1675</v>
+      </c>
+      <c r="I3412" s="2">
+        <f>SUM(104358+981259)</f>
+        <v>1085617</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3413" s="3"/>
+      <c r="C3413" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3413" s="2">
+        <v>9311</v>
+      </c>
+      <c r="E3413" s="2">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3414" s="3"/>
+      <c r="C3414" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3414" s="2">
+        <v>8049</v>
+      </c>
+      <c r="E3414" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3415" s="3"/>
+      <c r="C3415" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3415" s="2">
+        <v>4609</v>
+      </c>
+      <c r="E3415" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3416" s="3"/>
+      <c r="C3416" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3416" s="2">
+        <v>4919</v>
+      </c>
+      <c r="E3416" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3417" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3417" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3417" s="2">
+        <v>167198</v>
+      </c>
+      <c r="E3417" s="2">
+        <v>4262</v>
+      </c>
+      <c r="I3417" s="2">
+        <v>6915876</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3418" s="3"/>
+      <c r="C3418" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3418" s="2">
+        <v>25615</v>
+      </c>
+      <c r="E3418" s="2">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3419" s="3"/>
+      <c r="C3419" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3419" s="2">
+        <v>33833</v>
+      </c>
+      <c r="E3419" s="2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3420" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3420" s="2">
+        <v>8458</v>
+      </c>
+      <c r="E3420" s="2">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C3421" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3421" s="2">
+        <v>32863</v>
+      </c>
+      <c r="E3421" s="2">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3422" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B3422" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3422" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3422" s="2">
+        <v>67458</v>
+      </c>
+      <c r="E3422" s="2">
+        <v>4053</v>
+      </c>
+      <c r="I3422" s="2">
+        <v>5444845</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3423" s="3"/>
+      <c r="C3423" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3423" s="2">
+        <v>61824</v>
+      </c>
+      <c r="E3423" s="2">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3424" s="3"/>
+      <c r="C3424" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3424" s="2">
+        <v>42860</v>
+      </c>
+      <c r="E3424" s="2">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="3425" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3425" s="3"/>
+      <c r="C3425" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3425" s="2">
+        <v>49200</v>
+      </c>
+      <c r="E3425" s="2">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="3426" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3426" s="3"/>
+      <c r="C3426" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3426" s="2">
+        <v>42773</v>
+      </c>
+      <c r="E3426" s="2">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="3427" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3427" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3427" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3427" s="2">
+        <v>20162</v>
+      </c>
+      <c r="E3427" s="2">
+        <v>1778</v>
+      </c>
+      <c r="I3427" s="2">
+        <v>1887644</v>
+      </c>
+    </row>
+    <row r="3428" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3428" s="3"/>
+      <c r="C3428" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3428" s="2">
+        <v>19313</v>
+      </c>
+      <c r="E3428" s="2">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="3429" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3429" s="3"/>
+      <c r="C3429" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3429" s="2">
+        <v>19228</v>
+      </c>
+      <c r="E3429" s="2">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="3430" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3430" s="3"/>
+      <c r="C3430" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3430" s="2">
+        <v>16321</v>
+      </c>
+      <c r="E3430" s="2">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="3431" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3431" s="3"/>
+      <c r="C3431" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3431" s="2">
+        <v>17237</v>
+      </c>
+      <c r="E3431" s="2">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="3432" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3432" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3432" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3432" s="2">
+        <v>20793</v>
+      </c>
+      <c r="E3432" s="2">
+        <v>1044</v>
+      </c>
+      <c r="I3432" s="2">
+        <v>1092392</v>
+      </c>
+    </row>
+    <row r="3433" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3433" s="3"/>
+      <c r="C3433" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3433" s="2">
+        <v>25190</v>
+      </c>
+      <c r="E3433" s="2">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="3434" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3434" s="3"/>
+      <c r="C3434" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3434" s="2">
+        <v>16883</v>
+      </c>
+      <c r="E3434" s="2">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="3435" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3435" s="3"/>
+      <c r="C3435" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3435" s="2">
+        <v>9895</v>
+      </c>
+      <c r="E3435" s="2">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="3436" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3436" s="3"/>
+      <c r="C3436" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3436" s="2">
+        <v>13019</v>
+      </c>
+      <c r="E3436" s="2">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="3437" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3437" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3437" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3437" s="2">
+        <v>24371</v>
+      </c>
+      <c r="E3437" s="2">
+        <v>2666</v>
+      </c>
+      <c r="I3437" s="2">
+        <v>1614646</v>
+      </c>
+    </row>
+    <row r="3438" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3438" s="3"/>
+      <c r="C3438" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3438" s="2">
+        <v>10542</v>
+      </c>
+      <c r="E3438" s="2">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="3439" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3439" s="3"/>
+      <c r="C3439" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3439" s="2">
+        <v>8425</v>
+      </c>
+      <c r="E3439" s="2">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="3440" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3440" s="3"/>
+      <c r="C3440" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3440" s="2">
+        <v>2582</v>
+      </c>
+      <c r="E3440" s="2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3441" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3441" s="3"/>
+      <c r="C3441" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3441" s="2">
+        <v>1915</v>
+      </c>
+      <c r="E3441" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3442" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3442" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3442" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3442" s="2">
+        <v>24630</v>
+      </c>
+      <c r="E3442" s="2">
+        <v>1676</v>
+      </c>
+      <c r="I3442" s="2">
+        <f>SUM(105571+999377)</f>
+        <v>1104948</v>
+      </c>
+    </row>
+    <row r="3443" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3443" s="3"/>
+      <c r="C3443" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3443" s="2">
+        <v>9385</v>
+      </c>
+      <c r="E3443" s="2">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="3444" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3444" s="3"/>
+      <c r="C3444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3444" s="2">
+        <v>8140</v>
+      </c>
+      <c r="E3444" s="2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3445" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3445" s="3"/>
+      <c r="C3445" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3445" s="2">
+        <v>4624</v>
+      </c>
+      <c r="E3445" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3446" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3446" s="3"/>
+      <c r="C3446" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3446" s="2">
+        <v>4977</v>
+      </c>
+      <c r="E3446" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3447" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3447" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3447" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3448" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3448" s="3"/>
+      <c r="C3448" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3449" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3449" s="3"/>
+      <c r="C3449" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3450" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C3450" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3451" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C3451" s="3" t="s">
         <v>43</v>
       </c>
     </row>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093529EC-8061-704F-B6FC-95ED39057CC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51492361-D589-4F46-B670-232DD3ECE064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4150" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="44">
   <si>
     <t>DATE</t>
   </si>
@@ -527,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
-  <dimension ref="A1:M3451"/>
+  <dimension ref="A1:M3481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3407" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3422" sqref="E3422"/>
+    <sheetView tabSelected="1" topLeftCell="A3424" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3306" sqref="D3306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -73904,7 +73904,7 @@
         <v>1024</v>
       </c>
       <c r="F3162" s="2">
-        <f t="shared" ref="F3162:G3211" si="154">SUM(D3162-D3132)</f>
+        <f t="shared" ref="F3162:G3212" si="154">SUM(D3162-D3132)</f>
         <v>25</v>
       </c>
       <c r="G3162" s="2">
@@ -75069,6 +75069,14 @@
       <c r="E3212" s="2">
         <v>4045</v>
       </c>
+      <c r="F3212" s="2">
+        <f t="shared" si="154"/>
+        <v>94</v>
+      </c>
+      <c r="G3212" s="2">
+        <f t="shared" si="154"/>
+        <v>2</v>
+      </c>
       <c r="I3212" s="2">
         <v>499449</v>
       </c>
@@ -75084,6 +75092,14 @@
       <c r="E3213" s="2">
         <v>4539</v>
       </c>
+      <c r="F3213" s="2">
+        <f t="shared" ref="F3213:G3276" si="156">SUM(D3213-D3183)</f>
+        <v>109</v>
+      </c>
+      <c r="G3213" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3214" s="3"/>
@@ -75096,6 +75112,14 @@
       <c r="E3214" s="2">
         <v>2704</v>
       </c>
+      <c r="F3214" s="2">
+        <f t="shared" si="156"/>
+        <v>49</v>
+      </c>
+      <c r="G3214" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3215" s="3"/>
@@ -75108,6 +75132,14 @@
       <c r="E3215" s="2">
         <v>3058</v>
       </c>
+      <c r="F3215" s="2">
+        <f t="shared" si="156"/>
+        <v>68</v>
+      </c>
+      <c r="G3215" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3216" s="3"/>
@@ -75120,6 +75152,14 @@
       <c r="E3216" s="2">
         <v>2040</v>
       </c>
+      <c r="F3216" s="2">
+        <f t="shared" si="156"/>
+        <v>49</v>
+      </c>
+      <c r="G3216" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3217" s="3" t="s">
@@ -75133,6 +75173,14 @@
       </c>
       <c r="E3217" s="2">
         <v>1765</v>
+      </c>
+      <c r="F3217" s="2">
+        <f t="shared" si="156"/>
+        <v>16</v>
+      </c>
+      <c r="G3217" s="2">
+        <f t="shared" si="156"/>
+        <v>3</v>
       </c>
       <c r="I3217" s="2">
         <v>1768928</v>
@@ -75149,6 +75197,14 @@
       <c r="E3218" s="2">
         <v>1312</v>
       </c>
+      <c r="F3218" s="2">
+        <f t="shared" si="156"/>
+        <v>6</v>
+      </c>
+      <c r="G3218" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3219" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3219" s="3"/>
@@ -75161,6 +75217,14 @@
       <c r="E3219" s="2">
         <v>1837</v>
       </c>
+      <c r="F3219" s="2">
+        <f t="shared" si="156"/>
+        <v>-8</v>
+      </c>
+      <c r="G3219" s="2">
+        <f t="shared" si="156"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3220" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3220" s="3"/>
@@ -75173,6 +75237,14 @@
       <c r="E3220" s="2">
         <v>1164</v>
       </c>
+      <c r="F3220" s="2">
+        <f t="shared" si="156"/>
+        <v>-27</v>
+      </c>
+      <c r="G3220" s="2">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3221" s="3"/>
@@ -75185,6 +75257,14 @@
       <c r="E3221" s="2">
         <v>1076</v>
       </c>
+      <c r="F3221" s="2">
+        <f t="shared" si="156"/>
+        <v>4</v>
+      </c>
+      <c r="G3221" s="2">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3222" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3222" s="3" t="s">
@@ -75198,6 +75278,14 @@
       </c>
       <c r="E3222" s="2">
         <v>1030</v>
+      </c>
+      <c r="F3222" s="2">
+        <f t="shared" si="156"/>
+        <v>54</v>
+      </c>
+      <c r="G3222" s="2">
+        <f t="shared" si="156"/>
+        <v>3</v>
       </c>
       <c r="I3222" s="2">
         <v>1008195</v>
@@ -75214,6 +75302,14 @@
       <c r="E3223" s="2">
         <v>1938</v>
       </c>
+      <c r="F3223" s="2">
+        <f t="shared" si="156"/>
+        <v>53</v>
+      </c>
+      <c r="G3223" s="2">
+        <f t="shared" si="156"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="3224" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3224" s="3"/>
@@ -75226,6 +75322,14 @@
       <c r="E3224" s="2">
         <v>1139</v>
       </c>
+      <c r="F3224" s="2">
+        <f t="shared" si="156"/>
+        <v>36</v>
+      </c>
+      <c r="G3224" s="2">
+        <f t="shared" si="156"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3225" s="3"/>
@@ -75238,6 +75342,14 @@
       <c r="E3225" s="2">
         <v>963</v>
       </c>
+      <c r="F3225" s="2">
+        <f t="shared" si="156"/>
+        <v>24</v>
+      </c>
+      <c r="G3225" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3226" s="3"/>
@@ -75250,6 +75362,14 @@
       <c r="E3226" s="2">
         <v>969</v>
       </c>
+      <c r="F3226" s="2">
+        <f t="shared" si="156"/>
+        <v>24</v>
+      </c>
+      <c r="G3226" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3227" s="3" t="s">
@@ -75263,6 +75383,14 @@
       </c>
       <c r="E3227" s="2">
         <v>2652</v>
+      </c>
+      <c r="F3227" s="2">
+        <f t="shared" si="156"/>
+        <v>113</v>
+      </c>
+      <c r="G3227" s="2">
+        <f t="shared" si="156"/>
+        <v>4</v>
       </c>
       <c r="I3227" s="2">
         <v>1425506</v>
@@ -75279,6 +75407,14 @@
       <c r="E3228" s="2">
         <v>1073</v>
       </c>
+      <c r="F3228" s="2">
+        <f t="shared" si="156"/>
+        <v>85</v>
+      </c>
+      <c r="G3228" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3229" s="3"/>
@@ -75291,6 +75427,14 @@
       <c r="E3229" s="2">
         <v>895</v>
       </c>
+      <c r="F3229" s="2">
+        <f t="shared" si="156"/>
+        <v>62</v>
+      </c>
+      <c r="G3229" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3230" s="3"/>
@@ -75303,6 +75447,14 @@
       <c r="E3230" s="2">
         <v>267</v>
       </c>
+      <c r="F3230" s="2">
+        <f t="shared" si="156"/>
+        <v>18</v>
+      </c>
+      <c r="G3230" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3231" s="3"/>
@@ -75315,6 +75467,14 @@
       <c r="E3231" s="2">
         <v>109</v>
       </c>
+      <c r="F3231" s="2">
+        <f t="shared" si="156"/>
+        <v>47</v>
+      </c>
+      <c r="G3231" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3232" s="3" t="s">
@@ -75328,6 +75488,14 @@
       </c>
       <c r="E3232" s="2">
         <v>1665</v>
+      </c>
+      <c r="F3232" s="2">
+        <f t="shared" si="156"/>
+        <v>163</v>
+      </c>
+      <c r="G3232" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
       </c>
       <c r="I3232" s="2">
         <f>SUM(99478+899912)</f>
@@ -75345,6 +75513,14 @@
       <c r="E3233" s="2">
         <v>836</v>
       </c>
+      <c r="F3233" s="2">
+        <f t="shared" si="156"/>
+        <v>61</v>
+      </c>
+      <c r="G3233" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3234" s="3"/>
@@ -75357,6 +75533,14 @@
       <c r="E3234" s="2">
         <v>718</v>
       </c>
+      <c r="F3234" s="2">
+        <f t="shared" si="156"/>
+        <v>66</v>
+      </c>
+      <c r="G3234" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3235" s="3"/>
@@ -75369,6 +75553,14 @@
       <c r="E3235" s="2">
         <v>331</v>
       </c>
+      <c r="F3235" s="2">
+        <f t="shared" si="156"/>
+        <v>24</v>
+      </c>
+      <c r="G3235" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3236" s="3"/>
@@ -75381,6 +75573,14 @@
       <c r="E3236" s="2">
         <v>360</v>
       </c>
+      <c r="F3236" s="2">
+        <f t="shared" si="156"/>
+        <v>18</v>
+      </c>
+      <c r="G3236" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3237" s="3" t="s">
@@ -75394,6 +75594,14 @@
       </c>
       <c r="E3237" s="2">
         <v>4047</v>
+      </c>
+      <c r="F3237" s="2">
+        <f t="shared" si="156"/>
+        <v>2722</v>
+      </c>
+      <c r="G3237" s="2">
+        <f t="shared" si="156"/>
+        <v>59</v>
       </c>
       <c r="I3237" s="2">
         <v>6167218</v>
@@ -75410,6 +75618,14 @@
       <c r="E3238" s="2">
         <v>472</v>
       </c>
+      <c r="F3238" s="2">
+        <f t="shared" si="156"/>
+        <v>634</v>
+      </c>
+      <c r="G3238" s="2">
+        <f t="shared" si="156"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="3239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3239" s="3"/>
@@ -75422,6 +75638,14 @@
       <c r="E3239" s="2">
         <v>587</v>
       </c>
+      <c r="F3239" s="2">
+        <f t="shared" si="156"/>
+        <v>735</v>
+      </c>
+      <c r="G3239" s="2">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3240" s="3" t="s">
@@ -75433,6 +75657,14 @@
       <c r="E3240" s="2">
         <v>177</v>
       </c>
+      <c r="F3240" s="2">
+        <f t="shared" si="156"/>
+        <v>90</v>
+      </c>
+      <c r="G3240" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3241" s="3" t="s">
@@ -75444,6 +75676,14 @@
       <c r="E3241" s="2">
         <v>469</v>
       </c>
+      <c r="F3241" s="2">
+        <f t="shared" si="156"/>
+        <v>437</v>
+      </c>
+      <c r="G3241" s="2">
+        <f t="shared" si="156"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3242" s="1">
@@ -75460,6 +75700,14 @@
       </c>
       <c r="E3242" s="2">
         <v>4045</v>
+      </c>
+      <c r="F3242" s="2">
+        <f t="shared" si="156"/>
+        <v>92</v>
+      </c>
+      <c r="G3242" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
       </c>
       <c r="I3242" s="2">
         <v>5069266</v>
@@ -75476,6 +75724,14 @@
       <c r="E3243" s="2">
         <v>4540</v>
       </c>
+      <c r="F3243" s="2">
+        <f t="shared" si="156"/>
+        <v>118</v>
+      </c>
+      <c r="G3243" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3244" s="3"/>
@@ -75488,6 +75744,14 @@
       <c r="E3244" s="2">
         <v>2704</v>
       </c>
+      <c r="F3244" s="2">
+        <f t="shared" si="156"/>
+        <v>39</v>
+      </c>
+      <c r="G3244" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3245" s="3"/>
@@ -75500,6 +75764,14 @@
       <c r="E3245" s="2">
         <v>3059</v>
       </c>
+      <c r="F3245" s="2">
+        <f t="shared" si="156"/>
+        <v>72</v>
+      </c>
+      <c r="G3245" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3246" s="3"/>
@@ -75512,6 +75784,14 @@
       <c r="E3246" s="2">
         <v>2040</v>
       </c>
+      <c r="F3246" s="2">
+        <f t="shared" si="156"/>
+        <v>58</v>
+      </c>
+      <c r="G3246" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3247" s="3" t="s">
@@ -75525,6 +75805,14 @@
       </c>
       <c r="E3247" s="2">
         <v>1766</v>
+      </c>
+      <c r="F3247" s="2">
+        <f t="shared" si="156"/>
+        <v>13</v>
+      </c>
+      <c r="G3247" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
       </c>
       <c r="I3247" s="2">
         <v>1781450</v>
@@ -75541,6 +75829,14 @@
       <c r="E3248" s="2">
         <v>1313</v>
       </c>
+      <c r="F3248" s="2">
+        <f t="shared" si="156"/>
+        <v>15</v>
+      </c>
+      <c r="G3248" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3249" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3249" s="3"/>
@@ -75553,6 +75849,14 @@
       <c r="E3249" s="2">
         <v>1838</v>
       </c>
+      <c r="F3249" s="2">
+        <f t="shared" si="156"/>
+        <v>-6</v>
+      </c>
+      <c r="G3249" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3250" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3250" s="3"/>
@@ -75565,6 +75869,14 @@
       <c r="E3250" s="2">
         <v>1165</v>
       </c>
+      <c r="F3250" s="2">
+        <f t="shared" si="156"/>
+        <v>6</v>
+      </c>
+      <c r="G3250" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3251" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3251" s="3"/>
@@ -75577,6 +75889,14 @@
       <c r="E3251" s="2">
         <v>1079</v>
       </c>
+      <c r="F3251" s="2">
+        <f t="shared" si="156"/>
+        <v>13</v>
+      </c>
+      <c r="G3251" s="2">
+        <f t="shared" si="156"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3252" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3252" s="3" t="s">
@@ -75590,6 +75910,14 @@
       </c>
       <c r="E3252" s="2">
         <v>1035</v>
+      </c>
+      <c r="F3252" s="2">
+        <f t="shared" si="156"/>
+        <v>56</v>
+      </c>
+      <c r="G3252" s="2">
+        <f t="shared" si="156"/>
+        <v>5</v>
       </c>
       <c r="I3252" s="2">
         <v>1020259</v>
@@ -75606,6 +75934,14 @@
       <c r="E3253" s="2">
         <v>1944</v>
       </c>
+      <c r="F3253" s="2">
+        <f t="shared" si="156"/>
+        <v>71</v>
+      </c>
+      <c r="G3253" s="2">
+        <f t="shared" si="156"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="3254" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3254" s="3"/>
@@ -75618,6 +75954,14 @@
       <c r="E3254" s="2">
         <v>1140</v>
       </c>
+      <c r="F3254" s="2">
+        <f t="shared" si="156"/>
+        <v>78</v>
+      </c>
+      <c r="G3254" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3255" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3255" s="3"/>
@@ -75630,6 +75974,14 @@
       <c r="E3255" s="2">
         <v>966</v>
       </c>
+      <c r="F3255" s="2">
+        <f t="shared" si="156"/>
+        <v>46</v>
+      </c>
+      <c r="G3255" s="2">
+        <f t="shared" si="156"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3256" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3256" s="3"/>
@@ -75642,6 +75994,14 @@
       <c r="E3256" s="2">
         <v>968</v>
       </c>
+      <c r="F3256" s="2">
+        <f t="shared" si="156"/>
+        <v>40</v>
+      </c>
+      <c r="G3256" s="2">
+        <f t="shared" si="156"/>
+        <v>-1</v>
+      </c>
     </row>
     <row r="3257" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3257" s="3" t="s">
@@ -75655,6 +76015,14 @@
       </c>
       <c r="E3257" s="2">
         <v>2658</v>
+      </c>
+      <c r="F3257" s="2">
+        <f t="shared" si="156"/>
+        <v>121</v>
+      </c>
+      <c r="G3257" s="2">
+        <f t="shared" si="156"/>
+        <v>6</v>
       </c>
       <c r="I3257" s="2">
         <v>1456078</v>
@@ -75671,6 +76039,14 @@
       <c r="E3258" s="2">
         <v>1073</v>
       </c>
+      <c r="F3258" s="2">
+        <f t="shared" si="156"/>
+        <v>65</v>
+      </c>
+      <c r="G3258" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3259" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3259" s="3"/>
@@ -75683,6 +76059,14 @@
       <c r="E3259" s="2">
         <v>896</v>
       </c>
+      <c r="F3259" s="2">
+        <f t="shared" si="156"/>
+        <v>54</v>
+      </c>
+      <c r="G3259" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3260" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3260" s="3"/>
@@ -75695,6 +76079,14 @@
       <c r="E3260" s="2">
         <v>267</v>
       </c>
+      <c r="F3260" s="2">
+        <f t="shared" si="156"/>
+        <v>31</v>
+      </c>
+      <c r="G3260" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3261" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3261" s="3"/>
@@ -75707,6 +76099,14 @@
       <c r="E3261" s="2">
         <v>109</v>
       </c>
+      <c r="F3261" s="2">
+        <f t="shared" si="156"/>
+        <v>50</v>
+      </c>
+      <c r="G3261" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3262" s="3" t="s">
@@ -75720,6 +76120,14 @@
       </c>
       <c r="E3262" s="2">
         <v>1665</v>
+      </c>
+      <c r="F3262" s="2">
+        <f t="shared" si="156"/>
+        <v>99</v>
+      </c>
+      <c r="G3262" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
       </c>
       <c r="I3262" s="2">
         <f>SUM(100241+912486)</f>
@@ -75737,6 +76145,14 @@
       <c r="E3263" s="2">
         <v>837</v>
       </c>
+      <c r="F3263" s="2">
+        <f t="shared" si="156"/>
+        <v>31</v>
+      </c>
+      <c r="G3263" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3264" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3264" s="3"/>
@@ -75749,6 +76165,14 @@
       <c r="E3264" s="2">
         <v>718</v>
       </c>
+      <c r="F3264" s="2">
+        <f t="shared" si="156"/>
+        <v>53</v>
+      </c>
+      <c r="G3264" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3265" s="3"/>
@@ -75761,6 +76185,14 @@
       <c r="E3265" s="2">
         <v>332</v>
       </c>
+      <c r="F3265" s="2">
+        <f t="shared" si="156"/>
+        <v>22</v>
+      </c>
+      <c r="G3265" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3266" s="3"/>
@@ -75773,6 +76205,14 @@
       <c r="E3266" s="2">
         <v>360</v>
       </c>
+      <c r="F3266" s="2">
+        <f t="shared" si="156"/>
+        <v>17</v>
+      </c>
+      <c r="G3266" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3267" s="3" t="s">
@@ -75786,6 +76226,14 @@
       </c>
       <c r="E3267" s="2">
         <v>4084</v>
+      </c>
+      <c r="F3267" s="2">
+        <f t="shared" si="156"/>
+        <v>2784</v>
+      </c>
+      <c r="G3267" s="2">
+        <f t="shared" si="156"/>
+        <v>37</v>
       </c>
       <c r="I3267" s="2">
         <v>6286852</v>
@@ -75802,6 +76250,14 @@
       <c r="E3268" s="2">
         <v>478</v>
       </c>
+      <c r="F3268" s="2">
+        <f t="shared" si="156"/>
+        <v>625</v>
+      </c>
+      <c r="G3268" s="2">
+        <f t="shared" si="156"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="3269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3269" s="3"/>
@@ -75814,6 +76270,14 @@
       <c r="E3269" s="2">
         <v>587</v>
       </c>
+      <c r="F3269" s="2">
+        <f t="shared" si="156"/>
+        <v>606</v>
+      </c>
+      <c r="G3269" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3270" s="3" t="s">
@@ -75825,6 +76289,14 @@
       <c r="E3270" s="2">
         <v>177</v>
       </c>
+      <c r="F3270" s="2">
+        <f t="shared" si="156"/>
+        <v>175</v>
+      </c>
+      <c r="G3270" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3271" s="3" t="s">
@@ -75836,6 +76308,14 @@
       <c r="E3271" s="2">
         <v>494</v>
       </c>
+      <c r="F3271" s="2">
+        <f t="shared" si="156"/>
+        <v>641</v>
+      </c>
+      <c r="G3271" s="2">
+        <f t="shared" si="156"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="3272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3272" s="1">
@@ -75852,6 +76332,14 @@
       </c>
       <c r="E3272" s="2">
         <v>4048</v>
+      </c>
+      <c r="F3272" s="2">
+        <f t="shared" si="156"/>
+        <v>86</v>
+      </c>
+      <c r="G3272" s="2">
+        <f t="shared" si="156"/>
+        <v>3</v>
       </c>
       <c r="I3272" s="2">
         <v>5115470</v>
@@ -75868,6 +76356,14 @@
       <c r="E3273" s="2">
         <v>4541</v>
       </c>
+      <c r="F3273" s="2">
+        <f t="shared" si="156"/>
+        <v>81</v>
+      </c>
+      <c r="G3273" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3274" s="3"/>
@@ -75880,6 +76376,14 @@
       <c r="E3274" s="2">
         <v>2704</v>
       </c>
+      <c r="F3274" s="2">
+        <f t="shared" si="156"/>
+        <v>28</v>
+      </c>
+      <c r="G3274" s="2">
+        <f t="shared" si="156"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3275" s="3"/>
@@ -75892,6 +76396,14 @@
       <c r="E3275" s="2">
         <v>3060</v>
       </c>
+      <c r="F3275" s="2">
+        <f t="shared" si="156"/>
+        <v>54</v>
+      </c>
+      <c r="G3275" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3276" s="3"/>
@@ -75904,6 +76416,14 @@
       <c r="E3276" s="2">
         <v>2041</v>
       </c>
+      <c r="F3276" s="2">
+        <f t="shared" si="156"/>
+        <v>26</v>
+      </c>
+      <c r="G3276" s="2">
+        <f t="shared" si="156"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3277" s="3" t="s">
@@ -75917,6 +76437,14 @@
       </c>
       <c r="E3277" s="2">
         <v>1765</v>
+      </c>
+      <c r="F3277" s="2">
+        <f t="shared" ref="F3277:G3340" si="157">SUM(D3277-D3247)</f>
+        <v>1</v>
+      </c>
+      <c r="G3277" s="2">
+        <f t="shared" si="157"/>
+        <v>-1</v>
       </c>
       <c r="I3277" s="2">
         <v>1791137</v>
@@ -75933,6 +76461,14 @@
       <c r="E3278" s="2">
         <v>1313</v>
       </c>
+      <c r="F3278" s="2">
+        <f t="shared" si="157"/>
+        <v>-13</v>
+      </c>
+      <c r="G3278" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3279" s="3"/>
@@ -75945,6 +76481,14 @@
       <c r="E3279" s="2">
         <v>1838</v>
       </c>
+      <c r="F3279" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+      <c r="G3279" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3280" s="3"/>
@@ -75957,6 +76501,14 @@
       <c r="E3280" s="2">
         <v>1165</v>
       </c>
+      <c r="F3280" s="2">
+        <f t="shared" si="157"/>
+        <v>-38</v>
+      </c>
+      <c r="G3280" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3281" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3281" s="3"/>
@@ -75969,6 +76521,14 @@
       <c r="E3281" s="2">
         <v>1080</v>
       </c>
+      <c r="F3281" s="2">
+        <f t="shared" si="157"/>
+        <v>-5</v>
+      </c>
+      <c r="G3281" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3282" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3282" s="3" t="s">
@@ -75982,6 +76542,14 @@
       </c>
       <c r="E3282" s="2">
         <v>1035</v>
+      </c>
+      <c r="F3282" s="2">
+        <f t="shared" si="157"/>
+        <v>46</v>
+      </c>
+      <c r="G3282" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
       </c>
       <c r="I3282" s="2">
         <v>1033883</v>
@@ -75998,6 +76566,14 @@
       <c r="E3283" s="2">
         <v>1947</v>
       </c>
+      <c r="F3283" s="2">
+        <f t="shared" si="157"/>
+        <v>77</v>
+      </c>
+      <c r="G3283" s="2">
+        <f t="shared" si="157"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3284" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3284" s="3"/>
@@ -76010,6 +76586,14 @@
       <c r="E3284" s="2">
         <v>1143</v>
       </c>
+      <c r="F3284" s="2">
+        <f t="shared" si="157"/>
+        <v>23</v>
+      </c>
+      <c r="G3284" s="2">
+        <f t="shared" si="157"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3285" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3285" s="3"/>
@@ -76022,6 +76606,14 @@
       <c r="E3285" s="2">
         <v>967</v>
       </c>
+      <c r="F3285" s="2">
+        <f t="shared" si="157"/>
+        <v>41</v>
+      </c>
+      <c r="G3285" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3286" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3286" s="3"/>
@@ -76034,6 +76626,14 @@
       <c r="E3286" s="2">
         <v>969</v>
       </c>
+      <c r="F3286" s="2">
+        <f t="shared" si="157"/>
+        <v>28</v>
+      </c>
+      <c r="G3286" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3287" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3287" s="3" t="s">
@@ -76047,6 +76647,14 @@
       </c>
       <c r="E3287" s="2">
         <v>2659</v>
+      </c>
+      <c r="F3287" s="2">
+        <f t="shared" si="157"/>
+        <v>77</v>
+      </c>
+      <c r="G3287" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
       </c>
       <c r="I3287" s="2">
         <v>1484459</v>
@@ -76063,6 +76671,14 @@
       <c r="E3288" s="2">
         <v>1073</v>
       </c>
+      <c r="F3288" s="2">
+        <f t="shared" si="157"/>
+        <v>68</v>
+      </c>
+      <c r="G3288" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3289" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3289" s="3"/>
@@ -76075,6 +76691,14 @@
       <c r="E3289" s="2">
         <v>896</v>
       </c>
+      <c r="F3289" s="2">
+        <f t="shared" si="157"/>
+        <v>82</v>
+      </c>
+      <c r="G3289" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3290" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3290" s="3"/>
@@ -76087,6 +76711,14 @@
       <c r="E3290" s="2">
         <v>267</v>
       </c>
+      <c r="F3290" s="2">
+        <f t="shared" si="157"/>
+        <v>11</v>
+      </c>
+      <c r="G3290" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3291" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3291" s="3"/>
@@ -76099,6 +76731,14 @@
       <c r="E3291" s="2">
         <v>109</v>
       </c>
+      <c r="F3291" s="2">
+        <f t="shared" si="157"/>
+        <v>-41</v>
+      </c>
+      <c r="G3291" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3292" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3292" s="3" t="s">
@@ -76112,6 +76752,14 @@
       </c>
       <c r="E3292" s="2">
         <v>1665</v>
+      </c>
+      <c r="F3292" s="2">
+        <f t="shared" si="157"/>
+        <v>182</v>
+      </c>
+      <c r="G3292" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
       </c>
       <c r="I3292" s="2">
         <f>SUM(101027+926352)</f>
@@ -76129,6 +76777,14 @@
       <c r="E3293" s="2">
         <v>837</v>
       </c>
+      <c r="F3293" s="2">
+        <f t="shared" si="157"/>
+        <v>57</v>
+      </c>
+      <c r="G3293" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3294" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3294" s="3"/>
@@ -76141,6 +76797,14 @@
       <c r="E3294" s="2">
         <v>718</v>
       </c>
+      <c r="F3294" s="2">
+        <f t="shared" si="157"/>
+        <v>48</v>
+      </c>
+      <c r="G3294" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3295" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3295" s="3"/>
@@ -76153,6 +76817,14 @@
       <c r="E3295" s="2">
         <v>332</v>
       </c>
+      <c r="F3295" s="2">
+        <f t="shared" si="157"/>
+        <v>5</v>
+      </c>
+      <c r="G3295" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3296" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3296" s="3"/>
@@ -76165,6 +76837,14 @@
       <c r="E3296" s="2">
         <v>360</v>
       </c>
+      <c r="F3296" s="2">
+        <f t="shared" si="157"/>
+        <v>23</v>
+      </c>
+      <c r="G3296" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3297" s="3" t="s">
@@ -76178,6 +76858,14 @@
       </c>
       <c r="E3297" s="2">
         <v>4095</v>
+      </c>
+      <c r="F3297" s="2">
+        <f t="shared" si="157"/>
+        <v>2774</v>
+      </c>
+      <c r="G3297" s="2">
+        <f t="shared" si="157"/>
+        <v>11</v>
       </c>
       <c r="I3297" s="2">
         <v>6414321</v>
@@ -76194,6 +76882,14 @@
       <c r="E3298" s="2">
         <v>478</v>
       </c>
+      <c r="F3298" s="2">
+        <f t="shared" si="157"/>
+        <v>568</v>
+      </c>
+      <c r="G3298" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3299" s="3"/>
@@ -76206,6 +76902,14 @@
       <c r="E3299" s="2">
         <v>587</v>
       </c>
+      <c r="F3299" s="2">
+        <f t="shared" si="157"/>
+        <v>95</v>
+      </c>
+      <c r="G3299" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3300" s="3" t="s">
@@ -76217,6 +76921,14 @@
       <c r="E3300" s="2">
         <v>177</v>
       </c>
+      <c r="F3300" s="2">
+        <f t="shared" si="157"/>
+        <v>148</v>
+      </c>
+      <c r="G3300" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3301" s="3" t="s">
@@ -76228,6 +76940,14 @@
       <c r="E3301" s="2">
         <v>492</v>
       </c>
+      <c r="F3301" s="2">
+        <f t="shared" si="157"/>
+        <v>338</v>
+      </c>
+      <c r="G3301" s="2">
+        <f t="shared" si="157"/>
+        <v>-2</v>
+      </c>
     </row>
     <row r="3302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3302" s="1">
@@ -76244,6 +76964,14 @@
       </c>
       <c r="E3302" s="2">
         <v>4049</v>
+      </c>
+      <c r="F3302" s="2">
+        <f t="shared" si="157"/>
+        <v>72</v>
+      </c>
+      <c r="G3302" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
       </c>
       <c r="I3302" s="2">
         <v>5164812</v>
@@ -76260,6 +76988,14 @@
       <c r="E3303" s="2">
         <v>4542</v>
       </c>
+      <c r="F3303" s="2">
+        <f t="shared" si="157"/>
+        <v>56</v>
+      </c>
+      <c r="G3303" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3304" s="3"/>
@@ -76272,6 +77008,14 @@
       <c r="E3304" s="2">
         <v>2705</v>
       </c>
+      <c r="F3304" s="2">
+        <f t="shared" si="157"/>
+        <v>56</v>
+      </c>
+      <c r="G3304" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3305" s="3"/>
@@ -76284,6 +77028,14 @@
       <c r="E3305" s="2">
         <v>3060</v>
       </c>
+      <c r="F3305" s="2">
+        <f t="shared" si="157"/>
+        <v>68</v>
+      </c>
+      <c r="G3305" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3306" s="3"/>
@@ -76296,6 +77048,14 @@
       <c r="E3306" s="2">
         <v>2041</v>
       </c>
+      <c r="F3306" s="2">
+        <f t="shared" si="157"/>
+        <v>30</v>
+      </c>
+      <c r="G3306" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3307" s="3" t="s">
@@ -76309,6 +77069,14 @@
       </c>
       <c r="E3307" s="2">
         <v>1765</v>
+      </c>
+      <c r="F3307" s="2">
+        <f t="shared" si="157"/>
+        <v>54</v>
+      </c>
+      <c r="G3307" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
       </c>
       <c r="I3307" s="2">
         <v>1802874</v>
@@ -76325,6 +77093,14 @@
       <c r="E3308" s="2">
         <v>1313</v>
       </c>
+      <c r="F3308" s="2">
+        <f t="shared" si="157"/>
+        <v>15</v>
+      </c>
+      <c r="G3308" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3309" s="3"/>
@@ -76337,6 +77113,14 @@
       <c r="E3309" s="2">
         <v>1838</v>
       </c>
+      <c r="F3309" s="2">
+        <f t="shared" si="157"/>
+        <v>16</v>
+      </c>
+      <c r="G3309" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3310" s="3"/>
@@ -76349,6 +77133,14 @@
       <c r="E3310" s="2">
         <v>1165</v>
       </c>
+      <c r="F3310" s="2">
+        <f t="shared" si="157"/>
+        <v>9</v>
+      </c>
+      <c r="G3310" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3311" s="3"/>
@@ -76361,6 +77153,14 @@
       <c r="E3311" s="2">
         <v>1081</v>
       </c>
+      <c r="F3311" s="2">
+        <f t="shared" si="157"/>
+        <v>10</v>
+      </c>
+      <c r="G3311" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3312" s="3" t="s">
@@ -76374,6 +77174,14 @@
       </c>
       <c r="E3312" s="2">
         <v>1035</v>
+      </c>
+      <c r="F3312" s="2">
+        <f t="shared" si="157"/>
+        <v>20</v>
+      </c>
+      <c r="G3312" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
       </c>
       <c r="I3312" s="2">
         <v>1044548</v>
@@ -76390,6 +77198,14 @@
       <c r="E3313" s="2">
         <v>1948</v>
       </c>
+      <c r="F3313" s="2">
+        <f t="shared" si="157"/>
+        <v>72</v>
+      </c>
+      <c r="G3313" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3314" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3314" s="3"/>
@@ -76402,6 +77218,14 @@
       <c r="E3314" s="2">
         <v>1143</v>
       </c>
+      <c r="F3314" s="2">
+        <f t="shared" si="157"/>
+        <v>24</v>
+      </c>
+      <c r="G3314" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3315" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3315" s="3"/>
@@ -76414,6 +77238,14 @@
       <c r="E3315" s="2">
         <v>968</v>
       </c>
+      <c r="F3315" s="2">
+        <f t="shared" si="157"/>
+        <v>38</v>
+      </c>
+      <c r="G3315" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3316" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3316" s="3"/>
@@ -76426,6 +77258,14 @@
       <c r="E3316" s="2">
         <v>969</v>
       </c>
+      <c r="F3316" s="2">
+        <f t="shared" si="157"/>
+        <v>29</v>
+      </c>
+      <c r="G3316" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3317" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3317" s="3" t="s">
@@ -76434,11 +77274,12 @@
       <c r="C3317" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3317" s="2">
-        <v>34909</v>
-      </c>
       <c r="E3317" s="2">
         <v>2659</v>
+      </c>
+      <c r="G3317" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3318" spans="2:9" x14ac:dyDescent="0.2">
@@ -76452,6 +77293,14 @@
       <c r="E3318" s="2">
         <v>1076</v>
       </c>
+      <c r="F3318" s="2">
+        <f t="shared" si="157"/>
+        <v>42</v>
+      </c>
+      <c r="G3318" s="2">
+        <f t="shared" si="157"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3319" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3319" s="3"/>
@@ -76464,6 +77313,14 @@
       <c r="E3319" s="2">
         <v>897</v>
       </c>
+      <c r="F3319" s="2">
+        <f t="shared" si="157"/>
+        <v>65</v>
+      </c>
+      <c r="G3319" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3320" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3320" s="3"/>
@@ -76476,6 +77333,14 @@
       <c r="E3320" s="2">
         <v>267</v>
       </c>
+      <c r="F3320" s="2">
+        <f t="shared" si="157"/>
+        <v>27</v>
+      </c>
+      <c r="G3320" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3321" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3321" s="3"/>
@@ -76488,6 +77353,14 @@
       <c r="E3321" s="2">
         <v>109</v>
       </c>
+      <c r="F3321" s="2">
+        <f t="shared" si="157"/>
+        <v>15</v>
+      </c>
+      <c r="G3321" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3322" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3322" s="3" t="s">
@@ -76501,6 +77374,14 @@
       </c>
       <c r="E3322" s="2">
         <v>1665</v>
+      </c>
+      <c r="F3322" s="2">
+        <f t="shared" si="157"/>
+        <v>86</v>
+      </c>
+      <c r="G3322" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
       </c>
       <c r="I3322" s="2">
         <f>SUM(101738+938175)</f>
@@ -76518,6 +77399,14 @@
       <c r="E3323" s="2">
         <v>837</v>
       </c>
+      <c r="F3323" s="2">
+        <f t="shared" si="157"/>
+        <v>34</v>
+      </c>
+      <c r="G3323" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3324" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3324" s="3"/>
@@ -76530,6 +77419,14 @@
       <c r="E3324" s="2">
         <v>718</v>
       </c>
+      <c r="F3324" s="2">
+        <f t="shared" si="157"/>
+        <v>40</v>
+      </c>
+      <c r="G3324" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3325" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3325" s="3"/>
@@ -76542,6 +77439,14 @@
       <c r="E3325" s="2">
         <v>332</v>
       </c>
+      <c r="F3325" s="2">
+        <f t="shared" si="157"/>
+        <v>18</v>
+      </c>
+      <c r="G3325" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3326" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3326" s="3"/>
@@ -76554,6 +77459,14 @@
       <c r="E3326" s="2">
         <v>360</v>
       </c>
+      <c r="F3326" s="2">
+        <f t="shared" si="157"/>
+        <v>24</v>
+      </c>
+      <c r="G3326" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3327" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3327" s="3" t="s">
@@ -76567,6 +77480,14 @@
       </c>
       <c r="E3327" s="2">
         <v>4104</v>
+      </c>
+      <c r="F3327" s="2">
+        <f t="shared" si="157"/>
+        <v>3163</v>
+      </c>
+      <c r="G3327" s="2">
+        <f t="shared" si="157"/>
+        <v>9</v>
       </c>
       <c r="I3327" s="2">
         <v>6536932</v>
@@ -76583,6 +77504,14 @@
       <c r="E3328" s="2">
         <v>478</v>
       </c>
+      <c r="F3328" s="2">
+        <f t="shared" si="157"/>
+        <v>453</v>
+      </c>
+      <c r="G3328" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3329" s="3"/>
@@ -76595,6 +77524,14 @@
       <c r="E3329" s="2">
         <v>588</v>
       </c>
+      <c r="F3329" s="2">
+        <f t="shared" si="157"/>
+        <v>823</v>
+      </c>
+      <c r="G3329" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3330" s="3" t="s">
@@ -76606,6 +77543,14 @@
       <c r="E3330" s="2">
         <v>178</v>
       </c>
+      <c r="F3330" s="2">
+        <f t="shared" si="157"/>
+        <v>308</v>
+      </c>
+      <c r="G3330" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3331" s="3" t="s">
@@ -76617,6 +77562,14 @@
       <c r="E3331" s="2">
         <v>493</v>
       </c>
+      <c r="F3331" s="2">
+        <f t="shared" si="157"/>
+        <v>396</v>
+      </c>
+      <c r="G3331" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3332" s="1">
@@ -76633,6 +77586,14 @@
       </c>
       <c r="E3332" s="2">
         <v>4049</v>
+      </c>
+      <c r="F3332" s="2">
+        <f t="shared" si="157"/>
+        <v>115</v>
+      </c>
+      <c r="G3332" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
       </c>
       <c r="I3332" s="2">
         <v>5230981</v>
@@ -76649,6 +77610,14 @@
       <c r="E3333" s="2">
         <v>4542</v>
       </c>
+      <c r="F3333" s="2">
+        <f t="shared" si="157"/>
+        <v>80</v>
+      </c>
+      <c r="G3333" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3334" s="3"/>
@@ -76661,6 +77630,14 @@
       <c r="E3334" s="2">
         <v>2705</v>
       </c>
+      <c r="F3334" s="2">
+        <f t="shared" si="157"/>
+        <v>51</v>
+      </c>
+      <c r="G3334" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3335" s="3"/>
@@ -76673,6 +77650,14 @@
       <c r="E3335" s="2">
         <v>3060</v>
       </c>
+      <c r="F3335" s="2">
+        <f t="shared" si="157"/>
+        <v>89</v>
+      </c>
+      <c r="G3335" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3336" s="3"/>
@@ -76685,6 +77670,14 @@
       <c r="E3336" s="2">
         <v>2042</v>
       </c>
+      <c r="F3336" s="2">
+        <f t="shared" si="157"/>
+        <v>79</v>
+      </c>
+      <c r="G3336" s="2">
+        <f t="shared" si="157"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3337" s="3" t="s">
@@ -76698,6 +77691,14 @@
       </c>
       <c r="E3337" s="2">
         <v>1764</v>
+      </c>
+      <c r="F3337" s="2">
+        <f t="shared" si="157"/>
+        <v>18</v>
+      </c>
+      <c r="G3337" s="2">
+        <f t="shared" si="157"/>
+        <v>-1</v>
       </c>
       <c r="I3337" s="2">
         <v>1817955</v>
@@ -76714,6 +77715,14 @@
       <c r="E3338" s="2">
         <v>1315</v>
       </c>
+      <c r="F3338" s="2">
+        <f t="shared" si="157"/>
+        <v>4</v>
+      </c>
+      <c r="G3338" s="2">
+        <f t="shared" si="157"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3339" s="3"/>
@@ -76726,6 +77735,14 @@
       <c r="E3339" s="2">
         <v>1840</v>
       </c>
+      <c r="F3339" s="2">
+        <f t="shared" si="157"/>
+        <v>32</v>
+      </c>
+      <c r="G3339" s="2">
+        <f t="shared" si="157"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3340" s="3"/>
@@ -76738,6 +77755,14 @@
       <c r="E3340" s="2">
         <v>1167</v>
       </c>
+      <c r="F3340" s="2">
+        <f t="shared" si="157"/>
+        <v>-2</v>
+      </c>
+      <c r="G3340" s="2">
+        <f t="shared" si="157"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3341" s="3"/>
@@ -76750,6 +77775,14 @@
       <c r="E3341" s="2">
         <v>1082</v>
       </c>
+      <c r="F3341" s="2">
+        <f t="shared" ref="F3341:G3404" si="158">SUM(D3341-D3311)</f>
+        <v>9</v>
+      </c>
+      <c r="G3341" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3342" s="3" t="s">
@@ -76763,6 +77796,14 @@
       </c>
       <c r="E3342" s="2">
         <v>1039</v>
+      </c>
+      <c r="F3342" s="2">
+        <f t="shared" si="158"/>
+        <v>29</v>
+      </c>
+      <c r="G3342" s="2">
+        <f t="shared" si="158"/>
+        <v>4</v>
       </c>
       <c r="I3342" s="2">
         <v>1052369</v>
@@ -76779,6 +77820,14 @@
       <c r="E3343" s="2">
         <v>1946</v>
       </c>
+      <c r="F3343" s="2">
+        <f t="shared" si="158"/>
+        <v>53</v>
+      </c>
+      <c r="G3343" s="2">
+        <f t="shared" si="158"/>
+        <v>-2</v>
+      </c>
     </row>
     <row r="3344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3344" s="3"/>
@@ -76791,6 +77840,14 @@
       <c r="E3344" s="2">
         <v>1146</v>
       </c>
+      <c r="F3344" s="2">
+        <f t="shared" si="158"/>
+        <v>27</v>
+      </c>
+      <c r="G3344" s="2">
+        <f t="shared" si="158"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3345" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3345" s="3"/>
@@ -76803,6 +77860,14 @@
       <c r="E3345" s="2">
         <v>970</v>
       </c>
+      <c r="F3345" s="2">
+        <f t="shared" si="158"/>
+        <v>42</v>
+      </c>
+      <c r="G3345" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3346" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3346" s="3"/>
@@ -76815,6 +77880,14 @@
       <c r="E3346" s="2">
         <v>970</v>
       </c>
+      <c r="F3346" s="2">
+        <f t="shared" si="158"/>
+        <v>35</v>
+      </c>
+      <c r="G3346" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3347" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3347" s="3" t="s">
@@ -76828,6 +77901,10 @@
       </c>
       <c r="E3347" s="2">
         <v>2660</v>
+      </c>
+      <c r="G3347" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
       </c>
       <c r="I3347" s="2">
         <v>1529375</v>
@@ -76844,6 +77921,14 @@
       <c r="E3348" s="2">
         <v>1078</v>
       </c>
+      <c r="F3348" s="2">
+        <f t="shared" si="158"/>
+        <v>122</v>
+      </c>
+      <c r="G3348" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3349" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3349" s="3"/>
@@ -76856,6 +77941,14 @@
       <c r="E3349" s="2">
         <v>899</v>
       </c>
+      <c r="F3349" s="2">
+        <f t="shared" si="158"/>
+        <v>76</v>
+      </c>
+      <c r="G3349" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3350" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3350" s="3"/>
@@ -76868,6 +77961,14 @@
       <c r="E3350" s="2">
         <v>268</v>
       </c>
+      <c r="F3350" s="2">
+        <f t="shared" si="158"/>
+        <v>25</v>
+      </c>
+      <c r="G3350" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3351" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3351" s="3"/>
@@ -76880,6 +77981,14 @@
       <c r="E3351" s="2">
         <v>110</v>
       </c>
+      <c r="F3351" s="2">
+        <f t="shared" si="158"/>
+        <v>12</v>
+      </c>
+      <c r="G3351" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3352" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3352" s="3" t="s">
@@ -76893,6 +78002,14 @@
       </c>
       <c r="E3352" s="2">
         <v>1666</v>
+      </c>
+      <c r="F3352" s="2">
+        <f t="shared" si="158"/>
+        <v>168</v>
+      </c>
+      <c r="G3352" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
       </c>
       <c r="I3352" s="2">
         <f>SUM(102765+952998)</f>
@@ -76910,6 +78027,14 @@
       <c r="E3353" s="2">
         <v>837</v>
       </c>
+      <c r="F3353" s="2">
+        <f t="shared" si="158"/>
+        <v>40</v>
+      </c>
+      <c r="G3353" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3354" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3354" s="3"/>
@@ -76922,6 +78047,14 @@
       <c r="E3354" s="2">
         <v>718</v>
       </c>
+      <c r="F3354" s="2">
+        <f t="shared" si="158"/>
+        <v>59</v>
+      </c>
+      <c r="G3354" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3355" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3355" s="3"/>
@@ -76934,6 +78067,14 @@
       <c r="E3355" s="2">
         <v>333</v>
       </c>
+      <c r="F3355" s="2">
+        <f t="shared" si="158"/>
+        <v>21</v>
+      </c>
+      <c r="G3355" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3356" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3356" s="3"/>
@@ -76946,6 +78087,14 @@
       <c r="E3356" s="2">
         <v>361</v>
       </c>
+      <c r="F3356" s="2">
+        <f t="shared" si="158"/>
+        <v>20</v>
+      </c>
+      <c r="G3356" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3357" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3357" s="3" t="s">
@@ -76959,6 +78108,14 @@
       </c>
       <c r="E3357" s="2">
         <v>4154</v>
+      </c>
+      <c r="F3357" s="2">
+        <f t="shared" si="158"/>
+        <v>3003</v>
+      </c>
+      <c r="G3357" s="2">
+        <f t="shared" si="158"/>
+        <v>50</v>
       </c>
       <c r="I3357" s="2">
         <v>6664998</v>
@@ -76975,6 +78132,14 @@
       <c r="E3358" s="2">
         <v>487</v>
       </c>
+      <c r="F3358" s="2">
+        <f t="shared" si="158"/>
+        <v>385</v>
+      </c>
+      <c r="G3358" s="2">
+        <f t="shared" si="158"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="3359" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3359" s="3"/>
@@ -76987,6 +78152,14 @@
       <c r="E3359" s="2">
         <v>589</v>
       </c>
+      <c r="F3359" s="2">
+        <f t="shared" si="158"/>
+        <v>1068</v>
+      </c>
+      <c r="G3359" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3360" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C3360" s="3" t="s">
@@ -76998,6 +78171,14 @@
       <c r="E3360" s="2">
         <v>178</v>
       </c>
+      <c r="F3360" s="2">
+        <f t="shared" si="158"/>
+        <v>278</v>
+      </c>
+      <c r="G3360" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3361" s="3" t="s">
@@ -77009,6 +78190,14 @@
       <c r="E3361" s="2">
         <v>513</v>
       </c>
+      <c r="F3361" s="2">
+        <f t="shared" si="158"/>
+        <v>1019</v>
+      </c>
+      <c r="G3361" s="2">
+        <f t="shared" si="158"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="3362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3362" s="1">
@@ -77025,6 +78214,14 @@
       </c>
       <c r="E3362" s="2">
         <v>4050</v>
+      </c>
+      <c r="F3362" s="2">
+        <f t="shared" si="158"/>
+        <v>71</v>
+      </c>
+      <c r="G3362" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
       </c>
       <c r="I3362" s="2">
         <v>5298640</v>
@@ -77041,6 +78238,14 @@
       <c r="E3363" s="2">
         <v>4543</v>
       </c>
+      <c r="F3363" s="2">
+        <f t="shared" si="158"/>
+        <v>94</v>
+      </c>
+      <c r="G3363" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3364" s="3"/>
@@ -77053,6 +78258,14 @@
       <c r="E3364" s="2">
         <v>2705</v>
       </c>
+      <c r="F3364" s="2">
+        <f t="shared" si="158"/>
+        <v>36</v>
+      </c>
+      <c r="G3364" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3365" s="3"/>
@@ -77065,6 +78278,14 @@
       <c r="E3365" s="2">
         <v>3060</v>
       </c>
+      <c r="F3365" s="2">
+        <f t="shared" si="158"/>
+        <v>91</v>
+      </c>
+      <c r="G3365" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3366" s="3"/>
@@ -77077,6 +78298,14 @@
       <c r="E3366" s="2">
         <v>2042</v>
       </c>
+      <c r="F3366" s="2">
+        <f t="shared" si="158"/>
+        <v>46</v>
+      </c>
+      <c r="G3366" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3367" s="3" t="s">
@@ -77090,6 +78319,14 @@
       </c>
       <c r="E3367" s="2">
         <v>1768</v>
+      </c>
+      <c r="F3367" s="2">
+        <f t="shared" si="158"/>
+        <v>47</v>
+      </c>
+      <c r="G3367" s="2">
+        <f t="shared" si="158"/>
+        <v>4</v>
       </c>
       <c r="I3367" s="2">
         <v>1840929</v>
@@ -77106,6 +78343,14 @@
       <c r="E3368" s="2">
         <v>1316</v>
       </c>
+      <c r="F3368" s="2">
+        <f t="shared" si="158"/>
+        <v>14</v>
+      </c>
+      <c r="G3368" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3369" s="3"/>
@@ -77118,6 +78363,14 @@
       <c r="E3369" s="2">
         <v>1842</v>
       </c>
+      <c r="F3369" s="2">
+        <f t="shared" si="158"/>
+        <v>20</v>
+      </c>
+      <c r="G3369" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3370" s="3"/>
@@ -77130,6 +78383,14 @@
       <c r="E3370" s="2">
         <v>1167</v>
       </c>
+      <c r="F3370" s="2">
+        <f t="shared" si="158"/>
+        <v>-164</v>
+      </c>
+      <c r="G3370" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3371" s="3"/>
@@ -77142,6 +78403,14 @@
       <c r="E3371" s="2">
         <v>1082</v>
       </c>
+      <c r="F3371" s="2">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="G3371" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3372" s="3" t="s">
@@ -77155,6 +78424,14 @@
       </c>
       <c r="E3372" s="2">
         <v>1039</v>
+      </c>
+      <c r="F3372" s="2">
+        <f t="shared" si="158"/>
+        <v>28</v>
+      </c>
+      <c r="G3372" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
       </c>
       <c r="I3372" s="2">
         <v>1063155</v>
@@ -77171,6 +78448,14 @@
       <c r="E3373" s="2">
         <v>1951</v>
       </c>
+      <c r="F3373" s="2">
+        <f t="shared" si="158"/>
+        <v>73</v>
+      </c>
+      <c r="G3373" s="2">
+        <f t="shared" si="158"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="3374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3374" s="3"/>
@@ -77183,6 +78468,14 @@
       <c r="E3374" s="2">
         <v>1152</v>
       </c>
+      <c r="F3374" s="2">
+        <f t="shared" si="158"/>
+        <v>31</v>
+      </c>
+      <c r="G3374" s="2">
+        <f t="shared" si="158"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="3375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3375" s="3"/>
@@ -77195,6 +78488,14 @@
       <c r="E3375" s="2">
         <v>972</v>
       </c>
+      <c r="F3375" s="2">
+        <f t="shared" si="158"/>
+        <v>42</v>
+      </c>
+      <c r="G3375" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3376" s="3"/>
@@ -77207,6 +78508,14 @@
       <c r="E3376" s="2">
         <v>971</v>
       </c>
+      <c r="F3376" s="2">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G3376" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3377" s="3" t="s">
@@ -77220,6 +78529,14 @@
       </c>
       <c r="E3377" s="2">
         <v>2662</v>
+      </c>
+      <c r="F3377" s="2">
+        <f t="shared" si="158"/>
+        <v>110</v>
+      </c>
+      <c r="G3377" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
       </c>
       <c r="I3377" s="2">
         <v>1559613</v>
@@ -77236,6 +78553,14 @@
       <c r="E3378" s="2">
         <v>1080</v>
       </c>
+      <c r="F3378" s="2">
+        <f t="shared" si="158"/>
+        <v>72</v>
+      </c>
+      <c r="G3378" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3379" s="3"/>
@@ -77248,6 +78573,14 @@
       <c r="E3379" s="2">
         <v>899</v>
       </c>
+      <c r="F3379" s="2">
+        <f t="shared" si="158"/>
+        <v>80</v>
+      </c>
+      <c r="G3379" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3380" s="3"/>
@@ -77260,6 +78593,14 @@
       <c r="E3380" s="2">
         <v>268</v>
       </c>
+      <c r="F3380" s="2">
+        <f t="shared" si="158"/>
+        <v>23</v>
+      </c>
+      <c r="G3380" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3381" s="3"/>
@@ -77272,6 +78613,14 @@
       <c r="E3381" s="2">
         <v>110</v>
       </c>
+      <c r="F3381" s="2">
+        <f t="shared" si="158"/>
+        <v>30</v>
+      </c>
+      <c r="G3381" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3382" s="3" t="s">
@@ -77285,6 +78634,14 @@
       </c>
       <c r="E3382" s="2">
         <v>1673</v>
+      </c>
+      <c r="F3382" s="2">
+        <f t="shared" si="158"/>
+        <v>-1</v>
+      </c>
+      <c r="G3382" s="2">
+        <f t="shared" si="158"/>
+        <v>7</v>
       </c>
       <c r="I3382" s="2">
         <f>SUM(103396+968081)</f>
@@ -77302,6 +78659,14 @@
       <c r="E3383" s="2">
         <v>839</v>
       </c>
+      <c r="F3383" s="2">
+        <f t="shared" si="158"/>
+        <v>60</v>
+      </c>
+      <c r="G3383" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3384" s="3"/>
@@ -77314,6 +78679,14 @@
       <c r="E3384" s="2">
         <v>720</v>
       </c>
+      <c r="F3384" s="2">
+        <f t="shared" si="158"/>
+        <v>41</v>
+      </c>
+      <c r="G3384" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3385" s="3"/>
@@ -77326,6 +78699,14 @@
       <c r="E3385" s="2">
         <v>334</v>
       </c>
+      <c r="F3385" s="2">
+        <f t="shared" si="158"/>
+        <v>15</v>
+      </c>
+      <c r="G3385" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3386" s="3"/>
@@ -77338,6 +78719,14 @@
       <c r="E3386" s="2">
         <v>362</v>
       </c>
+      <c r="F3386" s="2">
+        <f t="shared" si="158"/>
+        <v>24</v>
+      </c>
+      <c r="G3386" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3387" s="3" t="s">
@@ -77351,6 +78740,14 @@
       </c>
       <c r="E3387" s="2">
         <v>4213</v>
+      </c>
+      <c r="F3387" s="2">
+        <f t="shared" si="158"/>
+        <v>3037</v>
+      </c>
+      <c r="G3387" s="2">
+        <f t="shared" si="158"/>
+        <v>59</v>
       </c>
       <c r="I3387" s="2">
         <v>6778304</v>
@@ -77367,6 +78764,14 @@
       <c r="E3388" s="2">
         <v>505</v>
       </c>
+      <c r="F3388" s="2">
+        <f t="shared" si="158"/>
+        <v>587</v>
+      </c>
+      <c r="G3388" s="2">
+        <f t="shared" si="158"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="3389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3389" s="3"/>
@@ -77379,6 +78784,14 @@
       <c r="E3389" s="2">
         <v>617</v>
       </c>
+      <c r="F3389" s="2">
+        <f t="shared" si="158"/>
+        <v>862</v>
+      </c>
+      <c r="G3389" s="2">
+        <f t="shared" si="158"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="3390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3390" s="3" t="s">
@@ -77390,6 +78803,14 @@
       <c r="E3390" s="2">
         <v>180</v>
       </c>
+      <c r="F3390" s="2">
+        <f t="shared" si="158"/>
+        <v>277</v>
+      </c>
+      <c r="G3390" s="2">
+        <f t="shared" si="158"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3391" s="3" t="s">
@@ -77401,6 +78822,14 @@
       <c r="E3391" s="2">
         <v>521</v>
       </c>
+      <c r="F3391" s="2">
+        <f t="shared" si="158"/>
+        <v>691</v>
+      </c>
+      <c r="G3391" s="2">
+        <f t="shared" si="158"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="3392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3392" s="1">
@@ -77417,6 +78846,14 @@
       </c>
       <c r="E3392" s="2">
         <v>4051</v>
+      </c>
+      <c r="F3392" s="2">
+        <f t="shared" si="158"/>
+        <v>109</v>
+      </c>
+      <c r="G3392" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
       </c>
       <c r="I3392" s="2">
         <v>5368338</v>
@@ -77433,6 +78870,14 @@
       <c r="E3393" s="2">
         <v>4544</v>
       </c>
+      <c r="F3393" s="2">
+        <f t="shared" si="158"/>
+        <v>90</v>
+      </c>
+      <c r="G3393" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3394" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3394" s="3"/>
@@ -77445,6 +78890,14 @@
       <c r="E3394" s="2">
         <v>2705</v>
       </c>
+      <c r="F3394" s="2">
+        <f t="shared" si="158"/>
+        <v>51</v>
+      </c>
+      <c r="G3394" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3395" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3395" s="3"/>
@@ -77457,6 +78910,14 @@
       <c r="E3395" s="2">
         <v>3061</v>
       </c>
+      <c r="F3395" s="2">
+        <f t="shared" si="158"/>
+        <v>69</v>
+      </c>
+      <c r="G3395" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3396" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3396" s="3"/>
@@ -77469,6 +78930,14 @@
       <c r="E3396" s="2">
         <v>2042</v>
       </c>
+      <c r="F3396" s="2">
+        <f t="shared" si="158"/>
+        <v>94</v>
+      </c>
+      <c r="G3396" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3397" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3397" s="3" t="s">
@@ -77482,6 +78951,14 @@
       </c>
       <c r="E3397" s="2">
         <v>1771</v>
+      </c>
+      <c r="F3397" s="2">
+        <f t="shared" si="158"/>
+        <v>34</v>
+      </c>
+      <c r="G3397" s="2">
+        <f t="shared" si="158"/>
+        <v>3</v>
       </c>
       <c r="I3397" s="2">
         <v>1859638</v>
@@ -77498,6 +78975,14 @@
       <c r="E3398" s="2">
         <v>1319</v>
       </c>
+      <c r="F3398" s="2">
+        <f t="shared" si="158"/>
+        <v>8</v>
+      </c>
+      <c r="G3398" s="2">
+        <f t="shared" si="158"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3399" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3399" s="3"/>
@@ -77510,6 +78995,14 @@
       <c r="E3399" s="2">
         <v>1847</v>
       </c>
+      <c r="F3399" s="2">
+        <f t="shared" si="158"/>
+        <v>25</v>
+      </c>
+      <c r="G3399" s="2">
+        <f t="shared" si="158"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="3400" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3400" s="3"/>
@@ -77522,6 +79015,14 @@
       <c r="E3400" s="2">
         <v>1168</v>
       </c>
+      <c r="F3400" s="2">
+        <f t="shared" si="158"/>
+        <v>-54</v>
+      </c>
+      <c r="G3400" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3401" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3401" s="3"/>
@@ -77534,6 +79035,14 @@
       <c r="E3401" s="2">
         <v>1082</v>
       </c>
+      <c r="F3401" s="2">
+        <f t="shared" si="158"/>
+        <v>18</v>
+      </c>
+      <c r="G3401" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3402" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3402" s="3" t="s">
@@ -77547,6 +79056,14 @@
       </c>
       <c r="E3402" s="2">
         <v>1042</v>
+      </c>
+      <c r="F3402" s="2">
+        <f t="shared" si="158"/>
+        <v>54</v>
+      </c>
+      <c r="G3402" s="2">
+        <f t="shared" si="158"/>
+        <v>3</v>
       </c>
       <c r="I3402" s="2">
         <v>1079288</v>
@@ -77563,6 +79080,14 @@
       <c r="E3403" s="2">
         <v>1951</v>
       </c>
+      <c r="F3403" s="2">
+        <f t="shared" si="158"/>
+        <v>39</v>
+      </c>
+      <c r="G3403" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3404" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3404" s="3"/>
@@ -77575,6 +79100,14 @@
       <c r="E3404" s="2">
         <v>1157</v>
       </c>
+      <c r="F3404" s="2">
+        <f t="shared" si="158"/>
+        <v>41</v>
+      </c>
+      <c r="G3404" s="2">
+        <f t="shared" si="158"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="3405" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3405" s="3"/>
@@ -77587,6 +79120,14 @@
       <c r="E3405" s="2">
         <v>974</v>
       </c>
+      <c r="F3405" s="2">
+        <f t="shared" ref="F3405:G3468" si="159">SUM(D3405-D3375)</f>
+        <v>28</v>
+      </c>
+      <c r="G3405" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3406" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3406" s="3"/>
@@ -77599,6 +79140,14 @@
       <c r="E3406" s="2">
         <v>974</v>
       </c>
+      <c r="F3406" s="2">
+        <f t="shared" si="159"/>
+        <v>39</v>
+      </c>
+      <c r="G3406" s="2">
+        <f t="shared" si="159"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3407" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3407" s="3" t="s">
@@ -77612,6 +79161,14 @@
       </c>
       <c r="E3407" s="2">
         <v>2666</v>
+      </c>
+      <c r="F3407" s="2">
+        <f t="shared" si="159"/>
+        <v>118</v>
+      </c>
+      <c r="G3407" s="2">
+        <f t="shared" si="159"/>
+        <v>4</v>
       </c>
       <c r="I3407" s="2">
         <v>1586724</v>
@@ -77628,6 +79185,14 @@
       <c r="E3408" s="2">
         <v>1081</v>
       </c>
+      <c r="F3408" s="2">
+        <f t="shared" si="159"/>
+        <v>91</v>
+      </c>
+      <c r="G3408" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3409" s="3"/>
@@ -77640,6 +79205,14 @@
       <c r="E3409" s="2">
         <v>899</v>
       </c>
+      <c r="F3409" s="2">
+        <f t="shared" si="159"/>
+        <v>60</v>
+      </c>
+      <c r="G3409" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3410" s="3"/>
@@ -77652,6 +79225,14 @@
       <c r="E3410" s="2">
         <v>269</v>
       </c>
+      <c r="F3410" s="2">
+        <f t="shared" si="159"/>
+        <v>33</v>
+      </c>
+      <c r="G3410" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3411" s="3"/>
@@ -77664,6 +79245,14 @@
       <c r="E3411" s="2">
         <v>110</v>
       </c>
+      <c r="F3411" s="2">
+        <f t="shared" si="159"/>
+        <v>17</v>
+      </c>
+      <c r="G3411" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3412" s="3" t="s">
@@ -77677,6 +79266,14 @@
       </c>
       <c r="E3412" s="2">
         <v>1675</v>
+      </c>
+      <c r="F3412" s="2">
+        <f t="shared" si="159"/>
+        <v>311</v>
+      </c>
+      <c r="G3412" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
       </c>
       <c r="I3412" s="2">
         <f>SUM(104358+981259)</f>
@@ -77694,6 +79291,14 @@
       <c r="E3413" s="2">
         <v>842</v>
       </c>
+      <c r="F3413" s="2">
+        <f t="shared" si="159"/>
+        <v>29</v>
+      </c>
+      <c r="G3413" s="2">
+        <f t="shared" si="159"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3414" s="3"/>
@@ -77706,6 +79311,14 @@
       <c r="E3414" s="2">
         <v>720</v>
       </c>
+      <c r="F3414" s="2">
+        <f t="shared" si="159"/>
+        <v>46</v>
+      </c>
+      <c r="G3414" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3415" s="3"/>
@@ -77718,6 +79331,14 @@
       <c r="E3415" s="2">
         <v>334</v>
       </c>
+      <c r="F3415" s="2">
+        <f t="shared" si="159"/>
+        <v>9</v>
+      </c>
+      <c r="G3415" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3416" s="3"/>
@@ -77730,6 +79351,14 @@
       <c r="E3416" s="2">
         <v>362</v>
       </c>
+      <c r="F3416" s="2">
+        <f t="shared" si="159"/>
+        <v>30</v>
+      </c>
+      <c r="G3416" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3417" s="3" t="s">
@@ -77743,6 +79372,14 @@
       </c>
       <c r="E3417" s="2">
         <v>4262</v>
+      </c>
+      <c r="F3417" s="2">
+        <f t="shared" si="159"/>
+        <v>1956</v>
+      </c>
+      <c r="G3417" s="2">
+        <f t="shared" si="159"/>
+        <v>49</v>
       </c>
       <c r="I3417" s="2">
         <v>6915876</v>
@@ -77759,6 +79396,14 @@
       <c r="E3418" s="2">
         <v>512</v>
       </c>
+      <c r="F3418" s="2">
+        <f t="shared" si="159"/>
+        <v>506</v>
+      </c>
+      <c r="G3418" s="2">
+        <f t="shared" si="159"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="3419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3419" s="3"/>
@@ -77771,6 +79416,14 @@
       <c r="E3419" s="2">
         <v>637</v>
       </c>
+      <c r="F3419" s="2">
+        <f t="shared" si="159"/>
+        <v>740</v>
+      </c>
+      <c r="G3419" s="2">
+        <f t="shared" si="159"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="3420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3420" s="3" t="s">
@@ -77782,6 +79435,14 @@
       <c r="E3420" s="2">
         <v>181</v>
       </c>
+      <c r="F3420" s="2">
+        <f t="shared" si="159"/>
+        <v>192</v>
+      </c>
+      <c r="G3420" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3421" s="3" t="s">
@@ -77793,6 +79454,14 @@
       <c r="E3421" s="2">
         <v>543</v>
       </c>
+      <c r="F3421" s="2">
+        <f t="shared" si="159"/>
+        <v>816</v>
+      </c>
+      <c r="G3421" s="2">
+        <f t="shared" si="159"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="3422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3422" s="1">
@@ -77809,6 +79478,14 @@
       </c>
       <c r="E3422" s="2">
         <v>4053</v>
+      </c>
+      <c r="F3422" s="2">
+        <f t="shared" si="159"/>
+        <v>84</v>
+      </c>
+      <c r="G3422" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
       </c>
       <c r="I3422" s="2">
         <v>5444845</v>
@@ -77825,6 +79502,14 @@
       <c r="E3423" s="2">
         <v>4544</v>
       </c>
+      <c r="F3423" s="2">
+        <f t="shared" si="159"/>
+        <v>72</v>
+      </c>
+      <c r="G3423" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3424" s="3"/>
@@ -77837,6 +79522,14 @@
       <c r="E3424" s="2">
         <v>2705</v>
       </c>
+      <c r="F3424" s="2">
+        <f t="shared" si="159"/>
+        <v>44</v>
+      </c>
+      <c r="G3424" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3425" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3425" s="3"/>
@@ -77849,6 +79542,14 @@
       <c r="E3425" s="2">
         <v>3062</v>
       </c>
+      <c r="F3425" s="2">
+        <f t="shared" si="159"/>
+        <v>114</v>
+      </c>
+      <c r="G3425" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3426" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3426" s="3"/>
@@ -77861,6 +79562,14 @@
       <c r="E3426" s="2">
         <v>2042</v>
       </c>
+      <c r="F3426" s="2">
+        <f t="shared" si="159"/>
+        <v>58</v>
+      </c>
+      <c r="G3426" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3427" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3427" s="3" t="s">
@@ -77874,6 +79583,14 @@
       </c>
       <c r="E3427" s="2">
         <v>1778</v>
+      </c>
+      <c r="F3427" s="2">
+        <f t="shared" si="159"/>
+        <v>29</v>
+      </c>
+      <c r="G3427" s="2">
+        <f t="shared" si="159"/>
+        <v>7</v>
       </c>
       <c r="I3427" s="2">
         <v>1887644</v>
@@ -77890,6 +79607,14 @@
       <c r="E3428" s="2">
         <v>1320</v>
       </c>
+      <c r="F3428" s="2">
+        <f t="shared" si="159"/>
+        <v>24</v>
+      </c>
+      <c r="G3428" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3429" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3429" s="3"/>
@@ -77902,6 +79627,14 @@
       <c r="E3429" s="2">
         <v>1851</v>
       </c>
+      <c r="F3429" s="2">
+        <f t="shared" si="159"/>
+        <v>30</v>
+      </c>
+      <c r="G3429" s="2">
+        <f t="shared" si="159"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="3430" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3430" s="3"/>
@@ -77914,6 +79647,14 @@
       <c r="E3430" s="2">
         <v>1170</v>
       </c>
+      <c r="F3430" s="2">
+        <f t="shared" si="159"/>
+        <v>24</v>
+      </c>
+      <c r="G3430" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3431" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3431" s="3"/>
@@ -77926,6 +79667,14 @@
       <c r="E3431" s="2">
         <v>1085</v>
       </c>
+      <c r="F3431" s="2">
+        <f t="shared" si="159"/>
+        <v>23</v>
+      </c>
+      <c r="G3431" s="2">
+        <f t="shared" si="159"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3432" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3432" s="3" t="s">
@@ -77939,6 +79688,14 @@
       </c>
       <c r="E3432" s="2">
         <v>1044</v>
+      </c>
+      <c r="F3432" s="2">
+        <f t="shared" si="159"/>
+        <v>61</v>
+      </c>
+      <c r="G3432" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
       </c>
       <c r="I3432" s="2">
         <v>1092392</v>
@@ -77955,6 +79712,14 @@
       <c r="E3433" s="2">
         <v>1954</v>
       </c>
+      <c r="F3433" s="2">
+        <f t="shared" si="159"/>
+        <v>67</v>
+      </c>
+      <c r="G3433" s="2">
+        <f t="shared" si="159"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3434" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3434" s="3"/>
@@ -77967,6 +79732,14 @@
       <c r="E3434" s="2">
         <v>1159</v>
       </c>
+      <c r="F3434" s="2">
+        <f t="shared" si="159"/>
+        <v>27</v>
+      </c>
+      <c r="G3434" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3435" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3435" s="3"/>
@@ -77979,6 +79752,14 @@
       <c r="E3435" s="2">
         <v>975</v>
       </c>
+      <c r="F3435" s="2">
+        <f t="shared" si="159"/>
+        <v>46</v>
+      </c>
+      <c r="G3435" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="3436" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3436" s="3"/>
@@ -77991,6 +79772,14 @@
       <c r="E3436" s="2">
         <v>977</v>
       </c>
+      <c r="F3436" s="2">
+        <f t="shared" si="159"/>
+        <v>47</v>
+      </c>
+      <c r="G3436" s="2">
+        <f t="shared" si="159"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="3437" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3437" s="3" t="s">
@@ -78004,6 +79793,14 @@
       </c>
       <c r="E3437" s="2">
         <v>2666</v>
+      </c>
+      <c r="F3437" s="2">
+        <f t="shared" si="159"/>
+        <v>110</v>
+      </c>
+      <c r="G3437" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
       <c r="I3437" s="2">
         <v>1614646</v>
@@ -78020,6 +79817,14 @@
       <c r="E3438" s="2">
         <v>1083</v>
       </c>
+      <c r="F3438" s="2">
+        <f t="shared" si="159"/>
+        <v>66</v>
+      </c>
+      <c r="G3438" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="3439" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3439" s="3"/>
@@ -78032,6 +79837,14 @@
       <c r="E3439" s="2">
         <v>899</v>
       </c>
+      <c r="F3439" s="2">
+        <f t="shared" si="159"/>
+        <v>102</v>
+      </c>
+      <c r="G3439" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3440" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3440" s="3"/>
@@ -78044,8 +79857,16 @@
       <c r="E3440" s="2">
         <v>269</v>
       </c>
-    </row>
-    <row r="3441" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F3440" s="2">
+        <f t="shared" si="159"/>
+        <v>25</v>
+      </c>
+      <c r="G3440" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3441" s="3"/>
       <c r="C3441" s="3" t="s">
         <v>39</v>
@@ -78056,8 +79877,16 @@
       <c r="E3441" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="3442" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F3441" s="2">
+        <f t="shared" si="159"/>
+        <v>8</v>
+      </c>
+      <c r="G3441" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3442" s="3" t="s">
         <v>16</v>
       </c>
@@ -78069,13 +79898,21 @@
       </c>
       <c r="E3442" s="2">
         <v>1676</v>
+      </c>
+      <c r="F3442" s="2">
+        <f t="shared" si="159"/>
+        <v>227</v>
+      </c>
+      <c r="G3442" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
       </c>
       <c r="I3442" s="2">
         <f>SUM(105571+999377)</f>
         <v>1104948</v>
       </c>
     </row>
-    <row r="3443" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3443" s="3"/>
       <c r="C3443" s="3" t="s">
         <v>18</v>
@@ -78086,8 +79923,16 @@
       <c r="E3443" s="2">
         <v>844</v>
       </c>
-    </row>
-    <row r="3444" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F3443" s="2">
+        <f t="shared" si="159"/>
+        <v>74</v>
+      </c>
+      <c r="G3443" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3444" s="3"/>
       <c r="C3444" s="3" t="s">
         <v>19</v>
@@ -78098,8 +79943,16 @@
       <c r="E3444" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="3445" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F3444" s="2">
+        <f t="shared" si="159"/>
+        <v>91</v>
+      </c>
+      <c r="G3444" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3445" s="3"/>
       <c r="C3445" s="3" t="s">
         <v>40</v>
@@ -78110,8 +79963,16 @@
       <c r="E3445" s="2">
         <v>334</v>
       </c>
-    </row>
-    <row r="3446" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F3445" s="2">
+        <f t="shared" si="159"/>
+        <v>15</v>
+      </c>
+      <c r="G3445" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3446" s="3"/>
       <c r="C3446" s="3" t="s">
         <v>41</v>
@@ -78122,35 +79983,712 @@
       <c r="E3446" s="2">
         <v>362</v>
       </c>
-    </row>
-    <row r="3447" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F3446" s="2">
+        <f t="shared" si="159"/>
+        <v>58</v>
+      </c>
+      <c r="G3446" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3447" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3447" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3448" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D3447" s="2">
+        <v>169078</v>
+      </c>
+      <c r="E3447" s="2">
+        <v>4300</v>
+      </c>
+      <c r="F3447" s="2">
+        <f t="shared" si="159"/>
+        <v>1880</v>
+      </c>
+      <c r="G3447" s="2">
+        <f t="shared" si="159"/>
+        <v>38</v>
+      </c>
+      <c r="I3447" s="2">
+        <v>7047355</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3448" s="3"/>
       <c r="C3448" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3449" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D3448" s="2">
+        <v>26100</v>
+      </c>
+      <c r="E3448" s="2">
+        <v>524</v>
+      </c>
+      <c r="F3448" s="2">
+        <f t="shared" si="159"/>
+        <v>485</v>
+      </c>
+      <c r="G3448" s="2">
+        <f t="shared" si="159"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3449" s="3"/>
       <c r="C3449" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3450" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D3449" s="2">
+        <v>34513</v>
+      </c>
+      <c r="E3449" s="2">
+        <v>637</v>
+      </c>
+      <c r="F3449" s="2">
+        <f t="shared" si="159"/>
+        <v>680</v>
+      </c>
+      <c r="G3449" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3450" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3451" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D3450" s="2">
+        <v>8658</v>
+      </c>
+      <c r="E3450" s="2">
+        <v>183</v>
+      </c>
+      <c r="F3450" s="2">
+        <f t="shared" si="159"/>
+        <v>200</v>
+      </c>
+      <c r="G3450" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3451" s="3" t="s">
         <v>43</v>
+      </c>
+      <c r="D3451" s="2">
+        <v>33530</v>
+      </c>
+      <c r="E3451" s="2">
+        <v>556</v>
+      </c>
+      <c r="F3451" s="2">
+        <f t="shared" si="159"/>
+        <v>667</v>
+      </c>
+      <c r="G3451" s="2">
+        <f t="shared" si="159"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3452" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B3452" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3452" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3452" s="2">
+        <v>67532</v>
+      </c>
+      <c r="E3452" s="2">
+        <v>4055</v>
+      </c>
+      <c r="F3452" s="2">
+        <f t="shared" si="159"/>
+        <v>74</v>
+      </c>
+      <c r="G3452" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
+      <c r="I3452" s="2">
+        <v>5516311</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3453" s="3"/>
+      <c r="C3453" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3453" s="2">
+        <v>61926</v>
+      </c>
+      <c r="E3453" s="2">
+        <v>4546</v>
+      </c>
+      <c r="F3453" s="2">
+        <f t="shared" si="159"/>
+        <v>102</v>
+      </c>
+      <c r="G3453" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3454" s="3"/>
+      <c r="C3454" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3454" s="2">
+        <v>42915</v>
+      </c>
+      <c r="E3454" s="2">
+        <v>2705</v>
+      </c>
+      <c r="F3454" s="2">
+        <f t="shared" si="159"/>
+        <v>55</v>
+      </c>
+      <c r="G3454" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3455" s="3"/>
+      <c r="C3455" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3455" s="2">
+        <v>49280</v>
+      </c>
+      <c r="E3455" s="2">
+        <v>3063</v>
+      </c>
+      <c r="F3455" s="2">
+        <f t="shared" si="159"/>
+        <v>80</v>
+      </c>
+      <c r="G3455" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B3456" s="3"/>
+      <c r="C3456" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3456" s="2">
+        <v>42822</v>
+      </c>
+      <c r="E3456" s="2">
+        <v>2043</v>
+      </c>
+      <c r="F3456" s="2">
+        <f t="shared" si="159"/>
+        <v>49</v>
+      </c>
+      <c r="G3456" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3457" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3457" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3457" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3457" s="2">
+        <v>20192</v>
+      </c>
+      <c r="E3457" s="2">
+        <v>1781</v>
+      </c>
+      <c r="F3457" s="2">
+        <f t="shared" si="159"/>
+        <v>30</v>
+      </c>
+      <c r="G3457" s="2">
+        <f t="shared" si="159"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3458" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3458" s="3"/>
+      <c r="C3458" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3458" s="2">
+        <v>19329</v>
+      </c>
+      <c r="E3458" s="2">
+        <v>1323</v>
+      </c>
+      <c r="F3458" s="2">
+        <f t="shared" si="159"/>
+        <v>16</v>
+      </c>
+      <c r="G3458" s="2">
+        <f t="shared" si="159"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3459" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3459" s="3"/>
+      <c r="C3459" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3459" s="2">
+        <v>19263</v>
+      </c>
+      <c r="E3459" s="2">
+        <v>1854</v>
+      </c>
+      <c r="F3459" s="2">
+        <f t="shared" si="159"/>
+        <v>35</v>
+      </c>
+      <c r="G3459" s="2">
+        <f t="shared" si="159"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3460" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3460" s="3"/>
+      <c r="C3460" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3460" s="2">
+        <v>16335</v>
+      </c>
+      <c r="E3460" s="2">
+        <v>1170</v>
+      </c>
+      <c r="F3460" s="2">
+        <f t="shared" si="159"/>
+        <v>14</v>
+      </c>
+      <c r="G3460" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3461" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3461" s="3"/>
+      <c r="C3461" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3461" s="2">
+        <v>17274</v>
+      </c>
+      <c r="E3461" s="2">
+        <v>1085</v>
+      </c>
+      <c r="F3461" s="2">
+        <f t="shared" si="159"/>
+        <v>37</v>
+      </c>
+      <c r="G3461" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3462" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3462" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3462" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3462" s="2">
+        <v>20827</v>
+      </c>
+      <c r="E3462" s="2">
+        <v>1046</v>
+      </c>
+      <c r="F3462" s="2">
+        <f t="shared" si="159"/>
+        <v>34</v>
+      </c>
+      <c r="G3462" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
+      <c r="I3462" s="2">
+        <v>1103722</v>
+      </c>
+    </row>
+    <row r="3463" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3463" s="3"/>
+      <c r="C3463" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3463" s="2">
+        <v>25250</v>
+      </c>
+      <c r="E3463" s="2">
+        <v>1955</v>
+      </c>
+      <c r="F3463" s="2">
+        <f t="shared" si="159"/>
+        <v>60</v>
+      </c>
+      <c r="G3463" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3464" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3464" s="3"/>
+      <c r="C3464" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3464" s="2">
+        <v>16915</v>
+      </c>
+      <c r="E3464" s="2">
+        <v>1162</v>
+      </c>
+      <c r="F3464" s="2">
+        <f t="shared" si="159"/>
+        <v>32</v>
+      </c>
+      <c r="G3464" s="2">
+        <f t="shared" si="159"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3465" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3465" s="3"/>
+      <c r="C3465" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3465" s="2">
+        <v>9934</v>
+      </c>
+      <c r="E3465" s="2">
+        <v>976</v>
+      </c>
+      <c r="F3465" s="2">
+        <f t="shared" si="159"/>
+        <v>39</v>
+      </c>
+      <c r="G3465" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3466" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3466" s="3"/>
+      <c r="C3466" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3466" s="2">
+        <v>13059</v>
+      </c>
+      <c r="E3466" s="2">
+        <v>978</v>
+      </c>
+      <c r="F3466" s="2">
+        <f t="shared" si="159"/>
+        <v>40</v>
+      </c>
+      <c r="G3466" s="2">
+        <f t="shared" si="159"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3467" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3467" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3467" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3467" s="2">
+        <v>24436</v>
+      </c>
+      <c r="E3467" s="2">
+        <v>2657</v>
+      </c>
+      <c r="F3467" s="2">
+        <f t="shared" si="159"/>
+        <v>65</v>
+      </c>
+      <c r="G3467" s="2">
+        <f t="shared" si="159"/>
+        <v>-9</v>
+      </c>
+      <c r="I3467" s="2">
+        <v>1614646</v>
+      </c>
+    </row>
+    <row r="3468" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3468" s="3"/>
+      <c r="C3468" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3468" s="2">
+        <v>10582</v>
+      </c>
+      <c r="E3468" s="2">
+        <v>1085</v>
+      </c>
+      <c r="F3468" s="2">
+        <f t="shared" si="159"/>
+        <v>40</v>
+      </c>
+      <c r="G3468" s="2">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3469" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3469" s="3"/>
+      <c r="C3469" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3469" s="2">
+        <v>8450</v>
+      </c>
+      <c r="E3469" s="2">
+        <v>899</v>
+      </c>
+      <c r="F3469" s="2">
+        <f t="shared" ref="F3469:G3481" si="160">SUM(D3469-D3439)</f>
+        <v>25</v>
+      </c>
+      <c r="G3469" s="2">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3470" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3470" s="3"/>
+      <c r="C3470" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3470" s="2">
+        <v>2597</v>
+      </c>
+      <c r="E3470" s="2">
+        <v>269</v>
+      </c>
+      <c r="F3470" s="2">
+        <f t="shared" si="160"/>
+        <v>15</v>
+      </c>
+      <c r="G3470" s="2">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3471" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3471" s="3"/>
+      <c r="C3471" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3471" s="2">
+        <v>1997</v>
+      </c>
+      <c r="E3471" s="2">
+        <v>110</v>
+      </c>
+      <c r="F3471" s="2">
+        <f t="shared" si="160"/>
+        <v>82</v>
+      </c>
+      <c r="G3471" s="2">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3472" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B3472" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3472" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3472" s="2">
+        <v>24807</v>
+      </c>
+      <c r="E3472" s="2">
+        <v>1676</v>
+      </c>
+      <c r="F3472" s="2">
+        <f t="shared" si="160"/>
+        <v>177</v>
+      </c>
+      <c r="G3472" s="2">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="I3472" s="2">
+        <f>SUM(106625+1016705)</f>
+        <v>1123330</v>
+      </c>
+    </row>
+    <row r="3473" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3473" s="3"/>
+      <c r="C3473" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3473" s="2">
+        <v>9444</v>
+      </c>
+      <c r="E3473" s="2">
+        <v>844</v>
+      </c>
+      <c r="F3473" s="2">
+        <f t="shared" si="160"/>
+        <v>59</v>
+      </c>
+      <c r="G3473" s="2">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3474" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3474" s="3"/>
+      <c r="C3474" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3474" s="2">
+        <v>8250</v>
+      </c>
+      <c r="E3474" s="2">
+        <v>720</v>
+      </c>
+      <c r="F3474" s="2">
+        <f t="shared" si="160"/>
+        <v>110</v>
+      </c>
+      <c r="G3474" s="2">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3475" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3475" s="3"/>
+      <c r="C3475" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3475" s="2">
+        <v>4667</v>
+      </c>
+      <c r="E3475" s="2">
+        <v>334</v>
+      </c>
+      <c r="F3475" s="2">
+        <f t="shared" si="160"/>
+        <v>43</v>
+      </c>
+      <c r="G3475" s="2">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3476" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3476" s="3"/>
+      <c r="C3476" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3476" s="2">
+        <v>5008</v>
+      </c>
+      <c r="E3476" s="2">
+        <v>362</v>
+      </c>
+      <c r="F3476" s="2">
+        <f t="shared" si="160"/>
+        <v>31</v>
+      </c>
+      <c r="G3476" s="2">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3477" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3477" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3477" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3477" s="2">
+        <f t="shared" si="160"/>
+        <v>-169078</v>
+      </c>
+      <c r="G3477" s="2">
+        <f t="shared" si="160"/>
+        <v>-4300</v>
+      </c>
+    </row>
+    <row r="3478" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3478" s="3"/>
+      <c r="C3478" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3478" s="2">
+        <f t="shared" si="160"/>
+        <v>-26100</v>
+      </c>
+      <c r="G3478" s="2">
+        <f t="shared" si="160"/>
+        <v>-524</v>
+      </c>
+    </row>
+    <row r="3479" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3479" s="3"/>
+      <c r="C3479" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3479" s="2">
+        <f t="shared" si="160"/>
+        <v>-34513</v>
+      </c>
+      <c r="G3479" s="2">
+        <f t="shared" si="160"/>
+        <v>-637</v>
+      </c>
+    </row>
+    <row r="3480" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3480" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3480" s="2">
+        <f t="shared" si="160"/>
+        <v>-8658</v>
+      </c>
+      <c r="G3480" s="2">
+        <f t="shared" si="160"/>
+        <v>-183</v>
+      </c>
+    </row>
+    <row r="3481" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C3481" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3481" s="2">
+        <f t="shared" si="160"/>
+        <v>-33530</v>
+      </c>
+      <c r="G3481" s="2">
+        <f t="shared" si="160"/>
+        <v>-556</v>
       </c>
     </row>
   </sheetData>

--- a/county.xlsx
+++ b/county.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikeji/Desktop/raissa/coronavirus-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51492361-D589-4F46-B670-232DD3ECE064}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46503D49-12FC-9447-91E4-01EC9789999B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
+    <workbookView xWindow="-340" yWindow="460" windowWidth="12760" windowHeight="16500" xr2:uid="{15A0E9DB-48AA-2146-A65E-D83F5D86B0BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360764FD-9959-654F-B5A7-625C8148CAFF}">
   <dimension ref="A1:M3481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3424" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3306" sqref="D3306"/>
+    <sheetView tabSelected="1" topLeftCell="A3418" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H3347" sqref="H3347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74728,7 +74728,7 @@
         <v>3</v>
       </c>
       <c r="H3198" s="2">
-        <f t="shared" ref="H3198:H3211" si="155">SUM(I3198-I3168)</f>
+        <f t="shared" ref="H3198:H3261" si="155">SUM(I3198-I3168)</f>
         <v>0</v>
       </c>
     </row>
@@ -75077,8 +75077,12 @@
         <f t="shared" si="154"/>
         <v>2</v>
       </c>
+      <c r="H3212" s="2">
+        <f t="shared" si="155"/>
+        <v>73280</v>
+      </c>
       <c r="I3212" s="2">
-        <v>499449</v>
+        <v>4994490</v>
       </c>
     </row>
     <row r="3213" spans="1:9" x14ac:dyDescent="0.2">
@@ -75100,6 +75104,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3213" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3214" s="3"/>
@@ -75120,6 +75128,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3214" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3215" s="3"/>
@@ -75140,6 +75152,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3215" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3216" s="3"/>
@@ -75160,6 +75176,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3216" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3217" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3217" s="3" t="s">
@@ -75181,6 +75201,10 @@
       <c r="G3217" s="2">
         <f t="shared" si="156"/>
         <v>3</v>
+      </c>
+      <c r="H3217" s="2">
+        <f t="shared" si="155"/>
+        <v>9024</v>
       </c>
       <c r="I3217" s="2">
         <v>1768928</v>
@@ -75205,6 +75229,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3218" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3219" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3219" s="3"/>
@@ -75225,6 +75253,10 @@
         <f t="shared" si="156"/>
         <v>3</v>
       </c>
+      <c r="H3219" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3220" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3220" s="3"/>
@@ -75245,6 +75277,10 @@
         <f t="shared" si="156"/>
         <v>2</v>
       </c>
+      <c r="H3220" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3221" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3221" s="3"/>
@@ -75265,6 +75301,10 @@
         <f t="shared" si="156"/>
         <v>2</v>
       </c>
+      <c r="H3221" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3222" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3222" s="3" t="s">
@@ -75286,6 +75326,10 @@
       <c r="G3222" s="2">
         <f t="shared" si="156"/>
         <v>3</v>
+      </c>
+      <c r="H3222" s="2">
+        <f t="shared" si="155"/>
+        <v>12821</v>
       </c>
       <c r="I3222" s="2">
         <v>1008195</v>
@@ -75310,6 +75354,10 @@
         <f t="shared" si="156"/>
         <v>4</v>
       </c>
+      <c r="H3223" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3224" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3224" s="3"/>
@@ -75330,6 +75378,10 @@
         <f t="shared" si="156"/>
         <v>3</v>
       </c>
+      <c r="H3224" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3225" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3225" s="3"/>
@@ -75350,6 +75402,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3225" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3226" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3226" s="3"/>
@@ -75370,6 +75426,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3226" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3227" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3227" s="3" t="s">
@@ -75391,6 +75451,10 @@
       <c r="G3227" s="2">
         <f t="shared" si="156"/>
         <v>4</v>
+      </c>
+      <c r="H3227" s="2">
+        <f t="shared" si="155"/>
+        <v>30352</v>
       </c>
       <c r="I3227" s="2">
         <v>1425506</v>
@@ -75415,6 +75479,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3228" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3229" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3229" s="3"/>
@@ -75435,6 +75503,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3229" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3230" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3230" s="3"/>
@@ -75455,6 +75527,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3230" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3231" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3231" s="3"/>
@@ -75475,6 +75551,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3231" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3232" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3232" s="3" t="s">
@@ -75496,6 +75576,10 @@
       <c r="G3232" s="2">
         <f t="shared" si="156"/>
         <v>1</v>
+      </c>
+      <c r="H3232" s="2">
+        <f t="shared" si="155"/>
+        <v>15749</v>
       </c>
       <c r="I3232" s="2">
         <f>SUM(99478+899912)</f>
@@ -75521,6 +75605,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3233" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3234" s="3"/>
@@ -75541,6 +75629,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3234" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3235" s="3"/>
@@ -75561,6 +75653,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3235" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3236" s="3"/>
@@ -75581,6 +75677,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3236" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3237" s="3" t="s">
@@ -75602,6 +75702,10 @@
       <c r="G3237" s="2">
         <f t="shared" si="156"/>
         <v>59</v>
+      </c>
+      <c r="H3237" s="2">
+        <f t="shared" si="155"/>
+        <v>123119</v>
       </c>
       <c r="I3237" s="2">
         <v>6167218</v>
@@ -75626,6 +75730,10 @@
         <f t="shared" si="156"/>
         <v>7</v>
       </c>
+      <c r="H3238" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3239" s="3"/>
@@ -75646,6 +75754,10 @@
         <f t="shared" si="156"/>
         <v>2</v>
       </c>
+      <c r="H3239" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3240" s="3" t="s">
@@ -75665,6 +75777,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3240" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3241" s="3" t="s">
@@ -75684,6 +75800,10 @@
         <f t="shared" si="156"/>
         <v>3</v>
       </c>
+      <c r="H3241" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3242" s="1">
@@ -75708,6 +75828,10 @@
       <c r="G3242" s="2">
         <f t="shared" si="156"/>
         <v>0</v>
+      </c>
+      <c r="H3242" s="2">
+        <f t="shared" si="155"/>
+        <v>74776</v>
       </c>
       <c r="I3242" s="2">
         <v>5069266</v>
@@ -75732,6 +75856,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3243" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3244" s="3"/>
@@ -75752,6 +75880,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3244" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3245" s="3"/>
@@ -75772,6 +75904,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3245" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3246" s="3"/>
@@ -75792,6 +75928,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3246" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3247" s="3" t="s">
@@ -75813,6 +75953,10 @@
       <c r="G3247" s="2">
         <f t="shared" si="156"/>
         <v>1</v>
+      </c>
+      <c r="H3247" s="2">
+        <f t="shared" si="155"/>
+        <v>12522</v>
       </c>
       <c r="I3247" s="2">
         <v>1781450</v>
@@ -75837,6 +75981,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3248" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3249" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3249" s="3"/>
@@ -75857,6 +76005,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3249" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3250" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3250" s="3"/>
@@ -75877,6 +76029,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3250" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3251" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3251" s="3"/>
@@ -75897,6 +76053,10 @@
         <f t="shared" si="156"/>
         <v>3</v>
       </c>
+      <c r="H3251" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3252" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3252" s="3" t="s">
@@ -75918,6 +76078,10 @@
       <c r="G3252" s="2">
         <f t="shared" si="156"/>
         <v>5</v>
+      </c>
+      <c r="H3252" s="2">
+        <f t="shared" si="155"/>
+        <v>12064</v>
       </c>
       <c r="I3252" s="2">
         <v>1020259</v>
@@ -75942,6 +76106,10 @@
         <f t="shared" si="156"/>
         <v>6</v>
       </c>
+      <c r="H3253" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3254" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3254" s="3"/>
@@ -75962,6 +76130,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3254" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3255" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3255" s="3"/>
@@ -75982,6 +76154,10 @@
         <f t="shared" si="156"/>
         <v>3</v>
       </c>
+      <c r="H3255" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3256" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3256" s="3"/>
@@ -76002,6 +76178,10 @@
         <f t="shared" si="156"/>
         <v>-1</v>
       </c>
+      <c r="H3256" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3257" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3257" s="3" t="s">
@@ -76023,6 +76203,10 @@
       <c r="G3257" s="2">
         <f t="shared" si="156"/>
         <v>6</v>
+      </c>
+      <c r="H3257" s="2">
+        <f t="shared" si="155"/>
+        <v>30572</v>
       </c>
       <c r="I3257" s="2">
         <v>1456078</v>
@@ -76047,6 +76231,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3258" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3259" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3259" s="3"/>
@@ -76067,6 +76255,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3259" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3260" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3260" s="3"/>
@@ -76087,6 +76279,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3260" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3261" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3261" s="3"/>
@@ -76107,6 +76303,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3261" s="2">
+        <f t="shared" si="155"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3262" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3262" s="3" t="s">
@@ -76128,6 +76328,10 @@
       <c r="G3262" s="2">
         <f t="shared" si="156"/>
         <v>0</v>
+      </c>
+      <c r="H3262" s="2">
+        <f t="shared" ref="H3262:H3325" si="157">SUM(I3262-I3232)</f>
+        <v>13337</v>
       </c>
       <c r="I3262" s="2">
         <f>SUM(100241+912486)</f>
@@ -76153,6 +76357,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3263" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3264" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3264" s="3"/>
@@ -76173,6 +76381,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3264" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3265" s="3"/>
@@ -76193,6 +76405,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3265" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3266" s="3"/>
@@ -76213,6 +76429,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3266" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3267" s="3" t="s">
@@ -76234,6 +76454,10 @@
       <c r="G3267" s="2">
         <f t="shared" si="156"/>
         <v>37</v>
+      </c>
+      <c r="H3267" s="2">
+        <f t="shared" si="157"/>
+        <v>119634</v>
       </c>
       <c r="I3267" s="2">
         <v>6286852</v>
@@ -76258,6 +76482,10 @@
         <f t="shared" si="156"/>
         <v>6</v>
       </c>
+      <c r="H3268" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3269" s="3"/>
@@ -76278,6 +76506,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3269" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3270" s="3" t="s">
@@ -76297,6 +76529,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3270" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C3271" s="3" t="s">
@@ -76316,6 +76552,10 @@
         <f t="shared" si="156"/>
         <v>25</v>
       </c>
+      <c r="H3271" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3272" s="1">
@@ -76340,6 +76580,10 @@
       <c r="G3272" s="2">
         <f t="shared" si="156"/>
         <v>3</v>
+      </c>
+      <c r="H3272" s="2">
+        <f t="shared" si="157"/>
+        <v>46204</v>
       </c>
       <c r="I3272" s="2">
         <v>5115470</v>
@@ -76364,6 +76608,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3273" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3274" s="3"/>
@@ -76384,6 +76632,10 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
+      <c r="H3274" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3275" s="3"/>
@@ -76404,6 +76656,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3275" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3276" s="3"/>
@@ -76424,6 +76680,10 @@
         <f t="shared" si="156"/>
         <v>1</v>
       </c>
+      <c r="H3276" s="2">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="3277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3277" s="3" t="s">
@@ -76439,12 +76699,16 @@
         <v>1765</v>
       </c>
       <c r="F3277" s="2">
-        <f t="shared" ref="F3277:G3340" si="157">SUM(D3277-D3247)</f>
+        <f t="shared" ref="F3277:G3340" si="158">SUM(D3277-D3247)</f>
         <v>1</v>
       </c>
       <c r="G3277" s="2">
+        <f t="shared" si="158"/>
+        <v>-1</v>
+      </c>
+      <c r="H3277" s="2">
         <f t="shared" si="157"/>
-        <v>-1</v>
+        <v>9687</v>
       </c>
       <c r="I3277" s="2">
         <v>1791137</v>
@@ -76462,10 +76726,14 @@
         <v>1313</v>
       </c>
       <c r="F3278" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-13</v>
       </c>
       <c r="G3278" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3278" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76482,10 +76750,14 @@
         <v>1838</v>
       </c>
       <c r="F3279" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0</v>
       </c>
       <c r="G3279" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3279" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76502,10 +76774,14 @@
         <v>1165</v>
       </c>
       <c r="F3280" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-38</v>
       </c>
       <c r="G3280" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3280" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76522,12 +76798,16 @@
         <v>1080</v>
       </c>
       <c r="F3281" s="2">
+        <f t="shared" si="158"/>
+        <v>-5</v>
+      </c>
+      <c r="G3281" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3281" s="2">
         <f t="shared" si="157"/>
-        <v>-5</v>
-      </c>
-      <c r="G3281" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3282" spans="2:9" x14ac:dyDescent="0.2">
@@ -76544,12 +76824,16 @@
         <v>1035</v>
       </c>
       <c r="F3282" s="2">
+        <f t="shared" si="158"/>
+        <v>46</v>
+      </c>
+      <c r="G3282" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3282" s="2">
         <f t="shared" si="157"/>
-        <v>46</v>
-      </c>
-      <c r="G3282" s="2">
-        <f t="shared" si="157"/>
-        <v>0</v>
+        <v>13624</v>
       </c>
       <c r="I3282" s="2">
         <v>1033883</v>
@@ -76567,12 +76851,16 @@
         <v>1947</v>
       </c>
       <c r="F3283" s="2">
+        <f t="shared" si="158"/>
+        <v>77</v>
+      </c>
+      <c r="G3283" s="2">
+        <f t="shared" si="158"/>
+        <v>3</v>
+      </c>
+      <c r="H3283" s="2">
         <f t="shared" si="157"/>
-        <v>77</v>
-      </c>
-      <c r="G3283" s="2">
-        <f t="shared" si="157"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3284" spans="2:9" x14ac:dyDescent="0.2">
@@ -76587,12 +76875,16 @@
         <v>1143</v>
       </c>
       <c r="F3284" s="2">
+        <f t="shared" si="158"/>
+        <v>23</v>
+      </c>
+      <c r="G3284" s="2">
+        <f t="shared" si="158"/>
+        <v>3</v>
+      </c>
+      <c r="H3284" s="2">
         <f t="shared" si="157"/>
-        <v>23</v>
-      </c>
-      <c r="G3284" s="2">
-        <f t="shared" si="157"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3285" spans="2:9" x14ac:dyDescent="0.2">
@@ -76607,12 +76899,16 @@
         <v>967</v>
       </c>
       <c r="F3285" s="2">
+        <f t="shared" si="158"/>
+        <v>41</v>
+      </c>
+      <c r="G3285" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3285" s="2">
         <f t="shared" si="157"/>
-        <v>41</v>
-      </c>
-      <c r="G3285" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3286" spans="2:9" x14ac:dyDescent="0.2">
@@ -76627,12 +76923,16 @@
         <v>969</v>
       </c>
       <c r="F3286" s="2">
+        <f t="shared" si="158"/>
+        <v>28</v>
+      </c>
+      <c r="G3286" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3286" s="2">
         <f t="shared" si="157"/>
-        <v>28</v>
-      </c>
-      <c r="G3286" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3287" spans="2:9" x14ac:dyDescent="0.2">
@@ -76649,12 +76949,16 @@
         <v>2659</v>
       </c>
       <c r="F3287" s="2">
+        <f t="shared" si="158"/>
+        <v>77</v>
+      </c>
+      <c r="G3287" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3287" s="2">
         <f t="shared" si="157"/>
-        <v>77</v>
-      </c>
-      <c r="G3287" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>28381</v>
       </c>
       <c r="I3287" s="2">
         <v>1484459</v>
@@ -76672,10 +76976,14 @@
         <v>1073</v>
       </c>
       <c r="F3288" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>68</v>
       </c>
       <c r="G3288" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3288" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76692,10 +77000,14 @@
         <v>896</v>
       </c>
       <c r="F3289" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>82</v>
       </c>
       <c r="G3289" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3289" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76712,10 +77024,14 @@
         <v>267</v>
       </c>
       <c r="F3290" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>11</v>
       </c>
       <c r="G3290" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3290" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76732,10 +77048,14 @@
         <v>109</v>
       </c>
       <c r="F3291" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-41</v>
       </c>
       <c r="G3291" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3291" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76754,12 +77074,16 @@
         <v>1665</v>
       </c>
       <c r="F3292" s="2">
+        <f t="shared" si="158"/>
+        <v>182</v>
+      </c>
+      <c r="G3292" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3292" s="2">
         <f t="shared" si="157"/>
-        <v>182</v>
-      </c>
-      <c r="G3292" s="2">
-        <f t="shared" si="157"/>
-        <v>0</v>
+        <v>14652</v>
       </c>
       <c r="I3292" s="2">
         <f>SUM(101027+926352)</f>
@@ -76778,10 +77102,14 @@
         <v>837</v>
       </c>
       <c r="F3293" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>57</v>
       </c>
       <c r="G3293" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3293" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76798,10 +77126,14 @@
         <v>718</v>
       </c>
       <c r="F3294" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>48</v>
       </c>
       <c r="G3294" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3294" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76818,10 +77150,14 @@
         <v>332</v>
       </c>
       <c r="F3295" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>5</v>
       </c>
       <c r="G3295" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3295" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76838,10 +77174,14 @@
         <v>360</v>
       </c>
       <c r="F3296" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>23</v>
       </c>
       <c r="G3296" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3296" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76860,12 +77200,16 @@
         <v>4095</v>
       </c>
       <c r="F3297" s="2">
+        <f t="shared" si="158"/>
+        <v>2774</v>
+      </c>
+      <c r="G3297" s="2">
+        <f t="shared" si="158"/>
+        <v>11</v>
+      </c>
+      <c r="H3297" s="2">
         <f t="shared" si="157"/>
-        <v>2774</v>
-      </c>
-      <c r="G3297" s="2">
-        <f t="shared" si="157"/>
-        <v>11</v>
+        <v>127469</v>
       </c>
       <c r="I3297" s="2">
         <v>6414321</v>
@@ -76883,10 +77227,14 @@
         <v>478</v>
       </c>
       <c r="F3298" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>568</v>
       </c>
       <c r="G3298" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3298" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76903,10 +77251,14 @@
         <v>587</v>
       </c>
       <c r="F3299" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>95</v>
       </c>
       <c r="G3299" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3299" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76922,10 +77274,14 @@
         <v>177</v>
       </c>
       <c r="F3300" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>148</v>
       </c>
       <c r="G3300" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3300" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -76941,12 +77297,16 @@
         <v>492</v>
       </c>
       <c r="F3301" s="2">
+        <f t="shared" si="158"/>
+        <v>338</v>
+      </c>
+      <c r="G3301" s="2">
+        <f t="shared" si="158"/>
+        <v>-2</v>
+      </c>
+      <c r="H3301" s="2">
         <f t="shared" si="157"/>
-        <v>338</v>
-      </c>
-      <c r="G3301" s="2">
-        <f t="shared" si="157"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3302" spans="1:9" x14ac:dyDescent="0.2">
@@ -76966,12 +77326,16 @@
         <v>4049</v>
       </c>
       <c r="F3302" s="2">
+        <f t="shared" si="158"/>
+        <v>72</v>
+      </c>
+      <c r="G3302" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3302" s="2">
         <f t="shared" si="157"/>
-        <v>72</v>
-      </c>
-      <c r="G3302" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>49342</v>
       </c>
       <c r="I3302" s="2">
         <v>5164812</v>
@@ -76989,12 +77353,16 @@
         <v>4542</v>
       </c>
       <c r="F3303" s="2">
+        <f t="shared" si="158"/>
+        <v>56</v>
+      </c>
+      <c r="G3303" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3303" s="2">
         <f t="shared" si="157"/>
-        <v>56</v>
-      </c>
-      <c r="G3303" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3304" spans="1:9" x14ac:dyDescent="0.2">
@@ -77009,12 +77377,16 @@
         <v>2705</v>
       </c>
       <c r="F3304" s="2">
+        <f t="shared" si="158"/>
+        <v>56</v>
+      </c>
+      <c r="G3304" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3304" s="2">
         <f t="shared" si="157"/>
-        <v>56</v>
-      </c>
-      <c r="G3304" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3305" spans="1:9" x14ac:dyDescent="0.2">
@@ -77029,10 +77401,14 @@
         <v>3060</v>
       </c>
       <c r="F3305" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>68</v>
       </c>
       <c r="G3305" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3305" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77049,10 +77425,14 @@
         <v>2041</v>
       </c>
       <c r="F3306" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>30</v>
       </c>
       <c r="G3306" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3306" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77071,12 +77451,16 @@
         <v>1765</v>
       </c>
       <c r="F3307" s="2">
+        <f t="shared" si="158"/>
+        <v>54</v>
+      </c>
+      <c r="G3307" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3307" s="2">
         <f t="shared" si="157"/>
-        <v>54</v>
-      </c>
-      <c r="G3307" s="2">
-        <f t="shared" si="157"/>
-        <v>0</v>
+        <v>11737</v>
       </c>
       <c r="I3307" s="2">
         <v>1802874</v>
@@ -77094,10 +77478,14 @@
         <v>1313</v>
       </c>
       <c r="F3308" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>15</v>
       </c>
       <c r="G3308" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3308" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77114,10 +77502,14 @@
         <v>1838</v>
       </c>
       <c r="F3309" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>16</v>
       </c>
       <c r="G3309" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3309" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77134,10 +77526,14 @@
         <v>1165</v>
       </c>
       <c r="F3310" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>9</v>
       </c>
       <c r="G3310" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3310" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77154,12 +77550,16 @@
         <v>1081</v>
       </c>
       <c r="F3311" s="2">
+        <f t="shared" si="158"/>
+        <v>10</v>
+      </c>
+      <c r="G3311" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3311" s="2">
         <f t="shared" si="157"/>
-        <v>10</v>
-      </c>
-      <c r="G3311" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3312" spans="1:9" x14ac:dyDescent="0.2">
@@ -77176,12 +77576,16 @@
         <v>1035</v>
       </c>
       <c r="F3312" s="2">
+        <f t="shared" si="158"/>
+        <v>20</v>
+      </c>
+      <c r="G3312" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3312" s="2">
         <f t="shared" si="157"/>
-        <v>20</v>
-      </c>
-      <c r="G3312" s="2">
-        <f t="shared" si="157"/>
-        <v>0</v>
+        <v>10665</v>
       </c>
       <c r="I3312" s="2">
         <v>1044548</v>
@@ -77199,12 +77603,16 @@
         <v>1948</v>
       </c>
       <c r="F3313" s="2">
+        <f t="shared" si="158"/>
+        <v>72</v>
+      </c>
+      <c r="G3313" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3313" s="2">
         <f t="shared" si="157"/>
-        <v>72</v>
-      </c>
-      <c r="G3313" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3314" spans="2:9" x14ac:dyDescent="0.2">
@@ -77219,10 +77627,14 @@
         <v>1143</v>
       </c>
       <c r="F3314" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>24</v>
       </c>
       <c r="G3314" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3314" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77239,12 +77651,16 @@
         <v>968</v>
       </c>
       <c r="F3315" s="2">
+        <f t="shared" si="158"/>
+        <v>38</v>
+      </c>
+      <c r="G3315" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3315" s="2">
         <f t="shared" si="157"/>
-        <v>38</v>
-      </c>
-      <c r="G3315" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3316" spans="2:9" x14ac:dyDescent="0.2">
@@ -77259,10 +77675,14 @@
         <v>969</v>
       </c>
       <c r="F3316" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>29</v>
       </c>
       <c r="G3316" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3316" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77278,8 +77698,12 @@
         <v>2659</v>
       </c>
       <c r="G3317" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3317" s="2">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>-1484459</v>
       </c>
     </row>
     <row r="3318" spans="2:9" x14ac:dyDescent="0.2">
@@ -77294,12 +77718,16 @@
         <v>1076</v>
       </c>
       <c r="F3318" s="2">
+        <f t="shared" si="158"/>
+        <v>42</v>
+      </c>
+      <c r="G3318" s="2">
+        <f t="shared" si="158"/>
+        <v>3</v>
+      </c>
+      <c r="H3318" s="2">
         <f t="shared" si="157"/>
-        <v>42</v>
-      </c>
-      <c r="G3318" s="2">
-        <f t="shared" si="157"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3319" spans="2:9" x14ac:dyDescent="0.2">
@@ -77314,12 +77742,16 @@
         <v>897</v>
       </c>
       <c r="F3319" s="2">
+        <f t="shared" si="158"/>
+        <v>65</v>
+      </c>
+      <c r="G3319" s="2">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+      <c r="H3319" s="2">
         <f t="shared" si="157"/>
-        <v>65</v>
-      </c>
-      <c r="G3319" s="2">
-        <f t="shared" si="157"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3320" spans="2:9" x14ac:dyDescent="0.2">
@@ -77334,10 +77766,14 @@
         <v>267</v>
       </c>
       <c r="F3320" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>27</v>
       </c>
       <c r="G3320" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3320" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77354,10 +77790,14 @@
         <v>109</v>
       </c>
       <c r="F3321" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>15</v>
       </c>
       <c r="G3321" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3321" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77376,12 +77816,16 @@
         <v>1665</v>
       </c>
       <c r="F3322" s="2">
+        <f t="shared" si="158"/>
+        <v>86</v>
+      </c>
+      <c r="G3322" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3322" s="2">
         <f t="shared" si="157"/>
-        <v>86</v>
-      </c>
-      <c r="G3322" s="2">
-        <f t="shared" si="157"/>
-        <v>0</v>
+        <v>12534</v>
       </c>
       <c r="I3322" s="2">
         <f>SUM(101738+938175)</f>
@@ -77400,10 +77844,14 @@
         <v>837</v>
       </c>
       <c r="F3323" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>34</v>
       </c>
       <c r="G3323" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3323" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77420,10 +77868,14 @@
         <v>718</v>
       </c>
       <c r="F3324" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>40</v>
       </c>
       <c r="G3324" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3324" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77440,10 +77892,14 @@
         <v>332</v>
       </c>
       <c r="F3325" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>18</v>
       </c>
       <c r="G3325" s="2">
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3325" s="2">
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
@@ -77460,11 +77916,15 @@
         <v>360</v>
       </c>
       <c r="F3326" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>24</v>
       </c>
       <c r="G3326" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3326" s="2">
+        <f t="shared" ref="H3326:H3389" si="159">SUM(I3326-I3296)</f>
         <v>0</v>
       </c>
     </row>
@@ -77482,12 +77942,16 @@
         <v>4104</v>
       </c>
       <c r="F3327" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3163</v>
       </c>
       <c r="G3327" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>9</v>
+      </c>
+      <c r="H3327" s="2">
+        <f t="shared" si="159"/>
+        <v>122611</v>
       </c>
       <c r="I3327" s="2">
         <v>6536932</v>
@@ -77505,11 +77969,15 @@
         <v>478</v>
       </c>
       <c r="F3328" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>453</v>
       </c>
       <c r="G3328" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3328" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -77525,12 +77993,16 @@
         <v>588</v>
       </c>
       <c r="F3329" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>823</v>
       </c>
       <c r="G3329" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1</v>
+      </c>
+      <c r="H3329" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3330" spans="1:9" x14ac:dyDescent="0.2">
@@ -77544,12 +78016,16 @@
         <v>178</v>
       </c>
       <c r="F3330" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>308</v>
       </c>
       <c r="G3330" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1</v>
+      </c>
+      <c r="H3330" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3331" spans="1:9" x14ac:dyDescent="0.2">
@@ -77563,12 +78039,16 @@
         <v>493</v>
       </c>
       <c r="F3331" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>396</v>
       </c>
       <c r="G3331" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1</v>
+      </c>
+      <c r="H3331" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3332" spans="1:9" x14ac:dyDescent="0.2">
@@ -77588,12 +78068,16 @@
         <v>4049</v>
       </c>
       <c r="F3332" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>115</v>
       </c>
       <c r="G3332" s="2">
-        <f t="shared" si="157"/>
-        <v>0</v>
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3332" s="2">
+        <f t="shared" si="159"/>
+        <v>66169</v>
       </c>
       <c r="I3332" s="2">
         <v>5230981</v>
@@ -77611,11 +78095,15 @@
         <v>4542</v>
       </c>
       <c r="F3333" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>80</v>
       </c>
       <c r="G3333" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3333" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -77631,11 +78119,15 @@
         <v>2705</v>
       </c>
       <c r="F3334" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>51</v>
       </c>
       <c r="G3334" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3334" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -77651,11 +78143,15 @@
         <v>3060</v>
       </c>
       <c r="F3335" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>89</v>
       </c>
       <c r="G3335" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
+        <v>0</v>
+      </c>
+      <c r="H3335" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -77671,12 +78167,16 @@
         <v>2042</v>
       </c>
       <c r="F3336" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>79</v>
       </c>
       <c r="G3336" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1</v>
+      </c>
+      <c r="H3336" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3337" spans="1:9" x14ac:dyDescent="0.2">
@@ -77693,12 +78193,16 @@
         <v>1764</v>
       </c>
       <c r="F3337" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>18</v>
       </c>
       <c r="G3337" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-1</v>
+      </c>
+      <c r="H3337" s="2">
+        <f t="shared" si="159"/>
+        <v>15081</v>
       </c>
       <c r="I3337" s="2">
         <v>1817955</v>
@@ -77716,12 +78220,16 @@
         <v>1315</v>
       </c>
       <c r="F3338" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>4</v>
       </c>
       <c r="G3338" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2</v>
+      </c>
+      <c r="H3338" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3339" spans="1:9" x14ac:dyDescent="0.2">
@@ -77736,12 +78244,16 @@
         <v>1840</v>
       </c>
       <c r="F3339" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>32</v>
       </c>
       <c r="G3339" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2</v>
+      </c>
+      <c r="H3339" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3340" spans="1:9" x14ac:dyDescent="0.2">
@@ -77756,12 +78268,16 @@
         <v>1167</v>
       </c>
       <c r="F3340" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-2</v>
       </c>
       <c r="G3340" s="2">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>2</v>
+      </c>
+      <c r="H3340" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3341" spans="1:9" x14ac:dyDescent="0.2">
@@ -77776,12 +78292,16 @@
         <v>1082</v>
       </c>
       <c r="F3341" s="2">
-        <f t="shared" ref="F3341:G3404" si="158">SUM(D3341-D3311)</f>
+        <f t="shared" ref="F3341:G3404" si="160">SUM(D3341-D3311)</f>
         <v>9</v>
       </c>
       <c r="G3341" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3341" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3342" spans="1:9" x14ac:dyDescent="0.2">
@@ -77798,12 +78318,16 @@
         <v>1039</v>
       </c>
       <c r="F3342" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>29</v>
       </c>
       <c r="G3342" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>4</v>
+      </c>
+      <c r="H3342" s="2">
+        <f t="shared" si="159"/>
+        <v>7821</v>
       </c>
       <c r="I3342" s="2">
         <v>1052369</v>
@@ -77821,12 +78345,16 @@
         <v>1946</v>
       </c>
       <c r="F3343" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>53</v>
       </c>
       <c r="G3343" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>-2</v>
+      </c>
+      <c r="H3343" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3344" spans="1:9" x14ac:dyDescent="0.2">
@@ -77841,12 +78369,16 @@
         <v>1146</v>
       </c>
       <c r="F3344" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>27</v>
       </c>
       <c r="G3344" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>3</v>
+      </c>
+      <c r="H3344" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3345" spans="2:9" x14ac:dyDescent="0.2">
@@ -77861,12 +78393,16 @@
         <v>970</v>
       </c>
       <c r="F3345" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>42</v>
       </c>
       <c r="G3345" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3345" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3346" spans="2:9" x14ac:dyDescent="0.2">
@@ -77881,12 +78417,16 @@
         <v>970</v>
       </c>
       <c r="F3346" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>35</v>
       </c>
       <c r="G3346" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3346" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3347" spans="2:9" x14ac:dyDescent="0.2">
@@ -77903,7 +78443,7 @@
         <v>2660</v>
       </c>
       <c r="G3347" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
       </c>
       <c r="I3347" s="2">
@@ -77922,12 +78462,16 @@
         <v>1078</v>
       </c>
       <c r="F3348" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>122</v>
       </c>
       <c r="G3348" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3348" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3349" spans="2:9" x14ac:dyDescent="0.2">
@@ -77942,12 +78486,16 @@
         <v>899</v>
       </c>
       <c r="F3349" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>76</v>
       </c>
       <c r="G3349" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3349" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3350" spans="2:9" x14ac:dyDescent="0.2">
@@ -77962,12 +78510,16 @@
         <v>268</v>
       </c>
       <c r="F3350" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>25</v>
       </c>
       <c r="G3350" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3350" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3351" spans="2:9" x14ac:dyDescent="0.2">
@@ -77982,12 +78534,16 @@
         <v>110</v>
       </c>
       <c r="F3351" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>12</v>
       </c>
       <c r="G3351" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3351" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3352" spans="2:9" x14ac:dyDescent="0.2">
@@ -78004,12 +78560,16 @@
         <v>1666</v>
       </c>
       <c r="F3352" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>168</v>
       </c>
       <c r="G3352" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3352" s="2">
+        <f t="shared" si="159"/>
+        <v>15850</v>
       </c>
       <c r="I3352" s="2">
         <f>SUM(102765+952998)</f>
@@ -78028,11 +78588,15 @@
         <v>837</v>
       </c>
       <c r="F3353" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>40</v>
       </c>
       <c r="G3353" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3353" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78048,11 +78612,15 @@
         <v>718</v>
       </c>
       <c r="F3354" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>59</v>
       </c>
       <c r="G3354" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3354" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78068,12 +78636,16 @@
         <v>333</v>
       </c>
       <c r="F3355" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>21</v>
       </c>
       <c r="G3355" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3355" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3356" spans="2:9" x14ac:dyDescent="0.2">
@@ -78088,12 +78660,16 @@
         <v>361</v>
       </c>
       <c r="F3356" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>20</v>
       </c>
       <c r="G3356" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3356" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3357" spans="2:9" x14ac:dyDescent="0.2">
@@ -78110,12 +78686,16 @@
         <v>4154</v>
       </c>
       <c r="F3357" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>3003</v>
       </c>
       <c r="G3357" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>50</v>
+      </c>
+      <c r="H3357" s="2">
+        <f t="shared" si="159"/>
+        <v>128066</v>
       </c>
       <c r="I3357" s="2">
         <v>6664998</v>
@@ -78133,12 +78713,16 @@
         <v>487</v>
       </c>
       <c r="F3358" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>385</v>
       </c>
       <c r="G3358" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>9</v>
+      </c>
+      <c r="H3358" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3359" spans="2:9" x14ac:dyDescent="0.2">
@@ -78153,12 +78737,16 @@
         <v>589</v>
       </c>
       <c r="F3359" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1068</v>
       </c>
       <c r="G3359" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3359" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3360" spans="2:9" x14ac:dyDescent="0.2">
@@ -78172,11 +78760,15 @@
         <v>178</v>
       </c>
       <c r="F3360" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>278</v>
       </c>
       <c r="G3360" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3360" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78191,12 +78783,16 @@
         <v>513</v>
       </c>
       <c r="F3361" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1019</v>
       </c>
       <c r="G3361" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>20</v>
+      </c>
+      <c r="H3361" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3362" spans="1:9" x14ac:dyDescent="0.2">
@@ -78216,12 +78812,16 @@
         <v>4050</v>
       </c>
       <c r="F3362" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>71</v>
       </c>
       <c r="G3362" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3362" s="2">
+        <f t="shared" si="159"/>
+        <v>67659</v>
       </c>
       <c r="I3362" s="2">
         <v>5298640</v>
@@ -78239,12 +78839,16 @@
         <v>4543</v>
       </c>
       <c r="F3363" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>94</v>
       </c>
       <c r="G3363" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3363" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3364" spans="1:9" x14ac:dyDescent="0.2">
@@ -78259,11 +78863,15 @@
         <v>2705</v>
       </c>
       <c r="F3364" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>36</v>
       </c>
       <c r="G3364" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3364" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78279,11 +78887,15 @@
         <v>3060</v>
       </c>
       <c r="F3365" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>91</v>
       </c>
       <c r="G3365" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3365" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78299,11 +78911,15 @@
         <v>2042</v>
       </c>
       <c r="F3366" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>46</v>
       </c>
       <c r="G3366" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3366" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78321,12 +78937,16 @@
         <v>1768</v>
       </c>
       <c r="F3367" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>47</v>
       </c>
       <c r="G3367" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>4</v>
+      </c>
+      <c r="H3367" s="2">
+        <f t="shared" si="159"/>
+        <v>22974</v>
       </c>
       <c r="I3367" s="2">
         <v>1840929</v>
@@ -78344,12 +78964,16 @@
         <v>1316</v>
       </c>
       <c r="F3368" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>14</v>
       </c>
       <c r="G3368" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3368" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3369" spans="1:9" x14ac:dyDescent="0.2">
@@ -78364,12 +78988,16 @@
         <v>1842</v>
       </c>
       <c r="F3369" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>20</v>
       </c>
       <c r="G3369" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3369" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3370" spans="1:9" x14ac:dyDescent="0.2">
@@ -78384,11 +79012,15 @@
         <v>1167</v>
       </c>
       <c r="F3370" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>-164</v>
       </c>
       <c r="G3370" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3370" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78404,11 +79036,15 @@
         <v>1082</v>
       </c>
       <c r="F3371" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>15</v>
       </c>
       <c r="G3371" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3371" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78426,12 +79062,16 @@
         <v>1039</v>
       </c>
       <c r="F3372" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>28</v>
       </c>
       <c r="G3372" s="2">
-        <f t="shared" si="158"/>
-        <v>0</v>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3372" s="2">
+        <f t="shared" si="159"/>
+        <v>10786</v>
       </c>
       <c r="I3372" s="2">
         <v>1063155</v>
@@ -78449,12 +79089,16 @@
         <v>1951</v>
       </c>
       <c r="F3373" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>73</v>
       </c>
       <c r="G3373" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>5</v>
+      </c>
+      <c r="H3373" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3374" spans="1:9" x14ac:dyDescent="0.2">
@@ -78469,12 +79113,16 @@
         <v>1152</v>
       </c>
       <c r="F3374" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>31</v>
       </c>
       <c r="G3374" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>6</v>
+      </c>
+      <c r="H3374" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3375" spans="1:9" x14ac:dyDescent="0.2">
@@ -78489,12 +79137,16 @@
         <v>972</v>
       </c>
       <c r="F3375" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>42</v>
       </c>
       <c r="G3375" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3375" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3376" spans="1:9" x14ac:dyDescent="0.2">
@@ -78509,12 +79161,16 @@
         <v>971</v>
       </c>
       <c r="F3376" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>39</v>
       </c>
       <c r="G3376" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3376" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3377" spans="1:9" x14ac:dyDescent="0.2">
@@ -78531,12 +79187,16 @@
         <v>2662</v>
       </c>
       <c r="F3377" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>110</v>
       </c>
       <c r="G3377" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3377" s="2">
+        <f t="shared" si="159"/>
+        <v>30238</v>
       </c>
       <c r="I3377" s="2">
         <v>1559613</v>
@@ -78554,12 +79214,16 @@
         <v>1080</v>
       </c>
       <c r="F3378" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>72</v>
       </c>
       <c r="G3378" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3378" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3379" spans="1:9" x14ac:dyDescent="0.2">
@@ -78574,11 +79238,15 @@
         <v>899</v>
       </c>
       <c r="F3379" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>80</v>
       </c>
       <c r="G3379" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3379" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78594,11 +79262,15 @@
         <v>268</v>
       </c>
       <c r="F3380" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>23</v>
       </c>
       <c r="G3380" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3380" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78614,11 +79286,15 @@
         <v>110</v>
       </c>
       <c r="F3381" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>30</v>
       </c>
       <c r="G3381" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3381" s="2">
+        <f t="shared" si="159"/>
         <v>0</v>
       </c>
     </row>
@@ -78636,12 +79312,16 @@
         <v>1673</v>
       </c>
       <c r="F3382" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>-1</v>
       </c>
       <c r="G3382" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>7</v>
+      </c>
+      <c r="H3382" s="2">
+        <f t="shared" si="159"/>
+        <v>15714</v>
       </c>
       <c r="I3382" s="2">
         <f>SUM(103396+968081)</f>
@@ -78660,12 +79340,16 @@
         <v>839</v>
       </c>
       <c r="F3383" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>60</v>
       </c>
       <c r="G3383" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3383" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3384" spans="1:9" x14ac:dyDescent="0.2">
@@ -78680,12 +79364,16 @@
         <v>720</v>
       </c>
       <c r="F3384" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>41</v>
       </c>
       <c r="G3384" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3384" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3385" spans="1:9" x14ac:dyDescent="0.2">
@@ -78700,12 +79388,16 @@
         <v>334</v>
       </c>
       <c r="F3385" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>15</v>
       </c>
       <c r="G3385" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3385" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3386" spans="1:9" x14ac:dyDescent="0.2">
@@ -78720,12 +79412,16 @@
         <v>362</v>
       </c>
       <c r="F3386" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>24</v>
       </c>
       <c r="G3386" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3386" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3387" spans="1:9" x14ac:dyDescent="0.2">
@@ -78742,12 +79438,16 @@
         <v>4213</v>
       </c>
       <c r="F3387" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>3037</v>
       </c>
       <c r="G3387" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>59</v>
+      </c>
+      <c r="H3387" s="2">
+        <f t="shared" si="159"/>
+        <v>113306</v>
       </c>
       <c r="I3387" s="2">
         <v>6778304</v>
@@ -78765,12 +79465,16 @@
         <v>505</v>
       </c>
       <c r="F3388" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>587</v>
       </c>
       <c r="G3388" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>18</v>
+      </c>
+      <c r="H3388" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3389" spans="1:9" x14ac:dyDescent="0.2">
@@ -78785,12 +79489,16 @@
         <v>617</v>
       </c>
       <c r="F3389" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>862</v>
       </c>
       <c r="G3389" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>28</v>
+      </c>
+      <c r="H3389" s="2">
+        <f t="shared" si="159"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3390" spans="1:9" x14ac:dyDescent="0.2">
@@ -78804,12 +79512,16 @@
         <v>180</v>
       </c>
       <c r="F3390" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>277</v>
       </c>
       <c r="G3390" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2</v>
+      </c>
+      <c r="H3390" s="2">
+        <f t="shared" ref="H3390:H3453" si="161">SUM(I3390-I3360)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3391" spans="1:9" x14ac:dyDescent="0.2">
@@ -78823,12 +79535,16 @@
         <v>521</v>
       </c>
       <c r="F3391" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>691</v>
       </c>
       <c r="G3391" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>8</v>
+      </c>
+      <c r="H3391" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3392" spans="1:9" x14ac:dyDescent="0.2">
@@ -78848,12 +79564,16 @@
         <v>4051</v>
       </c>
       <c r="F3392" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>109</v>
       </c>
       <c r="G3392" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3392" s="2">
+        <f t="shared" si="161"/>
+        <v>69698</v>
       </c>
       <c r="I3392" s="2">
         <v>5368338</v>
@@ -78871,12 +79591,16 @@
         <v>4544</v>
       </c>
       <c r="F3393" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>90</v>
       </c>
       <c r="G3393" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3393" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3394" spans="2:9" x14ac:dyDescent="0.2">
@@ -78891,11 +79615,15 @@
         <v>2705</v>
       </c>
       <c r="F3394" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>51</v>
       </c>
       <c r="G3394" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3394" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -78911,12 +79639,16 @@
         <v>3061</v>
       </c>
       <c r="F3395" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>69</v>
       </c>
       <c r="G3395" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3395" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3396" spans="2:9" x14ac:dyDescent="0.2">
@@ -78931,11 +79663,15 @@
         <v>2042</v>
       </c>
       <c r="F3396" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>94</v>
       </c>
       <c r="G3396" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3396" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -78953,12 +79689,16 @@
         <v>1771</v>
       </c>
       <c r="F3397" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>34</v>
       </c>
       <c r="G3397" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>3</v>
+      </c>
+      <c r="H3397" s="2">
+        <f t="shared" si="161"/>
+        <v>18709</v>
       </c>
       <c r="I3397" s="2">
         <v>1859638</v>
@@ -78976,12 +79716,16 @@
         <v>1319</v>
       </c>
       <c r="F3398" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>8</v>
       </c>
       <c r="G3398" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>3</v>
+      </c>
+      <c r="H3398" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3399" spans="2:9" x14ac:dyDescent="0.2">
@@ -78996,12 +79740,16 @@
         <v>1847</v>
       </c>
       <c r="F3399" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>25</v>
       </c>
       <c r="G3399" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>5</v>
+      </c>
+      <c r="H3399" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3400" spans="2:9" x14ac:dyDescent="0.2">
@@ -79016,12 +79764,16 @@
         <v>1168</v>
       </c>
       <c r="F3400" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>-54</v>
       </c>
       <c r="G3400" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>1</v>
+      </c>
+      <c r="H3400" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3401" spans="2:9" x14ac:dyDescent="0.2">
@@ -79036,11 +79788,15 @@
         <v>1082</v>
       </c>
       <c r="F3401" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>18</v>
       </c>
       <c r="G3401" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3401" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79058,12 +79814,16 @@
         <v>1042</v>
       </c>
       <c r="F3402" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>54</v>
       </c>
       <c r="G3402" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>3</v>
+      </c>
+      <c r="H3402" s="2">
+        <f t="shared" si="161"/>
+        <v>16133</v>
       </c>
       <c r="I3402" s="2">
         <v>1079288</v>
@@ -79081,11 +79841,15 @@
         <v>1951</v>
       </c>
       <c r="F3403" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>39</v>
       </c>
       <c r="G3403" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+      <c r="H3403" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79101,12 +79865,16 @@
         <v>1157</v>
       </c>
       <c r="F3404" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>41</v>
       </c>
       <c r="G3404" s="2">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>5</v>
+      </c>
+      <c r="H3404" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3405" spans="2:9" x14ac:dyDescent="0.2">
@@ -79121,12 +79889,16 @@
         <v>974</v>
       </c>
       <c r="F3405" s="2">
-        <f t="shared" ref="F3405:G3468" si="159">SUM(D3405-D3375)</f>
+        <f t="shared" ref="F3405:G3468" si="162">SUM(D3405-D3375)</f>
         <v>28</v>
       </c>
       <c r="G3405" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3405" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3406" spans="2:9" x14ac:dyDescent="0.2">
@@ -79141,12 +79913,16 @@
         <v>974</v>
       </c>
       <c r="F3406" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>39</v>
       </c>
       <c r="G3406" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>3</v>
+      </c>
+      <c r="H3406" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3407" spans="2:9" x14ac:dyDescent="0.2">
@@ -79163,12 +79939,16 @@
         <v>2666</v>
       </c>
       <c r="F3407" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>118</v>
       </c>
       <c r="G3407" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>4</v>
+      </c>
+      <c r="H3407" s="2">
+        <f t="shared" si="161"/>
+        <v>27111</v>
       </c>
       <c r="I3407" s="2">
         <v>1586724</v>
@@ -79186,12 +79966,16 @@
         <v>1081</v>
       </c>
       <c r="F3408" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>91</v>
       </c>
       <c r="G3408" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3408" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3409" spans="1:9" x14ac:dyDescent="0.2">
@@ -79206,11 +79990,15 @@
         <v>899</v>
       </c>
       <c r="F3409" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>60</v>
       </c>
       <c r="G3409" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3409" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79226,12 +80014,16 @@
         <v>269</v>
       </c>
       <c r="F3410" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>33</v>
       </c>
       <c r="G3410" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3410" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3411" spans="1:9" x14ac:dyDescent="0.2">
@@ -79246,11 +80038,15 @@
         <v>110</v>
       </c>
       <c r="F3411" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>17</v>
       </c>
       <c r="G3411" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3411" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79268,12 +80064,16 @@
         <v>1675</v>
       </c>
       <c r="F3412" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>311</v>
       </c>
       <c r="G3412" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3412" s="2">
+        <f t="shared" si="161"/>
+        <v>14140</v>
       </c>
       <c r="I3412" s="2">
         <f>SUM(104358+981259)</f>
@@ -79292,12 +80092,16 @@
         <v>842</v>
       </c>
       <c r="F3413" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>29</v>
       </c>
       <c r="G3413" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>3</v>
+      </c>
+      <c r="H3413" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3414" spans="1:9" x14ac:dyDescent="0.2">
@@ -79312,11 +80116,15 @@
         <v>720</v>
       </c>
       <c r="F3414" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>46</v>
       </c>
       <c r="G3414" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3414" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79332,11 +80140,15 @@
         <v>334</v>
       </c>
       <c r="F3415" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>9</v>
       </c>
       <c r="G3415" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3415" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79352,11 +80164,15 @@
         <v>362</v>
       </c>
       <c r="F3416" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>30</v>
       </c>
       <c r="G3416" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3416" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79374,12 +80190,16 @@
         <v>4262</v>
       </c>
       <c r="F3417" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1956</v>
       </c>
       <c r="G3417" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>49</v>
+      </c>
+      <c r="H3417" s="2">
+        <f t="shared" si="161"/>
+        <v>137572</v>
       </c>
       <c r="I3417" s="2">
         <v>6915876</v>
@@ -79397,12 +80217,16 @@
         <v>512</v>
       </c>
       <c r="F3418" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>506</v>
       </c>
       <c r="G3418" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>7</v>
+      </c>
+      <c r="H3418" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3419" spans="1:9" x14ac:dyDescent="0.2">
@@ -79417,12 +80241,16 @@
         <v>637</v>
       </c>
       <c r="F3419" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>740</v>
       </c>
       <c r="G3419" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>20</v>
+      </c>
+      <c r="H3419" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3420" spans="1:9" x14ac:dyDescent="0.2">
@@ -79436,12 +80264,16 @@
         <v>181</v>
       </c>
       <c r="F3420" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>192</v>
       </c>
       <c r="G3420" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3420" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3421" spans="1:9" x14ac:dyDescent="0.2">
@@ -79455,12 +80287,16 @@
         <v>543</v>
       </c>
       <c r="F3421" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>816</v>
       </c>
       <c r="G3421" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>22</v>
+      </c>
+      <c r="H3421" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3422" spans="1:9" x14ac:dyDescent="0.2">
@@ -79480,12 +80316,16 @@
         <v>4053</v>
       </c>
       <c r="F3422" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>84</v>
       </c>
       <c r="G3422" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3422" s="2">
+        <f t="shared" si="161"/>
+        <v>76507</v>
       </c>
       <c r="I3422" s="2">
         <v>5444845</v>
@@ -79503,11 +80343,15 @@
         <v>4544</v>
       </c>
       <c r="F3423" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>72</v>
       </c>
       <c r="G3423" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3423" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79523,11 +80367,15 @@
         <v>2705</v>
       </c>
       <c r="F3424" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>44</v>
       </c>
       <c r="G3424" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3424" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79543,12 +80391,16 @@
         <v>3062</v>
       </c>
       <c r="F3425" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>114</v>
       </c>
       <c r="G3425" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3425" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3426" spans="2:9" x14ac:dyDescent="0.2">
@@ -79563,11 +80415,15 @@
         <v>2042</v>
       </c>
       <c r="F3426" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>58</v>
       </c>
       <c r="G3426" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3426" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79585,12 +80441,16 @@
         <v>1778</v>
       </c>
       <c r="F3427" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>29</v>
       </c>
       <c r="G3427" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>7</v>
+      </c>
+      <c r="H3427" s="2">
+        <f t="shared" si="161"/>
+        <v>28006</v>
       </c>
       <c r="I3427" s="2">
         <v>1887644</v>
@@ -79608,12 +80468,16 @@
         <v>1320</v>
       </c>
       <c r="F3428" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>24</v>
       </c>
       <c r="G3428" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3428" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3429" spans="2:9" x14ac:dyDescent="0.2">
@@ -79628,12 +80492,16 @@
         <v>1851</v>
       </c>
       <c r="F3429" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>30</v>
       </c>
       <c r="G3429" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>4</v>
+      </c>
+      <c r="H3429" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3430" spans="2:9" x14ac:dyDescent="0.2">
@@ -79648,12 +80516,16 @@
         <v>1170</v>
       </c>
       <c r="F3430" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>24</v>
       </c>
       <c r="G3430" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3430" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3431" spans="2:9" x14ac:dyDescent="0.2">
@@ -79668,12 +80540,16 @@
         <v>1085</v>
       </c>
       <c r="F3431" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>23</v>
       </c>
       <c r="G3431" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>3</v>
+      </c>
+      <c r="H3431" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3432" spans="2:9" x14ac:dyDescent="0.2">
@@ -79690,12 +80566,16 @@
         <v>1044</v>
       </c>
       <c r="F3432" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>61</v>
       </c>
       <c r="G3432" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3432" s="2">
+        <f t="shared" si="161"/>
+        <v>13104</v>
       </c>
       <c r="I3432" s="2">
         <v>1092392</v>
@@ -79713,12 +80593,16 @@
         <v>1954</v>
       </c>
       <c r="F3433" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>67</v>
       </c>
       <c r="G3433" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>3</v>
+      </c>
+      <c r="H3433" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3434" spans="2:9" x14ac:dyDescent="0.2">
@@ -79733,12 +80617,16 @@
         <v>1159</v>
       </c>
       <c r="F3434" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>27</v>
       </c>
       <c r="G3434" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3434" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3435" spans="2:9" x14ac:dyDescent="0.2">
@@ -79753,12 +80641,16 @@
         <v>975</v>
       </c>
       <c r="F3435" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>46</v>
       </c>
       <c r="G3435" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3435" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3436" spans="2:9" x14ac:dyDescent="0.2">
@@ -79773,12 +80665,16 @@
         <v>977</v>
       </c>
       <c r="F3436" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>47</v>
       </c>
       <c r="G3436" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>3</v>
+      </c>
+      <c r="H3436" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3437" spans="2:9" x14ac:dyDescent="0.2">
@@ -79795,12 +80691,16 @@
         <v>2666</v>
       </c>
       <c r="F3437" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>110</v>
       </c>
       <c r="G3437" s="2">
-        <f t="shared" si="159"/>
-        <v>0</v>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3437" s="2">
+        <f t="shared" si="161"/>
+        <v>27922</v>
       </c>
       <c r="I3437" s="2">
         <v>1614646</v>
@@ -79818,12 +80718,16 @@
         <v>1083</v>
       </c>
       <c r="F3438" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>66</v>
       </c>
       <c r="G3438" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3438" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3439" spans="2:9" x14ac:dyDescent="0.2">
@@ -79838,11 +80742,15 @@
         <v>899</v>
       </c>
       <c r="F3439" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>102</v>
       </c>
       <c r="G3439" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3439" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79858,11 +80766,15 @@
         <v>269</v>
       </c>
       <c r="F3440" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>25</v>
       </c>
       <c r="G3440" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3440" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79878,11 +80790,15 @@
         <v>110</v>
       </c>
       <c r="F3441" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>8</v>
       </c>
       <c r="G3441" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3441" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79900,12 +80816,16 @@
         <v>1676</v>
       </c>
       <c r="F3442" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>227</v>
       </c>
       <c r="G3442" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3442" s="2">
+        <f t="shared" si="161"/>
+        <v>19331</v>
       </c>
       <c r="I3442" s="2">
         <f>SUM(105571+999377)</f>
@@ -79924,12 +80844,16 @@
         <v>844</v>
       </c>
       <c r="F3443" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>74</v>
       </c>
       <c r="G3443" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3443" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3444" spans="1:9" x14ac:dyDescent="0.2">
@@ -79944,11 +80868,15 @@
         <v>720</v>
       </c>
       <c r="F3444" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>91</v>
       </c>
       <c r="G3444" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3444" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79964,11 +80892,15 @@
         <v>334</v>
       </c>
       <c r="F3445" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>15</v>
       </c>
       <c r="G3445" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3445" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -79984,11 +80916,15 @@
         <v>362</v>
       </c>
       <c r="F3446" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>58</v>
       </c>
       <c r="G3446" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3446" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -80006,12 +80942,16 @@
         <v>4300</v>
       </c>
       <c r="F3447" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1880</v>
       </c>
       <c r="G3447" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>38</v>
+      </c>
+      <c r="H3447" s="2">
+        <f t="shared" si="161"/>
+        <v>131479</v>
       </c>
       <c r="I3447" s="2">
         <v>7047355</v>
@@ -80029,12 +80969,16 @@
         <v>524</v>
       </c>
       <c r="F3448" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>485</v>
       </c>
       <c r="G3448" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>12</v>
+      </c>
+      <c r="H3448" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3449" spans="1:9" x14ac:dyDescent="0.2">
@@ -80049,11 +80993,15 @@
         <v>637</v>
       </c>
       <c r="F3449" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>680</v>
       </c>
       <c r="G3449" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3449" s="2">
+        <f t="shared" si="161"/>
         <v>0</v>
       </c>
     </row>
@@ -80068,12 +81016,16 @@
         <v>183</v>
       </c>
       <c r="F3450" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>200</v>
       </c>
       <c r="G3450" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3450" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3451" spans="1:9" x14ac:dyDescent="0.2">
@@ -80087,12 +81039,16 @@
         <v>556</v>
       </c>
       <c r="F3451" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>667</v>
       </c>
       <c r="G3451" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>13</v>
+      </c>
+      <c r="H3451" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3452" spans="1:9" x14ac:dyDescent="0.2">
@@ -80112,12 +81068,16 @@
         <v>4055</v>
       </c>
       <c r="F3452" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>74</v>
       </c>
       <c r="G3452" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3452" s="2">
+        <f t="shared" si="161"/>
+        <v>71466</v>
       </c>
       <c r="I3452" s="2">
         <v>5516311</v>
@@ -80135,12 +81095,16 @@
         <v>4546</v>
       </c>
       <c r="F3453" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>102</v>
       </c>
       <c r="G3453" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3453" s="2">
+        <f t="shared" si="161"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3454" spans="1:9" x14ac:dyDescent="0.2">
@@ -80155,11 +81119,15 @@
         <v>2705</v>
       </c>
       <c r="F3454" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>55</v>
       </c>
       <c r="G3454" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3454" s="2">
+        <f t="shared" ref="H3454:H3481" si="163">SUM(I3454-I3424)</f>
         <v>0</v>
       </c>
     </row>
@@ -80175,12 +81143,16 @@
         <v>3063</v>
       </c>
       <c r="F3455" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>80</v>
       </c>
       <c r="G3455" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3455" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3456" spans="1:9" x14ac:dyDescent="0.2">
@@ -80195,12 +81167,16 @@
         <v>2043</v>
       </c>
       <c r="F3456" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>49</v>
       </c>
       <c r="G3456" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3456" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3457" spans="2:9" x14ac:dyDescent="0.2">
@@ -80217,12 +81193,16 @@
         <v>1781</v>
       </c>
       <c r="F3457" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>30</v>
       </c>
       <c r="G3457" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>3</v>
+      </c>
+      <c r="H3457" s="2">
+        <f t="shared" si="163"/>
+        <v>-1887644</v>
       </c>
     </row>
     <row r="3458" spans="2:9" x14ac:dyDescent="0.2">
@@ -80237,12 +81217,16 @@
         <v>1323</v>
       </c>
       <c r="F3458" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>16</v>
       </c>
       <c r="G3458" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>3</v>
+      </c>
+      <c r="H3458" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3459" spans="2:9" x14ac:dyDescent="0.2">
@@ -80257,12 +81241,16 @@
         <v>1854</v>
       </c>
       <c r="F3459" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>35</v>
       </c>
       <c r="G3459" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>3</v>
+      </c>
+      <c r="H3459" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3460" spans="2:9" x14ac:dyDescent="0.2">
@@ -80277,11 +81265,15 @@
         <v>1170</v>
       </c>
       <c r="F3460" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>14</v>
       </c>
       <c r="G3460" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3460" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
     </row>
@@ -80297,11 +81289,15 @@
         <v>1085</v>
       </c>
       <c r="F3461" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>37</v>
       </c>
       <c r="G3461" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
+        <v>0</v>
+      </c>
+      <c r="H3461" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
     </row>
@@ -80319,12 +81315,16 @@
         <v>1046</v>
       </c>
       <c r="F3462" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>34</v>
       </c>
       <c r="G3462" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3462" s="2">
+        <f t="shared" si="163"/>
+        <v>11330</v>
       </c>
       <c r="I3462" s="2">
         <v>1103722</v>
@@ -80342,12 +81342,16 @@
         <v>1955</v>
       </c>
       <c r="F3463" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>60</v>
       </c>
       <c r="G3463" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3463" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3464" spans="2:9" x14ac:dyDescent="0.2">
@@ -80362,12 +81366,16 @@
         <v>1162</v>
       </c>
       <c r="F3464" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>32</v>
       </c>
       <c r="G3464" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>3</v>
+      </c>
+      <c r="H3464" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3465" spans="2:9" x14ac:dyDescent="0.2">
@@ -80382,12 +81390,16 @@
         <v>976</v>
       </c>
       <c r="F3465" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>39</v>
       </c>
       <c r="G3465" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3465" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3466" spans="2:9" x14ac:dyDescent="0.2">
@@ -80402,12 +81414,16 @@
         <v>978</v>
       </c>
       <c r="F3466" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>40</v>
       </c>
       <c r="G3466" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>1</v>
+      </c>
+      <c r="H3466" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3467" spans="2:9" x14ac:dyDescent="0.2">
@@ -80424,12 +81440,16 @@
         <v>2657</v>
       </c>
       <c r="F3467" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>65</v>
       </c>
       <c r="G3467" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>-9</v>
+      </c>
+      <c r="H3467" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
       <c r="I3467" s="2">
         <v>1614646</v>
@@ -80447,12 +81467,16 @@
         <v>1085</v>
       </c>
       <c r="F3468" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>40</v>
       </c>
       <c r="G3468" s="2">
-        <f t="shared" si="159"/>
+        <f t="shared" si="162"/>
         <v>2</v>
+      </c>
+      <c r="H3468" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
     <row r="3469" spans="2:9" x14ac:dyDescent="0.2">
@@ -80467,11 +81491,15 @@
         <v>899</v>
       </c>
       <c r="F3469" s="2">
-        <f t="shared" ref="F3469:G3481" si="160">SUM(D3469-D3439)</f>
+        <f t="shared" ref="F3469:G3481" si="164">SUM(D3469-D3439)</f>
         <v>25</v>
       </c>
       <c r="G3469" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="H3469" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
     </row>
@@ -80487,11 +81515,15 @@
         <v>269</v>
       </c>
       <c r="F3470" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>15</v>
       </c>
       <c r="G3470" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="H3470" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
     </row>
@@ -80507,11 +81539,15 @@
         <v>110</v>
       </c>
       <c r="F3471" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>82</v>
       </c>
       <c r="G3471" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="H3471" s="2">
+        <f t="shared" si="163"/>
         <v>0</v>
       </c>
     </row>
@@ -80529,19 +81565,23 @@
         <v>1676</v>
       </c>
       <c r="F3472" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>177</v>
       </c>
       <c r="G3472" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="H3472" s="2">
+        <f t="shared" si="163"/>
+        <v>18382</v>
       </c>
       <c r="I3472" s="2">
         <f>SUM(106625+1016705)</f>
         <v>1123330</v>
       </c>
     </row>
-    <row r="3473" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3473" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3473" s="3"/>
       <c r="C3473" s="3" t="s">
         <v>18</v>
@@ -80553,15 +81593,19 @@
         <v>844</v>
       </c>
       <c r="F3473" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>59</v>
       </c>
       <c r="G3473" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3474" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="H3473" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3474" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3474" s="3"/>
       <c r="C3474" s="3" t="s">
         <v>19</v>
@@ -80573,15 +81617,19 @@
         <v>720</v>
       </c>
       <c r="F3474" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>110</v>
       </c>
       <c r="G3474" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3475" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="H3474" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3475" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3475" s="3"/>
       <c r="C3475" s="3" t="s">
         <v>40</v>
@@ -80593,15 +81641,19 @@
         <v>334</v>
       </c>
       <c r="F3475" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>43</v>
       </c>
       <c r="G3475" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3476" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="H3475" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3476" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3476" s="3"/>
       <c r="C3476" s="3" t="s">
         <v>41</v>
@@ -80613,15 +81665,19 @@
         <v>362</v>
       </c>
       <c r="F3476" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>31</v>
       </c>
       <c r="G3476" s="2">
-        <f t="shared" si="160"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3477" spans="2:7" x14ac:dyDescent="0.2">
+        <f t="shared" si="164"/>
+        <v>0</v>
+      </c>
+      <c r="H3476" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3477" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3477" s="3" t="s">
         <v>20</v>
       </c>
@@ -80629,66 +81685,86 @@
         <v>22</v>
       </c>
       <c r="F3477" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-169078</v>
       </c>
       <c r="G3477" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-4300</v>
       </c>
-    </row>
-    <row r="3478" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H3477" s="2">
+        <f t="shared" si="163"/>
+        <v>-7047355</v>
+      </c>
+    </row>
+    <row r="3478" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3478" s="3"/>
       <c r="C3478" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F3478" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-26100</v>
       </c>
       <c r="G3478" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-524</v>
       </c>
-    </row>
-    <row r="3479" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H3478" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3479" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3479" s="3"/>
       <c r="C3479" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F3479" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-34513</v>
       </c>
       <c r="G3479" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-637</v>
       </c>
-    </row>
-    <row r="3480" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H3479" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3480" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3480" s="3" t="s">
         <v>42</v>
       </c>
       <c r="F3480" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-8658</v>
       </c>
       <c r="G3480" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-183</v>
       </c>
-    </row>
-    <row r="3481" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="H3480" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3481" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C3481" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F3481" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-33530</v>
       </c>
       <c r="G3481" s="2">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>-556</v>
+      </c>
+      <c r="H3481" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
